--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3241</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3216"/>
+  <dimension ref="A1:F3241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64305,13 +64305,13 @@
     </row>
     <row r="3197">
       <c r="A3197" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_312_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3197" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_312_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3197">
-        <v>14207</v>
+        <v>52794</v>
       </c>
       <c r="D3197" t="str">
         <v/>
@@ -64320,18 +64320,18 @@
         <v>1</v>
       </c>
       <c r="F3197" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>514e56569475b4874874a39ba525c52f94f8b829b9ad2e41cadee4814a5cfd95</v>
       </c>
     </row>
     <row r="3198">
       <c r="A3198" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_312_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3198" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_312_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3198">
-        <v>14239</v>
+        <v>52944</v>
       </c>
       <c r="D3198" t="str">
         <v/>
@@ -64340,18 +64340,18 @@
         <v>1</v>
       </c>
       <c r="F3198" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>2cafdf79aa964bc92d0f39d101970daa5e48913b59f9d9fcc618540d8ada341b</v>
       </c>
     </row>
     <row r="3199">
       <c r="A3199" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_312_001_dialog_english.dialog</v>
       </c>
       <c r="B3199" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_312_001_dialog_english.dialog</v>
       </c>
       <c r="C3199">
-        <v>11494</v>
+        <v>43146</v>
       </c>
       <c r="D3199" t="str">
         <v/>
@@ -64360,18 +64360,18 @@
         <v>1</v>
       </c>
       <c r="F3199" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>cb82a9b940f770ba95fcfd79753cbbcf763765ee60004c73fbb7fd281a11e4e4</v>
       </c>
     </row>
     <row r="3200">
       <c r="A3200" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_312_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3200" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_312_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3200">
-        <v>15458</v>
+        <v>60344</v>
       </c>
       <c r="D3200" t="str">
         <v/>
@@ -64380,18 +64380,18 @@
         <v>1</v>
       </c>
       <c r="F3200" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>3674fa5ab17daa876a1089cefc4989eb14372916407943adb970423f3060301b</v>
       </c>
     </row>
     <row r="3201">
       <c r="A3201" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_312_001_dialog_korean.dialog</v>
       </c>
       <c r="B3201" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_312_001_dialog_korean.dialog</v>
       </c>
       <c r="C3201">
-        <v>14831</v>
+        <v>56748</v>
       </c>
       <c r="D3201" t="str">
         <v/>
@@ -64400,18 +64400,18 @@
         <v>1</v>
       </c>
       <c r="F3201" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>50ac8cde83bf660164684b4f3468569517d1cb0b882b58e52377e125f63c8568</v>
       </c>
     </row>
     <row r="3202">
       <c r="A3202" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_312_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3202" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_312_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3202">
-        <v>24991</v>
+        <v>32426</v>
       </c>
       <c r="D3202" t="str">
         <v/>
@@ -64420,18 +64420,18 @@
         <v>1</v>
       </c>
       <c r="F3202" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>854eb182dbc10af0679bf30d4ad2ffa58dff2d0206b2c51f06dfa31b8152a013</v>
       </c>
     </row>
     <row r="3203">
       <c r="A3203" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_312_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3203" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_312_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3203">
-        <v>25051</v>
+        <v>32512</v>
       </c>
       <c r="D3203" t="str">
         <v/>
@@ -64440,18 +64440,18 @@
         <v>1</v>
       </c>
       <c r="F3203" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>e006f6a909af9b9bf9148c2dbba40abfb20353794c22de9334dcfb75642c19be</v>
       </c>
     </row>
     <row r="3204">
       <c r="A3204" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_312_002_dialog_english.dialog</v>
       </c>
       <c r="B3204" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_312_002_dialog_english.dialog</v>
       </c>
       <c r="C3204">
-        <v>20539</v>
+        <v>25945</v>
       </c>
       <c r="D3204" t="str">
         <v/>
@@ -64460,18 +64460,18 @@
         <v>1</v>
       </c>
       <c r="F3204" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>7c2f2dc71515dce782b903797fbdc8dbddd703beeffeb72677f31ebe6dbeb420</v>
       </c>
     </row>
     <row r="3205">
       <c r="A3205" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_312_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3205" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_312_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3205">
-        <v>28605</v>
+        <v>37633</v>
       </c>
       <c r="D3205" t="str">
         <v/>
@@ -64480,18 +64480,18 @@
         <v>1</v>
       </c>
       <c r="F3205" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>fdbbe81fe3df8f257e540420cc7891566bb23837a5e2358ffaf05af8b22ddfd0</v>
       </c>
     </row>
     <row r="3206">
       <c r="A3206" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_312_002_dialog_korean.dialog</v>
       </c>
       <c r="B3206" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_312_002_dialog_korean.dialog</v>
       </c>
       <c r="C3206">
-        <v>26803</v>
+        <v>35974</v>
       </c>
       <c r="D3206" t="str">
         <v/>
@@ -64500,18 +64500,18 @@
         <v>1</v>
       </c>
       <c r="F3206" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>9725706f0dcb3efadc02b9ac4fb542ca8b659626d8d86734921c7d6285f988a2</v>
       </c>
     </row>
     <row r="3207">
       <c r="A3207" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_312_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3207" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_312_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3207">
-        <v>38436</v>
+        <v>73006</v>
       </c>
       <c r="D3207" t="str">
         <v/>
@@ -64520,18 +64520,18 @@
         <v>1</v>
       </c>
       <c r="F3207" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>ff4f18ffcdfa1d7e8de06506cb92c8a8ffe6dc5982c7df8b577a9cf186f50749</v>
       </c>
     </row>
     <row r="3208">
       <c r="A3208" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_312_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3208" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_312_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3208">
-        <v>38520</v>
+        <v>73194</v>
       </c>
       <c r="D3208" t="str">
         <v/>
@@ -64540,18 +64540,18 @@
         <v>1</v>
       </c>
       <c r="F3208" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>f80d23c9ac3440a87d3a41c5df3946ce41fde7039503fadc284110f503590716</v>
       </c>
     </row>
     <row r="3209">
       <c r="A3209" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_312_003_dialog_english.dialog</v>
       </c>
       <c r="B3209" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_312_003_dialog_english.dialog</v>
       </c>
       <c r="C3209">
-        <v>31090</v>
+        <v>60135</v>
       </c>
       <c r="D3209" t="str">
         <v/>
@@ -64560,18 +64560,18 @@
         <v>1</v>
       </c>
       <c r="F3209" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>53e869b8b3f3a063b83afe4eadc31d19c0df444c1acc0d522475ac5a8b804de7</v>
       </c>
     </row>
     <row r="3210">
       <c r="A3210" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_312_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3210" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_312_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3210">
-        <v>42076</v>
+        <v>82722</v>
       </c>
       <c r="D3210" t="str">
         <v/>
@@ -64580,18 +64580,18 @@
         <v>1</v>
       </c>
       <c r="F3210" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>ed2acff4ea9cf42fc52e42c3963e60b548c9a814f5663a42fe05abfb0a067d8e</v>
       </c>
     </row>
     <row r="3211">
       <c r="A3211" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_312_003_dialog_korean.dialog</v>
       </c>
       <c r="B3211" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_312_003_dialog_korean.dialog</v>
       </c>
       <c r="C3211">
-        <v>41121</v>
+        <v>78666</v>
       </c>
       <c r="D3211" t="str">
         <v/>
@@ -64600,18 +64600,18 @@
         <v>1</v>
       </c>
       <c r="F3211" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>b8ff2d4f8cd4274df0b822fea52ed0955b96ddb2473c0ab4c50f6cdf173fde46</v>
       </c>
     </row>
     <row r="3212">
       <c r="A3212" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_312_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3212" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_312_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3212">
-        <v>4729</v>
+        <v>90371</v>
       </c>
       <c r="D3212" t="str">
         <v/>
@@ -64620,18 +64620,18 @@
         <v>1</v>
       </c>
       <c r="F3212" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>263bf610c7aa74bbea1e91ac660c99182172510ea223599b6bc037a5d8771ac2</v>
       </c>
     </row>
     <row r="3213">
       <c r="A3213" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_312_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3213" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_312_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3213">
-        <v>4735</v>
+        <v>90613</v>
       </c>
       <c r="D3213" t="str">
         <v/>
@@ -64640,18 +64640,18 @@
         <v>1</v>
       </c>
       <c r="F3213" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>6bda9a86212f23664dad5abe0977f5a6be5a48979ec1270f9e007906e6b10a12</v>
       </c>
     </row>
     <row r="3214">
       <c r="A3214" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_312_004_dialog_english.dialog</v>
       </c>
       <c r="B3214" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_312_004_dialog_english.dialog</v>
       </c>
       <c r="C3214">
-        <v>3676</v>
+        <v>70752</v>
       </c>
       <c r="D3214" t="str">
         <v/>
@@ -64660,18 +64660,18 @@
         <v>1</v>
       </c>
       <c r="F3214" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>ca47d584d4eee5bf6147c324f39c4d8859c38cbfa8e4f326826476a4cf2eea67</v>
       </c>
     </row>
     <row r="3215">
       <c r="A3215" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_312_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3215" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_312_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3215">
-        <v>4777</v>
+        <v>108525</v>
       </c>
       <c r="D3215" t="str">
         <v/>
@@ -64680,33 +64680,533 @@
         <v>1</v>
       </c>
       <c r="F3215" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>f7acc03f45229605e3a741d1472f5bbc888990ac285e283f784a6a0491fe6ed7</v>
       </c>
     </row>
     <row r="3216">
       <c r="A3216" t="str">
+        <v>main_312_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3216" t="str">
+        <v>main_312_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3216">
+        <v>103001</v>
+      </c>
+      <c r="D3216" t="str">
+        <v/>
+      </c>
+      <c r="E3216">
+        <v>1</v>
+      </c>
+      <c r="F3216" t="str">
+        <v>c41a7db4103203598a94e671b7a15a310fc73962101549cc160cc2e8b40cb4de</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="str">
+        <v>main_312_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3217" t="str">
+        <v>main_312_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3217">
+        <v>40795</v>
+      </c>
+      <c r="D3217" t="str">
+        <v/>
+      </c>
+      <c r="E3217">
+        <v>1</v>
+      </c>
+      <c r="F3217" t="str">
+        <v>e2c9c0ec57ded4539fa989cb4b10d8524fc6f8471a166bdd6aefea40e9031725</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="str">
+        <v>main_312_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3218" t="str">
+        <v>main_312_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3218">
+        <v>40907</v>
+      </c>
+      <c r="D3218" t="str">
+        <v/>
+      </c>
+      <c r="E3218">
+        <v>1</v>
+      </c>
+      <c r="F3218" t="str">
+        <v>39e59a2cf58f75feb19a377df79b795caf7d0131102dcc0469914f8b2a8252d1</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="str">
+        <v>main_312_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3219" t="str">
+        <v>main_312_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3219">
+        <v>33009</v>
+      </c>
+      <c r="D3219" t="str">
+        <v/>
+      </c>
+      <c r="E3219">
+        <v>1</v>
+      </c>
+      <c r="F3219" t="str">
+        <v>39e7d12a91b7721ce9bdec320096c9b58d5b7d926437874139456b52338c7f0a</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="str">
+        <v>main_312_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3220" t="str">
+        <v>main_312_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3220">
+        <v>47170</v>
+      </c>
+      <c r="D3220" t="str">
+        <v/>
+      </c>
+      <c r="E3220">
+        <v>1</v>
+      </c>
+      <c r="F3220" t="str">
+        <v>79126426f929cc4c0bf85cf122bba6e06a58555b7073455e397d3a4ee4d3528b</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="str">
+        <v>main_312_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3221" t="str">
+        <v>main_312_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3221">
+        <v>45366</v>
+      </c>
+      <c r="D3221" t="str">
+        <v/>
+      </c>
+      <c r="E3221">
+        <v>1</v>
+      </c>
+      <c r="F3221" t="str">
+        <v>45bff6a5eb7d3ce407998376badfc6052898c98364c7821be396af79bf282d7c</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3222" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3222">
+        <v>14207</v>
+      </c>
+      <c r="D3222" t="str">
+        <v/>
+      </c>
+      <c r="E3222">
+        <v>1</v>
+      </c>
+      <c r="F3222" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3223" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3223">
+        <v>14239</v>
+      </c>
+      <c r="D3223" t="str">
+        <v/>
+      </c>
+      <c r="E3223">
+        <v>1</v>
+      </c>
+      <c r="F3223" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3224" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3224">
+        <v>11494</v>
+      </c>
+      <c r="D3224" t="str">
+        <v/>
+      </c>
+      <c r="E3224">
+        <v>1</v>
+      </c>
+      <c r="F3224" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3225" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3225">
+        <v>15458</v>
+      </c>
+      <c r="D3225" t="str">
+        <v/>
+      </c>
+      <c r="E3225">
+        <v>1</v>
+      </c>
+      <c r="F3225" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3226" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3226">
+        <v>14831</v>
+      </c>
+      <c r="D3226" t="str">
+        <v/>
+      </c>
+      <c r="E3226">
+        <v>1</v>
+      </c>
+      <c r="F3226" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3227" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3227">
+        <v>24991</v>
+      </c>
+      <c r="D3227" t="str">
+        <v/>
+      </c>
+      <c r="E3227">
+        <v>1</v>
+      </c>
+      <c r="F3227" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3228" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3228">
+        <v>25051</v>
+      </c>
+      <c r="D3228" t="str">
+        <v/>
+      </c>
+      <c r="E3228">
+        <v>1</v>
+      </c>
+      <c r="F3228" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3229" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3229">
+        <v>20539</v>
+      </c>
+      <c r="D3229" t="str">
+        <v/>
+      </c>
+      <c r="E3229">
+        <v>1</v>
+      </c>
+      <c r="F3229" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3230" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3230">
+        <v>28605</v>
+      </c>
+      <c r="D3230" t="str">
+        <v/>
+      </c>
+      <c r="E3230">
+        <v>1</v>
+      </c>
+      <c r="F3230" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3231" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3231">
+        <v>26803</v>
+      </c>
+      <c r="D3231" t="str">
+        <v/>
+      </c>
+      <c r="E3231">
+        <v>1</v>
+      </c>
+      <c r="F3231" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3232" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3232">
+        <v>38436</v>
+      </c>
+      <c r="D3232" t="str">
+        <v/>
+      </c>
+      <c r="E3232">
+        <v>1</v>
+      </c>
+      <c r="F3232" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3233" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3233">
+        <v>38520</v>
+      </c>
+      <c r="D3233" t="str">
+        <v/>
+      </c>
+      <c r="E3233">
+        <v>1</v>
+      </c>
+      <c r="F3233" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3234" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3234">
+        <v>31090</v>
+      </c>
+      <c r="D3234" t="str">
+        <v/>
+      </c>
+      <c r="E3234">
+        <v>1</v>
+      </c>
+      <c r="F3234" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3235" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3235">
+        <v>42076</v>
+      </c>
+      <c r="D3235" t="str">
+        <v/>
+      </c>
+      <c r="E3235">
+        <v>1</v>
+      </c>
+      <c r="F3235" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3236" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3236">
+        <v>41121</v>
+      </c>
+      <c r="D3236" t="str">
+        <v/>
+      </c>
+      <c r="E3236">
+        <v>1</v>
+      </c>
+      <c r="F3236" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3237" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3237">
+        <v>4729</v>
+      </c>
+      <c r="D3237" t="str">
+        <v/>
+      </c>
+      <c r="E3237">
+        <v>1</v>
+      </c>
+      <c r="F3237" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3238" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3238">
+        <v>4735</v>
+      </c>
+      <c r="D3238" t="str">
+        <v/>
+      </c>
+      <c r="E3238">
+        <v>1</v>
+      </c>
+      <c r="F3238" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3239" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3239">
+        <v>3676</v>
+      </c>
+      <c r="D3239" t="str">
+        <v/>
+      </c>
+      <c r="E3239">
+        <v>1</v>
+      </c>
+      <c r="F3239" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3240" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3240">
+        <v>4777</v>
+      </c>
+      <c r="D3240" t="str">
+        <v/>
+      </c>
+      <c r="E3240">
+        <v>1</v>
+      </c>
+      <c r="F3240" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3216" t="str">
+      <c r="B3241" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3216">
+      <c r="C3241">
         <v>4424</v>
       </c>
-      <c r="D3216" t="str">
-        <v/>
-      </c>
-      <c r="E3216">
-        <v>1</v>
-      </c>
-      <c r="F3216" t="str">
+      <c r="D3241" t="str">
+        <v/>
+      </c>
+      <c r="E3241">
+        <v>1</v>
+      </c>
+      <c r="F3241" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3216"/>
+  <autoFilter ref="A1:F3241"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3216"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3241"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -8251,7 +8251,7 @@
         <v>char_h0022_001_dialog_english.dialog</v>
       </c>
       <c r="C394">
-        <v>6165</v>
+        <v>6155</v>
       </c>
       <c r="D394" t="str">
         <v/>
@@ -8260,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="F394" t="str">
-        <v>050d5d1d7b7c75baa69544158a4e4a2535fa84778eef56e58fe84c40e5b269dc</v>
+        <v>4c16f99442ac75bed474ddc854e6ebd0a61500c93ecc1f58490976cb701360ef</v>
       </c>
     </row>
     <row r="395">
@@ -8351,7 +8351,7 @@
         <v>char_h0022_002_dialog_english.dialog</v>
       </c>
       <c r="C399">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="D399" t="str">
         <v/>
@@ -8360,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="F399" t="str">
-        <v>ebe9e4b9f7a9b7283c790c1a7ff979133f588816421faaaf4ccac259750ea417</v>
+        <v>9a16b8b112d89c0a6cbc3069180bfb915927161d92195a0bde8f00b9d4da17a4</v>
       </c>
     </row>
     <row r="400">
@@ -8451,7 +8451,7 @@
         <v>char_h0022_003_dialog_english.dialog</v>
       </c>
       <c r="C404">
-        <v>12628</v>
+        <v>12580</v>
       </c>
       <c r="D404" t="str">
         <v/>
@@ -8460,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="F404" t="str">
-        <v>6dce985025be03b2f8cc7f8fd014050dc12dc0f81735e7f4aee637453e94cee5</v>
+        <v>09868a876d53c199db3ef14fc976da5b164681469c04e038b298f0f07d41df82</v>
       </c>
     </row>
     <row r="405">
@@ -8551,7 +8551,7 @@
         <v>char_h0022_004_dialog_english.dialog</v>
       </c>
       <c r="C409">
-        <v>12261</v>
+        <v>12188</v>
       </c>
       <c r="D409" t="str">
         <v/>
@@ -8560,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="F409" t="str">
-        <v>f71ecc8e414bdf2ad2d86e7b08310c5e38a93a9cd8ea0064a1405939ae1ad947</v>
+        <v>648ea1dc919ef25a93efc55dcb4b74b50c3789b6143e611114b204ebf8992aee</v>
       </c>
     </row>
     <row r="410">
@@ -8651,7 +8651,7 @@
         <v>char_h0022_005_dialog_english.dialog</v>
       </c>
       <c r="C414">
-        <v>15659</v>
+        <v>15651</v>
       </c>
       <c r="D414" t="str">
         <v/>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="F414" t="str">
-        <v>852f7ee6f10c8880feffa15402e00f0a92cce2c6ffb387c00482cf1293c1633d</v>
+        <v>c4cbd3f8f8df5479fe2236bf23203deb63bda9a4c9660e5bf86f408a06fe6496</v>
       </c>
     </row>
     <row r="415">
@@ -22311,7 +22311,7 @@
         <v>char_h0179_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1097">
-        <v>33104</v>
+        <v>33099</v>
       </c>
       <c r="D1097" t="str">
         <v/>
@@ -22320,7 +22320,7 @@
         <v>1</v>
       </c>
       <c r="F1097" t="str">
-        <v>8032bb1d253f72df14f9d7c8e967652d325d84701ffd3f1656c8e895027a2bd8</v>
+        <v>abd85c2f52ab901ce7d86a03199befddc3539d89f71f4f7b761fa1449e3bf8c5</v>
       </c>
     </row>
     <row r="1098">
@@ -31905,13 +31905,13 @@
     </row>
     <row r="1577">
       <c r="A1577" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1577" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1577">
-        <v>13697</v>
+        <v>4028</v>
       </c>
       <c r="D1577" t="str">
         <v/>
@@ -31920,18 +31920,18 @@
         <v>1</v>
       </c>
       <c r="F1577" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1578" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1578">
-        <v>13761</v>
+        <v>4038</v>
       </c>
       <c r="D1578" t="str">
         <v/>
@@ -31940,18 +31940,18 @@
         <v>1</v>
       </c>
       <c r="F1578" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1579" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1579">
-        <v>12502</v>
+        <v>3444</v>
       </c>
       <c r="D1579" t="str">
         <v/>
@@ -31960,18 +31960,18 @@
         <v>1</v>
       </c>
       <c r="F1579" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1580" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1580">
-        <v>13827</v>
+        <v>4365</v>
       </c>
       <c r="D1580" t="str">
         <v/>
@@ -31980,18 +31980,18 @@
         <v>1</v>
       </c>
       <c r="F1580" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1581" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1581">
-        <v>13301</v>
+        <v>4062</v>
       </c>
       <c r="D1581" t="str">
         <v/>
@@ -32000,18 +32000,18 @@
         <v>1</v>
       </c>
       <c r="F1581" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1582" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1582">
-        <v>4028</v>
+        <v>1838</v>
       </c>
       <c r="D1582" t="str">
         <v/>
@@ -32020,18 +32020,18 @@
         <v>1</v>
       </c>
       <c r="F1582" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1583" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1583">
-        <v>4038</v>
+        <v>1844</v>
       </c>
       <c r="D1583" t="str">
         <v/>
@@ -32040,18 +32040,18 @@
         <v>1</v>
       </c>
       <c r="F1583" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1584" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1584">
-        <v>3444</v>
+        <v>1484</v>
       </c>
       <c r="D1584" t="str">
         <v/>
@@ -32060,18 +32060,18 @@
         <v>1</v>
       </c>
       <c r="F1584" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1585" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1585">
-        <v>4365</v>
+        <v>1906</v>
       </c>
       <c r="D1585" t="str">
         <v/>
@@ -32080,18 +32080,18 @@
         <v>1</v>
       </c>
       <c r="F1585" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1586" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1586">
-        <v>4062</v>
+        <v>1910</v>
       </c>
       <c r="D1586" t="str">
         <v/>
@@ -32100,18 +32100,18 @@
         <v>1</v>
       </c>
       <c r="F1586" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1587" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1587">
-        <v>1838</v>
+        <v>13697</v>
       </c>
       <c r="D1587" t="str">
         <v/>
@@ -32120,18 +32120,18 @@
         <v>1</v>
       </c>
       <c r="F1587" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1588" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1588">
-        <v>1844</v>
+        <v>13761</v>
       </c>
       <c r="D1588" t="str">
         <v/>
@@ -32140,18 +32140,18 @@
         <v>1</v>
       </c>
       <c r="F1588" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1589" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1589">
-        <v>1484</v>
+        <v>12502</v>
       </c>
       <c r="D1589" t="str">
         <v/>
@@ -32160,18 +32160,18 @@
         <v>1</v>
       </c>
       <c r="F1589" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1590" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1590">
-        <v>1906</v>
+        <v>13827</v>
       </c>
       <c r="D1590" t="str">
         <v/>
@@ -32180,18 +32180,18 @@
         <v>1</v>
       </c>
       <c r="F1590" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1591" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1591">
-        <v>1910</v>
+        <v>13301</v>
       </c>
       <c r="D1591" t="str">
         <v/>
@@ -32200,7 +32200,7 @@
         <v>1</v>
       </c>
       <c r="F1591" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1592">
@@ -37205,13 +37205,13 @@
     </row>
     <row r="1842">
       <c r="A1842" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1842" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1842">
-        <v>13926</v>
+        <v>55371</v>
       </c>
       <c r="D1842" t="str">
         <v/>
@@ -37220,18 +37220,18 @@
         <v>1</v>
       </c>
       <c r="F1842" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1843" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1843">
-        <v>13960</v>
+        <v>55491</v>
       </c>
       <c r="D1843" t="str">
         <v/>
@@ -37240,18 +37240,18 @@
         <v>1</v>
       </c>
       <c r="F1843" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B1844" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C1844">
-        <v>11270</v>
+        <v>44705</v>
       </c>
       <c r="D1844" t="str">
         <v/>
@@ -37260,18 +37260,18 @@
         <v>1</v>
       </c>
       <c r="F1844" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1845" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1845">
-        <v>15639</v>
+        <v>61071</v>
       </c>
       <c r="D1845" t="str">
         <v/>
@@ -37280,18 +37280,18 @@
         <v>1</v>
       </c>
       <c r="F1845" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B1846" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C1846">
-        <v>14837</v>
+        <v>55999</v>
       </c>
       <c r="D1846" t="str">
         <v/>
@@ -37300,18 +37300,18 @@
         <v>1</v>
       </c>
       <c r="F1846" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1847" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1847">
-        <v>2082</v>
+        <v>40894</v>
       </c>
       <c r="D1847" t="str">
         <v/>
@@ -37320,18 +37320,18 @@
         <v>1</v>
       </c>
       <c r="F1847" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1848" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1848">
-        <v>2088</v>
+        <v>40930</v>
       </c>
       <c r="D1848" t="str">
         <v/>
@@ -37340,18 +37340,18 @@
         <v>1</v>
       </c>
       <c r="F1848" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B1849" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C1849">
-        <v>1869</v>
+        <v>32515</v>
       </c>
       <c r="D1849" t="str">
         <v/>
@@ -37360,18 +37360,18 @@
         <v>1</v>
       </c>
       <c r="F1849" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="1850">
       <c r="A1850" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1850" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1850">
-        <v>2132</v>
+        <v>44418</v>
       </c>
       <c r="D1850" t="str">
         <v/>
@@ -37380,18 +37380,18 @@
         <v>1</v>
       </c>
       <c r="F1850" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B1851" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C1851">
-        <v>2275</v>
+        <v>41223</v>
       </c>
       <c r="D1851" t="str">
         <v/>
@@ -37400,18 +37400,18 @@
         <v>1</v>
       </c>
       <c r="F1851" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1852" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1852">
-        <v>1712</v>
+        <v>32341</v>
       </c>
       <c r="D1852" t="str">
         <v/>
@@ -37420,18 +37420,18 @@
         <v>1</v>
       </c>
       <c r="F1852" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1853" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1853">
-        <v>1716</v>
+        <v>32413</v>
       </c>
       <c r="D1853" t="str">
         <v/>
@@ -37440,18 +37440,18 @@
         <v>1</v>
       </c>
       <c r="F1853" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B1854" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C1854">
-        <v>1492</v>
+        <v>26762</v>
       </c>
       <c r="D1854" t="str">
         <v/>
@@ -37460,18 +37460,18 @@
         <v>1</v>
       </c>
       <c r="F1854" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1855" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1855">
-        <v>1967</v>
+        <v>35917</v>
       </c>
       <c r="D1855" t="str">
         <v/>
@@ -37480,18 +37480,18 @@
         <v>1</v>
       </c>
       <c r="F1855" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B1856" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C1856">
-        <v>1889</v>
+        <v>34664</v>
       </c>
       <c r="D1856" t="str">
         <v/>
@@ -37500,18 +37500,18 @@
         <v>1</v>
       </c>
       <c r="F1856" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1857" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1857">
-        <v>10589</v>
+        <v>16711</v>
       </c>
       <c r="D1857" t="str">
         <v/>
@@ -37520,18 +37520,18 @@
         <v>1</v>
       </c>
       <c r="F1857" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1858" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1858">
-        <v>10615</v>
+        <v>16719</v>
       </c>
       <c r="D1858" t="str">
         <v/>
@@ -37540,18 +37540,18 @@
         <v>1</v>
       </c>
       <c r="F1858" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B1859" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C1859">
-        <v>8739</v>
+        <v>13871</v>
       </c>
       <c r="D1859" t="str">
         <v/>
@@ -37560,18 +37560,18 @@
         <v>1</v>
       </c>
       <c r="F1859" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1860" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1860">
-        <v>12403</v>
+        <v>18762</v>
       </c>
       <c r="D1860" t="str">
         <v/>
@@ -37580,18 +37580,18 @@
         <v>1</v>
       </c>
       <c r="F1860" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B1861" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C1861">
-        <v>11610</v>
+        <v>17545</v>
       </c>
       <c r="D1861" t="str">
         <v/>
@@ -37600,18 +37600,18 @@
         <v>1</v>
       </c>
       <c r="F1861" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1862" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1862">
-        <v>1387</v>
+        <v>20884</v>
       </c>
       <c r="D1862" t="str">
         <v/>
@@ -37620,18 +37620,18 @@
         <v>1</v>
       </c>
       <c r="F1862" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1863" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1863">
-        <v>1391</v>
+        <v>20932</v>
       </c>
       <c r="D1863" t="str">
         <v/>
@@ -37640,18 +37640,18 @@
         <v>1</v>
       </c>
       <c r="F1863" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B1864" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C1864">
-        <v>1242</v>
+        <v>17341</v>
       </c>
       <c r="D1864" t="str">
         <v/>
@@ -37660,18 +37660,18 @@
         <v>1</v>
       </c>
       <c r="F1864" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="1865">
       <c r="A1865" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1865" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1865">
-        <v>1442</v>
+        <v>22967</v>
       </c>
       <c r="D1865" t="str">
         <v/>
@@ -37680,18 +37680,18 @@
         <v>1</v>
       </c>
       <c r="F1865" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B1866" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C1866">
-        <v>1422</v>
+        <v>21418</v>
       </c>
       <c r="D1866" t="str">
         <v/>
@@ -37700,18 +37700,18 @@
         <v>1</v>
       </c>
       <c r="F1866" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="1867">
       <c r="A1867" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1867" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1867">
-        <v>13203</v>
+        <v>21743</v>
       </c>
       <c r="D1867" t="str">
         <v/>
@@ -37720,18 +37720,18 @@
         <v>1</v>
       </c>
       <c r="F1867" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="1868">
       <c r="A1868" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1868" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1868">
-        <v>13235</v>
+        <v>21781</v>
       </c>
       <c r="D1868" t="str">
         <v/>
@@ -37740,18 +37740,18 @@
         <v>1</v>
       </c>
       <c r="F1868" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="1869">
       <c r="A1869" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B1869" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C1869">
-        <v>11261</v>
+        <v>17808</v>
       </c>
       <c r="D1869" t="str">
         <v/>
@@ -37760,18 +37760,18 @@
         <v>1</v>
       </c>
       <c r="F1869" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1870" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1870">
-        <v>14912</v>
+        <v>23740</v>
       </c>
       <c r="D1870" t="str">
         <v/>
@@ -37780,18 +37780,18 @@
         <v>1</v>
       </c>
       <c r="F1870" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B1871" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C1871">
-        <v>13720</v>
+        <v>21787</v>
       </c>
       <c r="D1871" t="str">
         <v/>
@@ -37800,18 +37800,18 @@
         <v>1</v>
       </c>
       <c r="F1871" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="1872">
       <c r="A1872" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1872" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1872">
-        <v>16889</v>
+        <v>18079</v>
       </c>
       <c r="D1872" t="str">
         <v/>
@@ -37820,18 +37820,18 @@
         <v>1</v>
       </c>
       <c r="F1872" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1873" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1873">
-        <v>16941</v>
+        <v>18113</v>
       </c>
       <c r="D1873" t="str">
         <v/>
@@ -37840,18 +37840,18 @@
         <v>1</v>
       </c>
       <c r="F1873" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B1874" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C1874">
-        <v>14367</v>
+        <v>15406</v>
       </c>
       <c r="D1874" t="str">
         <v/>
@@ -37860,18 +37860,18 @@
         <v>1</v>
       </c>
       <c r="F1874" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1875" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1875">
-        <v>18776</v>
+        <v>19384</v>
       </c>
       <c r="D1875" t="str">
         <v/>
@@ -37880,18 +37880,18 @@
         <v>1</v>
       </c>
       <c r="F1875" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B1876" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C1876">
-        <v>17584</v>
+        <v>19170</v>
       </c>
       <c r="D1876" t="str">
         <v/>
@@ -37900,18 +37900,18 @@
         <v>1</v>
       </c>
       <c r="F1876" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1877" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1877">
-        <v>1475</v>
+        <v>23106</v>
       </c>
       <c r="D1877" t="str">
         <v/>
@@ -37920,18 +37920,18 @@
         <v>1</v>
       </c>
       <c r="F1877" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1878" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1878">
-        <v>1180</v>
+        <v>23164</v>
       </c>
       <c r="D1878" t="str">
         <v/>
@@ -37940,18 +37940,18 @@
         <v>1</v>
       </c>
       <c r="F1878" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B1879" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C1879">
-        <v>1074</v>
+        <v>19731</v>
       </c>
       <c r="D1879" t="str">
         <v/>
@@ -37960,18 +37960,18 @@
         <v>1</v>
       </c>
       <c r="F1879" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B1880" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C1880">
-        <v>1381</v>
+        <v>25275</v>
       </c>
       <c r="D1880" t="str">
         <v/>
@@ -37980,18 +37980,18 @@
         <v>1</v>
       </c>
       <c r="F1880" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B1881" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C1881">
-        <v>1183</v>
+        <v>24704</v>
       </c>
       <c r="D1881" t="str">
         <v/>
@@ -38000,18 +38000,18 @@
         <v>1</v>
       </c>
       <c r="F1881" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1882" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1882">
-        <v>55371</v>
+        <v>46222</v>
       </c>
       <c r="D1882" t="str">
         <v/>
@@ -38020,18 +38020,18 @@
         <v>1</v>
       </c>
       <c r="F1882" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="1883">
       <c r="A1883" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1883" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1883">
-        <v>55491</v>
+        <v>46344</v>
       </c>
       <c r="D1883" t="str">
         <v/>
@@ -38040,18 +38040,18 @@
         <v>1</v>
       </c>
       <c r="F1883" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B1884" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C1884">
-        <v>44705</v>
+        <v>38529</v>
       </c>
       <c r="D1884" t="str">
         <v/>
@@ -38060,18 +38060,18 @@
         <v>1</v>
       </c>
       <c r="F1884" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1885" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1885">
-        <v>61071</v>
+        <v>50501</v>
       </c>
       <c r="D1885" t="str">
         <v/>
@@ -38080,18 +38080,18 @@
         <v>1</v>
       </c>
       <c r="F1885" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B1886" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C1886">
-        <v>55999</v>
+        <v>48804</v>
       </c>
       <c r="D1886" t="str">
         <v/>
@@ -38100,18 +38100,18 @@
         <v>1</v>
       </c>
       <c r="F1886" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1887" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1887">
-        <v>40894</v>
+        <v>13926</v>
       </c>
       <c r="D1887" t="str">
         <v/>
@@ -38120,18 +38120,18 @@
         <v>1</v>
       </c>
       <c r="F1887" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1888" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1888">
-        <v>40930</v>
+        <v>13960</v>
       </c>
       <c r="D1888" t="str">
         <v/>
@@ -38140,18 +38140,18 @@
         <v>1</v>
       </c>
       <c r="F1888" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="1889">
       <c r="A1889" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B1889" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C1889">
-        <v>32515</v>
+        <v>11270</v>
       </c>
       <c r="D1889" t="str">
         <v/>
@@ -38160,18 +38160,18 @@
         <v>1</v>
       </c>
       <c r="F1889" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1890" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1890">
-        <v>44418</v>
+        <v>15639</v>
       </c>
       <c r="D1890" t="str">
         <v/>
@@ -38180,18 +38180,18 @@
         <v>1</v>
       </c>
       <c r="F1890" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B1891" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C1891">
-        <v>41223</v>
+        <v>14837</v>
       </c>
       <c r="D1891" t="str">
         <v/>
@@ -38200,18 +38200,18 @@
         <v>1</v>
       </c>
       <c r="F1891" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1892" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1892">
-        <v>32341</v>
+        <v>2082</v>
       </c>
       <c r="D1892" t="str">
         <v/>
@@ -38220,18 +38220,18 @@
         <v>1</v>
       </c>
       <c r="F1892" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1893" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1893">
-        <v>32413</v>
+        <v>2088</v>
       </c>
       <c r="D1893" t="str">
         <v/>
@@ -38240,18 +38240,18 @@
         <v>1</v>
       </c>
       <c r="F1893" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B1894" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C1894">
-        <v>26762</v>
+        <v>1869</v>
       </c>
       <c r="D1894" t="str">
         <v/>
@@ -38260,18 +38260,18 @@
         <v>1</v>
       </c>
       <c r="F1894" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1895" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1895">
-        <v>35917</v>
+        <v>2132</v>
       </c>
       <c r="D1895" t="str">
         <v/>
@@ -38280,18 +38280,18 @@
         <v>1</v>
       </c>
       <c r="F1895" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B1896" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C1896">
-        <v>34664</v>
+        <v>2275</v>
       </c>
       <c r="D1896" t="str">
         <v/>
@@ -38300,18 +38300,18 @@
         <v>1</v>
       </c>
       <c r="F1896" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1897" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1897">
-        <v>16711</v>
+        <v>1712</v>
       </c>
       <c r="D1897" t="str">
         <v/>
@@ -38320,18 +38320,18 @@
         <v>1</v>
       </c>
       <c r="F1897" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1898" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1898">
-        <v>16719</v>
+        <v>1716</v>
       </c>
       <c r="D1898" t="str">
         <v/>
@@ -38340,18 +38340,18 @@
         <v>1</v>
       </c>
       <c r="F1898" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B1899" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C1899">
-        <v>13871</v>
+        <v>1492</v>
       </c>
       <c r="D1899" t="str">
         <v/>
@@ -38360,18 +38360,18 @@
         <v>1</v>
       </c>
       <c r="F1899" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1900" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1900">
-        <v>18762</v>
+        <v>1967</v>
       </c>
       <c r="D1900" t="str">
         <v/>
@@ -38380,18 +38380,18 @@
         <v>1</v>
       </c>
       <c r="F1900" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="1901">
       <c r="A1901" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B1901" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C1901">
-        <v>17545</v>
+        <v>1889</v>
       </c>
       <c r="D1901" t="str">
         <v/>
@@ -38400,18 +38400,18 @@
         <v>1</v>
       </c>
       <c r="F1901" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1902" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1902">
-        <v>20884</v>
+        <v>10589</v>
       </c>
       <c r="D1902" t="str">
         <v/>
@@ -38420,18 +38420,18 @@
         <v>1</v>
       </c>
       <c r="F1902" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1903" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1903">
-        <v>20932</v>
+        <v>10615</v>
       </c>
       <c r="D1903" t="str">
         <v/>
@@ -38440,18 +38440,18 @@
         <v>1</v>
       </c>
       <c r="F1903" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B1904" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C1904">
-        <v>17341</v>
+        <v>8739</v>
       </c>
       <c r="D1904" t="str">
         <v/>
@@ -38460,18 +38460,18 @@
         <v>1</v>
       </c>
       <c r="F1904" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1905" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1905">
-        <v>22967</v>
+        <v>12403</v>
       </c>
       <c r="D1905" t="str">
         <v/>
@@ -38480,18 +38480,18 @@
         <v>1</v>
       </c>
       <c r="F1905" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="1906">
       <c r="A1906" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B1906" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C1906">
-        <v>21418</v>
+        <v>11610</v>
       </c>
       <c r="D1906" t="str">
         <v/>
@@ -38500,18 +38500,18 @@
         <v>1</v>
       </c>
       <c r="F1906" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1907" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1907">
-        <v>21743</v>
+        <v>1387</v>
       </c>
       <c r="D1907" t="str">
         <v/>
@@ -38520,18 +38520,18 @@
         <v>1</v>
       </c>
       <c r="F1907" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1908" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1908">
-        <v>21781</v>
+        <v>1391</v>
       </c>
       <c r="D1908" t="str">
         <v/>
@@ -38540,18 +38540,18 @@
         <v>1</v>
       </c>
       <c r="F1908" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B1909" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C1909">
-        <v>17808</v>
+        <v>1242</v>
       </c>
       <c r="D1909" t="str">
         <v/>
@@ -38560,18 +38560,18 @@
         <v>1</v>
       </c>
       <c r="F1909" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1910" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1910">
-        <v>23740</v>
+        <v>1442</v>
       </c>
       <c r="D1910" t="str">
         <v/>
@@ -38580,18 +38580,18 @@
         <v>1</v>
       </c>
       <c r="F1910" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="1911">
       <c r="A1911" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B1911" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C1911">
-        <v>21787</v>
+        <v>1422</v>
       </c>
       <c r="D1911" t="str">
         <v/>
@@ -38600,18 +38600,18 @@
         <v>1</v>
       </c>
       <c r="F1911" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="1912">
       <c r="A1912" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1912" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1912">
-        <v>18079</v>
+        <v>13203</v>
       </c>
       <c r="D1912" t="str">
         <v/>
@@ -38620,18 +38620,18 @@
         <v>1</v>
       </c>
       <c r="F1912" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1913" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1913">
-        <v>18113</v>
+        <v>13235</v>
       </c>
       <c r="D1913" t="str">
         <v/>
@@ -38640,18 +38640,18 @@
         <v>1</v>
       </c>
       <c r="F1913" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B1914" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C1914">
-        <v>15406</v>
+        <v>11261</v>
       </c>
       <c r="D1914" t="str">
         <v/>
@@ -38660,18 +38660,18 @@
         <v>1</v>
       </c>
       <c r="F1914" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1915" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1915">
-        <v>19384</v>
+        <v>14912</v>
       </c>
       <c r="D1915" t="str">
         <v/>
@@ -38680,18 +38680,18 @@
         <v>1</v>
       </c>
       <c r="F1915" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B1916" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C1916">
-        <v>19170</v>
+        <v>13720</v>
       </c>
       <c r="D1916" t="str">
         <v/>
@@ -38700,18 +38700,18 @@
         <v>1</v>
       </c>
       <c r="F1916" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1917" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1917">
-        <v>23106</v>
+        <v>16889</v>
       </c>
       <c r="D1917" t="str">
         <v/>
@@ -38720,18 +38720,18 @@
         <v>1</v>
       </c>
       <c r="F1917" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1918" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1918">
-        <v>23164</v>
+        <v>16941</v>
       </c>
       <c r="D1918" t="str">
         <v/>
@@ -38740,18 +38740,18 @@
         <v>1</v>
       </c>
       <c r="F1918" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B1919" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C1919">
-        <v>19731</v>
+        <v>14367</v>
       </c>
       <c r="D1919" t="str">
         <v/>
@@ -38760,18 +38760,18 @@
         <v>1</v>
       </c>
       <c r="F1919" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="1920">
       <c r="A1920" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B1920" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C1920">
-        <v>25275</v>
+        <v>18776</v>
       </c>
       <c r="D1920" t="str">
         <v/>
@@ -38780,18 +38780,18 @@
         <v>1</v>
       </c>
       <c r="F1920" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B1921" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C1921">
-        <v>24704</v>
+        <v>17584</v>
       </c>
       <c r="D1921" t="str">
         <v/>
@@ -38800,18 +38800,18 @@
         <v>1</v>
       </c>
       <c r="F1921" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1922" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1922">
-        <v>46222</v>
+        <v>1475</v>
       </c>
       <c r="D1922" t="str">
         <v/>
@@ -38820,18 +38820,18 @@
         <v>1</v>
       </c>
       <c r="F1922" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1923" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1923">
-        <v>46344</v>
+        <v>1180</v>
       </c>
       <c r="D1923" t="str">
         <v/>
@@ -38840,18 +38840,18 @@
         <v>1</v>
       </c>
       <c r="F1923" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B1924" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C1924">
-        <v>38529</v>
+        <v>1074</v>
       </c>
       <c r="D1924" t="str">
         <v/>
@@ -38860,18 +38860,18 @@
         <v>1</v>
       </c>
       <c r="F1924" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1925" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1925">
-        <v>50501</v>
+        <v>1381</v>
       </c>
       <c r="D1925" t="str">
         <v/>
@@ -38880,18 +38880,18 @@
         <v>1</v>
       </c>
       <c r="F1925" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B1926" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C1926">
-        <v>48804</v>
+        <v>1183</v>
       </c>
       <c r="D1926" t="str">
         <v/>
@@ -38900,7 +38900,7 @@
         <v>1</v>
       </c>
       <c r="F1926" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="1927">
@@ -44105,13 +44105,13 @@
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>47372</v>
+        <v>12055</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44120,18 +44120,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>47504</v>
+        <v>12091</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44140,18 +44140,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>38227</v>
+        <v>9948</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44160,18 +44160,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>56677</v>
+        <v>13516</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44180,18 +44180,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>50805</v>
+        <v>12778</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44200,18 +44200,18 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2192" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2192">
-        <v>29694</v>
+        <v>32683</v>
       </c>
       <c r="D2192" t="str">
         <v/>
@@ -44220,18 +44220,18 @@
         <v>1</v>
       </c>
       <c r="F2192" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2193">
       <c r="A2193" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2193" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2193">
-        <v>29774</v>
+        <v>32785</v>
       </c>
       <c r="D2193" t="str">
         <v/>
@@ -44240,18 +44240,18 @@
         <v>1</v>
       </c>
       <c r="F2193" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2194" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2194">
-        <v>23226</v>
+        <v>26804</v>
       </c>
       <c r="D2194" t="str">
         <v/>
@@ -44260,18 +44260,18 @@
         <v>1</v>
       </c>
       <c r="F2194" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2195">
       <c r="A2195" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2195" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2195">
-        <v>34797</v>
+        <v>35335</v>
       </c>
       <c r="D2195" t="str">
         <v/>
@@ -44280,18 +44280,18 @@
         <v>1</v>
       </c>
       <c r="F2195" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2196">
       <c r="A2196" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2196" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2196">
-        <v>32402</v>
+        <v>35400</v>
       </c>
       <c r="D2196" t="str">
         <v/>
@@ -44300,18 +44300,18 @@
         <v>1</v>
       </c>
       <c r="F2196" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2197" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2197">
-        <v>13333</v>
+        <v>28261</v>
       </c>
       <c r="D2197" t="str">
         <v/>
@@ -44320,18 +44320,18 @@
         <v>1</v>
       </c>
       <c r="F2197" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2198">
       <c r="A2198" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2198" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2198">
-        <v>13371</v>
+        <v>28341</v>
       </c>
       <c r="D2198" t="str">
         <v/>
@@ -44340,18 +44340,18 @@
         <v>1</v>
       </c>
       <c r="F2198" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2199" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2199">
-        <v>10935</v>
+        <v>22289</v>
       </c>
       <c r="D2199" t="str">
         <v/>
@@ -44360,18 +44360,18 @@
         <v>1</v>
       </c>
       <c r="F2199" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2200" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2200">
-        <v>14825</v>
+        <v>31961</v>
       </c>
       <c r="D2200" t="str">
         <v/>
@@ -44380,18 +44380,18 @@
         <v>1</v>
       </c>
       <c r="F2200" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2201">
       <c r="A2201" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2201" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2201">
-        <v>13609</v>
+        <v>30340</v>
       </c>
       <c r="D2201" t="str">
         <v/>
@@ -44400,18 +44400,18 @@
         <v>1</v>
       </c>
       <c r="F2201" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2202">
       <c r="A2202" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2202" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2202">
-        <v>38115</v>
+        <v>22929</v>
       </c>
       <c r="D2202" t="str">
         <v/>
@@ -44420,18 +44420,18 @@
         <v>1</v>
       </c>
       <c r="F2202" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2203" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2203">
-        <v>38207</v>
+        <v>22997</v>
       </c>
       <c r="D2203" t="str">
         <v/>
@@ -44440,18 +44440,18 @@
         <v>1</v>
       </c>
       <c r="F2203" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2204" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2204">
-        <v>30119</v>
+        <v>18855</v>
       </c>
       <c r="D2204" t="str">
         <v/>
@@ -44460,18 +44460,18 @@
         <v>1</v>
       </c>
       <c r="F2204" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2205">
       <c r="A2205" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2205" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2205">
-        <v>45716</v>
+        <v>25986</v>
       </c>
       <c r="D2205" t="str">
         <v/>
@@ -44480,18 +44480,18 @@
         <v>1</v>
       </c>
       <c r="F2205" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2206" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2206">
-        <v>42343</v>
+        <v>24638</v>
       </c>
       <c r="D2206" t="str">
         <v/>
@@ -44500,18 +44500,18 @@
         <v>1</v>
       </c>
       <c r="F2206" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2207" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2207">
-        <v>22580</v>
+        <v>27591</v>
       </c>
       <c r="D2207" t="str">
         <v/>
@@ -44520,18 +44520,18 @@
         <v>1</v>
       </c>
       <c r="F2207" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2208" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2208">
-        <v>22642</v>
+        <v>27669</v>
       </c>
       <c r="D2208" t="str">
         <v/>
@@ -44540,18 +44540,18 @@
         <v>1</v>
       </c>
       <c r="F2208" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2209" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2209">
-        <v>18502</v>
+        <v>22217</v>
       </c>
       <c r="D2209" t="str">
         <v/>
@@ -44560,18 +44560,18 @@
         <v>1</v>
       </c>
       <c r="F2209" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2210" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2210">
-        <v>25738</v>
+        <v>30979</v>
       </c>
       <c r="D2210" t="str">
         <v/>
@@ -44580,18 +44580,18 @@
         <v>1</v>
       </c>
       <c r="F2210" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2211" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2211">
-        <v>23812</v>
+        <v>30051</v>
       </c>
       <c r="D2211" t="str">
         <v/>
@@ -44600,18 +44600,18 @@
         <v>1</v>
       </c>
       <c r="F2211" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2212" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2212">
-        <v>25038</v>
+        <v>28673</v>
       </c>
       <c r="D2212" t="str">
         <v/>
@@ -44620,18 +44620,18 @@
         <v>1</v>
       </c>
       <c r="F2212" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2213" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2213">
-        <v>25106</v>
+        <v>28755</v>
       </c>
       <c r="D2213" t="str">
         <v/>
@@ -44640,18 +44640,18 @@
         <v>1</v>
       </c>
       <c r="F2213" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2214" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2214">
-        <v>20304</v>
+        <v>24091</v>
       </c>
       <c r="D2214" t="str">
         <v/>
@@ -44660,18 +44660,18 @@
         <v>1</v>
       </c>
       <c r="F2214" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2215" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2215">
-        <v>31176</v>
+        <v>32509</v>
       </c>
       <c r="D2215" t="str">
         <v/>
@@ -44680,18 +44680,18 @@
         <v>1</v>
       </c>
       <c r="F2215" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2216" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2216">
-        <v>28656</v>
+        <v>31007</v>
       </c>
       <c r="D2216" t="str">
         <v/>
@@ -44700,18 +44700,18 @@
         <v>1</v>
       </c>
       <c r="F2216" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2217" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2217">
-        <v>19450</v>
+        <v>21788</v>
       </c>
       <c r="D2217" t="str">
         <v/>
@@ -44720,18 +44720,18 @@
         <v>1</v>
       </c>
       <c r="F2217" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2218" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2218">
-        <v>19506</v>
+        <v>21848</v>
       </c>
       <c r="D2218" t="str">
         <v/>
@@ -44740,18 +44740,18 @@
         <v>1</v>
       </c>
       <c r="F2218" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2219" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2219">
-        <v>15666</v>
+        <v>18324</v>
       </c>
       <c r="D2219" t="str">
         <v/>
@@ -44760,18 +44760,18 @@
         <v>1</v>
       </c>
       <c r="F2219" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2220" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2220">
-        <v>22550</v>
+        <v>25169</v>
       </c>
       <c r="D2220" t="str">
         <v/>
@@ -44780,18 +44780,18 @@
         <v>1</v>
       </c>
       <c r="F2220" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2221">
       <c r="A2221" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2221" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2221">
-        <v>20969</v>
+        <v>22994</v>
       </c>
       <c r="D2221" t="str">
         <v/>
@@ -44800,18 +44800,18 @@
         <v>1</v>
       </c>
       <c r="F2221" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2222">
       <c r="A2222" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2222" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2222">
-        <v>12055</v>
+        <v>31366</v>
       </c>
       <c r="D2222" t="str">
         <v/>
@@ -44820,18 +44820,18 @@
         <v>1</v>
       </c>
       <c r="F2222" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2223" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2223">
-        <v>12091</v>
+        <v>31450</v>
       </c>
       <c r="D2223" t="str">
         <v/>
@@ -44840,18 +44840,18 @@
         <v>1</v>
       </c>
       <c r="F2223" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2224">
       <c r="A2224" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2224" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2224">
-        <v>9948</v>
+        <v>25325</v>
       </c>
       <c r="D2224" t="str">
         <v/>
@@ -44860,18 +44860,18 @@
         <v>1</v>
       </c>
       <c r="F2224" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2225">
       <c r="A2225" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2225" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2225">
-        <v>13516</v>
+        <v>36671</v>
       </c>
       <c r="D2225" t="str">
         <v/>
@@ -44880,18 +44880,18 @@
         <v>1</v>
       </c>
       <c r="F2225" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2226" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2226">
-        <v>12778</v>
+        <v>34359</v>
       </c>
       <c r="D2226" t="str">
         <v/>
@@ -44900,18 +44900,18 @@
         <v>1</v>
       </c>
       <c r="F2226" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2227" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2227">
-        <v>32683</v>
+        <v>30007</v>
       </c>
       <c r="D2227" t="str">
         <v/>
@@ -44920,18 +44920,18 @@
         <v>1</v>
       </c>
       <c r="F2227" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2228" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2228">
-        <v>32785</v>
+        <v>30087</v>
       </c>
       <c r="D2228" t="str">
         <v/>
@@ -44940,18 +44940,18 @@
         <v>1</v>
       </c>
       <c r="F2228" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2229" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2229">
-        <v>26804</v>
+        <v>24378</v>
       </c>
       <c r="D2229" t="str">
         <v/>
@@ -44960,18 +44960,18 @@
         <v>1</v>
       </c>
       <c r="F2229" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2230" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2230">
-        <v>35335</v>
+        <v>35724</v>
       </c>
       <c r="D2230" t="str">
         <v/>
@@ -44980,18 +44980,18 @@
         <v>1</v>
       </c>
       <c r="F2230" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2231" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2231">
-        <v>35400</v>
+        <v>33241</v>
       </c>
       <c r="D2231" t="str">
         <v/>
@@ -45000,18 +45000,18 @@
         <v>1</v>
       </c>
       <c r="F2231" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2232" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2232">
-        <v>28261</v>
+        <v>31730</v>
       </c>
       <c r="D2232" t="str">
         <v/>
@@ -45020,18 +45020,18 @@
         <v>1</v>
       </c>
       <c r="F2232" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2233" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2233">
-        <v>28341</v>
+        <v>31818</v>
       </c>
       <c r="D2233" t="str">
         <v/>
@@ -45040,18 +45040,18 @@
         <v>1</v>
       </c>
       <c r="F2233" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2234" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2234">
-        <v>22289</v>
+        <v>25891</v>
       </c>
       <c r="D2234" t="str">
         <v/>
@@ -45060,18 +45060,18 @@
         <v>1</v>
       </c>
       <c r="F2234" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2235" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2235">
-        <v>31961</v>
+        <v>36973</v>
       </c>
       <c r="D2235" t="str">
         <v/>
@@ -45080,18 +45080,18 @@
         <v>1</v>
       </c>
       <c r="F2235" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2236" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2236">
-        <v>30340</v>
+        <v>35473</v>
       </c>
       <c r="D2236" t="str">
         <v/>
@@ -45100,18 +45100,18 @@
         <v>1</v>
       </c>
       <c r="F2236" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2237" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2237">
-        <v>22929</v>
+        <v>24351</v>
       </c>
       <c r="D2237" t="str">
         <v/>
@@ -45120,18 +45120,18 @@
         <v>1</v>
       </c>
       <c r="F2237" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2238" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2238">
-        <v>22997</v>
+        <v>24417</v>
       </c>
       <c r="D2238" t="str">
         <v/>
@@ -45140,18 +45140,18 @@
         <v>1</v>
       </c>
       <c r="F2238" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2239" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2239">
-        <v>18855</v>
+        <v>19827</v>
       </c>
       <c r="D2239" t="str">
         <v/>
@@ -45160,18 +45160,18 @@
         <v>1</v>
       </c>
       <c r="F2239" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2240" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2240">
-        <v>25986</v>
+        <v>28858</v>
       </c>
       <c r="D2240" t="str">
         <v/>
@@ -45180,18 +45180,18 @@
         <v>1</v>
       </c>
       <c r="F2240" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2241" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2241">
-        <v>24638</v>
+        <v>27987</v>
       </c>
       <c r="D2241" t="str">
         <v/>
@@ -45200,18 +45200,18 @@
         <v>1</v>
       </c>
       <c r="F2241" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2242" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2242">
-        <v>27591</v>
+        <v>47372</v>
       </c>
       <c r="D2242" t="str">
         <v/>
@@ -45220,18 +45220,18 @@
         <v>1</v>
       </c>
       <c r="F2242" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2243" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2243">
-        <v>27669</v>
+        <v>47504</v>
       </c>
       <c r="D2243" t="str">
         <v/>
@@ -45240,18 +45240,18 @@
         <v>1</v>
       </c>
       <c r="F2243" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2244" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2244">
-        <v>22217</v>
+        <v>38227</v>
       </c>
       <c r="D2244" t="str">
         <v/>
@@ -45260,18 +45260,18 @@
         <v>1</v>
       </c>
       <c r="F2244" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2245" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2245">
-        <v>30979</v>
+        <v>56677</v>
       </c>
       <c r="D2245" t="str">
         <v/>
@@ -45280,18 +45280,18 @@
         <v>1</v>
       </c>
       <c r="F2245" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2246" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2246">
-        <v>30051</v>
+        <v>50805</v>
       </c>
       <c r="D2246" t="str">
         <v/>
@@ -45300,18 +45300,18 @@
         <v>1</v>
       </c>
       <c r="F2246" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2247" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2247">
-        <v>28673</v>
+        <v>29694</v>
       </c>
       <c r="D2247" t="str">
         <v/>
@@ -45320,18 +45320,18 @@
         <v>1</v>
       </c>
       <c r="F2247" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2248" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2248">
-        <v>28755</v>
+        <v>29774</v>
       </c>
       <c r="D2248" t="str">
         <v/>
@@ -45340,18 +45340,18 @@
         <v>1</v>
       </c>
       <c r="F2248" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2249" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2249">
-        <v>24091</v>
+        <v>23226</v>
       </c>
       <c r="D2249" t="str">
         <v/>
@@ -45360,18 +45360,18 @@
         <v>1</v>
       </c>
       <c r="F2249" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2250" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2250">
-        <v>32509</v>
+        <v>34797</v>
       </c>
       <c r="D2250" t="str">
         <v/>
@@ -45380,18 +45380,18 @@
         <v>1</v>
       </c>
       <c r="F2250" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2251" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2251">
-        <v>31007</v>
+        <v>32402</v>
       </c>
       <c r="D2251" t="str">
         <v/>
@@ -45400,18 +45400,18 @@
         <v>1</v>
       </c>
       <c r="F2251" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2252" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2252">
-        <v>21788</v>
+        <v>13333</v>
       </c>
       <c r="D2252" t="str">
         <v/>
@@ -45420,18 +45420,18 @@
         <v>1</v>
       </c>
       <c r="F2252" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2253" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2253">
-        <v>21848</v>
+        <v>13371</v>
       </c>
       <c r="D2253" t="str">
         <v/>
@@ -45440,18 +45440,18 @@
         <v>1</v>
       </c>
       <c r="F2253" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2254" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2254">
-        <v>18324</v>
+        <v>10935</v>
       </c>
       <c r="D2254" t="str">
         <v/>
@@ -45460,18 +45460,18 @@
         <v>1</v>
       </c>
       <c r="F2254" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2255" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2255">
-        <v>25169</v>
+        <v>14825</v>
       </c>
       <c r="D2255" t="str">
         <v/>
@@ -45480,18 +45480,18 @@
         <v>1</v>
       </c>
       <c r="F2255" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2256" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2256">
-        <v>22994</v>
+        <v>13609</v>
       </c>
       <c r="D2256" t="str">
         <v/>
@@ -45500,18 +45500,18 @@
         <v>1</v>
       </c>
       <c r="F2256" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2257" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2257">
-        <v>31366</v>
+        <v>38115</v>
       </c>
       <c r="D2257" t="str">
         <v/>
@@ -45520,18 +45520,18 @@
         <v>1</v>
       </c>
       <c r="F2257" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2258" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2258">
-        <v>31450</v>
+        <v>38207</v>
       </c>
       <c r="D2258" t="str">
         <v/>
@@ -45540,18 +45540,18 @@
         <v>1</v>
       </c>
       <c r="F2258" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2259" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2259">
-        <v>25325</v>
+        <v>30119</v>
       </c>
       <c r="D2259" t="str">
         <v/>
@@ -45560,18 +45560,18 @@
         <v>1</v>
       </c>
       <c r="F2259" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2260" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2260">
-        <v>36671</v>
+        <v>45716</v>
       </c>
       <c r="D2260" t="str">
         <v/>
@@ -45580,18 +45580,18 @@
         <v>1</v>
       </c>
       <c r="F2260" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2261" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2261">
-        <v>34359</v>
+        <v>42343</v>
       </c>
       <c r="D2261" t="str">
         <v/>
@@ -45600,18 +45600,18 @@
         <v>1</v>
       </c>
       <c r="F2261" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2262" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2262">
-        <v>30007</v>
+        <v>22580</v>
       </c>
       <c r="D2262" t="str">
         <v/>
@@ -45620,18 +45620,18 @@
         <v>1</v>
       </c>
       <c r="F2262" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2263" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2263">
-        <v>30087</v>
+        <v>22642</v>
       </c>
       <c r="D2263" t="str">
         <v/>
@@ -45640,18 +45640,18 @@
         <v>1</v>
       </c>
       <c r="F2263" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2264" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2264">
-        <v>24378</v>
+        <v>18502</v>
       </c>
       <c r="D2264" t="str">
         <v/>
@@ -45660,18 +45660,18 @@
         <v>1</v>
       </c>
       <c r="F2264" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2265" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2265">
-        <v>35724</v>
+        <v>25738</v>
       </c>
       <c r="D2265" t="str">
         <v/>
@@ -45680,18 +45680,18 @@
         <v>1</v>
       </c>
       <c r="F2265" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2266" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2266">
-        <v>33241</v>
+        <v>23812</v>
       </c>
       <c r="D2266" t="str">
         <v/>
@@ -45700,18 +45700,18 @@
         <v>1</v>
       </c>
       <c r="F2266" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2267" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2267">
-        <v>31730</v>
+        <v>25038</v>
       </c>
       <c r="D2267" t="str">
         <v/>
@@ -45720,18 +45720,18 @@
         <v>1</v>
       </c>
       <c r="F2267" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2268" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2268">
-        <v>31818</v>
+        <v>25106</v>
       </c>
       <c r="D2268" t="str">
         <v/>
@@ -45740,18 +45740,18 @@
         <v>1</v>
       </c>
       <c r="F2268" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2269" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2269">
-        <v>25891</v>
+        <v>20304</v>
       </c>
       <c r="D2269" t="str">
         <v/>
@@ -45760,18 +45760,18 @@
         <v>1</v>
       </c>
       <c r="F2269" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2270" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2270">
-        <v>36973</v>
+        <v>31176</v>
       </c>
       <c r="D2270" t="str">
         <v/>
@@ -45780,18 +45780,18 @@
         <v>1</v>
       </c>
       <c r="F2270" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2271" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2271">
-        <v>35473</v>
+        <v>28656</v>
       </c>
       <c r="D2271" t="str">
         <v/>
@@ -45800,18 +45800,18 @@
         <v>1</v>
       </c>
       <c r="F2271" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2272" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2272">
-        <v>24351</v>
+        <v>19450</v>
       </c>
       <c r="D2272" t="str">
         <v/>
@@ -45820,18 +45820,18 @@
         <v>1</v>
       </c>
       <c r="F2272" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2273" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2273">
-        <v>24417</v>
+        <v>19506</v>
       </c>
       <c r="D2273" t="str">
         <v/>
@@ -45840,18 +45840,18 @@
         <v>1</v>
       </c>
       <c r="F2273" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2274" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2274">
-        <v>19827</v>
+        <v>15666</v>
       </c>
       <c r="D2274" t="str">
         <v/>
@@ -45860,18 +45860,18 @@
         <v>1</v>
       </c>
       <c r="F2274" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2275" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2275">
-        <v>28858</v>
+        <v>22550</v>
       </c>
       <c r="D2275" t="str">
         <v/>
@@ -45880,18 +45880,18 @@
         <v>1</v>
       </c>
       <c r="F2275" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2276" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2276">
-        <v>27987</v>
+        <v>20969</v>
       </c>
       <c r="D2276" t="str">
         <v/>
@@ -45900,7 +45900,7 @@
         <v>1</v>
       </c>
       <c r="F2276" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2277">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -31905,13 +31905,13 @@
     </row>
     <row r="1577">
       <c r="A1577" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1577" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1577">
-        <v>4028</v>
+        <v>13697</v>
       </c>
       <c r="D1577" t="str">
         <v/>
@@ -31920,18 +31920,18 @@
         <v>1</v>
       </c>
       <c r="F1577" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1578" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1578">
-        <v>4038</v>
+        <v>13761</v>
       </c>
       <c r="D1578" t="str">
         <v/>
@@ -31940,18 +31940,18 @@
         <v>1</v>
       </c>
       <c r="F1578" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1579" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1579">
-        <v>3444</v>
+        <v>12502</v>
       </c>
       <c r="D1579" t="str">
         <v/>
@@ -31960,18 +31960,18 @@
         <v>1</v>
       </c>
       <c r="F1579" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1580" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1580">
-        <v>4365</v>
+        <v>13827</v>
       </c>
       <c r="D1580" t="str">
         <v/>
@@ -31980,18 +31980,18 @@
         <v>1</v>
       </c>
       <c r="F1580" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1581" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1581">
-        <v>4062</v>
+        <v>13301</v>
       </c>
       <c r="D1581" t="str">
         <v/>
@@ -32000,18 +32000,18 @@
         <v>1</v>
       </c>
       <c r="F1581" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1582" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1582">
-        <v>1838</v>
+        <v>4028</v>
       </c>
       <c r="D1582" t="str">
         <v/>
@@ -32020,18 +32020,18 @@
         <v>1</v>
       </c>
       <c r="F1582" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1583" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1583">
-        <v>1844</v>
+        <v>4038</v>
       </c>
       <c r="D1583" t="str">
         <v/>
@@ -32040,18 +32040,18 @@
         <v>1</v>
       </c>
       <c r="F1583" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1584" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1584">
-        <v>1484</v>
+        <v>3444</v>
       </c>
       <c r="D1584" t="str">
         <v/>
@@ -32060,18 +32060,18 @@
         <v>1</v>
       </c>
       <c r="F1584" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1585" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1585">
-        <v>1906</v>
+        <v>4365</v>
       </c>
       <c r="D1585" t="str">
         <v/>
@@ -32080,18 +32080,18 @@
         <v>1</v>
       </c>
       <c r="F1585" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1586" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1586">
-        <v>1910</v>
+        <v>4062</v>
       </c>
       <c r="D1586" t="str">
         <v/>
@@ -32100,18 +32100,18 @@
         <v>1</v>
       </c>
       <c r="F1586" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1587" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1587">
-        <v>13697</v>
+        <v>1838</v>
       </c>
       <c r="D1587" t="str">
         <v/>
@@ -32120,18 +32120,18 @@
         <v>1</v>
       </c>
       <c r="F1587" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1588" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1588">
-        <v>13761</v>
+        <v>1844</v>
       </c>
       <c r="D1588" t="str">
         <v/>
@@ -32140,18 +32140,18 @@
         <v>1</v>
       </c>
       <c r="F1588" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1589" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1589">
-        <v>12502</v>
+        <v>1484</v>
       </c>
       <c r="D1589" t="str">
         <v/>
@@ -32160,18 +32160,18 @@
         <v>1</v>
       </c>
       <c r="F1589" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1590" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1590">
-        <v>13827</v>
+        <v>1906</v>
       </c>
       <c r="D1590" t="str">
         <v/>
@@ -32180,18 +32180,18 @@
         <v>1</v>
       </c>
       <c r="F1590" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1591" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1591">
-        <v>13301</v>
+        <v>1910</v>
       </c>
       <c r="D1591" t="str">
         <v/>
@@ -32200,7 +32200,7 @@
         <v>1</v>
       </c>
       <c r="F1591" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1592">
@@ -37205,13 +37205,13 @@
     </row>
     <row r="1842">
       <c r="A1842" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1842" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1842">
-        <v>55371</v>
+        <v>13926</v>
       </c>
       <c r="D1842" t="str">
         <v/>
@@ -37220,18 +37220,18 @@
         <v>1</v>
       </c>
       <c r="F1842" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1843" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1843">
-        <v>55491</v>
+        <v>13960</v>
       </c>
       <c r="D1843" t="str">
         <v/>
@@ -37240,18 +37240,18 @@
         <v>1</v>
       </c>
       <c r="F1843" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B1844" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C1844">
-        <v>44705</v>
+        <v>11270</v>
       </c>
       <c r="D1844" t="str">
         <v/>
@@ -37260,18 +37260,18 @@
         <v>1</v>
       </c>
       <c r="F1844" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1845" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1845">
-        <v>61071</v>
+        <v>15639</v>
       </c>
       <c r="D1845" t="str">
         <v/>
@@ -37280,18 +37280,18 @@
         <v>1</v>
       </c>
       <c r="F1845" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B1846" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C1846">
-        <v>55999</v>
+        <v>14837</v>
       </c>
       <c r="D1846" t="str">
         <v/>
@@ -37300,18 +37300,18 @@
         <v>1</v>
       </c>
       <c r="F1846" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1847" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1847">
-        <v>40894</v>
+        <v>2082</v>
       </c>
       <c r="D1847" t="str">
         <v/>
@@ -37320,18 +37320,18 @@
         <v>1</v>
       </c>
       <c r="F1847" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1848" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1848">
-        <v>40930</v>
+        <v>2088</v>
       </c>
       <c r="D1848" t="str">
         <v/>
@@ -37340,18 +37340,18 @@
         <v>1</v>
       </c>
       <c r="F1848" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B1849" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C1849">
-        <v>32515</v>
+        <v>1869</v>
       </c>
       <c r="D1849" t="str">
         <v/>
@@ -37360,18 +37360,18 @@
         <v>1</v>
       </c>
       <c r="F1849" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="1850">
       <c r="A1850" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1850" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1850">
-        <v>44418</v>
+        <v>2132</v>
       </c>
       <c r="D1850" t="str">
         <v/>
@@ -37380,18 +37380,18 @@
         <v>1</v>
       </c>
       <c r="F1850" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B1851" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C1851">
-        <v>41223</v>
+        <v>2275</v>
       </c>
       <c r="D1851" t="str">
         <v/>
@@ -37400,18 +37400,18 @@
         <v>1</v>
       </c>
       <c r="F1851" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1852" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1852">
-        <v>32341</v>
+        <v>1712</v>
       </c>
       <c r="D1852" t="str">
         <v/>
@@ -37420,18 +37420,18 @@
         <v>1</v>
       </c>
       <c r="F1852" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1853" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1853">
-        <v>32413</v>
+        <v>1716</v>
       </c>
       <c r="D1853" t="str">
         <v/>
@@ -37440,18 +37440,18 @@
         <v>1</v>
       </c>
       <c r="F1853" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B1854" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C1854">
-        <v>26762</v>
+        <v>1492</v>
       </c>
       <c r="D1854" t="str">
         <v/>
@@ -37460,18 +37460,18 @@
         <v>1</v>
       </c>
       <c r="F1854" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1855" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1855">
-        <v>35917</v>
+        <v>1967</v>
       </c>
       <c r="D1855" t="str">
         <v/>
@@ -37480,18 +37480,18 @@
         <v>1</v>
       </c>
       <c r="F1855" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B1856" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C1856">
-        <v>34664</v>
+        <v>1889</v>
       </c>
       <c r="D1856" t="str">
         <v/>
@@ -37500,18 +37500,18 @@
         <v>1</v>
       </c>
       <c r="F1856" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1857" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1857">
-        <v>16711</v>
+        <v>10589</v>
       </c>
       <c r="D1857" t="str">
         <v/>
@@ -37520,18 +37520,18 @@
         <v>1</v>
       </c>
       <c r="F1857" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1858" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1858">
-        <v>16719</v>
+        <v>10615</v>
       </c>
       <c r="D1858" t="str">
         <v/>
@@ -37540,18 +37540,18 @@
         <v>1</v>
       </c>
       <c r="F1858" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B1859" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C1859">
-        <v>13871</v>
+        <v>8739</v>
       </c>
       <c r="D1859" t="str">
         <v/>
@@ -37560,18 +37560,18 @@
         <v>1</v>
       </c>
       <c r="F1859" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1860" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1860">
-        <v>18762</v>
+        <v>12403</v>
       </c>
       <c r="D1860" t="str">
         <v/>
@@ -37580,18 +37580,18 @@
         <v>1</v>
       </c>
       <c r="F1860" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B1861" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C1861">
-        <v>17545</v>
+        <v>11610</v>
       </c>
       <c r="D1861" t="str">
         <v/>
@@ -37600,18 +37600,18 @@
         <v>1</v>
       </c>
       <c r="F1861" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1862" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1862">
-        <v>20884</v>
+        <v>1387</v>
       </c>
       <c r="D1862" t="str">
         <v/>
@@ -37620,18 +37620,18 @@
         <v>1</v>
       </c>
       <c r="F1862" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1863" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1863">
-        <v>20932</v>
+        <v>1391</v>
       </c>
       <c r="D1863" t="str">
         <v/>
@@ -37640,18 +37640,18 @@
         <v>1</v>
       </c>
       <c r="F1863" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B1864" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C1864">
-        <v>17341</v>
+        <v>1242</v>
       </c>
       <c r="D1864" t="str">
         <v/>
@@ -37660,18 +37660,18 @@
         <v>1</v>
       </c>
       <c r="F1864" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="1865">
       <c r="A1865" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1865" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1865">
-        <v>22967</v>
+        <v>1442</v>
       </c>
       <c r="D1865" t="str">
         <v/>
@@ -37680,18 +37680,18 @@
         <v>1</v>
       </c>
       <c r="F1865" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B1866" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C1866">
-        <v>21418</v>
+        <v>1422</v>
       </c>
       <c r="D1866" t="str">
         <v/>
@@ -37700,18 +37700,18 @@
         <v>1</v>
       </c>
       <c r="F1866" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="1867">
       <c r="A1867" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1867" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1867">
-        <v>21743</v>
+        <v>13203</v>
       </c>
       <c r="D1867" t="str">
         <v/>
@@ -37720,18 +37720,18 @@
         <v>1</v>
       </c>
       <c r="F1867" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="1868">
       <c r="A1868" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1868" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1868">
-        <v>21781</v>
+        <v>13235</v>
       </c>
       <c r="D1868" t="str">
         <v/>
@@ -37740,18 +37740,18 @@
         <v>1</v>
       </c>
       <c r="F1868" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="1869">
       <c r="A1869" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B1869" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C1869">
-        <v>17808</v>
+        <v>11261</v>
       </c>
       <c r="D1869" t="str">
         <v/>
@@ -37760,18 +37760,18 @@
         <v>1</v>
       </c>
       <c r="F1869" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1870" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1870">
-        <v>23740</v>
+        <v>14912</v>
       </c>
       <c r="D1870" t="str">
         <v/>
@@ -37780,18 +37780,18 @@
         <v>1</v>
       </c>
       <c r="F1870" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B1871" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C1871">
-        <v>21787</v>
+        <v>13720</v>
       </c>
       <c r="D1871" t="str">
         <v/>
@@ -37800,18 +37800,18 @@
         <v>1</v>
       </c>
       <c r="F1871" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="1872">
       <c r="A1872" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1872" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1872">
-        <v>18079</v>
+        <v>16889</v>
       </c>
       <c r="D1872" t="str">
         <v/>
@@ -37820,18 +37820,18 @@
         <v>1</v>
       </c>
       <c r="F1872" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1873" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1873">
-        <v>18113</v>
+        <v>16941</v>
       </c>
       <c r="D1873" t="str">
         <v/>
@@ -37840,18 +37840,18 @@
         <v>1</v>
       </c>
       <c r="F1873" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B1874" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C1874">
-        <v>15406</v>
+        <v>14367</v>
       </c>
       <c r="D1874" t="str">
         <v/>
@@ -37860,18 +37860,18 @@
         <v>1</v>
       </c>
       <c r="F1874" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B1875" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C1875">
-        <v>19384</v>
+        <v>18776</v>
       </c>
       <c r="D1875" t="str">
         <v/>
@@ -37880,18 +37880,18 @@
         <v>1</v>
       </c>
       <c r="F1875" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B1876" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C1876">
-        <v>19170</v>
+        <v>17584</v>
       </c>
       <c r="D1876" t="str">
         <v/>
@@ -37900,18 +37900,18 @@
         <v>1</v>
       </c>
       <c r="F1876" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1877" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1877">
-        <v>23106</v>
+        <v>1475</v>
       </c>
       <c r="D1877" t="str">
         <v/>
@@ -37920,18 +37920,18 @@
         <v>1</v>
       </c>
       <c r="F1877" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1878" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1878">
-        <v>23164</v>
+        <v>1180</v>
       </c>
       <c r="D1878" t="str">
         <v/>
@@ -37940,18 +37940,18 @@
         <v>1</v>
       </c>
       <c r="F1878" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B1879" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C1879">
-        <v>19731</v>
+        <v>1074</v>
       </c>
       <c r="D1879" t="str">
         <v/>
@@ -37960,18 +37960,18 @@
         <v>1</v>
       </c>
       <c r="F1879" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1880" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1880">
-        <v>25275</v>
+        <v>1381</v>
       </c>
       <c r="D1880" t="str">
         <v/>
@@ -37980,18 +37980,18 @@
         <v>1</v>
       </c>
       <c r="F1880" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B1881" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C1881">
-        <v>24704</v>
+        <v>1183</v>
       </c>
       <c r="D1881" t="str">
         <v/>
@@ -38000,18 +38000,18 @@
         <v>1</v>
       </c>
       <c r="F1881" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1882" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1882">
-        <v>46222</v>
+        <v>55371</v>
       </c>
       <c r="D1882" t="str">
         <v/>
@@ -38020,18 +38020,18 @@
         <v>1</v>
       </c>
       <c r="F1882" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="1883">
       <c r="A1883" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1883" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1883">
-        <v>46344</v>
+        <v>55491</v>
       </c>
       <c r="D1883" t="str">
         <v/>
@@ -38040,18 +38040,18 @@
         <v>1</v>
       </c>
       <c r="F1883" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B1884" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C1884">
-        <v>38529</v>
+        <v>44705</v>
       </c>
       <c r="D1884" t="str">
         <v/>
@@ -38060,18 +38060,18 @@
         <v>1</v>
       </c>
       <c r="F1884" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1885" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1885">
-        <v>50501</v>
+        <v>61071</v>
       </c>
       <c r="D1885" t="str">
         <v/>
@@ -38080,18 +38080,18 @@
         <v>1</v>
       </c>
       <c r="F1885" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B1886" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C1886">
-        <v>48804</v>
+        <v>55999</v>
       </c>
       <c r="D1886" t="str">
         <v/>
@@ -38100,18 +38100,18 @@
         <v>1</v>
       </c>
       <c r="F1886" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1887" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1887">
-        <v>13926</v>
+        <v>40894</v>
       </c>
       <c r="D1887" t="str">
         <v/>
@@ -38120,18 +38120,18 @@
         <v>1</v>
       </c>
       <c r="F1887" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1888" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1888">
-        <v>13960</v>
+        <v>40930</v>
       </c>
       <c r="D1888" t="str">
         <v/>
@@ -38140,18 +38140,18 @@
         <v>1</v>
       </c>
       <c r="F1888" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="1889">
       <c r="A1889" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B1889" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C1889">
-        <v>11270</v>
+        <v>32515</v>
       </c>
       <c r="D1889" t="str">
         <v/>
@@ -38160,18 +38160,18 @@
         <v>1</v>
       </c>
       <c r="F1889" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1890" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1890">
-        <v>15639</v>
+        <v>44418</v>
       </c>
       <c r="D1890" t="str">
         <v/>
@@ -38180,18 +38180,18 @@
         <v>1</v>
       </c>
       <c r="F1890" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B1891" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C1891">
-        <v>14837</v>
+        <v>41223</v>
       </c>
       <c r="D1891" t="str">
         <v/>
@@ -38200,18 +38200,18 @@
         <v>1</v>
       </c>
       <c r="F1891" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1892" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1892">
-        <v>2082</v>
+        <v>32341</v>
       </c>
       <c r="D1892" t="str">
         <v/>
@@ -38220,18 +38220,18 @@
         <v>1</v>
       </c>
       <c r="F1892" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1893" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1893">
-        <v>2088</v>
+        <v>32413</v>
       </c>
       <c r="D1893" t="str">
         <v/>
@@ -38240,18 +38240,18 @@
         <v>1</v>
       </c>
       <c r="F1893" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B1894" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C1894">
-        <v>1869</v>
+        <v>26762</v>
       </c>
       <c r="D1894" t="str">
         <v/>
@@ -38260,18 +38260,18 @@
         <v>1</v>
       </c>
       <c r="F1894" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1895" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1895">
-        <v>2132</v>
+        <v>35917</v>
       </c>
       <c r="D1895" t="str">
         <v/>
@@ -38280,18 +38280,18 @@
         <v>1</v>
       </c>
       <c r="F1895" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B1896" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C1896">
-        <v>2275</v>
+        <v>34664</v>
       </c>
       <c r="D1896" t="str">
         <v/>
@@ -38300,18 +38300,18 @@
         <v>1</v>
       </c>
       <c r="F1896" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1897" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1897">
-        <v>1712</v>
+        <v>16711</v>
       </c>
       <c r="D1897" t="str">
         <v/>
@@ -38320,18 +38320,18 @@
         <v>1</v>
       </c>
       <c r="F1897" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1898" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1898">
-        <v>1716</v>
+        <v>16719</v>
       </c>
       <c r="D1898" t="str">
         <v/>
@@ -38340,18 +38340,18 @@
         <v>1</v>
       </c>
       <c r="F1898" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B1899" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C1899">
-        <v>1492</v>
+        <v>13871</v>
       </c>
       <c r="D1899" t="str">
         <v/>
@@ -38360,18 +38360,18 @@
         <v>1</v>
       </c>
       <c r="F1899" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1900" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1900">
-        <v>1967</v>
+        <v>18762</v>
       </c>
       <c r="D1900" t="str">
         <v/>
@@ -38380,18 +38380,18 @@
         <v>1</v>
       </c>
       <c r="F1900" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="1901">
       <c r="A1901" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B1901" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C1901">
-        <v>1889</v>
+        <v>17545</v>
       </c>
       <c r="D1901" t="str">
         <v/>
@@ -38400,18 +38400,18 @@
         <v>1</v>
       </c>
       <c r="F1901" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1902" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1902">
-        <v>10589</v>
+        <v>20884</v>
       </c>
       <c r="D1902" t="str">
         <v/>
@@ -38420,18 +38420,18 @@
         <v>1</v>
       </c>
       <c r="F1902" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1903" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1903">
-        <v>10615</v>
+        <v>20932</v>
       </c>
       <c r="D1903" t="str">
         <v/>
@@ -38440,18 +38440,18 @@
         <v>1</v>
       </c>
       <c r="F1903" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B1904" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C1904">
-        <v>8739</v>
+        <v>17341</v>
       </c>
       <c r="D1904" t="str">
         <v/>
@@ -38460,18 +38460,18 @@
         <v>1</v>
       </c>
       <c r="F1904" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1905" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1905">
-        <v>12403</v>
+        <v>22967</v>
       </c>
       <c r="D1905" t="str">
         <v/>
@@ -38480,18 +38480,18 @@
         <v>1</v>
       </c>
       <c r="F1905" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="1906">
       <c r="A1906" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B1906" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C1906">
-        <v>11610</v>
+        <v>21418</v>
       </c>
       <c r="D1906" t="str">
         <v/>
@@ -38500,18 +38500,18 @@
         <v>1</v>
       </c>
       <c r="F1906" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1907" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1907">
-        <v>1387</v>
+        <v>21743</v>
       </c>
       <c r="D1907" t="str">
         <v/>
@@ -38520,18 +38520,18 @@
         <v>1</v>
       </c>
       <c r="F1907" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1908" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1908">
-        <v>1391</v>
+        <v>21781</v>
       </c>
       <c r="D1908" t="str">
         <v/>
@@ -38540,18 +38540,18 @@
         <v>1</v>
       </c>
       <c r="F1908" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B1909" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C1909">
-        <v>1242</v>
+        <v>17808</v>
       </c>
       <c r="D1909" t="str">
         <v/>
@@ -38560,18 +38560,18 @@
         <v>1</v>
       </c>
       <c r="F1909" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1910" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1910">
-        <v>1442</v>
+        <v>23740</v>
       </c>
       <c r="D1910" t="str">
         <v/>
@@ -38580,18 +38580,18 @@
         <v>1</v>
       </c>
       <c r="F1910" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="1911">
       <c r="A1911" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B1911" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C1911">
-        <v>1422</v>
+        <v>21787</v>
       </c>
       <c r="D1911" t="str">
         <v/>
@@ -38600,18 +38600,18 @@
         <v>1</v>
       </c>
       <c r="F1911" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="1912">
       <c r="A1912" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1912" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1912">
-        <v>13203</v>
+        <v>18079</v>
       </c>
       <c r="D1912" t="str">
         <v/>
@@ -38620,18 +38620,18 @@
         <v>1</v>
       </c>
       <c r="F1912" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1913" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1913">
-        <v>13235</v>
+        <v>18113</v>
       </c>
       <c r="D1913" t="str">
         <v/>
@@ -38640,18 +38640,18 @@
         <v>1</v>
       </c>
       <c r="F1913" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B1914" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C1914">
-        <v>11261</v>
+        <v>15406</v>
       </c>
       <c r="D1914" t="str">
         <v/>
@@ -38660,18 +38660,18 @@
         <v>1</v>
       </c>
       <c r="F1914" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1915" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1915">
-        <v>14912</v>
+        <v>19384</v>
       </c>
       <c r="D1915" t="str">
         <v/>
@@ -38680,18 +38680,18 @@
         <v>1</v>
       </c>
       <c r="F1915" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B1916" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C1916">
-        <v>13720</v>
+        <v>19170</v>
       </c>
       <c r="D1916" t="str">
         <v/>
@@ -38700,18 +38700,18 @@
         <v>1</v>
       </c>
       <c r="F1916" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1917" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1917">
-        <v>16889</v>
+        <v>23106</v>
       </c>
       <c r="D1917" t="str">
         <v/>
@@ -38720,18 +38720,18 @@
         <v>1</v>
       </c>
       <c r="F1917" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1918" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1918">
-        <v>16941</v>
+        <v>23164</v>
       </c>
       <c r="D1918" t="str">
         <v/>
@@ -38740,18 +38740,18 @@
         <v>1</v>
       </c>
       <c r="F1918" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B1919" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C1919">
-        <v>14367</v>
+        <v>19731</v>
       </c>
       <c r="D1919" t="str">
         <v/>
@@ -38760,18 +38760,18 @@
         <v>1</v>
       </c>
       <c r="F1919" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="1920">
       <c r="A1920" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B1920" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C1920">
-        <v>18776</v>
+        <v>25275</v>
       </c>
       <c r="D1920" t="str">
         <v/>
@@ -38780,18 +38780,18 @@
         <v>1</v>
       </c>
       <c r="F1920" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B1921" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C1921">
-        <v>17584</v>
+        <v>24704</v>
       </c>
       <c r="D1921" t="str">
         <v/>
@@ -38800,18 +38800,18 @@
         <v>1</v>
       </c>
       <c r="F1921" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1922" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1922">
-        <v>1475</v>
+        <v>46222</v>
       </c>
       <c r="D1922" t="str">
         <v/>
@@ -38820,18 +38820,18 @@
         <v>1</v>
       </c>
       <c r="F1922" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1923" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1923">
-        <v>1180</v>
+        <v>46344</v>
       </c>
       <c r="D1923" t="str">
         <v/>
@@ -38840,18 +38840,18 @@
         <v>1</v>
       </c>
       <c r="F1923" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B1924" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C1924">
-        <v>1074</v>
+        <v>38529</v>
       </c>
       <c r="D1924" t="str">
         <v/>
@@ -38860,18 +38860,18 @@
         <v>1</v>
       </c>
       <c r="F1924" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1925" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1925">
-        <v>1381</v>
+        <v>50501</v>
       </c>
       <c r="D1925" t="str">
         <v/>
@@ -38880,18 +38880,18 @@
         <v>1</v>
       </c>
       <c r="F1925" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B1926" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C1926">
-        <v>1183</v>
+        <v>48804</v>
       </c>
       <c r="D1926" t="str">
         <v/>
@@ -38900,7 +38900,7 @@
         <v>1</v>
       </c>
       <c r="F1926" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="1927">
@@ -44105,13 +44105,13 @@
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>12055</v>
+        <v>47372</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44120,18 +44120,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>12091</v>
+        <v>47504</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44140,18 +44140,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>9948</v>
+        <v>38227</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44160,18 +44160,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>13516</v>
+        <v>56677</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44180,18 +44180,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>12778</v>
+        <v>50805</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44200,18 +44200,18 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2192" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2192">
-        <v>32683</v>
+        <v>29694</v>
       </c>
       <c r="D2192" t="str">
         <v/>
@@ -44220,18 +44220,18 @@
         <v>1</v>
       </c>
       <c r="F2192" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2193">
       <c r="A2193" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2193" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2193">
-        <v>32785</v>
+        <v>29774</v>
       </c>
       <c r="D2193" t="str">
         <v/>
@@ -44240,18 +44240,18 @@
         <v>1</v>
       </c>
       <c r="F2193" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2194" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2194">
-        <v>26804</v>
+        <v>23226</v>
       </c>
       <c r="D2194" t="str">
         <v/>
@@ -44260,18 +44260,18 @@
         <v>1</v>
       </c>
       <c r="F2194" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2195">
       <c r="A2195" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2195" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2195">
-        <v>35335</v>
+        <v>34797</v>
       </c>
       <c r="D2195" t="str">
         <v/>
@@ -44280,18 +44280,18 @@
         <v>1</v>
       </c>
       <c r="F2195" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2196">
       <c r="A2196" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2196" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2196">
-        <v>35400</v>
+        <v>32402</v>
       </c>
       <c r="D2196" t="str">
         <v/>
@@ -44300,18 +44300,18 @@
         <v>1</v>
       </c>
       <c r="F2196" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2197" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2197">
-        <v>28261</v>
+        <v>13333</v>
       </c>
       <c r="D2197" t="str">
         <v/>
@@ -44320,18 +44320,18 @@
         <v>1</v>
       </c>
       <c r="F2197" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2198">
       <c r="A2198" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2198" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2198">
-        <v>28341</v>
+        <v>13371</v>
       </c>
       <c r="D2198" t="str">
         <v/>
@@ -44340,18 +44340,18 @@
         <v>1</v>
       </c>
       <c r="F2198" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2199" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2199">
-        <v>22289</v>
+        <v>10935</v>
       </c>
       <c r="D2199" t="str">
         <v/>
@@ -44360,18 +44360,18 @@
         <v>1</v>
       </c>
       <c r="F2199" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2200" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2200">
-        <v>31961</v>
+        <v>14825</v>
       </c>
       <c r="D2200" t="str">
         <v/>
@@ -44380,18 +44380,18 @@
         <v>1</v>
       </c>
       <c r="F2200" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2201">
       <c r="A2201" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2201" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2201">
-        <v>30340</v>
+        <v>13609</v>
       </c>
       <c r="D2201" t="str">
         <v/>
@@ -44400,18 +44400,18 @@
         <v>1</v>
       </c>
       <c r="F2201" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2202">
       <c r="A2202" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2202" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2202">
-        <v>22929</v>
+        <v>38115</v>
       </c>
       <c r="D2202" t="str">
         <v/>
@@ -44420,18 +44420,18 @@
         <v>1</v>
       </c>
       <c r="F2202" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2203" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2203">
-        <v>22997</v>
+        <v>38207</v>
       </c>
       <c r="D2203" t="str">
         <v/>
@@ -44440,18 +44440,18 @@
         <v>1</v>
       </c>
       <c r="F2203" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2204" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2204">
-        <v>18855</v>
+        <v>30119</v>
       </c>
       <c r="D2204" t="str">
         <v/>
@@ -44460,18 +44460,18 @@
         <v>1</v>
       </c>
       <c r="F2204" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2205">
       <c r="A2205" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2205" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2205">
-        <v>25986</v>
+        <v>45716</v>
       </c>
       <c r="D2205" t="str">
         <v/>
@@ -44480,18 +44480,18 @@
         <v>1</v>
       </c>
       <c r="F2205" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2206" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2206">
-        <v>24638</v>
+        <v>42343</v>
       </c>
       <c r="D2206" t="str">
         <v/>
@@ -44500,18 +44500,18 @@
         <v>1</v>
       </c>
       <c r="F2206" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2207" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2207">
-        <v>27591</v>
+        <v>22580</v>
       </c>
       <c r="D2207" t="str">
         <v/>
@@ -44520,18 +44520,18 @@
         <v>1</v>
       </c>
       <c r="F2207" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2208" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2208">
-        <v>27669</v>
+        <v>22642</v>
       </c>
       <c r="D2208" t="str">
         <v/>
@@ -44540,18 +44540,18 @@
         <v>1</v>
       </c>
       <c r="F2208" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2209" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2209">
-        <v>22217</v>
+        <v>18502</v>
       </c>
       <c r="D2209" t="str">
         <v/>
@@ -44560,18 +44560,18 @@
         <v>1</v>
       </c>
       <c r="F2209" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2210" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2210">
-        <v>30979</v>
+        <v>25738</v>
       </c>
       <c r="D2210" t="str">
         <v/>
@@ -44580,18 +44580,18 @@
         <v>1</v>
       </c>
       <c r="F2210" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2211" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2211">
-        <v>30051</v>
+        <v>23812</v>
       </c>
       <c r="D2211" t="str">
         <v/>
@@ -44600,18 +44600,18 @@
         <v>1</v>
       </c>
       <c r="F2211" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2212" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2212">
-        <v>28673</v>
+        <v>25038</v>
       </c>
       <c r="D2212" t="str">
         <v/>
@@ -44620,18 +44620,18 @@
         <v>1</v>
       </c>
       <c r="F2212" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2213" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2213">
-        <v>28755</v>
+        <v>25106</v>
       </c>
       <c r="D2213" t="str">
         <v/>
@@ -44640,18 +44640,18 @@
         <v>1</v>
       </c>
       <c r="F2213" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2214" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2214">
-        <v>24091</v>
+        <v>20304</v>
       </c>
       <c r="D2214" t="str">
         <v/>
@@ -44660,18 +44660,18 @@
         <v>1</v>
       </c>
       <c r="F2214" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2215" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2215">
-        <v>32509</v>
+        <v>31176</v>
       </c>
       <c r="D2215" t="str">
         <v/>
@@ -44680,18 +44680,18 @@
         <v>1</v>
       </c>
       <c r="F2215" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2216" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2216">
-        <v>31007</v>
+        <v>28656</v>
       </c>
       <c r="D2216" t="str">
         <v/>
@@ -44700,18 +44700,18 @@
         <v>1</v>
       </c>
       <c r="F2216" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2217" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2217">
-        <v>21788</v>
+        <v>19450</v>
       </c>
       <c r="D2217" t="str">
         <v/>
@@ -44720,18 +44720,18 @@
         <v>1</v>
       </c>
       <c r="F2217" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2218" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2218">
-        <v>21848</v>
+        <v>19506</v>
       </c>
       <c r="D2218" t="str">
         <v/>
@@ -44740,18 +44740,18 @@
         <v>1</v>
       </c>
       <c r="F2218" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2219" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2219">
-        <v>18324</v>
+        <v>15666</v>
       </c>
       <c r="D2219" t="str">
         <v/>
@@ -44760,18 +44760,18 @@
         <v>1</v>
       </c>
       <c r="F2219" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2220" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2220">
-        <v>25169</v>
+        <v>22550</v>
       </c>
       <c r="D2220" t="str">
         <v/>
@@ -44780,18 +44780,18 @@
         <v>1</v>
       </c>
       <c r="F2220" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2221">
       <c r="A2221" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2221" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2221">
-        <v>22994</v>
+        <v>20969</v>
       </c>
       <c r="D2221" t="str">
         <v/>
@@ -44800,18 +44800,18 @@
         <v>1</v>
       </c>
       <c r="F2221" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2222">
       <c r="A2222" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2222" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2222">
-        <v>31366</v>
+        <v>12055</v>
       </c>
       <c r="D2222" t="str">
         <v/>
@@ -44820,18 +44820,18 @@
         <v>1</v>
       </c>
       <c r="F2222" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2223" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2223">
-        <v>31450</v>
+        <v>12091</v>
       </c>
       <c r="D2223" t="str">
         <v/>
@@ -44840,18 +44840,18 @@
         <v>1</v>
       </c>
       <c r="F2223" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2224">
       <c r="A2224" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2224" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2224">
-        <v>25325</v>
+        <v>9948</v>
       </c>
       <c r="D2224" t="str">
         <v/>
@@ -44860,18 +44860,18 @@
         <v>1</v>
       </c>
       <c r="F2224" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2225">
       <c r="A2225" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2225" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2225">
-        <v>36671</v>
+        <v>13516</v>
       </c>
       <c r="D2225" t="str">
         <v/>
@@ -44880,18 +44880,18 @@
         <v>1</v>
       </c>
       <c r="F2225" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2226" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2226">
-        <v>34359</v>
+        <v>12778</v>
       </c>
       <c r="D2226" t="str">
         <v/>
@@ -44900,18 +44900,18 @@
         <v>1</v>
       </c>
       <c r="F2226" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2227" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2227">
-        <v>30007</v>
+        <v>32683</v>
       </c>
       <c r="D2227" t="str">
         <v/>
@@ -44920,18 +44920,18 @@
         <v>1</v>
       </c>
       <c r="F2227" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2228" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2228">
-        <v>30087</v>
+        <v>32785</v>
       </c>
       <c r="D2228" t="str">
         <v/>
@@ -44940,18 +44940,18 @@
         <v>1</v>
       </c>
       <c r="F2228" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2229" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2229">
-        <v>24378</v>
+        <v>26804</v>
       </c>
       <c r="D2229" t="str">
         <v/>
@@ -44960,18 +44960,18 @@
         <v>1</v>
       </c>
       <c r="F2229" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2230" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2230">
-        <v>35724</v>
+        <v>35335</v>
       </c>
       <c r="D2230" t="str">
         <v/>
@@ -44980,18 +44980,18 @@
         <v>1</v>
       </c>
       <c r="F2230" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2231" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2231">
-        <v>33241</v>
+        <v>35400</v>
       </c>
       <c r="D2231" t="str">
         <v/>
@@ -45000,18 +45000,18 @@
         <v>1</v>
       </c>
       <c r="F2231" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2232" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2232">
-        <v>31730</v>
+        <v>28261</v>
       </c>
       <c r="D2232" t="str">
         <v/>
@@ -45020,18 +45020,18 @@
         <v>1</v>
       </c>
       <c r="F2232" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2233" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2233">
-        <v>31818</v>
+        <v>28341</v>
       </c>
       <c r="D2233" t="str">
         <v/>
@@ -45040,18 +45040,18 @@
         <v>1</v>
       </c>
       <c r="F2233" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2234" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2234">
-        <v>25891</v>
+        <v>22289</v>
       </c>
       <c r="D2234" t="str">
         <v/>
@@ -45060,18 +45060,18 @@
         <v>1</v>
       </c>
       <c r="F2234" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2235" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2235">
-        <v>36973</v>
+        <v>31961</v>
       </c>
       <c r="D2235" t="str">
         <v/>
@@ -45080,18 +45080,18 @@
         <v>1</v>
       </c>
       <c r="F2235" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2236" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2236">
-        <v>35473</v>
+        <v>30340</v>
       </c>
       <c r="D2236" t="str">
         <v/>
@@ -45100,18 +45100,18 @@
         <v>1</v>
       </c>
       <c r="F2236" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2237" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2237">
-        <v>24351</v>
+        <v>22929</v>
       </c>
       <c r="D2237" t="str">
         <v/>
@@ -45120,18 +45120,18 @@
         <v>1</v>
       </c>
       <c r="F2237" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2238" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2238">
-        <v>24417</v>
+        <v>22997</v>
       </c>
       <c r="D2238" t="str">
         <v/>
@@ -45140,18 +45140,18 @@
         <v>1</v>
       </c>
       <c r="F2238" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2239" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2239">
-        <v>19827</v>
+        <v>18855</v>
       </c>
       <c r="D2239" t="str">
         <v/>
@@ -45160,18 +45160,18 @@
         <v>1</v>
       </c>
       <c r="F2239" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2240" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2240">
-        <v>28858</v>
+        <v>25986</v>
       </c>
       <c r="D2240" t="str">
         <v/>
@@ -45180,18 +45180,18 @@
         <v>1</v>
       </c>
       <c r="F2240" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2241" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2241">
-        <v>27987</v>
+        <v>24638</v>
       </c>
       <c r="D2241" t="str">
         <v/>
@@ -45200,18 +45200,18 @@
         <v>1</v>
       </c>
       <c r="F2241" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2242" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2242">
-        <v>47372</v>
+        <v>27591</v>
       </c>
       <c r="D2242" t="str">
         <v/>
@@ -45220,18 +45220,18 @@
         <v>1</v>
       </c>
       <c r="F2242" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2243" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2243">
-        <v>47504</v>
+        <v>27669</v>
       </c>
       <c r="D2243" t="str">
         <v/>
@@ -45240,18 +45240,18 @@
         <v>1</v>
       </c>
       <c r="F2243" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2244" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2244">
-        <v>38227</v>
+        <v>22217</v>
       </c>
       <c r="D2244" t="str">
         <v/>
@@ -45260,18 +45260,18 @@
         <v>1</v>
       </c>
       <c r="F2244" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2245" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2245">
-        <v>56677</v>
+        <v>30979</v>
       </c>
       <c r="D2245" t="str">
         <v/>
@@ -45280,18 +45280,18 @@
         <v>1</v>
       </c>
       <c r="F2245" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2246" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2246">
-        <v>50805</v>
+        <v>30051</v>
       </c>
       <c r="D2246" t="str">
         <v/>
@@ -45300,18 +45300,18 @@
         <v>1</v>
       </c>
       <c r="F2246" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2247" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2247">
-        <v>29694</v>
+        <v>28673</v>
       </c>
       <c r="D2247" t="str">
         <v/>
@@ -45320,18 +45320,18 @@
         <v>1</v>
       </c>
       <c r="F2247" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2248" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2248">
-        <v>29774</v>
+        <v>28755</v>
       </c>
       <c r="D2248" t="str">
         <v/>
@@ -45340,18 +45340,18 @@
         <v>1</v>
       </c>
       <c r="F2248" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2249" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2249">
-        <v>23226</v>
+        <v>24091</v>
       </c>
       <c r="D2249" t="str">
         <v/>
@@ -45360,18 +45360,18 @@
         <v>1</v>
       </c>
       <c r="F2249" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2250" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2250">
-        <v>34797</v>
+        <v>32509</v>
       </c>
       <c r="D2250" t="str">
         <v/>
@@ -45380,18 +45380,18 @@
         <v>1</v>
       </c>
       <c r="F2250" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2251" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2251">
-        <v>32402</v>
+        <v>31007</v>
       </c>
       <c r="D2251" t="str">
         <v/>
@@ -45400,18 +45400,18 @@
         <v>1</v>
       </c>
       <c r="F2251" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2252" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2252">
-        <v>13333</v>
+        <v>21788</v>
       </c>
       <c r="D2252" t="str">
         <v/>
@@ -45420,18 +45420,18 @@
         <v>1</v>
       </c>
       <c r="F2252" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2253" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2253">
-        <v>13371</v>
+        <v>21848</v>
       </c>
       <c r="D2253" t="str">
         <v/>
@@ -45440,18 +45440,18 @@
         <v>1</v>
       </c>
       <c r="F2253" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2254" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2254">
-        <v>10935</v>
+        <v>18324</v>
       </c>
       <c r="D2254" t="str">
         <v/>
@@ -45460,18 +45460,18 @@
         <v>1</v>
       </c>
       <c r="F2254" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2255" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2255">
-        <v>14825</v>
+        <v>25169</v>
       </c>
       <c r="D2255" t="str">
         <v/>
@@ -45480,18 +45480,18 @@
         <v>1</v>
       </c>
       <c r="F2255" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2256" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2256">
-        <v>13609</v>
+        <v>22994</v>
       </c>
       <c r="D2256" t="str">
         <v/>
@@ -45500,18 +45500,18 @@
         <v>1</v>
       </c>
       <c r="F2256" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2257" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2257">
-        <v>38115</v>
+        <v>31366</v>
       </c>
       <c r="D2257" t="str">
         <v/>
@@ -45520,18 +45520,18 @@
         <v>1</v>
       </c>
       <c r="F2257" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2258" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2258">
-        <v>38207</v>
+        <v>31450</v>
       </c>
       <c r="D2258" t="str">
         <v/>
@@ -45540,18 +45540,18 @@
         <v>1</v>
       </c>
       <c r="F2258" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2259" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2259">
-        <v>30119</v>
+        <v>25325</v>
       </c>
       <c r="D2259" t="str">
         <v/>
@@ -45560,18 +45560,18 @@
         <v>1</v>
       </c>
       <c r="F2259" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2260" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2260">
-        <v>45716</v>
+        <v>36671</v>
       </c>
       <c r="D2260" t="str">
         <v/>
@@ -45580,18 +45580,18 @@
         <v>1</v>
       </c>
       <c r="F2260" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2261" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2261">
-        <v>42343</v>
+        <v>34359</v>
       </c>
       <c r="D2261" t="str">
         <v/>
@@ -45600,18 +45600,18 @@
         <v>1</v>
       </c>
       <c r="F2261" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2262" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2262">
-        <v>22580</v>
+        <v>30007</v>
       </c>
       <c r="D2262" t="str">
         <v/>
@@ -45620,18 +45620,18 @@
         <v>1</v>
       </c>
       <c r="F2262" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2263" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2263">
-        <v>22642</v>
+        <v>30087</v>
       </c>
       <c r="D2263" t="str">
         <v/>
@@ -45640,18 +45640,18 @@
         <v>1</v>
       </c>
       <c r="F2263" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2264" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2264">
-        <v>18502</v>
+        <v>24378</v>
       </c>
       <c r="D2264" t="str">
         <v/>
@@ -45660,18 +45660,18 @@
         <v>1</v>
       </c>
       <c r="F2264" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2265" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2265">
-        <v>25738</v>
+        <v>35724</v>
       </c>
       <c r="D2265" t="str">
         <v/>
@@ -45680,18 +45680,18 @@
         <v>1</v>
       </c>
       <c r="F2265" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2266" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2266">
-        <v>23812</v>
+        <v>33241</v>
       </c>
       <c r="D2266" t="str">
         <v/>
@@ -45700,18 +45700,18 @@
         <v>1</v>
       </c>
       <c r="F2266" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2267" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2267">
-        <v>25038</v>
+        <v>31730</v>
       </c>
       <c r="D2267" t="str">
         <v/>
@@ -45720,18 +45720,18 @@
         <v>1</v>
       </c>
       <c r="F2267" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2268" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2268">
-        <v>25106</v>
+        <v>31818</v>
       </c>
       <c r="D2268" t="str">
         <v/>
@@ -45740,18 +45740,18 @@
         <v>1</v>
       </c>
       <c r="F2268" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2269" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2269">
-        <v>20304</v>
+        <v>25891</v>
       </c>
       <c r="D2269" t="str">
         <v/>
@@ -45760,18 +45760,18 @@
         <v>1</v>
       </c>
       <c r="F2269" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2270" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2270">
-        <v>31176</v>
+        <v>36973</v>
       </c>
       <c r="D2270" t="str">
         <v/>
@@ -45780,18 +45780,18 @@
         <v>1</v>
       </c>
       <c r="F2270" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2271" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2271">
-        <v>28656</v>
+        <v>35473</v>
       </c>
       <c r="D2271" t="str">
         <v/>
@@ -45800,18 +45800,18 @@
         <v>1</v>
       </c>
       <c r="F2271" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2272" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2272">
-        <v>19450</v>
+        <v>24351</v>
       </c>
       <c r="D2272" t="str">
         <v/>
@@ -45820,18 +45820,18 @@
         <v>1</v>
       </c>
       <c r="F2272" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2273" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2273">
-        <v>19506</v>
+        <v>24417</v>
       </c>
       <c r="D2273" t="str">
         <v/>
@@ -45840,18 +45840,18 @@
         <v>1</v>
       </c>
       <c r="F2273" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2274" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2274">
-        <v>15666</v>
+        <v>19827</v>
       </c>
       <c r="D2274" t="str">
         <v/>
@@ -45860,18 +45860,18 @@
         <v>1</v>
       </c>
       <c r="F2274" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2275" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2275">
-        <v>22550</v>
+        <v>28858</v>
       </c>
       <c r="D2275" t="str">
         <v/>
@@ -45880,18 +45880,18 @@
         <v>1</v>
       </c>
       <c r="F2275" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2276" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2276">
-        <v>20969</v>
+        <v>27987</v>
       </c>
       <c r="D2276" t="str">
         <v/>
@@ -45900,7 +45900,7 @@
         <v>1</v>
       </c>
       <c r="F2276" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2277">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3296</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3266"/>
+  <dimension ref="A1:F3296"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65305,13 +65305,13 @@
     </row>
     <row r="3247">
       <c r="A3247" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_313_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3247" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_313_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3247">
-        <v>14207</v>
+        <v>62946</v>
       </c>
       <c r="D3247" t="str">
         <v/>
@@ -65320,18 +65320,18 @@
         <v>1</v>
       </c>
       <c r="F3247" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>fdbefb2643b750e262aa980d10d27e9e31533dbca34e0d525575d90c8a687d63</v>
       </c>
     </row>
     <row r="3248">
       <c r="A3248" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_313_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3248" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_313_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3248">
-        <v>14239</v>
+        <v>63044</v>
       </c>
       <c r="D3248" t="str">
         <v/>
@@ -65340,18 +65340,18 @@
         <v>1</v>
       </c>
       <c r="F3248" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>8478b5121ae44b0b0bded8ded89e96e569c34dec5b515fc79bdc6046d0fe40e5</v>
       </c>
     </row>
     <row r="3249">
       <c r="A3249" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_313_001_dialog_english.dialog</v>
       </c>
       <c r="B3249" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_313_001_dialog_english.dialog</v>
       </c>
       <c r="C3249">
-        <v>11494</v>
+        <v>48952</v>
       </c>
       <c r="D3249" t="str">
         <v/>
@@ -65360,18 +65360,18 @@
         <v>1</v>
       </c>
       <c r="F3249" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>11ffbaf1a390c57a32e966ee15a31c00451d79a896f0ac34f9aa05dba5753710</v>
       </c>
     </row>
     <row r="3250">
       <c r="A3250" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_313_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3250" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_313_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3250">
-        <v>15458</v>
+        <v>73494</v>
       </c>
       <c r="D3250" t="str">
         <v/>
@@ -65380,18 +65380,18 @@
         <v>1</v>
       </c>
       <c r="F3250" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>e2273b93c257f120838556770afb8bd88d3a9e5eaba2af272c14fec7a4e74042</v>
       </c>
     </row>
     <row r="3251">
       <c r="A3251" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_313_001_dialog_korean.dialog</v>
       </c>
       <c r="B3251" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_313_001_dialog_korean.dialog</v>
       </c>
       <c r="C3251">
-        <v>14831</v>
+        <v>68719</v>
       </c>
       <c r="D3251" t="str">
         <v/>
@@ -65400,18 +65400,18 @@
         <v>1</v>
       </c>
       <c r="F3251" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>2414f3a2e913c01a8b5a8b387b18c42358f30d7d382a2e248a313dc792a694c5</v>
       </c>
     </row>
     <row r="3252">
       <c r="A3252" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_313_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3252" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_313_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3252">
-        <v>24991</v>
+        <v>58210</v>
       </c>
       <c r="D3252" t="str">
         <v/>
@@ -65420,18 +65420,18 @@
         <v>1</v>
       </c>
       <c r="F3252" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>90470ee9bc04c72da8e0b3b1fd660b1d398b6040386296cca00f287ede9f746e</v>
       </c>
     </row>
     <row r="3253">
       <c r="A3253" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_313_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3253" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_313_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3253">
-        <v>25051</v>
+        <v>58350</v>
       </c>
       <c r="D3253" t="str">
         <v/>
@@ -65440,18 +65440,18 @@
         <v>1</v>
       </c>
       <c r="F3253" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>3bf025c06c352e0222ca2b99add2348430a4dd9f05eb8cc0bcde15809e2bcb7a</v>
       </c>
     </row>
     <row r="3254">
       <c r="A3254" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_313_002_dialog_english.dialog</v>
       </c>
       <c r="B3254" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_313_002_dialog_english.dialog</v>
       </c>
       <c r="C3254">
-        <v>20539</v>
+        <v>47051</v>
       </c>
       <c r="D3254" t="str">
         <v/>
@@ -65460,18 +65460,18 @@
         <v>1</v>
       </c>
       <c r="F3254" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>01d5d39e2830a062b3a8414610274ae5e729a342f7f02431277a05b6e46313b4</v>
       </c>
     </row>
     <row r="3255">
       <c r="A3255" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_313_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3255" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_313_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3255">
-        <v>28605</v>
+        <v>65657</v>
       </c>
       <c r="D3255" t="str">
         <v/>
@@ -65480,18 +65480,18 @@
         <v>1</v>
       </c>
       <c r="F3255" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>b28a036b5636c53e7ee7b0b09e820b9691e1f0399d845dc50ab556b5e5becaaa</v>
       </c>
     </row>
     <row r="3256">
       <c r="A3256" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_313_002_dialog_korean.dialog</v>
       </c>
       <c r="B3256" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_313_002_dialog_korean.dialog</v>
       </c>
       <c r="C3256">
-        <v>26803</v>
+        <v>62479</v>
       </c>
       <c r="D3256" t="str">
         <v/>
@@ -65500,18 +65500,18 @@
         <v>1</v>
       </c>
       <c r="F3256" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>5e7cc9371343c4653216de21253195ce32e82de68e0a1094b2c65bf5919ebada</v>
       </c>
     </row>
     <row r="3257">
       <c r="A3257" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_313_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3257" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_313_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3257">
-        <v>38436</v>
+        <v>63539</v>
       </c>
       <c r="D3257" t="str">
         <v/>
@@ -65520,18 +65520,18 @@
         <v>1</v>
       </c>
       <c r="F3257" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>8f9cdde9fdfca77442a36717d488e13677d25c5e233044806ed9aa0febfffb8c</v>
       </c>
     </row>
     <row r="3258">
       <c r="A3258" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_313_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3258" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_313_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3258">
-        <v>38520</v>
+        <v>63709</v>
       </c>
       <c r="D3258" t="str">
         <v/>
@@ -65540,18 +65540,18 @@
         <v>1</v>
       </c>
       <c r="F3258" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>310c1be26e90b2b09a842c75fbba90bf72801900be7cd0f3bec4b1fb97ed30d3</v>
       </c>
     </row>
     <row r="3259">
       <c r="A3259" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_313_003_dialog_english.dialog</v>
       </c>
       <c r="B3259" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_313_003_dialog_english.dialog</v>
       </c>
       <c r="C3259">
-        <v>31090</v>
+        <v>51413</v>
       </c>
       <c r="D3259" t="str">
         <v/>
@@ -65560,18 +65560,18 @@
         <v>1</v>
       </c>
       <c r="F3259" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>5f57c9da26d2b5fbffc1e60aaddf4dca974f52202af8d92c8eb6fd3d75b076ad</v>
       </c>
     </row>
     <row r="3260">
       <c r="A3260" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_313_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3260" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_313_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3260">
-        <v>42076</v>
+        <v>70232</v>
       </c>
       <c r="D3260" t="str">
         <v/>
@@ -65580,18 +65580,18 @@
         <v>1</v>
       </c>
       <c r="F3260" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>f1f0e0eb865d9396186e9746ab05060bcfb2bb3d74db8b97e9ba100894841872</v>
       </c>
     </row>
     <row r="3261">
       <c r="A3261" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_313_003_dialog_korean.dialog</v>
       </c>
       <c r="B3261" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_313_003_dialog_korean.dialog</v>
       </c>
       <c r="C3261">
-        <v>41121</v>
+        <v>66322</v>
       </c>
       <c r="D3261" t="str">
         <v/>
@@ -65600,18 +65600,18 @@
         <v>1</v>
       </c>
       <c r="F3261" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>f043e5b2058132e8e946df73a8ee4b0e1f301180ad9a3948095dadd41c6f9f7c</v>
       </c>
     </row>
     <row r="3262">
       <c r="A3262" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_313_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3262" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_313_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3262">
-        <v>4729</v>
+        <v>50611</v>
       </c>
       <c r="D3262" t="str">
         <v/>
@@ -65620,18 +65620,18 @@
         <v>1</v>
       </c>
       <c r="F3262" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>7c833e507d63fb79206b69847eef55a2c1998285115053bdd6d3ece323b54e97</v>
       </c>
     </row>
     <row r="3263">
       <c r="A3263" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_313_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3263" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_313_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3263">
-        <v>4735</v>
+        <v>50751</v>
       </c>
       <c r="D3263" t="str">
         <v/>
@@ -65640,18 +65640,18 @@
         <v>1</v>
       </c>
       <c r="F3263" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>e3f275fce52f1bf53ba9fb40754eb71867c2068adf6e09f74fb9290dd4c57312</v>
       </c>
     </row>
     <row r="3264">
       <c r="A3264" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_313_004_dialog_english.dialog</v>
       </c>
       <c r="B3264" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_313_004_dialog_english.dialog</v>
       </c>
       <c r="C3264">
-        <v>3676</v>
+        <v>39997</v>
       </c>
       <c r="D3264" t="str">
         <v/>
@@ -65660,18 +65660,18 @@
         <v>1</v>
       </c>
       <c r="F3264" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>d58ed04338de196d00e7a287d44b56db3508e2c06385ccc31d65c2c87a00522a</v>
       </c>
     </row>
     <row r="3265">
       <c r="A3265" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_313_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3265" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_313_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3265">
-        <v>4777</v>
+        <v>58295</v>
       </c>
       <c r="D3265" t="str">
         <v/>
@@ -65680,33 +65680,633 @@
         <v>1</v>
       </c>
       <c r="F3265" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>e545932a6daf4a76a31f5eab416ce328cb61339e1500a44b72ad569fd5370b43</v>
       </c>
     </row>
     <row r="3266">
       <c r="A3266" t="str">
+        <v>main_313_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3266" t="str">
+        <v>main_313_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3266">
+        <v>53691</v>
+      </c>
+      <c r="D3266" t="str">
+        <v/>
+      </c>
+      <c r="E3266">
+        <v>1</v>
+      </c>
+      <c r="F3266" t="str">
+        <v>ed9dc2ece4fb0470b2e2b649f247b04f8783c9c4fb87612b8c387146b6363fcb</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="str">
+        <v>main_313_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3267" t="str">
+        <v>main_313_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3267">
+        <v>96418</v>
+      </c>
+      <c r="D3267" t="str">
+        <v/>
+      </c>
+      <c r="E3267">
+        <v>1</v>
+      </c>
+      <c r="F3267" t="str">
+        <v>b201ad79f6e4ea9a9675225158923d139361a8b21d6289e66b8835323a9447ff</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="str">
+        <v>main_313_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3268" t="str">
+        <v>main_313_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3268">
+        <v>96662</v>
+      </c>
+      <c r="D3268" t="str">
+        <v/>
+      </c>
+      <c r="E3268">
+        <v>1</v>
+      </c>
+      <c r="F3268" t="str">
+        <v>75026fd5a903ee584c89d66225dfc11e6ab24b6bb59570c10f06618704f443e8</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="str">
+        <v>main_313_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3269" t="str">
+        <v>main_313_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3269">
+        <v>72820</v>
+      </c>
+      <c r="D3269" t="str">
+        <v/>
+      </c>
+      <c r="E3269">
+        <v>1</v>
+      </c>
+      <c r="F3269" t="str">
+        <v>87cb4296195b5033155670e471564c0720a918145d47ad7191e6848dca027862</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="str">
+        <v>main_313_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3270" t="str">
+        <v>main_313_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3270">
+        <v>115649</v>
+      </c>
+      <c r="D3270" t="str">
+        <v/>
+      </c>
+      <c r="E3270">
+        <v>1</v>
+      </c>
+      <c r="F3270" t="str">
+        <v>acdd47e84b126700bcd8951ad25f297c402f3b1eded352b9a542b2bcd5e6b4c0</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="str">
+        <v>main_313_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3271" t="str">
+        <v>main_313_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3271">
+        <v>106219</v>
+      </c>
+      <c r="D3271" t="str">
+        <v/>
+      </c>
+      <c r="E3271">
+        <v>1</v>
+      </c>
+      <c r="F3271" t="str">
+        <v>205539f06c746a5e9b93f7edbf54c9ddfdb288ee9a36fb3fa090c198cb38ed18</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="str">
+        <v>main_313_006_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3272" t="str">
+        <v>main_313_006_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3272">
+        <v>60172</v>
+      </c>
+      <c r="D3272" t="str">
+        <v/>
+      </c>
+      <c r="E3272">
+        <v>1</v>
+      </c>
+      <c r="F3272" t="str">
+        <v>522b16dffdae00009428d5f72e20a28cc38d8567cfbb4eff3775ece1ecb5e1db</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="str">
+        <v>main_313_006_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3273" t="str">
+        <v>main_313_006_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3273">
+        <v>60340</v>
+      </c>
+      <c r="D3273" t="str">
+        <v/>
+      </c>
+      <c r="E3273">
+        <v>1</v>
+      </c>
+      <c r="F3273" t="str">
+        <v>c9459d140dea5f4ad04784cf43381911ff9b3772952ae4268562124ea297df55</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="str">
+        <v>main_313_006_dialog_english.dialog</v>
+      </c>
+      <c r="B3274" t="str">
+        <v>main_313_006_dialog_english.dialog</v>
+      </c>
+      <c r="C3274">
+        <v>47062</v>
+      </c>
+      <c r="D3274" t="str">
+        <v/>
+      </c>
+      <c r="E3274">
+        <v>1</v>
+      </c>
+      <c r="F3274" t="str">
+        <v>716d6fdd87bca749287c6b6fa2494b61edecd583de7802dd307e9ebb5f326091</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="str">
+        <v>main_313_006_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3275" t="str">
+        <v>main_313_006_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3275">
+        <v>70573</v>
+      </c>
+      <c r="D3275" t="str">
+        <v/>
+      </c>
+      <c r="E3275">
+        <v>1</v>
+      </c>
+      <c r="F3275" t="str">
+        <v>5070cb47ea1971751689b85f1cab78caf49f791d8eca8f3c5be9788f6025350b</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="str">
+        <v>main_313_006_dialog_korean.dialog</v>
+      </c>
+      <c r="B3276" t="str">
+        <v>main_313_006_dialog_korean.dialog</v>
+      </c>
+      <c r="C3276">
+        <v>63559</v>
+      </c>
+      <c r="D3276" t="str">
+        <v/>
+      </c>
+      <c r="E3276">
+        <v>1</v>
+      </c>
+      <c r="F3276" t="str">
+        <v>5599a4955c7ffaf9d3d96613bbdb0f496d5c53843a66f20f0ced0f7efe4ec48d</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3277" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3277">
+        <v>14207</v>
+      </c>
+      <c r="D3277" t="str">
+        <v/>
+      </c>
+      <c r="E3277">
+        <v>1</v>
+      </c>
+      <c r="F3277" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3278" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3278">
+        <v>14239</v>
+      </c>
+      <c r="D3278" t="str">
+        <v/>
+      </c>
+      <c r="E3278">
+        <v>1</v>
+      </c>
+      <c r="F3278" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3279" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3279">
+        <v>11494</v>
+      </c>
+      <c r="D3279" t="str">
+        <v/>
+      </c>
+      <c r="E3279">
+        <v>1</v>
+      </c>
+      <c r="F3279" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3280" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3280">
+        <v>15458</v>
+      </c>
+      <c r="D3280" t="str">
+        <v/>
+      </c>
+      <c r="E3280">
+        <v>1</v>
+      </c>
+      <c r="F3280" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3281" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3281">
+        <v>14831</v>
+      </c>
+      <c r="D3281" t="str">
+        <v/>
+      </c>
+      <c r="E3281">
+        <v>1</v>
+      </c>
+      <c r="F3281" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3282" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3282">
+        <v>24991</v>
+      </c>
+      <c r="D3282" t="str">
+        <v/>
+      </c>
+      <c r="E3282">
+        <v>1</v>
+      </c>
+      <c r="F3282" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3283" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3283">
+        <v>25051</v>
+      </c>
+      <c r="D3283" t="str">
+        <v/>
+      </c>
+      <c r="E3283">
+        <v>1</v>
+      </c>
+      <c r="F3283" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3284" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3284">
+        <v>20539</v>
+      </c>
+      <c r="D3284" t="str">
+        <v/>
+      </c>
+      <c r="E3284">
+        <v>1</v>
+      </c>
+      <c r="F3284" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3285" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3285">
+        <v>28605</v>
+      </c>
+      <c r="D3285" t="str">
+        <v/>
+      </c>
+      <c r="E3285">
+        <v>1</v>
+      </c>
+      <c r="F3285" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3286" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3286">
+        <v>26803</v>
+      </c>
+      <c r="D3286" t="str">
+        <v/>
+      </c>
+      <c r="E3286">
+        <v>1</v>
+      </c>
+      <c r="F3286" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3287" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3287">
+        <v>38436</v>
+      </c>
+      <c r="D3287" t="str">
+        <v/>
+      </c>
+      <c r="E3287">
+        <v>1</v>
+      </c>
+      <c r="F3287" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3288" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3288">
+        <v>38520</v>
+      </c>
+      <c r="D3288" t="str">
+        <v/>
+      </c>
+      <c r="E3288">
+        <v>1</v>
+      </c>
+      <c r="F3288" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3289" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3289">
+        <v>31090</v>
+      </c>
+      <c r="D3289" t="str">
+        <v/>
+      </c>
+      <c r="E3289">
+        <v>1</v>
+      </c>
+      <c r="F3289" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3290" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3290">
+        <v>42076</v>
+      </c>
+      <c r="D3290" t="str">
+        <v/>
+      </c>
+      <c r="E3290">
+        <v>1</v>
+      </c>
+      <c r="F3290" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3291" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3291">
+        <v>41121</v>
+      </c>
+      <c r="D3291" t="str">
+        <v/>
+      </c>
+      <c r="E3291">
+        <v>1</v>
+      </c>
+      <c r="F3291" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3292" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3292">
+        <v>4729</v>
+      </c>
+      <c r="D3292" t="str">
+        <v/>
+      </c>
+      <c r="E3292">
+        <v>1</v>
+      </c>
+      <c r="F3292" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3293" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3293">
+        <v>4735</v>
+      </c>
+      <c r="D3293" t="str">
+        <v/>
+      </c>
+      <c r="E3293">
+        <v>1</v>
+      </c>
+      <c r="F3293" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3294" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3294">
+        <v>3676</v>
+      </c>
+      <c r="D3294" t="str">
+        <v/>
+      </c>
+      <c r="E3294">
+        <v>1</v>
+      </c>
+      <c r="F3294" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3295" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3295">
+        <v>4777</v>
+      </c>
+      <c r="D3295" t="str">
+        <v/>
+      </c>
+      <c r="E3295">
+        <v>1</v>
+      </c>
+      <c r="F3295" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3266" t="str">
+      <c r="B3296" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3266">
+      <c r="C3296">
         <v>4424</v>
       </c>
-      <c r="D3266" t="str">
-        <v/>
-      </c>
-      <c r="E3266">
-        <v>1</v>
-      </c>
-      <c r="F3266" t="str">
+      <c r="D3296" t="str">
+        <v/>
+      </c>
+      <c r="E3296">
+        <v>1</v>
+      </c>
+      <c r="F3296" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3266"/>
+  <autoFilter ref="A1:F3296"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3266"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3296"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -65371,7 +65371,7 @@
         <v>main_313_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3250">
-        <v>73494</v>
+        <v>73338</v>
       </c>
       <c r="D3250" t="str">
         <v/>
@@ -65380,7 +65380,7 @@
         <v>1</v>
       </c>
       <c r="F3250" t="str">
-        <v>e2273b93c257f120838556770afb8bd88d3a9e5eaba2af272c14fec7a4e74042</v>
+        <v>6381a5963012c196a13141bd7d2ce9366cb64d05b5d191b2f0e39b20d78e70e2</v>
       </c>
     </row>
     <row r="3251">
@@ -65391,7 +65391,7 @@
         <v>main_313_001_dialog_korean.dialog</v>
       </c>
       <c r="C3251">
-        <v>68719</v>
+        <v>68877</v>
       </c>
       <c r="D3251" t="str">
         <v/>
@@ -65400,7 +65400,7 @@
         <v>1</v>
       </c>
       <c r="F3251" t="str">
-        <v>2414f3a2e913c01a8b5a8b387b18c42358f30d7d382a2e248a313dc792a694c5</v>
+        <v>c8fad751d0c2ea8ca50cd91747888e359d643f6403dbc6ffcfbda1ffa7cbc113</v>
       </c>
     </row>
     <row r="3252">
@@ -65451,7 +65451,7 @@
         <v>main_313_002_dialog_english.dialog</v>
       </c>
       <c r="C3254">
-        <v>47051</v>
+        <v>47061</v>
       </c>
       <c r="D3254" t="str">
         <v/>
@@ -65460,7 +65460,7 @@
         <v>1</v>
       </c>
       <c r="F3254" t="str">
-        <v>01d5d39e2830a062b3a8414610274ae5e729a342f7f02431277a05b6e46313b4</v>
+        <v>9190ea6957582f6092a30a6fffebad9968cb980720ccd7c7c843f19a0f0ec1c7</v>
       </c>
     </row>
     <row r="3255">
@@ -65471,7 +65471,7 @@
         <v>main_313_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3255">
-        <v>65657</v>
+        <v>65740</v>
       </c>
       <c r="D3255" t="str">
         <v/>
@@ -65480,7 +65480,7 @@
         <v>1</v>
       </c>
       <c r="F3255" t="str">
-        <v>b28a036b5636c53e7ee7b0b09e820b9691e1f0399d845dc50ab556b5e5becaaa</v>
+        <v>90aa17d01f371f96b5a36789f63bdb0274c50b6e93c85b8ef749a43b8820877e</v>
       </c>
     </row>
     <row r="3256">
@@ -65491,7 +65491,7 @@
         <v>main_313_002_dialog_korean.dialog</v>
       </c>
       <c r="C3256">
-        <v>62479</v>
+        <v>62548</v>
       </c>
       <c r="D3256" t="str">
         <v/>
@@ -65500,7 +65500,7 @@
         <v>1</v>
       </c>
       <c r="F3256" t="str">
-        <v>5e7cc9371343c4653216de21253195ce32e82de68e0a1094b2c65bf5919ebada</v>
+        <v>1c52eb0b521e6c281bae5987e470e77c42d227f0d514e9124915f96a87fa5bcd</v>
       </c>
     </row>
     <row r="3257">
@@ -65560,7 +65560,7 @@
         <v>1</v>
       </c>
       <c r="F3259" t="str">
-        <v>5f57c9da26d2b5fbffc1e60aaddf4dca974f52202af8d92c8eb6fd3d75b076ad</v>
+        <v>dee1ffea87637c5f803645fc76cab17296b962f93bc709d314a22dc7049649c8</v>
       </c>
     </row>
     <row r="3260">
@@ -65571,7 +65571,7 @@
         <v>main_313_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3260">
-        <v>70232</v>
+        <v>70726</v>
       </c>
       <c r="D3260" t="str">
         <v/>
@@ -65580,7 +65580,7 @@
         <v>1</v>
       </c>
       <c r="F3260" t="str">
-        <v>f1f0e0eb865d9396186e9746ab05060bcfb2bb3d74db8b97e9ba100894841872</v>
+        <v>1e1a764549716aaa1c663159e37f07c77d6d5f43c289e8ffc5c3329ae62750c9</v>
       </c>
     </row>
     <row r="3261">
@@ -65591,7 +65591,7 @@
         <v>main_313_003_dialog_korean.dialog</v>
       </c>
       <c r="C3261">
-        <v>66322</v>
+        <v>66586</v>
       </c>
       <c r="D3261" t="str">
         <v/>
@@ -65600,7 +65600,7 @@
         <v>1</v>
       </c>
       <c r="F3261" t="str">
-        <v>f043e5b2058132e8e946df73a8ee4b0e1f301180ad9a3948095dadd41c6f9f7c</v>
+        <v>5731d4948b2e5ab262fb5bf9b06e6b815deb551d12df632278833c7ee843d540</v>
       </c>
     </row>
     <row r="3262">
@@ -65651,7 +65651,7 @@
         <v>main_313_004_dialog_english.dialog</v>
       </c>
       <c r="C3264">
-        <v>39997</v>
+        <v>39949</v>
       </c>
       <c r="D3264" t="str">
         <v/>
@@ -65660,7 +65660,7 @@
         <v>1</v>
       </c>
       <c r="F3264" t="str">
-        <v>d58ed04338de196d00e7a287d44b56db3508e2c06385ccc31d65c2c87a00522a</v>
+        <v>6161015709776f55aba53f92b490cbf90321aa587516931188fbb89136d981c2</v>
       </c>
     </row>
     <row r="3265">
@@ -65671,7 +65671,7 @@
         <v>main_313_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3265">
-        <v>58295</v>
+        <v>58321</v>
       </c>
       <c r="D3265" t="str">
         <v/>
@@ -65680,7 +65680,7 @@
         <v>1</v>
       </c>
       <c r="F3265" t="str">
-        <v>e545932a6daf4a76a31f5eab416ce328cb61339e1500a44b72ad569fd5370b43</v>
+        <v>5d10c18a95dd59a4d25e6c3892ac674d4fe7bd66911367ce15500d2c74955c4b</v>
       </c>
     </row>
     <row r="3266">
@@ -65691,7 +65691,7 @@
         <v>main_313_004_dialog_korean.dialog</v>
       </c>
       <c r="C3266">
-        <v>53691</v>
+        <v>54003</v>
       </c>
       <c r="D3266" t="str">
         <v/>
@@ -65700,7 +65700,7 @@
         <v>1</v>
       </c>
       <c r="F3266" t="str">
-        <v>ed9dc2ece4fb0470b2e2b649f247b04f8783c9c4fb87612b8c387146b6363fcb</v>
+        <v>a5adeafe47860409a614568d77178553cf2f6e38563c6fbb93efc5e619b2e8e4</v>
       </c>
     </row>
     <row r="3267">
@@ -65751,7 +65751,7 @@
         <v>main_313_005_dialog_english.dialog</v>
       </c>
       <c r="C3269">
-        <v>72820</v>
+        <v>72762</v>
       </c>
       <c r="D3269" t="str">
         <v/>
@@ -65760,7 +65760,7 @@
         <v>1</v>
       </c>
       <c r="F3269" t="str">
-        <v>87cb4296195b5033155670e471564c0720a918145d47ad7191e6848dca027862</v>
+        <v>ec1282aa87a56a61b0ddf6b6f9c79ce407f911dae0e5b3768cd7470fa83e8589</v>
       </c>
     </row>
     <row r="3270">
@@ -65771,7 +65771,7 @@
         <v>main_313_005_dialog_japanese.dialog</v>
       </c>
       <c r="C3270">
-        <v>115649</v>
+        <v>115750</v>
       </c>
       <c r="D3270" t="str">
         <v/>
@@ -65780,7 +65780,7 @@
         <v>1</v>
       </c>
       <c r="F3270" t="str">
-        <v>acdd47e84b126700bcd8951ad25f297c402f3b1eded352b9a542b2bcd5e6b4c0</v>
+        <v>a391fb5b7063c428e5ad254f43a9ede75c82ec89f896106a459e7042e638f3f6</v>
       </c>
     </row>
     <row r="3271">
@@ -65791,7 +65791,7 @@
         <v>main_313_005_dialog_korean.dialog</v>
       </c>
       <c r="C3271">
-        <v>106219</v>
+        <v>106565</v>
       </c>
       <c r="D3271" t="str">
         <v/>
@@ -65800,7 +65800,7 @@
         <v>1</v>
       </c>
       <c r="F3271" t="str">
-        <v>205539f06c746a5e9b93f7edbf54c9ddfdb288ee9a36fb3fa090c198cb38ed18</v>
+        <v>3abd64fdad27ab0e5ac875a9079ab6f7da60aba8a2588190b4684020d0ef8143</v>
       </c>
     </row>
     <row r="3272">
@@ -65851,7 +65851,7 @@
         <v>main_313_006_dialog_english.dialog</v>
       </c>
       <c r="C3274">
-        <v>47062</v>
+        <v>47216</v>
       </c>
       <c r="D3274" t="str">
         <v/>
@@ -65860,7 +65860,7 @@
         <v>1</v>
       </c>
       <c r="F3274" t="str">
-        <v>716d6fdd87bca749287c6b6fa2494b61edecd583de7802dd307e9ebb5f326091</v>
+        <v>3ac29bfb7ec4998b2b194a996cad8ad74c06b14dc57e14c2047d06985bb8090b</v>
       </c>
     </row>
     <row r="3275">
@@ -65871,7 +65871,7 @@
         <v>main_313_006_dialog_japanese.dialog</v>
       </c>
       <c r="C3275">
-        <v>70573</v>
+        <v>70635</v>
       </c>
       <c r="D3275" t="str">
         <v/>
@@ -65880,7 +65880,7 @@
         <v>1</v>
       </c>
       <c r="F3275" t="str">
-        <v>5070cb47ea1971751689b85f1cab78caf49f791d8eca8f3c5be9788f6025350b</v>
+        <v>52b6b3a0288642f81434cb66c713f9f1d84425aff2c2375c9ed9509b96dbd400</v>
       </c>
     </row>
     <row r="3276">
@@ -65891,7 +65891,7 @@
         <v>main_313_006_dialog_korean.dialog</v>
       </c>
       <c r="C3276">
-        <v>63559</v>
+        <v>63620</v>
       </c>
       <c r="D3276" t="str">
         <v/>
@@ -65900,7 +65900,7 @@
         <v>1</v>
       </c>
       <c r="F3276" t="str">
-        <v>5599a4955c7ffaf9d3d96613bbdb0f496d5c53843a66f20f0ced0f7efe4ec48d</v>
+        <v>ca3219ddb230cbdcd8ba0ebc2da8d7200ce9d55f7d835ed1722653eb5f582248</v>
       </c>
     </row>
     <row r="3277">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -33311,7 +33311,7 @@
         <v>fest_024_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1647">
-        <v>49874</v>
+        <v>49822</v>
       </c>
       <c r="D1647" t="str">
         <v/>
@@ -33320,7 +33320,7 @@
         <v>1</v>
       </c>
       <c r="F1647" t="str">
-        <v>789a7e3a734303a87db00278c26a38dadbbedd540d7a5d4b975b1792fa1d5dec</v>
+        <v>27c2c72de4af8b257c206b23ddb0f561d17ba04d8ae80f061905f3316e12c7d4</v>
       </c>
     </row>
     <row r="1648">
@@ -33351,7 +33351,7 @@
         <v>fest_024_004_dialog_english.dialog</v>
       </c>
       <c r="C1649">
-        <v>38287</v>
+        <v>38315</v>
       </c>
       <c r="D1649" t="str">
         <v/>
@@ -33360,7 +33360,7 @@
         <v>1</v>
       </c>
       <c r="F1649" t="str">
-        <v>24d9f448d8bc06f426af9b590e99a0e01415d543bde940acd205bc1bb408e96e</v>
+        <v>f052b622f639f8aa8e29623b0c017ef30f0f4f3564a00c081fa1102ac53ea53a</v>
       </c>
     </row>
     <row r="1650">
@@ -36611,7 +36611,7 @@
         <v>fest_c20_405_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1812">
-        <v>12312</v>
+        <v>25928</v>
       </c>
       <c r="D1812" t="str">
         <v/>
@@ -36620,7 +36620,7 @@
         <v>1</v>
       </c>
       <c r="F1812" t="str">
-        <v>662b7079f289d6d4454cd513d785f4c3f0231d907f989c649caa3ba54e4f24c9</v>
+        <v>96fee50aaf9474481aa911a862a4e6fda594f9b7a654c319a9e38d09025597fd</v>
       </c>
     </row>
     <row r="1813">
@@ -36631,7 +36631,7 @@
         <v>fest_c20_405_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1813">
-        <v>12344</v>
+        <v>26002</v>
       </c>
       <c r="D1813" t="str">
         <v/>
@@ -36640,7 +36640,7 @@
         <v>1</v>
       </c>
       <c r="F1813" t="str">
-        <v>f6b70f61b49f71083496314a501d7b2f40b79b0c13be7fbf6398ea87c967d974</v>
+        <v>b676521ecf18c31fc80235612cea794b4f6121e56e8408579cf911d715b978a6</v>
       </c>
     </row>
     <row r="1814">
@@ -36651,7 +36651,7 @@
         <v>fest_c20_405_dialog_english.dialog</v>
       </c>
       <c r="C1814">
-        <v>10735</v>
+        <v>22238</v>
       </c>
       <c r="D1814" t="str">
         <v/>
@@ -36660,7 +36660,7 @@
         <v>1</v>
       </c>
       <c r="F1814" t="str">
-        <v>902141c3c4cff799398fb403299f29a9cf6927325c0298f2aba726640e325f22</v>
+        <v>9447d76d9917fd90ba9e1a2e08bea1a097e3a96d184dd28cdd7115c0770a1821</v>
       </c>
     </row>
     <row r="1815">
@@ -36671,7 +36671,7 @@
         <v>fest_c20_405_dialog_japanese.dialog</v>
       </c>
       <c r="C1815">
-        <v>12992</v>
+        <v>27939</v>
       </c>
       <c r="D1815" t="str">
         <v/>
@@ -36680,7 +36680,7 @@
         <v>1</v>
       </c>
       <c r="F1815" t="str">
-        <v>858beca729dfac62e25dd248763283bcf16ab60b10a379de9c20c808a0c31a04</v>
+        <v>4e1ac738f529c839477997e441a93c9288c309e619768d76c68ad825fb484576</v>
       </c>
     </row>
     <row r="1816">
@@ -36691,7 +36691,7 @@
         <v>fest_c20_405_dialog_korean.dialog</v>
       </c>
       <c r="C1816">
-        <v>11910</v>
+        <v>26658</v>
       </c>
       <c r="D1816" t="str">
         <v/>
@@ -36700,7 +36700,7 @@
         <v>1</v>
       </c>
       <c r="F1816" t="str">
-        <v>0299e7f57ae6bd21792cbc8a576eaa27054f3b0c3feb3497bee3e16265787a14</v>
+        <v>e55ca3e38bb9d8354b2df453c7b16697420aa768a70f87d2c0faf27f4e327537</v>
       </c>
     </row>
     <row r="1817">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3326</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3296"/>
+  <dimension ref="A1:F3326"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65905,13 +65905,13 @@
     </row>
     <row r="3277">
       <c r="A3277" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_314_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3277" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_314_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3277">
-        <v>14207</v>
+        <v>71378</v>
       </c>
       <c r="D3277" t="str">
         <v/>
@@ -65920,18 +65920,18 @@
         <v>1</v>
       </c>
       <c r="F3277" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>b5b12ca9646d43893404360e9713bd91137a4dfbd575c31f2ab5ab1bfd3e8a97</v>
       </c>
     </row>
     <row r="3278">
       <c r="A3278" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_314_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3278" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_314_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3278">
-        <v>14239</v>
+        <v>71556</v>
       </c>
       <c r="D3278" t="str">
         <v/>
@@ -65940,18 +65940,18 @@
         <v>1</v>
       </c>
       <c r="F3278" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>233a6e9a479e7500e1ec979baf90e6fd7ed3f0c3d9784f40da57adfd246b7580</v>
       </c>
     </row>
     <row r="3279">
       <c r="A3279" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_314_001_dialog_english.dialog</v>
       </c>
       <c r="B3279" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_314_001_dialog_english.dialog</v>
       </c>
       <c r="C3279">
-        <v>11494</v>
+        <v>55417</v>
       </c>
       <c r="D3279" t="str">
         <v/>
@@ -65960,18 +65960,18 @@
         <v>1</v>
       </c>
       <c r="F3279" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>2462baba1bd6d09e008c02582b413b3be399b99583b56a36fe615f6adbb51e2d</v>
       </c>
     </row>
     <row r="3280">
       <c r="A3280" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_314_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3280" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_314_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3280">
-        <v>15458</v>
+        <v>87110</v>
       </c>
       <c r="D3280" t="str">
         <v/>
@@ -65980,18 +65980,18 @@
         <v>1</v>
       </c>
       <c r="F3280" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>d374087c0cacd45e3c4e567658c219a2d0ff3cc8c0e4a10c960a5ca1e8c9d991</v>
       </c>
     </row>
     <row r="3281">
       <c r="A3281" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_314_001_dialog_korean.dialog</v>
       </c>
       <c r="B3281" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_314_001_dialog_korean.dialog</v>
       </c>
       <c r="C3281">
-        <v>14831</v>
+        <v>82736</v>
       </c>
       <c r="D3281" t="str">
         <v/>
@@ -66000,18 +66000,18 @@
         <v>1</v>
       </c>
       <c r="F3281" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>30a06c22d01ea98d0d5d9e45c71f67448b8e24d12d1796efcad168abd2c129c7</v>
       </c>
     </row>
     <row r="3282">
       <c r="A3282" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_314_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3282" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_314_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3282">
-        <v>24991</v>
+        <v>66204</v>
       </c>
       <c r="D3282" t="str">
         <v/>
@@ -66020,18 +66020,18 @@
         <v>1</v>
       </c>
       <c r="F3282" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>9fd7ecca4a3dcc590c84f5c99161290cd3d39c71b21883a8705dcfc2c5372b3d</v>
       </c>
     </row>
     <row r="3283">
       <c r="A3283" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_314_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3283" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_314_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3283">
-        <v>25051</v>
+        <v>66390</v>
       </c>
       <c r="D3283" t="str">
         <v/>
@@ -66040,18 +66040,18 @@
         <v>1</v>
       </c>
       <c r="F3283" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>c6b3f1af964f93c717ae24d7d960b2c2744bc3e8008d39eacfbdaaeeba300669</v>
       </c>
     </row>
     <row r="3284">
       <c r="A3284" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_314_002_dialog_english.dialog</v>
       </c>
       <c r="B3284" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_314_002_dialog_english.dialog</v>
       </c>
       <c r="C3284">
-        <v>20539</v>
+        <v>52471</v>
       </c>
       <c r="D3284" t="str">
         <v/>
@@ -66060,18 +66060,18 @@
         <v>1</v>
       </c>
       <c r="F3284" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>e8d6ec37954e77d6ed2b54b157a23d06a3f9812330a9bbcb5b98e07d255eb244</v>
       </c>
     </row>
     <row r="3285">
       <c r="A3285" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_314_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3285" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_314_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3285">
-        <v>28605</v>
+        <v>77774</v>
       </c>
       <c r="D3285" t="str">
         <v/>
@@ -66080,18 +66080,18 @@
         <v>1</v>
       </c>
       <c r="F3285" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>3eb330717ad9a1244ee68e20551a9f86da19bf0ca9793d2f3d1b140f7b230b59</v>
       </c>
     </row>
     <row r="3286">
       <c r="A3286" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_314_002_dialog_korean.dialog</v>
       </c>
       <c r="B3286" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_314_002_dialog_korean.dialog</v>
       </c>
       <c r="C3286">
-        <v>26803</v>
+        <v>74552</v>
       </c>
       <c r="D3286" t="str">
         <v/>
@@ -66100,18 +66100,18 @@
         <v>1</v>
       </c>
       <c r="F3286" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>2e480519d29e04dd47d163050954bf2484129186a215e1ec20557c5838213a89</v>
       </c>
     </row>
     <row r="3287">
       <c r="A3287" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_314_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3287" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_314_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3287">
-        <v>38436</v>
+        <v>55244</v>
       </c>
       <c r="D3287" t="str">
         <v/>
@@ -66120,18 +66120,18 @@
         <v>1</v>
       </c>
       <c r="F3287" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>06f398cabc7fa93957bfd19e1e45a9c04eccc4ea9f52a7215e4cfbeeb2e761ef</v>
       </c>
     </row>
     <row r="3288">
       <c r="A3288" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_314_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3288" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_314_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3288">
-        <v>38520</v>
+        <v>55394</v>
       </c>
       <c r="D3288" t="str">
         <v/>
@@ -66140,18 +66140,18 @@
         <v>1</v>
       </c>
       <c r="F3288" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>0aa4e84c073b27c37e6f15f17e7c3c2cada7fcd59887d692b0cccf7a07295438</v>
       </c>
     </row>
     <row r="3289">
       <c r="A3289" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_314_003_dialog_english.dialog</v>
       </c>
       <c r="B3289" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_314_003_dialog_english.dialog</v>
       </c>
       <c r="C3289">
-        <v>31090</v>
+        <v>43329</v>
       </c>
       <c r="D3289" t="str">
         <v/>
@@ -66160,18 +66160,18 @@
         <v>1</v>
       </c>
       <c r="F3289" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>863c41cf11931f2087fb05adf1cdfc3224754e5557a7863b84d75ab9b782c6d8</v>
       </c>
     </row>
     <row r="3290">
       <c r="A3290" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_314_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3290" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_314_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3290">
-        <v>42076</v>
+        <v>62321</v>
       </c>
       <c r="D3290" t="str">
         <v/>
@@ -66180,18 +66180,18 @@
         <v>1</v>
       </c>
       <c r="F3290" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>ece6a7c12affa6e037e4f1ab590ad09a413c772544009c54af9e57cca501d3f7</v>
       </c>
     </row>
     <row r="3291">
       <c r="A3291" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_314_003_dialog_korean.dialog</v>
       </c>
       <c r="B3291" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_314_003_dialog_korean.dialog</v>
       </c>
       <c r="C3291">
-        <v>41121</v>
+        <v>59085</v>
       </c>
       <c r="D3291" t="str">
         <v/>
@@ -66200,18 +66200,18 @@
         <v>1</v>
       </c>
       <c r="F3291" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>4ca87d4301af4636b2b8526269d3357e06162e47d2327fd2007a8e5b6ed98e94</v>
       </c>
     </row>
     <row r="3292">
       <c r="A3292" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_314_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3292" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_314_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3292">
-        <v>4729</v>
+        <v>43528</v>
       </c>
       <c r="D3292" t="str">
         <v/>
@@ -66220,18 +66220,18 @@
         <v>1</v>
       </c>
       <c r="F3292" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>ab01e136a4e681bdc7655ba8a8afaae4b74b73f3d0f02fd79f818bbe9a6b923b</v>
       </c>
     </row>
     <row r="3293">
       <c r="A3293" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_314_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3293" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_314_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3293">
-        <v>4735</v>
+        <v>43640</v>
       </c>
       <c r="D3293" t="str">
         <v/>
@@ -66240,18 +66240,18 @@
         <v>1</v>
       </c>
       <c r="F3293" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>3b748c20642c4d1783a069bfca42a347ed1ecac79328beb7c660a7d6c501aa1f</v>
       </c>
     </row>
     <row r="3294">
       <c r="A3294" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_314_004_dialog_english.dialog</v>
       </c>
       <c r="B3294" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_314_004_dialog_english.dialog</v>
       </c>
       <c r="C3294">
-        <v>3676</v>
+        <v>33202</v>
       </c>
       <c r="D3294" t="str">
         <v/>
@@ -66260,18 +66260,18 @@
         <v>1</v>
       </c>
       <c r="F3294" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>a8f736fa098efdd1059445757816e40b9b299069076fa257ec87ad44805c1771</v>
       </c>
     </row>
     <row r="3295">
       <c r="A3295" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_314_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3295" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_314_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3295">
-        <v>4777</v>
+        <v>51553</v>
       </c>
       <c r="D3295" t="str">
         <v/>
@@ -66280,33 +66280,633 @@
         <v>1</v>
       </c>
       <c r="F3295" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>9818065d2b699db053d347ef6fa832eef9815e217c3f4d1dc0dbd2389b24da17</v>
       </c>
     </row>
     <row r="3296">
       <c r="A3296" t="str">
+        <v>main_314_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3296" t="str">
+        <v>main_314_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3296">
+        <v>47714</v>
+      </c>
+      <c r="D3296" t="str">
+        <v/>
+      </c>
+      <c r="E3296">
+        <v>1</v>
+      </c>
+      <c r="F3296" t="str">
+        <v>7be4cf35ffbde48348f2717de072dac47b314f8bb46578078096584a9705801f</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="str">
+        <v>main_314_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3297" t="str">
+        <v>main_314_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3297">
+        <v>51307</v>
+      </c>
+      <c r="D3297" t="str">
+        <v/>
+      </c>
+      <c r="E3297">
+        <v>1</v>
+      </c>
+      <c r="F3297" t="str">
+        <v>f638e34267506eba29595598b63dfc7a76c13256e77c120c1cb17db869b52370</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="str">
+        <v>main_314_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3298" t="str">
+        <v>main_314_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3298">
+        <v>51443</v>
+      </c>
+      <c r="D3298" t="str">
+        <v/>
+      </c>
+      <c r="E3298">
+        <v>1</v>
+      </c>
+      <c r="F3298" t="str">
+        <v>5d369753c39d41abe23496c7e321a349f4e8dbefc3cb6faebd47608c02a95bb6</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="str">
+        <v>main_314_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3299" t="str">
+        <v>main_314_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3299">
+        <v>39807</v>
+      </c>
+      <c r="D3299" t="str">
+        <v/>
+      </c>
+      <c r="E3299">
+        <v>1</v>
+      </c>
+      <c r="F3299" t="str">
+        <v>2cad4aa23c605807dae601b9192b4946702acc8fc5059f8be5655d5c73640c6e</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="str">
+        <v>main_314_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3300" t="str">
+        <v>main_314_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3300">
+        <v>61393</v>
+      </c>
+      <c r="D3300" t="str">
+        <v/>
+      </c>
+      <c r="E3300">
+        <v>1</v>
+      </c>
+      <c r="F3300" t="str">
+        <v>1e8eedc82347638bc230866a344953ee3001811c818e9f584a1345d263f90bc1</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="str">
+        <v>main_314_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3301" t="str">
+        <v>main_314_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3301">
+        <v>56796</v>
+      </c>
+      <c r="D3301" t="str">
+        <v/>
+      </c>
+      <c r="E3301">
+        <v>1</v>
+      </c>
+      <c r="F3301" t="str">
+        <v>c68f3a9c97b5030d69a043df56c93e46636bb00fba5679441df8acaf711f4134</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="str">
+        <v>main_314_006_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3302" t="str">
+        <v>main_314_006_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3302">
+        <v>49064</v>
+      </c>
+      <c r="D3302" t="str">
+        <v/>
+      </c>
+      <c r="E3302">
+        <v>1</v>
+      </c>
+      <c r="F3302" t="str">
+        <v>426b725ddc368fcb1282e244e7a3204c61111685265ae55f0bbef7bc7ee1d6de</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="str">
+        <v>main_314_006_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3303" t="str">
+        <v>main_314_006_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3303">
+        <v>49188</v>
+      </c>
+      <c r="D3303" t="str">
+        <v/>
+      </c>
+      <c r="E3303">
+        <v>1</v>
+      </c>
+      <c r="F3303" t="str">
+        <v>b55800a1fa450740cd8c2591b8d5c7b2d4f00e13573a95513c01bccfa38be1e4</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="str">
+        <v>main_314_006_dialog_english.dialog</v>
+      </c>
+      <c r="B3304" t="str">
+        <v>main_314_006_dialog_english.dialog</v>
+      </c>
+      <c r="C3304">
+        <v>38390</v>
+      </c>
+      <c r="D3304" t="str">
+        <v/>
+      </c>
+      <c r="E3304">
+        <v>1</v>
+      </c>
+      <c r="F3304" t="str">
+        <v>7319d47fc819c94c11b18207011c4878ef159e4054b9f8ec090cc387c5f6fb0a</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="str">
+        <v>main_314_006_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3305" t="str">
+        <v>main_314_006_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3305">
+        <v>55908</v>
+      </c>
+      <c r="D3305" t="str">
+        <v/>
+      </c>
+      <c r="E3305">
+        <v>1</v>
+      </c>
+      <c r="F3305" t="str">
+        <v>fdc2cf3787145f4367b37020cebc22f6a8b18eba012494e8cb4ed53f431fd6b3</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="str">
+        <v>main_314_006_dialog_korean.dialog</v>
+      </c>
+      <c r="B3306" t="str">
+        <v>main_314_006_dialog_korean.dialog</v>
+      </c>
+      <c r="C3306">
+        <v>50553</v>
+      </c>
+      <c r="D3306" t="str">
+        <v/>
+      </c>
+      <c r="E3306">
+        <v>1</v>
+      </c>
+      <c r="F3306" t="str">
+        <v>04eee73be0da068f7196038aafa0b32d6246fb429fde3f88ef950209557303e9</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3307" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3307">
+        <v>14207</v>
+      </c>
+      <c r="D3307" t="str">
+        <v/>
+      </c>
+      <c r="E3307">
+        <v>1</v>
+      </c>
+      <c r="F3307" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3308" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3308">
+        <v>14239</v>
+      </c>
+      <c r="D3308" t="str">
+        <v/>
+      </c>
+      <c r="E3308">
+        <v>1</v>
+      </c>
+      <c r="F3308" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3309" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3309">
+        <v>11494</v>
+      </c>
+      <c r="D3309" t="str">
+        <v/>
+      </c>
+      <c r="E3309">
+        <v>1</v>
+      </c>
+      <c r="F3309" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3310" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3310">
+        <v>15458</v>
+      </c>
+      <c r="D3310" t="str">
+        <v/>
+      </c>
+      <c r="E3310">
+        <v>1</v>
+      </c>
+      <c r="F3310" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3311" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3311">
+        <v>14831</v>
+      </c>
+      <c r="D3311" t="str">
+        <v/>
+      </c>
+      <c r="E3311">
+        <v>1</v>
+      </c>
+      <c r="F3311" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3312" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3312">
+        <v>24991</v>
+      </c>
+      <c r="D3312" t="str">
+        <v/>
+      </c>
+      <c r="E3312">
+        <v>1</v>
+      </c>
+      <c r="F3312" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3313" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3313">
+        <v>25051</v>
+      </c>
+      <c r="D3313" t="str">
+        <v/>
+      </c>
+      <c r="E3313">
+        <v>1</v>
+      </c>
+      <c r="F3313" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3314" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3314">
+        <v>20539</v>
+      </c>
+      <c r="D3314" t="str">
+        <v/>
+      </c>
+      <c r="E3314">
+        <v>1</v>
+      </c>
+      <c r="F3314" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3315" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3315">
+        <v>28605</v>
+      </c>
+      <c r="D3315" t="str">
+        <v/>
+      </c>
+      <c r="E3315">
+        <v>1</v>
+      </c>
+      <c r="F3315" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3316" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3316">
+        <v>26803</v>
+      </c>
+      <c r="D3316" t="str">
+        <v/>
+      </c>
+      <c r="E3316">
+        <v>1</v>
+      </c>
+      <c r="F3316" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3317" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3317">
+        <v>38436</v>
+      </c>
+      <c r="D3317" t="str">
+        <v/>
+      </c>
+      <c r="E3317">
+        <v>1</v>
+      </c>
+      <c r="F3317" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3318" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3318">
+        <v>38520</v>
+      </c>
+      <c r="D3318" t="str">
+        <v/>
+      </c>
+      <c r="E3318">
+        <v>1</v>
+      </c>
+      <c r="F3318" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3319" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3319">
+        <v>31090</v>
+      </c>
+      <c r="D3319" t="str">
+        <v/>
+      </c>
+      <c r="E3319">
+        <v>1</v>
+      </c>
+      <c r="F3319" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3320" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3320">
+        <v>42076</v>
+      </c>
+      <c r="D3320" t="str">
+        <v/>
+      </c>
+      <c r="E3320">
+        <v>1</v>
+      </c>
+      <c r="F3320" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3321" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3321">
+        <v>41121</v>
+      </c>
+      <c r="D3321" t="str">
+        <v/>
+      </c>
+      <c r="E3321">
+        <v>1</v>
+      </c>
+      <c r="F3321" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3322" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3322">
+        <v>4729</v>
+      </c>
+      <c r="D3322" t="str">
+        <v/>
+      </c>
+      <c r="E3322">
+        <v>1</v>
+      </c>
+      <c r="F3322" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3323" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3323">
+        <v>4735</v>
+      </c>
+      <c r="D3323" t="str">
+        <v/>
+      </c>
+      <c r="E3323">
+        <v>1</v>
+      </c>
+      <c r="F3323" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3324" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3324">
+        <v>3676</v>
+      </c>
+      <c r="D3324" t="str">
+        <v/>
+      </c>
+      <c r="E3324">
+        <v>1</v>
+      </c>
+      <c r="F3324" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3325" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3325">
+        <v>4777</v>
+      </c>
+      <c r="D3325" t="str">
+        <v/>
+      </c>
+      <c r="E3325">
+        <v>1</v>
+      </c>
+      <c r="F3325" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3296" t="str">
+      <c r="B3326" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3296">
+      <c r="C3326">
         <v>4424</v>
       </c>
-      <c r="D3296" t="str">
-        <v/>
-      </c>
-      <c r="E3296">
-        <v>1</v>
-      </c>
-      <c r="F3296" t="str">
+      <c r="D3326" t="str">
+        <v/>
+      </c>
+      <c r="E3326">
+        <v>1</v>
+      </c>
+      <c r="F3326" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3296"/>
+  <autoFilter ref="A1:F3326"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3296"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3326"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -65991,7 +65991,7 @@
         <v>main_314_001_dialog_korean.dialog</v>
       </c>
       <c r="C3281">
-        <v>82736</v>
+        <v>82857</v>
       </c>
       <c r="D3281" t="str">
         <v/>
@@ -66000,7 +66000,7 @@
         <v>1</v>
       </c>
       <c r="F3281" t="str">
-        <v>30a06c22d01ea98d0d5d9e45c71f67448b8e24d12d1796efcad168abd2c129c7</v>
+        <v>c6571e732b3e5556117a9fc3750544dd21cca1223f68af13d10143bd2639083c</v>
       </c>
     </row>
     <row r="3282">
@@ -66091,7 +66091,7 @@
         <v>main_314_002_dialog_korean.dialog</v>
       </c>
       <c r="C3286">
-        <v>74552</v>
+        <v>74626</v>
       </c>
       <c r="D3286" t="str">
         <v/>
@@ -66100,7 +66100,7 @@
         <v>1</v>
       </c>
       <c r="F3286" t="str">
-        <v>2e480519d29e04dd47d163050954bf2484129186a215e1ec20557c5838213a89</v>
+        <v>07afac43b40ea59eb75f505ae92ed780f694e6904476595e20e203d3a25c0b1c</v>
       </c>
     </row>
     <row r="3287">
@@ -66191,7 +66191,7 @@
         <v>main_314_003_dialog_korean.dialog</v>
       </c>
       <c r="C3291">
-        <v>59085</v>
+        <v>58934</v>
       </c>
       <c r="D3291" t="str">
         <v/>
@@ -66200,7 +66200,7 @@
         <v>1</v>
       </c>
       <c r="F3291" t="str">
-        <v>4ca87d4301af4636b2b8526269d3357e06162e47d2327fd2007a8e5b6ed98e94</v>
+        <v>a4d1fbd860b592793c007699e6e83f05595bf1d532ab8626be90513c524612e3</v>
       </c>
     </row>
     <row r="3292">
@@ -66291,7 +66291,7 @@
         <v>main_314_004_dialog_korean.dialog</v>
       </c>
       <c r="C3296">
-        <v>47714</v>
+        <v>47847</v>
       </c>
       <c r="D3296" t="str">
         <v/>
@@ -66300,7 +66300,7 @@
         <v>1</v>
       </c>
       <c r="F3296" t="str">
-        <v>7be4cf35ffbde48348f2717de072dac47b314f8bb46578078096584a9705801f</v>
+        <v>3d700a744564c359b53d2e56b2a0b2aeadb45aa6f8f74fafac0b991c050818ca</v>
       </c>
     </row>
     <row r="3297">
@@ -66391,7 +66391,7 @@
         <v>main_314_005_dialog_korean.dialog</v>
       </c>
       <c r="C3301">
-        <v>56796</v>
+        <v>56693</v>
       </c>
       <c r="D3301" t="str">
         <v/>
@@ -66400,7 +66400,7 @@
         <v>1</v>
       </c>
       <c r="F3301" t="str">
-        <v>c68f3a9c97b5030d69a043df56c93e46636bb00fba5679441df8acaf711f4134</v>
+        <v>a0d8372b437e4de1e4f694bdfa7061b6eaa0fef849821b6f08b9a8d5628973fd</v>
       </c>
     </row>
     <row r="3302">
@@ -66491,7 +66491,7 @@
         <v>main_314_006_dialog_korean.dialog</v>
       </c>
       <c r="C3306">
-        <v>50553</v>
+        <v>50666</v>
       </c>
       <c r="D3306" t="str">
         <v/>
@@ -66500,7 +66500,7 @@
         <v>1</v>
       </c>
       <c r="F3306" t="str">
-        <v>04eee73be0da068f7196038aafa0b32d6246fb429fde3f88ef950209557303e9</v>
+        <v>ae7c4eba116008d55d6a8e223f5c1b8c66757f0ef624a2971bee26499631b862</v>
       </c>
     </row>
     <row r="3307">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -31905,13 +31905,13 @@
     </row>
     <row r="1577">
       <c r="A1577" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1577" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1577">
-        <v>4028</v>
+        <v>13697</v>
       </c>
       <c r="D1577" t="str">
         <v/>
@@ -31920,18 +31920,18 @@
         <v>1</v>
       </c>
       <c r="F1577" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1578" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1578">
-        <v>4038</v>
+        <v>13761</v>
       </c>
       <c r="D1578" t="str">
         <v/>
@@ -31940,18 +31940,18 @@
         <v>1</v>
       </c>
       <c r="F1578" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1579" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1579">
-        <v>3444</v>
+        <v>12502</v>
       </c>
       <c r="D1579" t="str">
         <v/>
@@ -31960,18 +31960,18 @@
         <v>1</v>
       </c>
       <c r="F1579" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1580" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1580">
-        <v>4365</v>
+        <v>13827</v>
       </c>
       <c r="D1580" t="str">
         <v/>
@@ -31980,18 +31980,18 @@
         <v>1</v>
       </c>
       <c r="F1580" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1581" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1581">
-        <v>4062</v>
+        <v>13301</v>
       </c>
       <c r="D1581" t="str">
         <v/>
@@ -32000,18 +32000,18 @@
         <v>1</v>
       </c>
       <c r="F1581" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1582" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1582">
-        <v>1838</v>
+        <v>4028</v>
       </c>
       <c r="D1582" t="str">
         <v/>
@@ -32020,18 +32020,18 @@
         <v>1</v>
       </c>
       <c r="F1582" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1583" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1583">
-        <v>1844</v>
+        <v>4038</v>
       </c>
       <c r="D1583" t="str">
         <v/>
@@ -32040,18 +32040,18 @@
         <v>1</v>
       </c>
       <c r="F1583" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1584" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1584">
-        <v>1484</v>
+        <v>3444</v>
       </c>
       <c r="D1584" t="str">
         <v/>
@@ -32060,18 +32060,18 @@
         <v>1</v>
       </c>
       <c r="F1584" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1585" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1585">
-        <v>1906</v>
+        <v>4365</v>
       </c>
       <c r="D1585" t="str">
         <v/>
@@ -32080,18 +32080,18 @@
         <v>1</v>
       </c>
       <c r="F1585" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1586" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1586">
-        <v>1910</v>
+        <v>4062</v>
       </c>
       <c r="D1586" t="str">
         <v/>
@@ -32100,18 +32100,18 @@
         <v>1</v>
       </c>
       <c r="F1586" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1587" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1587">
-        <v>13697</v>
+        <v>1838</v>
       </c>
       <c r="D1587" t="str">
         <v/>
@@ -32120,18 +32120,18 @@
         <v>1</v>
       </c>
       <c r="F1587" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1588" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1588">
-        <v>13761</v>
+        <v>1844</v>
       </c>
       <c r="D1588" t="str">
         <v/>
@@ -32140,18 +32140,18 @@
         <v>1</v>
       </c>
       <c r="F1588" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1589" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1589">
-        <v>12502</v>
+        <v>1484</v>
       </c>
       <c r="D1589" t="str">
         <v/>
@@ -32160,18 +32160,18 @@
         <v>1</v>
       </c>
       <c r="F1589" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1590" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1590">
-        <v>13827</v>
+        <v>1906</v>
       </c>
       <c r="D1590" t="str">
         <v/>
@@ -32180,18 +32180,18 @@
         <v>1</v>
       </c>
       <c r="F1590" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1591" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1591">
-        <v>13301</v>
+        <v>1910</v>
       </c>
       <c r="D1591" t="str">
         <v/>
@@ -32200,7 +32200,7 @@
         <v>1</v>
       </c>
       <c r="F1591" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1592">
@@ -37405,13 +37405,13 @@
     </row>
     <row r="1852">
       <c r="A1852" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1852" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1852">
-        <v>55371</v>
+        <v>13926</v>
       </c>
       <c r="D1852" t="str">
         <v/>
@@ -37420,18 +37420,18 @@
         <v>1</v>
       </c>
       <c r="F1852" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1853" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1853">
-        <v>55491</v>
+        <v>13960</v>
       </c>
       <c r="D1853" t="str">
         <v/>
@@ -37440,18 +37440,18 @@
         <v>1</v>
       </c>
       <c r="F1853" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B1854" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C1854">
-        <v>44705</v>
+        <v>11270</v>
       </c>
       <c r="D1854" t="str">
         <v/>
@@ -37460,18 +37460,18 @@
         <v>1</v>
       </c>
       <c r="F1854" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1855" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1855">
-        <v>61071</v>
+        <v>15639</v>
       </c>
       <c r="D1855" t="str">
         <v/>
@@ -37480,18 +37480,18 @@
         <v>1</v>
       </c>
       <c r="F1855" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B1856" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C1856">
-        <v>55999</v>
+        <v>14837</v>
       </c>
       <c r="D1856" t="str">
         <v/>
@@ -37500,18 +37500,18 @@
         <v>1</v>
       </c>
       <c r="F1856" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1857" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1857">
-        <v>40894</v>
+        <v>2082</v>
       </c>
       <c r="D1857" t="str">
         <v/>
@@ -37520,18 +37520,18 @@
         <v>1</v>
       </c>
       <c r="F1857" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1858" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1858">
-        <v>40930</v>
+        <v>2088</v>
       </c>
       <c r="D1858" t="str">
         <v/>
@@ -37540,18 +37540,18 @@
         <v>1</v>
       </c>
       <c r="F1858" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B1859" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C1859">
-        <v>32515</v>
+        <v>1869</v>
       </c>
       <c r="D1859" t="str">
         <v/>
@@ -37560,18 +37560,18 @@
         <v>1</v>
       </c>
       <c r="F1859" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1860" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1860">
-        <v>44418</v>
+        <v>2132</v>
       </c>
       <c r="D1860" t="str">
         <v/>
@@ -37580,18 +37580,18 @@
         <v>1</v>
       </c>
       <c r="F1860" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B1861" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C1861">
-        <v>41223</v>
+        <v>2275</v>
       </c>
       <c r="D1861" t="str">
         <v/>
@@ -37600,18 +37600,18 @@
         <v>1</v>
       </c>
       <c r="F1861" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1862" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1862">
-        <v>32341</v>
+        <v>1712</v>
       </c>
       <c r="D1862" t="str">
         <v/>
@@ -37620,18 +37620,18 @@
         <v>1</v>
       </c>
       <c r="F1862" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1863" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1863">
-        <v>32413</v>
+        <v>1716</v>
       </c>
       <c r="D1863" t="str">
         <v/>
@@ -37640,18 +37640,18 @@
         <v>1</v>
       </c>
       <c r="F1863" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B1864" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C1864">
-        <v>26762</v>
+        <v>1492</v>
       </c>
       <c r="D1864" t="str">
         <v/>
@@ -37660,18 +37660,18 @@
         <v>1</v>
       </c>
       <c r="F1864" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="1865">
       <c r="A1865" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1865" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1865">
-        <v>35917</v>
+        <v>1967</v>
       </c>
       <c r="D1865" t="str">
         <v/>
@@ -37680,18 +37680,18 @@
         <v>1</v>
       </c>
       <c r="F1865" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B1866" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C1866">
-        <v>34664</v>
+        <v>1889</v>
       </c>
       <c r="D1866" t="str">
         <v/>
@@ -37700,18 +37700,18 @@
         <v>1</v>
       </c>
       <c r="F1866" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="1867">
       <c r="A1867" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1867" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1867">
-        <v>16711</v>
+        <v>10589</v>
       </c>
       <c r="D1867" t="str">
         <v/>
@@ -37720,18 +37720,18 @@
         <v>1</v>
       </c>
       <c r="F1867" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="1868">
       <c r="A1868" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1868" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1868">
-        <v>16719</v>
+        <v>10615</v>
       </c>
       <c r="D1868" t="str">
         <v/>
@@ -37740,18 +37740,18 @@
         <v>1</v>
       </c>
       <c r="F1868" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="1869">
       <c r="A1869" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B1869" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C1869">
-        <v>13871</v>
+        <v>8739</v>
       </c>
       <c r="D1869" t="str">
         <v/>
@@ -37760,18 +37760,18 @@
         <v>1</v>
       </c>
       <c r="F1869" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1870" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1870">
-        <v>18762</v>
+        <v>12403</v>
       </c>
       <c r="D1870" t="str">
         <v/>
@@ -37780,18 +37780,18 @@
         <v>1</v>
       </c>
       <c r="F1870" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B1871" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C1871">
-        <v>17545</v>
+        <v>11610</v>
       </c>
       <c r="D1871" t="str">
         <v/>
@@ -37800,18 +37800,18 @@
         <v>1</v>
       </c>
       <c r="F1871" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="1872">
       <c r="A1872" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1872" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1872">
-        <v>20884</v>
+        <v>1387</v>
       </c>
       <c r="D1872" t="str">
         <v/>
@@ -37820,18 +37820,18 @@
         <v>1</v>
       </c>
       <c r="F1872" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1873" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1873">
-        <v>20932</v>
+        <v>1391</v>
       </c>
       <c r="D1873" t="str">
         <v/>
@@ -37840,18 +37840,18 @@
         <v>1</v>
       </c>
       <c r="F1873" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B1874" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C1874">
-        <v>17341</v>
+        <v>1242</v>
       </c>
       <c r="D1874" t="str">
         <v/>
@@ -37860,18 +37860,18 @@
         <v>1</v>
       </c>
       <c r="F1874" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1875" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1875">
-        <v>22967</v>
+        <v>1442</v>
       </c>
       <c r="D1875" t="str">
         <v/>
@@ -37880,18 +37880,18 @@
         <v>1</v>
       </c>
       <c r="F1875" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B1876" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C1876">
-        <v>21418</v>
+        <v>1422</v>
       </c>
       <c r="D1876" t="str">
         <v/>
@@ -37900,18 +37900,18 @@
         <v>1</v>
       </c>
       <c r="F1876" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1877" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1877">
-        <v>21743</v>
+        <v>13203</v>
       </c>
       <c r="D1877" t="str">
         <v/>
@@ -37920,18 +37920,18 @@
         <v>1</v>
       </c>
       <c r="F1877" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1878" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1878">
-        <v>21781</v>
+        <v>13235</v>
       </c>
       <c r="D1878" t="str">
         <v/>
@@ -37940,18 +37940,18 @@
         <v>1</v>
       </c>
       <c r="F1878" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B1879" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C1879">
-        <v>17808</v>
+        <v>11261</v>
       </c>
       <c r="D1879" t="str">
         <v/>
@@ -37960,18 +37960,18 @@
         <v>1</v>
       </c>
       <c r="F1879" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1880" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1880">
-        <v>23740</v>
+        <v>14912</v>
       </c>
       <c r="D1880" t="str">
         <v/>
@@ -37980,18 +37980,18 @@
         <v>1</v>
       </c>
       <c r="F1880" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B1881" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C1881">
-        <v>21787</v>
+        <v>13720</v>
       </c>
       <c r="D1881" t="str">
         <v/>
@@ -38000,18 +38000,18 @@
         <v>1</v>
       </c>
       <c r="F1881" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1882" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1882">
-        <v>18079</v>
+        <v>16889</v>
       </c>
       <c r="D1882" t="str">
         <v/>
@@ -38020,18 +38020,18 @@
         <v>1</v>
       </c>
       <c r="F1882" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="1883">
       <c r="A1883" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1883" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1883">
-        <v>18113</v>
+        <v>16941</v>
       </c>
       <c r="D1883" t="str">
         <v/>
@@ -38040,18 +38040,18 @@
         <v>1</v>
       </c>
       <c r="F1883" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B1884" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C1884">
-        <v>15406</v>
+        <v>14367</v>
       </c>
       <c r="D1884" t="str">
         <v/>
@@ -38060,18 +38060,18 @@
         <v>1</v>
       </c>
       <c r="F1884" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B1885" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C1885">
-        <v>19384</v>
+        <v>18776</v>
       </c>
       <c r="D1885" t="str">
         <v/>
@@ -38080,18 +38080,18 @@
         <v>1</v>
       </c>
       <c r="F1885" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B1886" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C1886">
-        <v>19170</v>
+        <v>17584</v>
       </c>
       <c r="D1886" t="str">
         <v/>
@@ -38100,18 +38100,18 @@
         <v>1</v>
       </c>
       <c r="F1886" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1887" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1887">
-        <v>23106</v>
+        <v>1475</v>
       </c>
       <c r="D1887" t="str">
         <v/>
@@ -38120,18 +38120,18 @@
         <v>1</v>
       </c>
       <c r="F1887" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1888" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1888">
-        <v>23164</v>
+        <v>1180</v>
       </c>
       <c r="D1888" t="str">
         <v/>
@@ -38140,18 +38140,18 @@
         <v>1</v>
       </c>
       <c r="F1888" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="1889">
       <c r="A1889" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B1889" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C1889">
-        <v>19731</v>
+        <v>1074</v>
       </c>
       <c r="D1889" t="str">
         <v/>
@@ -38160,18 +38160,18 @@
         <v>1</v>
       </c>
       <c r="F1889" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1890" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1890">
-        <v>25275</v>
+        <v>1381</v>
       </c>
       <c r="D1890" t="str">
         <v/>
@@ -38180,18 +38180,18 @@
         <v>1</v>
       </c>
       <c r="F1890" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B1891" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C1891">
-        <v>24704</v>
+        <v>1183</v>
       </c>
       <c r="D1891" t="str">
         <v/>
@@ -38200,18 +38200,18 @@
         <v>1</v>
       </c>
       <c r="F1891" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1892" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1892">
-        <v>46222</v>
+        <v>55371</v>
       </c>
       <c r="D1892" t="str">
         <v/>
@@ -38220,18 +38220,18 @@
         <v>1</v>
       </c>
       <c r="F1892" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1893" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1893">
-        <v>46344</v>
+        <v>55491</v>
       </c>
       <c r="D1893" t="str">
         <v/>
@@ -38240,18 +38240,18 @@
         <v>1</v>
       </c>
       <c r="F1893" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B1894" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C1894">
-        <v>38529</v>
+        <v>44705</v>
       </c>
       <c r="D1894" t="str">
         <v/>
@@ -38260,18 +38260,18 @@
         <v>1</v>
       </c>
       <c r="F1894" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1895" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1895">
-        <v>50501</v>
+        <v>61071</v>
       </c>
       <c r="D1895" t="str">
         <v/>
@@ -38280,18 +38280,18 @@
         <v>1</v>
       </c>
       <c r="F1895" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B1896" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C1896">
-        <v>48804</v>
+        <v>55999</v>
       </c>
       <c r="D1896" t="str">
         <v/>
@@ -38300,18 +38300,18 @@
         <v>1</v>
       </c>
       <c r="F1896" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1897" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1897">
-        <v>13926</v>
+        <v>40894</v>
       </c>
       <c r="D1897" t="str">
         <v/>
@@ -38320,18 +38320,18 @@
         <v>1</v>
       </c>
       <c r="F1897" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1898" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1898">
-        <v>13960</v>
+        <v>40930</v>
       </c>
       <c r="D1898" t="str">
         <v/>
@@ -38340,18 +38340,18 @@
         <v>1</v>
       </c>
       <c r="F1898" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B1899" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C1899">
-        <v>11270</v>
+        <v>32515</v>
       </c>
       <c r="D1899" t="str">
         <v/>
@@ -38360,18 +38360,18 @@
         <v>1</v>
       </c>
       <c r="F1899" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1900" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1900">
-        <v>15639</v>
+        <v>44418</v>
       </c>
       <c r="D1900" t="str">
         <v/>
@@ -38380,18 +38380,18 @@
         <v>1</v>
       </c>
       <c r="F1900" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="1901">
       <c r="A1901" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B1901" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C1901">
-        <v>14837</v>
+        <v>41223</v>
       </c>
       <c r="D1901" t="str">
         <v/>
@@ -38400,18 +38400,18 @@
         <v>1</v>
       </c>
       <c r="F1901" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1902" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1902">
-        <v>2082</v>
+        <v>32341</v>
       </c>
       <c r="D1902" t="str">
         <v/>
@@ -38420,18 +38420,18 @@
         <v>1</v>
       </c>
       <c r="F1902" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1903" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1903">
-        <v>2088</v>
+        <v>32413</v>
       </c>
       <c r="D1903" t="str">
         <v/>
@@ -38440,18 +38440,18 @@
         <v>1</v>
       </c>
       <c r="F1903" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B1904" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C1904">
-        <v>1869</v>
+        <v>26762</v>
       </c>
       <c r="D1904" t="str">
         <v/>
@@ -38460,18 +38460,18 @@
         <v>1</v>
       </c>
       <c r="F1904" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1905" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1905">
-        <v>2132</v>
+        <v>35917</v>
       </c>
       <c r="D1905" t="str">
         <v/>
@@ -38480,18 +38480,18 @@
         <v>1</v>
       </c>
       <c r="F1905" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="1906">
       <c r="A1906" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B1906" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C1906">
-        <v>2275</v>
+        <v>34664</v>
       </c>
       <c r="D1906" t="str">
         <v/>
@@ -38500,18 +38500,18 @@
         <v>1</v>
       </c>
       <c r="F1906" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1907" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1907">
-        <v>1712</v>
+        <v>16711</v>
       </c>
       <c r="D1907" t="str">
         <v/>
@@ -38520,18 +38520,18 @@
         <v>1</v>
       </c>
       <c r="F1907" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1908" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1908">
-        <v>1716</v>
+        <v>16719</v>
       </c>
       <c r="D1908" t="str">
         <v/>
@@ -38540,18 +38540,18 @@
         <v>1</v>
       </c>
       <c r="F1908" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B1909" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C1909">
-        <v>1492</v>
+        <v>13871</v>
       </c>
       <c r="D1909" t="str">
         <v/>
@@ -38560,18 +38560,18 @@
         <v>1</v>
       </c>
       <c r="F1909" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1910" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1910">
-        <v>1967</v>
+        <v>18762</v>
       </c>
       <c r="D1910" t="str">
         <v/>
@@ -38580,18 +38580,18 @@
         <v>1</v>
       </c>
       <c r="F1910" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="1911">
       <c r="A1911" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B1911" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C1911">
-        <v>1889</v>
+        <v>17545</v>
       </c>
       <c r="D1911" t="str">
         <v/>
@@ -38600,18 +38600,18 @@
         <v>1</v>
       </c>
       <c r="F1911" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="1912">
       <c r="A1912" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1912" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1912">
-        <v>10589</v>
+        <v>20884</v>
       </c>
       <c r="D1912" t="str">
         <v/>
@@ -38620,18 +38620,18 @@
         <v>1</v>
       </c>
       <c r="F1912" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1913" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1913">
-        <v>10615</v>
+        <v>20932</v>
       </c>
       <c r="D1913" t="str">
         <v/>
@@ -38640,18 +38640,18 @@
         <v>1</v>
       </c>
       <c r="F1913" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B1914" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C1914">
-        <v>8739</v>
+        <v>17341</v>
       </c>
       <c r="D1914" t="str">
         <v/>
@@ -38660,18 +38660,18 @@
         <v>1</v>
       </c>
       <c r="F1914" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1915" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1915">
-        <v>12403</v>
+        <v>22967</v>
       </c>
       <c r="D1915" t="str">
         <v/>
@@ -38680,18 +38680,18 @@
         <v>1</v>
       </c>
       <c r="F1915" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B1916" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C1916">
-        <v>11610</v>
+        <v>21418</v>
       </c>
       <c r="D1916" t="str">
         <v/>
@@ -38700,18 +38700,18 @@
         <v>1</v>
       </c>
       <c r="F1916" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1917" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1917">
-        <v>1387</v>
+        <v>21743</v>
       </c>
       <c r="D1917" t="str">
         <v/>
@@ -38720,18 +38720,18 @@
         <v>1</v>
       </c>
       <c r="F1917" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1918" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1918">
-        <v>1391</v>
+        <v>21781</v>
       </c>
       <c r="D1918" t="str">
         <v/>
@@ -38740,18 +38740,18 @@
         <v>1</v>
       </c>
       <c r="F1918" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B1919" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C1919">
-        <v>1242</v>
+        <v>17808</v>
       </c>
       <c r="D1919" t="str">
         <v/>
@@ -38760,18 +38760,18 @@
         <v>1</v>
       </c>
       <c r="F1919" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="1920">
       <c r="A1920" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1920" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1920">
-        <v>1442</v>
+        <v>23740</v>
       </c>
       <c r="D1920" t="str">
         <v/>
@@ -38780,18 +38780,18 @@
         <v>1</v>
       </c>
       <c r="F1920" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B1921" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C1921">
-        <v>1422</v>
+        <v>21787</v>
       </c>
       <c r="D1921" t="str">
         <v/>
@@ -38800,18 +38800,18 @@
         <v>1</v>
       </c>
       <c r="F1921" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1922" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1922">
-        <v>13203</v>
+        <v>18079</v>
       </c>
       <c r="D1922" t="str">
         <v/>
@@ -38820,18 +38820,18 @@
         <v>1</v>
       </c>
       <c r="F1922" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1923" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1923">
-        <v>13235</v>
+        <v>18113</v>
       </c>
       <c r="D1923" t="str">
         <v/>
@@ -38840,18 +38840,18 @@
         <v>1</v>
       </c>
       <c r="F1923" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B1924" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C1924">
-        <v>11261</v>
+        <v>15406</v>
       </c>
       <c r="D1924" t="str">
         <v/>
@@ -38860,18 +38860,18 @@
         <v>1</v>
       </c>
       <c r="F1924" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1925" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1925">
-        <v>14912</v>
+        <v>19384</v>
       </c>
       <c r="D1925" t="str">
         <v/>
@@ -38880,18 +38880,18 @@
         <v>1</v>
       </c>
       <c r="F1925" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B1926" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C1926">
-        <v>13720</v>
+        <v>19170</v>
       </c>
       <c r="D1926" t="str">
         <v/>
@@ -38900,18 +38900,18 @@
         <v>1</v>
       </c>
       <c r="F1926" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1927" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1927">
-        <v>16889</v>
+        <v>23106</v>
       </c>
       <c r="D1927" t="str">
         <v/>
@@ -38920,18 +38920,18 @@
         <v>1</v>
       </c>
       <c r="F1927" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1928" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1928">
-        <v>16941</v>
+        <v>23164</v>
       </c>
       <c r="D1928" t="str">
         <v/>
@@ -38940,18 +38940,18 @@
         <v>1</v>
       </c>
       <c r="F1928" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B1929" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C1929">
-        <v>14367</v>
+        <v>19731</v>
       </c>
       <c r="D1929" t="str">
         <v/>
@@ -38960,18 +38960,18 @@
         <v>1</v>
       </c>
       <c r="F1929" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B1930" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C1930">
-        <v>18776</v>
+        <v>25275</v>
       </c>
       <c r="D1930" t="str">
         <v/>
@@ -38980,18 +38980,18 @@
         <v>1</v>
       </c>
       <c r="F1930" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B1931" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C1931">
-        <v>17584</v>
+        <v>24704</v>
       </c>
       <c r="D1931" t="str">
         <v/>
@@ -39000,18 +39000,18 @@
         <v>1</v>
       </c>
       <c r="F1931" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1932" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1932">
-        <v>1475</v>
+        <v>46222</v>
       </c>
       <c r="D1932" t="str">
         <v/>
@@ -39020,18 +39020,18 @@
         <v>1</v>
       </c>
       <c r="F1932" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1933" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1933">
-        <v>1180</v>
+        <v>46344</v>
       </c>
       <c r="D1933" t="str">
         <v/>
@@ -39040,18 +39040,18 @@
         <v>1</v>
       </c>
       <c r="F1933" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B1934" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C1934">
-        <v>1074</v>
+        <v>38529</v>
       </c>
       <c r="D1934" t="str">
         <v/>
@@ -39060,18 +39060,18 @@
         <v>1</v>
       </c>
       <c r="F1934" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1935" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1935">
-        <v>1381</v>
+        <v>50501</v>
       </c>
       <c r="D1935" t="str">
         <v/>
@@ -39080,18 +39080,18 @@
         <v>1</v>
       </c>
       <c r="F1935" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B1936" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C1936">
-        <v>1183</v>
+        <v>48804</v>
       </c>
       <c r="D1936" t="str">
         <v/>
@@ -39100,7 +39100,7 @@
         <v>1</v>
       </c>
       <c r="F1936" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="1937">
@@ -44305,13 +44305,13 @@
     </row>
     <row r="2197">
       <c r="A2197" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2197" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2197">
-        <v>12055</v>
+        <v>47372</v>
       </c>
       <c r="D2197" t="str">
         <v/>
@@ -44320,18 +44320,18 @@
         <v>1</v>
       </c>
       <c r="F2197" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2198">
       <c r="A2198" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2198" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2198">
-        <v>12091</v>
+        <v>47504</v>
       </c>
       <c r="D2198" t="str">
         <v/>
@@ -44340,18 +44340,18 @@
         <v>1</v>
       </c>
       <c r="F2198" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2199" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2199">
-        <v>9948</v>
+        <v>38227</v>
       </c>
       <c r="D2199" t="str">
         <v/>
@@ -44360,18 +44360,18 @@
         <v>1</v>
       </c>
       <c r="F2199" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2200" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2200">
-        <v>13516</v>
+        <v>56677</v>
       </c>
       <c r="D2200" t="str">
         <v/>
@@ -44380,18 +44380,18 @@
         <v>1</v>
       </c>
       <c r="F2200" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2201">
       <c r="A2201" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2201" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2201">
-        <v>12778</v>
+        <v>50805</v>
       </c>
       <c r="D2201" t="str">
         <v/>
@@ -44400,18 +44400,18 @@
         <v>1</v>
       </c>
       <c r="F2201" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2202">
       <c r="A2202" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2202" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2202">
-        <v>32683</v>
+        <v>29694</v>
       </c>
       <c r="D2202" t="str">
         <v/>
@@ -44420,18 +44420,18 @@
         <v>1</v>
       </c>
       <c r="F2202" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2203" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2203">
-        <v>32785</v>
+        <v>29774</v>
       </c>
       <c r="D2203" t="str">
         <v/>
@@ -44440,18 +44440,18 @@
         <v>1</v>
       </c>
       <c r="F2203" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2204" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2204">
-        <v>26804</v>
+        <v>23226</v>
       </c>
       <c r="D2204" t="str">
         <v/>
@@ -44460,18 +44460,18 @@
         <v>1</v>
       </c>
       <c r="F2204" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2205">
       <c r="A2205" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2205" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2205">
-        <v>35335</v>
+        <v>34797</v>
       </c>
       <c r="D2205" t="str">
         <v/>
@@ -44480,18 +44480,18 @@
         <v>1</v>
       </c>
       <c r="F2205" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2206" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2206">
-        <v>35400</v>
+        <v>32402</v>
       </c>
       <c r="D2206" t="str">
         <v/>
@@ -44500,18 +44500,18 @@
         <v>1</v>
       </c>
       <c r="F2206" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2207" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2207">
-        <v>28261</v>
+        <v>13333</v>
       </c>
       <c r="D2207" t="str">
         <v/>
@@ -44520,18 +44520,18 @@
         <v>1</v>
       </c>
       <c r="F2207" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2208" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2208">
-        <v>28341</v>
+        <v>13371</v>
       </c>
       <c r="D2208" t="str">
         <v/>
@@ -44540,18 +44540,18 @@
         <v>1</v>
       </c>
       <c r="F2208" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2209" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2209">
-        <v>22289</v>
+        <v>10935</v>
       </c>
       <c r="D2209" t="str">
         <v/>
@@ -44560,18 +44560,18 @@
         <v>1</v>
       </c>
       <c r="F2209" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2210" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2210">
-        <v>31961</v>
+        <v>14825</v>
       </c>
       <c r="D2210" t="str">
         <v/>
@@ -44580,18 +44580,18 @@
         <v>1</v>
       </c>
       <c r="F2210" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2211" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2211">
-        <v>30340</v>
+        <v>13609</v>
       </c>
       <c r="D2211" t="str">
         <v/>
@@ -44600,18 +44600,18 @@
         <v>1</v>
       </c>
       <c r="F2211" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2212" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2212">
-        <v>22929</v>
+        <v>38115</v>
       </c>
       <c r="D2212" t="str">
         <v/>
@@ -44620,18 +44620,18 @@
         <v>1</v>
       </c>
       <c r="F2212" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2213" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2213">
-        <v>22997</v>
+        <v>38207</v>
       </c>
       <c r="D2213" t="str">
         <v/>
@@ -44640,18 +44640,18 @@
         <v>1</v>
       </c>
       <c r="F2213" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2214" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2214">
-        <v>18855</v>
+        <v>30119</v>
       </c>
       <c r="D2214" t="str">
         <v/>
@@ -44660,18 +44660,18 @@
         <v>1</v>
       </c>
       <c r="F2214" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2215" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2215">
-        <v>25986</v>
+        <v>45716</v>
       </c>
       <c r="D2215" t="str">
         <v/>
@@ -44680,18 +44680,18 @@
         <v>1</v>
       </c>
       <c r="F2215" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2216" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2216">
-        <v>24638</v>
+        <v>42343</v>
       </c>
       <c r="D2216" t="str">
         <v/>
@@ -44700,18 +44700,18 @@
         <v>1</v>
       </c>
       <c r="F2216" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2217" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2217">
-        <v>27591</v>
+        <v>22580</v>
       </c>
       <c r="D2217" t="str">
         <v/>
@@ -44720,18 +44720,18 @@
         <v>1</v>
       </c>
       <c r="F2217" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2218" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2218">
-        <v>27669</v>
+        <v>22642</v>
       </c>
       <c r="D2218" t="str">
         <v/>
@@ -44740,18 +44740,18 @@
         <v>1</v>
       </c>
       <c r="F2218" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2219" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2219">
-        <v>22217</v>
+        <v>18502</v>
       </c>
       <c r="D2219" t="str">
         <v/>
@@ -44760,18 +44760,18 @@
         <v>1</v>
       </c>
       <c r="F2219" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2220" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2220">
-        <v>30979</v>
+        <v>25738</v>
       </c>
       <c r="D2220" t="str">
         <v/>
@@ -44780,18 +44780,18 @@
         <v>1</v>
       </c>
       <c r="F2220" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2221">
       <c r="A2221" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2221" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2221">
-        <v>30051</v>
+        <v>23812</v>
       </c>
       <c r="D2221" t="str">
         <v/>
@@ -44800,18 +44800,18 @@
         <v>1</v>
       </c>
       <c r="F2221" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2222">
       <c r="A2222" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2222" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2222">
-        <v>28673</v>
+        <v>25038</v>
       </c>
       <c r="D2222" t="str">
         <v/>
@@ -44820,18 +44820,18 @@
         <v>1</v>
       </c>
       <c r="F2222" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2223" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2223">
-        <v>28755</v>
+        <v>25106</v>
       </c>
       <c r="D2223" t="str">
         <v/>
@@ -44840,18 +44840,18 @@
         <v>1</v>
       </c>
       <c r="F2223" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2224">
       <c r="A2224" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2224" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2224">
-        <v>24091</v>
+        <v>20304</v>
       </c>
       <c r="D2224" t="str">
         <v/>
@@ -44860,18 +44860,18 @@
         <v>1</v>
       </c>
       <c r="F2224" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2225">
       <c r="A2225" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2225" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2225">
-        <v>32509</v>
+        <v>31176</v>
       </c>
       <c r="D2225" t="str">
         <v/>
@@ -44880,18 +44880,18 @@
         <v>1</v>
       </c>
       <c r="F2225" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2226" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2226">
-        <v>31007</v>
+        <v>28656</v>
       </c>
       <c r="D2226" t="str">
         <v/>
@@ -44900,18 +44900,18 @@
         <v>1</v>
       </c>
       <c r="F2226" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2227" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2227">
-        <v>21788</v>
+        <v>19450</v>
       </c>
       <c r="D2227" t="str">
         <v/>
@@ -44920,18 +44920,18 @@
         <v>1</v>
       </c>
       <c r="F2227" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2228" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2228">
-        <v>21848</v>
+        <v>19506</v>
       </c>
       <c r="D2228" t="str">
         <v/>
@@ -44940,18 +44940,18 @@
         <v>1</v>
       </c>
       <c r="F2228" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2229" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2229">
-        <v>18324</v>
+        <v>15666</v>
       </c>
       <c r="D2229" t="str">
         <v/>
@@ -44960,18 +44960,18 @@
         <v>1</v>
       </c>
       <c r="F2229" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2230" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2230">
-        <v>25169</v>
+        <v>22550</v>
       </c>
       <c r="D2230" t="str">
         <v/>
@@ -44980,18 +44980,18 @@
         <v>1</v>
       </c>
       <c r="F2230" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2231" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2231">
-        <v>22994</v>
+        <v>20969</v>
       </c>
       <c r="D2231" t="str">
         <v/>
@@ -45000,18 +45000,18 @@
         <v>1</v>
       </c>
       <c r="F2231" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2232" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2232">
-        <v>31366</v>
+        <v>12055</v>
       </c>
       <c r="D2232" t="str">
         <v/>
@@ -45020,18 +45020,18 @@
         <v>1</v>
       </c>
       <c r="F2232" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2233" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2233">
-        <v>31450</v>
+        <v>12091</v>
       </c>
       <c r="D2233" t="str">
         <v/>
@@ -45040,18 +45040,18 @@
         <v>1</v>
       </c>
       <c r="F2233" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2234" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2234">
-        <v>25325</v>
+        <v>9948</v>
       </c>
       <c r="D2234" t="str">
         <v/>
@@ -45060,18 +45060,18 @@
         <v>1</v>
       </c>
       <c r="F2234" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2235" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2235">
-        <v>36671</v>
+        <v>13516</v>
       </c>
       <c r="D2235" t="str">
         <v/>
@@ -45080,18 +45080,18 @@
         <v>1</v>
       </c>
       <c r="F2235" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2236" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2236">
-        <v>34359</v>
+        <v>12778</v>
       </c>
       <c r="D2236" t="str">
         <v/>
@@ -45100,18 +45100,18 @@
         <v>1</v>
       </c>
       <c r="F2236" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2237" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2237">
-        <v>30007</v>
+        <v>32683</v>
       </c>
       <c r="D2237" t="str">
         <v/>
@@ -45120,18 +45120,18 @@
         <v>1</v>
       </c>
       <c r="F2237" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2238" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2238">
-        <v>30087</v>
+        <v>32785</v>
       </c>
       <c r="D2238" t="str">
         <v/>
@@ -45140,18 +45140,18 @@
         <v>1</v>
       </c>
       <c r="F2238" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2239" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2239">
-        <v>24378</v>
+        <v>26804</v>
       </c>
       <c r="D2239" t="str">
         <v/>
@@ -45160,18 +45160,18 @@
         <v>1</v>
       </c>
       <c r="F2239" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2240" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2240">
-        <v>35724</v>
+        <v>35335</v>
       </c>
       <c r="D2240" t="str">
         <v/>
@@ -45180,18 +45180,18 @@
         <v>1</v>
       </c>
       <c r="F2240" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2241" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2241">
-        <v>33241</v>
+        <v>35400</v>
       </c>
       <c r="D2241" t="str">
         <v/>
@@ -45200,18 +45200,18 @@
         <v>1</v>
       </c>
       <c r="F2241" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2242" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2242">
-        <v>31730</v>
+        <v>28261</v>
       </c>
       <c r="D2242" t="str">
         <v/>
@@ -45220,18 +45220,18 @@
         <v>1</v>
       </c>
       <c r="F2242" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2243" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2243">
-        <v>31818</v>
+        <v>28341</v>
       </c>
       <c r="D2243" t="str">
         <v/>
@@ -45240,18 +45240,18 @@
         <v>1</v>
       </c>
       <c r="F2243" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2244" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2244">
-        <v>25891</v>
+        <v>22289</v>
       </c>
       <c r="D2244" t="str">
         <v/>
@@ -45260,18 +45260,18 @@
         <v>1</v>
       </c>
       <c r="F2244" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2245" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2245">
-        <v>36973</v>
+        <v>31961</v>
       </c>
       <c r="D2245" t="str">
         <v/>
@@ -45280,18 +45280,18 @@
         <v>1</v>
       </c>
       <c r="F2245" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2246" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2246">
-        <v>35473</v>
+        <v>30340</v>
       </c>
       <c r="D2246" t="str">
         <v/>
@@ -45300,18 +45300,18 @@
         <v>1</v>
       </c>
       <c r="F2246" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2247" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2247">
-        <v>24351</v>
+        <v>22929</v>
       </c>
       <c r="D2247" t="str">
         <v/>
@@ -45320,18 +45320,18 @@
         <v>1</v>
       </c>
       <c r="F2247" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2248" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2248">
-        <v>24417</v>
+        <v>22997</v>
       </c>
       <c r="D2248" t="str">
         <v/>
@@ -45340,18 +45340,18 @@
         <v>1</v>
       </c>
       <c r="F2248" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2249" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2249">
-        <v>19827</v>
+        <v>18855</v>
       </c>
       <c r="D2249" t="str">
         <v/>
@@ -45360,18 +45360,18 @@
         <v>1</v>
       </c>
       <c r="F2249" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2250" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2250">
-        <v>28858</v>
+        <v>25986</v>
       </c>
       <c r="D2250" t="str">
         <v/>
@@ -45380,18 +45380,18 @@
         <v>1</v>
       </c>
       <c r="F2250" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2251" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2251">
-        <v>27987</v>
+        <v>24638</v>
       </c>
       <c r="D2251" t="str">
         <v/>
@@ -45400,18 +45400,18 @@
         <v>1</v>
       </c>
       <c r="F2251" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2252" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2252">
-        <v>47372</v>
+        <v>27591</v>
       </c>
       <c r="D2252" t="str">
         <v/>
@@ -45420,18 +45420,18 @@
         <v>1</v>
       </c>
       <c r="F2252" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2253" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2253">
-        <v>47504</v>
+        <v>27669</v>
       </c>
       <c r="D2253" t="str">
         <v/>
@@ -45440,18 +45440,18 @@
         <v>1</v>
       </c>
       <c r="F2253" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2254" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2254">
-        <v>38227</v>
+        <v>22217</v>
       </c>
       <c r="D2254" t="str">
         <v/>
@@ -45460,18 +45460,18 @@
         <v>1</v>
       </c>
       <c r="F2254" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2255" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2255">
-        <v>56677</v>
+        <v>30979</v>
       </c>
       <c r="D2255" t="str">
         <v/>
@@ -45480,18 +45480,18 @@
         <v>1</v>
       </c>
       <c r="F2255" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2256" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2256">
-        <v>50805</v>
+        <v>30051</v>
       </c>
       <c r="D2256" t="str">
         <v/>
@@ -45500,18 +45500,18 @@
         <v>1</v>
       </c>
       <c r="F2256" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2257" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2257">
-        <v>29694</v>
+        <v>28673</v>
       </c>
       <c r="D2257" t="str">
         <v/>
@@ -45520,18 +45520,18 @@
         <v>1</v>
       </c>
       <c r="F2257" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2258" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2258">
-        <v>29774</v>
+        <v>28755</v>
       </c>
       <c r="D2258" t="str">
         <v/>
@@ -45540,18 +45540,18 @@
         <v>1</v>
       </c>
       <c r="F2258" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2259" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2259">
-        <v>23226</v>
+        <v>24091</v>
       </c>
       <c r="D2259" t="str">
         <v/>
@@ -45560,18 +45560,18 @@
         <v>1</v>
       </c>
       <c r="F2259" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2260" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2260">
-        <v>34797</v>
+        <v>32509</v>
       </c>
       <c r="D2260" t="str">
         <v/>
@@ -45580,18 +45580,18 @@
         <v>1</v>
       </c>
       <c r="F2260" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2261" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2261">
-        <v>32402</v>
+        <v>31007</v>
       </c>
       <c r="D2261" t="str">
         <v/>
@@ -45600,18 +45600,18 @@
         <v>1</v>
       </c>
       <c r="F2261" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2262" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2262">
-        <v>13333</v>
+        <v>21788</v>
       </c>
       <c r="D2262" t="str">
         <v/>
@@ -45620,18 +45620,18 @@
         <v>1</v>
       </c>
       <c r="F2262" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2263" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2263">
-        <v>13371</v>
+        <v>21848</v>
       </c>
       <c r="D2263" t="str">
         <v/>
@@ -45640,18 +45640,18 @@
         <v>1</v>
       </c>
       <c r="F2263" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2264" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2264">
-        <v>10935</v>
+        <v>18324</v>
       </c>
       <c r="D2264" t="str">
         <v/>
@@ -45660,18 +45660,18 @@
         <v>1</v>
       </c>
       <c r="F2264" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2265" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2265">
-        <v>14825</v>
+        <v>25169</v>
       </c>
       <c r="D2265" t="str">
         <v/>
@@ -45680,18 +45680,18 @@
         <v>1</v>
       </c>
       <c r="F2265" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2266" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2266">
-        <v>13609</v>
+        <v>22994</v>
       </c>
       <c r="D2266" t="str">
         <v/>
@@ -45700,18 +45700,18 @@
         <v>1</v>
       </c>
       <c r="F2266" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2267" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2267">
-        <v>38115</v>
+        <v>31366</v>
       </c>
       <c r="D2267" t="str">
         <v/>
@@ -45720,18 +45720,18 @@
         <v>1</v>
       </c>
       <c r="F2267" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2268" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2268">
-        <v>38207</v>
+        <v>31450</v>
       </c>
       <c r="D2268" t="str">
         <v/>
@@ -45740,18 +45740,18 @@
         <v>1</v>
       </c>
       <c r="F2268" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2269" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2269">
-        <v>30119</v>
+        <v>25325</v>
       </c>
       <c r="D2269" t="str">
         <v/>
@@ -45760,18 +45760,18 @@
         <v>1</v>
       </c>
       <c r="F2269" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2270" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2270">
-        <v>45716</v>
+        <v>36671</v>
       </c>
       <c r="D2270" t="str">
         <v/>
@@ -45780,18 +45780,18 @@
         <v>1</v>
       </c>
       <c r="F2270" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2271" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2271">
-        <v>42343</v>
+        <v>34359</v>
       </c>
       <c r="D2271" t="str">
         <v/>
@@ -45800,18 +45800,18 @@
         <v>1</v>
       </c>
       <c r="F2271" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2272" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2272">
-        <v>22580</v>
+        <v>30007</v>
       </c>
       <c r="D2272" t="str">
         <v/>
@@ -45820,18 +45820,18 @@
         <v>1</v>
       </c>
       <c r="F2272" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2273" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2273">
-        <v>22642</v>
+        <v>30087</v>
       </c>
       <c r="D2273" t="str">
         <v/>
@@ -45840,18 +45840,18 @@
         <v>1</v>
       </c>
       <c r="F2273" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2274" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2274">
-        <v>18502</v>
+        <v>24378</v>
       </c>
       <c r="D2274" t="str">
         <v/>
@@ -45860,18 +45860,18 @@
         <v>1</v>
       </c>
       <c r="F2274" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2275" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2275">
-        <v>25738</v>
+        <v>35724</v>
       </c>
       <c r="D2275" t="str">
         <v/>
@@ -45880,18 +45880,18 @@
         <v>1</v>
       </c>
       <c r="F2275" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2276" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2276">
-        <v>23812</v>
+        <v>33241</v>
       </c>
       <c r="D2276" t="str">
         <v/>
@@ -45900,18 +45900,18 @@
         <v>1</v>
       </c>
       <c r="F2276" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2277" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2277">
-        <v>25038</v>
+        <v>31730</v>
       </c>
       <c r="D2277" t="str">
         <v/>
@@ -45920,18 +45920,18 @@
         <v>1</v>
       </c>
       <c r="F2277" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2278" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2278">
-        <v>25106</v>
+        <v>31818</v>
       </c>
       <c r="D2278" t="str">
         <v/>
@@ -45940,18 +45940,18 @@
         <v>1</v>
       </c>
       <c r="F2278" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2279" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2279">
-        <v>20304</v>
+        <v>25891</v>
       </c>
       <c r="D2279" t="str">
         <v/>
@@ -45960,18 +45960,18 @@
         <v>1</v>
       </c>
       <c r="F2279" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2280" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2280">
-        <v>31176</v>
+        <v>36973</v>
       </c>
       <c r="D2280" t="str">
         <v/>
@@ -45980,18 +45980,18 @@
         <v>1</v>
       </c>
       <c r="F2280" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2281" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2281">
-        <v>28656</v>
+        <v>35473</v>
       </c>
       <c r="D2281" t="str">
         <v/>
@@ -46000,18 +46000,18 @@
         <v>1</v>
       </c>
       <c r="F2281" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2282" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2282">
-        <v>19450</v>
+        <v>24351</v>
       </c>
       <c r="D2282" t="str">
         <v/>
@@ -46020,18 +46020,18 @@
         <v>1</v>
       </c>
       <c r="F2282" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2283" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2283">
-        <v>19506</v>
+        <v>24417</v>
       </c>
       <c r="D2283" t="str">
         <v/>
@@ -46040,18 +46040,18 @@
         <v>1</v>
       </c>
       <c r="F2283" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2284" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2284">
-        <v>15666</v>
+        <v>19827</v>
       </c>
       <c r="D2284" t="str">
         <v/>
@@ -46060,18 +46060,18 @@
         <v>1</v>
       </c>
       <c r="F2284" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2285" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2285">
-        <v>22550</v>
+        <v>28858</v>
       </c>
       <c r="D2285" t="str">
         <v/>
@@ -46080,18 +46080,18 @@
         <v>1</v>
       </c>
       <c r="F2285" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2286" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2286">
-        <v>20969</v>
+        <v>27987</v>
       </c>
       <c r="D2286" t="str">
         <v/>
@@ -46100,7 +46100,7 @@
         <v>1</v>
       </c>
       <c r="F2286" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2287">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -23891,7 +23891,7 @@
         <v>char_h0190_001_dialog_korean.dialog</v>
       </c>
       <c r="C1176">
-        <v>41605</v>
+        <v>41661</v>
       </c>
       <c r="D1176" t="str">
         <v/>
@@ -23900,7 +23900,7 @@
         <v>1</v>
       </c>
       <c r="F1176" t="str">
-        <v>b970b3f412ce577921aedf418395831bff9bdee31d1babd92267960c35dbd068</v>
+        <v>dcb1e38f055744430f336dbae7178b55fe66660aba195e3e72c58f8d3493e14c</v>
       </c>
     </row>
     <row r="1177">
@@ -23911,7 +23911,7 @@
         <v>char_h0190_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1177">
-        <v>34384</v>
+        <v>34565</v>
       </c>
       <c r="D1177" t="str">
         <v/>
@@ -23920,7 +23920,7 @@
         <v>1</v>
       </c>
       <c r="F1177" t="str">
-        <v>4aef42335e28fe6145c99c2fa1913562a6c6132eec034e689f958221bcfa668e</v>
+        <v>e48671c599a0cb69fe84a5eb5327b5dab02b4679e2e541fc6fed8f23e00c4d32</v>
       </c>
     </row>
     <row r="1178">
@@ -23931,7 +23931,7 @@
         <v>char_h0190_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1178">
-        <v>34454</v>
+        <v>34645</v>
       </c>
       <c r="D1178" t="str">
         <v/>
@@ -23940,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="F1178" t="str">
-        <v>a0a6c0e6075c293a0138149462e056d4d2596d58786920a9834dd714f88ab13e</v>
+        <v>c4f76dd031bfe53467d7322b0510162f47c4617280a4241c8baf3bcd35b7bb48</v>
       </c>
     </row>
     <row r="1179">
@@ -23991,7 +23991,7 @@
         <v>char_h0190_002_dialog_korean.dialog</v>
       </c>
       <c r="C1181">
-        <v>37831</v>
+        <v>37850</v>
       </c>
       <c r="D1181" t="str">
         <v/>
@@ -24000,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="F1181" t="str">
-        <v>d6167372ac61262509e5fe85b4feac92af83483f31ab896d72cd3ccc5816584b</v>
+        <v>2f100d88334304618215ebde2f489732bd1b8b8c5c0cab262b4ef8728ef8bbbd</v>
       </c>
     </row>
     <row r="1182">
@@ -24011,7 +24011,7 @@
         <v>char_h0190_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1182">
-        <v>58539</v>
+        <v>58526</v>
       </c>
       <c r="D1182" t="str">
         <v/>
@@ -24020,7 +24020,7 @@
         <v>1</v>
       </c>
       <c r="F1182" t="str">
-        <v>ac7346f2424ea6eef2221fdabe14d900366129a9abf42a22a5bb5a3176ff0216</v>
+        <v>2fcef763c217b9b922a6369b3ff73a3fb2a55645ffdf1c874409555af77e403c</v>
       </c>
     </row>
     <row r="1183">
@@ -24031,7 +24031,7 @@
         <v>char_h0190_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1183">
-        <v>58685</v>
+        <v>58672</v>
       </c>
       <c r="D1183" t="str">
         <v/>
@@ -24040,7 +24040,7 @@
         <v>1</v>
       </c>
       <c r="F1183" t="str">
-        <v>f1214e70eeb03c330c52eb542b83fc083497b4cd0857bedb0a7c3bfcd7c633be</v>
+        <v>90f703b9e23df0f868ff83cb96846fe5c2e035aee307f2e12584eddf0c1da58c</v>
       </c>
     </row>
     <row r="1184">
@@ -24091,7 +24091,7 @@
         <v>char_h0190_003_dialog_korean.dialog</v>
       </c>
       <c r="C1186">
-        <v>64327</v>
+        <v>64342</v>
       </c>
       <c r="D1186" t="str">
         <v/>
@@ -24100,7 +24100,7 @@
         <v>1</v>
       </c>
       <c r="F1186" t="str">
-        <v>0b3c1fee612372f85d4d090dfe66fd1e6e5e2f1677c34b6cd6816dd7ce642d32</v>
+        <v>2f5bbdce4059640e885444ca601da9f0aeb4144475eabb088b0a9bac6f4307d3</v>
       </c>
     </row>
     <row r="1187">
@@ -24191,7 +24191,7 @@
         <v>char_h0190_004_dialog_korean.dialog</v>
       </c>
       <c r="C1191">
-        <v>56957</v>
+        <v>56946</v>
       </c>
       <c r="D1191" t="str">
         <v/>
@@ -24200,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="F1191" t="str">
-        <v>b1096d9260039b9adebcf7659304c3f7c59f0c320a9f4edaec95210bcaf4b71b</v>
+        <v>2934993fe17b0d8f9e35e29861ccefe64105b55fbba636992740666058948ad3</v>
       </c>
     </row>
     <row r="1192">
@@ -24291,7 +24291,7 @@
         <v>char_h0190_005_dialog_korean.dialog</v>
       </c>
       <c r="C1196">
-        <v>50631</v>
+        <v>50687</v>
       </c>
       <c r="D1196" t="str">
         <v/>
@@ -24300,7 +24300,7 @@
         <v>1</v>
       </c>
       <c r="F1196" t="str">
-        <v>4dd09c68f46268036db76ef234cc60b1dacbcb3f73c4f60e807941e0b81a6e4c</v>
+        <v>ab298b716ef1da4c0fc7dbcd2a64a43ac62be15864e2260d480ab7a73134dd6b</v>
       </c>
     </row>
     <row r="1197">
@@ -24391,7 +24391,7 @@
         <v>char_h0190_006_dialog_korean.dialog</v>
       </c>
       <c r="C1201">
-        <v>57956</v>
+        <v>58162</v>
       </c>
       <c r="D1201" t="str">
         <v/>
@@ -24400,7 +24400,7 @@
         <v>1</v>
       </c>
       <c r="F1201" t="str">
-        <v>25d79a438c7e8e20921f3f2995ace7dab7acace1dfc4f0a1c0633375660c7392</v>
+        <v>565d28c8f637f82869272cf5626b0bf21fbf30976771bd55dc6424e418079b8a</v>
       </c>
     </row>
     <row r="1202">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3371</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3366"/>
+  <dimension ref="A1:F3371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23911,7 +23911,7 @@
         <v>char_h0190_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1177">
-        <v>34565</v>
+        <v>34384</v>
       </c>
       <c r="D1177" t="str">
         <v/>
@@ -23920,7 +23920,7 @@
         <v>1</v>
       </c>
       <c r="F1177" t="str">
-        <v>e48671c599a0cb69fe84a5eb5327b5dab02b4679e2e541fc6fed8f23e00c4d32</v>
+        <v>4aef42335e28fe6145c99c2fa1913562a6c6132eec034e689f958221bcfa668e</v>
       </c>
     </row>
     <row r="1178">
@@ -23931,7 +23931,7 @@
         <v>char_h0190_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1178">
-        <v>34645</v>
+        <v>34454</v>
       </c>
       <c r="D1178" t="str">
         <v/>
@@ -23940,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="F1178" t="str">
-        <v>c4f76dd031bfe53467d7322b0510162f47c4617280a4241c8baf3bcd35b7bb48</v>
+        <v>a0a6c0e6075c293a0138149462e056d4d2596d58786920a9834dd714f88ab13e</v>
       </c>
     </row>
     <row r="1179">
@@ -67305,13 +67305,13 @@
     </row>
     <row r="3347">
       <c r="A3347" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_315_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3347" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_315_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3347">
-        <v>14207</v>
+        <v>53090</v>
       </c>
       <c r="D3347" t="str">
         <v/>
@@ -67320,18 +67320,18 @@
         <v>1</v>
       </c>
       <c r="F3347" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>e2146d33e35b3d8cf557077f4f51a90a6e75f6184b5bbd068947ede79c311416</v>
       </c>
     </row>
     <row r="3348">
       <c r="A3348" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_315_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3348" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_315_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3348">
-        <v>14239</v>
+        <v>53240</v>
       </c>
       <c r="D3348" t="str">
         <v/>
@@ -67340,18 +67340,18 @@
         <v>1</v>
       </c>
       <c r="F3348" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>e23b421fccd7bcbcf2b6f27cd2621d8d971a7b658ed2f85ca755daeed143773e</v>
       </c>
     </row>
     <row r="3349">
       <c r="A3349" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_315_001_dialog_english.dialog</v>
       </c>
       <c r="B3349" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_315_001_dialog_english.dialog</v>
       </c>
       <c r="C3349">
-        <v>11494</v>
+        <v>42620</v>
       </c>
       <c r="D3349" t="str">
         <v/>
@@ -67360,18 +67360,18 @@
         <v>1</v>
       </c>
       <c r="F3349" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>c9782458ec3528761ecda16ecc916b8547ee056c32fc6622f85b854c1860219e</v>
       </c>
     </row>
     <row r="3350">
       <c r="A3350" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_315_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3350" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_315_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3350">
-        <v>15458</v>
+        <v>62882</v>
       </c>
       <c r="D3350" t="str">
         <v/>
@@ -67380,18 +67380,18 @@
         <v>1</v>
       </c>
       <c r="F3350" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>899d35b4e3d2d6482d61a66e575f8cf55ceba122eb3125a4ed04de49db344542</v>
       </c>
     </row>
     <row r="3351">
       <c r="A3351" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_315_001_dialog_korean.dialog</v>
       </c>
       <c r="B3351" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_315_001_dialog_korean.dialog</v>
       </c>
       <c r="C3351">
-        <v>14831</v>
+        <v>57163</v>
       </c>
       <c r="D3351" t="str">
         <v/>
@@ -67400,18 +67400,18 @@
         <v>1</v>
       </c>
       <c r="F3351" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>49a006ae05571954ec53d7f83b1bb9be3f69d53a7f07ab621a5115edbb56e9a4</v>
       </c>
     </row>
     <row r="3352">
       <c r="A3352" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3352" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3352">
-        <v>24991</v>
+        <v>14207</v>
       </c>
       <c r="D3352" t="str">
         <v/>
@@ -67420,18 +67420,18 @@
         <v>1</v>
       </c>
       <c r="F3352" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
       </c>
     </row>
     <row r="3353">
       <c r="A3353" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3353" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3353">
-        <v>25051</v>
+        <v>14239</v>
       </c>
       <c r="D3353" t="str">
         <v/>
@@ -67440,18 +67440,18 @@
         <v>1</v>
       </c>
       <c r="F3353" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
       </c>
     </row>
     <row r="3354">
       <c r="A3354" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>test_001_003_dialog_english.dialog</v>
       </c>
       <c r="B3354" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>test_001_003_dialog_english.dialog</v>
       </c>
       <c r="C3354">
-        <v>20539</v>
+        <v>11494</v>
       </c>
       <c r="D3354" t="str">
         <v/>
@@ -67460,18 +67460,18 @@
         <v>1</v>
       </c>
       <c r="F3354" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
       </c>
     </row>
     <row r="3355">
       <c r="A3355" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>test_001_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3355" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>test_001_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3355">
-        <v>28605</v>
+        <v>15458</v>
       </c>
       <c r="D3355" t="str">
         <v/>
@@ -67480,18 +67480,18 @@
         <v>1</v>
       </c>
       <c r="F3355" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
       </c>
     </row>
     <row r="3356">
       <c r="A3356" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>test_001_003_dialog_korean.dialog</v>
       </c>
       <c r="B3356" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>test_001_003_dialog_korean.dialog</v>
       </c>
       <c r="C3356">
-        <v>26803</v>
+        <v>14831</v>
       </c>
       <c r="D3356" t="str">
         <v/>
@@ -67500,18 +67500,18 @@
         <v>1</v>
       </c>
       <c r="F3356" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
       </c>
     </row>
     <row r="3357">
       <c r="A3357" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3357" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3357">
-        <v>38436</v>
+        <v>24991</v>
       </c>
       <c r="D3357" t="str">
         <v/>
@@ -67520,18 +67520,18 @@
         <v>1</v>
       </c>
       <c r="F3357" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
       </c>
     </row>
     <row r="3358">
       <c r="A3358" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3358" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3358">
-        <v>38520</v>
+        <v>25051</v>
       </c>
       <c r="D3358" t="str">
         <v/>
@@ -67540,18 +67540,18 @@
         <v>1</v>
       </c>
       <c r="F3358" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
       </c>
     </row>
     <row r="3359">
       <c r="A3359" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>test_001_004_dialog_english.dialog</v>
       </c>
       <c r="B3359" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>test_001_004_dialog_english.dialog</v>
       </c>
       <c r="C3359">
-        <v>31090</v>
+        <v>20539</v>
       </c>
       <c r="D3359" t="str">
         <v/>
@@ -67560,18 +67560,18 @@
         <v>1</v>
       </c>
       <c r="F3359" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
       </c>
     </row>
     <row r="3360">
       <c r="A3360" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>test_001_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3360" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>test_001_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3360">
-        <v>42076</v>
+        <v>28605</v>
       </c>
       <c r="D3360" t="str">
         <v/>
@@ -67580,18 +67580,18 @@
         <v>1</v>
       </c>
       <c r="F3360" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
       </c>
     </row>
     <row r="3361">
       <c r="A3361" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>test_001_004_dialog_korean.dialog</v>
       </c>
       <c r="B3361" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>test_001_004_dialog_korean.dialog</v>
       </c>
       <c r="C3361">
-        <v>41121</v>
+        <v>26803</v>
       </c>
       <c r="D3361" t="str">
         <v/>
@@ -67600,18 +67600,18 @@
         <v>1</v>
       </c>
       <c r="F3361" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
       </c>
     </row>
     <row r="3362">
       <c r="A3362" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3362" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3362">
-        <v>4729</v>
+        <v>38436</v>
       </c>
       <c r="D3362" t="str">
         <v/>
@@ -67620,18 +67620,18 @@
         <v>1</v>
       </c>
       <c r="F3362" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
       </c>
     </row>
     <row r="3363">
       <c r="A3363" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3363" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3363">
-        <v>4735</v>
+        <v>38520</v>
       </c>
       <c r="D3363" t="str">
         <v/>
@@ -67640,18 +67640,18 @@
         <v>1</v>
       </c>
       <c r="F3363" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
       </c>
     </row>
     <row r="3364">
       <c r="A3364" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>tutorial_001_002_dialog_english.dialog</v>
       </c>
       <c r="B3364" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>tutorial_001_002_dialog_english.dialog</v>
       </c>
       <c r="C3364">
-        <v>3676</v>
+        <v>31090</v>
       </c>
       <c r="D3364" t="str">
         <v/>
@@ -67660,18 +67660,18 @@
         <v>1</v>
       </c>
       <c r="F3364" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
       </c>
     </row>
     <row r="3365">
       <c r="A3365" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3365" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3365">
-        <v>4777</v>
+        <v>42076</v>
       </c>
       <c r="D3365" t="str">
         <v/>
@@ -67680,33 +67680,133 @@
         <v>1</v>
       </c>
       <c r="F3365" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
       </c>
     </row>
     <row r="3366">
       <c r="A3366" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3366" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3366">
+        <v>41121</v>
+      </c>
+      <c r="D3366" t="str">
+        <v/>
+      </c>
+      <c r="E3366">
+        <v>1</v>
+      </c>
+      <c r="F3366" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3367" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3367">
+        <v>4729</v>
+      </c>
+      <c r="D3367" t="str">
+        <v/>
+      </c>
+      <c r="E3367">
+        <v>1</v>
+      </c>
+      <c r="F3367" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3368" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3368">
+        <v>4735</v>
+      </c>
+      <c r="D3368" t="str">
+        <v/>
+      </c>
+      <c r="E3368">
+        <v>1</v>
+      </c>
+      <c r="F3368" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3369" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3369">
+        <v>3676</v>
+      </c>
+      <c r="D3369" t="str">
+        <v/>
+      </c>
+      <c r="E3369">
+        <v>1</v>
+      </c>
+      <c r="F3369" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3370" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3370">
+        <v>4777</v>
+      </c>
+      <c r="D3370" t="str">
+        <v/>
+      </c>
+      <c r="E3370">
+        <v>1</v>
+      </c>
+      <c r="F3370" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3366" t="str">
+      <c r="B3371" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3366">
+      <c r="C3371">
         <v>4424</v>
       </c>
-      <c r="D3366" t="str">
-        <v/>
-      </c>
-      <c r="E3366">
-        <v>1</v>
-      </c>
-      <c r="F3366" t="str">
+      <c r="D3371" t="str">
+        <v/>
+      </c>
+      <c r="E3371">
+        <v>1</v>
+      </c>
+      <c r="F3371" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3366"/>
+  <autoFilter ref="A1:F3371"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3366"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3371"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3371</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3396</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3371"/>
+  <dimension ref="A1:F3396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -67405,13 +67405,13 @@
     </row>
     <row r="3352">
       <c r="A3352" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_401_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3352" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_401_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3352">
-        <v>14207</v>
+        <v>48675</v>
       </c>
       <c r="D3352" t="str">
         <v/>
@@ -67420,18 +67420,18 @@
         <v>1</v>
       </c>
       <c r="F3352" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>c0a6d006b29069a64607677d528d413c1fd4f7888940f9faf5c200b3a336e64c</v>
       </c>
     </row>
     <row r="3353">
       <c r="A3353" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_401_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3353" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_401_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3353">
-        <v>14239</v>
+        <v>48801</v>
       </c>
       <c r="D3353" t="str">
         <v/>
@@ -67440,18 +67440,18 @@
         <v>1</v>
       </c>
       <c r="F3353" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>402238f685ae1a2fa5e90b7d8543a019e56867fbf848050118699a62aa42f33e</v>
       </c>
     </row>
     <row r="3354">
       <c r="A3354" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_401_001_dialog_english.dialog</v>
       </c>
       <c r="B3354" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_401_001_dialog_english.dialog</v>
       </c>
       <c r="C3354">
-        <v>11494</v>
+        <v>37447</v>
       </c>
       <c r="D3354" t="str">
         <v/>
@@ -67460,18 +67460,18 @@
         <v>1</v>
       </c>
       <c r="F3354" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>27a9860e65f78f1e6c13cc7c74a30aff4cff29d3922bd6e25ab1a822cbd473c6</v>
       </c>
     </row>
     <row r="3355">
       <c r="A3355" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_401_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3355" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_401_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3355">
-        <v>15458</v>
+        <v>59307</v>
       </c>
       <c r="D3355" t="str">
         <v/>
@@ -67480,18 +67480,18 @@
         <v>1</v>
       </c>
       <c r="F3355" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>ca1e9c6e0b266baa86c92cd2a1228a8dc73466a7a10e90e7742a9343468391fe</v>
       </c>
     </row>
     <row r="3356">
       <c r="A3356" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_401_001_dialog_korean.dialog</v>
       </c>
       <c r="B3356" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_401_001_dialog_korean.dialog</v>
       </c>
       <c r="C3356">
-        <v>14831</v>
+        <v>54590</v>
       </c>
       <c r="D3356" t="str">
         <v/>
@@ -67500,18 +67500,18 @@
         <v>1</v>
       </c>
       <c r="F3356" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>8f831b4d0d8297889fa7a68e47b9503961ab309e3d342ec11542079654543ab2</v>
       </c>
     </row>
     <row r="3357">
       <c r="A3357" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_401_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3357" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_401_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3357">
-        <v>24991</v>
+        <v>43505</v>
       </c>
       <c r="D3357" t="str">
         <v/>
@@ -67520,18 +67520,18 @@
         <v>1</v>
       </c>
       <c r="F3357" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>91447dd882be57bdfb8b1aaaea3924df40d18212af0398df07d8ae883a0ff2df</v>
       </c>
     </row>
     <row r="3358">
       <c r="A3358" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_401_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3358" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_401_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3358">
-        <v>25051</v>
+        <v>43599</v>
       </c>
       <c r="D3358" t="str">
         <v/>
@@ -67540,18 +67540,18 @@
         <v>1</v>
       </c>
       <c r="F3358" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>e7588692644137bd96f286f802645dcaaf64ad7bc7bf0e87d6f3f1b7a2c50e97</v>
       </c>
     </row>
     <row r="3359">
       <c r="A3359" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_401_002_dialog_english.dialog</v>
       </c>
       <c r="B3359" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_401_002_dialog_english.dialog</v>
       </c>
       <c r="C3359">
-        <v>20539</v>
+        <v>33048</v>
       </c>
       <c r="D3359" t="str">
         <v/>
@@ -67560,18 +67560,18 @@
         <v>1</v>
       </c>
       <c r="F3359" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>b14d4becbe7337940fd88d154dd258cad2aae8e397651497ae05f57bdae6c312</v>
       </c>
     </row>
     <row r="3360">
       <c r="A3360" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_401_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3360" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_401_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3360">
-        <v>28605</v>
+        <v>48696</v>
       </c>
       <c r="D3360" t="str">
         <v/>
@@ -67580,18 +67580,18 @@
         <v>1</v>
       </c>
       <c r="F3360" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>11f150e6b2a50c0000efb58e75581e5f8f1705413aecacc98eb28b278b667846</v>
       </c>
     </row>
     <row r="3361">
       <c r="A3361" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_401_002_dialog_korean.dialog</v>
       </c>
       <c r="B3361" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_401_002_dialog_korean.dialog</v>
       </c>
       <c r="C3361">
-        <v>26803</v>
+        <v>45042</v>
       </c>
       <c r="D3361" t="str">
         <v/>
@@ -67600,18 +67600,18 @@
         <v>1</v>
       </c>
       <c r="F3361" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>4ca0ad0bef49e86e36289f09d32684dc97f5e20c248708131ebbae307ee2b0f5</v>
       </c>
     </row>
     <row r="3362">
       <c r="A3362" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_401_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3362" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_401_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3362">
-        <v>38436</v>
+        <v>17898</v>
       </c>
       <c r="D3362" t="str">
         <v/>
@@ -67620,18 +67620,18 @@
         <v>1</v>
       </c>
       <c r="F3362" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>a95d7071963f21e612be69c608a9b3dbcf1cbb82912613ddb52ae027584ef254</v>
       </c>
     </row>
     <row r="3363">
       <c r="A3363" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_401_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3363" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_401_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3363">
-        <v>38520</v>
+        <v>17934</v>
       </c>
       <c r="D3363" t="str">
         <v/>
@@ -67640,18 +67640,18 @@
         <v>1</v>
       </c>
       <c r="F3363" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>361234a8f7c99c3a259937b5a1ae3a13732c812d8fcf50df04bff63a3a34b3b0</v>
       </c>
     </row>
     <row r="3364">
       <c r="A3364" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_401_003_dialog_english.dialog</v>
       </c>
       <c r="B3364" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_401_003_dialog_english.dialog</v>
       </c>
       <c r="C3364">
-        <v>31090</v>
+        <v>14229</v>
       </c>
       <c r="D3364" t="str">
         <v/>
@@ -67660,18 +67660,18 @@
         <v>1</v>
       </c>
       <c r="F3364" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>8fa59e61df4e622384b98e3d9f7df83e658f28a2c79b80873b11dd6d0ce3dc3c</v>
       </c>
     </row>
     <row r="3365">
       <c r="A3365" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_401_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3365" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_401_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3365">
-        <v>42076</v>
+        <v>19738</v>
       </c>
       <c r="D3365" t="str">
         <v/>
@@ -67680,18 +67680,18 @@
         <v>1</v>
       </c>
       <c r="F3365" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>77667b20a3d30956652781d68522129c5cb9a091064fee94628e819d0ecb17f6</v>
       </c>
     </row>
     <row r="3366">
       <c r="A3366" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_401_003_dialog_korean.dialog</v>
       </c>
       <c r="B3366" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_401_003_dialog_korean.dialog</v>
       </c>
       <c r="C3366">
-        <v>41121</v>
+        <v>17843</v>
       </c>
       <c r="D3366" t="str">
         <v/>
@@ -67700,18 +67700,18 @@
         <v>1</v>
       </c>
       <c r="F3366" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>987cd7cbee432c81d9f7a616d4a5547a424c9b97d02355eb1eed3937cd752f10</v>
       </c>
     </row>
     <row r="3367">
       <c r="A3367" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_401_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3367" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_401_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3367">
-        <v>4729</v>
+        <v>34341</v>
       </c>
       <c r="D3367" t="str">
         <v/>
@@ -67720,18 +67720,18 @@
         <v>1</v>
       </c>
       <c r="F3367" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>008fc8eeb83535c782fec6848f997dda62078fbd2fb2fa24270651001300872e</v>
       </c>
     </row>
     <row r="3368">
       <c r="A3368" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_401_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3368" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_401_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3368">
-        <v>4735</v>
+        <v>34423</v>
       </c>
       <c r="D3368" t="str">
         <v/>
@@ -67740,18 +67740,18 @@
         <v>1</v>
       </c>
       <c r="F3368" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>ddd4ffaad4200cc9026c7fd0aca8f665ef1769cf1b5e4af09115fdd5860e8684</v>
       </c>
     </row>
     <row r="3369">
       <c r="A3369" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_401_004_dialog_english.dialog</v>
       </c>
       <c r="B3369" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_401_004_dialog_english.dialog</v>
       </c>
       <c r="C3369">
-        <v>3676</v>
+        <v>27169</v>
       </c>
       <c r="D3369" t="str">
         <v/>
@@ -67760,18 +67760,18 @@
         <v>1</v>
       </c>
       <c r="F3369" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>9b574921db6c9da88e65a8681505bae7b772c189afb61447c40149c13ce36dcd</v>
       </c>
     </row>
     <row r="3370">
       <c r="A3370" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_401_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3370" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_401_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3370">
-        <v>4777</v>
+        <v>38121</v>
       </c>
       <c r="D3370" t="str">
         <v/>
@@ -67780,33 +67780,533 @@
         <v>1</v>
       </c>
       <c r="F3370" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>2badd81cfdc09467e05326cb0c61cf2662deb4b773bd4d2594ab723c0bfa06bf</v>
       </c>
     </row>
     <row r="3371">
       <c r="A3371" t="str">
+        <v>main_401_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3371" t="str">
+        <v>main_401_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3371">
+        <v>36134</v>
+      </c>
+      <c r="D3371" t="str">
+        <v/>
+      </c>
+      <c r="E3371">
+        <v>1</v>
+      </c>
+      <c r="F3371" t="str">
+        <v>18184fcf483728d1fac116114e3afec37ea3e6e86c7fcd26e4bf0fdf5017e7f3</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="str">
+        <v>main_401_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3372" t="str">
+        <v>main_401_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3372">
+        <v>43795</v>
+      </c>
+      <c r="D3372" t="str">
+        <v/>
+      </c>
+      <c r="E3372">
+        <v>1</v>
+      </c>
+      <c r="F3372" t="str">
+        <v>cfd105494d9ce5bcde4a8dfd220747169cc76993d1670ad22405e39d94507367</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="str">
+        <v>main_401_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3373" t="str">
+        <v>main_401_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3373">
+        <v>43901</v>
+      </c>
+      <c r="D3373" t="str">
+        <v/>
+      </c>
+      <c r="E3373">
+        <v>1</v>
+      </c>
+      <c r="F3373" t="str">
+        <v>9add9c3762b55435213ad09d2f0c7d20edeeeed5c76fe5380cfe17487d8ad5cd</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="str">
+        <v>main_401_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3374" t="str">
+        <v>main_401_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3374">
+        <v>35415</v>
+      </c>
+      <c r="D3374" t="str">
+        <v/>
+      </c>
+      <c r="E3374">
+        <v>1</v>
+      </c>
+      <c r="F3374" t="str">
+        <v>c9df76e6309a527d41765445038ce6e2178e4c3a8b53fbf84aebc3d22977f3fb</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="str">
+        <v>main_401_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3375" t="str">
+        <v>main_401_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3375">
+        <v>47843</v>
+      </c>
+      <c r="D3375" t="str">
+        <v/>
+      </c>
+      <c r="E3375">
+        <v>1</v>
+      </c>
+      <c r="F3375" t="str">
+        <v>b6bda6d10bc568adb941b5cd55b71f6eb8bb42cadec83e1d4d228ca806480d58</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="str">
+        <v>main_401_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3376" t="str">
+        <v>main_401_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3376">
+        <v>44321</v>
+      </c>
+      <c r="D3376" t="str">
+        <v/>
+      </c>
+      <c r="E3376">
+        <v>1</v>
+      </c>
+      <c r="F3376" t="str">
+        <v>8d1f458beabe9eb18ea07db90f98a3a3efb21222e5078a25e3597e4589933b37</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3377" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3377">
+        <v>14207</v>
+      </c>
+      <c r="D3377" t="str">
+        <v/>
+      </c>
+      <c r="E3377">
+        <v>1</v>
+      </c>
+      <c r="F3377" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3378" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3378">
+        <v>14239</v>
+      </c>
+      <c r="D3378" t="str">
+        <v/>
+      </c>
+      <c r="E3378">
+        <v>1</v>
+      </c>
+      <c r="F3378" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3379" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3379">
+        <v>11494</v>
+      </c>
+      <c r="D3379" t="str">
+        <v/>
+      </c>
+      <c r="E3379">
+        <v>1</v>
+      </c>
+      <c r="F3379" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3380" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3380">
+        <v>15458</v>
+      </c>
+      <c r="D3380" t="str">
+        <v/>
+      </c>
+      <c r="E3380">
+        <v>1</v>
+      </c>
+      <c r="F3380" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3381" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3381">
+        <v>14831</v>
+      </c>
+      <c r="D3381" t="str">
+        <v/>
+      </c>
+      <c r="E3381">
+        <v>1</v>
+      </c>
+      <c r="F3381" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3382" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3382">
+        <v>24991</v>
+      </c>
+      <c r="D3382" t="str">
+        <v/>
+      </c>
+      <c r="E3382">
+        <v>1</v>
+      </c>
+      <c r="F3382" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3383" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3383">
+        <v>25051</v>
+      </c>
+      <c r="D3383" t="str">
+        <v/>
+      </c>
+      <c r="E3383">
+        <v>1</v>
+      </c>
+      <c r="F3383" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3384" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3384">
+        <v>20539</v>
+      </c>
+      <c r="D3384" t="str">
+        <v/>
+      </c>
+      <c r="E3384">
+        <v>1</v>
+      </c>
+      <c r="F3384" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3385" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3385">
+        <v>28605</v>
+      </c>
+      <c r="D3385" t="str">
+        <v/>
+      </c>
+      <c r="E3385">
+        <v>1</v>
+      </c>
+      <c r="F3385" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3386" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3386">
+        <v>26803</v>
+      </c>
+      <c r="D3386" t="str">
+        <v/>
+      </c>
+      <c r="E3386">
+        <v>1</v>
+      </c>
+      <c r="F3386" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3387" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3387">
+        <v>38436</v>
+      </c>
+      <c r="D3387" t="str">
+        <v/>
+      </c>
+      <c r="E3387">
+        <v>1</v>
+      </c>
+      <c r="F3387" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3388" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3388">
+        <v>38520</v>
+      </c>
+      <c r="D3388" t="str">
+        <v/>
+      </c>
+      <c r="E3388">
+        <v>1</v>
+      </c>
+      <c r="F3388" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3389" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3389">
+        <v>31090</v>
+      </c>
+      <c r="D3389" t="str">
+        <v/>
+      </c>
+      <c r="E3389">
+        <v>1</v>
+      </c>
+      <c r="F3389" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3390" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3390">
+        <v>42076</v>
+      </c>
+      <c r="D3390" t="str">
+        <v/>
+      </c>
+      <c r="E3390">
+        <v>1</v>
+      </c>
+      <c r="F3390" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3391" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3391">
+        <v>41121</v>
+      </c>
+      <c r="D3391" t="str">
+        <v/>
+      </c>
+      <c r="E3391">
+        <v>1</v>
+      </c>
+      <c r="F3391" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3392" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3392">
+        <v>4729</v>
+      </c>
+      <c r="D3392" t="str">
+        <v/>
+      </c>
+      <c r="E3392">
+        <v>1</v>
+      </c>
+      <c r="F3392" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3393" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3393">
+        <v>4735</v>
+      </c>
+      <c r="D3393" t="str">
+        <v/>
+      </c>
+      <c r="E3393">
+        <v>1</v>
+      </c>
+      <c r="F3393" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3394" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3394">
+        <v>3676</v>
+      </c>
+      <c r="D3394" t="str">
+        <v/>
+      </c>
+      <c r="E3394">
+        <v>1</v>
+      </c>
+      <c r="F3394" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3395" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3395">
+        <v>4777</v>
+      </c>
+      <c r="D3395" t="str">
+        <v/>
+      </c>
+      <c r="E3395">
+        <v>1</v>
+      </c>
+      <c r="F3395" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3371" t="str">
+      <c r="B3396" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3371">
+      <c r="C3396">
         <v>4424</v>
       </c>
-      <c r="D3371" t="str">
-        <v/>
-      </c>
-      <c r="E3371">
-        <v>1</v>
-      </c>
-      <c r="F3371" t="str">
+      <c r="D3396" t="str">
+        <v/>
+      </c>
+      <c r="E3396">
+        <v>1</v>
+      </c>
+      <c r="F3396" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3371"/>
+  <autoFilter ref="A1:F3396"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3371"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3396"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -31951,7 +31951,7 @@
         <v>char_t0189_001_dialog_english.dialog</v>
       </c>
       <c r="C1579">
-        <v>43045</v>
+        <v>43023</v>
       </c>
       <c r="D1579" t="str">
         <v/>
@@ -31960,7 +31960,7 @@
         <v>1</v>
       </c>
       <c r="F1579" t="str">
-        <v>3b3e4e5595b91e66b165458485c9926a5c92c1546553aa62e5c167c0b9603f65</v>
+        <v>c744b6225660bf86aaba86df7a5b4bde489e14d8d3fc073a5a793a30b8448f13</v>
       </c>
     </row>
     <row r="1580">
@@ -31971,7 +31971,7 @@
         <v>char_t0189_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1580">
-        <v>55025</v>
+        <v>55077</v>
       </c>
       <c r="D1580" t="str">
         <v/>
@@ -31980,7 +31980,7 @@
         <v>1</v>
       </c>
       <c r="F1580" t="str">
-        <v>b55bf4e4d8e3e6ab17d92155d28932c2c7c99b50a40d85819bbb60be9b057af9</v>
+        <v>b553628979999738483f101129e86371c3d1368cd20583bb8b96ac517d6e3eef</v>
       </c>
     </row>
     <row r="1581">
@@ -31991,7 +31991,7 @@
         <v>char_t0189_001_dialog_korean.dialog</v>
       </c>
       <c r="C1581">
-        <v>52310</v>
+        <v>52467</v>
       </c>
       <c r="D1581" t="str">
         <v/>
@@ -32000,7 +32000,7 @@
         <v>1</v>
       </c>
       <c r="F1581" t="str">
-        <v>81775416368349a1f1d5f26e1a03834500349d3fdc078dec4e267d81de3b9975</v>
+        <v>7bc055f67b60fc0d61a0c6c8759187575cecb0ec48c70ab68e3cbee1560de7da</v>
       </c>
     </row>
     <row r="1582">
@@ -32051,7 +32051,7 @@
         <v>char_t0189_002_dialog_english.dialog</v>
       </c>
       <c r="C1584">
-        <v>40557</v>
+        <v>40413</v>
       </c>
       <c r="D1584" t="str">
         <v/>
@@ -32060,7 +32060,7 @@
         <v>1</v>
       </c>
       <c r="F1584" t="str">
-        <v>8231f3dee736a5469924314ac2446ea8c09bb1f625a1a3740ac88aa11dcf80e8</v>
+        <v>dcf5c66f59271250870e3e9b4e86b062c435d4d949cde12dd0eefa90eb20c123</v>
       </c>
     </row>
     <row r="1585">
@@ -32071,7 +32071,7 @@
         <v>char_t0189_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1585">
-        <v>58484</v>
+        <v>58445</v>
       </c>
       <c r="D1585" t="str">
         <v/>
@@ -32080,7 +32080,7 @@
         <v>1</v>
       </c>
       <c r="F1585" t="str">
-        <v>c2b514301942fbd5f98ceb93ca51a48a7c8edfb2ba74f23c4c4d6c6d4891947b</v>
+        <v>b8dbdbd3db00064f7d141b7e8ce51b6794971896be9fd0db122f12be5cb0730f</v>
       </c>
     </row>
     <row r="1586">
@@ -32091,7 +32091,7 @@
         <v>char_t0189_002_dialog_korean.dialog</v>
       </c>
       <c r="C1586">
-        <v>56038</v>
+        <v>55975</v>
       </c>
       <c r="D1586" t="str">
         <v/>
@@ -32100,7 +32100,7 @@
         <v>1</v>
       </c>
       <c r="F1586" t="str">
-        <v>0cd06d9c2989f785fcc09597ec3b8b96ed5b0060e790cdc6e298f6d4dba1ab8c</v>
+        <v>edca2b1bbbe7bf315f868081ec27e3d25793a494c0b1a229deeb231c04fe2a69</v>
       </c>
     </row>
     <row r="1587">
@@ -32151,7 +32151,7 @@
         <v>char_t0189_003_dialog_english.dialog</v>
       </c>
       <c r="C1589">
-        <v>47732</v>
+        <v>47708</v>
       </c>
       <c r="D1589" t="str">
         <v/>
@@ -32160,7 +32160,7 @@
         <v>1</v>
       </c>
       <c r="F1589" t="str">
-        <v>02b85df2241cb85b740f343d9f15d1b30a0343cc1eea633de081172c83584856</v>
+        <v>ce45b9c5ec68957c59bbab12238c68b767d940f1ef4dfb3e8b85b1575e4a6908</v>
       </c>
     </row>
     <row r="1590">
@@ -32171,7 +32171,7 @@
         <v>char_t0189_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1590">
-        <v>69863</v>
+        <v>69892</v>
       </c>
       <c r="D1590" t="str">
         <v/>
@@ -32180,7 +32180,7 @@
         <v>1</v>
       </c>
       <c r="F1590" t="str">
-        <v>8e5170e5cbca00120a29c70170b9da2959a10dea61222d58cde9f35f9b3e106c</v>
+        <v>f972b84e5b5ba157602a52d900fb4f2b768e88ea7819a9dc5a4f6d9b2dc0a431</v>
       </c>
     </row>
     <row r="1591">
@@ -32191,7 +32191,7 @@
         <v>char_t0189_003_dialog_korean.dialog</v>
       </c>
       <c r="C1591">
-        <v>66276</v>
+        <v>66539</v>
       </c>
       <c r="D1591" t="str">
         <v/>
@@ -32200,7 +32200,7 @@
         <v>1</v>
       </c>
       <c r="F1591" t="str">
-        <v>4dc793851e9cbc7fedfa271bf8fa4a0475abd23f2ba67e630cd6bf9b7e76dbff</v>
+        <v>41f8641aa3d634a191742758391057e83c6248c4afe8472e3819d72c0acab891</v>
       </c>
     </row>
     <row r="1592">
@@ -32251,7 +32251,7 @@
         <v>char_t0189_004_dialog_english.dialog</v>
       </c>
       <c r="C1594">
-        <v>43395</v>
+        <v>43335</v>
       </c>
       <c r="D1594" t="str">
         <v/>
@@ -32260,7 +32260,7 @@
         <v>1</v>
       </c>
       <c r="F1594" t="str">
-        <v>3d8e26806d500110a8d4257f94fe4e81c6cc1e03539d8f784faa3c4daf43d617</v>
+        <v>c0bd971e389b245fa283eb5b8dd898cc62ba91e6aff2cbcd18966824ad5112ed</v>
       </c>
     </row>
     <row r="1595">
@@ -32271,7 +32271,7 @@
         <v>char_t0189_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1595">
-        <v>61790</v>
+        <v>61849</v>
       </c>
       <c r="D1595" t="str">
         <v/>
@@ -32280,7 +32280,7 @@
         <v>1</v>
       </c>
       <c r="F1595" t="str">
-        <v>789b5be885652fa135dbc90bab1128b6410f5b41f01241a50554c123fb667f49</v>
+        <v>b381696545f7cf65d3b3404fccc2d8cc69fb5e6848d35919db40412ebba7cf9c</v>
       </c>
     </row>
     <row r="1596">
@@ -32291,7 +32291,7 @@
         <v>char_t0189_004_dialog_korean.dialog</v>
       </c>
       <c r="C1596">
-        <v>57743</v>
+        <v>57795</v>
       </c>
       <c r="D1596" t="str">
         <v/>
@@ -32300,7 +32300,7 @@
         <v>1</v>
       </c>
       <c r="F1596" t="str">
-        <v>b30b9ea0ce415cb7199db368a35864d3f7f09f9d701cf42ecff846937b95b1b6</v>
+        <v>c194a9466847891b162eebaf1ea8b275e1d8b01423f84334ff18c94d3a5d2135</v>
       </c>
     </row>
     <row r="1597">
@@ -32351,7 +32351,7 @@
         <v>char_t0189_005_dialog_english.dialog</v>
       </c>
       <c r="C1599">
-        <v>23701</v>
+        <v>23745</v>
       </c>
       <c r="D1599" t="str">
         <v/>
@@ -32360,7 +32360,7 @@
         <v>1</v>
       </c>
       <c r="F1599" t="str">
-        <v>028aeb03ad1407f83c806835d63bb5cc7bac8a567cd23a16fabc155df5224b43</v>
+        <v>d63af72d5b66b9541464589a7d9431896bc5e2a9176ea286058d2b725d4bf749</v>
       </c>
     </row>
     <row r="1600">
@@ -32371,7 +32371,7 @@
         <v>char_t0189_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1600">
-        <v>33003</v>
+        <v>32977</v>
       </c>
       <c r="D1600" t="str">
         <v/>
@@ -32380,7 +32380,7 @@
         <v>1</v>
       </c>
       <c r="F1600" t="str">
-        <v>6be40af7a3f47ddebe86cdf37bb00e89b04f350b5463b7cd1f448c77375f4799</v>
+        <v>cdd4c21bf076ff1dfceedddb0b9fdb1b146a9d1f7e903c3efcee8ee08a1f313c</v>
       </c>
     </row>
     <row r="1601">
@@ -32391,7 +32391,7 @@
         <v>char_t0189_005_dialog_korean.dialog</v>
       </c>
       <c r="C1601">
-        <v>30585</v>
+        <v>30665</v>
       </c>
       <c r="D1601" t="str">
         <v/>
@@ -32400,7 +32400,7 @@
         <v>1</v>
       </c>
       <c r="F1601" t="str">
-        <v>7e74e8a64a07293e8dbdb426b31f5adf31840e9ba6fad0771717918bf475af7d</v>
+        <v>f77840f817373ab5cc562bc53405819d1ee86fd4843e1f294944d11ab8cc5eac</v>
       </c>
     </row>
     <row r="1602">
@@ -33005,13 +33005,13 @@
     </row>
     <row r="1632">
       <c r="A1632" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1632" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1632">
-        <v>4028</v>
+        <v>13697</v>
       </c>
       <c r="D1632" t="str">
         <v/>
@@ -33020,18 +33020,18 @@
         <v>1</v>
       </c>
       <c r="F1632" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1633" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1633">
-        <v>4038</v>
+        <v>13761</v>
       </c>
       <c r="D1633" t="str">
         <v/>
@@ -33040,18 +33040,18 @@
         <v>1</v>
       </c>
       <c r="F1633" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1634" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1634">
-        <v>3444</v>
+        <v>12502</v>
       </c>
       <c r="D1634" t="str">
         <v/>
@@ -33060,18 +33060,18 @@
         <v>1</v>
       </c>
       <c r="F1634" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1635" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1635">
-        <v>4365</v>
+        <v>13827</v>
       </c>
       <c r="D1635" t="str">
         <v/>
@@ -33080,18 +33080,18 @@
         <v>1</v>
       </c>
       <c r="F1635" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1636" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1636">
-        <v>4062</v>
+        <v>13301</v>
       </c>
       <c r="D1636" t="str">
         <v/>
@@ -33100,18 +33100,18 @@
         <v>1</v>
       </c>
       <c r="F1636" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1637" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1637">
-        <v>1838</v>
+        <v>4028</v>
       </c>
       <c r="D1637" t="str">
         <v/>
@@ -33120,18 +33120,18 @@
         <v>1</v>
       </c>
       <c r="F1637" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1638" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1638">
-        <v>1844</v>
+        <v>4038</v>
       </c>
       <c r="D1638" t="str">
         <v/>
@@ -33140,18 +33140,18 @@
         <v>1</v>
       </c>
       <c r="F1638" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1639" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1639">
-        <v>1484</v>
+        <v>3444</v>
       </c>
       <c r="D1639" t="str">
         <v/>
@@ -33160,18 +33160,18 @@
         <v>1</v>
       </c>
       <c r="F1639" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1640" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1640">
-        <v>1906</v>
+        <v>4365</v>
       </c>
       <c r="D1640" t="str">
         <v/>
@@ -33180,18 +33180,18 @@
         <v>1</v>
       </c>
       <c r="F1640" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1641" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1641">
-        <v>1910</v>
+        <v>4062</v>
       </c>
       <c r="D1641" t="str">
         <v/>
@@ -33200,18 +33200,18 @@
         <v>1</v>
       </c>
       <c r="F1641" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1642" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1642">
-        <v>13697</v>
+        <v>1838</v>
       </c>
       <c r="D1642" t="str">
         <v/>
@@ -33220,18 +33220,18 @@
         <v>1</v>
       </c>
       <c r="F1642" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1643" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1643">
-        <v>13761</v>
+        <v>1844</v>
       </c>
       <c r="D1643" t="str">
         <v/>
@@ -33240,18 +33240,18 @@
         <v>1</v>
       </c>
       <c r="F1643" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1644" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1644">
-        <v>12502</v>
+        <v>1484</v>
       </c>
       <c r="D1644" t="str">
         <v/>
@@ -33260,18 +33260,18 @@
         <v>1</v>
       </c>
       <c r="F1644" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1645" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1645">
-        <v>13827</v>
+        <v>1906</v>
       </c>
       <c r="D1645" t="str">
         <v/>
@@ -33280,18 +33280,18 @@
         <v>1</v>
       </c>
       <c r="F1645" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1646" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1646">
-        <v>13301</v>
+        <v>1910</v>
       </c>
       <c r="D1646" t="str">
         <v/>
@@ -33300,7 +33300,7 @@
         <v>1</v>
       </c>
       <c r="F1646" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1647">
@@ -38505,13 +38505,13 @@
     </row>
     <row r="1907">
       <c r="A1907" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1907" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1907">
-        <v>55371</v>
+        <v>13926</v>
       </c>
       <c r="D1907" t="str">
         <v/>
@@ -38520,18 +38520,18 @@
         <v>1</v>
       </c>
       <c r="F1907" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1908" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1908">
-        <v>55491</v>
+        <v>13960</v>
       </c>
       <c r="D1908" t="str">
         <v/>
@@ -38540,18 +38540,18 @@
         <v>1</v>
       </c>
       <c r="F1908" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B1909" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C1909">
-        <v>44705</v>
+        <v>11270</v>
       </c>
       <c r="D1909" t="str">
         <v/>
@@ -38560,18 +38560,18 @@
         <v>1</v>
       </c>
       <c r="F1909" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1910" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1910">
-        <v>61071</v>
+        <v>15639</v>
       </c>
       <c r="D1910" t="str">
         <v/>
@@ -38580,18 +38580,18 @@
         <v>1</v>
       </c>
       <c r="F1910" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="1911">
       <c r="A1911" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B1911" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C1911">
-        <v>55999</v>
+        <v>14837</v>
       </c>
       <c r="D1911" t="str">
         <v/>
@@ -38600,18 +38600,18 @@
         <v>1</v>
       </c>
       <c r="F1911" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="1912">
       <c r="A1912" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1912" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1912">
-        <v>40894</v>
+        <v>2082</v>
       </c>
       <c r="D1912" t="str">
         <v/>
@@ -38620,18 +38620,18 @@
         <v>1</v>
       </c>
       <c r="F1912" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1913" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1913">
-        <v>40930</v>
+        <v>2088</v>
       </c>
       <c r="D1913" t="str">
         <v/>
@@ -38640,18 +38640,18 @@
         <v>1</v>
       </c>
       <c r="F1913" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B1914" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C1914">
-        <v>32515</v>
+        <v>1869</v>
       </c>
       <c r="D1914" t="str">
         <v/>
@@ -38660,18 +38660,18 @@
         <v>1</v>
       </c>
       <c r="F1914" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1915" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1915">
-        <v>44418</v>
+        <v>2132</v>
       </c>
       <c r="D1915" t="str">
         <v/>
@@ -38680,18 +38680,18 @@
         <v>1</v>
       </c>
       <c r="F1915" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B1916" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C1916">
-        <v>41223</v>
+        <v>2275</v>
       </c>
       <c r="D1916" t="str">
         <v/>
@@ -38700,18 +38700,18 @@
         <v>1</v>
       </c>
       <c r="F1916" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1917" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1917">
-        <v>32341</v>
+        <v>1712</v>
       </c>
       <c r="D1917" t="str">
         <v/>
@@ -38720,18 +38720,18 @@
         <v>1</v>
       </c>
       <c r="F1917" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1918" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1918">
-        <v>32413</v>
+        <v>1716</v>
       </c>
       <c r="D1918" t="str">
         <v/>
@@ -38740,18 +38740,18 @@
         <v>1</v>
       </c>
       <c r="F1918" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B1919" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C1919">
-        <v>26762</v>
+        <v>1492</v>
       </c>
       <c r="D1919" t="str">
         <v/>
@@ -38760,18 +38760,18 @@
         <v>1</v>
       </c>
       <c r="F1919" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="1920">
       <c r="A1920" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1920" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1920">
-        <v>35917</v>
+        <v>1967</v>
       </c>
       <c r="D1920" t="str">
         <v/>
@@ -38780,18 +38780,18 @@
         <v>1</v>
       </c>
       <c r="F1920" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="1921">
       <c r="A1921" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B1921" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C1921">
-        <v>34664</v>
+        <v>1889</v>
       </c>
       <c r="D1921" t="str">
         <v/>
@@ -38800,18 +38800,18 @@
         <v>1</v>
       </c>
       <c r="F1921" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="1922">
       <c r="A1922" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1922" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1922">
-        <v>16711</v>
+        <v>10589</v>
       </c>
       <c r="D1922" t="str">
         <v/>
@@ -38820,18 +38820,18 @@
         <v>1</v>
       </c>
       <c r="F1922" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1923" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1923">
-        <v>16719</v>
+        <v>10615</v>
       </c>
       <c r="D1923" t="str">
         <v/>
@@ -38840,18 +38840,18 @@
         <v>1</v>
       </c>
       <c r="F1923" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B1924" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C1924">
-        <v>13871</v>
+        <v>8739</v>
       </c>
       <c r="D1924" t="str">
         <v/>
@@ -38860,18 +38860,18 @@
         <v>1</v>
       </c>
       <c r="F1924" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1925" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1925">
-        <v>18762</v>
+        <v>12403</v>
       </c>
       <c r="D1925" t="str">
         <v/>
@@ -38880,18 +38880,18 @@
         <v>1</v>
       </c>
       <c r="F1925" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B1926" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C1926">
-        <v>17545</v>
+        <v>11610</v>
       </c>
       <c r="D1926" t="str">
         <v/>
@@ -38900,18 +38900,18 @@
         <v>1</v>
       </c>
       <c r="F1926" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1927" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1927">
-        <v>20884</v>
+        <v>1387</v>
       </c>
       <c r="D1927" t="str">
         <v/>
@@ -38920,18 +38920,18 @@
         <v>1</v>
       </c>
       <c r="F1927" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1928" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1928">
-        <v>20932</v>
+        <v>1391</v>
       </c>
       <c r="D1928" t="str">
         <v/>
@@ -38940,18 +38940,18 @@
         <v>1</v>
       </c>
       <c r="F1928" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B1929" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C1929">
-        <v>17341</v>
+        <v>1242</v>
       </c>
       <c r="D1929" t="str">
         <v/>
@@ -38960,18 +38960,18 @@
         <v>1</v>
       </c>
       <c r="F1929" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1930" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1930">
-        <v>22967</v>
+        <v>1442</v>
       </c>
       <c r="D1930" t="str">
         <v/>
@@ -38980,18 +38980,18 @@
         <v>1</v>
       </c>
       <c r="F1930" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B1931" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C1931">
-        <v>21418</v>
+        <v>1422</v>
       </c>
       <c r="D1931" t="str">
         <v/>
@@ -39000,18 +39000,18 @@
         <v>1</v>
       </c>
       <c r="F1931" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1932" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1932">
-        <v>21743</v>
+        <v>13203</v>
       </c>
       <c r="D1932" t="str">
         <v/>
@@ -39020,18 +39020,18 @@
         <v>1</v>
       </c>
       <c r="F1932" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1933" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1933">
-        <v>21781</v>
+        <v>13235</v>
       </c>
       <c r="D1933" t="str">
         <v/>
@@ -39040,18 +39040,18 @@
         <v>1</v>
       </c>
       <c r="F1933" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B1934" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C1934">
-        <v>17808</v>
+        <v>11261</v>
       </c>
       <c r="D1934" t="str">
         <v/>
@@ -39060,18 +39060,18 @@
         <v>1</v>
       </c>
       <c r="F1934" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1935" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1935">
-        <v>23740</v>
+        <v>14912</v>
       </c>
       <c r="D1935" t="str">
         <v/>
@@ -39080,18 +39080,18 @@
         <v>1</v>
       </c>
       <c r="F1935" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B1936" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C1936">
-        <v>21787</v>
+        <v>13720</v>
       </c>
       <c r="D1936" t="str">
         <v/>
@@ -39100,18 +39100,18 @@
         <v>1</v>
       </c>
       <c r="F1936" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="1937">
       <c r="A1937" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1937" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1937">
-        <v>18079</v>
+        <v>16889</v>
       </c>
       <c r="D1937" t="str">
         <v/>
@@ -39120,18 +39120,18 @@
         <v>1</v>
       </c>
       <c r="F1937" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1938" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1938">
-        <v>18113</v>
+        <v>16941</v>
       </c>
       <c r="D1938" t="str">
         <v/>
@@ -39140,18 +39140,18 @@
         <v>1</v>
       </c>
       <c r="F1938" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B1939" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C1939">
-        <v>15406</v>
+        <v>14367</v>
       </c>
       <c r="D1939" t="str">
         <v/>
@@ -39160,18 +39160,18 @@
         <v>1</v>
       </c>
       <c r="F1939" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B1940" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C1940">
-        <v>19384</v>
+        <v>18776</v>
       </c>
       <c r="D1940" t="str">
         <v/>
@@ -39180,18 +39180,18 @@
         <v>1</v>
       </c>
       <c r="F1940" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B1941" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C1941">
-        <v>19170</v>
+        <v>17584</v>
       </c>
       <c r="D1941" t="str">
         <v/>
@@ -39200,18 +39200,18 @@
         <v>1</v>
       </c>
       <c r="F1941" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1942" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1942">
-        <v>23106</v>
+        <v>1475</v>
       </c>
       <c r="D1942" t="str">
         <v/>
@@ -39220,18 +39220,18 @@
         <v>1</v>
       </c>
       <c r="F1942" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1943" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1943">
-        <v>23164</v>
+        <v>1180</v>
       </c>
       <c r="D1943" t="str">
         <v/>
@@ -39240,18 +39240,18 @@
         <v>1</v>
       </c>
       <c r="F1943" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B1944" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C1944">
-        <v>19731</v>
+        <v>1074</v>
       </c>
       <c r="D1944" t="str">
         <v/>
@@ -39260,18 +39260,18 @@
         <v>1</v>
       </c>
       <c r="F1944" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1945" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1945">
-        <v>25275</v>
+        <v>1381</v>
       </c>
       <c r="D1945" t="str">
         <v/>
@@ -39280,18 +39280,18 @@
         <v>1</v>
       </c>
       <c r="F1945" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B1946" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C1946">
-        <v>24704</v>
+        <v>1183</v>
       </c>
       <c r="D1946" t="str">
         <v/>
@@ -39300,18 +39300,18 @@
         <v>1</v>
       </c>
       <c r="F1946" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1947" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1947">
-        <v>46222</v>
+        <v>55371</v>
       </c>
       <c r="D1947" t="str">
         <v/>
@@ -39320,18 +39320,18 @@
         <v>1</v>
       </c>
       <c r="F1947" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1948" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1948">
-        <v>46344</v>
+        <v>55491</v>
       </c>
       <c r="D1948" t="str">
         <v/>
@@ -39340,18 +39340,18 @@
         <v>1</v>
       </c>
       <c r="F1948" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B1949" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C1949">
-        <v>38529</v>
+        <v>44705</v>
       </c>
       <c r="D1949" t="str">
         <v/>
@@ -39360,18 +39360,18 @@
         <v>1</v>
       </c>
       <c r="F1949" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1950" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1950">
-        <v>50501</v>
+        <v>61071</v>
       </c>
       <c r="D1950" t="str">
         <v/>
@@ -39380,18 +39380,18 @@
         <v>1</v>
       </c>
       <c r="F1950" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B1951" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C1951">
-        <v>48804</v>
+        <v>55999</v>
       </c>
       <c r="D1951" t="str">
         <v/>
@@ -39400,18 +39400,18 @@
         <v>1</v>
       </c>
       <c r="F1951" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1952" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1952">
-        <v>13926</v>
+        <v>40894</v>
       </c>
       <c r="D1952" t="str">
         <v/>
@@ -39420,18 +39420,18 @@
         <v>1</v>
       </c>
       <c r="F1952" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1953" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1953">
-        <v>13960</v>
+        <v>40930</v>
       </c>
       <c r="D1953" t="str">
         <v/>
@@ -39440,18 +39440,18 @@
         <v>1</v>
       </c>
       <c r="F1953" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B1954" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C1954">
-        <v>11270</v>
+        <v>32515</v>
       </c>
       <c r="D1954" t="str">
         <v/>
@@ -39460,18 +39460,18 @@
         <v>1</v>
       </c>
       <c r="F1954" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1955" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1955">
-        <v>15639</v>
+        <v>44418</v>
       </c>
       <c r="D1955" t="str">
         <v/>
@@ -39480,18 +39480,18 @@
         <v>1</v>
       </c>
       <c r="F1955" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B1956" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C1956">
-        <v>14837</v>
+        <v>41223</v>
       </c>
       <c r="D1956" t="str">
         <v/>
@@ -39500,18 +39500,18 @@
         <v>1</v>
       </c>
       <c r="F1956" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1957" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1957">
-        <v>2082</v>
+        <v>32341</v>
       </c>
       <c r="D1957" t="str">
         <v/>
@@ -39520,18 +39520,18 @@
         <v>1</v>
       </c>
       <c r="F1957" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1958" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1958">
-        <v>2088</v>
+        <v>32413</v>
       </c>
       <c r="D1958" t="str">
         <v/>
@@ -39540,18 +39540,18 @@
         <v>1</v>
       </c>
       <c r="F1958" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B1959" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C1959">
-        <v>1869</v>
+        <v>26762</v>
       </c>
       <c r="D1959" t="str">
         <v/>
@@ -39560,18 +39560,18 @@
         <v>1</v>
       </c>
       <c r="F1959" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1960" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1960">
-        <v>2132</v>
+        <v>35917</v>
       </c>
       <c r="D1960" t="str">
         <v/>
@@ -39580,18 +39580,18 @@
         <v>1</v>
       </c>
       <c r="F1960" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B1961" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C1961">
-        <v>2275</v>
+        <v>34664</v>
       </c>
       <c r="D1961" t="str">
         <v/>
@@ -39600,18 +39600,18 @@
         <v>1</v>
       </c>
       <c r="F1961" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1962" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1962">
-        <v>1712</v>
+        <v>16711</v>
       </c>
       <c r="D1962" t="str">
         <v/>
@@ -39620,18 +39620,18 @@
         <v>1</v>
       </c>
       <c r="F1962" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1963" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1963">
-        <v>1716</v>
+        <v>16719</v>
       </c>
       <c r="D1963" t="str">
         <v/>
@@ -39640,18 +39640,18 @@
         <v>1</v>
       </c>
       <c r="F1963" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B1964" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C1964">
-        <v>1492</v>
+        <v>13871</v>
       </c>
       <c r="D1964" t="str">
         <v/>
@@ -39660,18 +39660,18 @@
         <v>1</v>
       </c>
       <c r="F1964" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B1965" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1965">
-        <v>1967</v>
+        <v>18762</v>
       </c>
       <c r="D1965" t="str">
         <v/>
@@ -39680,18 +39680,18 @@
         <v>1</v>
       </c>
       <c r="F1965" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B1966" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C1966">
-        <v>1889</v>
+        <v>17545</v>
       </c>
       <c r="D1966" t="str">
         <v/>
@@ -39700,18 +39700,18 @@
         <v>1</v>
       </c>
       <c r="F1966" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1967" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1967">
-        <v>10589</v>
+        <v>20884</v>
       </c>
       <c r="D1967" t="str">
         <v/>
@@ -39720,18 +39720,18 @@
         <v>1</v>
       </c>
       <c r="F1967" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1968" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1968">
-        <v>10615</v>
+        <v>20932</v>
       </c>
       <c r="D1968" t="str">
         <v/>
@@ -39740,18 +39740,18 @@
         <v>1</v>
       </c>
       <c r="F1968" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B1969" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C1969">
-        <v>8739</v>
+        <v>17341</v>
       </c>
       <c r="D1969" t="str">
         <v/>
@@ -39760,18 +39760,18 @@
         <v>1</v>
       </c>
       <c r="F1969" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1970" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1970">
-        <v>12403</v>
+        <v>22967</v>
       </c>
       <c r="D1970" t="str">
         <v/>
@@ -39780,18 +39780,18 @@
         <v>1</v>
       </c>
       <c r="F1970" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B1971" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C1971">
-        <v>11610</v>
+        <v>21418</v>
       </c>
       <c r="D1971" t="str">
         <v/>
@@ -39800,18 +39800,18 @@
         <v>1</v>
       </c>
       <c r="F1971" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1972" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1972">
-        <v>1387</v>
+        <v>21743</v>
       </c>
       <c r="D1972" t="str">
         <v/>
@@ -39820,18 +39820,18 @@
         <v>1</v>
       </c>
       <c r="F1972" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1973" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1973">
-        <v>1391</v>
+        <v>21781</v>
       </c>
       <c r="D1973" t="str">
         <v/>
@@ -39840,18 +39840,18 @@
         <v>1</v>
       </c>
       <c r="F1973" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B1974" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C1974">
-        <v>1242</v>
+        <v>17808</v>
       </c>
       <c r="D1974" t="str">
         <v/>
@@ -39860,18 +39860,18 @@
         <v>1</v>
       </c>
       <c r="F1974" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1975" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1975">
-        <v>1442</v>
+        <v>23740</v>
       </c>
       <c r="D1975" t="str">
         <v/>
@@ -39880,18 +39880,18 @@
         <v>1</v>
       </c>
       <c r="F1975" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B1976" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C1976">
-        <v>1422</v>
+        <v>21787</v>
       </c>
       <c r="D1976" t="str">
         <v/>
@@ -39900,18 +39900,18 @@
         <v>1</v>
       </c>
       <c r="F1976" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1977" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1977">
-        <v>13203</v>
+        <v>18079</v>
       </c>
       <c r="D1977" t="str">
         <v/>
@@ -39920,18 +39920,18 @@
         <v>1</v>
       </c>
       <c r="F1977" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1978" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1978">
-        <v>13235</v>
+        <v>18113</v>
       </c>
       <c r="D1978" t="str">
         <v/>
@@ -39940,18 +39940,18 @@
         <v>1</v>
       </c>
       <c r="F1978" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B1979" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C1979">
-        <v>11261</v>
+        <v>15406</v>
       </c>
       <c r="D1979" t="str">
         <v/>
@@ -39960,18 +39960,18 @@
         <v>1</v>
       </c>
       <c r="F1979" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1980" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1980">
-        <v>14912</v>
+        <v>19384</v>
       </c>
       <c r="D1980" t="str">
         <v/>
@@ -39980,18 +39980,18 @@
         <v>1</v>
       </c>
       <c r="F1980" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B1981" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C1981">
-        <v>13720</v>
+        <v>19170</v>
       </c>
       <c r="D1981" t="str">
         <v/>
@@ -40000,18 +40000,18 @@
         <v>1</v>
       </c>
       <c r="F1981" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1982" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1982">
-        <v>16889</v>
+        <v>23106</v>
       </c>
       <c r="D1982" t="str">
         <v/>
@@ -40020,18 +40020,18 @@
         <v>1</v>
       </c>
       <c r="F1982" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1983" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1983">
-        <v>16941</v>
+        <v>23164</v>
       </c>
       <c r="D1983" t="str">
         <v/>
@@ -40040,18 +40040,18 @@
         <v>1</v>
       </c>
       <c r="F1983" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B1984" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C1984">
-        <v>14367</v>
+        <v>19731</v>
       </c>
       <c r="D1984" t="str">
         <v/>
@@ -40060,18 +40060,18 @@
         <v>1</v>
       </c>
       <c r="F1984" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B1985" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C1985">
-        <v>18776</v>
+        <v>25275</v>
       </c>
       <c r="D1985" t="str">
         <v/>
@@ -40080,18 +40080,18 @@
         <v>1</v>
       </c>
       <c r="F1985" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B1986" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C1986">
-        <v>17584</v>
+        <v>24704</v>
       </c>
       <c r="D1986" t="str">
         <v/>
@@ -40100,18 +40100,18 @@
         <v>1</v>
       </c>
       <c r="F1986" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1987" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1987">
-        <v>1475</v>
+        <v>46222</v>
       </c>
       <c r="D1987" t="str">
         <v/>
@@ -40120,18 +40120,18 @@
         <v>1</v>
       </c>
       <c r="F1987" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1988" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1988">
-        <v>1180</v>
+        <v>46344</v>
       </c>
       <c r="D1988" t="str">
         <v/>
@@ -40140,18 +40140,18 @@
         <v>1</v>
       </c>
       <c r="F1988" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B1989" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C1989">
-        <v>1074</v>
+        <v>38529</v>
       </c>
       <c r="D1989" t="str">
         <v/>
@@ -40160,18 +40160,18 @@
         <v>1</v>
       </c>
       <c r="F1989" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B1990" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C1990">
-        <v>1381</v>
+        <v>50501</v>
       </c>
       <c r="D1990" t="str">
         <v/>
@@ -40180,18 +40180,18 @@
         <v>1</v>
       </c>
       <c r="F1990" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B1991" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C1991">
-        <v>1183</v>
+        <v>48804</v>
       </c>
       <c r="D1991" t="str">
         <v/>
@@ -40200,7 +40200,7 @@
         <v>1</v>
       </c>
       <c r="F1991" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="1992">
@@ -45405,13 +45405,13 @@
     </row>
     <row r="2252">
       <c r="A2252" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2252" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2252">
-        <v>12055</v>
+        <v>47372</v>
       </c>
       <c r="D2252" t="str">
         <v/>
@@ -45420,18 +45420,18 @@
         <v>1</v>
       </c>
       <c r="F2252" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2253" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2253">
-        <v>12091</v>
+        <v>47504</v>
       </c>
       <c r="D2253" t="str">
         <v/>
@@ -45440,18 +45440,18 @@
         <v>1</v>
       </c>
       <c r="F2253" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2254" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2254">
-        <v>9948</v>
+        <v>38227</v>
       </c>
       <c r="D2254" t="str">
         <v/>
@@ -45460,18 +45460,18 @@
         <v>1</v>
       </c>
       <c r="F2254" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2255" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2255">
-        <v>13516</v>
+        <v>56677</v>
       </c>
       <c r="D2255" t="str">
         <v/>
@@ -45480,18 +45480,18 @@
         <v>1</v>
       </c>
       <c r="F2255" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2256" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2256">
-        <v>12778</v>
+        <v>50805</v>
       </c>
       <c r="D2256" t="str">
         <v/>
@@ -45500,18 +45500,18 @@
         <v>1</v>
       </c>
       <c r="F2256" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2257" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2257">
-        <v>32683</v>
+        <v>29694</v>
       </c>
       <c r="D2257" t="str">
         <v/>
@@ -45520,18 +45520,18 @@
         <v>1</v>
       </c>
       <c r="F2257" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2258" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2258">
-        <v>32785</v>
+        <v>29774</v>
       </c>
       <c r="D2258" t="str">
         <v/>
@@ -45540,18 +45540,18 @@
         <v>1</v>
       </c>
       <c r="F2258" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2259" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2259">
-        <v>26804</v>
+        <v>23226</v>
       </c>
       <c r="D2259" t="str">
         <v/>
@@ -45560,18 +45560,18 @@
         <v>1</v>
       </c>
       <c r="F2259" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2260" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2260">
-        <v>35335</v>
+        <v>34797</v>
       </c>
       <c r="D2260" t="str">
         <v/>
@@ -45580,18 +45580,18 @@
         <v>1</v>
       </c>
       <c r="F2260" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2261" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2261">
-        <v>35400</v>
+        <v>32402</v>
       </c>
       <c r="D2261" t="str">
         <v/>
@@ -45600,18 +45600,18 @@
         <v>1</v>
       </c>
       <c r="F2261" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2262" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2262">
-        <v>28261</v>
+        <v>13333</v>
       </c>
       <c r="D2262" t="str">
         <v/>
@@ -45620,18 +45620,18 @@
         <v>1</v>
       </c>
       <c r="F2262" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2263" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2263">
-        <v>28341</v>
+        <v>13371</v>
       </c>
       <c r="D2263" t="str">
         <v/>
@@ -45640,18 +45640,18 @@
         <v>1</v>
       </c>
       <c r="F2263" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2264" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2264">
-        <v>22289</v>
+        <v>10935</v>
       </c>
       <c r="D2264" t="str">
         <v/>
@@ -45660,18 +45660,18 @@
         <v>1</v>
       </c>
       <c r="F2264" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2265" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2265">
-        <v>31961</v>
+        <v>14825</v>
       </c>
       <c r="D2265" t="str">
         <v/>
@@ -45680,18 +45680,18 @@
         <v>1</v>
       </c>
       <c r="F2265" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2266" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2266">
-        <v>30340</v>
+        <v>13609</v>
       </c>
       <c r="D2266" t="str">
         <v/>
@@ -45700,18 +45700,18 @@
         <v>1</v>
       </c>
       <c r="F2266" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2267" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2267">
-        <v>22929</v>
+        <v>38115</v>
       </c>
       <c r="D2267" t="str">
         <v/>
@@ -45720,18 +45720,18 @@
         <v>1</v>
       </c>
       <c r="F2267" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2268" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2268">
-        <v>22997</v>
+        <v>38207</v>
       </c>
       <c r="D2268" t="str">
         <v/>
@@ -45740,18 +45740,18 @@
         <v>1</v>
       </c>
       <c r="F2268" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2269" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2269">
-        <v>18855</v>
+        <v>30119</v>
       </c>
       <c r="D2269" t="str">
         <v/>
@@ -45760,18 +45760,18 @@
         <v>1</v>
       </c>
       <c r="F2269" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2270" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2270">
-        <v>25986</v>
+        <v>45716</v>
       </c>
       <c r="D2270" t="str">
         <v/>
@@ -45780,18 +45780,18 @@
         <v>1</v>
       </c>
       <c r="F2270" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2271" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2271">
-        <v>24638</v>
+        <v>42343</v>
       </c>
       <c r="D2271" t="str">
         <v/>
@@ -45800,18 +45800,18 @@
         <v>1</v>
       </c>
       <c r="F2271" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2272" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2272">
-        <v>27591</v>
+        <v>22580</v>
       </c>
       <c r="D2272" t="str">
         <v/>
@@ -45820,18 +45820,18 @@
         <v>1</v>
       </c>
       <c r="F2272" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2273" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2273">
-        <v>27669</v>
+        <v>22642</v>
       </c>
       <c r="D2273" t="str">
         <v/>
@@ -45840,18 +45840,18 @@
         <v>1</v>
       </c>
       <c r="F2273" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2274" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2274">
-        <v>22217</v>
+        <v>18502</v>
       </c>
       <c r="D2274" t="str">
         <v/>
@@ -45860,18 +45860,18 @@
         <v>1</v>
       </c>
       <c r="F2274" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2275" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2275">
-        <v>30979</v>
+        <v>25738</v>
       </c>
       <c r="D2275" t="str">
         <v/>
@@ -45880,18 +45880,18 @@
         <v>1</v>
       </c>
       <c r="F2275" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2276" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2276">
-        <v>30051</v>
+        <v>23812</v>
       </c>
       <c r="D2276" t="str">
         <v/>
@@ -45900,18 +45900,18 @@
         <v>1</v>
       </c>
       <c r="F2276" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2277" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2277">
-        <v>28673</v>
+        <v>25038</v>
       </c>
       <c r="D2277" t="str">
         <v/>
@@ -45920,18 +45920,18 @@
         <v>1</v>
       </c>
       <c r="F2277" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2278" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2278">
-        <v>28755</v>
+        <v>25106</v>
       </c>
       <c r="D2278" t="str">
         <v/>
@@ -45940,18 +45940,18 @@
         <v>1</v>
       </c>
       <c r="F2278" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2279" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2279">
-        <v>24091</v>
+        <v>20304</v>
       </c>
       <c r="D2279" t="str">
         <v/>
@@ -45960,18 +45960,18 @@
         <v>1</v>
       </c>
       <c r="F2279" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2280" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2280">
-        <v>32509</v>
+        <v>31176</v>
       </c>
       <c r="D2280" t="str">
         <v/>
@@ -45980,18 +45980,18 @@
         <v>1</v>
       </c>
       <c r="F2280" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2281" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2281">
-        <v>31007</v>
+        <v>28656</v>
       </c>
       <c r="D2281" t="str">
         <v/>
@@ -46000,18 +46000,18 @@
         <v>1</v>
       </c>
       <c r="F2281" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2282" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2282">
-        <v>21788</v>
+        <v>19450</v>
       </c>
       <c r="D2282" t="str">
         <v/>
@@ -46020,18 +46020,18 @@
         <v>1</v>
       </c>
       <c r="F2282" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2283" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2283">
-        <v>21848</v>
+        <v>19506</v>
       </c>
       <c r="D2283" t="str">
         <v/>
@@ -46040,18 +46040,18 @@
         <v>1</v>
       </c>
       <c r="F2283" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2284" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2284">
-        <v>18324</v>
+        <v>15666</v>
       </c>
       <c r="D2284" t="str">
         <v/>
@@ -46060,18 +46060,18 @@
         <v>1</v>
       </c>
       <c r="F2284" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2285" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2285">
-        <v>25169</v>
+        <v>22550</v>
       </c>
       <c r="D2285" t="str">
         <v/>
@@ -46080,18 +46080,18 @@
         <v>1</v>
       </c>
       <c r="F2285" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2286" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2286">
-        <v>22994</v>
+        <v>20969</v>
       </c>
       <c r="D2286" t="str">
         <v/>
@@ -46100,18 +46100,18 @@
         <v>1</v>
       </c>
       <c r="F2286" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2287" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2287">
-        <v>31366</v>
+        <v>12055</v>
       </c>
       <c r="D2287" t="str">
         <v/>
@@ -46120,18 +46120,18 @@
         <v>1</v>
       </c>
       <c r="F2287" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2288" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2288">
-        <v>31450</v>
+        <v>12091</v>
       </c>
       <c r="D2288" t="str">
         <v/>
@@ -46140,18 +46140,18 @@
         <v>1</v>
       </c>
       <c r="F2288" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2289" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2289">
-        <v>25325</v>
+        <v>9948</v>
       </c>
       <c r="D2289" t="str">
         <v/>
@@ -46160,18 +46160,18 @@
         <v>1</v>
       </c>
       <c r="F2289" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2290" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2290">
-        <v>36671</v>
+        <v>13516</v>
       </c>
       <c r="D2290" t="str">
         <v/>
@@ -46180,18 +46180,18 @@
         <v>1</v>
       </c>
       <c r="F2290" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2291" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2291">
-        <v>34359</v>
+        <v>12778</v>
       </c>
       <c r="D2291" t="str">
         <v/>
@@ -46200,18 +46200,18 @@
         <v>1</v>
       </c>
       <c r="F2291" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2292" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2292">
-        <v>30007</v>
+        <v>32683</v>
       </c>
       <c r="D2292" t="str">
         <v/>
@@ -46220,18 +46220,18 @@
         <v>1</v>
       </c>
       <c r="F2292" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2293" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2293">
-        <v>30087</v>
+        <v>32785</v>
       </c>
       <c r="D2293" t="str">
         <v/>
@@ -46240,18 +46240,18 @@
         <v>1</v>
       </c>
       <c r="F2293" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2294" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2294">
-        <v>24378</v>
+        <v>26804</v>
       </c>
       <c r="D2294" t="str">
         <v/>
@@ -46260,18 +46260,18 @@
         <v>1</v>
       </c>
       <c r="F2294" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2295" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2295">
-        <v>35724</v>
+        <v>35335</v>
       </c>
       <c r="D2295" t="str">
         <v/>
@@ -46280,18 +46280,18 @@
         <v>1</v>
       </c>
       <c r="F2295" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2296" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2296">
-        <v>33241</v>
+        <v>35400</v>
       </c>
       <c r="D2296" t="str">
         <v/>
@@ -46300,18 +46300,18 @@
         <v>1</v>
       </c>
       <c r="F2296" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2297" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2297">
-        <v>31730</v>
+        <v>28261</v>
       </c>
       <c r="D2297" t="str">
         <v/>
@@ -46320,18 +46320,18 @@
         <v>1</v>
       </c>
       <c r="F2297" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2298" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2298">
-        <v>31818</v>
+        <v>28341</v>
       </c>
       <c r="D2298" t="str">
         <v/>
@@ -46340,18 +46340,18 @@
         <v>1</v>
       </c>
       <c r="F2298" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2299" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2299">
-        <v>25891</v>
+        <v>22289</v>
       </c>
       <c r="D2299" t="str">
         <v/>
@@ -46360,18 +46360,18 @@
         <v>1</v>
       </c>
       <c r="F2299" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2300" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2300">
-        <v>36973</v>
+        <v>31961</v>
       </c>
       <c r="D2300" t="str">
         <v/>
@@ -46380,18 +46380,18 @@
         <v>1</v>
       </c>
       <c r="F2300" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2301" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2301">
-        <v>35473</v>
+        <v>30340</v>
       </c>
       <c r="D2301" t="str">
         <v/>
@@ -46400,18 +46400,18 @@
         <v>1</v>
       </c>
       <c r="F2301" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2302" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2302">
-        <v>24351</v>
+        <v>22929</v>
       </c>
       <c r="D2302" t="str">
         <v/>
@@ -46420,18 +46420,18 @@
         <v>1</v>
       </c>
       <c r="F2302" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2303" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2303">
-        <v>24417</v>
+        <v>22997</v>
       </c>
       <c r="D2303" t="str">
         <v/>
@@ -46440,18 +46440,18 @@
         <v>1</v>
       </c>
       <c r="F2303" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2304" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2304">
-        <v>19827</v>
+        <v>18855</v>
       </c>
       <c r="D2304" t="str">
         <v/>
@@ -46460,18 +46460,18 @@
         <v>1</v>
       </c>
       <c r="F2304" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2305" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2305">
-        <v>28858</v>
+        <v>25986</v>
       </c>
       <c r="D2305" t="str">
         <v/>
@@ -46480,18 +46480,18 @@
         <v>1</v>
       </c>
       <c r="F2305" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2306" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2306">
-        <v>27987</v>
+        <v>24638</v>
       </c>
       <c r="D2306" t="str">
         <v/>
@@ -46500,18 +46500,18 @@
         <v>1</v>
       </c>
       <c r="F2306" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2307" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2307">
-        <v>47372</v>
+        <v>27591</v>
       </c>
       <c r="D2307" t="str">
         <v/>
@@ -46520,18 +46520,18 @@
         <v>1</v>
       </c>
       <c r="F2307" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2308" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2308">
-        <v>47504</v>
+        <v>27669</v>
       </c>
       <c r="D2308" t="str">
         <v/>
@@ -46540,18 +46540,18 @@
         <v>1</v>
       </c>
       <c r="F2308" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2309" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2309">
-        <v>38227</v>
+        <v>22217</v>
       </c>
       <c r="D2309" t="str">
         <v/>
@@ -46560,18 +46560,18 @@
         <v>1</v>
       </c>
       <c r="F2309" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2310" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2310">
-        <v>56677</v>
+        <v>30979</v>
       </c>
       <c r="D2310" t="str">
         <v/>
@@ -46580,18 +46580,18 @@
         <v>1</v>
       </c>
       <c r="F2310" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2311" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2311">
-        <v>50805</v>
+        <v>30051</v>
       </c>
       <c r="D2311" t="str">
         <v/>
@@ -46600,18 +46600,18 @@
         <v>1</v>
       </c>
       <c r="F2311" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2312" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2312">
-        <v>29694</v>
+        <v>28673</v>
       </c>
       <c r="D2312" t="str">
         <v/>
@@ -46620,18 +46620,18 @@
         <v>1</v>
       </c>
       <c r="F2312" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2313" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2313">
-        <v>29774</v>
+        <v>28755</v>
       </c>
       <c r="D2313" t="str">
         <v/>
@@ -46640,18 +46640,18 @@
         <v>1</v>
       </c>
       <c r="F2313" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2314" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2314">
-        <v>23226</v>
+        <v>24091</v>
       </c>
       <c r="D2314" t="str">
         <v/>
@@ -46660,18 +46660,18 @@
         <v>1</v>
       </c>
       <c r="F2314" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2315" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2315">
-        <v>34797</v>
+        <v>32509</v>
       </c>
       <c r="D2315" t="str">
         <v/>
@@ -46680,18 +46680,18 @@
         <v>1</v>
       </c>
       <c r="F2315" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2316" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2316">
-        <v>32402</v>
+        <v>31007</v>
       </c>
       <c r="D2316" t="str">
         <v/>
@@ -46700,18 +46700,18 @@
         <v>1</v>
       </c>
       <c r="F2316" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2317" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2317">
-        <v>13333</v>
+        <v>21788</v>
       </c>
       <c r="D2317" t="str">
         <v/>
@@ -46720,18 +46720,18 @@
         <v>1</v>
       </c>
       <c r="F2317" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2318" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2318">
-        <v>13371</v>
+        <v>21848</v>
       </c>
       <c r="D2318" t="str">
         <v/>
@@ -46740,18 +46740,18 @@
         <v>1</v>
       </c>
       <c r="F2318" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2319" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2319">
-        <v>10935</v>
+        <v>18324</v>
       </c>
       <c r="D2319" t="str">
         <v/>
@@ -46760,18 +46760,18 @@
         <v>1</v>
       </c>
       <c r="F2319" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2320" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2320">
-        <v>14825</v>
+        <v>25169</v>
       </c>
       <c r="D2320" t="str">
         <v/>
@@ -46780,18 +46780,18 @@
         <v>1</v>
       </c>
       <c r="F2320" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2321" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2321">
-        <v>13609</v>
+        <v>22994</v>
       </c>
       <c r="D2321" t="str">
         <v/>
@@ -46800,18 +46800,18 @@
         <v>1</v>
       </c>
       <c r="F2321" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2322" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2322">
-        <v>38115</v>
+        <v>31366</v>
       </c>
       <c r="D2322" t="str">
         <v/>
@@ -46820,18 +46820,18 @@
         <v>1</v>
       </c>
       <c r="F2322" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2323" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2323">
-        <v>38207</v>
+        <v>31450</v>
       </c>
       <c r="D2323" t="str">
         <v/>
@@ -46840,18 +46840,18 @@
         <v>1</v>
       </c>
       <c r="F2323" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2324" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2324">
-        <v>30119</v>
+        <v>25325</v>
       </c>
       <c r="D2324" t="str">
         <v/>
@@ -46860,18 +46860,18 @@
         <v>1</v>
       </c>
       <c r="F2324" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2325" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2325">
-        <v>45716</v>
+        <v>36671</v>
       </c>
       <c r="D2325" t="str">
         <v/>
@@ -46880,18 +46880,18 @@
         <v>1</v>
       </c>
       <c r="F2325" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2326" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2326">
-        <v>42343</v>
+        <v>34359</v>
       </c>
       <c r="D2326" t="str">
         <v/>
@@ -46900,18 +46900,18 @@
         <v>1</v>
       </c>
       <c r="F2326" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2327" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2327">
-        <v>22580</v>
+        <v>30007</v>
       </c>
       <c r="D2327" t="str">
         <v/>
@@ -46920,18 +46920,18 @@
         <v>1</v>
       </c>
       <c r="F2327" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2328" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2328">
-        <v>22642</v>
+        <v>30087</v>
       </c>
       <c r="D2328" t="str">
         <v/>
@@ -46940,18 +46940,18 @@
         <v>1</v>
       </c>
       <c r="F2328" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2329" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2329">
-        <v>18502</v>
+        <v>24378</v>
       </c>
       <c r="D2329" t="str">
         <v/>
@@ -46960,18 +46960,18 @@
         <v>1</v>
       </c>
       <c r="F2329" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2330" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2330">
-        <v>25738</v>
+        <v>35724</v>
       </c>
       <c r="D2330" t="str">
         <v/>
@@ -46980,18 +46980,18 @@
         <v>1</v>
       </c>
       <c r="F2330" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2331" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2331">
-        <v>23812</v>
+        <v>33241</v>
       </c>
       <c r="D2331" t="str">
         <v/>
@@ -47000,18 +47000,18 @@
         <v>1</v>
       </c>
       <c r="F2331" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2332" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2332">
-        <v>25038</v>
+        <v>31730</v>
       </c>
       <c r="D2332" t="str">
         <v/>
@@ -47020,18 +47020,18 @@
         <v>1</v>
       </c>
       <c r="F2332" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2333" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2333">
-        <v>25106</v>
+        <v>31818</v>
       </c>
       <c r="D2333" t="str">
         <v/>
@@ -47040,18 +47040,18 @@
         <v>1</v>
       </c>
       <c r="F2333" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2334" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2334">
-        <v>20304</v>
+        <v>25891</v>
       </c>
       <c r="D2334" t="str">
         <v/>
@@ -47060,18 +47060,18 @@
         <v>1</v>
       </c>
       <c r="F2334" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2335" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2335">
-        <v>31176</v>
+        <v>36973</v>
       </c>
       <c r="D2335" t="str">
         <v/>
@@ -47080,18 +47080,18 @@
         <v>1</v>
       </c>
       <c r="F2335" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2336" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2336">
-        <v>28656</v>
+        <v>35473</v>
       </c>
       <c r="D2336" t="str">
         <v/>
@@ -47100,18 +47100,18 @@
         <v>1</v>
       </c>
       <c r="F2336" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2337" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2337">
-        <v>19450</v>
+        <v>24351</v>
       </c>
       <c r="D2337" t="str">
         <v/>
@@ -47120,18 +47120,18 @@
         <v>1</v>
       </c>
       <c r="F2337" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2338" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2338">
-        <v>19506</v>
+        <v>24417</v>
       </c>
       <c r="D2338" t="str">
         <v/>
@@ -47140,18 +47140,18 @@
         <v>1</v>
       </c>
       <c r="F2338" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2339" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2339">
-        <v>15666</v>
+        <v>19827</v>
       </c>
       <c r="D2339" t="str">
         <v/>
@@ -47160,18 +47160,18 @@
         <v>1</v>
       </c>
       <c r="F2339" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2340" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2340">
-        <v>22550</v>
+        <v>28858</v>
       </c>
       <c r="D2340" t="str">
         <v/>
@@ -47180,18 +47180,18 @@
         <v>1</v>
       </c>
       <c r="F2340" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2341" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2341">
-        <v>20969</v>
+        <v>27987</v>
       </c>
       <c r="D2341" t="str">
         <v/>
@@ -47200,7 +47200,7 @@
         <v>1</v>
       </c>
       <c r="F2341" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2342">
@@ -64511,7 +64511,7 @@
         <v>main_309_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3207">
-        <v>54512</v>
+        <v>54486</v>
       </c>
       <c r="D3207" t="str">
         <v/>
@@ -64520,7 +64520,7 @@
         <v>1</v>
       </c>
       <c r="F3207" t="str">
-        <v>356da7a0c6f16013b8846be3387d8902442f2d63de64d39ab33859a80fb9306d</v>
+        <v>d72a60083abe3afd67da7b69c8bb0ca626457a73effb8331926e5aa470f539a2</v>
       </c>
     </row>
     <row r="3208">
@@ -64551,7 +64551,7 @@
         <v>main_309_002_dialog_english.dialog</v>
       </c>
       <c r="C3209">
-        <v>44326</v>
+        <v>44342</v>
       </c>
       <c r="D3209" t="str">
         <v/>
@@ -64560,7 +64560,7 @@
         <v>1</v>
       </c>
       <c r="F3209" t="str">
-        <v>e2910e6921162c32d66f2097a9523d37927977640268e658ae95bc8368e3e40c</v>
+        <v>7e9f30e3746e3565abb434a4264aaf6ef2dccb8e6a2eaf7c7c7d641d0bf4438e</v>
       </c>
     </row>
     <row r="3210">
@@ -64711,7 +64711,7 @@
         <v>main_309_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3217">
-        <v>67611</v>
+        <v>67681</v>
       </c>
       <c r="D3217" t="str">
         <v/>
@@ -64720,7 +64720,7 @@
         <v>1</v>
       </c>
       <c r="F3217" t="str">
-        <v>b6ea8c84dd4c2729b606ffd1004c798c8b8e04911443b13ed711507584cbe01c</v>
+        <v>a72b27b15085f0cabbbd6687ba1a29236d40f38329b4e19ce7344c048efcbf87</v>
       </c>
     </row>
     <row r="3218">
@@ -64951,7 +64951,7 @@
         <v>main_309_006_dialog_english.dialog</v>
       </c>
       <c r="C3229">
-        <v>54517</v>
+        <v>54513</v>
       </c>
       <c r="D3229" t="str">
         <v/>
@@ -64960,7 +64960,7 @@
         <v>1</v>
       </c>
       <c r="F3229" t="str">
-        <v>9f9fbc8000e7d40f13e5bbd135d10b475f252b1e4a4a9a642ef95e35768f7a41</v>
+        <v>d9c9495db28b17712b55b001164434ab54ae75cb8315dd3e477680726edb4dee</v>
       </c>
     </row>
     <row r="3230">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3446</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3421"/>
+  <dimension ref="A1:F3446"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -68405,13 +68405,13 @@
     </row>
     <row r="3402">
       <c r="A3402" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_402_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3402" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_402_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3402">
-        <v>14207</v>
+        <v>36603</v>
       </c>
       <c r="D3402" t="str">
         <v/>
@@ -68420,18 +68420,18 @@
         <v>1</v>
       </c>
       <c r="F3402" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>ce3def5c2c37490f0d76e2e5bebd5934bb6b0a32f8405a11697dc96984fab85e</v>
       </c>
     </row>
     <row r="3403">
       <c r="A3403" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_402_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3403" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_402_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3403">
-        <v>14239</v>
+        <v>36695</v>
       </c>
       <c r="D3403" t="str">
         <v/>
@@ -68440,18 +68440,18 @@
         <v>1</v>
       </c>
       <c r="F3403" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>928ec9e71d0c92eab34a362f3dd3e3e9e807b35247cb0eda63496179b5683df4</v>
       </c>
     </row>
     <row r="3404">
       <c r="A3404" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_402_001_dialog_english.dialog</v>
       </c>
       <c r="B3404" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_402_001_dialog_english.dialog</v>
       </c>
       <c r="C3404">
-        <v>11494</v>
+        <v>29207</v>
       </c>
       <c r="D3404" t="str">
         <v/>
@@ -68460,18 +68460,18 @@
         <v>1</v>
       </c>
       <c r="F3404" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>30e652abc13f7827f07c416a108ea2f22f2a1fb6c78a32fd3a2811a2e4442560</v>
       </c>
     </row>
     <row r="3405">
       <c r="A3405" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_402_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3405" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_402_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3405">
-        <v>15458</v>
+        <v>44478</v>
       </c>
       <c r="D3405" t="str">
         <v/>
@@ -68480,18 +68480,18 @@
         <v>1</v>
       </c>
       <c r="F3405" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>6e531dd60c9e576a1a3aee84e0e58e75d497ccae35535307863f2ab1d9ede82b</v>
       </c>
     </row>
     <row r="3406">
       <c r="A3406" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_402_001_dialog_korean.dialog</v>
       </c>
       <c r="B3406" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_402_001_dialog_korean.dialog</v>
       </c>
       <c r="C3406">
-        <v>14831</v>
+        <v>40155</v>
       </c>
       <c r="D3406" t="str">
         <v/>
@@ -68500,18 +68500,18 @@
         <v>1</v>
       </c>
       <c r="F3406" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>eed6b8561e7aea4a70a993bd7de67e77351cc889bea750d09d23a4348871e9c8</v>
       </c>
     </row>
     <row r="3407">
       <c r="A3407" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_402_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3407" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_402_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3407">
-        <v>24991</v>
+        <v>41714</v>
       </c>
       <c r="D3407" t="str">
         <v/>
@@ -68520,18 +68520,18 @@
         <v>1</v>
       </c>
       <c r="F3407" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>b3828aa7f8dbc4f5f41ffca534646969f6591d260c2cbd982e484da57218a7c8</v>
       </c>
     </row>
     <row r="3408">
       <c r="A3408" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_402_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3408" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_402_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3408">
-        <v>25051</v>
+        <v>41806</v>
       </c>
       <c r="D3408" t="str">
         <v/>
@@ -68540,18 +68540,18 @@
         <v>1</v>
       </c>
       <c r="F3408" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>b2a13649122b0e099ee2fbfdb64233ae910aa0bd13d1c6122836f7ec642ab9e6</v>
       </c>
     </row>
     <row r="3409">
       <c r="A3409" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_402_002_dialog_english.dialog</v>
       </c>
       <c r="B3409" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_402_002_dialog_english.dialog</v>
       </c>
       <c r="C3409">
-        <v>20539</v>
+        <v>33166</v>
       </c>
       <c r="D3409" t="str">
         <v/>
@@ -68560,18 +68560,18 @@
         <v>1</v>
       </c>
       <c r="F3409" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>f08763849fd5c99770674b2765e457aac8a9ef69807797bbe50276e06da2f826</v>
       </c>
     </row>
     <row r="3410">
       <c r="A3410" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_402_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3410" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_402_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3410">
-        <v>28605</v>
+        <v>48288</v>
       </c>
       <c r="D3410" t="str">
         <v/>
@@ -68580,18 +68580,18 @@
         <v>1</v>
       </c>
       <c r="F3410" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>5d7776be2a7fcc2e1ab1ebccc0af899b7c41c91cef910e0e090718e7efb2edad</v>
       </c>
     </row>
     <row r="3411">
       <c r="A3411" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_402_002_dialog_korean.dialog</v>
       </c>
       <c r="B3411" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_402_002_dialog_korean.dialog</v>
       </c>
       <c r="C3411">
-        <v>26803</v>
+        <v>44641</v>
       </c>
       <c r="D3411" t="str">
         <v/>
@@ -68600,18 +68600,18 @@
         <v>1</v>
       </c>
       <c r="F3411" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>9bd23726909cd5320d49f3f55a50bbb625b9e6980287de07e0541df0e724463e</v>
       </c>
     </row>
     <row r="3412">
       <c r="A3412" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_402_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3412" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_402_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3412">
-        <v>38436</v>
+        <v>59316</v>
       </c>
       <c r="D3412" t="str">
         <v/>
@@ -68620,18 +68620,18 @@
         <v>1</v>
       </c>
       <c r="F3412" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>c7c7dacb849f8f5e6da1b0b089f6ba812a6a893eea5b5b1859f112eb69f86559</v>
       </c>
     </row>
     <row r="3413">
       <c r="A3413" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_402_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3413" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_402_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3413">
-        <v>38520</v>
+        <v>59464</v>
       </c>
       <c r="D3413" t="str">
         <v/>
@@ -68640,18 +68640,18 @@
         <v>1</v>
       </c>
       <c r="F3413" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>110f1847793883aa236a41ca5ab88a0f904ba397e84f77abdf02df94d2d04512</v>
       </c>
     </row>
     <row r="3414">
       <c r="A3414" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_402_003_dialog_english.dialog</v>
       </c>
       <c r="B3414" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_402_003_dialog_english.dialog</v>
       </c>
       <c r="C3414">
-        <v>31090</v>
+        <v>46436</v>
       </c>
       <c r="D3414" t="str">
         <v/>
@@ -68660,18 +68660,18 @@
         <v>1</v>
       </c>
       <c r="F3414" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>cc804637d033bcce681e9c45ca9f4864ac547bc1946031d15c0ced861b4d1f7c</v>
       </c>
     </row>
     <row r="3415">
       <c r="A3415" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_402_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3415" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_402_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3415">
-        <v>42076</v>
+        <v>70086</v>
       </c>
       <c r="D3415" t="str">
         <v/>
@@ -68680,18 +68680,18 @@
         <v>1</v>
       </c>
       <c r="F3415" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>a821804e3b338feb1b885519536ed91b5fedd03529d761a775b2d4dd90f2aa9f</v>
       </c>
     </row>
     <row r="3416">
       <c r="A3416" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_402_003_dialog_korean.dialog</v>
       </c>
       <c r="B3416" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_402_003_dialog_korean.dialog</v>
       </c>
       <c r="C3416">
-        <v>41121</v>
+        <v>66623</v>
       </c>
       <c r="D3416" t="str">
         <v/>
@@ -68700,18 +68700,18 @@
         <v>1</v>
       </c>
       <c r="F3416" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>003a7280043bff7be07facf660b13e4cf271632d6edf51dbd7b0498307b892ca</v>
       </c>
     </row>
     <row r="3417">
       <c r="A3417" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_402_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3417" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_402_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3417">
-        <v>4729</v>
+        <v>43603</v>
       </c>
       <c r="D3417" t="str">
         <v/>
@@ -68720,18 +68720,18 @@
         <v>1</v>
       </c>
       <c r="F3417" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>af08880e62ff5b418dcedc3f306c391dff695d24cf2ecb0b378b1c361079c402</v>
       </c>
     </row>
     <row r="3418">
       <c r="A3418" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_402_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3418" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_402_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3418">
-        <v>4735</v>
+        <v>43705</v>
       </c>
       <c r="D3418" t="str">
         <v/>
@@ -68740,18 +68740,18 @@
         <v>1</v>
       </c>
       <c r="F3418" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>fdfcfa4d1cc3d3204255b660a32c81e735350b4307c01159676f0120e622435c</v>
       </c>
     </row>
     <row r="3419">
       <c r="A3419" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_402_004_dialog_english.dialog</v>
       </c>
       <c r="B3419" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_402_004_dialog_english.dialog</v>
       </c>
       <c r="C3419">
-        <v>3676</v>
+        <v>33957</v>
       </c>
       <c r="D3419" t="str">
         <v/>
@@ -68760,18 +68760,18 @@
         <v>1</v>
       </c>
       <c r="F3419" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>993a158fb0fdf6e4f2d9f115e345c3094b82c0bded11f16dcc735415ff278507</v>
       </c>
     </row>
     <row r="3420">
       <c r="A3420" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_402_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3420" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_402_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3420">
-        <v>4777</v>
+        <v>49465</v>
       </c>
       <c r="D3420" t="str">
         <v/>
@@ -68780,33 +68780,533 @@
         <v>1</v>
       </c>
       <c r="F3420" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>22f4b404742675c5b6eabca9e9a1bbc9a0b0637314fdfc565797a9efbad0f5e3</v>
       </c>
     </row>
     <row r="3421">
       <c r="A3421" t="str">
+        <v>main_402_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3421" t="str">
+        <v>main_402_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3421">
+        <v>46156</v>
+      </c>
+      <c r="D3421" t="str">
+        <v/>
+      </c>
+      <c r="E3421">
+        <v>1</v>
+      </c>
+      <c r="F3421" t="str">
+        <v>ab27df6f5e45373c618a36c09c2edb4f2d7501b648b6308534386b34394eab49</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="str">
+        <v>main_402_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3422" t="str">
+        <v>main_402_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3422">
+        <v>60886</v>
+      </c>
+      <c r="D3422" t="str">
+        <v/>
+      </c>
+      <c r="E3422">
+        <v>1</v>
+      </c>
+      <c r="F3422" t="str">
+        <v>b5999c0eda0ba00cdbbad99a8c1bd3f91e4fafa57c1c846f3dc1c8d080ab9d32</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="str">
+        <v>main_402_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3423" t="str">
+        <v>main_402_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3423">
+        <v>61052</v>
+      </c>
+      <c r="D3423" t="str">
+        <v/>
+      </c>
+      <c r="E3423">
+        <v>1</v>
+      </c>
+      <c r="F3423" t="str">
+        <v>c619e1d6c9985654f3b2e6364f028aafc9049ee61007046931edea57124c94d2</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="str">
+        <v>main_402_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3424" t="str">
+        <v>main_402_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3424">
+        <v>46589</v>
+      </c>
+      <c r="D3424" t="str">
+        <v/>
+      </c>
+      <c r="E3424">
+        <v>1</v>
+      </c>
+      <c r="F3424" t="str">
+        <v>3820fb548f5a66a540b49773b68a821de8e4a1f70cc367c0dddf74489c8e3e0c</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="str">
+        <v>main_402_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3425" t="str">
+        <v>main_402_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3425">
+        <v>69906</v>
+      </c>
+      <c r="D3425" t="str">
+        <v/>
+      </c>
+      <c r="E3425">
+        <v>1</v>
+      </c>
+      <c r="F3425" t="str">
+        <v>2012e76164802737569d511ef472c5378c1b733f386db5685fd1e7cbf7172560</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="str">
+        <v>main_402_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3426" t="str">
+        <v>main_402_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3426">
+        <v>66720</v>
+      </c>
+      <c r="D3426" t="str">
+        <v/>
+      </c>
+      <c r="E3426">
+        <v>1</v>
+      </c>
+      <c r="F3426" t="str">
+        <v>f487adb361dbbb009181b60b94d2bbc2d5cc66e13c9c7f0d006ccc4d1cff4f94</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3427" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3427">
+        <v>14207</v>
+      </c>
+      <c r="D3427" t="str">
+        <v/>
+      </c>
+      <c r="E3427">
+        <v>1</v>
+      </c>
+      <c r="F3427" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3428" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3428">
+        <v>14239</v>
+      </c>
+      <c r="D3428" t="str">
+        <v/>
+      </c>
+      <c r="E3428">
+        <v>1</v>
+      </c>
+      <c r="F3428" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3429" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3429">
+        <v>11494</v>
+      </c>
+      <c r="D3429" t="str">
+        <v/>
+      </c>
+      <c r="E3429">
+        <v>1</v>
+      </c>
+      <c r="F3429" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3430" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3430">
+        <v>15458</v>
+      </c>
+      <c r="D3430" t="str">
+        <v/>
+      </c>
+      <c r="E3430">
+        <v>1</v>
+      </c>
+      <c r="F3430" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3431" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3431">
+        <v>14831</v>
+      </c>
+      <c r="D3431" t="str">
+        <v/>
+      </c>
+      <c r="E3431">
+        <v>1</v>
+      </c>
+      <c r="F3431" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3432" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3432">
+        <v>24991</v>
+      </c>
+      <c r="D3432" t="str">
+        <v/>
+      </c>
+      <c r="E3432">
+        <v>1</v>
+      </c>
+      <c r="F3432" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3433" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3433">
+        <v>25051</v>
+      </c>
+      <c r="D3433" t="str">
+        <v/>
+      </c>
+      <c r="E3433">
+        <v>1</v>
+      </c>
+      <c r="F3433" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3434" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3434">
+        <v>20539</v>
+      </c>
+      <c r="D3434" t="str">
+        <v/>
+      </c>
+      <c r="E3434">
+        <v>1</v>
+      </c>
+      <c r="F3434" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3435" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3435">
+        <v>28605</v>
+      </c>
+      <c r="D3435" t="str">
+        <v/>
+      </c>
+      <c r="E3435">
+        <v>1</v>
+      </c>
+      <c r="F3435" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3436" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3436">
+        <v>26803</v>
+      </c>
+      <c r="D3436" t="str">
+        <v/>
+      </c>
+      <c r="E3436">
+        <v>1</v>
+      </c>
+      <c r="F3436" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3437" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3437">
+        <v>38436</v>
+      </c>
+      <c r="D3437" t="str">
+        <v/>
+      </c>
+      <c r="E3437">
+        <v>1</v>
+      </c>
+      <c r="F3437" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3438" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3438">
+        <v>38520</v>
+      </c>
+      <c r="D3438" t="str">
+        <v/>
+      </c>
+      <c r="E3438">
+        <v>1</v>
+      </c>
+      <c r="F3438" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3439" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3439">
+        <v>31090</v>
+      </c>
+      <c r="D3439" t="str">
+        <v/>
+      </c>
+      <c r="E3439">
+        <v>1</v>
+      </c>
+      <c r="F3439" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3440" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3440">
+        <v>42076</v>
+      </c>
+      <c r="D3440" t="str">
+        <v/>
+      </c>
+      <c r="E3440">
+        <v>1</v>
+      </c>
+      <c r="F3440" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3441" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3441">
+        <v>41121</v>
+      </c>
+      <c r="D3441" t="str">
+        <v/>
+      </c>
+      <c r="E3441">
+        <v>1</v>
+      </c>
+      <c r="F3441" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3442" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3442">
+        <v>4729</v>
+      </c>
+      <c r="D3442" t="str">
+        <v/>
+      </c>
+      <c r="E3442">
+        <v>1</v>
+      </c>
+      <c r="F3442" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3443" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3443">
+        <v>4735</v>
+      </c>
+      <c r="D3443" t="str">
+        <v/>
+      </c>
+      <c r="E3443">
+        <v>1</v>
+      </c>
+      <c r="F3443" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3444" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3444">
+        <v>3676</v>
+      </c>
+      <c r="D3444" t="str">
+        <v/>
+      </c>
+      <c r="E3444">
+        <v>1</v>
+      </c>
+      <c r="F3444" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3445" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3445">
+        <v>4777</v>
+      </c>
+      <c r="D3445" t="str">
+        <v/>
+      </c>
+      <c r="E3445">
+        <v>1</v>
+      </c>
+      <c r="F3445" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3421" t="str">
+      <c r="B3446" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3421">
+      <c r="C3446">
         <v>4424</v>
       </c>
-      <c r="D3421" t="str">
-        <v/>
-      </c>
-      <c r="E3421">
-        <v>1</v>
-      </c>
-      <c r="F3421" t="str">
+      <c r="D3446" t="str">
+        <v/>
+      </c>
+      <c r="E3446">
+        <v>1</v>
+      </c>
+      <c r="F3446" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3421"/>
+  <autoFilter ref="A1:F3446"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3421"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3446"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -35711,7 +35711,7 @@
         <v>fest_032_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1767">
-        <v>59821</v>
+        <v>59812</v>
       </c>
       <c r="D1767" t="str">
         <v/>
@@ -35720,7 +35720,7 @@
         <v>1</v>
       </c>
       <c r="F1767" t="str">
-        <v>f00622e834c3570abc6dc9f9b6d0a3adbc5d4ffdac3ecfb41852454db50a45f9</v>
+        <v>ff36d99c65593d3e441ce8f287e55d68b7da8dfee4413c316f8f1c981f833ba9</v>
       </c>
     </row>
     <row r="1768">
@@ -35731,7 +35731,7 @@
         <v>fest_032_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1768">
-        <v>59955</v>
+        <v>59946</v>
       </c>
       <c r="D1768" t="str">
         <v/>
@@ -35740,7 +35740,7 @@
         <v>1</v>
       </c>
       <c r="F1768" t="str">
-        <v>57b1c157642731482a7a81d4ea51875b29bf6b916c240816623f8006c9590422</v>
+        <v>6dd7d9b0728929d8d92584a16eab93844a992e446a943a1068eabb2b83e91746</v>
       </c>
     </row>
     <row r="1769">
@@ -35751,7 +35751,7 @@
         <v>fest_032_001_dialog_english.dialog</v>
       </c>
       <c r="C1769">
-        <v>47812</v>
+        <v>47803</v>
       </c>
       <c r="D1769" t="str">
         <v/>
@@ -35760,7 +35760,7 @@
         <v>1</v>
       </c>
       <c r="F1769" t="str">
-        <v>82217affad524df4fc645ce18a5c5516804dd8b5781fc16dd9c9ff4819cab4c7</v>
+        <v>e6356384a3b65f9af1c50c537e7263100473b0ce350d27b9b2468b8583886168</v>
       </c>
     </row>
     <row r="1770">
@@ -35771,7 +35771,7 @@
         <v>fest_032_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1770">
-        <v>70861</v>
+        <v>70852</v>
       </c>
       <c r="D1770" t="str">
         <v/>
@@ -35780,7 +35780,7 @@
         <v>1</v>
       </c>
       <c r="F1770" t="str">
-        <v>96793052d0027507c43aeda1d73377e70320f54f48cd4b3a043272ec74b8f883</v>
+        <v>0707a01d5620c3c008641fce600cfa16405f76ced0f15b2d90aa3bdcfcefd1ae</v>
       </c>
     </row>
     <row r="1771">
@@ -35791,7 +35791,7 @@
         <v>fest_032_001_dialog_korean.dialog</v>
       </c>
       <c r="C1771">
-        <v>67302</v>
+        <v>67293</v>
       </c>
       <c r="D1771" t="str">
         <v/>
@@ -35800,7 +35800,7 @@
         <v>1</v>
       </c>
       <c r="F1771" t="str">
-        <v>b10b8aec4a8568d9673d331844803d56c206e81ce9f52473037a2d2bde25b37f</v>
+        <v>9ddaa3c6c09ffc26fcdde5cf9e445b13819adb6da2749edfd7c4845b7506b4d0</v>
       </c>
     </row>
     <row r="1772">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3501</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3476"/>
+  <dimension ref="A1:F3501"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -69505,13 +69505,13 @@
     </row>
     <row r="3457">
       <c r="A3457" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_403_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3457" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_403_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3457">
-        <v>14207</v>
+        <v>55416</v>
       </c>
       <c r="D3457" t="str">
         <v/>
@@ -69520,18 +69520,18 @@
         <v>1</v>
       </c>
       <c r="F3457" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>37398cb0d4f9241e3876e62b6b85e8ee453b8925f16cfaf4ede6dfa66f757bb1</v>
       </c>
     </row>
     <row r="3458">
       <c r="A3458" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_403_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3458" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_403_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3458">
-        <v>14239</v>
+        <v>55522</v>
       </c>
       <c r="D3458" t="str">
         <v/>
@@ -69540,18 +69540,18 @@
         <v>1</v>
       </c>
       <c r="F3458" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>8c46eb127be78dadda06045150f7293e4a3237942fdd25d217b1436837840e71</v>
       </c>
     </row>
     <row r="3459">
       <c r="A3459" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_403_001_dialog_english.dialog</v>
       </c>
       <c r="B3459" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_403_001_dialog_english.dialog</v>
       </c>
       <c r="C3459">
-        <v>11494</v>
+        <v>42173</v>
       </c>
       <c r="D3459" t="str">
         <v/>
@@ -69560,18 +69560,18 @@
         <v>1</v>
       </c>
       <c r="F3459" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>be2e418a40f48933f762dea5831a683b025b7056151f4647b769b4d7c81ceb4a</v>
       </c>
     </row>
     <row r="3460">
       <c r="A3460" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_403_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3460" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_403_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3460">
-        <v>15458</v>
+        <v>66231</v>
       </c>
       <c r="D3460" t="str">
         <v/>
@@ -69580,18 +69580,18 @@
         <v>1</v>
       </c>
       <c r="F3460" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>857d921ea7dcbe81f15267e75655c69b6dcced075995c330588f9b31bc93166c</v>
       </c>
     </row>
     <row r="3461">
       <c r="A3461" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_403_001_dialog_korean.dialog</v>
       </c>
       <c r="B3461" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_403_001_dialog_korean.dialog</v>
       </c>
       <c r="C3461">
-        <v>14831</v>
+        <v>59409</v>
       </c>
       <c r="D3461" t="str">
         <v/>
@@ -69600,18 +69600,18 @@
         <v>1</v>
       </c>
       <c r="F3461" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>0d96e984e98a3d0f2d399b482453ac13fbdff7d3422ccbe59ef02390ba98dc76</v>
       </c>
     </row>
     <row r="3462">
       <c r="A3462" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_403_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3462" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_403_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3462">
-        <v>24991</v>
+        <v>26762</v>
       </c>
       <c r="D3462" t="str">
         <v/>
@@ -69620,18 +69620,18 @@
         <v>1</v>
       </c>
       <c r="F3462" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>cbb2ad3dedf11994849a57c2b33fa896fb8a351d6fc41ec2db9444b865e27e50</v>
       </c>
     </row>
     <row r="3463">
       <c r="A3463" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_403_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3463" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_403_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3463">
-        <v>25051</v>
+        <v>26832</v>
       </c>
       <c r="D3463" t="str">
         <v/>
@@ -69640,18 +69640,18 @@
         <v>1</v>
       </c>
       <c r="F3463" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>5f4dcd7e465ffb7e610b7bb754a461ef8b2a8030f7c82971abed606ad6c5850d</v>
       </c>
     </row>
     <row r="3464">
       <c r="A3464" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_403_002_dialog_english.dialog</v>
       </c>
       <c r="B3464" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_403_002_dialog_english.dialog</v>
       </c>
       <c r="C3464">
-        <v>20539</v>
+        <v>20591</v>
       </c>
       <c r="D3464" t="str">
         <v/>
@@ -69660,18 +69660,18 @@
         <v>1</v>
       </c>
       <c r="F3464" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>e0a469b59b06841d54edf8f929f594dbb68e57e14e961bfe7ceb34dc94c61a73</v>
       </c>
     </row>
     <row r="3465">
       <c r="A3465" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_403_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3465" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_403_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3465">
-        <v>28605</v>
+        <v>31803</v>
       </c>
       <c r="D3465" t="str">
         <v/>
@@ -69680,18 +69680,18 @@
         <v>1</v>
       </c>
       <c r="F3465" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>50173e264f1fcd479b63c0a499bb40209c1e73024c9fa1e9343448d31fe51132</v>
       </c>
     </row>
     <row r="3466">
       <c r="A3466" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_403_002_dialog_korean.dialog</v>
       </c>
       <c r="B3466" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_403_002_dialog_korean.dialog</v>
       </c>
       <c r="C3466">
-        <v>26803</v>
+        <v>29686</v>
       </c>
       <c r="D3466" t="str">
         <v/>
@@ -69700,18 +69700,18 @@
         <v>1</v>
       </c>
       <c r="F3466" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>33d22fd1c2c8820ecdd71f887a4002bc5117a09d8591cf0b3815bbc71fb3001f</v>
       </c>
     </row>
     <row r="3467">
       <c r="A3467" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_403_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3467" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_403_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3467">
-        <v>38436</v>
+        <v>31506</v>
       </c>
       <c r="D3467" t="str">
         <v/>
@@ -69720,18 +69720,18 @@
         <v>1</v>
       </c>
       <c r="F3467" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>c99412617943b401374ba398b3f3f312000dfbfd400e2a4c329516c32118f405</v>
       </c>
     </row>
     <row r="3468">
       <c r="A3468" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_403_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3468" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_403_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3468">
-        <v>38520</v>
+        <v>31584</v>
       </c>
       <c r="D3468" t="str">
         <v/>
@@ -69740,18 +69740,18 @@
         <v>1</v>
       </c>
       <c r="F3468" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>9424207f6b00c3333c5980907e4d1bf2597543e9ab013e87778f8695e01dc76d</v>
       </c>
     </row>
     <row r="3469">
       <c r="A3469" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_403_003_dialog_english.dialog</v>
       </c>
       <c r="B3469" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_403_003_dialog_english.dialog</v>
       </c>
       <c r="C3469">
-        <v>31090</v>
+        <v>23955</v>
       </c>
       <c r="D3469" t="str">
         <v/>
@@ -69760,18 +69760,18 @@
         <v>1</v>
       </c>
       <c r="F3469" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>6e15f986c36ef6844edbf5a81620640a01ed54151bbd9c93693e588aff585410</v>
       </c>
     </row>
     <row r="3470">
       <c r="A3470" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_403_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3470" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_403_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3470">
-        <v>42076</v>
+        <v>36376</v>
       </c>
       <c r="D3470" t="str">
         <v/>
@@ -69780,18 +69780,18 @@
         <v>1</v>
       </c>
       <c r="F3470" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>b3508ab6e47c47634a605e054e6ac55ffab84724d9fcaf5fec444fa3bcb735ed</v>
       </c>
     </row>
     <row r="3471">
       <c r="A3471" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_403_003_dialog_korean.dialog</v>
       </c>
       <c r="B3471" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_403_003_dialog_korean.dialog</v>
       </c>
       <c r="C3471">
-        <v>41121</v>
+        <v>33890</v>
       </c>
       <c r="D3471" t="str">
         <v/>
@@ -69800,18 +69800,18 @@
         <v>1</v>
       </c>
       <c r="F3471" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>00cb8fc51c161d62e20b6ce253fc77eb3a2c69f16d3161b35be8cc87ab7e62a5</v>
       </c>
     </row>
     <row r="3472">
       <c r="A3472" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_403_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3472" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_403_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3472">
-        <v>4729</v>
+        <v>26862</v>
       </c>
       <c r="D3472" t="str">
         <v/>
@@ -69820,18 +69820,18 @@
         <v>1</v>
       </c>
       <c r="F3472" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>1e7b5561d70a10957c840448a816c018ae984ffa02ac9d89294e9d169f6e17a1</v>
       </c>
     </row>
     <row r="3473">
       <c r="A3473" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_403_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3473" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_403_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3473">
-        <v>4735</v>
+        <v>26918</v>
       </c>
       <c r="D3473" t="str">
         <v/>
@@ -69840,18 +69840,18 @@
         <v>1</v>
       </c>
       <c r="F3473" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>9e96a5a387a74092274f920e2f520da3ba0389d6941a0d7137dd5fda0e041e45</v>
       </c>
     </row>
     <row r="3474">
       <c r="A3474" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_403_004_dialog_english.dialog</v>
       </c>
       <c r="B3474" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_403_004_dialog_english.dialog</v>
       </c>
       <c r="C3474">
-        <v>3676</v>
+        <v>20949</v>
       </c>
       <c r="D3474" t="str">
         <v/>
@@ -69860,18 +69860,18 @@
         <v>1</v>
       </c>
       <c r="F3474" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>ff29f2616b00dc7befe949693abe2136a0edf3ff6e61e2cca6800e14f885bfc0</v>
       </c>
     </row>
     <row r="3475">
       <c r="A3475" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_403_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3475" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_403_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3475">
-        <v>4777</v>
+        <v>30454</v>
       </c>
       <c r="D3475" t="str">
         <v/>
@@ -69880,33 +69880,533 @@
         <v>1</v>
       </c>
       <c r="F3475" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>8bf66ecf62d45283378dbdfbb76c730966c92bc791f478b345048635c7e64051</v>
       </c>
     </row>
     <row r="3476">
       <c r="A3476" t="str">
+        <v>main_403_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3476" t="str">
+        <v>main_403_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3476">
+        <v>28259</v>
+      </c>
+      <c r="D3476" t="str">
+        <v/>
+      </c>
+      <c r="E3476">
+        <v>1</v>
+      </c>
+      <c r="F3476" t="str">
+        <v>8f8706a1c88d961ff10c9c231a0f8b6f09b357ff3f1ca8c54355e3d03f0e512a</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="str">
+        <v>main_403_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3477" t="str">
+        <v>main_403_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3477">
+        <v>56454</v>
+      </c>
+      <c r="D3477" t="str">
+        <v/>
+      </c>
+      <c r="E3477">
+        <v>1</v>
+      </c>
+      <c r="F3477" t="str">
+        <v>3afcf8a4bfc179489d648d8b04f084b46a7c177678c2077ea8bd18609e10a0c4</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="str">
+        <v>main_403_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3478" t="str">
+        <v>main_403_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3478">
+        <v>56484</v>
+      </c>
+      <c r="D3478" t="str">
+        <v/>
+      </c>
+      <c r="E3478">
+        <v>1</v>
+      </c>
+      <c r="F3478" t="str">
+        <v>deda879f5aa157b9c56fe1b2e1ee203efa8420f6dc4a59a608b68b0b7b8e6794</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="str">
+        <v>main_403_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3479" t="str">
+        <v>main_403_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3479">
+        <v>44238</v>
+      </c>
+      <c r="D3479" t="str">
+        <v/>
+      </c>
+      <c r="E3479">
+        <v>1</v>
+      </c>
+      <c r="F3479" t="str">
+        <v>095081b0e4c7a35102b969b0863f3a9be7a2dddd0163737ad312310098d62605</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="str">
+        <v>main_403_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3480" t="str">
+        <v>main_403_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3480">
+        <v>61863</v>
+      </c>
+      <c r="D3480" t="str">
+        <v/>
+      </c>
+      <c r="E3480">
+        <v>1</v>
+      </c>
+      <c r="F3480" t="str">
+        <v>703736a898c3321218585073becfe0694a7a5c1961757686d322a9fc6766a3fd</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="str">
+        <v>main_403_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3481" t="str">
+        <v>main_403_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3481">
+        <v>58228</v>
+      </c>
+      <c r="D3481" t="str">
+        <v/>
+      </c>
+      <c r="E3481">
+        <v>1</v>
+      </c>
+      <c r="F3481" t="str">
+        <v>e4473deb6519f9356c74e03d53089990d04f4ec5defed2725fec7ab5c637287d</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3482" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3482">
+        <v>14207</v>
+      </c>
+      <c r="D3482" t="str">
+        <v/>
+      </c>
+      <c r="E3482">
+        <v>1</v>
+      </c>
+      <c r="F3482" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3483" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3483">
+        <v>14239</v>
+      </c>
+      <c r="D3483" t="str">
+        <v/>
+      </c>
+      <c r="E3483">
+        <v>1</v>
+      </c>
+      <c r="F3483" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3484" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3484">
+        <v>11494</v>
+      </c>
+      <c r="D3484" t="str">
+        <v/>
+      </c>
+      <c r="E3484">
+        <v>1</v>
+      </c>
+      <c r="F3484" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3485" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3485">
+        <v>15458</v>
+      </c>
+      <c r="D3485" t="str">
+        <v/>
+      </c>
+      <c r="E3485">
+        <v>1</v>
+      </c>
+      <c r="F3485" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3486" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3486">
+        <v>14831</v>
+      </c>
+      <c r="D3486" t="str">
+        <v/>
+      </c>
+      <c r="E3486">
+        <v>1</v>
+      </c>
+      <c r="F3486" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3487" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3487">
+        <v>24991</v>
+      </c>
+      <c r="D3487" t="str">
+        <v/>
+      </c>
+      <c r="E3487">
+        <v>1</v>
+      </c>
+      <c r="F3487" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3488" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3488">
+        <v>25051</v>
+      </c>
+      <c r="D3488" t="str">
+        <v/>
+      </c>
+      <c r="E3488">
+        <v>1</v>
+      </c>
+      <c r="F3488" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3489" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3489">
+        <v>20539</v>
+      </c>
+      <c r="D3489" t="str">
+        <v/>
+      </c>
+      <c r="E3489">
+        <v>1</v>
+      </c>
+      <c r="F3489" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3490" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3490">
+        <v>28605</v>
+      </c>
+      <c r="D3490" t="str">
+        <v/>
+      </c>
+      <c r="E3490">
+        <v>1</v>
+      </c>
+      <c r="F3490" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3491" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3491">
+        <v>26803</v>
+      </c>
+      <c r="D3491" t="str">
+        <v/>
+      </c>
+      <c r="E3491">
+        <v>1</v>
+      </c>
+      <c r="F3491" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3492" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3492">
+        <v>38436</v>
+      </c>
+      <c r="D3492" t="str">
+        <v/>
+      </c>
+      <c r="E3492">
+        <v>1</v>
+      </c>
+      <c r="F3492" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3493" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3493">
+        <v>38520</v>
+      </c>
+      <c r="D3493" t="str">
+        <v/>
+      </c>
+      <c r="E3493">
+        <v>1</v>
+      </c>
+      <c r="F3493" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3494" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3494">
+        <v>31090</v>
+      </c>
+      <c r="D3494" t="str">
+        <v/>
+      </c>
+      <c r="E3494">
+        <v>1</v>
+      </c>
+      <c r="F3494" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3495" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3495">
+        <v>42076</v>
+      </c>
+      <c r="D3495" t="str">
+        <v/>
+      </c>
+      <c r="E3495">
+        <v>1</v>
+      </c>
+      <c r="F3495" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3496" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3496">
+        <v>41121</v>
+      </c>
+      <c r="D3496" t="str">
+        <v/>
+      </c>
+      <c r="E3496">
+        <v>1</v>
+      </c>
+      <c r="F3496" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3497" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3497">
+        <v>4729</v>
+      </c>
+      <c r="D3497" t="str">
+        <v/>
+      </c>
+      <c r="E3497">
+        <v>1</v>
+      </c>
+      <c r="F3497" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3498" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3498">
+        <v>4735</v>
+      </c>
+      <c r="D3498" t="str">
+        <v/>
+      </c>
+      <c r="E3498">
+        <v>1</v>
+      </c>
+      <c r="F3498" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3499" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3499">
+        <v>3676</v>
+      </c>
+      <c r="D3499" t="str">
+        <v/>
+      </c>
+      <c r="E3499">
+        <v>1</v>
+      </c>
+      <c r="F3499" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3500" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3500">
+        <v>4777</v>
+      </c>
+      <c r="D3500" t="str">
+        <v/>
+      </c>
+      <c r="E3500">
+        <v>1</v>
+      </c>
+      <c r="F3500" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3476" t="str">
+      <c r="B3501" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3476">
+      <c r="C3501">
         <v>4424</v>
       </c>
-      <c r="D3476" t="str">
-        <v/>
-      </c>
-      <c r="E3476">
-        <v>1</v>
-      </c>
-      <c r="F3476" t="str">
+      <c r="D3501" t="str">
+        <v/>
+      </c>
+      <c r="E3501">
+        <v>1</v>
+      </c>
+      <c r="F3501" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3476"/>
+  <autoFilter ref="A1:F3501"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3476"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3501"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -69551,7 +69551,7 @@
         <v>main_403_001_dialog_english.dialog</v>
       </c>
       <c r="C3459">
-        <v>42173</v>
+        <v>42063</v>
       </c>
       <c r="D3459" t="str">
         <v/>
@@ -69560,7 +69560,7 @@
         <v>1</v>
       </c>
       <c r="F3459" t="str">
-        <v>be2e418a40f48933f762dea5831a683b025b7056151f4647b769b4d7c81ceb4a</v>
+        <v>d846f5c515d28215f156cb0fac30cd24178ef6d7d6c921929ec7ca663464ed3c</v>
       </c>
     </row>
     <row r="3460">
@@ -69571,7 +69571,7 @@
         <v>main_403_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3460">
-        <v>66231</v>
+        <v>66119</v>
       </c>
       <c r="D3460" t="str">
         <v/>
@@ -69580,7 +69580,7 @@
         <v>1</v>
       </c>
       <c r="F3460" t="str">
-        <v>857d921ea7dcbe81f15267e75655c69b6dcced075995c330588f9b31bc93166c</v>
+        <v>659f081b030b730bb366e627b338c570e174702825f1a224adbb1840ae2b78ec</v>
       </c>
     </row>
     <row r="3461">
@@ -69591,7 +69591,7 @@
         <v>main_403_001_dialog_korean.dialog</v>
       </c>
       <c r="C3461">
-        <v>59409</v>
+        <v>59362</v>
       </c>
       <c r="D3461" t="str">
         <v/>
@@ -69600,7 +69600,7 @@
         <v>1</v>
       </c>
       <c r="F3461" t="str">
-        <v>0d96e984e98a3d0f2d399b482453ac13fbdff7d3422ccbe59ef02390ba98dc76</v>
+        <v>601e0e0b99132f13718cb61412c270e1f21c6d157f5d1a441709f615bedb6b92</v>
       </c>
     </row>
     <row r="3462">
@@ -69651,7 +69651,7 @@
         <v>main_403_002_dialog_english.dialog</v>
       </c>
       <c r="C3464">
-        <v>20591</v>
+        <v>20611</v>
       </c>
       <c r="D3464" t="str">
         <v/>
@@ -69660,7 +69660,7 @@
         <v>1</v>
       </c>
       <c r="F3464" t="str">
-        <v>e0a469b59b06841d54edf8f929f594dbb68e57e14e961bfe7ceb34dc94c61a73</v>
+        <v>748a54e03fc0ac545616ffb74925eb276ca277f931c2c49c506d360fb3794b10</v>
       </c>
     </row>
     <row r="3465">
@@ -69671,7 +69671,7 @@
         <v>main_403_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3465">
-        <v>31803</v>
+        <v>31897</v>
       </c>
       <c r="D3465" t="str">
         <v/>
@@ -69680,7 +69680,7 @@
         <v>1</v>
       </c>
       <c r="F3465" t="str">
-        <v>50173e264f1fcd479b63c0a499bb40209c1e73024c9fa1e9343448d31fe51132</v>
+        <v>7978509bd709e451c607a9f7268d547340f98630e89ba43e3942055a505c3b2f</v>
       </c>
     </row>
     <row r="3466">
@@ -69691,7 +69691,7 @@
         <v>main_403_002_dialog_korean.dialog</v>
       </c>
       <c r="C3466">
-        <v>29686</v>
+        <v>29662</v>
       </c>
       <c r="D3466" t="str">
         <v/>
@@ -69700,7 +69700,7 @@
         <v>1</v>
       </c>
       <c r="F3466" t="str">
-        <v>33d22fd1c2c8820ecdd71f887a4002bc5117a09d8591cf0b3815bbc71fb3001f</v>
+        <v>5bdf670c48e7864daf1dab47ed3306b45d5e34df00d2fbcc18d21ec7efa2d45a</v>
       </c>
     </row>
     <row r="3467">
@@ -69751,7 +69751,7 @@
         <v>main_403_003_dialog_english.dialog</v>
       </c>
       <c r="C3469">
-        <v>23955</v>
+        <v>23995</v>
       </c>
       <c r="D3469" t="str">
         <v/>
@@ -69760,7 +69760,7 @@
         <v>1</v>
       </c>
       <c r="F3469" t="str">
-        <v>6e15f986c36ef6844edbf5a81620640a01ed54151bbd9c93693e588aff585410</v>
+        <v>ac7b673f4a6b8fdabce7cf56fdb545e2d60079733028202be93b9f2a835671ab</v>
       </c>
     </row>
     <row r="3470">
@@ -69771,7 +69771,7 @@
         <v>main_403_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3470">
-        <v>36376</v>
+        <v>36329</v>
       </c>
       <c r="D3470" t="str">
         <v/>
@@ -69780,7 +69780,7 @@
         <v>1</v>
       </c>
       <c r="F3470" t="str">
-        <v>b3508ab6e47c47634a605e054e6ac55ffab84724d9fcaf5fec444fa3bcb735ed</v>
+        <v>b13d122ede187dfbe8eb0a79a168f448c2b1bd118c0d4143bdc3be243929ace9</v>
       </c>
     </row>
     <row r="3471">
@@ -69791,7 +69791,7 @@
         <v>main_403_003_dialog_korean.dialog</v>
       </c>
       <c r="C3471">
-        <v>33890</v>
+        <v>33912</v>
       </c>
       <c r="D3471" t="str">
         <v/>
@@ -69800,7 +69800,7 @@
         <v>1</v>
       </c>
       <c r="F3471" t="str">
-        <v>00cb8fc51c161d62e20b6ce253fc77eb3a2c69f16d3161b35be8cc87ab7e62a5</v>
+        <v>d8a941cbc308a469cdaa4302749420373341b529c397ca49efd6eab363cd6111</v>
       </c>
     </row>
     <row r="3472">
@@ -69851,7 +69851,7 @@
         <v>main_403_004_dialog_english.dialog</v>
       </c>
       <c r="C3474">
-        <v>20949</v>
+        <v>20935</v>
       </c>
       <c r="D3474" t="str">
         <v/>
@@ -69860,7 +69860,7 @@
         <v>1</v>
       </c>
       <c r="F3474" t="str">
-        <v>ff29f2616b00dc7befe949693abe2136a0edf3ff6e61e2cca6800e14f885bfc0</v>
+        <v>9b475cff8f1b622209b0787af83a82a04ac2e34c7404933bf73eccdb816f1c56</v>
       </c>
     </row>
     <row r="3475">
@@ -69871,7 +69871,7 @@
         <v>main_403_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3475">
-        <v>30454</v>
+        <v>30363</v>
       </c>
       <c r="D3475" t="str">
         <v/>
@@ -69880,7 +69880,7 @@
         <v>1</v>
       </c>
       <c r="F3475" t="str">
-        <v>8bf66ecf62d45283378dbdfbb76c730966c92bc791f478b345048635c7e64051</v>
+        <v>a281358c3ff8d7da9ae8b27d446feae630942ad9b2990103f7edabe24be69fbd</v>
       </c>
     </row>
     <row r="3476">
@@ -69891,7 +69891,7 @@
         <v>main_403_004_dialog_korean.dialog</v>
       </c>
       <c r="C3476">
-        <v>28259</v>
+        <v>28239</v>
       </c>
       <c r="D3476" t="str">
         <v/>
@@ -69900,7 +69900,7 @@
         <v>1</v>
       </c>
       <c r="F3476" t="str">
-        <v>8f8706a1c88d961ff10c9c231a0f8b6f09b357ff3f1ca8c54355e3d03f0e512a</v>
+        <v>d40bcaa00dca1831c4ddb92dcdd1a3a534dc44f56b03e192325da88d8b0acfcb</v>
       </c>
     </row>
     <row r="3477">
@@ -69951,7 +69951,7 @@
         <v>main_403_005_dialog_english.dialog</v>
       </c>
       <c r="C3479">
-        <v>44238</v>
+        <v>44258</v>
       </c>
       <c r="D3479" t="str">
         <v/>
@@ -69960,7 +69960,7 @@
         <v>1</v>
       </c>
       <c r="F3479" t="str">
-        <v>095081b0e4c7a35102b969b0863f3a9be7a2dddd0163737ad312310098d62605</v>
+        <v>e36099e084d358e2d25834119f701928c431656ff498f4a8dfd4ae1256638861</v>
       </c>
     </row>
     <row r="3480">
@@ -69971,7 +69971,7 @@
         <v>main_403_005_dialog_japanese.dialog</v>
       </c>
       <c r="C3480">
-        <v>61863</v>
+        <v>61873</v>
       </c>
       <c r="D3480" t="str">
         <v/>
@@ -69980,7 +69980,7 @@
         <v>1</v>
       </c>
       <c r="F3480" t="str">
-        <v>703736a898c3321218585073becfe0694a7a5c1961757686d322a9fc6766a3fd</v>
+        <v>559e3fc90985112dc501f5551456f13752f82a82ef1fd30c5d015e30469fd083</v>
       </c>
     </row>
     <row r="3481">
@@ -69991,7 +69991,7 @@
         <v>main_403_005_dialog_korean.dialog</v>
       </c>
       <c r="C3481">
-        <v>58228</v>
+        <v>58275</v>
       </c>
       <c r="D3481" t="str">
         <v/>
@@ -70000,7 +70000,7 @@
         <v>1</v>
       </c>
       <c r="F3481" t="str">
-        <v>e4473deb6519f9356c74e03d53089990d04f4ec5defed2725fec7ab5c637287d</v>
+        <v>c00f08cdf7f4c08379bcfc37017bbe0194aa7416a42ae503d9c0bed0bd6dc955</v>
       </c>
     </row>
     <row r="3482">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -65311,7 +65311,7 @@
         <v>main_309_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3247">
-        <v>67681</v>
+        <v>67585</v>
       </c>
       <c r="D3247" t="str">
         <v/>
@@ -65320,7 +65320,7 @@
         <v>1</v>
       </c>
       <c r="F3247" t="str">
-        <v>a72b27b15085f0cabbbd6687ba1a29236d40f38329b4e19ce7344c048efcbf87</v>
+        <v>c4948f5c9cccb938db23350a09f39ba8514e33f0406f3974fd92bac37b134845</v>
       </c>
     </row>
     <row r="3248">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3576</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3551"/>
+  <dimension ref="A1:F3576"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -71005,13 +71005,13 @@
     </row>
     <row r="3532">
       <c r="A3532" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_405_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3532" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_405_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3532">
-        <v>14207</v>
+        <v>51245</v>
       </c>
       <c r="D3532" t="str">
         <v/>
@@ -71020,18 +71020,18 @@
         <v>1</v>
       </c>
       <c r="F3532" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>03ea8d01b7d8f457682d73b3ab8ee81f552172cbfcd78cccc0b957d990ad48ae</v>
       </c>
     </row>
     <row r="3533">
       <c r="A3533" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_405_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3533" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_405_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3533">
-        <v>14239</v>
+        <v>51369</v>
       </c>
       <c r="D3533" t="str">
         <v/>
@@ -71040,18 +71040,18 @@
         <v>1</v>
       </c>
       <c r="F3533" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>92b24cab23124da696b89644f0d118e46d35ee702f19a874851438c03970924b</v>
       </c>
     </row>
     <row r="3534">
       <c r="A3534" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_405_001_dialog_english.dialog</v>
       </c>
       <c r="B3534" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_405_001_dialog_english.dialog</v>
       </c>
       <c r="C3534">
-        <v>11494</v>
+        <v>40370</v>
       </c>
       <c r="D3534" t="str">
         <v/>
@@ -71060,18 +71060,18 @@
         <v>1</v>
       </c>
       <c r="F3534" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>b21916258c147c1956a4a4c94021670ca7855ce6017bcc73b98f2d62e5832739</v>
       </c>
     </row>
     <row r="3535">
       <c r="A3535" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_405_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3535" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_405_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3535">
-        <v>15458</v>
+        <v>59015</v>
       </c>
       <c r="D3535" t="str">
         <v/>
@@ -71080,18 +71080,18 @@
         <v>1</v>
       </c>
       <c r="F3535" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>27e150df1a1a4f1294fb5ca27ca1f8345607b025855284aeeed7a145ff1b9fb5</v>
       </c>
     </row>
     <row r="3536">
       <c r="A3536" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_405_001_dialog_korean.dialog</v>
       </c>
       <c r="B3536" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_405_001_dialog_korean.dialog</v>
       </c>
       <c r="C3536">
-        <v>14831</v>
+        <v>52140</v>
       </c>
       <c r="D3536" t="str">
         <v/>
@@ -71100,18 +71100,18 @@
         <v>1</v>
       </c>
       <c r="F3536" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>5359ea40c45a9711ec6b737aae21399b5415ae34935b9afc7ffcc7f5b09f48db</v>
       </c>
     </row>
     <row r="3537">
       <c r="A3537" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_405_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3537" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_405_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3537">
-        <v>24991</v>
+        <v>33806</v>
       </c>
       <c r="D3537" t="str">
         <v/>
@@ -71120,18 +71120,18 @@
         <v>1</v>
       </c>
       <c r="F3537" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>80f5d979652a910bee6f75d4f707c94476bd65dac882474352e95a7b36ea9ad9</v>
       </c>
     </row>
     <row r="3538">
       <c r="A3538" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_405_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3538" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_405_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3538">
-        <v>25051</v>
+        <v>33894</v>
       </c>
       <c r="D3538" t="str">
         <v/>
@@ -71140,18 +71140,18 @@
         <v>1</v>
       </c>
       <c r="F3538" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>a8b2779261a092d7ade331484c5928d4a0cf64f5a8d7a560bbd97c1a598d18f2</v>
       </c>
     </row>
     <row r="3539">
       <c r="A3539" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_405_002_dialog_english.dialog</v>
       </c>
       <c r="B3539" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_405_002_dialog_english.dialog</v>
       </c>
       <c r="C3539">
-        <v>20539</v>
+        <v>26297</v>
       </c>
       <c r="D3539" t="str">
         <v/>
@@ -71160,18 +71160,18 @@
         <v>1</v>
       </c>
       <c r="F3539" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>33f104d65ca26be1b1e201c16e62e2d66870e608733df62dda020d36124e29bc</v>
       </c>
     </row>
     <row r="3540">
       <c r="A3540" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_405_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3540" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_405_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3540">
-        <v>28605</v>
+        <v>38325</v>
       </c>
       <c r="D3540" t="str">
         <v/>
@@ -71180,18 +71180,18 @@
         <v>1</v>
       </c>
       <c r="F3540" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>15764f54279aa73cabf1b1b1f208d00b9da767010c92ca1ed49ad18fda8798a2</v>
       </c>
     </row>
     <row r="3541">
       <c r="A3541" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_405_002_dialog_korean.dialog</v>
       </c>
       <c r="B3541" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_405_002_dialog_korean.dialog</v>
       </c>
       <c r="C3541">
-        <v>26803</v>
+        <v>36402</v>
       </c>
       <c r="D3541" t="str">
         <v/>
@@ -71200,18 +71200,18 @@
         <v>1</v>
       </c>
       <c r="F3541" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>c2ae34b04f128848c7b6b27f654afedac728815383df2d5aa43d0a7b9a113306</v>
       </c>
     </row>
     <row r="3542">
       <c r="A3542" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_405_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3542" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_405_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3542">
-        <v>38436</v>
+        <v>33435</v>
       </c>
       <c r="D3542" t="str">
         <v/>
@@ -71220,18 +71220,18 @@
         <v>1</v>
       </c>
       <c r="F3542" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>80e5e5a1a42890c8f3f53e628bbedb4a29d11d4fd571e75628ae0192855e1f95</v>
       </c>
     </row>
     <row r="3543">
       <c r="A3543" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_405_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3543" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_405_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3543">
-        <v>38520</v>
+        <v>33509</v>
       </c>
       <c r="D3543" t="str">
         <v/>
@@ -71240,18 +71240,18 @@
         <v>1</v>
       </c>
       <c r="F3543" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>bd7c7e5012610b1f8a2bb43050d256158dace16dc771ddaa33171958614b36b8</v>
       </c>
     </row>
     <row r="3544">
       <c r="A3544" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_405_003_dialog_english.dialog</v>
       </c>
       <c r="B3544" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_405_003_dialog_english.dialog</v>
       </c>
       <c r="C3544">
-        <v>31090</v>
+        <v>25955</v>
       </c>
       <c r="D3544" t="str">
         <v/>
@@ -71260,18 +71260,18 @@
         <v>1</v>
       </c>
       <c r="F3544" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>3beff1781da6934c00cc0427fd3418ab2f46f03204c2123f9880d7286525d949</v>
       </c>
     </row>
     <row r="3545">
       <c r="A3545" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_405_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3545" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_405_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3545">
-        <v>42076</v>
+        <v>39390</v>
       </c>
       <c r="D3545" t="str">
         <v/>
@@ -71280,18 +71280,18 @@
         <v>1</v>
       </c>
       <c r="F3545" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>4bbf7a89962ef4fd7c931aad48dcc2b625b47580877a8b47f38c38573ce97470</v>
       </c>
     </row>
     <row r="3546">
       <c r="A3546" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_405_003_dialog_korean.dialog</v>
       </c>
       <c r="B3546" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_405_003_dialog_korean.dialog</v>
       </c>
       <c r="C3546">
-        <v>41121</v>
+        <v>34669</v>
       </c>
       <c r="D3546" t="str">
         <v/>
@@ -71300,18 +71300,18 @@
         <v>1</v>
       </c>
       <c r="F3546" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>a85914395ebd769aedfcb86658e38c8e1ea3836da05c408cdfb59e69824a7df3</v>
       </c>
     </row>
     <row r="3547">
       <c r="A3547" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_405_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3547" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_405_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3547">
-        <v>4729</v>
+        <v>51759</v>
       </c>
       <c r="D3547" t="str">
         <v/>
@@ -71320,18 +71320,18 @@
         <v>1</v>
       </c>
       <c r="F3547" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>6a26d7a6f6d5c17adc2abd17a10abd7b6df46a4aaf6946ee29f03eb15d49b27c</v>
       </c>
     </row>
     <row r="3548">
       <c r="A3548" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_405_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3548" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_405_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3548">
-        <v>4735</v>
+        <v>51899</v>
       </c>
       <c r="D3548" t="str">
         <v/>
@@ -71340,18 +71340,18 @@
         <v>1</v>
       </c>
       <c r="F3548" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>21f1dde0ffbfcf451c75ad506ca604c1c6fe8bf0c7d40f140a9d3dd4e62e015c</v>
       </c>
     </row>
     <row r="3549">
       <c r="A3549" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_405_004_dialog_english.dialog</v>
       </c>
       <c r="B3549" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_405_004_dialog_english.dialog</v>
       </c>
       <c r="C3549">
-        <v>3676</v>
+        <v>40484</v>
       </c>
       <c r="D3549" t="str">
         <v/>
@@ -71360,18 +71360,18 @@
         <v>1</v>
       </c>
       <c r="F3549" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>d2ca1390bac84a2ee91e54050cbefdec489389a56f10f8ef41e178fca98e57d3</v>
       </c>
     </row>
     <row r="3550">
       <c r="A3550" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_405_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3550" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_405_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3550">
-        <v>4777</v>
+        <v>57229</v>
       </c>
       <c r="D3550" t="str">
         <v/>
@@ -71380,33 +71380,533 @@
         <v>1</v>
       </c>
       <c r="F3550" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>c70c76fc9b660e18361d295ad79d21acf6618c1bf8cedc72bc04072dc123db3d</v>
       </c>
     </row>
     <row r="3551">
       <c r="A3551" t="str">
+        <v>main_405_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3551" t="str">
+        <v>main_405_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3551">
+        <v>53283</v>
+      </c>
+      <c r="D3551" t="str">
+        <v/>
+      </c>
+      <c r="E3551">
+        <v>1</v>
+      </c>
+      <c r="F3551" t="str">
+        <v>2f4db21e0d07b5f2cc1086d48f01cfb771c83352ed3a185ad52ecceacd0cbeeb</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" t="str">
+        <v>main_405_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3552" t="str">
+        <v>main_405_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3552">
+        <v>69992</v>
+      </c>
+      <c r="D3552" t="str">
+        <v/>
+      </c>
+      <c r="E3552">
+        <v>1</v>
+      </c>
+      <c r="F3552" t="str">
+        <v>47e200590da7735369cac8b0d82016b45bf6ff788ff21562993e907d75fb6779</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" t="str">
+        <v>main_405_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3553" t="str">
+        <v>main_405_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3553">
+        <v>70130</v>
+      </c>
+      <c r="D3553" t="str">
+        <v/>
+      </c>
+      <c r="E3553">
+        <v>1</v>
+      </c>
+      <c r="F3553" t="str">
+        <v>488f1c69cd6560d5ab7558d522148899b4b7c5e5d61c8b88cfe6a978b590423e</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" t="str">
+        <v>main_405_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3554" t="str">
+        <v>main_405_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3554">
+        <v>52560</v>
+      </c>
+      <c r="D3554" t="str">
+        <v/>
+      </c>
+      <c r="E3554">
+        <v>1</v>
+      </c>
+      <c r="F3554" t="str">
+        <v>f4b56615641e3055a901e21bf825aea8c8bbcf45b6d9dca7b9ffe14f8982da6b</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" t="str">
+        <v>main_405_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3555" t="str">
+        <v>main_405_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3555">
+        <v>81226</v>
+      </c>
+      <c r="D3555" t="str">
+        <v/>
+      </c>
+      <c r="E3555">
+        <v>1</v>
+      </c>
+      <c r="F3555" t="str">
+        <v>c39ce200495937aea0d7af573aa02a9537799b4e3bb1c79e0bf30b1a2c9e7927</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" t="str">
+        <v>main_405_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3556" t="str">
+        <v>main_405_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3556">
+        <v>72904</v>
+      </c>
+      <c r="D3556" t="str">
+        <v/>
+      </c>
+      <c r="E3556">
+        <v>1</v>
+      </c>
+      <c r="F3556" t="str">
+        <v>c349ab8704856caaeda32f42cb895a76b5887a1da153073e982e3a3d416c5144</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3557" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3557">
+        <v>14207</v>
+      </c>
+      <c r="D3557" t="str">
+        <v/>
+      </c>
+      <c r="E3557">
+        <v>1</v>
+      </c>
+      <c r="F3557" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3558" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3558">
+        <v>14239</v>
+      </c>
+      <c r="D3558" t="str">
+        <v/>
+      </c>
+      <c r="E3558">
+        <v>1</v>
+      </c>
+      <c r="F3558" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3559" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3559">
+        <v>11494</v>
+      </c>
+      <c r="D3559" t="str">
+        <v/>
+      </c>
+      <c r="E3559">
+        <v>1</v>
+      </c>
+      <c r="F3559" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3560" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3560">
+        <v>15458</v>
+      </c>
+      <c r="D3560" t="str">
+        <v/>
+      </c>
+      <c r="E3560">
+        <v>1</v>
+      </c>
+      <c r="F3560" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3561" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3561">
+        <v>14831</v>
+      </c>
+      <c r="D3561" t="str">
+        <v/>
+      </c>
+      <c r="E3561">
+        <v>1</v>
+      </c>
+      <c r="F3561" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3562" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3562">
+        <v>24991</v>
+      </c>
+      <c r="D3562" t="str">
+        <v/>
+      </c>
+      <c r="E3562">
+        <v>1</v>
+      </c>
+      <c r="F3562" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3563" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3563">
+        <v>25051</v>
+      </c>
+      <c r="D3563" t="str">
+        <v/>
+      </c>
+      <c r="E3563">
+        <v>1</v>
+      </c>
+      <c r="F3563" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3564" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3564">
+        <v>20539</v>
+      </c>
+      <c r="D3564" t="str">
+        <v/>
+      </c>
+      <c r="E3564">
+        <v>1</v>
+      </c>
+      <c r="F3564" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3565" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3565">
+        <v>28605</v>
+      </c>
+      <c r="D3565" t="str">
+        <v/>
+      </c>
+      <c r="E3565">
+        <v>1</v>
+      </c>
+      <c r="F3565" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3566" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3566">
+        <v>26803</v>
+      </c>
+      <c r="D3566" t="str">
+        <v/>
+      </c>
+      <c r="E3566">
+        <v>1</v>
+      </c>
+      <c r="F3566" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3567" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3567">
+        <v>38436</v>
+      </c>
+      <c r="D3567" t="str">
+        <v/>
+      </c>
+      <c r="E3567">
+        <v>1</v>
+      </c>
+      <c r="F3567" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3568" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3568">
+        <v>38520</v>
+      </c>
+      <c r="D3568" t="str">
+        <v/>
+      </c>
+      <c r="E3568">
+        <v>1</v>
+      </c>
+      <c r="F3568" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3569" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3569">
+        <v>31090</v>
+      </c>
+      <c r="D3569" t="str">
+        <v/>
+      </c>
+      <c r="E3569">
+        <v>1</v>
+      </c>
+      <c r="F3569" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3570" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3570">
+        <v>42076</v>
+      </c>
+      <c r="D3570" t="str">
+        <v/>
+      </c>
+      <c r="E3570">
+        <v>1</v>
+      </c>
+      <c r="F3570" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3571" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3571">
+        <v>41121</v>
+      </c>
+      <c r="D3571" t="str">
+        <v/>
+      </c>
+      <c r="E3571">
+        <v>1</v>
+      </c>
+      <c r="F3571" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3572" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3572">
+        <v>4729</v>
+      </c>
+      <c r="D3572" t="str">
+        <v/>
+      </c>
+      <c r="E3572">
+        <v>1</v>
+      </c>
+      <c r="F3572" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3573" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3573">
+        <v>4735</v>
+      </c>
+      <c r="D3573" t="str">
+        <v/>
+      </c>
+      <c r="E3573">
+        <v>1</v>
+      </c>
+      <c r="F3573" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3574" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3574">
+        <v>3676</v>
+      </c>
+      <c r="D3574" t="str">
+        <v/>
+      </c>
+      <c r="E3574">
+        <v>1</v>
+      </c>
+      <c r="F3574" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3575" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3575">
+        <v>4777</v>
+      </c>
+      <c r="D3575" t="str">
+        <v/>
+      </c>
+      <c r="E3575">
+        <v>1</v>
+      </c>
+      <c r="F3575" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3551" t="str">
+      <c r="B3576" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3551">
+      <c r="C3576">
         <v>4424</v>
       </c>
-      <c r="D3551" t="str">
-        <v/>
-      </c>
-      <c r="E3551">
-        <v>1</v>
-      </c>
-      <c r="F3551" t="str">
+      <c r="D3576" t="str">
+        <v/>
+      </c>
+      <c r="E3576">
+        <v>1</v>
+      </c>
+      <c r="F3576" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3551"/>
+  <autoFilter ref="A1:F3576"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3551"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3576"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -23851,7 +23851,7 @@
         <v>char_h0190_001_dialog_english.dialog</v>
       </c>
       <c r="C1174">
-        <v>27752</v>
+        <v>27854</v>
       </c>
       <c r="D1174" t="str">
         <v/>
@@ -23860,7 +23860,7 @@
         <v>1</v>
       </c>
       <c r="F1174" t="str">
-        <v>a44d4e79726e435f79dc5a664427f24967c13785945ddf5a648bd23d98d636a2</v>
+        <v>7645b19ff185fd642f5ed66bbdc30d6c4de2798482217968a2df2c6a0489cdcf</v>
       </c>
     </row>
     <row r="1175">
@@ -23911,7 +23911,7 @@
         <v>char_h0190_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1177">
-        <v>34384</v>
+        <v>34565</v>
       </c>
       <c r="D1177" t="str">
         <v/>
@@ -23920,7 +23920,7 @@
         <v>1</v>
       </c>
       <c r="F1177" t="str">
-        <v>4aef42335e28fe6145c99c2fa1913562a6c6132eec034e689f958221bcfa668e</v>
+        <v>e48671c599a0cb69fe84a5eb5327b5dab02b4679e2e541fc6fed8f23e00c4d32</v>
       </c>
     </row>
     <row r="1178">
@@ -23931,7 +23931,7 @@
         <v>char_h0190_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1178">
-        <v>34454</v>
+        <v>34645</v>
       </c>
       <c r="D1178" t="str">
         <v/>
@@ -23940,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="F1178" t="str">
-        <v>a0a6c0e6075c293a0138149462e056d4d2596d58786920a9834dd714f88ab13e</v>
+        <v>c4f76dd031bfe53467d7322b0510162f47c4617280a4241c8baf3bcd35b7bb48</v>
       </c>
     </row>
     <row r="1179">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3626</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3601"/>
+  <dimension ref="A1:F3626"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -72005,13 +72005,13 @@
     </row>
     <row r="3582">
       <c r="A3582" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_406_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3582" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_406_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3582">
-        <v>14207</v>
+        <v>39616</v>
       </c>
       <c r="D3582" t="str">
         <v/>
@@ -72020,18 +72020,18 @@
         <v>1</v>
       </c>
       <c r="F3582" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>6b855559f1d0bb8e755b00431a1b95199d4348884d5e7240f25bb767a3eeaa27</v>
       </c>
     </row>
     <row r="3583">
       <c r="A3583" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_406_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3583" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_406_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3583">
-        <v>14239</v>
+        <v>39716</v>
       </c>
       <c r="D3583" t="str">
         <v/>
@@ -72040,18 +72040,18 @@
         <v>1</v>
       </c>
       <c r="F3583" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>a659d928a0819d5afc6429e8935046451b6d8e9f8dfd798b99aa1f901cb3e0ea</v>
       </c>
     </row>
     <row r="3584">
       <c r="A3584" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_406_001_dialog_english.dialog</v>
       </c>
       <c r="B3584" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_406_001_dialog_english.dialog</v>
       </c>
       <c r="C3584">
-        <v>11494</v>
+        <v>30864</v>
       </c>
       <c r="D3584" t="str">
         <v/>
@@ -72060,18 +72060,18 @@
         <v>1</v>
       </c>
       <c r="F3584" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>60662505b9b02835c743cd3c1ea10ca66f7dfb0323db363893ab96a33db01c77</v>
       </c>
     </row>
     <row r="3585">
       <c r="A3585" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_406_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3585" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_406_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3585">
-        <v>15458</v>
+        <v>44955</v>
       </c>
       <c r="D3585" t="str">
         <v/>
@@ -72080,18 +72080,18 @@
         <v>1</v>
       </c>
       <c r="F3585" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>8ce91a937340baf302c9538cf070fde9650749654d13d1d15534a5e57aed280e</v>
       </c>
     </row>
     <row r="3586">
       <c r="A3586" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_406_001_dialog_korean.dialog</v>
       </c>
       <c r="B3586" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_406_001_dialog_korean.dialog</v>
       </c>
       <c r="C3586">
-        <v>14831</v>
+        <v>41286</v>
       </c>
       <c r="D3586" t="str">
         <v/>
@@ -72100,18 +72100,18 @@
         <v>1</v>
       </c>
       <c r="F3586" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>130e82dbf15583bc9be9a4e085e344ebd3a6fa426f4b190574e478c932963c2f</v>
       </c>
     </row>
     <row r="3587">
       <c r="A3587" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_406_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3587" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_406_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3587">
-        <v>24991</v>
+        <v>51363</v>
       </c>
       <c r="D3587" t="str">
         <v/>
@@ -72120,18 +72120,18 @@
         <v>1</v>
       </c>
       <c r="F3587" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>15da48658ff571e9b42700f28b770ae8c8bc6fba280cd5faacdc233117c04a3a</v>
       </c>
     </row>
     <row r="3588">
       <c r="A3588" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_406_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3588" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_406_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3588">
-        <v>25051</v>
+        <v>51503</v>
       </c>
       <c r="D3588" t="str">
         <v/>
@@ -72140,18 +72140,18 @@
         <v>1</v>
       </c>
       <c r="F3588" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>4d3ddea594d40d6d0d8b733ea37de1efdf0646dea144ed7b19201ddc4ce3b7ec</v>
       </c>
     </row>
     <row r="3589">
       <c r="A3589" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_406_002_dialog_english.dialog</v>
       </c>
       <c r="B3589" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_406_002_dialog_english.dialog</v>
       </c>
       <c r="C3589">
-        <v>20539</v>
+        <v>39498</v>
       </c>
       <c r="D3589" t="str">
         <v/>
@@ -72160,18 +72160,18 @@
         <v>1</v>
       </c>
       <c r="F3589" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>f9c4ae934e179a2a549da1eaa48c01cc9c08b9ba8cca60d7f9f73f3b14d19be8</v>
       </c>
     </row>
     <row r="3590">
       <c r="A3590" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_406_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3590" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_406_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3590">
-        <v>28605</v>
+        <v>60416</v>
       </c>
       <c r="D3590" t="str">
         <v/>
@@ -72180,18 +72180,18 @@
         <v>1</v>
       </c>
       <c r="F3590" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>fbb1155f9d8a70b5ac5b36341e98537762fdabea50dc8aee9687b9b7ab7d7ef1</v>
       </c>
     </row>
     <row r="3591">
       <c r="A3591" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_406_002_dialog_korean.dialog</v>
       </c>
       <c r="B3591" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_406_002_dialog_korean.dialog</v>
       </c>
       <c r="C3591">
-        <v>26803</v>
+        <v>54870</v>
       </c>
       <c r="D3591" t="str">
         <v/>
@@ -72200,18 +72200,18 @@
         <v>1</v>
       </c>
       <c r="F3591" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>e09501bbeb0e0d2a16ed5101d201afd7b3fe826d5466d379f6f977fb463da3ef</v>
       </c>
     </row>
     <row r="3592">
       <c r="A3592" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_406_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3592" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_406_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3592">
-        <v>38436</v>
+        <v>60699</v>
       </c>
       <c r="D3592" t="str">
         <v/>
@@ -72220,18 +72220,18 @@
         <v>1</v>
       </c>
       <c r="F3592" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>0ce3aa199229f7bc84b44357a30a4f17677ec1d8174e6d93054f8588b63052f5</v>
       </c>
     </row>
     <row r="3593">
       <c r="A3593" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_406_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3593" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_406_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3593">
-        <v>38520</v>
+        <v>60855</v>
       </c>
       <c r="D3593" t="str">
         <v/>
@@ -72240,18 +72240,18 @@
         <v>1</v>
       </c>
       <c r="F3593" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>91a02dd96bdbc4047705d934c16f805d09a49f5115fa630f8672f9670ddfeba4</v>
       </c>
     </row>
     <row r="3594">
       <c r="A3594" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_406_003_dialog_english.dialog</v>
       </c>
       <c r="B3594" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_406_003_dialog_english.dialog</v>
       </c>
       <c r="C3594">
-        <v>31090</v>
+        <v>47875</v>
       </c>
       <c r="D3594" t="str">
         <v/>
@@ -72260,18 +72260,18 @@
         <v>1</v>
       </c>
       <c r="F3594" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>ef5493f41700b2cd6b3e2af000af096460eda65e768339c136695472b522c806</v>
       </c>
     </row>
     <row r="3595">
       <c r="A3595" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_406_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3595" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_406_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3595">
-        <v>42076</v>
+        <v>71146</v>
       </c>
       <c r="D3595" t="str">
         <v/>
@@ -72280,18 +72280,18 @@
         <v>1</v>
       </c>
       <c r="F3595" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>391d795df140d32cc78f75e3e7ed134e9a8efd95497cd80553fb5fbc64497c87</v>
       </c>
     </row>
     <row r="3596">
       <c r="A3596" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_406_003_dialog_korean.dialog</v>
       </c>
       <c r="B3596" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_406_003_dialog_korean.dialog</v>
       </c>
       <c r="C3596">
-        <v>41121</v>
+        <v>65732</v>
       </c>
       <c r="D3596" t="str">
         <v/>
@@ -72300,18 +72300,18 @@
         <v>1</v>
       </c>
       <c r="F3596" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>9a25747987bb405a996433aef613a2f5943dab7eabc07ba72c0ca5877c932c7e</v>
       </c>
     </row>
     <row r="3597">
       <c r="A3597" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_406_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3597" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_406_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3597">
-        <v>4729</v>
+        <v>30358</v>
       </c>
       <c r="D3597" t="str">
         <v/>
@@ -72320,18 +72320,18 @@
         <v>1</v>
       </c>
       <c r="F3597" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>3af2bc4cf9a381d7e584ee6736cb12944fd43d1d89c38e74535eedd768932ff1</v>
       </c>
     </row>
     <row r="3598">
       <c r="A3598" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_406_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3598" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_406_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3598">
-        <v>4735</v>
+        <v>30424</v>
       </c>
       <c r="D3598" t="str">
         <v/>
@@ -72340,18 +72340,18 @@
         <v>1</v>
       </c>
       <c r="F3598" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>5e6af6a9320082247aafb38daa2157d7d07f472bc14de03952060c6557e7818d</v>
       </c>
     </row>
     <row r="3599">
       <c r="A3599" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_406_004_dialog_english.dialog</v>
       </c>
       <c r="B3599" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_406_004_dialog_english.dialog</v>
       </c>
       <c r="C3599">
-        <v>3676</v>
+        <v>24386</v>
       </c>
       <c r="D3599" t="str">
         <v/>
@@ -72360,18 +72360,18 @@
         <v>1</v>
       </c>
       <c r="F3599" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>d7670f4a7670b0ef7f656be69506019b289ad580741c3aeebf8a2bf8832f4523</v>
       </c>
     </row>
     <row r="3600">
       <c r="A3600" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_406_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3600" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_406_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3600">
-        <v>4777</v>
+        <v>33087</v>
       </c>
       <c r="D3600" t="str">
         <v/>
@@ -72380,33 +72380,533 @@
         <v>1</v>
       </c>
       <c r="F3600" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>2f4cd9652dce814a75177d17941286f091ce90d50c1805e0d365a155bfc521eb</v>
       </c>
     </row>
     <row r="3601">
       <c r="A3601" t="str">
+        <v>main_406_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3601" t="str">
+        <v>main_406_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3601">
+        <v>30564</v>
+      </c>
+      <c r="D3601" t="str">
+        <v/>
+      </c>
+      <c r="E3601">
+        <v>1</v>
+      </c>
+      <c r="F3601" t="str">
+        <v>7481f4d6076e4030938dc71c106c954b6295f829893116c5d5ebbe1ac307ae72</v>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" t="str">
+        <v>main_406_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3602" t="str">
+        <v>main_406_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3602">
+        <v>41509</v>
+      </c>
+      <c r="D3602" t="str">
+        <v/>
+      </c>
+      <c r="E3602">
+        <v>1</v>
+      </c>
+      <c r="F3602" t="str">
+        <v>fd76d9ce619e3f522639fc498e77f5ef210fe444b1e78745762e511dec4b6ce9</v>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" t="str">
+        <v>main_406_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3603" t="str">
+        <v>main_406_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3603">
+        <v>41615</v>
+      </c>
+      <c r="D3603" t="str">
+        <v/>
+      </c>
+      <c r="E3603">
+        <v>1</v>
+      </c>
+      <c r="F3603" t="str">
+        <v>26b47b4f663f827a0afd4dca4ae10b707c7c571da19810548b16f2ffcdc21a95</v>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" t="str">
+        <v>main_406_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3604" t="str">
+        <v>main_406_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3604">
+        <v>31583</v>
+      </c>
+      <c r="D3604" t="str">
+        <v/>
+      </c>
+      <c r="E3604">
+        <v>1</v>
+      </c>
+      <c r="F3604" t="str">
+        <v>6585887ea2913f2d7a169249db8e3684dcd7141432a0031f3e41e81f7fcb9c77</v>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" t="str">
+        <v>main_406_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3605" t="str">
+        <v>main_406_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3605">
+        <v>48898</v>
+      </c>
+      <c r="D3605" t="str">
+        <v/>
+      </c>
+      <c r="E3605">
+        <v>1</v>
+      </c>
+      <c r="F3605" t="str">
+        <v>9bb49103a84147ce5c194549d8f109f2a811c78f06c225c3f276454af0d45b23</v>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" t="str">
+        <v>main_406_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3606" t="str">
+        <v>main_406_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3606">
+        <v>42769</v>
+      </c>
+      <c r="D3606" t="str">
+        <v/>
+      </c>
+      <c r="E3606">
+        <v>1</v>
+      </c>
+      <c r="F3606" t="str">
+        <v>3c7ad6133e77bef9b56cce71d4c875c08900e0dc32963ad117158403c916e549</v>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3607" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3607">
+        <v>14207</v>
+      </c>
+      <c r="D3607" t="str">
+        <v/>
+      </c>
+      <c r="E3607">
+        <v>1</v>
+      </c>
+      <c r="F3607" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3608" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3608">
+        <v>14239</v>
+      </c>
+      <c r="D3608" t="str">
+        <v/>
+      </c>
+      <c r="E3608">
+        <v>1</v>
+      </c>
+      <c r="F3608" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3609" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3609">
+        <v>11494</v>
+      </c>
+      <c r="D3609" t="str">
+        <v/>
+      </c>
+      <c r="E3609">
+        <v>1</v>
+      </c>
+      <c r="F3609" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3610" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3610">
+        <v>15458</v>
+      </c>
+      <c r="D3610" t="str">
+        <v/>
+      </c>
+      <c r="E3610">
+        <v>1</v>
+      </c>
+      <c r="F3610" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3611" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3611">
+        <v>14831</v>
+      </c>
+      <c r="D3611" t="str">
+        <v/>
+      </c>
+      <c r="E3611">
+        <v>1</v>
+      </c>
+      <c r="F3611" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3612" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3612">
+        <v>24991</v>
+      </c>
+      <c r="D3612" t="str">
+        <v/>
+      </c>
+      <c r="E3612">
+        <v>1</v>
+      </c>
+      <c r="F3612" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3613" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3613">
+        <v>25051</v>
+      </c>
+      <c r="D3613" t="str">
+        <v/>
+      </c>
+      <c r="E3613">
+        <v>1</v>
+      </c>
+      <c r="F3613" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3614" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3614">
+        <v>20539</v>
+      </c>
+      <c r="D3614" t="str">
+        <v/>
+      </c>
+      <c r="E3614">
+        <v>1</v>
+      </c>
+      <c r="F3614" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3615" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3615">
+        <v>28605</v>
+      </c>
+      <c r="D3615" t="str">
+        <v/>
+      </c>
+      <c r="E3615">
+        <v>1</v>
+      </c>
+      <c r="F3615" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3616">
+      <c r="A3616" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3616" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3616">
+        <v>26803</v>
+      </c>
+      <c r="D3616" t="str">
+        <v/>
+      </c>
+      <c r="E3616">
+        <v>1</v>
+      </c>
+      <c r="F3616" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3617">
+      <c r="A3617" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3617" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3617">
+        <v>38436</v>
+      </c>
+      <c r="D3617" t="str">
+        <v/>
+      </c>
+      <c r="E3617">
+        <v>1</v>
+      </c>
+      <c r="F3617" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3618">
+      <c r="A3618" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3618" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3618">
+        <v>38520</v>
+      </c>
+      <c r="D3618" t="str">
+        <v/>
+      </c>
+      <c r="E3618">
+        <v>1</v>
+      </c>
+      <c r="F3618" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3619" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3619">
+        <v>31090</v>
+      </c>
+      <c r="D3619" t="str">
+        <v/>
+      </c>
+      <c r="E3619">
+        <v>1</v>
+      </c>
+      <c r="F3619" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3620" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3620">
+        <v>42076</v>
+      </c>
+      <c r="D3620" t="str">
+        <v/>
+      </c>
+      <c r="E3620">
+        <v>1</v>
+      </c>
+      <c r="F3620" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3621" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3621">
+        <v>41121</v>
+      </c>
+      <c r="D3621" t="str">
+        <v/>
+      </c>
+      <c r="E3621">
+        <v>1</v>
+      </c>
+      <c r="F3621" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3622" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3622">
+        <v>4729</v>
+      </c>
+      <c r="D3622" t="str">
+        <v/>
+      </c>
+      <c r="E3622">
+        <v>1</v>
+      </c>
+      <c r="F3622" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3623" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3623">
+        <v>4735</v>
+      </c>
+      <c r="D3623" t="str">
+        <v/>
+      </c>
+      <c r="E3623">
+        <v>1</v>
+      </c>
+      <c r="F3623" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3624" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3624">
+        <v>3676</v>
+      </c>
+      <c r="D3624" t="str">
+        <v/>
+      </c>
+      <c r="E3624">
+        <v>1</v>
+      </c>
+      <c r="F3624" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3625" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3625">
+        <v>4777</v>
+      </c>
+      <c r="D3625" t="str">
+        <v/>
+      </c>
+      <c r="E3625">
+        <v>1</v>
+      </c>
+      <c r="F3625" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3601" t="str">
+      <c r="B3626" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3601">
+      <c r="C3626">
         <v>4424</v>
       </c>
-      <c r="D3601" t="str">
-        <v/>
-      </c>
-      <c r="E3601">
-        <v>1</v>
-      </c>
-      <c r="F3601" t="str">
+      <c r="D3626" t="str">
+        <v/>
+      </c>
+      <c r="E3626">
+        <v>1</v>
+      </c>
+      <c r="F3626" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3601"/>
+  <autoFilter ref="A1:F3626"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3601"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3626"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -72051,7 +72051,7 @@
         <v>main_406_001_dialog_english.dialog</v>
       </c>
       <c r="C3584">
-        <v>30864</v>
+        <v>30896</v>
       </c>
       <c r="D3584" t="str">
         <v/>
@@ -72060,7 +72060,7 @@
         <v>1</v>
       </c>
       <c r="F3584" t="str">
-        <v>60662505b9b02835c743cd3c1ea10ca66f7dfb0323db363893ab96a33db01c77</v>
+        <v>a8474c4b80b573bc5ac8b06d5056d93db9a173c7fc043ed59ae6bfc59138909b</v>
       </c>
     </row>
     <row r="3585">
@@ -72071,7 +72071,7 @@
         <v>main_406_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3585">
-        <v>44955</v>
+        <v>45046</v>
       </c>
       <c r="D3585" t="str">
         <v/>
@@ -72080,7 +72080,7 @@
         <v>1</v>
       </c>
       <c r="F3585" t="str">
-        <v>8ce91a937340baf302c9538cf070fde9650749654d13d1d15534a5e57aed280e</v>
+        <v>15b44d00048a639f21fc16edd22bf01b964f79bf53494940145d76949df3e3fe</v>
       </c>
     </row>
     <row r="3586">
@@ -72100,7 +72100,7 @@
         <v>1</v>
       </c>
       <c r="F3586" t="str">
-        <v>130e82dbf15583bc9be9a4e085e344ebd3a6fa426f4b190574e478c932963c2f</v>
+        <v>235d11f996149607c23d2939c3fe28f613e3c643fefa96c226143655fa54b715</v>
       </c>
     </row>
     <row r="3587">
@@ -72160,7 +72160,7 @@
         <v>1</v>
       </c>
       <c r="F3589" t="str">
-        <v>f9c4ae934e179a2a549da1eaa48c01cc9c08b9ba8cca60d7f9f73f3b14d19be8</v>
+        <v>6e31ec00d1ab38f38960430e4a0613fd6247992176b9b823b56022ad979220d9</v>
       </c>
     </row>
     <row r="3590">
@@ -72171,7 +72171,7 @@
         <v>main_406_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3590">
-        <v>60416</v>
+        <v>60442</v>
       </c>
       <c r="D3590" t="str">
         <v/>
@@ -72180,7 +72180,7 @@
         <v>1</v>
       </c>
       <c r="F3590" t="str">
-        <v>fbb1155f9d8a70b5ac5b36341e98537762fdabea50dc8aee9687b9b7ab7d7ef1</v>
+        <v>af44c13b5081b1e6635cdccbc9d33c90e680595fe2e0df8ddc5523c94c6c05fa</v>
       </c>
     </row>
     <row r="3591">
@@ -72200,7 +72200,7 @@
         <v>1</v>
       </c>
       <c r="F3591" t="str">
-        <v>e09501bbeb0e0d2a16ed5101d201afd7b3fe826d5466d379f6f977fb463da3ef</v>
+        <v>8a2f2471db90f73fcbdd71f67a33002e6e37b632950d6fb499bd8d5f692c5858</v>
       </c>
     </row>
     <row r="3592">
@@ -72271,7 +72271,7 @@
         <v>main_406_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3595">
-        <v>71146</v>
+        <v>71276</v>
       </c>
       <c r="D3595" t="str">
         <v/>
@@ -72280,7 +72280,7 @@
         <v>1</v>
       </c>
       <c r="F3595" t="str">
-        <v>391d795df140d32cc78f75e3e7ed134e9a8efd95497cd80553fb5fbc64497c87</v>
+        <v>c5d1319da5e8f3038a08f34934c38d60acc7b7ba946d44e798d5a28e83d15f54</v>
       </c>
     </row>
     <row r="3596">
@@ -72291,7 +72291,7 @@
         <v>main_406_003_dialog_korean.dialog</v>
       </c>
       <c r="C3596">
-        <v>65732</v>
+        <v>65693</v>
       </c>
       <c r="D3596" t="str">
         <v/>
@@ -72300,7 +72300,7 @@
         <v>1</v>
       </c>
       <c r="F3596" t="str">
-        <v>9a25747987bb405a996433aef613a2f5943dab7eabc07ba72c0ca5877c932c7e</v>
+        <v>a92521f88e83d314c74d358e338b343b5a6b4a01cb6f0830a388275975f76b6f</v>
       </c>
     </row>
     <row r="3597">
@@ -72360,7 +72360,7 @@
         <v>1</v>
       </c>
       <c r="F3599" t="str">
-        <v>d7670f4a7670b0ef7f656be69506019b289ad580741c3aeebf8a2bf8832f4523</v>
+        <v>56a0e4a528ae08edff1bceeea4a21467ae58380a08dc22d6e85beeeaffd67f81</v>
       </c>
     </row>
     <row r="3600">
@@ -72371,7 +72371,7 @@
         <v>main_406_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3600">
-        <v>33087</v>
+        <v>33144</v>
       </c>
       <c r="D3600" t="str">
         <v/>
@@ -72380,7 +72380,7 @@
         <v>1</v>
       </c>
       <c r="F3600" t="str">
-        <v>2f4cd9652dce814a75177d17941286f091ce90d50c1805e0d365a155bfc521eb</v>
+        <v>d0690877775442f631014a0445bdac82b53b9e3dc553f76c6f943883a4863991</v>
       </c>
     </row>
     <row r="3601">
@@ -72391,7 +72391,7 @@
         <v>main_406_004_dialog_korean.dialog</v>
       </c>
       <c r="C3601">
-        <v>30564</v>
+        <v>30574</v>
       </c>
       <c r="D3601" t="str">
         <v/>
@@ -72400,7 +72400,7 @@
         <v>1</v>
       </c>
       <c r="F3601" t="str">
-        <v>7481f4d6076e4030938dc71c106c954b6295f829893116c5d5ebbe1ac307ae72</v>
+        <v>433b826b26e556ea2817c0762b611f45a1bb71956220f3d3cadadd8c98d78296</v>
       </c>
     </row>
     <row r="3602">
@@ -72451,7 +72451,7 @@
         <v>main_406_005_dialog_english.dialog</v>
       </c>
       <c r="C3604">
-        <v>31583</v>
+        <v>31579</v>
       </c>
       <c r="D3604" t="str">
         <v/>
@@ -72460,7 +72460,7 @@
         <v>1</v>
       </c>
       <c r="F3604" t="str">
-        <v>6585887ea2913f2d7a169249db8e3684dcd7141432a0031f3e41e81f7fcb9c77</v>
+        <v>090bc5a2e645ec1940531bb48a047e1a405259f5978a7f69d6c318fff6d06643</v>
       </c>
     </row>
     <row r="3605">
@@ -72471,7 +72471,7 @@
         <v>main_406_005_dialog_japanese.dialog</v>
       </c>
       <c r="C3605">
-        <v>48898</v>
+        <v>49023</v>
       </c>
       <c r="D3605" t="str">
         <v/>
@@ -72480,7 +72480,7 @@
         <v>1</v>
       </c>
       <c r="F3605" t="str">
-        <v>9bb49103a84147ce5c194549d8f109f2a811c78f06c225c3f276454af0d45b23</v>
+        <v>c657662be5cb96e64768f030c0aae6cdd66deb1584ae83da865b4b01ef4da942</v>
       </c>
     </row>
     <row r="3606">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -37351,7 +37351,7 @@
         <v>fest_036_001_dialog_english.dialog</v>
       </c>
       <c r="C1849">
-        <v>24606</v>
+        <v>24534</v>
       </c>
       <c r="D1849" t="str">
         <v/>
@@ -37360,7 +37360,7 @@
         <v>1</v>
       </c>
       <c r="F1849" t="str">
-        <v>7500d4d35f7c793f26578c406675efa1cba45efd4853e1f2f4a6660124267b08</v>
+        <v>209f1cf7d33becf3cb8438456a504608e7585479b4d9083beb81bae83b93cba0</v>
       </c>
     </row>
     <row r="1850">
@@ -37371,7 +37371,7 @@
         <v>fest_036_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1850">
-        <v>35999</v>
+        <v>36004</v>
       </c>
       <c r="D1850" t="str">
         <v/>
@@ -37380,7 +37380,7 @@
         <v>1</v>
       </c>
       <c r="F1850" t="str">
-        <v>4418a0359a8c47544cbadb5e8402d450636fbfc41b039756e11ab293536d39c7</v>
+        <v>890e6b690e55562dfc2fcfdf5fffb13020e9e8edbfa3d32f856689a5dc820a3a</v>
       </c>
     </row>
     <row r="1851">
@@ -37400,7 +37400,7 @@
         <v>1</v>
       </c>
       <c r="F1851" t="str">
-        <v>50d827e1c940925a9d9a51681b5aae2fbb9363548a1de1bfc5a2e19df51c3f6d</v>
+        <v>44ab75aa45088c2be371a50eaf719db25170442a303e4bfa7b68005f7396ec94</v>
       </c>
     </row>
     <row r="1852">
@@ -37451,7 +37451,7 @@
         <v>fest_036_002_dialog_english.dialog</v>
       </c>
       <c r="C1854">
-        <v>34565</v>
+        <v>34555</v>
       </c>
       <c r="D1854" t="str">
         <v/>
@@ -37460,7 +37460,7 @@
         <v>1</v>
       </c>
       <c r="F1854" t="str">
-        <v>104ceb2c3618d1c74e941dddbd13a0bcf09bf4a4ff2fa56fc5e21f0293d15dc6</v>
+        <v>04526a08eef381ef0c619e01619e9660eacc57922e96433374adc5ce4b78f076</v>
       </c>
     </row>
     <row r="1855">
@@ -37471,7 +37471,7 @@
         <v>fest_036_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1855">
-        <v>52474</v>
+        <v>52391</v>
       </c>
       <c r="D1855" t="str">
         <v/>
@@ -37480,7 +37480,7 @@
         <v>1</v>
       </c>
       <c r="F1855" t="str">
-        <v>5db332ea17cff879df37349b95a736c9be0789bf0963e58577ef1a1ac1e77ae7</v>
+        <v>dc33616c14209527575b8623b8986d4676e5c46a3264ee24e7cca7cffe3922e1</v>
       </c>
     </row>
     <row r="1856">
@@ -37551,7 +37551,7 @@
         <v>fest_036_003_dialog_english.dialog</v>
       </c>
       <c r="C1859">
-        <v>40826</v>
+        <v>40820</v>
       </c>
       <c r="D1859" t="str">
         <v/>
@@ -37560,7 +37560,7 @@
         <v>1</v>
       </c>
       <c r="F1859" t="str">
-        <v>abe4485ec840725542ee5c78e22ed34e976d7fe1197af9fde73e77ceaad41934</v>
+        <v>9cd47110d2d0f8f3dae9b7eed18e3f3661b845316a578eab268cb8a8ad849d7c</v>
       </c>
     </row>
     <row r="1860">
@@ -37591,7 +37591,7 @@
         <v>fest_036_003_dialog_korean.dialog</v>
       </c>
       <c r="C1861">
-        <v>54503</v>
+        <v>54501</v>
       </c>
       <c r="D1861" t="str">
         <v/>
@@ -37600,7 +37600,7 @@
         <v>1</v>
       </c>
       <c r="F1861" t="str">
-        <v>0a9388556daefa6044abb649dfd5d0d91d85e729f8de2b36cfe86211c0531f3e</v>
+        <v>7d62ba9ff5ea39c459f38420d2dc7409bb57ae10570bd63ffcf23876076a9c80</v>
       </c>
     </row>
     <row r="1862">
@@ -37651,7 +37651,7 @@
         <v>fest_036_004_dialog_english.dialog</v>
       </c>
       <c r="C1864">
-        <v>65811</v>
+        <v>65825</v>
       </c>
       <c r="D1864" t="str">
         <v/>
@@ -37660,7 +37660,7 @@
         <v>1</v>
       </c>
       <c r="F1864" t="str">
-        <v>d5201f1316b4ad360092493210cd90cc0e6f701db7e1865b0318d91b30794128</v>
+        <v>6313130ce28e74b73d1580265f3a60967099935a5d556dc10d1422f78a40d13d</v>
       </c>
     </row>
     <row r="1865">
@@ -37671,7 +37671,7 @@
         <v>fest_036_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1865">
-        <v>98982</v>
+        <v>99073</v>
       </c>
       <c r="D1865" t="str">
         <v/>
@@ -37680,7 +37680,7 @@
         <v>1</v>
       </c>
       <c r="F1865" t="str">
-        <v>7828cdb7e92869b254c7e8f251c0b7dfaecd674e28be9e003595ea343faf663c</v>
+        <v>cd4e1bd304bc3ce1e979c7ffa4cbc4407a691263d15feef3ab86f56980c997c3</v>
       </c>
     </row>
     <row r="1866">
@@ -37691,7 +37691,7 @@
         <v>fest_036_004_dialog_korean.dialog</v>
       </c>
       <c r="C1866">
-        <v>88774</v>
+        <v>88739</v>
       </c>
       <c r="D1866" t="str">
         <v/>
@@ -37700,7 +37700,7 @@
         <v>1</v>
       </c>
       <c r="F1866" t="str">
-        <v>b0be3ea782863bd06cae3893298925d4e8ace7c2b2d330198e65f1db6612b43d</v>
+        <v>1d5767b185e78e9248a8c02e187e6b7ef8c13d004012ecbd6354f6bfebd9035b</v>
       </c>
     </row>
     <row r="1867">
@@ -37751,7 +37751,7 @@
         <v>fest_036_005_dialog_english.dialog</v>
       </c>
       <c r="C1869">
-        <v>32840</v>
+        <v>32748</v>
       </c>
       <c r="D1869" t="str">
         <v/>
@@ -37760,7 +37760,7 @@
         <v>1</v>
       </c>
       <c r="F1869" t="str">
-        <v>e13bbb80e6e212f3a345abf6bd43e5110cfdcd730d07405251026cb987f6e169</v>
+        <v>ff65e7b80bd83b07c648c90d77a5946b09aa3f0fe1656b93558e8bbc4cea83e5</v>
       </c>
     </row>
     <row r="1870">
@@ -37771,7 +37771,7 @@
         <v>fest_036_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1870">
-        <v>45886</v>
+        <v>45909</v>
       </c>
       <c r="D1870" t="str">
         <v/>
@@ -37780,7 +37780,7 @@
         <v>1</v>
       </c>
       <c r="F1870" t="str">
-        <v>8914330376aba846e2d5c15c383faf75673896043d56cc0b6bc0dd2f85dc6141</v>
+        <v>0d62c58ee80d6b0fd73dd9150f9e0f254d9ecab5cbf9f5f9363f8627a669f835</v>
       </c>
     </row>
     <row r="1871">
@@ -37791,7 +37791,7 @@
         <v>fest_036_005_dialog_korean.dialog</v>
       </c>
       <c r="C1871">
-        <v>42666</v>
+        <v>42707</v>
       </c>
       <c r="D1871" t="str">
         <v/>
@@ -37800,7 +37800,7 @@
         <v>1</v>
       </c>
       <c r="F1871" t="str">
-        <v>a17e8b7c339cc16be70b9c62d33dc22a34e5e354a745cf51c125577adf0af38f</v>
+        <v>672e58e204269f9cf655068a30d4086ec38c25b382d06df2c29cd3d3e5914aee</v>
       </c>
     </row>
     <row r="1872">
@@ -37851,7 +37851,7 @@
         <v>fest_036_006_dialog_english.dialog</v>
       </c>
       <c r="C1874">
-        <v>32505</v>
+        <v>32561</v>
       </c>
       <c r="D1874" t="str">
         <v/>
@@ -37860,7 +37860,7 @@
         <v>1</v>
       </c>
       <c r="F1874" t="str">
-        <v>aaaf2ddf7e78fa2b3fec0cf9233cf17fd6e58ab44a93e824278ceba41bcc8c46</v>
+        <v>427234238c21657b2e8675e26cefffa753756c2e51db056e96335a919329408e</v>
       </c>
     </row>
     <row r="1875">
@@ -37871,7 +37871,7 @@
         <v>fest_036_006_dialog_japanese.dialog</v>
       </c>
       <c r="C1875">
-        <v>47002</v>
+        <v>47189</v>
       </c>
       <c r="D1875" t="str">
         <v/>
@@ -37880,7 +37880,7 @@
         <v>1</v>
       </c>
       <c r="F1875" t="str">
-        <v>e77968fd45ef3524fa21ae7aca711bc352d60f43ffa8772196f3ee0b8343c58e</v>
+        <v>ece6d0eb55d9242b445beaa6513c1b3ff0ba452f99a133329dfd3c8226a7da9d</v>
       </c>
     </row>
     <row r="1876">
@@ -37891,7 +37891,7 @@
         <v>fest_036_006_dialog_korean.dialog</v>
       </c>
       <c r="C1876">
-        <v>42118</v>
+        <v>42077</v>
       </c>
       <c r="D1876" t="str">
         <v/>
@@ -37900,7 +37900,7 @@
         <v>1</v>
       </c>
       <c r="F1876" t="str">
-        <v>ad6b7ab27db16c68dffc21a41b0a0f8ead57d72bed863a695ba469329083fe8a</v>
+        <v>4a7ef9fd88841348643e070a2dcf6dd5aff37c42a11865a598c3ad4c79bb030b</v>
       </c>
     </row>
     <row r="1877">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3681</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3656"/>
+  <dimension ref="A1:F3681"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37720,7 +37720,7 @@
         <v>1</v>
       </c>
       <c r="F1867" t="str">
-        <v>e57ef752eb351cfa8226a8cbacf4aaa72f2c54d356893eaee7beb4501a66feee</v>
+        <v>e567e524dfc96c634f959ca4d446dce32e5a9f84fdaeff9a700ac56d85a54d3f</v>
       </c>
     </row>
     <row r="1868">
@@ -73105,13 +73105,13 @@
     </row>
     <row r="3637">
       <c r="A3637" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_407_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3637" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_407_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3637">
-        <v>14207</v>
+        <v>28459</v>
       </c>
       <c r="D3637" t="str">
         <v/>
@@ -73120,18 +73120,18 @@
         <v>1</v>
       </c>
       <c r="F3637" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>f941efd18e4f6bcd34b415a974eee19f86c4b3c8fb3fa366dfe6d18903dc87c4</v>
       </c>
     </row>
     <row r="3638">
       <c r="A3638" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_407_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3638" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_407_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3638">
-        <v>14239</v>
+        <v>28529</v>
       </c>
       <c r="D3638" t="str">
         <v/>
@@ -73140,18 +73140,18 @@
         <v>1</v>
       </c>
       <c r="F3638" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>4afb78115c7045bb17b2f796af8ccb5c0fed672e231e15ae37592981a0dc0d45</v>
       </c>
     </row>
     <row r="3639">
       <c r="A3639" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_407_001_dialog_english.dialog</v>
       </c>
       <c r="B3639" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_407_001_dialog_english.dialog</v>
       </c>
       <c r="C3639">
-        <v>11494</v>
+        <v>21907</v>
       </c>
       <c r="D3639" t="str">
         <v/>
@@ -73160,18 +73160,18 @@
         <v>1</v>
       </c>
       <c r="F3639" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>84a148304c27bfe02164b554883593f1337695ab6c29a37fe29c8f74af090cb5</v>
       </c>
     </row>
     <row r="3640">
       <c r="A3640" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_407_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3640" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_407_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3640">
-        <v>15458</v>
+        <v>34371</v>
       </c>
       <c r="D3640" t="str">
         <v/>
@@ -73180,18 +73180,18 @@
         <v>1</v>
       </c>
       <c r="F3640" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>4fea384f0de529a0d4972edb209ae24e7c5e1f7c556e81dbb0919e01e7ac43c4</v>
       </c>
     </row>
     <row r="3641">
       <c r="A3641" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_407_001_dialog_korean.dialog</v>
       </c>
       <c r="B3641" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_407_001_dialog_korean.dialog</v>
       </c>
       <c r="C3641">
-        <v>14831</v>
+        <v>30834</v>
       </c>
       <c r="D3641" t="str">
         <v/>
@@ -73200,18 +73200,18 @@
         <v>1</v>
       </c>
       <c r="F3641" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>478c66e5548ef084c1704baf58ff19127e20b7078ea7f763cc66d168659eb3a4</v>
       </c>
     </row>
     <row r="3642">
       <c r="A3642" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_407_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3642" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_407_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3642">
-        <v>24991</v>
+        <v>42754</v>
       </c>
       <c r="D3642" t="str">
         <v/>
@@ -73220,18 +73220,18 @@
         <v>1</v>
       </c>
       <c r="F3642" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>abfca79c9a85f9bf66c93270256b03e99ee14f3298a18446be3fcb4b3b0b86a6</v>
       </c>
     </row>
     <row r="3643">
       <c r="A3643" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_407_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3643" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_407_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3643">
-        <v>25051</v>
+        <v>42858</v>
       </c>
       <c r="D3643" t="str">
         <v/>
@@ -73240,18 +73240,18 @@
         <v>1</v>
       </c>
       <c r="F3643" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>65d179438ed2eeb809e1c5b1914a1a1f2e61dfa57225eac73269ee1f1202561d</v>
       </c>
     </row>
     <row r="3644">
       <c r="A3644" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_407_002_dialog_english.dialog</v>
       </c>
       <c r="B3644" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_407_002_dialog_english.dialog</v>
       </c>
       <c r="C3644">
-        <v>20539</v>
+        <v>32831</v>
       </c>
       <c r="D3644" t="str">
         <v/>
@@ -73260,18 +73260,18 @@
         <v>1</v>
       </c>
       <c r="F3644" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>6c25dbc0483bcea8aa94015019ec098b9cc218745c8c7010227433b85d382121</v>
       </c>
     </row>
     <row r="3645">
       <c r="A3645" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_407_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3645" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_407_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3645">
-        <v>28605</v>
+        <v>52392</v>
       </c>
       <c r="D3645" t="str">
         <v/>
@@ -73280,18 +73280,18 @@
         <v>1</v>
       </c>
       <c r="F3645" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>64335e8f5702a5c43bc6b30cf6a01837433df57cd75c10c9595610d185119d53</v>
       </c>
     </row>
     <row r="3646">
       <c r="A3646" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_407_002_dialog_korean.dialog</v>
       </c>
       <c r="B3646" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_407_002_dialog_korean.dialog</v>
       </c>
       <c r="C3646">
-        <v>26803</v>
+        <v>45093</v>
       </c>
       <c r="D3646" t="str">
         <v/>
@@ -73300,18 +73300,18 @@
         <v>1</v>
       </c>
       <c r="F3646" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>3b02c9d9784472f478b6393524d6344ddbcd535129449ab95a66a4aba56a85c1</v>
       </c>
     </row>
     <row r="3647">
       <c r="A3647" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_407_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3647" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_407_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3647">
-        <v>38436</v>
+        <v>38234</v>
       </c>
       <c r="D3647" t="str">
         <v/>
@@ -73320,18 +73320,18 @@
         <v>1</v>
       </c>
       <c r="F3647" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>642b420d1ba929e9f4c7b76c9002fd48355bf0dd7e3822da37b5fc068c55f7a2</v>
       </c>
     </row>
     <row r="3648">
       <c r="A3648" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_407_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3648" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_407_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3648">
-        <v>38520</v>
+        <v>38324</v>
       </c>
       <c r="D3648" t="str">
         <v/>
@@ -73340,18 +73340,18 @@
         <v>1</v>
       </c>
       <c r="F3648" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>4f81360a261b26570a1440a5b9ccfbe6fbd18b52fd3b8347fdb523ab5ba16539</v>
       </c>
     </row>
     <row r="3649">
       <c r="A3649" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_407_003_dialog_english.dialog</v>
       </c>
       <c r="B3649" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_407_003_dialog_english.dialog</v>
       </c>
       <c r="C3649">
-        <v>31090</v>
+        <v>29084</v>
       </c>
       <c r="D3649" t="str">
         <v/>
@@ -73360,18 +73360,18 @@
         <v>1</v>
       </c>
       <c r="F3649" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>d3ba763e6759725c0feeb0aafbe0c1b095d10c252d1ad4585e0cbf32dee71a88</v>
       </c>
     </row>
     <row r="3650">
       <c r="A3650" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_407_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3650" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_407_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3650">
-        <v>42076</v>
+        <v>42786</v>
       </c>
       <c r="D3650" t="str">
         <v/>
@@ -73380,18 +73380,18 @@
         <v>1</v>
       </c>
       <c r="F3650" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>cb54338495c950a795c51b581f05758b4ea8bd93e618092dc0ba568732e48d92</v>
       </c>
     </row>
     <row r="3651">
       <c r="A3651" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_407_003_dialog_korean.dialog</v>
       </c>
       <c r="B3651" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_407_003_dialog_korean.dialog</v>
       </c>
       <c r="C3651">
-        <v>41121</v>
+        <v>38400</v>
       </c>
       <c r="D3651" t="str">
         <v/>
@@ -73400,18 +73400,18 @@
         <v>1</v>
       </c>
       <c r="F3651" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>de5b279f4abc20c10abdf83dc63d3a4cd29b5abfb96281db231a3587390c59a6</v>
       </c>
     </row>
     <row r="3652">
       <c r="A3652" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_407_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3652" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_407_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3652">
-        <v>4729</v>
+        <v>23474</v>
       </c>
       <c r="D3652" t="str">
         <v/>
@@ -73420,18 +73420,18 @@
         <v>1</v>
       </c>
       <c r="F3652" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>e60b2c362e5fc492f6ecdbf09acfeb4f48604d0fd84a7255e9c46a9559e97da1</v>
       </c>
     </row>
     <row r="3653">
       <c r="A3653" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_407_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3653" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_407_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3653">
-        <v>4735</v>
+        <v>23548</v>
       </c>
       <c r="D3653" t="str">
         <v/>
@@ -73440,18 +73440,18 @@
         <v>1</v>
       </c>
       <c r="F3653" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>af7e3cde6c51730afde39c52ce8802a6d7275d83e80a75c06ae9b1916fbaf166</v>
       </c>
     </row>
     <row r="3654">
       <c r="A3654" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_407_004_dialog_english.dialog</v>
       </c>
       <c r="B3654" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_407_004_dialog_english.dialog</v>
       </c>
       <c r="C3654">
-        <v>3676</v>
+        <v>19232</v>
       </c>
       <c r="D3654" t="str">
         <v/>
@@ -73460,18 +73460,18 @@
         <v>1</v>
       </c>
       <c r="F3654" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>93045e86cbc67c5307e7cdaeccb94b9a14b95b4fdc105e59336c8fe3e00c6d00</v>
       </c>
     </row>
     <row r="3655">
       <c r="A3655" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_407_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3655" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_407_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3655">
-        <v>4777</v>
+        <v>26083</v>
       </c>
       <c r="D3655" t="str">
         <v/>
@@ -73480,33 +73480,533 @@
         <v>1</v>
       </c>
       <c r="F3655" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>a5338e4dd006125252615ce8f7be8e66fb9ac2e7ea24831b51ce10f495305a37</v>
       </c>
     </row>
     <row r="3656">
       <c r="A3656" t="str">
+        <v>main_407_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3656" t="str">
+        <v>main_407_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3656">
+        <v>23726</v>
+      </c>
+      <c r="D3656" t="str">
+        <v/>
+      </c>
+      <c r="E3656">
+        <v>1</v>
+      </c>
+      <c r="F3656" t="str">
+        <v>38065c4eab2012ad64d9205e19873020ce18b7bfb60ee61d5b7e761da5554f96</v>
+      </c>
+    </row>
+    <row r="3657">
+      <c r="A3657" t="str">
+        <v>main_407_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3657" t="str">
+        <v>main_407_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3657">
+        <v>54525</v>
+      </c>
+      <c r="D3657" t="str">
+        <v/>
+      </c>
+      <c r="E3657">
+        <v>1</v>
+      </c>
+      <c r="F3657" t="str">
+        <v>d37fbd980bf60b372a156d0c53956d0e64c20883b6570e6db13c0760a7165088</v>
+      </c>
+    </row>
+    <row r="3658">
+      <c r="A3658" t="str">
+        <v>main_407_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3658" t="str">
+        <v>main_407_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3658">
+        <v>54641</v>
+      </c>
+      <c r="D3658" t="str">
+        <v/>
+      </c>
+      <c r="E3658">
+        <v>1</v>
+      </c>
+      <c r="F3658" t="str">
+        <v>2834bc4bf0fc7316defa822089c3af3ae589a50dc35c8f3bb6b6423440522c90</v>
+      </c>
+    </row>
+    <row r="3659">
+      <c r="A3659" t="str">
+        <v>main_407_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3659" t="str">
+        <v>main_407_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3659">
+        <v>41528</v>
+      </c>
+      <c r="D3659" t="str">
+        <v/>
+      </c>
+      <c r="E3659">
+        <v>1</v>
+      </c>
+      <c r="F3659" t="str">
+        <v>d10a70644045a5844897797d81c24a7bc6de38c3e49a8e74ecb647a78e76a922</v>
+      </c>
+    </row>
+    <row r="3660">
+      <c r="A3660" t="str">
+        <v>main_407_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3660" t="str">
+        <v>main_407_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3660">
+        <v>64066</v>
+      </c>
+      <c r="D3660" t="str">
+        <v/>
+      </c>
+      <c r="E3660">
+        <v>1</v>
+      </c>
+      <c r="F3660" t="str">
+        <v>b8088ea980dbbe67b8f505d53e6583c37549ad99e521ace09aa049b336e904ba</v>
+      </c>
+    </row>
+    <row r="3661">
+      <c r="A3661" t="str">
+        <v>main_407_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3661" t="str">
+        <v>main_407_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3661">
+        <v>57060</v>
+      </c>
+      <c r="D3661" t="str">
+        <v/>
+      </c>
+      <c r="E3661">
+        <v>1</v>
+      </c>
+      <c r="F3661" t="str">
+        <v>7f27701e74708217793883695d314c35f457a6bc06c83c4a7316edc7e7101a8f</v>
+      </c>
+    </row>
+    <row r="3662">
+      <c r="A3662" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3662" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3662">
+        <v>14207</v>
+      </c>
+      <c r="D3662" t="str">
+        <v/>
+      </c>
+      <c r="E3662">
+        <v>1</v>
+      </c>
+      <c r="F3662" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3663">
+      <c r="A3663" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3663" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3663">
+        <v>14239</v>
+      </c>
+      <c r="D3663" t="str">
+        <v/>
+      </c>
+      <c r="E3663">
+        <v>1</v>
+      </c>
+      <c r="F3663" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3664" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3664">
+        <v>11494</v>
+      </c>
+      <c r="D3664" t="str">
+        <v/>
+      </c>
+      <c r="E3664">
+        <v>1</v>
+      </c>
+      <c r="F3664" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3665" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3665">
+        <v>15458</v>
+      </c>
+      <c r="D3665" t="str">
+        <v/>
+      </c>
+      <c r="E3665">
+        <v>1</v>
+      </c>
+      <c r="F3665" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3666" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3666">
+        <v>14831</v>
+      </c>
+      <c r="D3666" t="str">
+        <v/>
+      </c>
+      <c r="E3666">
+        <v>1</v>
+      </c>
+      <c r="F3666" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3667" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3667">
+        <v>24991</v>
+      </c>
+      <c r="D3667" t="str">
+        <v/>
+      </c>
+      <c r="E3667">
+        <v>1</v>
+      </c>
+      <c r="F3667" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3668" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3668">
+        <v>25051</v>
+      </c>
+      <c r="D3668" t="str">
+        <v/>
+      </c>
+      <c r="E3668">
+        <v>1</v>
+      </c>
+      <c r="F3668" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3669" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3669">
+        <v>20539</v>
+      </c>
+      <c r="D3669" t="str">
+        <v/>
+      </c>
+      <c r="E3669">
+        <v>1</v>
+      </c>
+      <c r="F3669" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3670" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3670">
+        <v>28605</v>
+      </c>
+      <c r="D3670" t="str">
+        <v/>
+      </c>
+      <c r="E3670">
+        <v>1</v>
+      </c>
+      <c r="F3670" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3671" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3671">
+        <v>26803</v>
+      </c>
+      <c r="D3671" t="str">
+        <v/>
+      </c>
+      <c r="E3671">
+        <v>1</v>
+      </c>
+      <c r="F3671" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3672" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3672">
+        <v>38436</v>
+      </c>
+      <c r="D3672" t="str">
+        <v/>
+      </c>
+      <c r="E3672">
+        <v>1</v>
+      </c>
+      <c r="F3672" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3673" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3673">
+        <v>38520</v>
+      </c>
+      <c r="D3673" t="str">
+        <v/>
+      </c>
+      <c r="E3673">
+        <v>1</v>
+      </c>
+      <c r="F3673" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3674">
+      <c r="A3674" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3674" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3674">
+        <v>31090</v>
+      </c>
+      <c r="D3674" t="str">
+        <v/>
+      </c>
+      <c r="E3674">
+        <v>1</v>
+      </c>
+      <c r="F3674" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3675">
+      <c r="A3675" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3675" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3675">
+        <v>42076</v>
+      </c>
+      <c r="D3675" t="str">
+        <v/>
+      </c>
+      <c r="E3675">
+        <v>1</v>
+      </c>
+      <c r="F3675" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3676">
+      <c r="A3676" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3676" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3676">
+        <v>41121</v>
+      </c>
+      <c r="D3676" t="str">
+        <v/>
+      </c>
+      <c r="E3676">
+        <v>1</v>
+      </c>
+      <c r="F3676" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3677">
+      <c r="A3677" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3677" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3677">
+        <v>4729</v>
+      </c>
+      <c r="D3677" t="str">
+        <v/>
+      </c>
+      <c r="E3677">
+        <v>1</v>
+      </c>
+      <c r="F3677" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3678">
+      <c r="A3678" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3678" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3678">
+        <v>4735</v>
+      </c>
+      <c r="D3678" t="str">
+        <v/>
+      </c>
+      <c r="E3678">
+        <v>1</v>
+      </c>
+      <c r="F3678" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3679">
+      <c r="A3679" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3679" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3679">
+        <v>3676</v>
+      </c>
+      <c r="D3679" t="str">
+        <v/>
+      </c>
+      <c r="E3679">
+        <v>1</v>
+      </c>
+      <c r="F3679" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3680">
+      <c r="A3680" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3680" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3680">
+        <v>4777</v>
+      </c>
+      <c r="D3680" t="str">
+        <v/>
+      </c>
+      <c r="E3680">
+        <v>1</v>
+      </c>
+      <c r="F3680" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3681">
+      <c r="A3681" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3656" t="str">
+      <c r="B3681" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3656">
+      <c r="C3681">
         <v>4424</v>
       </c>
-      <c r="D3656" t="str">
-        <v/>
-      </c>
-      <c r="E3656">
-        <v>1</v>
-      </c>
-      <c r="F3656" t="str">
+      <c r="D3681" t="str">
+        <v/>
+      </c>
+      <c r="E3681">
+        <v>1</v>
+      </c>
+      <c r="F3681" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3656"/>
+  <autoFilter ref="A1:F3681"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3656"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3681"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3871</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3896</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3871"/>
+  <dimension ref="A1:F3896"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -77405,13 +77405,13 @@
     </row>
     <row r="3852">
       <c r="A3852" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_409_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3852" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_409_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3852">
-        <v>14207</v>
+        <v>62526</v>
       </c>
       <c r="D3852" t="str">
         <v/>
@@ -77420,18 +77420,18 @@
         <v>1</v>
       </c>
       <c r="F3852" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>f3e25760c7fb13f4e7574e458ccfb3d1aabb9ae7db053fa740c8ad72d00e43d6</v>
       </c>
     </row>
     <row r="3853">
       <c r="A3853" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_409_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3853" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_409_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3853">
-        <v>14239</v>
+        <v>62676</v>
       </c>
       <c r="D3853" t="str">
         <v/>
@@ -77440,18 +77440,18 @@
         <v>1</v>
       </c>
       <c r="F3853" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>f7190d5b2ca10430665b69f24c6b991b631db6959322eed64e179605cc5f9db1</v>
       </c>
     </row>
     <row r="3854">
       <c r="A3854" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_409_001_dialog_english.dialog</v>
       </c>
       <c r="B3854" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_409_001_dialog_english.dialog</v>
       </c>
       <c r="C3854">
-        <v>11494</v>
+        <v>48797</v>
       </c>
       <c r="D3854" t="str">
         <v/>
@@ -77460,18 +77460,18 @@
         <v>1</v>
       </c>
       <c r="F3854" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>bd73e58b267a2ef7215ad02fc3d0f02ea6139c950fe6921ca6c39520f89e21ae</v>
       </c>
     </row>
     <row r="3855">
       <c r="A3855" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_409_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3855" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_409_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3855">
-        <v>15458</v>
+        <v>71833</v>
       </c>
       <c r="D3855" t="str">
         <v/>
@@ -77480,18 +77480,18 @@
         <v>1</v>
       </c>
       <c r="F3855" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>a1b4717153ed1f70d74023b644538a08d99e09ce1164f28d792c0a9bf2891012</v>
       </c>
     </row>
     <row r="3856">
       <c r="A3856" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_409_001_dialog_korean.dialog</v>
       </c>
       <c r="B3856" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_409_001_dialog_korean.dialog</v>
       </c>
       <c r="C3856">
-        <v>14831</v>
+        <v>65157</v>
       </c>
       <c r="D3856" t="str">
         <v/>
@@ -77500,18 +77500,18 @@
         <v>1</v>
       </c>
       <c r="F3856" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>5c219a624d501425040d178f56018a42aa0bc55efdcfef828198a3384a1939da</v>
       </c>
     </row>
     <row r="3857">
       <c r="A3857" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_409_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3857" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_409_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3857">
-        <v>24991</v>
+        <v>47424</v>
       </c>
       <c r="D3857" t="str">
         <v/>
@@ -77520,18 +77520,18 @@
         <v>1</v>
       </c>
       <c r="F3857" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>886d6c00d24b6850a92f6cb8ccb26e9d0c0e711dfcfd1f773b994f01274a8f65</v>
       </c>
     </row>
     <row r="3858">
       <c r="A3858" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_409_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3858" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_409_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3858">
-        <v>25051</v>
+        <v>47514</v>
       </c>
       <c r="D3858" t="str">
         <v/>
@@ -77540,18 +77540,18 @@
         <v>1</v>
       </c>
       <c r="F3858" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>3bc5acf132ed3e6505983ffe94e979f7bc23f560e7fc7ce3d3a96579771117b2</v>
       </c>
     </row>
     <row r="3859">
       <c r="A3859" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_409_002_dialog_english.dialog</v>
       </c>
       <c r="B3859" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_409_002_dialog_english.dialog</v>
       </c>
       <c r="C3859">
-        <v>20539</v>
+        <v>36969</v>
       </c>
       <c r="D3859" t="str">
         <v/>
@@ -77560,18 +77560,18 @@
         <v>1</v>
       </c>
       <c r="F3859" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>05b23fb02f8ba12b1a65f00fcca7caa82445f01dd57fd3ceded8c7bcf690224d</v>
       </c>
     </row>
     <row r="3860">
       <c r="A3860" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_409_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3860" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_409_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3860">
-        <v>28605</v>
+        <v>54653</v>
       </c>
       <c r="D3860" t="str">
         <v/>
@@ -77580,18 +77580,18 @@
         <v>1</v>
       </c>
       <c r="F3860" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>a81e4ddd3ebaee2f2dc4a552f284c9da03bb33ad771bb4e976b170dd7756e47e</v>
       </c>
     </row>
     <row r="3861">
       <c r="A3861" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_409_002_dialog_korean.dialog</v>
       </c>
       <c r="B3861" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_409_002_dialog_korean.dialog</v>
       </c>
       <c r="C3861">
-        <v>26803</v>
+        <v>49230</v>
       </c>
       <c r="D3861" t="str">
         <v/>
@@ -77600,18 +77600,18 @@
         <v>1</v>
       </c>
       <c r="F3861" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>3cafa1ff8d94828a006e43f8cbaaa96fe37b04715ca3dde3cb57b571f68e9c7a</v>
       </c>
     </row>
     <row r="3862">
       <c r="A3862" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_409_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3862" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_409_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3862">
-        <v>38436</v>
+        <v>50236</v>
       </c>
       <c r="D3862" t="str">
         <v/>
@@ -77620,18 +77620,18 @@
         <v>1</v>
       </c>
       <c r="F3862" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>cbe51ddbedfb459cb6eff1d3c0e6d58e50367e0d0ecf975ac5f2cb9b40bed08e</v>
       </c>
     </row>
     <row r="3863">
       <c r="A3863" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_409_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3863" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_409_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3863">
-        <v>38520</v>
+        <v>50376</v>
       </c>
       <c r="D3863" t="str">
         <v/>
@@ -77640,18 +77640,18 @@
         <v>1</v>
       </c>
       <c r="F3863" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>ba927eaf49e21023e8be4afa0f586768bff70b2038fea493c2334fb10a206a0f</v>
       </c>
     </row>
     <row r="3864">
       <c r="A3864" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_409_003_dialog_english.dialog</v>
       </c>
       <c r="B3864" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_409_003_dialog_english.dialog</v>
       </c>
       <c r="C3864">
-        <v>31090</v>
+        <v>39732</v>
       </c>
       <c r="D3864" t="str">
         <v/>
@@ -77660,18 +77660,18 @@
         <v>1</v>
       </c>
       <c r="F3864" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>f47be12bcf8cc4196bf213861e08e57a2c2cca625bcd018191950afd58242946</v>
       </c>
     </row>
     <row r="3865">
       <c r="A3865" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_409_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3865" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_409_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3865">
-        <v>42076</v>
+        <v>57976</v>
       </c>
       <c r="D3865" t="str">
         <v/>
@@ -77680,18 +77680,18 @@
         <v>1</v>
       </c>
       <c r="F3865" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>7c61bff57f787031d61ccae362a5a3d10fc8d17314b970933fffc117e5a05a2b</v>
       </c>
     </row>
     <row r="3866">
       <c r="A3866" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_409_003_dialog_korean.dialog</v>
       </c>
       <c r="B3866" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_409_003_dialog_korean.dialog</v>
       </c>
       <c r="C3866">
-        <v>41121</v>
+        <v>53829</v>
       </c>
       <c r="D3866" t="str">
         <v/>
@@ -77700,18 +77700,18 @@
         <v>1</v>
       </c>
       <c r="F3866" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>8d447c4b9358cf8e8740644f19cf89366d411111897b85da86ed0e4b52ef6373</v>
       </c>
     </row>
     <row r="3867">
       <c r="A3867" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_409_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3867" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_409_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3867">
-        <v>4729</v>
+        <v>48520</v>
       </c>
       <c r="D3867" t="str">
         <v/>
@@ -77720,18 +77720,18 @@
         <v>1</v>
       </c>
       <c r="F3867" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>b86dd75ce5b0565ac1a36787e943b5021a78383dc17e38de468771ff9b5df5e9</v>
       </c>
     </row>
     <row r="3868">
       <c r="A3868" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_409_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3868" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_409_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3868">
-        <v>4735</v>
+        <v>48642</v>
       </c>
       <c r="D3868" t="str">
         <v/>
@@ -77740,18 +77740,18 @@
         <v>1</v>
       </c>
       <c r="F3868" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>8cbbeb4382889a367db802a504b4de2fe8860c151c9568a055fc0e305559e930</v>
       </c>
     </row>
     <row r="3869">
       <c r="A3869" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_409_004_dialog_english.dialog</v>
       </c>
       <c r="B3869" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_409_004_dialog_english.dialog</v>
       </c>
       <c r="C3869">
-        <v>3676</v>
+        <v>37484</v>
       </c>
       <c r="D3869" t="str">
         <v/>
@@ -77760,18 +77760,18 @@
         <v>1</v>
       </c>
       <c r="F3869" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>fdc6fd7163af41add8e250ae54dadcd55908afcc143de0f53909029696cdf46d</v>
       </c>
     </row>
     <row r="3870">
       <c r="A3870" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_409_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3870" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_409_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3870">
-        <v>4777</v>
+        <v>55480</v>
       </c>
       <c r="D3870" t="str">
         <v/>
@@ -77780,33 +77780,533 @@
         <v>1</v>
       </c>
       <c r="F3870" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>3dbde0d8c35aa412bd966ba499247e0acfc57f79e15a4f68794809499207f160</v>
       </c>
     </row>
     <row r="3871">
       <c r="A3871" t="str">
+        <v>main_409_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3871" t="str">
+        <v>main_409_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3871">
+        <v>51527</v>
+      </c>
+      <c r="D3871" t="str">
+        <v/>
+      </c>
+      <c r="E3871">
+        <v>1</v>
+      </c>
+      <c r="F3871" t="str">
+        <v>d8c48ff82bb137224c4b4070eeb3fe67e2e7e8b627814ea1edefd102130a45ee</v>
+      </c>
+    </row>
+    <row r="3872">
+      <c r="A3872" t="str">
+        <v>main_409_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3872" t="str">
+        <v>main_409_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3872">
+        <v>35682</v>
+      </c>
+      <c r="D3872" t="str">
+        <v/>
+      </c>
+      <c r="E3872">
+        <v>1</v>
+      </c>
+      <c r="F3872" t="str">
+        <v>0c18481953e3a26aba3384f34a031b32a31e527559ee97d2ac46d04d792e11b3</v>
+      </c>
+    </row>
+    <row r="3873">
+      <c r="A3873" t="str">
+        <v>main_409_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3873" t="str">
+        <v>main_409_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3873">
+        <v>35762</v>
+      </c>
+      <c r="D3873" t="str">
+        <v/>
+      </c>
+      <c r="E3873">
+        <v>1</v>
+      </c>
+      <c r="F3873" t="str">
+        <v>724fdbdb17462384b6cfb62b4f82f04e1e03be17f626244b770bd6674d38cc75</v>
+      </c>
+    </row>
+    <row r="3874">
+      <c r="A3874" t="str">
+        <v>main_409_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3874" t="str">
+        <v>main_409_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3874">
+        <v>26937</v>
+      </c>
+      <c r="D3874" t="str">
+        <v/>
+      </c>
+      <c r="E3874">
+        <v>1</v>
+      </c>
+      <c r="F3874" t="str">
+        <v>d911a6f4c8b50805e50a23077cee3a6c975005dab4908b8826f50ca35322f127</v>
+      </c>
+    </row>
+    <row r="3875">
+      <c r="A3875" t="str">
+        <v>main_409_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3875" t="str">
+        <v>main_409_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3875">
+        <v>40965</v>
+      </c>
+      <c r="D3875" t="str">
+        <v/>
+      </c>
+      <c r="E3875">
+        <v>1</v>
+      </c>
+      <c r="F3875" t="str">
+        <v>94206989afb2760d453ffce8c1af0ef63c00e027cdeab13c380c2d5a5a19df0b</v>
+      </c>
+    </row>
+    <row r="3876">
+      <c r="A3876" t="str">
+        <v>main_409_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3876" t="str">
+        <v>main_409_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3876">
+        <v>37265</v>
+      </c>
+      <c r="D3876" t="str">
+        <v/>
+      </c>
+      <c r="E3876">
+        <v>1</v>
+      </c>
+      <c r="F3876" t="str">
+        <v>1a3b348e63fd5b3d68298c0162cac08fd6d54ee5ecfaa2befe40980b0d3ed240</v>
+      </c>
+    </row>
+    <row r="3877">
+      <c r="A3877" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3877" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3877">
+        <v>14207</v>
+      </c>
+      <c r="D3877" t="str">
+        <v/>
+      </c>
+      <c r="E3877">
+        <v>1</v>
+      </c>
+      <c r="F3877" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3878">
+      <c r="A3878" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3878" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3878">
+        <v>14239</v>
+      </c>
+      <c r="D3878" t="str">
+        <v/>
+      </c>
+      <c r="E3878">
+        <v>1</v>
+      </c>
+      <c r="F3878" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3879">
+      <c r="A3879" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3879" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3879">
+        <v>11494</v>
+      </c>
+      <c r="D3879" t="str">
+        <v/>
+      </c>
+      <c r="E3879">
+        <v>1</v>
+      </c>
+      <c r="F3879" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3880">
+      <c r="A3880" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3880" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3880">
+        <v>15458</v>
+      </c>
+      <c r="D3880" t="str">
+        <v/>
+      </c>
+      <c r="E3880">
+        <v>1</v>
+      </c>
+      <c r="F3880" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3881">
+      <c r="A3881" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3881" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3881">
+        <v>14831</v>
+      </c>
+      <c r="D3881" t="str">
+        <v/>
+      </c>
+      <c r="E3881">
+        <v>1</v>
+      </c>
+      <c r="F3881" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3882">
+      <c r="A3882" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3882" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3882">
+        <v>24991</v>
+      </c>
+      <c r="D3882" t="str">
+        <v/>
+      </c>
+      <c r="E3882">
+        <v>1</v>
+      </c>
+      <c r="F3882" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3883">
+      <c r="A3883" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3883" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3883">
+        <v>25051</v>
+      </c>
+      <c r="D3883" t="str">
+        <v/>
+      </c>
+      <c r="E3883">
+        <v>1</v>
+      </c>
+      <c r="F3883" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3884">
+      <c r="A3884" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3884" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3884">
+        <v>20539</v>
+      </c>
+      <c r="D3884" t="str">
+        <v/>
+      </c>
+      <c r="E3884">
+        <v>1</v>
+      </c>
+      <c r="F3884" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3885">
+      <c r="A3885" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3885" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3885">
+        <v>28605</v>
+      </c>
+      <c r="D3885" t="str">
+        <v/>
+      </c>
+      <c r="E3885">
+        <v>1</v>
+      </c>
+      <c r="F3885" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3886">
+      <c r="A3886" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3886" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3886">
+        <v>26803</v>
+      </c>
+      <c r="D3886" t="str">
+        <v/>
+      </c>
+      <c r="E3886">
+        <v>1</v>
+      </c>
+      <c r="F3886" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3887">
+      <c r="A3887" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3887" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3887">
+        <v>38436</v>
+      </c>
+      <c r="D3887" t="str">
+        <v/>
+      </c>
+      <c r="E3887">
+        <v>1</v>
+      </c>
+      <c r="F3887" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3888">
+      <c r="A3888" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3888" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3888">
+        <v>38520</v>
+      </c>
+      <c r="D3888" t="str">
+        <v/>
+      </c>
+      <c r="E3888">
+        <v>1</v>
+      </c>
+      <c r="F3888" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3889">
+      <c r="A3889" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3889" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3889">
+        <v>31090</v>
+      </c>
+      <c r="D3889" t="str">
+        <v/>
+      </c>
+      <c r="E3889">
+        <v>1</v>
+      </c>
+      <c r="F3889" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3890">
+      <c r="A3890" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3890" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3890">
+        <v>42076</v>
+      </c>
+      <c r="D3890" t="str">
+        <v/>
+      </c>
+      <c r="E3890">
+        <v>1</v>
+      </c>
+      <c r="F3890" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3891">
+      <c r="A3891" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3891" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3891">
+        <v>41121</v>
+      </c>
+      <c r="D3891" t="str">
+        <v/>
+      </c>
+      <c r="E3891">
+        <v>1</v>
+      </c>
+      <c r="F3891" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3892">
+      <c r="A3892" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3892" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3892">
+        <v>4729</v>
+      </c>
+      <c r="D3892" t="str">
+        <v/>
+      </c>
+      <c r="E3892">
+        <v>1</v>
+      </c>
+      <c r="F3892" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3893">
+      <c r="A3893" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3893" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3893">
+        <v>4735</v>
+      </c>
+      <c r="D3893" t="str">
+        <v/>
+      </c>
+      <c r="E3893">
+        <v>1</v>
+      </c>
+      <c r="F3893" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3894">
+      <c r="A3894" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3894" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3894">
+        <v>3676</v>
+      </c>
+      <c r="D3894" t="str">
+        <v/>
+      </c>
+      <c r="E3894">
+        <v>1</v>
+      </c>
+      <c r="F3894" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3895">
+      <c r="A3895" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3895" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3895">
+        <v>4777</v>
+      </c>
+      <c r="D3895" t="str">
+        <v/>
+      </c>
+      <c r="E3895">
+        <v>1</v>
+      </c>
+      <c r="F3895" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3896">
+      <c r="A3896" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3871" t="str">
+      <c r="B3896" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3871">
+      <c r="C3896">
         <v>4424</v>
       </c>
-      <c r="D3871" t="str">
-        <v/>
-      </c>
-      <c r="E3871">
-        <v>1</v>
-      </c>
-      <c r="F3871" t="str">
+      <c r="D3896" t="str">
+        <v/>
+      </c>
+      <c r="E3896">
+        <v>1</v>
+      </c>
+      <c r="F3896" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3871"/>
+  <autoFilter ref="A1:F3896"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3871"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3896"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -77451,7 +77451,7 @@
         <v>main_409_001_dialog_english.dialog</v>
       </c>
       <c r="C3854">
-        <v>48797</v>
+        <v>48795</v>
       </c>
       <c r="D3854" t="str">
         <v/>
@@ -77460,7 +77460,7 @@
         <v>1</v>
       </c>
       <c r="F3854" t="str">
-        <v>bd73e58b267a2ef7215ad02fc3d0f02ea6139c950fe6921ca6c39520f89e21ae</v>
+        <v>33ff4ec1f77fb15d54b5b4c458295b396333c7fedead4be8979c09e1559f5688</v>
       </c>
     </row>
     <row r="3855">
@@ -77471,7 +77471,7 @@
         <v>main_409_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3855">
-        <v>71833</v>
+        <v>71864</v>
       </c>
       <c r="D3855" t="str">
         <v/>
@@ -77480,7 +77480,7 @@
         <v>1</v>
       </c>
       <c r="F3855" t="str">
-        <v>a1b4717153ed1f70d74023b644538a08d99e09ce1164f28d792c0a9bf2891012</v>
+        <v>1b52bd2294fb6c9615d82dfdd7f1a2520df191fab48305601857cce473ccfcbd</v>
       </c>
     </row>
     <row r="3856">
@@ -77491,7 +77491,7 @@
         <v>main_409_001_dialog_korean.dialog</v>
       </c>
       <c r="C3856">
-        <v>65157</v>
+        <v>65075</v>
       </c>
       <c r="D3856" t="str">
         <v/>
@@ -77500,7 +77500,7 @@
         <v>1</v>
       </c>
       <c r="F3856" t="str">
-        <v>5c219a624d501425040d178f56018a42aa0bc55efdcfef828198a3384a1939da</v>
+        <v>f3e92c6eb58c901b4d0340e7c10fabcdde798e158c488b5cf8f640c49fd3dbf7</v>
       </c>
     </row>
     <row r="3857">
@@ -77551,7 +77551,7 @@
         <v>main_409_002_dialog_english.dialog</v>
       </c>
       <c r="C3859">
-        <v>36969</v>
+        <v>36915</v>
       </c>
       <c r="D3859" t="str">
         <v/>
@@ -77560,7 +77560,7 @@
         <v>1</v>
       </c>
       <c r="F3859" t="str">
-        <v>05b23fb02f8ba12b1a65f00fcca7caa82445f01dd57fd3ceded8c7bcf690224d</v>
+        <v>eb3bbde8264f51548c515d2dda2023c3659f3c761772e868b4302a91eb184f7f</v>
       </c>
     </row>
     <row r="3860">
@@ -77571,7 +77571,7 @@
         <v>main_409_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3860">
-        <v>54653</v>
+        <v>54788</v>
       </c>
       <c r="D3860" t="str">
         <v/>
@@ -77580,7 +77580,7 @@
         <v>1</v>
       </c>
       <c r="F3860" t="str">
-        <v>a81e4ddd3ebaee2f2dc4a552f284c9da03bb33ad771bb4e976b170dd7756e47e</v>
+        <v>77f9600e51202bed389813e907740ad2bfad44d89e3bbce5f345eeb5ef95bbc4</v>
       </c>
     </row>
     <row r="3861">
@@ -77591,7 +77591,7 @@
         <v>main_409_002_dialog_korean.dialog</v>
       </c>
       <c r="C3861">
-        <v>49230</v>
+        <v>49118</v>
       </c>
       <c r="D3861" t="str">
         <v/>
@@ -77600,7 +77600,7 @@
         <v>1</v>
       </c>
       <c r="F3861" t="str">
-        <v>3cafa1ff8d94828a006e43f8cbaaa96fe37b04715ca3dde3cb57b571f68e9c7a</v>
+        <v>edf6686e2d452f5a8af9e27bde31bdc89ef92e486c01c3ef0990688507d78020</v>
       </c>
     </row>
     <row r="3862">
@@ -77651,7 +77651,7 @@
         <v>main_409_003_dialog_english.dialog</v>
       </c>
       <c r="C3864">
-        <v>39732</v>
+        <v>39688</v>
       </c>
       <c r="D3864" t="str">
         <v/>
@@ -77660,7 +77660,7 @@
         <v>1</v>
       </c>
       <c r="F3864" t="str">
-        <v>f47be12bcf8cc4196bf213861e08e57a2c2cca625bcd018191950afd58242946</v>
+        <v>302ffec7ded0884fb862afc939cb3a3ca82675dbfcadb8ae208c5f1165d3994b</v>
       </c>
     </row>
     <row r="3865">
@@ -77671,7 +77671,7 @@
         <v>main_409_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3865">
-        <v>57976</v>
+        <v>58051</v>
       </c>
       <c r="D3865" t="str">
         <v/>
@@ -77680,7 +77680,7 @@
         <v>1</v>
       </c>
       <c r="F3865" t="str">
-        <v>7c61bff57f787031d61ccae362a5a3d10fc8d17314b970933fffc117e5a05a2b</v>
+        <v>79e82089bdef3ed82420f934d79e6f5d3e5321c32c55c56657faa83db18c9050</v>
       </c>
     </row>
     <row r="3866">
@@ -77691,7 +77691,7 @@
         <v>main_409_003_dialog_korean.dialog</v>
       </c>
       <c r="C3866">
-        <v>53829</v>
+        <v>53693</v>
       </c>
       <c r="D3866" t="str">
         <v/>
@@ -77700,7 +77700,7 @@
         <v>1</v>
       </c>
       <c r="F3866" t="str">
-        <v>8d447c4b9358cf8e8740644f19cf89366d411111897b85da86ed0e4b52ef6373</v>
+        <v>d90292c205cb46a711723937e6ff928b687fbfbe2c246ab0d2acf852ea187a4d</v>
       </c>
     </row>
     <row r="3867">
@@ -77751,7 +77751,7 @@
         <v>main_409_004_dialog_english.dialog</v>
       </c>
       <c r="C3869">
-        <v>37484</v>
+        <v>37506</v>
       </c>
       <c r="D3869" t="str">
         <v/>
@@ -77760,7 +77760,7 @@
         <v>1</v>
       </c>
       <c r="F3869" t="str">
-        <v>fdc6fd7163af41add8e250ae54dadcd55908afcc143de0f53909029696cdf46d</v>
+        <v>654fba13db6483dee194fd7d4c347de6be0b842c5c0d1024d25257f7ee61de72</v>
       </c>
     </row>
     <row r="3870">
@@ -77771,7 +77771,7 @@
         <v>main_409_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3870">
-        <v>55480</v>
+        <v>55503</v>
       </c>
       <c r="D3870" t="str">
         <v/>
@@ -77780,7 +77780,7 @@
         <v>1</v>
       </c>
       <c r="F3870" t="str">
-        <v>3dbde0d8c35aa412bd966ba499247e0acfc57f79e15a4f68794809499207f160</v>
+        <v>37466b4afc2935872ce12b2131954e7e32c53f53c017f0ea0e61af04a9971e67</v>
       </c>
     </row>
     <row r="3871">
@@ -77791,7 +77791,7 @@
         <v>main_409_004_dialog_korean.dialog</v>
       </c>
       <c r="C3871">
-        <v>51527</v>
+        <v>51486</v>
       </c>
       <c r="D3871" t="str">
         <v/>
@@ -77800,7 +77800,7 @@
         <v>1</v>
       </c>
       <c r="F3871" t="str">
-        <v>d8c48ff82bb137224c4b4070eeb3fe67e2e7e8b627814ea1edefd102130a45ee</v>
+        <v>f69c4d179ccfdc3d44f3a49db947d77f630c698a8e4bffc95337b57a6639b6d3</v>
       </c>
     </row>
     <row r="3872">
@@ -77851,7 +77851,7 @@
         <v>main_409_005_dialog_english.dialog</v>
       </c>
       <c r="C3874">
-        <v>26937</v>
+        <v>26933</v>
       </c>
       <c r="D3874" t="str">
         <v/>
@@ -77860,7 +77860,7 @@
         <v>1</v>
       </c>
       <c r="F3874" t="str">
-        <v>d911a6f4c8b50805e50a23077cee3a6c975005dab4908b8826f50ca35322f127</v>
+        <v>f0fe9ae2ff724ebc64e9f3dd4ac522350cb8063b8ef923bfc53ab7b030822c6d</v>
       </c>
     </row>
     <row r="3875">
@@ -77871,7 +77871,7 @@
         <v>main_409_005_dialog_japanese.dialog</v>
       </c>
       <c r="C3875">
-        <v>40965</v>
+        <v>41035</v>
       </c>
       <c r="D3875" t="str">
         <v/>
@@ -77880,7 +77880,7 @@
         <v>1</v>
       </c>
       <c r="F3875" t="str">
-        <v>94206989afb2760d453ffce8c1af0ef63c00e027cdeab13c380c2d5a5a19df0b</v>
+        <v>9df6d45e77ee6c1749783bc6f23cd24c614766f8a5ecbc8d80761ab682d754c1</v>
       </c>
     </row>
     <row r="3876">
@@ -77891,7 +77891,7 @@
         <v>main_409_005_dialog_korean.dialog</v>
       </c>
       <c r="C3876">
-        <v>37265</v>
+        <v>37263</v>
       </c>
       <c r="D3876" t="str">
         <v/>
@@ -77900,7 +77900,7 @@
         <v>1</v>
       </c>
       <c r="F3876" t="str">
-        <v>1a3b348e63fd5b3d68298c0162cac08fd6d54ee5ecfaa2befe40980b0d3ed240</v>
+        <v>cb72f0267a7d2c3fb58b163a884de4f9c8f81699b046b481ca1bc0b6f3cf91dd</v>
       </c>
     </row>
     <row r="3877">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -9,6 +9,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3896</definedName>
   </definedNames>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9205,10 +9227,10 @@
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>char_h0023_u05_dialog_chinesesimplified.dialog</v>
+        <v>char_h0023_u0_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B442" t="str">
-        <v>char_h0023_u05_dialog_chinesesimplified.dialog</v>
+        <v>char_h0023_u0_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C442">
         <v>246</v>
@@ -9225,10 +9247,10 @@
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>char_h0023_u05_dialog_chinesetraditional.dialog</v>
+        <v>char_h0023_u0_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B443" t="str">
-        <v>char_h0023_u05_dialog_chinesetraditional.dialog</v>
+        <v>char_h0023_u0_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C443">
         <v>246</v>
@@ -9245,10 +9267,10 @@
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>char_h0023_u05_dialog_english.dialog</v>
+        <v>char_h0023_u0_dialog_english.dialog</v>
       </c>
       <c r="B444" t="str">
-        <v>char_h0023_u05_dialog_english.dialog</v>
+        <v>char_h0023_u0_dialog_english.dialog</v>
       </c>
       <c r="C444">
         <v>246</v>
@@ -9265,10 +9287,10 @@
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>char_h0023_u05_dialog_japanese.dialog</v>
+        <v>char_h0023_u0_dialog_japanese.dialog</v>
       </c>
       <c r="B445" t="str">
-        <v>char_h0023_u05_dialog_japanese.dialog</v>
+        <v>char_h0023_u0_dialog_japanese.dialog</v>
       </c>
       <c r="C445">
         <v>246</v>
@@ -9285,10 +9307,10 @@
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>char_h0023_u05_dialog_korean.dialog</v>
+        <v>char_h0023_u0_dialog_korean.dialog</v>
       </c>
       <c r="B446" t="str">
-        <v>char_h0023_u05_dialog_korean.dialog</v>
+        <v>char_h0023_u0_dialog_korean.dialog</v>
       </c>
       <c r="C446">
         <v>246</v>
@@ -60120,7 +60142,7 @@
         <v>1</v>
       </c>
       <c r="F2987" t="str">
-        <v>453c2bbb4d2b621e74fc30e2d4dd43d513b552c48d7ddb901f925fcac9383a6e</v>
+        <v>c6d8529ad2b978eddc68ee60481bc9878d4a9b58c23f5602f1fedda806eca700</v>
       </c>
     </row>
     <row r="2988">
@@ -60191,7 +60213,7 @@
         <v>main_205_005_dialog_korean.dialog</v>
       </c>
       <c r="C2991">
-        <v>39741</v>
+        <v>39724</v>
       </c>
       <c r="D2991" t="str">
         <v/>
@@ -60200,7 +60222,7 @@
         <v>1</v>
       </c>
       <c r="F2991" t="str">
-        <v>7f2af5719cc61f4e0042dd6e8dae0c5c12df3c5124df072ca35e523672174a05</v>
+        <v>2d8074a697a0a77c5a2c81edcb33e3e35b9615c97c9e4b048a75fde247420afc</v>
       </c>
     </row>
     <row r="2992">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3896</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3921</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3896"/>
+  <dimension ref="A1:F3921"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -77927,13 +77927,13 @@
     </row>
     <row r="3877">
       <c r="A3877" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_410_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3877" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_410_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3877">
-        <v>14207</v>
+        <v>54061</v>
       </c>
       <c r="D3877" t="str">
         <v/>
@@ -77942,18 +77942,18 @@
         <v>1</v>
       </c>
       <c r="F3877" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>33492f0ed22b21de081790f455ac4b0a25332240194152ea33a36d00587e05a5</v>
       </c>
     </row>
     <row r="3878">
       <c r="A3878" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_410_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3878" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_410_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3878">
-        <v>14239</v>
+        <v>54195</v>
       </c>
       <c r="D3878" t="str">
         <v/>
@@ -77962,18 +77962,18 @@
         <v>1</v>
       </c>
       <c r="F3878" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>6eae8d937a0611adbe56473b87d497b3692d1f30c611469c13243fb9be450f3f</v>
       </c>
     </row>
     <row r="3879">
       <c r="A3879" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_410_001_dialog_english.dialog</v>
       </c>
       <c r="B3879" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_410_001_dialog_english.dialog</v>
       </c>
       <c r="C3879">
-        <v>11494</v>
+        <v>41647</v>
       </c>
       <c r="D3879" t="str">
         <v/>
@@ -77982,18 +77982,18 @@
         <v>1</v>
       </c>
       <c r="F3879" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>517f0916a464e5d2ed93b9639231db005f3d8dc9c312d0355a07799ff85e4be6</v>
       </c>
     </row>
     <row r="3880">
       <c r="A3880" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_410_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3880" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_410_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3880">
-        <v>15458</v>
+        <v>65692</v>
       </c>
       <c r="D3880" t="str">
         <v/>
@@ -78002,18 +78002,18 @@
         <v>1</v>
       </c>
       <c r="F3880" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>cced2b958d515f0391d13f13c76dae116e39d5246ceee920747c44e74342f828</v>
       </c>
     </row>
     <row r="3881">
       <c r="A3881" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_410_001_dialog_korean.dialog</v>
       </c>
       <c r="B3881" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_410_001_dialog_korean.dialog</v>
       </c>
       <c r="C3881">
-        <v>14831</v>
+        <v>58752</v>
       </c>
       <c r="D3881" t="str">
         <v/>
@@ -78022,18 +78022,18 @@
         <v>1</v>
       </c>
       <c r="F3881" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>006d8be8e7375913ef548a155a712341c91aa164f6f5a3b10ee1dffba0793307</v>
       </c>
     </row>
     <row r="3882">
       <c r="A3882" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_410_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3882" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_410_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3882">
-        <v>24991</v>
+        <v>30271</v>
       </c>
       <c r="D3882" t="str">
         <v/>
@@ -78042,18 +78042,18 @@
         <v>1</v>
       </c>
       <c r="F3882" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>a987308269271d7012568f7d4c3b736432b4c58aaa2b297fefb9e62155d70df5</v>
       </c>
     </row>
     <row r="3883">
       <c r="A3883" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_410_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3883" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_410_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3883">
-        <v>25051</v>
+        <v>30359</v>
       </c>
       <c r="D3883" t="str">
         <v/>
@@ -78062,18 +78062,18 @@
         <v>1</v>
       </c>
       <c r="F3883" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>86573f184a10e60198b3d8252c77d2bcbcdb0ec44fe984c0a96baead1bfb08f6</v>
       </c>
     </row>
     <row r="3884">
       <c r="A3884" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_410_002_dialog_english.dialog</v>
       </c>
       <c r="B3884" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_410_002_dialog_english.dialog</v>
       </c>
       <c r="C3884">
-        <v>20539</v>
+        <v>23474</v>
       </c>
       <c r="D3884" t="str">
         <v/>
@@ -78082,18 +78082,18 @@
         <v>1</v>
       </c>
       <c r="F3884" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>d9a6aa990b5382e06233fb316dd93fee1aa0aab68602d175eb5e9aa823a44efd</v>
       </c>
     </row>
     <row r="3885">
       <c r="A3885" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_410_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3885" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_410_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3885">
-        <v>28605</v>
+        <v>34145</v>
       </c>
       <c r="D3885" t="str">
         <v/>
@@ -78102,18 +78102,18 @@
         <v>1</v>
       </c>
       <c r="F3885" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>43c9bc678ab2481ef590684d6c47724af42f1595d09b0b19207b0f2fe659d637</v>
       </c>
     </row>
     <row r="3886">
       <c r="A3886" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_410_002_dialog_korean.dialog</v>
       </c>
       <c r="B3886" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_410_002_dialog_korean.dialog</v>
       </c>
       <c r="C3886">
-        <v>26803</v>
+        <v>31040</v>
       </c>
       <c r="D3886" t="str">
         <v/>
@@ -78122,18 +78122,18 @@
         <v>1</v>
       </c>
       <c r="F3886" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>1d4bc61f878a32646a3d99dc2fb181eced552b71f5c2e1a73d15b18f0d155f53</v>
       </c>
     </row>
     <row r="3887">
       <c r="A3887" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_410_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3887" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_410_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3887">
-        <v>38436</v>
+        <v>48653</v>
       </c>
       <c r="D3887" t="str">
         <v/>
@@ -78142,18 +78142,18 @@
         <v>1</v>
       </c>
       <c r="F3887" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>a816da787ec5092b92853b7a31534a7c52b40e6cbf340538788658608dc14028</v>
       </c>
     </row>
     <row r="3888">
       <c r="A3888" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_410_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3888" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_410_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3888">
-        <v>38520</v>
+        <v>48779</v>
       </c>
       <c r="D3888" t="str">
         <v/>
@@ -78162,18 +78162,18 @@
         <v>1</v>
       </c>
       <c r="F3888" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>bf77ee1c4e333c03269cb61d2da2495fb1afd371b72fc2ddd5e80ba154fae1e2</v>
       </c>
     </row>
     <row r="3889">
       <c r="A3889" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_410_003_dialog_english.dialog</v>
       </c>
       <c r="B3889" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_410_003_dialog_english.dialog</v>
       </c>
       <c r="C3889">
-        <v>31090</v>
+        <v>37826</v>
       </c>
       <c r="D3889" t="str">
         <v/>
@@ -78182,18 +78182,18 @@
         <v>1</v>
       </c>
       <c r="F3889" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>693429daeae2047f7824457459441dd3a3552724c51b50751490c537ff8b017a</v>
       </c>
     </row>
     <row r="3890">
       <c r="A3890" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_410_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3890" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_410_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3890">
-        <v>42076</v>
+        <v>59099</v>
       </c>
       <c r="D3890" t="str">
         <v/>
@@ -78202,18 +78202,18 @@
         <v>1</v>
       </c>
       <c r="F3890" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>64a1eaaac5ffd4fd7a819c54900c2a664424bb5cdf8869c7d073fb8c4718af0b</v>
       </c>
     </row>
     <row r="3891">
       <c r="A3891" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_410_003_dialog_korean.dialog</v>
       </c>
       <c r="B3891" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_410_003_dialog_korean.dialog</v>
       </c>
       <c r="C3891">
-        <v>41121</v>
+        <v>52552</v>
       </c>
       <c r="D3891" t="str">
         <v/>
@@ -78222,18 +78222,18 @@
         <v>1</v>
       </c>
       <c r="F3891" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>5d1ca85a558f5b674ac2b8b35327fa08019e0e7c43efdbfe5e17050c61112d4d</v>
       </c>
     </row>
     <row r="3892">
       <c r="A3892" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_410_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3892" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_410_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3892">
-        <v>4729</v>
+        <v>48898</v>
       </c>
       <c r="D3892" t="str">
         <v/>
@@ -78242,18 +78242,18 @@
         <v>1</v>
       </c>
       <c r="F3892" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>88e0342904911bd8b6d0cf144008e02b8f9c371f57e8b1c8a7d5aa1852f0201c</v>
       </c>
     </row>
     <row r="3893">
       <c r="A3893" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_410_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3893" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_410_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3893">
-        <v>4735</v>
+        <v>49018</v>
       </c>
       <c r="D3893" t="str">
         <v/>
@@ -78262,18 +78262,18 @@
         <v>1</v>
       </c>
       <c r="F3893" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>5332b363f7f7c31fd09ecd54a69a1edf2af4cb1a1cb41d6b2af493bed9f48cd0</v>
       </c>
     </row>
     <row r="3894">
       <c r="A3894" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_410_004_dialog_english.dialog</v>
       </c>
       <c r="B3894" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_410_004_dialog_english.dialog</v>
       </c>
       <c r="C3894">
-        <v>3676</v>
+        <v>37509</v>
       </c>
       <c r="D3894" t="str">
         <v/>
@@ -78282,18 +78282,18 @@
         <v>1</v>
       </c>
       <c r="F3894" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>35675027eacf27008d9f0980366cb46438de161905ddfc81164c8dd2abd847a7</v>
       </c>
     </row>
     <row r="3895">
       <c r="A3895" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_410_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3895" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_410_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3895">
-        <v>4777</v>
+        <v>57912</v>
       </c>
       <c r="D3895" t="str">
         <v/>
@@ -78302,33 +78302,533 @@
         <v>1</v>
       </c>
       <c r="F3895" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>c0c0130a31f86989c606b03a003ae40cd1296a9bcb586256a859a716231703a9</v>
       </c>
     </row>
     <row r="3896">
       <c r="A3896" t="str">
+        <v>main_410_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3896" t="str">
+        <v>main_410_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3896">
+        <v>52491</v>
+      </c>
+      <c r="D3896" t="str">
+        <v/>
+      </c>
+      <c r="E3896">
+        <v>1</v>
+      </c>
+      <c r="F3896" t="str">
+        <v>780e1369f3bc1accf6713d07ce90b3f60c922bdee36a8be985fed466b913bdb4</v>
+      </c>
+    </row>
+    <row r="3897">
+      <c r="A3897" t="str">
+        <v>main_410_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3897" t="str">
+        <v>main_410_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3897">
+        <v>35994</v>
+      </c>
+      <c r="D3897" t="str">
+        <v/>
+      </c>
+      <c r="E3897">
+        <v>1</v>
+      </c>
+      <c r="F3897" t="str">
+        <v>0e40a0b90cd0ab52bd0467080cb1489ca1bc761a53bd47af921afa3183c249f0</v>
+      </c>
+    </row>
+    <row r="3898">
+      <c r="A3898" t="str">
+        <v>main_410_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3898" t="str">
+        <v>main_410_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3898">
+        <v>36094</v>
+      </c>
+      <c r="D3898" t="str">
+        <v/>
+      </c>
+      <c r="E3898">
+        <v>1</v>
+      </c>
+      <c r="F3898" t="str">
+        <v>5322b0bf92a3b8e338b34eb012f360a22b18e69858ce0badd2bbd6b509a7368a</v>
+      </c>
+    </row>
+    <row r="3899">
+      <c r="A3899" t="str">
+        <v>main_410_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3899" t="str">
+        <v>main_410_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3899">
+        <v>27631</v>
+      </c>
+      <c r="D3899" t="str">
+        <v/>
+      </c>
+      <c r="E3899">
+        <v>1</v>
+      </c>
+      <c r="F3899" t="str">
+        <v>a11b7185fa456c0f09a5c824443484b7ed370b0046037d320bfdc91ae0298ec3</v>
+      </c>
+    </row>
+    <row r="3900">
+      <c r="A3900" t="str">
+        <v>main_410_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3900" t="str">
+        <v>main_410_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3900">
+        <v>40679</v>
+      </c>
+      <c r="D3900" t="str">
+        <v/>
+      </c>
+      <c r="E3900">
+        <v>1</v>
+      </c>
+      <c r="F3900" t="str">
+        <v>34f22bd6bcb414771ad58b61dc71c6a2b6d3d781acfdd7d0a75fc752060b935d</v>
+      </c>
+    </row>
+    <row r="3901">
+      <c r="A3901" t="str">
+        <v>main_410_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3901" t="str">
+        <v>main_410_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3901">
+        <v>37546</v>
+      </c>
+      <c r="D3901" t="str">
+        <v/>
+      </c>
+      <c r="E3901">
+        <v>1</v>
+      </c>
+      <c r="F3901" t="str">
+        <v>4ed0e8cb088d5b4915c55009a1d03c50c890ee586f6b6fb627f82f8a67cb4b8e</v>
+      </c>
+    </row>
+    <row r="3902">
+      <c r="A3902" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3902" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3902">
+        <v>14207</v>
+      </c>
+      <c r="D3902" t="str">
+        <v/>
+      </c>
+      <c r="E3902">
+        <v>1</v>
+      </c>
+      <c r="F3902" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3903">
+      <c r="A3903" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3903" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3903">
+        <v>14239</v>
+      </c>
+      <c r="D3903" t="str">
+        <v/>
+      </c>
+      <c r="E3903">
+        <v>1</v>
+      </c>
+      <c r="F3903" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3904">
+      <c r="A3904" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3904" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3904">
+        <v>11494</v>
+      </c>
+      <c r="D3904" t="str">
+        <v/>
+      </c>
+      <c r="E3904">
+        <v>1</v>
+      </c>
+      <c r="F3904" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3905">
+      <c r="A3905" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3905" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3905">
+        <v>15458</v>
+      </c>
+      <c r="D3905" t="str">
+        <v/>
+      </c>
+      <c r="E3905">
+        <v>1</v>
+      </c>
+      <c r="F3905" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3906">
+      <c r="A3906" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3906" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3906">
+        <v>14831</v>
+      </c>
+      <c r="D3906" t="str">
+        <v/>
+      </c>
+      <c r="E3906">
+        <v>1</v>
+      </c>
+      <c r="F3906" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3907">
+      <c r="A3907" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3907" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3907">
+        <v>24991</v>
+      </c>
+      <c r="D3907" t="str">
+        <v/>
+      </c>
+      <c r="E3907">
+        <v>1</v>
+      </c>
+      <c r="F3907" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3908">
+      <c r="A3908" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3908" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3908">
+        <v>25051</v>
+      </c>
+      <c r="D3908" t="str">
+        <v/>
+      </c>
+      <c r="E3908">
+        <v>1</v>
+      </c>
+      <c r="F3908" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3909">
+      <c r="A3909" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3909" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3909">
+        <v>20539</v>
+      </c>
+      <c r="D3909" t="str">
+        <v/>
+      </c>
+      <c r="E3909">
+        <v>1</v>
+      </c>
+      <c r="F3909" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3910">
+      <c r="A3910" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3910" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3910">
+        <v>28605</v>
+      </c>
+      <c r="D3910" t="str">
+        <v/>
+      </c>
+      <c r="E3910">
+        <v>1</v>
+      </c>
+      <c r="F3910" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3911">
+      <c r="A3911" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3911" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3911">
+        <v>26803</v>
+      </c>
+      <c r="D3911" t="str">
+        <v/>
+      </c>
+      <c r="E3911">
+        <v>1</v>
+      </c>
+      <c r="F3911" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3912">
+      <c r="A3912" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3912" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3912">
+        <v>38436</v>
+      </c>
+      <c r="D3912" t="str">
+        <v/>
+      </c>
+      <c r="E3912">
+        <v>1</v>
+      </c>
+      <c r="F3912" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3913">
+      <c r="A3913" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3913" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3913">
+        <v>38520</v>
+      </c>
+      <c r="D3913" t="str">
+        <v/>
+      </c>
+      <c r="E3913">
+        <v>1</v>
+      </c>
+      <c r="F3913" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3914">
+      <c r="A3914" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3914" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3914">
+        <v>31090</v>
+      </c>
+      <c r="D3914" t="str">
+        <v/>
+      </c>
+      <c r="E3914">
+        <v>1</v>
+      </c>
+      <c r="F3914" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3915">
+      <c r="A3915" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3915" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3915">
+        <v>42076</v>
+      </c>
+      <c r="D3915" t="str">
+        <v/>
+      </c>
+      <c r="E3915">
+        <v>1</v>
+      </c>
+      <c r="F3915" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3916">
+      <c r="A3916" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3916" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3916">
+        <v>41121</v>
+      </c>
+      <c r="D3916" t="str">
+        <v/>
+      </c>
+      <c r="E3916">
+        <v>1</v>
+      </c>
+      <c r="F3916" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3917">
+      <c r="A3917" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3917" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3917">
+        <v>4729</v>
+      </c>
+      <c r="D3917" t="str">
+        <v/>
+      </c>
+      <c r="E3917">
+        <v>1</v>
+      </c>
+      <c r="F3917" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3918">
+      <c r="A3918" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3918" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3918">
+        <v>4735</v>
+      </c>
+      <c r="D3918" t="str">
+        <v/>
+      </c>
+      <c r="E3918">
+        <v>1</v>
+      </c>
+      <c r="F3918" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3919">
+      <c r="A3919" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3919" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3919">
+        <v>3676</v>
+      </c>
+      <c r="D3919" t="str">
+        <v/>
+      </c>
+      <c r="E3919">
+        <v>1</v>
+      </c>
+      <c r="F3919" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3920">
+      <c r="A3920" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3920" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3920">
+        <v>4777</v>
+      </c>
+      <c r="D3920" t="str">
+        <v/>
+      </c>
+      <c r="E3920">
+        <v>1</v>
+      </c>
+      <c r="F3920" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3921">
+      <c r="A3921" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3896" t="str">
+      <c r="B3921" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3896">
+      <c r="C3921">
         <v>4424</v>
       </c>
-      <c r="D3896" t="str">
-        <v/>
-      </c>
-      <c r="E3896">
-        <v>1</v>
-      </c>
-      <c r="F3896" t="str">
+      <c r="D3921" t="str">
+        <v/>
+      </c>
+      <c r="E3921">
+        <v>1</v>
+      </c>
+      <c r="F3921" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3896"/>
+  <autoFilter ref="A1:F3921"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3896"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3921"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -32173,7 +32173,7 @@
         <v>char_t0180_002_dialog_english.dialog</v>
       </c>
       <c r="C1589">
-        <v>47614</v>
+        <v>47618</v>
       </c>
       <c r="D1589" t="str">
         <v/>
@@ -32182,7 +32182,7 @@
         <v>1</v>
       </c>
       <c r="F1589" t="str">
-        <v>52cc5888d69df722afb4f9735d504eba14c2208646c454b8badaada08ea09261</v>
+        <v>f07106efc60ad4d9c8a7e2c9b587d1bcc32e362d691f65ac0abd3bffe6a649fe</v>
       </c>
     </row>
     <row r="1590">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3951</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3976</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3951"/>
+  <dimension ref="A1:F3976"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -79027,13 +79027,13 @@
     </row>
     <row r="3932">
       <c r="A3932" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_411_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3932" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_411_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3932">
-        <v>14207</v>
+        <v>57925</v>
       </c>
       <c r="D3932" t="str">
         <v/>
@@ -79042,18 +79042,18 @@
         <v>1</v>
       </c>
       <c r="F3932" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>2a5f9a71757e6f16627c2b0eddce69a874d9a32c6bfe1f966780b8671806a14d</v>
       </c>
     </row>
     <row r="3933">
       <c r="A3933" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_411_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3933" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_411_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3933">
-        <v>14239</v>
+        <v>58085</v>
       </c>
       <c r="D3933" t="str">
         <v/>
@@ -79062,18 +79062,18 @@
         <v>1</v>
       </c>
       <c r="F3933" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>97cb2169df1cb5be6eddf40d4980e709a2f5333131fc498d7c9ce5b3e2dc970b</v>
       </c>
     </row>
     <row r="3934">
       <c r="A3934" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_411_001_dialog_english.dialog</v>
       </c>
       <c r="B3934" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_411_001_dialog_english.dialog</v>
       </c>
       <c r="C3934">
-        <v>11494</v>
+        <v>43764</v>
       </c>
       <c r="D3934" t="str">
         <v/>
@@ -79082,18 +79082,18 @@
         <v>1</v>
       </c>
       <c r="F3934" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>c1571dada0a521cd104fbb7a2c178a45462e6e4a7b50d5477dd0e9121f0b9190</v>
       </c>
     </row>
     <row r="3935">
       <c r="A3935" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_411_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3935" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_411_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3935">
-        <v>15458</v>
+        <v>66904</v>
       </c>
       <c r="D3935" t="str">
         <v/>
@@ -79102,18 +79102,18 @@
         <v>1</v>
       </c>
       <c r="F3935" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>98d9bb6642b317117ad6f7b81f786524b3704e33360fbec209e74630faa2c741</v>
       </c>
     </row>
     <row r="3936">
       <c r="A3936" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_411_001_dialog_korean.dialog</v>
       </c>
       <c r="B3936" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_411_001_dialog_korean.dialog</v>
       </c>
       <c r="C3936">
-        <v>14831</v>
+        <v>58935</v>
       </c>
       <c r="D3936" t="str">
         <v/>
@@ -79122,18 +79122,18 @@
         <v>1</v>
       </c>
       <c r="F3936" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>2d26ff1d9c550deb82cebc3d7dce6b82a44e28b79ee4a0ef2fbd883d6673c3c9</v>
       </c>
     </row>
     <row r="3937">
       <c r="A3937" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_411_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3937" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_411_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3937">
-        <v>24991</v>
+        <v>30554</v>
       </c>
       <c r="D3937" t="str">
         <v/>
@@ -79142,18 +79142,18 @@
         <v>1</v>
       </c>
       <c r="F3937" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>4097644ec9b3b9835b59cfddbee541e31c7ca1b4e4000e28deacb50f1865937c</v>
       </c>
     </row>
     <row r="3938">
       <c r="A3938" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_411_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3938" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_411_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3938">
-        <v>25051</v>
+        <v>30640</v>
       </c>
       <c r="D3938" t="str">
         <v/>
@@ -79162,18 +79162,18 @@
         <v>1</v>
       </c>
       <c r="F3938" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>8b910dad52cef5f240720a96c38fd916f27ce8bf86046c988d2f6770a1df086c</v>
       </c>
     </row>
     <row r="3939">
       <c r="A3939" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_411_002_dialog_english.dialog</v>
       </c>
       <c r="B3939" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_411_002_dialog_english.dialog</v>
       </c>
       <c r="C3939">
-        <v>20539</v>
+        <v>23504</v>
       </c>
       <c r="D3939" t="str">
         <v/>
@@ -79182,18 +79182,18 @@
         <v>1</v>
       </c>
       <c r="F3939" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>f55066a64b960a01c1d0bd01517b1027ec5705b6d79cb6869c07c45b235f6963</v>
       </c>
     </row>
     <row r="3940">
       <c r="A3940" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_411_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3940" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_411_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3940">
-        <v>28605</v>
+        <v>35600</v>
       </c>
       <c r="D3940" t="str">
         <v/>
@@ -79202,18 +79202,18 @@
         <v>1</v>
       </c>
       <c r="F3940" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>c12c234f63a88d1941cc0464a7c5476ab45db10c1c454f43d16e3bc37d8ba73b</v>
       </c>
     </row>
     <row r="3941">
       <c r="A3941" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_411_002_dialog_korean.dialog</v>
       </c>
       <c r="B3941" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_411_002_dialog_korean.dialog</v>
       </c>
       <c r="C3941">
-        <v>26803</v>
+        <v>31943</v>
       </c>
       <c r="D3941" t="str">
         <v/>
@@ -79222,18 +79222,18 @@
         <v>1</v>
       </c>
       <c r="F3941" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>33e3fc007446d27d5063c3283d5b75994612e21c10399a31e6f21bda7a74e7c0</v>
       </c>
     </row>
     <row r="3942">
       <c r="A3942" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_411_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3942" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_411_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3942">
-        <v>38436</v>
+        <v>45653</v>
       </c>
       <c r="D3942" t="str">
         <v/>
@@ -79242,18 +79242,18 @@
         <v>1</v>
       </c>
       <c r="F3942" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>d5d4ec3707322685ed65017c4776bb0ecea3bb9bda6e25a2e0c22fc7074faecd</v>
       </c>
     </row>
     <row r="3943">
       <c r="A3943" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_411_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3943" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_411_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3943">
-        <v>38520</v>
+        <v>45767</v>
       </c>
       <c r="D3943" t="str">
         <v/>
@@ -79262,18 +79262,18 @@
         <v>1</v>
       </c>
       <c r="F3943" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>6ae0ab09030e1a9b9d8448e8658683a19a7a733e4edd4167195f4a5d67bf7660</v>
       </c>
     </row>
     <row r="3944">
       <c r="A3944" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_411_003_dialog_english.dialog</v>
       </c>
       <c r="B3944" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_411_003_dialog_english.dialog</v>
       </c>
       <c r="C3944">
-        <v>31090</v>
+        <v>34940</v>
       </c>
       <c r="D3944" t="str">
         <v/>
@@ -79282,18 +79282,18 @@
         <v>1</v>
       </c>
       <c r="F3944" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>9decb395c0244af74ca54a033cceb5f7db70ee8da4ed822e5b404ba50cad4604</v>
       </c>
     </row>
     <row r="3945">
       <c r="A3945" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_411_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3945" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_411_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3945">
-        <v>42076</v>
+        <v>51777</v>
       </c>
       <c r="D3945" t="str">
         <v/>
@@ -79302,18 +79302,18 @@
         <v>1</v>
       </c>
       <c r="F3945" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>d3781e90846ab1a54bfd6c0d8371b6fce9554bbf90b8ca15218371288cb396f5</v>
       </c>
     </row>
     <row r="3946">
       <c r="A3946" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_411_003_dialog_korean.dialog</v>
       </c>
       <c r="B3946" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_411_003_dialog_korean.dialog</v>
       </c>
       <c r="C3946">
-        <v>41121</v>
+        <v>48230</v>
       </c>
       <c r="D3946" t="str">
         <v/>
@@ -79322,18 +79322,18 @@
         <v>1</v>
       </c>
       <c r="F3946" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>1f6c8d6fe379f9b5bf1955bfabab83d9b2dae4ce3192da00f996ea0039f63d88</v>
       </c>
     </row>
     <row r="3947">
       <c r="A3947" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_411_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3947" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_411_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3947">
-        <v>4729</v>
+        <v>55656</v>
       </c>
       <c r="D3947" t="str">
         <v/>
@@ -79342,18 +79342,18 @@
         <v>1</v>
       </c>
       <c r="F3947" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>bfffdbfcaa7e058d7ebe2c1e0b0cc1749b571f98c1cc2e45e6b98fdc65604bbb</v>
       </c>
     </row>
     <row r="3948">
       <c r="A3948" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_411_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3948" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_411_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3948">
-        <v>4735</v>
+        <v>55832</v>
       </c>
       <c r="D3948" t="str">
         <v/>
@@ -79362,18 +79362,18 @@
         <v>1</v>
       </c>
       <c r="F3948" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>26e3d2feb70eaca2187f2c6821bac0d6eb685e4a9ec5847bf60e0518549a61eb</v>
       </c>
     </row>
     <row r="3949">
       <c r="A3949" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_411_004_dialog_english.dialog</v>
       </c>
       <c r="B3949" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_411_004_dialog_english.dialog</v>
       </c>
       <c r="C3949">
-        <v>3676</v>
+        <v>42792</v>
       </c>
       <c r="D3949" t="str">
         <v/>
@@ -79382,18 +79382,18 @@
         <v>1</v>
       </c>
       <c r="F3949" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>381ab472b844a6e87baf86e67496387f10d175bfa03b34686da5cb7fd85b44bb</v>
       </c>
     </row>
     <row r="3950">
       <c r="A3950" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_411_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3950" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_411_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3950">
-        <v>4777</v>
+        <v>61495</v>
       </c>
       <c r="D3950" t="str">
         <v/>
@@ -79402,33 +79402,533 @@
         <v>1</v>
       </c>
       <c r="F3950" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>8785e31ec788cb564dc3b8bd972b380e447c2f99a29078ae8ffe394b2c334413</v>
       </c>
     </row>
     <row r="3951">
       <c r="A3951" t="str">
+        <v>main_411_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3951" t="str">
+        <v>main_411_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3951">
+        <v>56095</v>
+      </c>
+      <c r="D3951" t="str">
+        <v/>
+      </c>
+      <c r="E3951">
+        <v>1</v>
+      </c>
+      <c r="F3951" t="str">
+        <v>f175a3ca1165a9d67d41d8bef5e6c5db1648189b5efe21bf21e320fe2f1237e4</v>
+      </c>
+    </row>
+    <row r="3952">
+      <c r="A3952" t="str">
+        <v>main_411_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3952" t="str">
+        <v>main_411_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3952">
+        <v>46155</v>
+      </c>
+      <c r="D3952" t="str">
+        <v/>
+      </c>
+      <c r="E3952">
+        <v>1</v>
+      </c>
+      <c r="F3952" t="str">
+        <v>6162ad550346a6d1c071775cfeaefd67336dd53bd1e4d4876f1c98aab786278c</v>
+      </c>
+    </row>
+    <row r="3953">
+      <c r="A3953" t="str">
+        <v>main_411_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3953" t="str">
+        <v>main_411_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3953">
+        <v>46283</v>
+      </c>
+      <c r="D3953" t="str">
+        <v/>
+      </c>
+      <c r="E3953">
+        <v>1</v>
+      </c>
+      <c r="F3953" t="str">
+        <v>4f33a31730faf69ebd7679032757ee32c522f694816303add21cf5552e3b7940</v>
+      </c>
+    </row>
+    <row r="3954">
+      <c r="A3954" t="str">
+        <v>main_411_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3954" t="str">
+        <v>main_411_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3954">
+        <v>35230</v>
+      </c>
+      <c r="D3954" t="str">
+        <v/>
+      </c>
+      <c r="E3954">
+        <v>1</v>
+      </c>
+      <c r="F3954" t="str">
+        <v>3d96adcf6b3fefafee805dd635b1f78b64855da9a2504d74ecb5aa00cd96d2c4</v>
+      </c>
+    </row>
+    <row r="3955">
+      <c r="A3955" t="str">
+        <v>main_411_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3955" t="str">
+        <v>main_411_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3955">
+        <v>51156</v>
+      </c>
+      <c r="D3955" t="str">
+        <v/>
+      </c>
+      <c r="E3955">
+        <v>1</v>
+      </c>
+      <c r="F3955" t="str">
+        <v>42d4ffe1f03060725004e75757222c7237f884faa83161ea9e028f97c3f707a1</v>
+      </c>
+    </row>
+    <row r="3956">
+      <c r="A3956" t="str">
+        <v>main_411_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3956" t="str">
+        <v>main_411_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3956">
+        <v>45074</v>
+      </c>
+      <c r="D3956" t="str">
+        <v/>
+      </c>
+      <c r="E3956">
+        <v>1</v>
+      </c>
+      <c r="F3956" t="str">
+        <v>1c8507cb26eaf64998f5625fbf47004792720ca91c052ee956601ee945cc3e36</v>
+      </c>
+    </row>
+    <row r="3957">
+      <c r="A3957" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3957" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3957">
+        <v>14207</v>
+      </c>
+      <c r="D3957" t="str">
+        <v/>
+      </c>
+      <c r="E3957">
+        <v>1</v>
+      </c>
+      <c r="F3957" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3958">
+      <c r="A3958" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3958" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3958">
+        <v>14239</v>
+      </c>
+      <c r="D3958" t="str">
+        <v/>
+      </c>
+      <c r="E3958">
+        <v>1</v>
+      </c>
+      <c r="F3958" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3959">
+      <c r="A3959" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3959" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3959">
+        <v>11494</v>
+      </c>
+      <c r="D3959" t="str">
+        <v/>
+      </c>
+      <c r="E3959">
+        <v>1</v>
+      </c>
+      <c r="F3959" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3960">
+      <c r="A3960" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3960" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3960">
+        <v>15458</v>
+      </c>
+      <c r="D3960" t="str">
+        <v/>
+      </c>
+      <c r="E3960">
+        <v>1</v>
+      </c>
+      <c r="F3960" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3961">
+      <c r="A3961" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3961" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3961">
+        <v>14831</v>
+      </c>
+      <c r="D3961" t="str">
+        <v/>
+      </c>
+      <c r="E3961">
+        <v>1</v>
+      </c>
+      <c r="F3961" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3962">
+      <c r="A3962" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3962" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3962">
+        <v>24991</v>
+      </c>
+      <c r="D3962" t="str">
+        <v/>
+      </c>
+      <c r="E3962">
+        <v>1</v>
+      </c>
+      <c r="F3962" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3963">
+      <c r="A3963" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3963" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3963">
+        <v>25051</v>
+      </c>
+      <c r="D3963" t="str">
+        <v/>
+      </c>
+      <c r="E3963">
+        <v>1</v>
+      </c>
+      <c r="F3963" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3964">
+      <c r="A3964" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3964" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3964">
+        <v>20539</v>
+      </c>
+      <c r="D3964" t="str">
+        <v/>
+      </c>
+      <c r="E3964">
+        <v>1</v>
+      </c>
+      <c r="F3964" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3965">
+      <c r="A3965" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3965" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3965">
+        <v>28605</v>
+      </c>
+      <c r="D3965" t="str">
+        <v/>
+      </c>
+      <c r="E3965">
+        <v>1</v>
+      </c>
+      <c r="F3965" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3966">
+      <c r="A3966" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3966" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3966">
+        <v>26803</v>
+      </c>
+      <c r="D3966" t="str">
+        <v/>
+      </c>
+      <c r="E3966">
+        <v>1</v>
+      </c>
+      <c r="F3966" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3967">
+      <c r="A3967" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3967" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3967">
+        <v>38436</v>
+      </c>
+      <c r="D3967" t="str">
+        <v/>
+      </c>
+      <c r="E3967">
+        <v>1</v>
+      </c>
+      <c r="F3967" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3968">
+      <c r="A3968" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3968" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3968">
+        <v>38520</v>
+      </c>
+      <c r="D3968" t="str">
+        <v/>
+      </c>
+      <c r="E3968">
+        <v>1</v>
+      </c>
+      <c r="F3968" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3969">
+      <c r="A3969" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3969" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3969">
+        <v>31090</v>
+      </c>
+      <c r="D3969" t="str">
+        <v/>
+      </c>
+      <c r="E3969">
+        <v>1</v>
+      </c>
+      <c r="F3969" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3970">
+      <c r="A3970" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3970" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3970">
+        <v>42076</v>
+      </c>
+      <c r="D3970" t="str">
+        <v/>
+      </c>
+      <c r="E3970">
+        <v>1</v>
+      </c>
+      <c r="F3970" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3971">
+      <c r="A3971" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3971" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3971">
+        <v>41121</v>
+      </c>
+      <c r="D3971" t="str">
+        <v/>
+      </c>
+      <c r="E3971">
+        <v>1</v>
+      </c>
+      <c r="F3971" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3972">
+      <c r="A3972" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3972" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3972">
+        <v>4729</v>
+      </c>
+      <c r="D3972" t="str">
+        <v/>
+      </c>
+      <c r="E3972">
+        <v>1</v>
+      </c>
+      <c r="F3972" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3973">
+      <c r="A3973" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3973" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3973">
+        <v>4735</v>
+      </c>
+      <c r="D3973" t="str">
+        <v/>
+      </c>
+      <c r="E3973">
+        <v>1</v>
+      </c>
+      <c r="F3973" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3974">
+      <c r="A3974" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3974" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3974">
+        <v>3676</v>
+      </c>
+      <c r="D3974" t="str">
+        <v/>
+      </c>
+      <c r="E3974">
+        <v>1</v>
+      </c>
+      <c r="F3974" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="3975">
+      <c r="A3975" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3975" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3975">
+        <v>4777</v>
+      </c>
+      <c r="D3975" t="str">
+        <v/>
+      </c>
+      <c r="E3975">
+        <v>1</v>
+      </c>
+      <c r="F3975" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="3976">
+      <c r="A3976" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3951" t="str">
+      <c r="B3976" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3951">
+      <c r="C3976">
         <v>4424</v>
       </c>
-      <c r="D3951" t="str">
-        <v/>
-      </c>
-      <c r="E3951">
-        <v>1</v>
-      </c>
-      <c r="F3951" t="str">
+      <c r="D3976" t="str">
+        <v/>
+      </c>
+      <c r="E3976">
+        <v>1</v>
+      </c>
+      <c r="F3976" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3951"/>
+  <autoFilter ref="A1:F3976"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3951"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3976"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F3976</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F4001</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3976"/>
+  <dimension ref="A1:F4001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -79527,13 +79527,13 @@
     </row>
     <row r="3957">
       <c r="A3957" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_412_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3957" t="str">
-        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_412_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3957">
-        <v>14207</v>
+        <v>36209</v>
       </c>
       <c r="D3957" t="str">
         <v/>
@@ -79542,18 +79542,18 @@
         <v>1</v>
       </c>
       <c r="F3957" t="str">
-        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+        <v>9a86d02b31be95dfee42b141a65a8e59800f3369c9dc8c6cb6d2fe7ee9aef3ef</v>
       </c>
     </row>
     <row r="3958">
       <c r="A3958" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_412_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3958" t="str">
-        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_412_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3958">
-        <v>14239</v>
+        <v>36317</v>
       </c>
       <c r="D3958" t="str">
         <v/>
@@ -79562,18 +79562,18 @@
         <v>1</v>
       </c>
       <c r="F3958" t="str">
-        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+        <v>f614aea2d2afcb9ccff8f3a50a7e38583978a810e129492c8ac1afea53f11966</v>
       </c>
     </row>
     <row r="3959">
       <c r="A3959" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_412_001_dialog_english.dialog</v>
       </c>
       <c r="B3959" t="str">
-        <v>test_001_003_dialog_english.dialog</v>
+        <v>main_412_001_dialog_english.dialog</v>
       </c>
       <c r="C3959">
-        <v>11494</v>
+        <v>28665</v>
       </c>
       <c r="D3959" t="str">
         <v/>
@@ -79582,18 +79582,18 @@
         <v>1</v>
       </c>
       <c r="F3959" t="str">
-        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+        <v>bc9b10ae3426d9f9127192cfa55625a9881ab265eb865ea74941430abcd92723</v>
       </c>
     </row>
     <row r="3960">
       <c r="A3960" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_412_001_dialog_japanese.dialog</v>
       </c>
       <c r="B3960" t="str">
-        <v>test_001_003_dialog_japanese.dialog</v>
+        <v>main_412_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3960">
-        <v>15458</v>
+        <v>40729</v>
       </c>
       <c r="D3960" t="str">
         <v/>
@@ -79602,18 +79602,18 @@
         <v>1</v>
       </c>
       <c r="F3960" t="str">
-        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+        <v>8c6ea8ec46fe4c784e990e2b088b4bdfe416823ade1eccd1c657233738570611</v>
       </c>
     </row>
     <row r="3961">
       <c r="A3961" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_412_001_dialog_korean.dialog</v>
       </c>
       <c r="B3961" t="str">
-        <v>test_001_003_dialog_korean.dialog</v>
+        <v>main_412_001_dialog_korean.dialog</v>
       </c>
       <c r="C3961">
-        <v>14831</v>
+        <v>36457</v>
       </c>
       <c r="D3961" t="str">
         <v/>
@@ -79622,18 +79622,18 @@
         <v>1</v>
       </c>
       <c r="F3961" t="str">
-        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+        <v>c1ed6dc4255391a6dfef3297a7c258617fd9aa0908a8198138acf01404e07c8a</v>
       </c>
     </row>
     <row r="3962">
       <c r="A3962" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_412_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3962" t="str">
-        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+        <v>main_412_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3962">
-        <v>24991</v>
+        <v>43491</v>
       </c>
       <c r="D3962" t="str">
         <v/>
@@ -79642,18 +79642,18 @@
         <v>1</v>
       </c>
       <c r="F3962" t="str">
-        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+        <v>d16da196c3ae573bc10541528716044dcd0482b0addf07ff7168ea7958dd0f43</v>
       </c>
     </row>
     <row r="3963">
       <c r="A3963" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_412_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3963" t="str">
-        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+        <v>main_412_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3963">
-        <v>25051</v>
+        <v>43611</v>
       </c>
       <c r="D3963" t="str">
         <v/>
@@ -79662,18 +79662,18 @@
         <v>1</v>
       </c>
       <c r="F3963" t="str">
-        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+        <v>319f1a3bb247c78711cde011ab390108760c59ca57bdca303a6748e0418bba62</v>
       </c>
     </row>
     <row r="3964">
       <c r="A3964" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_412_002_dialog_english.dialog</v>
       </c>
       <c r="B3964" t="str">
-        <v>test_001_004_dialog_english.dialog</v>
+        <v>main_412_002_dialog_english.dialog</v>
       </c>
       <c r="C3964">
-        <v>20539</v>
+        <v>33701</v>
       </c>
       <c r="D3964" t="str">
         <v/>
@@ -79682,18 +79682,18 @@
         <v>1</v>
       </c>
       <c r="F3964" t="str">
-        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+        <v>a81a5cc4517a00e24889dfa416c9748b717094368ae272763a84f434a657f1de</v>
       </c>
     </row>
     <row r="3965">
       <c r="A3965" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_412_002_dialog_japanese.dialog</v>
       </c>
       <c r="B3965" t="str">
-        <v>test_001_004_dialog_japanese.dialog</v>
+        <v>main_412_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3965">
-        <v>28605</v>
+        <v>51300</v>
       </c>
       <c r="D3965" t="str">
         <v/>
@@ -79702,18 +79702,18 @@
         <v>1</v>
       </c>
       <c r="F3965" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>2a8babfb0ccf0987ed82b50250bd88e2572053e704b41df7dd1b1da853759417</v>
       </c>
     </row>
     <row r="3966">
       <c r="A3966" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_412_002_dialog_korean.dialog</v>
       </c>
       <c r="B3966" t="str">
-        <v>test_001_004_dialog_korean.dialog</v>
+        <v>main_412_002_dialog_korean.dialog</v>
       </c>
       <c r="C3966">
-        <v>26803</v>
+        <v>46230</v>
       </c>
       <c r="D3966" t="str">
         <v/>
@@ -79722,18 +79722,18 @@
         <v>1</v>
       </c>
       <c r="F3966" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>60438a8f197a17d2489ed2684486c64d2fec480a36ed42a260ac184560ece834</v>
       </c>
     </row>
     <row r="3967">
       <c r="A3967" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_412_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3967" t="str">
-        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+        <v>main_412_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3967">
-        <v>38436</v>
+        <v>52429</v>
       </c>
       <c r="D3967" t="str">
         <v/>
@@ -79742,18 +79742,18 @@
         <v>1</v>
       </c>
       <c r="F3967" t="str">
-        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+        <v>0344b83a0cdf0291ddc5e2fadb462c4a619f8919561224d124418230cc8ff1f7</v>
       </c>
     </row>
     <row r="3968">
       <c r="A3968" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_412_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3968" t="str">
-        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+        <v>main_412_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3968">
-        <v>38520</v>
+        <v>52579</v>
       </c>
       <c r="D3968" t="str">
         <v/>
@@ -79762,18 +79762,18 @@
         <v>1</v>
       </c>
       <c r="F3968" t="str">
-        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+        <v>bb99b64dec220a49db6af29f9bba3ed86ef7864cc4cbb8b45d6fa488074fca00</v>
       </c>
     </row>
     <row r="3969">
       <c r="A3969" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_412_003_dialog_english.dialog</v>
       </c>
       <c r="B3969" t="str">
-        <v>tutorial_001_002_dialog_english.dialog</v>
+        <v>main_412_003_dialog_english.dialog</v>
       </c>
       <c r="C3969">
-        <v>31090</v>
+        <v>40269</v>
       </c>
       <c r="D3969" t="str">
         <v/>
@@ -79782,18 +79782,18 @@
         <v>1</v>
       </c>
       <c r="F3969" t="str">
-        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+        <v>34aaf8e272a92ed63c65e8f8f53b90e037aaff1f7221daa1a3a7bef257db525c</v>
       </c>
     </row>
     <row r="3970">
       <c r="A3970" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_412_003_dialog_japanese.dialog</v>
       </c>
       <c r="B3970" t="str">
-        <v>tutorial_001_002_dialog_japanese.dialog</v>
+        <v>main_412_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3970">
-        <v>42076</v>
+        <v>60602</v>
       </c>
       <c r="D3970" t="str">
         <v/>
@@ -79802,18 +79802,18 @@
         <v>1</v>
       </c>
       <c r="F3970" t="str">
-        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+        <v>696149ee9f9f4b1c81d429ea8bbebfdcc7d4aa11b6cc523bc515355f48117f06</v>
       </c>
     </row>
     <row r="3971">
       <c r="A3971" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_412_003_dialog_korean.dialog</v>
       </c>
       <c r="B3971" t="str">
-        <v>tutorial_001_002_dialog_korean.dialog</v>
+        <v>main_412_003_dialog_korean.dialog</v>
       </c>
       <c r="C3971">
-        <v>41121</v>
+        <v>53784</v>
       </c>
       <c r="D3971" t="str">
         <v/>
@@ -79822,18 +79822,18 @@
         <v>1</v>
       </c>
       <c r="F3971" t="str">
-        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+        <v>3a2cd23cd785000f73ca93d749a78bcbd445a0c4e124da62a4643516ca51cd89</v>
       </c>
     </row>
     <row r="3972">
       <c r="A3972" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_412_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B3972" t="str">
-        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+        <v>main_412_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C3972">
-        <v>4729</v>
+        <v>28200</v>
       </c>
       <c r="D3972" t="str">
         <v/>
@@ -79842,18 +79842,18 @@
         <v>1</v>
       </c>
       <c r="F3972" t="str">
-        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+        <v>3716d23ec4937cfc08c2d94ca183e5e969c265a11d6662bbddeff65ba4fdf0a2</v>
       </c>
     </row>
     <row r="3973">
       <c r="A3973" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_412_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B3973" t="str">
-        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+        <v>main_412_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C3973">
-        <v>4735</v>
+        <v>28278</v>
       </c>
       <c r="D3973" t="str">
         <v/>
@@ -79862,18 +79862,18 @@
         <v>1</v>
       </c>
       <c r="F3973" t="str">
-        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+        <v>a38aa3d28b201a2fdb757cf42d8aff5b9a6ebf8eda78295e87e0c185298c1373</v>
       </c>
     </row>
     <row r="3974">
       <c r="A3974" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_412_004_dialog_english.dialog</v>
       </c>
       <c r="B3974" t="str">
-        <v>tutorial_001_003_dialog_english.dialog</v>
+        <v>main_412_004_dialog_english.dialog</v>
       </c>
       <c r="C3974">
-        <v>3676</v>
+        <v>22056</v>
       </c>
       <c r="D3974" t="str">
         <v/>
@@ -79882,18 +79882,18 @@
         <v>1</v>
       </c>
       <c r="F3974" t="str">
-        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+        <v>cfb2d26cb2ffdb14a408ff66dd53241932d0419e3a57e52507b72805976f8030</v>
       </c>
     </row>
     <row r="3975">
       <c r="A3975" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_412_004_dialog_japanese.dialog</v>
       </c>
       <c r="B3975" t="str">
-        <v>tutorial_001_003_dialog_japanese.dialog</v>
+        <v>main_412_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3975">
-        <v>4777</v>
+        <v>29746</v>
       </c>
       <c r="D3975" t="str">
         <v/>
@@ -79902,33 +79902,533 @@
         <v>1</v>
       </c>
       <c r="F3975" t="str">
-        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+        <v>72c5c4c3b17abdff5bffb4380604f75688106ab25cbe21518d0ba1abbb6191b1</v>
       </c>
     </row>
     <row r="3976">
       <c r="A3976" t="str">
+        <v>main_412_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3976" t="str">
+        <v>main_412_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3976">
+        <v>27079</v>
+      </c>
+      <c r="D3976" t="str">
+        <v/>
+      </c>
+      <c r="E3976">
+        <v>1</v>
+      </c>
+      <c r="F3976" t="str">
+        <v>6e8e95022370c3c5834a857fd74a191452bede77b3eddc1f70f991577170b6ce</v>
+      </c>
+    </row>
+    <row r="3977">
+      <c r="A3977" t="str">
+        <v>main_412_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3977" t="str">
+        <v>main_412_005_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3977">
+        <v>51224</v>
+      </c>
+      <c r="D3977" t="str">
+        <v/>
+      </c>
+      <c r="E3977">
+        <v>1</v>
+      </c>
+      <c r="F3977" t="str">
+        <v>f0d395f852fdac86e533be83872093195cc06a73cac7787a6dbcaf94f544744f</v>
+      </c>
+    </row>
+    <row r="3978">
+      <c r="A3978" t="str">
+        <v>main_412_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3978" t="str">
+        <v>main_412_005_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3978">
+        <v>51362</v>
+      </c>
+      <c r="D3978" t="str">
+        <v/>
+      </c>
+      <c r="E3978">
+        <v>1</v>
+      </c>
+      <c r="F3978" t="str">
+        <v>1a33c4e343cbb93da812f4820a821f2410190da6733c2652926fbf6216567654</v>
+      </c>
+    </row>
+    <row r="3979">
+      <c r="A3979" t="str">
+        <v>main_412_005_dialog_english.dialog</v>
+      </c>
+      <c r="B3979" t="str">
+        <v>main_412_005_dialog_english.dialog</v>
+      </c>
+      <c r="C3979">
+        <v>39645</v>
+      </c>
+      <c r="D3979" t="str">
+        <v/>
+      </c>
+      <c r="E3979">
+        <v>1</v>
+      </c>
+      <c r="F3979" t="str">
+        <v>2c403f030b93b53ac90b9b50605ec9111fb482f6453f01ced3736df7ddf15274</v>
+      </c>
+    </row>
+    <row r="3980">
+      <c r="A3980" t="str">
+        <v>main_412_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3980" t="str">
+        <v>main_412_005_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3980">
+        <v>57254</v>
+      </c>
+      <c r="D3980" t="str">
+        <v/>
+      </c>
+      <c r="E3980">
+        <v>1</v>
+      </c>
+      <c r="F3980" t="str">
+        <v>08a0c8dacdd97febe3be75490448ab9f21f67b7d0b32d24971e82782a4c74f6d</v>
+      </c>
+    </row>
+    <row r="3981">
+      <c r="A3981" t="str">
+        <v>main_412_005_dialog_korean.dialog</v>
+      </c>
+      <c r="B3981" t="str">
+        <v>main_412_005_dialog_korean.dialog</v>
+      </c>
+      <c r="C3981">
+        <v>54245</v>
+      </c>
+      <c r="D3981" t="str">
+        <v/>
+      </c>
+      <c r="E3981">
+        <v>1</v>
+      </c>
+      <c r="F3981" t="str">
+        <v>d6b4ccb4a75b492ab0df6e5cb1916951e5fac0fb9726b543a984cc271118ef24</v>
+      </c>
+    </row>
+    <row r="3982">
+      <c r="A3982" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3982" t="str">
+        <v>test_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3982">
+        <v>14207</v>
+      </c>
+      <c r="D3982" t="str">
+        <v/>
+      </c>
+      <c r="E3982">
+        <v>1</v>
+      </c>
+      <c r="F3982" t="str">
+        <v>990d97e767870542a7f3c10c0015bf3730e832e3cc60a344a5511cd0b5e0c75c</v>
+      </c>
+    </row>
+    <row r="3983">
+      <c r="A3983" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3983" t="str">
+        <v>test_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3983">
+        <v>14239</v>
+      </c>
+      <c r="D3983" t="str">
+        <v/>
+      </c>
+      <c r="E3983">
+        <v>1</v>
+      </c>
+      <c r="F3983" t="str">
+        <v>331c1967b1482ec2b3e50207a447380fa3400bb58a9929866cfeb54fc4f52eb3</v>
+      </c>
+    </row>
+    <row r="3984">
+      <c r="A3984" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3984" t="str">
+        <v>test_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3984">
+        <v>11494</v>
+      </c>
+      <c r="D3984" t="str">
+        <v/>
+      </c>
+      <c r="E3984">
+        <v>1</v>
+      </c>
+      <c r="F3984" t="str">
+        <v>7d10179cfc04ed39c5efe7ec5e5b736b92163ffb36cc2d159d2400cb1ee4f6a9</v>
+      </c>
+    </row>
+    <row r="3985">
+      <c r="A3985" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3985" t="str">
+        <v>test_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3985">
+        <v>15458</v>
+      </c>
+      <c r="D3985" t="str">
+        <v/>
+      </c>
+      <c r="E3985">
+        <v>1</v>
+      </c>
+      <c r="F3985" t="str">
+        <v>46ecefa0db37b2079de435e2a61c50eadd7860944148e0ca9840fa184b6c924e</v>
+      </c>
+    </row>
+    <row r="3986">
+      <c r="A3986" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="B3986" t="str">
+        <v>test_001_003_dialog_korean.dialog</v>
+      </c>
+      <c r="C3986">
+        <v>14831</v>
+      </c>
+      <c r="D3986" t="str">
+        <v/>
+      </c>
+      <c r="E3986">
+        <v>1</v>
+      </c>
+      <c r="F3986" t="str">
+        <v>64a03efa22703d07b52f2ff764f890b82645784dfd9873f9292aa255a69c784a</v>
+      </c>
+    </row>
+    <row r="3987">
+      <c r="A3987" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3987" t="str">
+        <v>test_001_004_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3987">
+        <v>24991</v>
+      </c>
+      <c r="D3987" t="str">
+        <v/>
+      </c>
+      <c r="E3987">
+        <v>1</v>
+      </c>
+      <c r="F3987" t="str">
+        <v>6495613b7647f80de4c7809e69457297d10fc32beb10ebedf7da6019c995692d</v>
+      </c>
+    </row>
+    <row r="3988">
+      <c r="A3988" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3988" t="str">
+        <v>test_001_004_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3988">
+        <v>25051</v>
+      </c>
+      <c r="D3988" t="str">
+        <v/>
+      </c>
+      <c r="E3988">
+        <v>1</v>
+      </c>
+      <c r="F3988" t="str">
+        <v>a47dab9d1cfa06f35cf9ba3ec3da8c0a594ecb0a4a720722123c9a65013d63ea</v>
+      </c>
+    </row>
+    <row r="3989">
+      <c r="A3989" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="B3989" t="str">
+        <v>test_001_004_dialog_english.dialog</v>
+      </c>
+      <c r="C3989">
+        <v>20539</v>
+      </c>
+      <c r="D3989" t="str">
+        <v/>
+      </c>
+      <c r="E3989">
+        <v>1</v>
+      </c>
+      <c r="F3989" t="str">
+        <v>052086cd1fda5b6a309c8a4af97803f578dacb866db4cc805c22e1df3b4d056b</v>
+      </c>
+    </row>
+    <row r="3990">
+      <c r="A3990" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3990" t="str">
+        <v>test_001_004_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3990">
+        <v>28605</v>
+      </c>
+      <c r="D3990" t="str">
+        <v/>
+      </c>
+      <c r="E3990">
+        <v>1</v>
+      </c>
+      <c r="F3990" t="str">
+        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+      </c>
+    </row>
+    <row r="3991">
+      <c r="A3991" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="B3991" t="str">
+        <v>test_001_004_dialog_korean.dialog</v>
+      </c>
+      <c r="C3991">
+        <v>26803</v>
+      </c>
+      <c r="D3991" t="str">
+        <v/>
+      </c>
+      <c r="E3991">
+        <v>1</v>
+      </c>
+      <c r="F3991" t="str">
+        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+      </c>
+    </row>
+    <row r="3992">
+      <c r="A3992" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3992" t="str">
+        <v>tutorial_001_002_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3992">
+        <v>38436</v>
+      </c>
+      <c r="D3992" t="str">
+        <v/>
+      </c>
+      <c r="E3992">
+        <v>1</v>
+      </c>
+      <c r="F3992" t="str">
+        <v>ddbfad871886d62d9c88b2c6911196f2f667548d6f3961ee392bac1ecff76c82</v>
+      </c>
+    </row>
+    <row r="3993">
+      <c r="A3993" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3993" t="str">
+        <v>tutorial_001_002_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3993">
+        <v>38520</v>
+      </c>
+      <c r="D3993" t="str">
+        <v/>
+      </c>
+      <c r="E3993">
+        <v>1</v>
+      </c>
+      <c r="F3993" t="str">
+        <v>46e78696a187f3c8747e525308804e3e4fd582753ae0da7dbe7ae2d8a8ccf27b</v>
+      </c>
+    </row>
+    <row r="3994">
+      <c r="A3994" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="B3994" t="str">
+        <v>tutorial_001_002_dialog_english.dialog</v>
+      </c>
+      <c r="C3994">
+        <v>31090</v>
+      </c>
+      <c r="D3994" t="str">
+        <v/>
+      </c>
+      <c r="E3994">
+        <v>1</v>
+      </c>
+      <c r="F3994" t="str">
+        <v>b8711237f72e53d66979bf99147c92a29da804bf309f57c0b80cf5eda153a28b</v>
+      </c>
+    </row>
+    <row r="3995">
+      <c r="A3995" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="B3995" t="str">
+        <v>tutorial_001_002_dialog_japanese.dialog</v>
+      </c>
+      <c r="C3995">
+        <v>42076</v>
+      </c>
+      <c r="D3995" t="str">
+        <v/>
+      </c>
+      <c r="E3995">
+        <v>1</v>
+      </c>
+      <c r="F3995" t="str">
+        <v>9799fe8387d8532f93d120da6ae8ba129028b10bbfdc9012636a49c400412a26</v>
+      </c>
+    </row>
+    <row r="3996">
+      <c r="A3996" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="B3996" t="str">
+        <v>tutorial_001_002_dialog_korean.dialog</v>
+      </c>
+      <c r="C3996">
+        <v>41121</v>
+      </c>
+      <c r="D3996" t="str">
+        <v/>
+      </c>
+      <c r="E3996">
+        <v>1</v>
+      </c>
+      <c r="F3996" t="str">
+        <v>22047036629b4af74673d350cf79d9286aca52c306204b32009622cf63f8fb68</v>
+      </c>
+    </row>
+    <row r="3997">
+      <c r="A3997" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="B3997" t="str">
+        <v>tutorial_001_003_dialog_chinesesimplified.dialog</v>
+      </c>
+      <c r="C3997">
+        <v>4729</v>
+      </c>
+      <c r="D3997" t="str">
+        <v/>
+      </c>
+      <c r="E3997">
+        <v>1</v>
+      </c>
+      <c r="F3997" t="str">
+        <v>e970469e96fc0484c16d155675eda9893372f63f0e6107063c7df518cb172d55</v>
+      </c>
+    </row>
+    <row r="3998">
+      <c r="A3998" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="B3998" t="str">
+        <v>tutorial_001_003_dialog_chinesetraditional.dialog</v>
+      </c>
+      <c r="C3998">
+        <v>4735</v>
+      </c>
+      <c r="D3998" t="str">
+        <v/>
+      </c>
+      <c r="E3998">
+        <v>1</v>
+      </c>
+      <c r="F3998" t="str">
+        <v>0f93156c869ba1b5d86d04638e97e4d8518dc5a5ffaf2e4fb27bc20d3c8932a7</v>
+      </c>
+    </row>
+    <row r="3999">
+      <c r="A3999" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="B3999" t="str">
+        <v>tutorial_001_003_dialog_english.dialog</v>
+      </c>
+      <c r="C3999">
+        <v>3676</v>
+      </c>
+      <c r="D3999" t="str">
+        <v/>
+      </c>
+      <c r="E3999">
+        <v>1</v>
+      </c>
+      <c r="F3999" t="str">
+        <v>316c22f2e22ac83f537a4ba98f69c2b79ca81d848c23fccfd7437b7ca83075b9</v>
+      </c>
+    </row>
+    <row r="4000">
+      <c r="A4000" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="B4000" t="str">
+        <v>tutorial_001_003_dialog_japanese.dialog</v>
+      </c>
+      <c r="C4000">
+        <v>4777</v>
+      </c>
+      <c r="D4000" t="str">
+        <v/>
+      </c>
+      <c r="E4000">
+        <v>1</v>
+      </c>
+      <c r="F4000" t="str">
+        <v>db571d72a29c82ef641e94bac5a18b9f5b851571c1c4aa72313940b2daf4fbfd</v>
+      </c>
+    </row>
+    <row r="4001">
+      <c r="A4001" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="B3976" t="str">
+      <c r="B4001" t="str">
         <v>tutorial_001_003_dialog_korean.dialog</v>
       </c>
-      <c r="C3976">
+      <c r="C4001">
         <v>4424</v>
       </c>
-      <c r="D3976" t="str">
-        <v/>
-      </c>
-      <c r="E3976">
-        <v>1</v>
-      </c>
-      <c r="F3976" t="str">
+      <c r="D4001" t="str">
+        <v/>
+      </c>
+      <c r="E4001">
+        <v>1</v>
+      </c>
+      <c r="F4001" t="str">
         <v>630547d0ca88bd157e6717a4fda7b0ee6e7dd439234b30e7ff4b08755ce30a97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3976"/>
+  <autoFilter ref="A1:F4001"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3976"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4001"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -77573,7 +77573,7 @@
         <v>main_408_001_dialog_english.dialog</v>
       </c>
       <c r="C3859">
-        <v>29445</v>
+        <v>29501</v>
       </c>
       <c r="D3859" t="str">
         <v/>
@@ -77582,7 +77582,7 @@
         <v>1</v>
       </c>
       <c r="F3859" t="str">
-        <v>1616b54194865e6f98fb02b36c5cfae8965be07f39880111b08ea39b82f2faa3</v>
+        <v>00ffca9eb0f3791d19d29e7f567e73247c6f4c8527b7b54b5d3264600dc47ce5</v>
       </c>
     </row>
     <row r="3860">
@@ -77593,7 +77593,7 @@
         <v>main_408_001_dialog_japanese.dialog</v>
       </c>
       <c r="C3860">
-        <v>46098</v>
+        <v>45903</v>
       </c>
       <c r="D3860" t="str">
         <v/>
@@ -77602,7 +77602,7 @@
         <v>1</v>
       </c>
       <c r="F3860" t="str">
-        <v>c792a7e523e506eaac44f7adc00c1542ed0a3898f5e3b1a2d1d8317ac364fd6a</v>
+        <v>ec2507d05517a6782d92f3eeba95a20047eb6e1f9767ab7b12caa27873e754ff</v>
       </c>
     </row>
     <row r="3861">
@@ -77673,7 +77673,7 @@
         <v>main_408_002_dialog_english.dialog</v>
       </c>
       <c r="C3864">
-        <v>45808</v>
+        <v>45906</v>
       </c>
       <c r="D3864" t="str">
         <v/>
@@ -77682,7 +77682,7 @@
         <v>1</v>
       </c>
       <c r="F3864" t="str">
-        <v>551bee4f93b262429e3114e1d8f571d120fe4123c759441c3c42b80f0e5d8571</v>
+        <v>475d38d0d2dd469a95e4bb719777a573ec870f9d93a7e3140c0864c7393290cc</v>
       </c>
     </row>
     <row r="3865">
@@ -77693,7 +77693,7 @@
         <v>main_408_002_dialog_japanese.dialog</v>
       </c>
       <c r="C3865">
-        <v>70050</v>
+        <v>70250</v>
       </c>
       <c r="D3865" t="str">
         <v/>
@@ -77702,7 +77702,7 @@
         <v>1</v>
       </c>
       <c r="F3865" t="str">
-        <v>36b395ca53354ebbc64d939fa49f674ce685959e75122afbbb0e29e53832e546</v>
+        <v>737936f88a19d67297770a0e70e032df01a1b1182cc9808363ffe6f234e14376</v>
       </c>
     </row>
     <row r="3866">
@@ -77722,7 +77722,7 @@
         <v>1</v>
       </c>
       <c r="F3866" t="str">
-        <v>2f7285b8ed64f455f3277c1f536a1209597d52d0c80822d8dead9d004d0e0233</v>
+        <v>7f123e7626977f2d89bc1b0c2ef23216e27936d1ff29ed0dbbcbda66e5c8f31f</v>
       </c>
     </row>
     <row r="3867">
@@ -77773,7 +77773,7 @@
         <v>main_408_003_dialog_english.dialog</v>
       </c>
       <c r="C3869">
-        <v>51632</v>
+        <v>51714</v>
       </c>
       <c r="D3869" t="str">
         <v/>
@@ -77782,7 +77782,7 @@
         <v>1</v>
       </c>
       <c r="F3869" t="str">
-        <v>64a8dc4fbe9bc1ea597f46c9efa73bc9f396a790582a20f1e507f6799dce3ffb</v>
+        <v>0e641c1e657a2fa7b4cea7e7cd177fb90091782a405f4df7c2a223b337fc9592</v>
       </c>
     </row>
     <row r="3870">
@@ -77793,7 +77793,7 @@
         <v>main_408_003_dialog_japanese.dialog</v>
       </c>
       <c r="C3870">
-        <v>80735</v>
+        <v>80696</v>
       </c>
       <c r="D3870" t="str">
         <v/>
@@ -77802,7 +77802,7 @@
         <v>1</v>
       </c>
       <c r="F3870" t="str">
-        <v>5537366b4647f4b1a14a746eaed02636dc13b50cf73cb6c16d3a4428fbd63273</v>
+        <v>b364e6fcff5c7b29e7a47aa172f6c347474a9e19347d6791f96a65d637cfb30f</v>
       </c>
     </row>
     <row r="3871">
@@ -77813,7 +77813,7 @@
         <v>main_408_003_dialog_korean.dialog</v>
       </c>
       <c r="C3871">
-        <v>74339</v>
+        <v>74408</v>
       </c>
       <c r="D3871" t="str">
         <v/>
@@ -77822,7 +77822,7 @@
         <v>1</v>
       </c>
       <c r="F3871" t="str">
-        <v>c16a7596a99b128d864f2cca5b34cbca966ea8051d3d9f0c1c0d4c35c0d1d66c</v>
+        <v>6573c3059c9aa82b05aa16fb449940e2a5d81d9e0dc48643955b7b68be26cea5</v>
       </c>
     </row>
     <row r="3872">
@@ -77873,7 +77873,7 @@
         <v>main_408_004_dialog_english.dialog</v>
       </c>
       <c r="C3874">
-        <v>32896</v>
+        <v>32884</v>
       </c>
       <c r="D3874" t="str">
         <v/>
@@ -77882,7 +77882,7 @@
         <v>1</v>
       </c>
       <c r="F3874" t="str">
-        <v>01bcd4d54545f8a43d4cb6cd46b6722e9f77441a78250a6112bcfcb914e63c7c</v>
+        <v>40e6434ba8be0eedaf4d0281e8f9dca0bded0079d8b13d955ac1f365d9ec522d</v>
       </c>
     </row>
     <row r="3875">
@@ -77893,7 +77893,7 @@
         <v>main_408_004_dialog_japanese.dialog</v>
       </c>
       <c r="C3875">
-        <v>45971</v>
+        <v>46002</v>
       </c>
       <c r="D3875" t="str">
         <v/>
@@ -77902,7 +77902,7 @@
         <v>1</v>
       </c>
       <c r="F3875" t="str">
-        <v>b5f603e8316b83b1d8b6117c3a9e1fa87fcfd16f4a8ca131820168e2742e357b</v>
+        <v>c989ab21bea396feb42a33b570441f99b5280aaae08187c9654861686b58cf67</v>
       </c>
     </row>
     <row r="3876">
@@ -77913,7 +77913,7 @@
         <v>main_408_004_dialog_korean.dialog</v>
       </c>
       <c r="C3876">
-        <v>42321</v>
+        <v>42336</v>
       </c>
       <c r="D3876" t="str">
         <v/>
@@ -77922,7 +77922,7 @@
         <v>1</v>
       </c>
       <c r="F3876" t="str">
-        <v>2eaae5d79517ce923563801171f3b5e7cdd8867781b117f907f23cbc71cf8fa7</v>
+        <v>4e7d0b16b1e7da5451593ecce3a25b6c97812dfeea75371675def9266497939c</v>
       </c>
     </row>
     <row r="3877">
@@ -77973,7 +77973,7 @@
         <v>main_408_005_dialog_english.dialog</v>
       </c>
       <c r="C3879">
-        <v>19327</v>
+        <v>19293</v>
       </c>
       <c r="D3879" t="str">
         <v/>
@@ -77982,7 +77982,7 @@
         <v>1</v>
       </c>
       <c r="F3879" t="str">
-        <v>0064a6d8a20340ba867c71cb46e416fd2d159ccf5be30dd362028ab58c9ab398</v>
+        <v>0a01ef1d31392d876c8bfb5eb5dd508100820423acbb4fc377f9c3afdfa69223</v>
       </c>
     </row>
     <row r="3880">
@@ -78002,7 +78002,7 @@
         <v>1</v>
       </c>
       <c r="F3880" t="str">
-        <v>e56c2e027990eac9b428707a120b05a55915f6e7e4669a5e7ca4ea0b62275e55</v>
+        <v>0f8ca6c6a4821f881af353decbaf96a0aae68dd9512b16963622670f32dfc0de</v>
       </c>
     </row>
     <row r="3881">
@@ -78013,7 +78013,7 @@
         <v>main_408_005_dialog_korean.dialog</v>
       </c>
       <c r="C3881">
-        <v>27592</v>
+        <v>27618</v>
       </c>
       <c r="D3881" t="str">
         <v/>
@@ -78022,7 +78022,7 @@
         <v>1</v>
       </c>
       <c r="F3881" t="str">
-        <v>e716a6ca5b60158d8d9fe0c6f74ec16fc67e5b2c2580cb5d2cfc895b5cde4e7a</v>
+        <v>76fe64a309af0897ca6b0f99eede7ffecf456cc50d927a02b08c11762c48f1be</v>
       </c>
     </row>
     <row r="3882">
@@ -78073,7 +78073,7 @@
         <v>main_409_001_dialog_english.dialog</v>
       </c>
       <c r="C3884">
-        <v>48795</v>
+        <v>48793</v>
       </c>
       <c r="D3884" t="str">
         <v/>
@@ -78082,7 +78082,7 @@
         <v>1</v>
       </c>
       <c r="F3884" t="str">
-        <v>33ff4ec1f77fb15d54b5b4c458295b396333c7fedead4be8979c09e1559f5688</v>
+        <v>da84af2ea0642a32e7699660f19297c9a3322af039b65f6a158ce5999f7582f6</v>
       </c>
     </row>
     <row r="3885">
@@ -78473,7 +78473,7 @@
         <v>main_409_005_dialog_english.dialog</v>
       </c>
       <c r="C3904">
-        <v>26933</v>
+        <v>26935</v>
       </c>
       <c r="D3904" t="str">
         <v/>
@@ -78482,7 +78482,7 @@
         <v>1</v>
       </c>
       <c r="F3904" t="str">
-        <v>f0fe9ae2ff724ebc64e9f3dd4ac522350cb8063b8ef923bfc53ab7b030822c6d</v>
+        <v>d31c65d2e97b00e0b8358685113c8f2566b55878d45c68c9a8957e4501cb3e0b</v>
       </c>
     </row>
     <row r="3905">
@@ -78882,7 +78882,7 @@
         <v>1</v>
       </c>
       <c r="F3924" t="str">
-        <v>35675027eacf27008d9f0980366cb46438de161905ddfc81164c8dd2abd847a7</v>
+        <v>fd9ac2285ced191fdadc1b70437e0a04f0fe6b5acea23a376f8daac63b760841</v>
       </c>
     </row>
     <row r="3925">
@@ -79273,7 +79273,7 @@
         <v>main_411_003_dialog_english.dialog</v>
       </c>
       <c r="C3944">
-        <v>34940</v>
+        <v>34942</v>
       </c>
       <c r="D3944" t="str">
         <v/>
@@ -79282,7 +79282,7 @@
         <v>1</v>
       </c>
       <c r="F3944" t="str">
-        <v>9decb395c0244af74ca54a033cceb5f7db70ee8da4ed822e5b404ba50cad4604</v>
+        <v>a15f176e9d109faa098b9121020e6eaaefae6fb6acef322c59af25e67c6e168e</v>
       </c>
     </row>
     <row r="3945">
@@ -79682,7 +79682,7 @@
         <v>1</v>
       </c>
       <c r="F3964" t="str">
-        <v>a81a5cc4517a00e24889dfa416c9748b717094368ae272763a84f434a657f1de</v>
+        <v>5b9a507f6244cb56c615bb95851e3b47cd9c9b1e74110aecfd21ef6a31d8414c</v>
       </c>
     </row>
     <row r="3965">
@@ -79782,7 +79782,7 @@
         <v>1</v>
       </c>
       <c r="F3969" t="str">
-        <v>34aaf8e272a92ed63c65e8f8f53b90e037aaff1f7221daa1a3a7bef257db525c</v>
+        <v>f196b74d74475102d65afaaf46bc5429165d64001c46230776c23c25f4654fa3</v>
       </c>
     </row>
     <row r="3970">
@@ -79882,7 +79882,7 @@
         <v>1</v>
       </c>
       <c r="F3974" t="str">
-        <v>cfb2d26cb2ffdb14a408ff66dd53241932d0419e3a57e52507b72805976f8030</v>
+        <v>f07f442e74f23365523e0cac5aa6d73971ac5a61a6122fa81004d0f1c2df7eeb</v>
       </c>
     </row>
     <row r="3975">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F4001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Assets!$A$1:$F$4001</definedName>
   </definedNames>
 </workbook>
 </file>

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -39322,7 +39322,7 @@
         <v>1</v>
       </c>
       <c r="F1946" t="str">
-        <v>ec3e99900af3a52fa98a9a8b1fb0c85e54beedfb5f08e61a8cb0f2fdd5a1f7a1</v>
+        <v>f683fd6d1c57019dff0647d52ea055849b525b57915f1584291222eb922d0b18</v>
       </c>
     </row>
     <row r="1947">
@@ -39422,7 +39422,7 @@
         <v>1</v>
       </c>
       <c r="F1951" t="str">
-        <v>7d62ba9ff5ea39c459f38420d2dc7409bb57ae10570bd63ffcf23876076a9c80</v>
+        <v>cd246db47e4b3531c21fd6d2fa1ae75a7b002d1f9dbd0a51a1e3d2dc27877f4e</v>
       </c>
     </row>
     <row r="1952">
@@ -39473,7 +39473,7 @@
         <v>fest_036_004_dialog_english.dialog</v>
       </c>
       <c r="C1954">
-        <v>65825</v>
+        <v>65827</v>
       </c>
       <c r="D1954" t="str">
         <v/>
@@ -39482,7 +39482,7 @@
         <v>1</v>
       </c>
       <c r="F1954" t="str">
-        <v>6313130ce28e74b73d1580265f3a60967099935a5d556dc10d1422f78a40d13d</v>
+        <v>2cff1521d0466575cb638ae805893ec43298377b4700a3837277987acb412c0e</v>
       </c>
     </row>
     <row r="1955">
@@ -39522,7 +39522,7 @@
         <v>1</v>
       </c>
       <c r="F1956" t="str">
-        <v>1d5767b185e78e9248a8c02e187e6b7ef8c13d004012ecbd6354f6bfebd9035b</v>
+        <v>69fda45be250c822b0481e67bf9a370dfcab6cfd35c71125ddd5117e6451ae4f</v>
       </c>
     </row>
     <row r="1957">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -32213,7 +32213,7 @@
         <v>char_t0180_002_dialog_korean.dialog</v>
       </c>
       <c r="C1591">
-        <v>61530</v>
+        <v>61517</v>
       </c>
       <c r="D1591" t="str">
         <v/>
@@ -32222,7 +32222,7 @@
         <v>1</v>
       </c>
       <c r="F1591" t="str">
-        <v>a1bbe335c264eadd83444bc2d4943f3e06febee673d4e34a0d06724449558138</v>
+        <v>c5a212ae978a7fdbbd7e51ab68e0b380470b9a605bd8784c78f1ebf0fe43b636</v>
       </c>
     </row>
     <row r="1592">
@@ -32273,7 +32273,7 @@
         <v>char_t0180_003_dialog_english.dialog</v>
       </c>
       <c r="C1594">
-        <v>28239</v>
+        <v>28249</v>
       </c>
       <c r="D1594" t="str">
         <v/>
@@ -32282,7 +32282,7 @@
         <v>1</v>
       </c>
       <c r="F1594" t="str">
-        <v>31782afc1467496afc960245811bc94dff8aa54d32121c26de32fff9bd50a691</v>
+        <v>ee3184fd4d0b347b1c3c4dcd34016cd69fc8bfcb48bb11bbe522a50c84c0bd57</v>
       </c>
     </row>
     <row r="1595">
@@ -32473,7 +32473,7 @@
         <v>char_t0180_005_dialog_english.dialog</v>
       </c>
       <c r="C1604">
-        <v>38264</v>
+        <v>38266</v>
       </c>
       <c r="D1604" t="str">
         <v/>
@@ -32482,7 +32482,7 @@
         <v>1</v>
       </c>
       <c r="F1604" t="str">
-        <v>f9985f31d9e02b7dbd5cb11ae26bc7ac366b9778f6519cd09f024e547515b28a</v>
+        <v>61e3b6dfcc7034a0c9eae9d34c3d5517d51255a4341703647ccca7019cbacc0a</v>
       </c>
     </row>
     <row r="1605">
@@ -32513,7 +32513,7 @@
         <v>char_t0180_005_dialog_korean.dialog</v>
       </c>
       <c r="C1606">
-        <v>51636</v>
+        <v>51623</v>
       </c>
       <c r="D1606" t="str">
         <v/>
@@ -32522,7 +32522,7 @@
         <v>1</v>
       </c>
       <c r="F1606" t="str">
-        <v>0e130027f2e10ff0cfb3a71724a5042a3087ba08e08ca7fa7cb8e82fbe4ed1ac</v>
+        <v>21be2066ead759faa2cebdb4e06f20be68eeb61d60488d2b3b9a77a8015015f3</v>
       </c>
     </row>
     <row r="1607">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -40173,7 +40173,7 @@
         <v>fest_c20_202_dialog_english.dialog</v>
       </c>
       <c r="C1989">
-        <v>24992</v>
+        <v>24994</v>
       </c>
       <c r="D1989" t="str">
         <v/>
@@ -40182,7 +40182,7 @@
         <v>1</v>
       </c>
       <c r="F1989" t="str">
-        <v>43a5e067f78e09a716ec2eeec93c3355179588ba6c3b799c18cd19f408aef4cb</v>
+        <v>32f81ce7681c269b444c8bc861ea90bda649f446048c6a37d2f5458922d3a3ff</v>
       </c>
     </row>
     <row r="1990">
@@ -40322,7 +40322,7 @@
         <v>1</v>
       </c>
       <c r="F1996" t="str">
-        <v>bac57de17baaaf7f70f6ed698c8ed7368ff58019c3cb71baf2c29081f1c8f949</v>
+        <v>6569867587906701a2ade49c66496ba2ba4a22cfc7b9ba72fdd86a93c8e0c4b8</v>
       </c>
     </row>
     <row r="1997">
@@ -41113,7 +41113,7 @@
         <v>fest_c20_306_dialog_korean.dialog</v>
       </c>
       <c r="C2036">
-        <v>20210</v>
+        <v>20212</v>
       </c>
       <c r="D2036" t="str">
         <v/>
@@ -41122,7 +41122,7 @@
         <v>1</v>
       </c>
       <c r="F2036" t="str">
-        <v>46eb92248ed294649eea511ce3088781ca7dd2834e6bb11fc19c0b9319608aca</v>
+        <v>f47574fd24b780f07ac2b7cfb96f482d7b3550bc10dbaeb8a5e7a99b8be3aa7d</v>
       </c>
     </row>
     <row r="2037">
@@ -41973,7 +41973,7 @@
         <v>fest_c20_405_dialog_english.dialog</v>
       </c>
       <c r="C2079">
-        <v>22238</v>
+        <v>22240</v>
       </c>
       <c r="D2079" t="str">
         <v/>
@@ -41982,7 +41982,7 @@
         <v>1</v>
       </c>
       <c r="F2079" t="str">
-        <v>9447d76d9917fd90ba9e1a2e08bea1a097e3a96d184dd28cdd7115c0770a1821</v>
+        <v>326aa33824c40bb9695258c1be352057827e2b107b00fc2b58e8073f7a39314f</v>
       </c>
     </row>
     <row r="2080">
@@ -42422,7 +42422,7 @@
         <v>1</v>
       </c>
       <c r="F2101" t="str">
-        <v>b136ac8790482d21a3c029f755da255cc30d15a6ce9e04128e4e851219daa54f</v>
+        <v>5a2d1dfa477d0c60faf3ee4bdc63e994b77f7aaac19f3ca4d52c3ff24bd8f674</v>
       </c>
     </row>
     <row r="2102">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -35327,13 +35327,13 @@
     </row>
     <row r="1747">
       <c r="A1747" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1747" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1747">
-        <v>13697</v>
+        <v>246</v>
       </c>
       <c r="D1747" t="str">
         <v/>
@@ -35342,18 +35342,18 @@
         <v>1</v>
       </c>
       <c r="F1747" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1748" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1748">
-        <v>13761</v>
+        <v>246</v>
       </c>
       <c r="D1748" t="str">
         <v/>
@@ -35362,18 +35362,18 @@
         <v>1</v>
       </c>
       <c r="F1748" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="B1749" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="C1749">
-        <v>12502</v>
+        <v>246</v>
       </c>
       <c r="D1749" t="str">
         <v/>
@@ -35382,18 +35382,18 @@
         <v>1</v>
       </c>
       <c r="F1749" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1750" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1750">
-        <v>13827</v>
+        <v>246</v>
       </c>
       <c r="D1750" t="str">
         <v/>
@@ -35402,18 +35402,18 @@
         <v>1</v>
       </c>
       <c r="F1750" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="B1751" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="C1751">
-        <v>13301</v>
+        <v>246</v>
       </c>
       <c r="D1751" t="str">
         <v/>
@@ -35422,18 +35422,18 @@
         <v>1</v>
       </c>
       <c r="F1751" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1752" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1752">
-        <v>4028</v>
+        <v>246</v>
       </c>
       <c r="D1752" t="str">
         <v/>
@@ -35442,18 +35442,18 @@
         <v>1</v>
       </c>
       <c r="F1752" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1753" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1753">
-        <v>4038</v>
+        <v>246</v>
       </c>
       <c r="D1753" t="str">
         <v/>
@@ -35462,18 +35462,18 @@
         <v>1</v>
       </c>
       <c r="F1753" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="B1754" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="C1754">
-        <v>3444</v>
+        <v>246</v>
       </c>
       <c r="D1754" t="str">
         <v/>
@@ -35482,18 +35482,18 @@
         <v>1</v>
       </c>
       <c r="F1754" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="B1755" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="C1755">
-        <v>4365</v>
+        <v>246</v>
       </c>
       <c r="D1755" t="str">
         <v/>
@@ -35502,18 +35502,18 @@
         <v>1</v>
       </c>
       <c r="F1755" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="B1756" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="C1756">
-        <v>4062</v>
+        <v>246</v>
       </c>
       <c r="D1756" t="str">
         <v/>
@@ -35522,18 +35522,18 @@
         <v>1</v>
       </c>
       <c r="F1756" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1757" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1757">
-        <v>246</v>
+        <v>4028</v>
       </c>
       <c r="D1757" t="str">
         <v/>
@@ -35542,18 +35542,18 @@
         <v>1</v>
       </c>
       <c r="F1757" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1758" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1758">
-        <v>246</v>
+        <v>4038</v>
       </c>
       <c r="D1758" t="str">
         <v/>
@@ -35562,18 +35562,18 @@
         <v>1</v>
       </c>
       <c r="F1758" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1759" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1759">
-        <v>246</v>
+        <v>3444</v>
       </c>
       <c r="D1759" t="str">
         <v/>
@@ -35582,18 +35582,18 @@
         <v>1</v>
       </c>
       <c r="F1759" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1760" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1760">
-        <v>246</v>
+        <v>4365</v>
       </c>
       <c r="D1760" t="str">
         <v/>
@@ -35602,18 +35602,18 @@
         <v>1</v>
       </c>
       <c r="F1760" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1761" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1761">
-        <v>246</v>
+        <v>4062</v>
       </c>
       <c r="D1761" t="str">
         <v/>
@@ -35622,18 +35622,18 @@
         <v>1</v>
       </c>
       <c r="F1761" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1762" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1762">
-        <v>1838</v>
+        <v>246</v>
       </c>
       <c r="D1762" t="str">
         <v/>
@@ -35642,18 +35642,18 @@
         <v>1</v>
       </c>
       <c r="F1762" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1763" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1763">
-        <v>1844</v>
+        <v>246</v>
       </c>
       <c r="D1763" t="str">
         <v/>
@@ -35662,18 +35662,18 @@
         <v>1</v>
       </c>
       <c r="F1763" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="B1764" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="C1764">
-        <v>1484</v>
+        <v>246</v>
       </c>
       <c r="D1764" t="str">
         <v/>
@@ -35682,18 +35682,18 @@
         <v>1</v>
       </c>
       <c r="F1764" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1765" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1765">
-        <v>1906</v>
+        <v>246</v>
       </c>
       <c r="D1765" t="str">
         <v/>
@@ -35702,18 +35702,18 @@
         <v>1</v>
       </c>
       <c r="F1765" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="B1766" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="C1766">
-        <v>1910</v>
+        <v>246</v>
       </c>
       <c r="D1766" t="str">
         <v/>
@@ -35722,18 +35722,18 @@
         <v>1</v>
       </c>
       <c r="F1766" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1767" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1767">
-        <v>246</v>
+        <v>1838</v>
       </c>
       <c r="D1767" t="str">
         <v/>
@@ -35742,18 +35742,18 @@
         <v>1</v>
       </c>
       <c r="F1767" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1768" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1768">
-        <v>246</v>
+        <v>1844</v>
       </c>
       <c r="D1768" t="str">
         <v/>
@@ -35762,18 +35762,18 @@
         <v>1</v>
       </c>
       <c r="F1768" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1769" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1769">
-        <v>246</v>
+        <v>1484</v>
       </c>
       <c r="D1769" t="str">
         <v/>
@@ -35782,18 +35782,18 @@
         <v>1</v>
       </c>
       <c r="F1769" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1770" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1770">
-        <v>246</v>
+        <v>1906</v>
       </c>
       <c r="D1770" t="str">
         <v/>
@@ -35802,18 +35802,18 @@
         <v>1</v>
       </c>
       <c r="F1770" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1771" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1771">
-        <v>246</v>
+        <v>1910</v>
       </c>
       <c r="D1771" t="str">
         <v/>
@@ -35822,15 +35822,15 @@
         <v>1</v>
       </c>
       <c r="F1771" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1772" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1772">
         <v>246</v>
@@ -35847,10 +35847,10 @@
     </row>
     <row r="1773">
       <c r="A1773" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1773" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1773">
         <v>246</v>
@@ -35867,10 +35867,10 @@
     </row>
     <row r="1774">
       <c r="A1774" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="B1774" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="C1774">
         <v>246</v>
@@ -35887,10 +35887,10 @@
     </row>
     <row r="1775">
       <c r="A1775" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1775" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1775">
         <v>246</v>
@@ -35907,10 +35907,10 @@
     </row>
     <row r="1776">
       <c r="A1776" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="B1776" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="C1776">
         <v>246</v>
@@ -35927,10 +35927,10 @@
     </row>
     <row r="1777">
       <c r="A1777" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1777" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1777">
         <v>246</v>
@@ -35947,10 +35947,10 @@
     </row>
     <row r="1778">
       <c r="A1778" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1778" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1778">
         <v>246</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="1779">
       <c r="A1779" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="B1779" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="C1779">
         <v>246</v>
@@ -35987,10 +35987,10 @@
     </row>
     <row r="1780">
       <c r="A1780" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1780" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1780">
         <v>246</v>
@@ -36007,10 +36007,10 @@
     </row>
     <row r="1781">
       <c r="A1781" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="B1781" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="C1781">
         <v>246</v>
@@ -36027,13 +36027,13 @@
     </row>
     <row r="1782">
       <c r="A1782" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1782" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1782">
-        <v>246</v>
+        <v>13697</v>
       </c>
       <c r="D1782" t="str">
         <v/>
@@ -36042,18 +36042,18 @@
         <v>1</v>
       </c>
       <c r="F1782" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1783" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1783">
-        <v>246</v>
+        <v>13761</v>
       </c>
       <c r="D1783" t="str">
         <v/>
@@ -36062,18 +36062,18 @@
         <v>1</v>
       </c>
       <c r="F1783" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1784" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1784">
-        <v>246</v>
+        <v>12502</v>
       </c>
       <c r="D1784" t="str">
         <v/>
@@ -36082,18 +36082,18 @@
         <v>1</v>
       </c>
       <c r="F1784" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1785" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1785">
-        <v>246</v>
+        <v>13827</v>
       </c>
       <c r="D1785" t="str">
         <v/>
@@ -36102,18 +36102,18 @@
         <v>1</v>
       </c>
       <c r="F1785" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1786" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1786">
-        <v>246</v>
+        <v>13301</v>
       </c>
       <c r="D1786" t="str">
         <v/>
@@ -36122,7 +36122,7 @@
         <v>1</v>
       </c>
       <c r="F1786" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1787">
@@ -42527,13 +42527,13 @@
     </row>
     <row r="2107">
       <c r="A2107" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2107" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2107">
-        <v>13926</v>
+        <v>55371</v>
       </c>
       <c r="D2107" t="str">
         <v/>
@@ -42542,18 +42542,18 @@
         <v>1</v>
       </c>
       <c r="F2107" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2108" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2108">
-        <v>13960</v>
+        <v>55491</v>
       </c>
       <c r="D2108" t="str">
         <v/>
@@ -42562,18 +42562,18 @@
         <v>1</v>
       </c>
       <c r="F2108" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B2109" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C2109">
-        <v>11270</v>
+        <v>44705</v>
       </c>
       <c r="D2109" t="str">
         <v/>
@@ -42582,18 +42582,18 @@
         <v>1</v>
       </c>
       <c r="F2109" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="2110">
       <c r="A2110" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2110" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2110">
-        <v>15639</v>
+        <v>61071</v>
       </c>
       <c r="D2110" t="str">
         <v/>
@@ -42602,18 +42602,18 @@
         <v>1</v>
       </c>
       <c r="F2110" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B2111" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C2111">
-        <v>14837</v>
+        <v>55999</v>
       </c>
       <c r="D2111" t="str">
         <v/>
@@ -42622,18 +42622,18 @@
         <v>1</v>
       </c>
       <c r="F2111" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2112" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2112">
-        <v>2082</v>
+        <v>40894</v>
       </c>
       <c r="D2112" t="str">
         <v/>
@@ -42642,18 +42642,18 @@
         <v>1</v>
       </c>
       <c r="F2112" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2113" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2113">
-        <v>2088</v>
+        <v>40930</v>
       </c>
       <c r="D2113" t="str">
         <v/>
@@ -42662,18 +42662,18 @@
         <v>1</v>
       </c>
       <c r="F2113" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B2114" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C2114">
-        <v>1869</v>
+        <v>32515</v>
       </c>
       <c r="D2114" t="str">
         <v/>
@@ -42682,18 +42682,18 @@
         <v>1</v>
       </c>
       <c r="F2114" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2115" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2115">
-        <v>2132</v>
+        <v>44418</v>
       </c>
       <c r="D2115" t="str">
         <v/>
@@ -42702,18 +42702,18 @@
         <v>1</v>
       </c>
       <c r="F2115" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B2116" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C2116">
-        <v>2275</v>
+        <v>41223</v>
       </c>
       <c r="D2116" t="str">
         <v/>
@@ -42722,18 +42722,18 @@
         <v>1</v>
       </c>
       <c r="F2116" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2117" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2117">
-        <v>1712</v>
+        <v>32341</v>
       </c>
       <c r="D2117" t="str">
         <v/>
@@ -42742,18 +42742,18 @@
         <v>1</v>
       </c>
       <c r="F2117" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2118" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2118">
-        <v>1716</v>
+        <v>32413</v>
       </c>
       <c r="D2118" t="str">
         <v/>
@@ -42762,18 +42762,18 @@
         <v>1</v>
       </c>
       <c r="F2118" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B2119" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C2119">
-        <v>1492</v>
+        <v>26762</v>
       </c>
       <c r="D2119" t="str">
         <v/>
@@ -42782,18 +42782,18 @@
         <v>1</v>
       </c>
       <c r="F2119" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2120" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2120">
-        <v>1967</v>
+        <v>35917</v>
       </c>
       <c r="D2120" t="str">
         <v/>
@@ -42802,18 +42802,18 @@
         <v>1</v>
       </c>
       <c r="F2120" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B2121" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C2121">
-        <v>1889</v>
+        <v>34664</v>
       </c>
       <c r="D2121" t="str">
         <v/>
@@ -42822,18 +42822,18 @@
         <v>1</v>
       </c>
       <c r="F2121" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2122" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2122">
-        <v>10589</v>
+        <v>16711</v>
       </c>
       <c r="D2122" t="str">
         <v/>
@@ -42842,18 +42842,18 @@
         <v>1</v>
       </c>
       <c r="F2122" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2123" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2123">
-        <v>10615</v>
+        <v>16719</v>
       </c>
       <c r="D2123" t="str">
         <v/>
@@ -42862,18 +42862,18 @@
         <v>1</v>
       </c>
       <c r="F2123" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B2124" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C2124">
-        <v>8739</v>
+        <v>13871</v>
       </c>
       <c r="D2124" t="str">
         <v/>
@@ -42882,18 +42882,18 @@
         <v>1</v>
       </c>
       <c r="F2124" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2125" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2125">
-        <v>12403</v>
+        <v>18762</v>
       </c>
       <c r="D2125" t="str">
         <v/>
@@ -42902,18 +42902,18 @@
         <v>1</v>
       </c>
       <c r="F2125" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B2126" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C2126">
-        <v>11610</v>
+        <v>17545</v>
       </c>
       <c r="D2126" t="str">
         <v/>
@@ -42922,18 +42922,18 @@
         <v>1</v>
       </c>
       <c r="F2126" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2127" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2127">
-        <v>1387</v>
+        <v>20884</v>
       </c>
       <c r="D2127" t="str">
         <v/>
@@ -42942,18 +42942,18 @@
         <v>1</v>
       </c>
       <c r="F2127" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2128" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2128">
-        <v>1391</v>
+        <v>20932</v>
       </c>
       <c r="D2128" t="str">
         <v/>
@@ -42962,18 +42962,18 @@
         <v>1</v>
       </c>
       <c r="F2128" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B2129" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C2129">
-        <v>1242</v>
+        <v>17341</v>
       </c>
       <c r="D2129" t="str">
         <v/>
@@ -42982,18 +42982,18 @@
         <v>1</v>
       </c>
       <c r="F2129" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2130" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2130">
-        <v>1442</v>
+        <v>22967</v>
       </c>
       <c r="D2130" t="str">
         <v/>
@@ -43002,18 +43002,18 @@
         <v>1</v>
       </c>
       <c r="F2130" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B2131" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C2131">
-        <v>1422</v>
+        <v>21418</v>
       </c>
       <c r="D2131" t="str">
         <v/>
@@ -43022,18 +43022,18 @@
         <v>1</v>
       </c>
       <c r="F2131" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2132" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2132">
-        <v>13203</v>
+        <v>21743</v>
       </c>
       <c r="D2132" t="str">
         <v/>
@@ -43042,18 +43042,18 @@
         <v>1</v>
       </c>
       <c r="F2132" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2133" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2133">
-        <v>13235</v>
+        <v>21781</v>
       </c>
       <c r="D2133" t="str">
         <v/>
@@ -43062,18 +43062,18 @@
         <v>1</v>
       </c>
       <c r="F2133" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B2134" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C2134">
-        <v>11261</v>
+        <v>17808</v>
       </c>
       <c r="D2134" t="str">
         <v/>
@@ -43082,18 +43082,18 @@
         <v>1</v>
       </c>
       <c r="F2134" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2135" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2135">
-        <v>14912</v>
+        <v>23740</v>
       </c>
       <c r="D2135" t="str">
         <v/>
@@ -43102,18 +43102,18 @@
         <v>1</v>
       </c>
       <c r="F2135" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B2136" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C2136">
-        <v>13720</v>
+        <v>21787</v>
       </c>
       <c r="D2136" t="str">
         <v/>
@@ -43122,18 +43122,18 @@
         <v>1</v>
       </c>
       <c r="F2136" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2137" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2137">
-        <v>16889</v>
+        <v>18079</v>
       </c>
       <c r="D2137" t="str">
         <v/>
@@ -43142,18 +43142,18 @@
         <v>1</v>
       </c>
       <c r="F2137" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2138" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2138">
-        <v>16941</v>
+        <v>18113</v>
       </c>
       <c r="D2138" t="str">
         <v/>
@@ -43162,18 +43162,18 @@
         <v>1</v>
       </c>
       <c r="F2138" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B2139" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C2139">
-        <v>14367</v>
+        <v>15406</v>
       </c>
       <c r="D2139" t="str">
         <v/>
@@ -43182,18 +43182,18 @@
         <v>1</v>
       </c>
       <c r="F2139" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2140" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2140">
-        <v>18776</v>
+        <v>19384</v>
       </c>
       <c r="D2140" t="str">
         <v/>
@@ -43202,18 +43202,18 @@
         <v>1</v>
       </c>
       <c r="F2140" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B2141" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C2141">
-        <v>17584</v>
+        <v>19170</v>
       </c>
       <c r="D2141" t="str">
         <v/>
@@ -43222,18 +43222,18 @@
         <v>1</v>
       </c>
       <c r="F2141" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2142" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2142">
-        <v>1475</v>
+        <v>23106</v>
       </c>
       <c r="D2142" t="str">
         <v/>
@@ -43242,18 +43242,18 @@
         <v>1</v>
       </c>
       <c r="F2142" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2143" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2143">
-        <v>1180</v>
+        <v>23164</v>
       </c>
       <c r="D2143" t="str">
         <v/>
@@ -43262,18 +43262,18 @@
         <v>1</v>
       </c>
       <c r="F2143" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B2144" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C2144">
-        <v>1074</v>
+        <v>19731</v>
       </c>
       <c r="D2144" t="str">
         <v/>
@@ -43282,18 +43282,18 @@
         <v>1</v>
       </c>
       <c r="F2144" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2145" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2145">
-        <v>1381</v>
+        <v>25275</v>
       </c>
       <c r="D2145" t="str">
         <v/>
@@ -43302,18 +43302,18 @@
         <v>1</v>
       </c>
       <c r="F2145" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B2146" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C2146">
-        <v>1183</v>
+        <v>24704</v>
       </c>
       <c r="D2146" t="str">
         <v/>
@@ -43322,18 +43322,18 @@
         <v>1</v>
       </c>
       <c r="F2146" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2147" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2147">
-        <v>55371</v>
+        <v>46222</v>
       </c>
       <c r="D2147" t="str">
         <v/>
@@ -43342,18 +43342,18 @@
         <v>1</v>
       </c>
       <c r="F2147" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2148" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2148">
-        <v>55491</v>
+        <v>46344</v>
       </c>
       <c r="D2148" t="str">
         <v/>
@@ -43362,18 +43362,18 @@
         <v>1</v>
       </c>
       <c r="F2148" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B2149" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C2149">
-        <v>44705</v>
+        <v>38529</v>
       </c>
       <c r="D2149" t="str">
         <v/>
@@ -43382,18 +43382,18 @@
         <v>1</v>
       </c>
       <c r="F2149" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2150" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2150">
-        <v>61071</v>
+        <v>50501</v>
       </c>
       <c r="D2150" t="str">
         <v/>
@@ -43402,18 +43402,18 @@
         <v>1</v>
       </c>
       <c r="F2150" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B2151" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C2151">
-        <v>55999</v>
+        <v>48804</v>
       </c>
       <c r="D2151" t="str">
         <v/>
@@ -43422,18 +43422,18 @@
         <v>1</v>
       </c>
       <c r="F2151" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2152" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2152">
-        <v>40894</v>
+        <v>13926</v>
       </c>
       <c r="D2152" t="str">
         <v/>
@@ -43442,18 +43442,18 @@
         <v>1</v>
       </c>
       <c r="F2152" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2153" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2153">
-        <v>40930</v>
+        <v>13960</v>
       </c>
       <c r="D2153" t="str">
         <v/>
@@ -43462,18 +43462,18 @@
         <v>1</v>
       </c>
       <c r="F2153" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B2154" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C2154">
-        <v>32515</v>
+        <v>11270</v>
       </c>
       <c r="D2154" t="str">
         <v/>
@@ -43482,18 +43482,18 @@
         <v>1</v>
       </c>
       <c r="F2154" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2155" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2155">
-        <v>44418</v>
+        <v>15639</v>
       </c>
       <c r="D2155" t="str">
         <v/>
@@ -43502,18 +43502,18 @@
         <v>1</v>
       </c>
       <c r="F2155" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B2156" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C2156">
-        <v>41223</v>
+        <v>14837</v>
       </c>
       <c r="D2156" t="str">
         <v/>
@@ -43522,18 +43522,18 @@
         <v>1</v>
       </c>
       <c r="F2156" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2157" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2157">
-        <v>32341</v>
+        <v>2082</v>
       </c>
       <c r="D2157" t="str">
         <v/>
@@ -43542,18 +43542,18 @@
         <v>1</v>
       </c>
       <c r="F2157" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2158" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2158">
-        <v>32413</v>
+        <v>2088</v>
       </c>
       <c r="D2158" t="str">
         <v/>
@@ -43562,18 +43562,18 @@
         <v>1</v>
       </c>
       <c r="F2158" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B2159" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C2159">
-        <v>26762</v>
+        <v>1869</v>
       </c>
       <c r="D2159" t="str">
         <v/>
@@ -43582,18 +43582,18 @@
         <v>1</v>
       </c>
       <c r="F2159" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2160" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2160">
-        <v>35917</v>
+        <v>2132</v>
       </c>
       <c r="D2160" t="str">
         <v/>
@@ -43602,18 +43602,18 @@
         <v>1</v>
       </c>
       <c r="F2160" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B2161" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C2161">
-        <v>34664</v>
+        <v>2275</v>
       </c>
       <c r="D2161" t="str">
         <v/>
@@ -43622,18 +43622,18 @@
         <v>1</v>
       </c>
       <c r="F2161" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2162" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2162">
-        <v>16711</v>
+        <v>1712</v>
       </c>
       <c r="D2162" t="str">
         <v/>
@@ -43642,18 +43642,18 @@
         <v>1</v>
       </c>
       <c r="F2162" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2163" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2163">
-        <v>16719</v>
+        <v>1716</v>
       </c>
       <c r="D2163" t="str">
         <v/>
@@ -43662,18 +43662,18 @@
         <v>1</v>
       </c>
       <c r="F2163" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B2164" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C2164">
-        <v>13871</v>
+        <v>1492</v>
       </c>
       <c r="D2164" t="str">
         <v/>
@@ -43682,18 +43682,18 @@
         <v>1</v>
       </c>
       <c r="F2164" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2165" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2165">
-        <v>18762</v>
+        <v>1967</v>
       </c>
       <c r="D2165" t="str">
         <v/>
@@ -43702,18 +43702,18 @@
         <v>1</v>
       </c>
       <c r="F2165" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B2166" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C2166">
-        <v>17545</v>
+        <v>1889</v>
       </c>
       <c r="D2166" t="str">
         <v/>
@@ -43722,18 +43722,18 @@
         <v>1</v>
       </c>
       <c r="F2166" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2167" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2167">
-        <v>20884</v>
+        <v>10589</v>
       </c>
       <c r="D2167" t="str">
         <v/>
@@ -43742,18 +43742,18 @@
         <v>1</v>
       </c>
       <c r="F2167" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2168" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2168">
-        <v>20932</v>
+        <v>10615</v>
       </c>
       <c r="D2168" t="str">
         <v/>
@@ -43762,18 +43762,18 @@
         <v>1</v>
       </c>
       <c r="F2168" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B2169" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C2169">
-        <v>17341</v>
+        <v>8739</v>
       </c>
       <c r="D2169" t="str">
         <v/>
@@ -43782,18 +43782,18 @@
         <v>1</v>
       </c>
       <c r="F2169" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2170" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2170">
-        <v>22967</v>
+        <v>12403</v>
       </c>
       <c r="D2170" t="str">
         <v/>
@@ -43802,18 +43802,18 @@
         <v>1</v>
       </c>
       <c r="F2170" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B2171" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C2171">
-        <v>21418</v>
+        <v>11610</v>
       </c>
       <c r="D2171" t="str">
         <v/>
@@ -43822,18 +43822,18 @@
         <v>1</v>
       </c>
       <c r="F2171" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2172" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2172">
-        <v>21743</v>
+        <v>1387</v>
       </c>
       <c r="D2172" t="str">
         <v/>
@@ -43842,18 +43842,18 @@
         <v>1</v>
       </c>
       <c r="F2172" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2173" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2173">
-        <v>21781</v>
+        <v>1391</v>
       </c>
       <c r="D2173" t="str">
         <v/>
@@ -43862,18 +43862,18 @@
         <v>1</v>
       </c>
       <c r="F2173" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B2174" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C2174">
-        <v>17808</v>
+        <v>1242</v>
       </c>
       <c r="D2174" t="str">
         <v/>
@@ -43882,18 +43882,18 @@
         <v>1</v>
       </c>
       <c r="F2174" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2175" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2175">
-        <v>23740</v>
+        <v>1442</v>
       </c>
       <c r="D2175" t="str">
         <v/>
@@ -43902,18 +43902,18 @@
         <v>1</v>
       </c>
       <c r="F2175" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B2176" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C2176">
-        <v>21787</v>
+        <v>1422</v>
       </c>
       <c r="D2176" t="str">
         <v/>
@@ -43922,18 +43922,18 @@
         <v>1</v>
       </c>
       <c r="F2176" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2177" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2177">
-        <v>18079</v>
+        <v>13203</v>
       </c>
       <c r="D2177" t="str">
         <v/>
@@ -43942,18 +43942,18 @@
         <v>1</v>
       </c>
       <c r="F2177" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2178" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2178">
-        <v>18113</v>
+        <v>13235</v>
       </c>
       <c r="D2178" t="str">
         <v/>
@@ -43962,18 +43962,18 @@
         <v>1</v>
       </c>
       <c r="F2178" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B2179" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C2179">
-        <v>15406</v>
+        <v>11261</v>
       </c>
       <c r="D2179" t="str">
         <v/>
@@ -43982,18 +43982,18 @@
         <v>1</v>
       </c>
       <c r="F2179" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2180" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2180">
-        <v>19384</v>
+        <v>14912</v>
       </c>
       <c r="D2180" t="str">
         <v/>
@@ -44002,18 +44002,18 @@
         <v>1</v>
       </c>
       <c r="F2180" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B2181" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C2181">
-        <v>19170</v>
+        <v>13720</v>
       </c>
       <c r="D2181" t="str">
         <v/>
@@ -44022,18 +44022,18 @@
         <v>1</v>
       </c>
       <c r="F2181" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2182" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2182">
-        <v>23106</v>
+        <v>16889</v>
       </c>
       <c r="D2182" t="str">
         <v/>
@@ -44042,18 +44042,18 @@
         <v>1</v>
       </c>
       <c r="F2182" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2183" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2183">
-        <v>23164</v>
+        <v>16941</v>
       </c>
       <c r="D2183" t="str">
         <v/>
@@ -44062,18 +44062,18 @@
         <v>1</v>
       </c>
       <c r="F2183" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B2184" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C2184">
-        <v>19731</v>
+        <v>14367</v>
       </c>
       <c r="D2184" t="str">
         <v/>
@@ -44082,18 +44082,18 @@
         <v>1</v>
       </c>
       <c r="F2184" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B2185" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C2185">
-        <v>25275</v>
+        <v>18776</v>
       </c>
       <c r="D2185" t="str">
         <v/>
@@ -44102,18 +44102,18 @@
         <v>1</v>
       </c>
       <c r="F2185" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B2186" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C2186">
-        <v>24704</v>
+        <v>17584</v>
       </c>
       <c r="D2186" t="str">
         <v/>
@@ -44122,18 +44122,18 @@
         <v>1</v>
       </c>
       <c r="F2186" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>46222</v>
+        <v>1475</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44142,18 +44142,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>46344</v>
+        <v>1180</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44162,18 +44162,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>38529</v>
+        <v>1074</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44182,18 +44182,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>50501</v>
+        <v>1381</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44202,18 +44202,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>48804</v>
+        <v>1183</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44222,7 +44222,7 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="2192">
@@ -47593,7 +47593,7 @@
         <v>fest_swim_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2360">
-        <v>39837</v>
+        <v>39850</v>
       </c>
       <c r="D2360" t="str">
         <v/>
@@ -47602,7 +47602,7 @@
         <v>1</v>
       </c>
       <c r="F2360" t="str">
-        <v>fcf801167ab1792ba8d408b81e4d1ef2a685e76a43cbc91512bac23429ca3366</v>
+        <v>9a035401a57de7eb1e4357f101dc2f1a9a274aae614e619e0130ef63cdbe20a6</v>
       </c>
     </row>
     <row r="2361">
@@ -47622,7 +47622,7 @@
         <v>1</v>
       </c>
       <c r="F2361" t="str">
-        <v>3b3e54ff392b7b73b73b1ce4852571d279a3c80de9831e307b5c35ad3f572def</v>
+        <v>8d422cf535020d6783efcac425b102204af5218979d10233b79235c2c3ad4dfd</v>
       </c>
     </row>
     <row r="2362">
@@ -47693,7 +47693,7 @@
         <v>fest_swim_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2365">
-        <v>42728</v>
+        <v>42790</v>
       </c>
       <c r="D2365" t="str">
         <v/>
@@ -47702,7 +47702,7 @@
         <v>1</v>
       </c>
       <c r="F2365" t="str">
-        <v>429f0efd11e25a438c3c243211ccecc235331f9f5c8aed4b640b09f2cbb00f6a</v>
+        <v>06a0c7507947a7b002109125e94604e973469f316ebfb538847fffc7c8322d2f</v>
       </c>
     </row>
     <row r="2366">
@@ -47822,7 +47822,7 @@
         <v>1</v>
       </c>
       <c r="F2371" t="str">
-        <v>5c60a8e87d7b79a74b46a7b2f53496882cddec44df8b5851586f67035fe8b070</v>
+        <v>5c804575a7ea740384187ac34fa295d670aef28c86b7b60e833b1bcbc1cdc3c8</v>
       </c>
     </row>
     <row r="2372">
@@ -51427,13 +51427,13 @@
     </row>
     <row r="2552">
       <c r="A2552" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2552" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2552">
-        <v>47372</v>
+        <v>12055</v>
       </c>
       <c r="D2552" t="str">
         <v/>
@@ -51442,18 +51442,18 @@
         <v>1</v>
       </c>
       <c r="F2552" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2553" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2553">
-        <v>47504</v>
+        <v>12091</v>
       </c>
       <c r="D2553" t="str">
         <v/>
@@ -51462,18 +51462,18 @@
         <v>1</v>
       </c>
       <c r="F2553" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2554" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2554">
-        <v>38227</v>
+        <v>9948</v>
       </c>
       <c r="D2554" t="str">
         <v/>
@@ -51482,18 +51482,18 @@
         <v>1</v>
       </c>
       <c r="F2554" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2555" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2555">
-        <v>56677</v>
+        <v>13516</v>
       </c>
       <c r="D2555" t="str">
         <v/>
@@ -51502,18 +51502,18 @@
         <v>1</v>
       </c>
       <c r="F2555" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2556" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2556">
-        <v>50805</v>
+        <v>12778</v>
       </c>
       <c r="D2556" t="str">
         <v/>
@@ -51522,18 +51522,18 @@
         <v>1</v>
       </c>
       <c r="F2556" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2557" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2557">
-        <v>29694</v>
+        <v>32683</v>
       </c>
       <c r="D2557" t="str">
         <v/>
@@ -51542,18 +51542,18 @@
         <v>1</v>
       </c>
       <c r="F2557" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2558" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2558">
-        <v>29774</v>
+        <v>32785</v>
       </c>
       <c r="D2558" t="str">
         <v/>
@@ -51562,18 +51562,18 @@
         <v>1</v>
       </c>
       <c r="F2558" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2559" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2559">
-        <v>23226</v>
+        <v>26804</v>
       </c>
       <c r="D2559" t="str">
         <v/>
@@ -51582,18 +51582,18 @@
         <v>1</v>
       </c>
       <c r="F2559" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2560" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2560">
-        <v>34797</v>
+        <v>35335</v>
       </c>
       <c r="D2560" t="str">
         <v/>
@@ -51602,18 +51602,18 @@
         <v>1</v>
       </c>
       <c r="F2560" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2561" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2561">
-        <v>32402</v>
+        <v>35400</v>
       </c>
       <c r="D2561" t="str">
         <v/>
@@ -51622,18 +51622,18 @@
         <v>1</v>
       </c>
       <c r="F2561" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2562" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2562">
-        <v>13333</v>
+        <v>28261</v>
       </c>
       <c r="D2562" t="str">
         <v/>
@@ -51642,18 +51642,18 @@
         <v>1</v>
       </c>
       <c r="F2562" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2563" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2563">
-        <v>13371</v>
+        <v>28341</v>
       </c>
       <c r="D2563" t="str">
         <v/>
@@ -51662,18 +51662,18 @@
         <v>1</v>
       </c>
       <c r="F2563" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2564" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2564">
-        <v>10935</v>
+        <v>22289</v>
       </c>
       <c r="D2564" t="str">
         <v/>
@@ -51682,18 +51682,18 @@
         <v>1</v>
       </c>
       <c r="F2564" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2565" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2565">
-        <v>14825</v>
+        <v>31961</v>
       </c>
       <c r="D2565" t="str">
         <v/>
@@ -51702,18 +51702,18 @@
         <v>1</v>
       </c>
       <c r="F2565" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2566" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2566">
-        <v>13609</v>
+        <v>30340</v>
       </c>
       <c r="D2566" t="str">
         <v/>
@@ -51722,18 +51722,18 @@
         <v>1</v>
       </c>
       <c r="F2566" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2567" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2567">
-        <v>38115</v>
+        <v>22929</v>
       </c>
       <c r="D2567" t="str">
         <v/>
@@ -51742,18 +51742,18 @@
         <v>1</v>
       </c>
       <c r="F2567" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2568" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2568">
-        <v>38207</v>
+        <v>22997</v>
       </c>
       <c r="D2568" t="str">
         <v/>
@@ -51762,18 +51762,18 @@
         <v>1</v>
       </c>
       <c r="F2568" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2569" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2569">
-        <v>30119</v>
+        <v>18855</v>
       </c>
       <c r="D2569" t="str">
         <v/>
@@ -51782,18 +51782,18 @@
         <v>1</v>
       </c>
       <c r="F2569" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2570" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2570">
-        <v>45716</v>
+        <v>25986</v>
       </c>
       <c r="D2570" t="str">
         <v/>
@@ -51802,18 +51802,18 @@
         <v>1</v>
       </c>
       <c r="F2570" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2571" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2571">
-        <v>42343</v>
+        <v>24638</v>
       </c>
       <c r="D2571" t="str">
         <v/>
@@ -51822,18 +51822,18 @@
         <v>1</v>
       </c>
       <c r="F2571" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2572" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2572">
-        <v>22580</v>
+        <v>27591</v>
       </c>
       <c r="D2572" t="str">
         <v/>
@@ -51842,18 +51842,18 @@
         <v>1</v>
       </c>
       <c r="F2572" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2573" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2573">
-        <v>22642</v>
+        <v>27669</v>
       </c>
       <c r="D2573" t="str">
         <v/>
@@ -51862,18 +51862,18 @@
         <v>1</v>
       </c>
       <c r="F2573" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2574" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2574">
-        <v>18502</v>
+        <v>22217</v>
       </c>
       <c r="D2574" t="str">
         <v/>
@@ -51882,18 +51882,18 @@
         <v>1</v>
       </c>
       <c r="F2574" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2575" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2575">
-        <v>25738</v>
+        <v>30979</v>
       </c>
       <c r="D2575" t="str">
         <v/>
@@ -51902,18 +51902,18 @@
         <v>1</v>
       </c>
       <c r="F2575" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2576" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2576">
-        <v>23812</v>
+        <v>30051</v>
       </c>
       <c r="D2576" t="str">
         <v/>
@@ -51922,18 +51922,18 @@
         <v>1</v>
       </c>
       <c r="F2576" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2577" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2577">
-        <v>25038</v>
+        <v>28673</v>
       </c>
       <c r="D2577" t="str">
         <v/>
@@ -51942,18 +51942,18 @@
         <v>1</v>
       </c>
       <c r="F2577" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2578" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2578">
-        <v>25106</v>
+        <v>28755</v>
       </c>
       <c r="D2578" t="str">
         <v/>
@@ -51962,18 +51962,18 @@
         <v>1</v>
       </c>
       <c r="F2578" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2579" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2579">
-        <v>20304</v>
+        <v>24091</v>
       </c>
       <c r="D2579" t="str">
         <v/>
@@ -51982,18 +51982,18 @@
         <v>1</v>
       </c>
       <c r="F2579" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2580" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2580">
-        <v>31176</v>
+        <v>32509</v>
       </c>
       <c r="D2580" t="str">
         <v/>
@@ -52002,18 +52002,18 @@
         <v>1</v>
       </c>
       <c r="F2580" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2581" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2581">
-        <v>28656</v>
+        <v>31007</v>
       </c>
       <c r="D2581" t="str">
         <v/>
@@ -52022,18 +52022,18 @@
         <v>1</v>
       </c>
       <c r="F2581" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2582" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2582">
-        <v>19450</v>
+        <v>21788</v>
       </c>
       <c r="D2582" t="str">
         <v/>
@@ -52042,18 +52042,18 @@
         <v>1</v>
       </c>
       <c r="F2582" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2583" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2583">
-        <v>19506</v>
+        <v>21848</v>
       </c>
       <c r="D2583" t="str">
         <v/>
@@ -52062,18 +52062,18 @@
         <v>1</v>
       </c>
       <c r="F2583" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2584" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2584">
-        <v>15666</v>
+        <v>18324</v>
       </c>
       <c r="D2584" t="str">
         <v/>
@@ -52082,18 +52082,18 @@
         <v>1</v>
       </c>
       <c r="F2584" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2585" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2585">
-        <v>22550</v>
+        <v>25169</v>
       </c>
       <c r="D2585" t="str">
         <v/>
@@ -52102,18 +52102,18 @@
         <v>1</v>
       </c>
       <c r="F2585" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2586" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2586">
-        <v>20969</v>
+        <v>22994</v>
       </c>
       <c r="D2586" t="str">
         <v/>
@@ -52122,18 +52122,18 @@
         <v>1</v>
       </c>
       <c r="F2586" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2587" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2587">
-        <v>12055</v>
+        <v>31366</v>
       </c>
       <c r="D2587" t="str">
         <v/>
@@ -52142,18 +52142,18 @@
         <v>1</v>
       </c>
       <c r="F2587" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2588" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2588">
-        <v>12091</v>
+        <v>31450</v>
       </c>
       <c r="D2588" t="str">
         <v/>
@@ -52162,18 +52162,18 @@
         <v>1</v>
       </c>
       <c r="F2588" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2589" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2589">
-        <v>9948</v>
+        <v>25325</v>
       </c>
       <c r="D2589" t="str">
         <v/>
@@ -52182,18 +52182,18 @@
         <v>1</v>
       </c>
       <c r="F2589" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2590" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2590">
-        <v>13516</v>
+        <v>36671</v>
       </c>
       <c r="D2590" t="str">
         <v/>
@@ -52202,18 +52202,18 @@
         <v>1</v>
       </c>
       <c r="F2590" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2591" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2591">
-        <v>12778</v>
+        <v>34359</v>
       </c>
       <c r="D2591" t="str">
         <v/>
@@ -52222,18 +52222,18 @@
         <v>1</v>
       </c>
       <c r="F2591" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2592" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2592">
-        <v>32683</v>
+        <v>30007</v>
       </c>
       <c r="D2592" t="str">
         <v/>
@@ -52242,18 +52242,18 @@
         <v>1</v>
       </c>
       <c r="F2592" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2593" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2593">
-        <v>32785</v>
+        <v>30087</v>
       </c>
       <c r="D2593" t="str">
         <v/>
@@ -52262,18 +52262,18 @@
         <v>1</v>
       </c>
       <c r="F2593" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2594" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2594">
-        <v>26804</v>
+        <v>24378</v>
       </c>
       <c r="D2594" t="str">
         <v/>
@@ -52282,18 +52282,18 @@
         <v>1</v>
       </c>
       <c r="F2594" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2595" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2595">
-        <v>35335</v>
+        <v>35724</v>
       </c>
       <c r="D2595" t="str">
         <v/>
@@ -52302,18 +52302,18 @@
         <v>1</v>
       </c>
       <c r="F2595" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2596" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2596">
-        <v>35400</v>
+        <v>33241</v>
       </c>
       <c r="D2596" t="str">
         <v/>
@@ -52322,18 +52322,18 @@
         <v>1</v>
       </c>
       <c r="F2596" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2597" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2597">
-        <v>28261</v>
+        <v>31730</v>
       </c>
       <c r="D2597" t="str">
         <v/>
@@ -52342,18 +52342,18 @@
         <v>1</v>
       </c>
       <c r="F2597" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2598" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2598">
-        <v>28341</v>
+        <v>31818</v>
       </c>
       <c r="D2598" t="str">
         <v/>
@@ -52362,18 +52362,18 @@
         <v>1</v>
       </c>
       <c r="F2598" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2599" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2599">
-        <v>22289</v>
+        <v>25891</v>
       </c>
       <c r="D2599" t="str">
         <v/>
@@ -52382,18 +52382,18 @@
         <v>1</v>
       </c>
       <c r="F2599" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2600" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2600">
-        <v>31961</v>
+        <v>36973</v>
       </c>
       <c r="D2600" t="str">
         <v/>
@@ -52402,18 +52402,18 @@
         <v>1</v>
       </c>
       <c r="F2600" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2601" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2601">
-        <v>30340</v>
+        <v>35473</v>
       </c>
       <c r="D2601" t="str">
         <v/>
@@ -52422,18 +52422,18 @@
         <v>1</v>
       </c>
       <c r="F2601" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2602" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2602">
-        <v>22929</v>
+        <v>24351</v>
       </c>
       <c r="D2602" t="str">
         <v/>
@@ -52442,18 +52442,18 @@
         <v>1</v>
       </c>
       <c r="F2602" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2603" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2603">
-        <v>22997</v>
+        <v>24417</v>
       </c>
       <c r="D2603" t="str">
         <v/>
@@ -52462,18 +52462,18 @@
         <v>1</v>
       </c>
       <c r="F2603" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2604" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2604">
-        <v>18855</v>
+        <v>19827</v>
       </c>
       <c r="D2604" t="str">
         <v/>
@@ -52482,18 +52482,18 @@
         <v>1</v>
       </c>
       <c r="F2604" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2605" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2605">
-        <v>25986</v>
+        <v>28858</v>
       </c>
       <c r="D2605" t="str">
         <v/>
@@ -52502,18 +52502,18 @@
         <v>1</v>
       </c>
       <c r="F2605" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2606" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2606">
-        <v>24638</v>
+        <v>27987</v>
       </c>
       <c r="D2606" t="str">
         <v/>
@@ -52522,18 +52522,18 @@
         <v>1</v>
       </c>
       <c r="F2606" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2607" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2607">
-        <v>27591</v>
+        <v>47372</v>
       </c>
       <c r="D2607" t="str">
         <v/>
@@ -52542,18 +52542,18 @@
         <v>1</v>
       </c>
       <c r="F2607" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2608" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2608">
-        <v>27669</v>
+        <v>47504</v>
       </c>
       <c r="D2608" t="str">
         <v/>
@@ -52562,18 +52562,18 @@
         <v>1</v>
       </c>
       <c r="F2608" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2609" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2609">
-        <v>22217</v>
+        <v>38227</v>
       </c>
       <c r="D2609" t="str">
         <v/>
@@ -52582,18 +52582,18 @@
         <v>1</v>
       </c>
       <c r="F2609" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2610" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2610">
-        <v>30979</v>
+        <v>56677</v>
       </c>
       <c r="D2610" t="str">
         <v/>
@@ -52602,18 +52602,18 @@
         <v>1</v>
       </c>
       <c r="F2610" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2611" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2611">
-        <v>30051</v>
+        <v>50805</v>
       </c>
       <c r="D2611" t="str">
         <v/>
@@ -52622,18 +52622,18 @@
         <v>1</v>
       </c>
       <c r="F2611" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2612" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2612">
-        <v>28673</v>
+        <v>29694</v>
       </c>
       <c r="D2612" t="str">
         <v/>
@@ -52642,18 +52642,18 @@
         <v>1</v>
       </c>
       <c r="F2612" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2613" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2613">
-        <v>28755</v>
+        <v>29774</v>
       </c>
       <c r="D2613" t="str">
         <v/>
@@ -52662,18 +52662,18 @@
         <v>1</v>
       </c>
       <c r="F2613" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2614" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2614">
-        <v>24091</v>
+        <v>23226</v>
       </c>
       <c r="D2614" t="str">
         <v/>
@@ -52682,18 +52682,18 @@
         <v>1</v>
       </c>
       <c r="F2614" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2615" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2615">
-        <v>32509</v>
+        <v>34797</v>
       </c>
       <c r="D2615" t="str">
         <v/>
@@ -52702,18 +52702,18 @@
         <v>1</v>
       </c>
       <c r="F2615" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2616" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2616">
-        <v>31007</v>
+        <v>32402</v>
       </c>
       <c r="D2616" t="str">
         <v/>
@@ -52722,18 +52722,18 @@
         <v>1</v>
       </c>
       <c r="F2616" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2617" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2617">
-        <v>21788</v>
+        <v>13333</v>
       </c>
       <c r="D2617" t="str">
         <v/>
@@ -52742,18 +52742,18 @@
         <v>1</v>
       </c>
       <c r="F2617" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2618" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2618">
-        <v>21848</v>
+        <v>13371</v>
       </c>
       <c r="D2618" t="str">
         <v/>
@@ -52762,18 +52762,18 @@
         <v>1</v>
       </c>
       <c r="F2618" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2619" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2619">
-        <v>18324</v>
+        <v>10935</v>
       </c>
       <c r="D2619" t="str">
         <v/>
@@ -52782,18 +52782,18 @@
         <v>1</v>
       </c>
       <c r="F2619" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2620" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2620">
-        <v>25169</v>
+        <v>14825</v>
       </c>
       <c r="D2620" t="str">
         <v/>
@@ -52802,18 +52802,18 @@
         <v>1</v>
       </c>
       <c r="F2620" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2621" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2621">
-        <v>22994</v>
+        <v>13609</v>
       </c>
       <c r="D2621" t="str">
         <v/>
@@ -52822,18 +52822,18 @@
         <v>1</v>
       </c>
       <c r="F2621" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2622" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2622">
-        <v>31366</v>
+        <v>38115</v>
       </c>
       <c r="D2622" t="str">
         <v/>
@@ -52842,18 +52842,18 @@
         <v>1</v>
       </c>
       <c r="F2622" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2623" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2623">
-        <v>31450</v>
+        <v>38207</v>
       </c>
       <c r="D2623" t="str">
         <v/>
@@ -52862,18 +52862,18 @@
         <v>1</v>
       </c>
       <c r="F2623" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2624" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2624">
-        <v>25325</v>
+        <v>30119</v>
       </c>
       <c r="D2624" t="str">
         <v/>
@@ -52882,18 +52882,18 @@
         <v>1</v>
       </c>
       <c r="F2624" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2625" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2625">
-        <v>36671</v>
+        <v>45716</v>
       </c>
       <c r="D2625" t="str">
         <v/>
@@ -52902,18 +52902,18 @@
         <v>1</v>
       </c>
       <c r="F2625" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2626" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2626">
-        <v>34359</v>
+        <v>42343</v>
       </c>
       <c r="D2626" t="str">
         <v/>
@@ -52922,18 +52922,18 @@
         <v>1</v>
       </c>
       <c r="F2626" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2627" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2627">
-        <v>30007</v>
+        <v>22580</v>
       </c>
       <c r="D2627" t="str">
         <v/>
@@ -52942,18 +52942,18 @@
         <v>1</v>
       </c>
       <c r="F2627" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2628" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2628">
-        <v>30087</v>
+        <v>22642</v>
       </c>
       <c r="D2628" t="str">
         <v/>
@@ -52962,18 +52962,18 @@
         <v>1</v>
       </c>
       <c r="F2628" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2629" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2629">
-        <v>24378</v>
+        <v>18502</v>
       </c>
       <c r="D2629" t="str">
         <v/>
@@ -52982,18 +52982,18 @@
         <v>1</v>
       </c>
       <c r="F2629" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2630" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2630">
-        <v>35724</v>
+        <v>25738</v>
       </c>
       <c r="D2630" t="str">
         <v/>
@@ -53002,18 +53002,18 @@
         <v>1</v>
       </c>
       <c r="F2630" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2631" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2631">
-        <v>33241</v>
+        <v>23812</v>
       </c>
       <c r="D2631" t="str">
         <v/>
@@ -53022,18 +53022,18 @@
         <v>1</v>
       </c>
       <c r="F2631" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2632" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2632">
-        <v>31730</v>
+        <v>25038</v>
       </c>
       <c r="D2632" t="str">
         <v/>
@@ -53042,18 +53042,18 @@
         <v>1</v>
       </c>
       <c r="F2632" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2633" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2633">
-        <v>31818</v>
+        <v>25106</v>
       </c>
       <c r="D2633" t="str">
         <v/>
@@ -53062,18 +53062,18 @@
         <v>1</v>
       </c>
       <c r="F2633" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2634" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2634">
-        <v>25891</v>
+        <v>20304</v>
       </c>
       <c r="D2634" t="str">
         <v/>
@@ -53082,18 +53082,18 @@
         <v>1</v>
       </c>
       <c r="F2634" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2635" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2635">
-        <v>36973</v>
+        <v>31176</v>
       </c>
       <c r="D2635" t="str">
         <v/>
@@ -53102,18 +53102,18 @@
         <v>1</v>
       </c>
       <c r="F2635" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2636" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2636">
-        <v>35473</v>
+        <v>28656</v>
       </c>
       <c r="D2636" t="str">
         <v/>
@@ -53122,18 +53122,18 @@
         <v>1</v>
       </c>
       <c r="F2636" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2637" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2637">
-        <v>24351</v>
+        <v>19450</v>
       </c>
       <c r="D2637" t="str">
         <v/>
@@ -53142,18 +53142,18 @@
         <v>1</v>
       </c>
       <c r="F2637" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2638" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2638">
-        <v>24417</v>
+        <v>19506</v>
       </c>
       <c r="D2638" t="str">
         <v/>
@@ -53162,18 +53162,18 @@
         <v>1</v>
       </c>
       <c r="F2638" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2639" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2639">
-        <v>19827</v>
+        <v>15666</v>
       </c>
       <c r="D2639" t="str">
         <v/>
@@ -53182,18 +53182,18 @@
         <v>1</v>
       </c>
       <c r="F2639" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2640" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2640">
-        <v>28858</v>
+        <v>22550</v>
       </c>
       <c r="D2640" t="str">
         <v/>
@@ -53202,18 +53202,18 @@
         <v>1</v>
       </c>
       <c r="F2640" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2641" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2641">
-        <v>27987</v>
+        <v>20969</v>
       </c>
       <c r="D2641" t="str">
         <v/>
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="F2641" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2642">
@@ -57027,13 +57027,13 @@
     </row>
     <row r="2832">
       <c r="A2832" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2832" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2832">
-        <v>21771</v>
+        <v>246</v>
       </c>
       <c r="D2832" t="str">
         <v/>
@@ -57042,18 +57042,18 @@
         <v>1</v>
       </c>
       <c r="F2832" t="str">
-        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2833" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2833">
-        <v>21821</v>
+        <v>246</v>
       </c>
       <c r="D2833" t="str">
         <v/>
@@ -57062,18 +57062,18 @@
         <v>1</v>
       </c>
       <c r="F2833" t="str">
-        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="B2834" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="C2834">
-        <v>17951</v>
+        <v>246</v>
       </c>
       <c r="D2834" t="str">
         <v/>
@@ -57082,18 +57082,18 @@
         <v>1</v>
       </c>
       <c r="F2834" t="str">
-        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="B2835" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="C2835">
-        <v>24640</v>
+        <v>246</v>
       </c>
       <c r="D2835" t="str">
         <v/>
@@ -57102,18 +57102,18 @@
         <v>1</v>
       </c>
       <c r="F2835" t="str">
-        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="B2836" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="C2836">
-        <v>23749</v>
+        <v>246</v>
       </c>
       <c r="D2836" t="str">
         <v/>
@@ -57122,18 +57122,18 @@
         <v>1</v>
       </c>
       <c r="F2836" t="str">
-        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2837" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2837">
-        <v>246</v>
+        <v>21771</v>
       </c>
       <c r="D2837" t="str">
         <v/>
@@ -57142,18 +57142,18 @@
         <v>1</v>
       </c>
       <c r="F2837" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2838" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2838">
-        <v>246</v>
+        <v>21821</v>
       </c>
       <c r="D2838" t="str">
         <v/>
@@ -57162,18 +57162,18 @@
         <v>1</v>
       </c>
       <c r="F2838" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="B2839" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="C2839">
-        <v>246</v>
+        <v>17951</v>
       </c>
       <c r="D2839" t="str">
         <v/>
@@ -57182,18 +57182,18 @@
         <v>1</v>
       </c>
       <c r="F2839" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2840" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2840">
-        <v>246</v>
+        <v>24640</v>
       </c>
       <c r="D2840" t="str">
         <v/>
@@ -57202,18 +57202,18 @@
         <v>1</v>
       </c>
       <c r="F2840" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="B2841" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="C2841">
-        <v>246</v>
+        <v>23749</v>
       </c>
       <c r="D2841" t="str">
         <v/>
@@ -57222,7 +57222,7 @@
         <v>1</v>
       </c>
       <c r="F2841" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
       </c>
     </row>
     <row r="2842">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -34833,7 +34833,7 @@
         <v>event_summ20_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1722">
-        <v>72357</v>
+        <v>72331</v>
       </c>
       <c r="D1722" t="str">
         <v/>
@@ -34842,7 +34842,7 @@
         <v>1</v>
       </c>
       <c r="F1722" t="str">
-        <v>f322f240aa513af1a33487ed0373a7d45c620de4614a3aaa3d314e18615dad98</v>
+        <v>8ff3088bd6811825cf1c27889dcf2b45a6ac6c7aec968d3275a4dfdcd2eda2c2</v>
       </c>
     </row>
     <row r="1723">
@@ -34882,7 +34882,7 @@
         <v>1</v>
       </c>
       <c r="F1724" t="str">
-        <v>1cb7155634d15d3469a0879f6b97c18e92459a0de8f09075b9cf531dcdf210f6</v>
+        <v>267fa1e3734677560c0a1ade4ea14e945ada05cd9985457bd2692e56c525d56a</v>
       </c>
     </row>
     <row r="1725">
@@ -34922,7 +34922,7 @@
         <v>1</v>
       </c>
       <c r="F1726" t="str">
-        <v>d289f77d891142f9aaa6ebf2a4aa1abd0184f4021b5910ee0c5e07d83664ccdb</v>
+        <v>fcd14369584ec1c8973a901c2b7bfc882b4f37a5ff8cc3ab75226acb7f9758bf</v>
       </c>
     </row>
     <row r="1727">
@@ -35022,7 +35022,7 @@
         <v>1</v>
       </c>
       <c r="F1731" t="str">
-        <v>4a3c49d4246770bc152ba0d7edded94ad7bcba21725000e3b12e1bf091358fa2</v>
+        <v>b9c5e783db62d4d68400a9fa0124681563c592317e874adba96947f5651540e4</v>
       </c>
     </row>
     <row r="1732">
@@ -35113,7 +35113,7 @@
         <v>event_summ20_004_dialog_korean.dialog</v>
       </c>
       <c r="C1736">
-        <v>69583</v>
+        <v>69542</v>
       </c>
       <c r="D1736" t="str">
         <v/>
@@ -35122,7 +35122,7 @@
         <v>1</v>
       </c>
       <c r="F1736" t="str">
-        <v>989bf7fe4a953f6632cb6f553cb07d91da8889fe2a7703f195a490354b0d5b11</v>
+        <v>d8e41759fa5338aaff3c5880d2e108f604f8ab3fa8d3764d700d7cf1d07c8668</v>
       </c>
     </row>
     <row r="1737">
@@ -35213,7 +35213,7 @@
         <v>event_summ20_005_dialog_korean.dialog</v>
       </c>
       <c r="C1741">
-        <v>80234</v>
+        <v>80204</v>
       </c>
       <c r="D1741" t="str">
         <v/>
@@ -35222,7 +35222,7 @@
         <v>1</v>
       </c>
       <c r="F1741" t="str">
-        <v>3878030180c762b19c9771c0f35d41bfde30cbf055c73b309e3d58baf7815b2e</v>
+        <v>db0e528f4f8ad5aaeeb1037d82a02c5d9d64dad513e383579040b5b45fb2b245</v>
       </c>
     </row>
     <row r="1742">
@@ -35322,7 +35322,7 @@
         <v>1</v>
       </c>
       <c r="F1746" t="str">
-        <v>e0bb4faf629f3e1bbcc5c8305060625ebe9dec223e8dce0cd62f0811c3bb93eb</v>
+        <v>7760c05af951d167f32e234f0fc5b1b55103239299ac0086b6f5f057a6a6db2e</v>
       </c>
     </row>
     <row r="1747">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -34833,7 +34833,7 @@
         <v>event_summ20_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1722">
-        <v>72331</v>
+        <v>72357</v>
       </c>
       <c r="D1722" t="str">
         <v/>
@@ -34842,7 +34842,7 @@
         <v>1</v>
       </c>
       <c r="F1722" t="str">
-        <v>8ff3088bd6811825cf1c27889dcf2b45a6ac6c7aec968d3275a4dfdcd2eda2c2</v>
+        <v>f322f240aa513af1a33487ed0373a7d45c620de4614a3aaa3d314e18615dad98</v>
       </c>
     </row>
     <row r="1723">
@@ -35327,13 +35327,13 @@
     </row>
     <row r="1747">
       <c r="A1747" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1747" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1747">
-        <v>246</v>
+        <v>13697</v>
       </c>
       <c r="D1747" t="str">
         <v/>
@@ -35342,18 +35342,18 @@
         <v>1</v>
       </c>
       <c r="F1747" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1748" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1748">
-        <v>246</v>
+        <v>13761</v>
       </c>
       <c r="D1748" t="str">
         <v/>
@@ -35362,18 +35362,18 @@
         <v>1</v>
       </c>
       <c r="F1748" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1749" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1749">
-        <v>246</v>
+        <v>12502</v>
       </c>
       <c r="D1749" t="str">
         <v/>
@@ -35382,18 +35382,18 @@
         <v>1</v>
       </c>
       <c r="F1749" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1750" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1750">
-        <v>246</v>
+        <v>13827</v>
       </c>
       <c r="D1750" t="str">
         <v/>
@@ -35402,18 +35402,18 @@
         <v>1</v>
       </c>
       <c r="F1750" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1751" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1751">
-        <v>246</v>
+        <v>13301</v>
       </c>
       <c r="D1751" t="str">
         <v/>
@@ -35422,18 +35422,18 @@
         <v>1</v>
       </c>
       <c r="F1751" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1752" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1752">
-        <v>246</v>
+        <v>4028</v>
       </c>
       <c r="D1752" t="str">
         <v/>
@@ -35442,18 +35442,18 @@
         <v>1</v>
       </c>
       <c r="F1752" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1753" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1753">
-        <v>246</v>
+        <v>4038</v>
       </c>
       <c r="D1753" t="str">
         <v/>
@@ -35462,18 +35462,18 @@
         <v>1</v>
       </c>
       <c r="F1753" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1754" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1754">
-        <v>246</v>
+        <v>3444</v>
       </c>
       <c r="D1754" t="str">
         <v/>
@@ -35482,18 +35482,18 @@
         <v>1</v>
       </c>
       <c r="F1754" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1755" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1755">
-        <v>246</v>
+        <v>4365</v>
       </c>
       <c r="D1755" t="str">
         <v/>
@@ -35502,18 +35502,18 @@
         <v>1</v>
       </c>
       <c r="F1755" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1756" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1756">
-        <v>246</v>
+        <v>4062</v>
       </c>
       <c r="D1756" t="str">
         <v/>
@@ -35522,18 +35522,18 @@
         <v>1</v>
       </c>
       <c r="F1756" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1757" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1757">
-        <v>4028</v>
+        <v>246</v>
       </c>
       <c r="D1757" t="str">
         <v/>
@@ -35542,18 +35542,18 @@
         <v>1</v>
       </c>
       <c r="F1757" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1758" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1758">
-        <v>4038</v>
+        <v>246</v>
       </c>
       <c r="D1758" t="str">
         <v/>
@@ -35562,18 +35562,18 @@
         <v>1</v>
       </c>
       <c r="F1758" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="B1759" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="C1759">
-        <v>3444</v>
+        <v>246</v>
       </c>
       <c r="D1759" t="str">
         <v/>
@@ -35582,18 +35582,18 @@
         <v>1</v>
       </c>
       <c r="F1759" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1760" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1760">
-        <v>4365</v>
+        <v>246</v>
       </c>
       <c r="D1760" t="str">
         <v/>
@@ -35602,18 +35602,18 @@
         <v>1</v>
       </c>
       <c r="F1760" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="B1761" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="C1761">
-        <v>4062</v>
+        <v>246</v>
       </c>
       <c r="D1761" t="str">
         <v/>
@@ -35622,18 +35622,18 @@
         <v>1</v>
       </c>
       <c r="F1761" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1762" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1762">
-        <v>246</v>
+        <v>1838</v>
       </c>
       <c r="D1762" t="str">
         <v/>
@@ -35642,18 +35642,18 @@
         <v>1</v>
       </c>
       <c r="F1762" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1763" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1763">
-        <v>246</v>
+        <v>1844</v>
       </c>
       <c r="D1763" t="str">
         <v/>
@@ -35662,18 +35662,18 @@
         <v>1</v>
       </c>
       <c r="F1763" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1764" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1764">
-        <v>246</v>
+        <v>1484</v>
       </c>
       <c r="D1764" t="str">
         <v/>
@@ -35682,18 +35682,18 @@
         <v>1</v>
       </c>
       <c r="F1764" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1765" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1765">
-        <v>246</v>
+        <v>1906</v>
       </c>
       <c r="D1765" t="str">
         <v/>
@@ -35702,18 +35702,18 @@
         <v>1</v>
       </c>
       <c r="F1765" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1766" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1766">
-        <v>246</v>
+        <v>1910</v>
       </c>
       <c r="D1766" t="str">
         <v/>
@@ -35722,18 +35722,18 @@
         <v>1</v>
       </c>
       <c r="F1766" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1767" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1767">
-        <v>1838</v>
+        <v>246</v>
       </c>
       <c r="D1767" t="str">
         <v/>
@@ -35742,18 +35742,18 @@
         <v>1</v>
       </c>
       <c r="F1767" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1768" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1768">
-        <v>1844</v>
+        <v>246</v>
       </c>
       <c r="D1768" t="str">
         <v/>
@@ -35762,18 +35762,18 @@
         <v>1</v>
       </c>
       <c r="F1768" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="B1769" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="C1769">
-        <v>1484</v>
+        <v>246</v>
       </c>
       <c r="D1769" t="str">
         <v/>
@@ -35782,18 +35782,18 @@
         <v>1</v>
       </c>
       <c r="F1769" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1770" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1770">
-        <v>1906</v>
+        <v>246</v>
       </c>
       <c r="D1770" t="str">
         <v/>
@@ -35802,18 +35802,18 @@
         <v>1</v>
       </c>
       <c r="F1770" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="B1771" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="C1771">
-        <v>1910</v>
+        <v>246</v>
       </c>
       <c r="D1771" t="str">
         <v/>
@@ -35822,15 +35822,15 @@
         <v>1</v>
       </c>
       <c r="F1771" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1772" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1772">
         <v>246</v>
@@ -35847,10 +35847,10 @@
     </row>
     <row r="1773">
       <c r="A1773" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1773" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1773">
         <v>246</v>
@@ -35867,10 +35867,10 @@
     </row>
     <row r="1774">
       <c r="A1774" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="B1774" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="C1774">
         <v>246</v>
@@ -35887,10 +35887,10 @@
     </row>
     <row r="1775">
       <c r="A1775" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1775" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1775">
         <v>246</v>
@@ -35907,10 +35907,10 @@
     </row>
     <row r="1776">
       <c r="A1776" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="B1776" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="C1776">
         <v>246</v>
@@ -35927,10 +35927,10 @@
     </row>
     <row r="1777">
       <c r="A1777" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1777" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1777">
         <v>246</v>
@@ -35947,10 +35947,10 @@
     </row>
     <row r="1778">
       <c r="A1778" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1778" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1778">
         <v>246</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="1779">
       <c r="A1779" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="B1779" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="C1779">
         <v>246</v>
@@ -35987,10 +35987,10 @@
     </row>
     <row r="1780">
       <c r="A1780" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1780" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1780">
         <v>246</v>
@@ -36007,10 +36007,10 @@
     </row>
     <row r="1781">
       <c r="A1781" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="B1781" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="C1781">
         <v>246</v>
@@ -36027,13 +36027,13 @@
     </row>
     <row r="1782">
       <c r="A1782" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1782" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1782">
-        <v>13697</v>
+        <v>246</v>
       </c>
       <c r="D1782" t="str">
         <v/>
@@ -36042,18 +36042,18 @@
         <v>1</v>
       </c>
       <c r="F1782" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1783" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1783">
-        <v>13761</v>
+        <v>246</v>
       </c>
       <c r="D1783" t="str">
         <v/>
@@ -36062,18 +36062,18 @@
         <v>1</v>
       </c>
       <c r="F1783" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="B1784" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="C1784">
-        <v>12502</v>
+        <v>246</v>
       </c>
       <c r="D1784" t="str">
         <v/>
@@ -36082,18 +36082,18 @@
         <v>1</v>
       </c>
       <c r="F1784" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="B1785" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="C1785">
-        <v>13827</v>
+        <v>246</v>
       </c>
       <c r="D1785" t="str">
         <v/>
@@ -36102,18 +36102,18 @@
         <v>1</v>
       </c>
       <c r="F1785" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="B1786" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="C1786">
-        <v>13301</v>
+        <v>246</v>
       </c>
       <c r="D1786" t="str">
         <v/>
@@ -36122,7 +36122,7 @@
         <v>1</v>
       </c>
       <c r="F1786" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1787">
@@ -42527,13 +42527,13 @@
     </row>
     <row r="2107">
       <c r="A2107" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2107" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2107">
-        <v>55371</v>
+        <v>13926</v>
       </c>
       <c r="D2107" t="str">
         <v/>
@@ -42542,18 +42542,18 @@
         <v>1</v>
       </c>
       <c r="F2107" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2108" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2108">
-        <v>55491</v>
+        <v>13960</v>
       </c>
       <c r="D2108" t="str">
         <v/>
@@ -42562,18 +42562,18 @@
         <v>1</v>
       </c>
       <c r="F2108" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B2109" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C2109">
-        <v>44705</v>
+        <v>11270</v>
       </c>
       <c r="D2109" t="str">
         <v/>
@@ -42582,18 +42582,18 @@
         <v>1</v>
       </c>
       <c r="F2109" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="2110">
       <c r="A2110" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2110" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2110">
-        <v>61071</v>
+        <v>15639</v>
       </c>
       <c r="D2110" t="str">
         <v/>
@@ -42602,18 +42602,18 @@
         <v>1</v>
       </c>
       <c r="F2110" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B2111" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C2111">
-        <v>55999</v>
+        <v>14837</v>
       </c>
       <c r="D2111" t="str">
         <v/>
@@ -42622,18 +42622,18 @@
         <v>1</v>
       </c>
       <c r="F2111" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2112" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2112">
-        <v>40894</v>
+        <v>2082</v>
       </c>
       <c r="D2112" t="str">
         <v/>
@@ -42642,18 +42642,18 @@
         <v>1</v>
       </c>
       <c r="F2112" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2113" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2113">
-        <v>40930</v>
+        <v>2088</v>
       </c>
       <c r="D2113" t="str">
         <v/>
@@ -42662,18 +42662,18 @@
         <v>1</v>
       </c>
       <c r="F2113" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B2114" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C2114">
-        <v>32515</v>
+        <v>1869</v>
       </c>
       <c r="D2114" t="str">
         <v/>
@@ -42682,18 +42682,18 @@
         <v>1</v>
       </c>
       <c r="F2114" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2115" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2115">
-        <v>44418</v>
+        <v>2132</v>
       </c>
       <c r="D2115" t="str">
         <v/>
@@ -42702,18 +42702,18 @@
         <v>1</v>
       </c>
       <c r="F2115" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B2116" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C2116">
-        <v>41223</v>
+        <v>2275</v>
       </c>
       <c r="D2116" t="str">
         <v/>
@@ -42722,18 +42722,18 @@
         <v>1</v>
       </c>
       <c r="F2116" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2117" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2117">
-        <v>32341</v>
+        <v>1712</v>
       </c>
       <c r="D2117" t="str">
         <v/>
@@ -42742,18 +42742,18 @@
         <v>1</v>
       </c>
       <c r="F2117" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2118" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2118">
-        <v>32413</v>
+        <v>1716</v>
       </c>
       <c r="D2118" t="str">
         <v/>
@@ -42762,18 +42762,18 @@
         <v>1</v>
       </c>
       <c r="F2118" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B2119" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C2119">
-        <v>26762</v>
+        <v>1492</v>
       </c>
       <c r="D2119" t="str">
         <v/>
@@ -42782,18 +42782,18 @@
         <v>1</v>
       </c>
       <c r="F2119" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2120" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2120">
-        <v>35917</v>
+        <v>1967</v>
       </c>
       <c r="D2120" t="str">
         <v/>
@@ -42802,18 +42802,18 @@
         <v>1</v>
       </c>
       <c r="F2120" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B2121" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C2121">
-        <v>34664</v>
+        <v>1889</v>
       </c>
       <c r="D2121" t="str">
         <v/>
@@ -42822,18 +42822,18 @@
         <v>1</v>
       </c>
       <c r="F2121" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2122" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2122">
-        <v>16711</v>
+        <v>10589</v>
       </c>
       <c r="D2122" t="str">
         <v/>
@@ -42842,18 +42842,18 @@
         <v>1</v>
       </c>
       <c r="F2122" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2123" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2123">
-        <v>16719</v>
+        <v>10615</v>
       </c>
       <c r="D2123" t="str">
         <v/>
@@ -42862,18 +42862,18 @@
         <v>1</v>
       </c>
       <c r="F2123" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B2124" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C2124">
-        <v>13871</v>
+        <v>8739</v>
       </c>
       <c r="D2124" t="str">
         <v/>
@@ -42882,18 +42882,18 @@
         <v>1</v>
       </c>
       <c r="F2124" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2125" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2125">
-        <v>18762</v>
+        <v>12403</v>
       </c>
       <c r="D2125" t="str">
         <v/>
@@ -42902,18 +42902,18 @@
         <v>1</v>
       </c>
       <c r="F2125" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B2126" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C2126">
-        <v>17545</v>
+        <v>11610</v>
       </c>
       <c r="D2126" t="str">
         <v/>
@@ -42922,18 +42922,18 @@
         <v>1</v>
       </c>
       <c r="F2126" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2127" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2127">
-        <v>20884</v>
+        <v>1387</v>
       </c>
       <c r="D2127" t="str">
         <v/>
@@ -42942,18 +42942,18 @@
         <v>1</v>
       </c>
       <c r="F2127" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2128" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2128">
-        <v>20932</v>
+        <v>1391</v>
       </c>
       <c r="D2128" t="str">
         <v/>
@@ -42962,18 +42962,18 @@
         <v>1</v>
       </c>
       <c r="F2128" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B2129" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C2129">
-        <v>17341</v>
+        <v>1242</v>
       </c>
       <c r="D2129" t="str">
         <v/>
@@ -42982,18 +42982,18 @@
         <v>1</v>
       </c>
       <c r="F2129" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2130" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2130">
-        <v>22967</v>
+        <v>1442</v>
       </c>
       <c r="D2130" t="str">
         <v/>
@@ -43002,18 +43002,18 @@
         <v>1</v>
       </c>
       <c r="F2130" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B2131" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C2131">
-        <v>21418</v>
+        <v>1422</v>
       </c>
       <c r="D2131" t="str">
         <v/>
@@ -43022,18 +43022,18 @@
         <v>1</v>
       </c>
       <c r="F2131" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2132" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2132">
-        <v>21743</v>
+        <v>13203</v>
       </c>
       <c r="D2132" t="str">
         <v/>
@@ -43042,18 +43042,18 @@
         <v>1</v>
       </c>
       <c r="F2132" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2133" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2133">
-        <v>21781</v>
+        <v>13235</v>
       </c>
       <c r="D2133" t="str">
         <v/>
@@ -43062,18 +43062,18 @@
         <v>1</v>
       </c>
       <c r="F2133" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B2134" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C2134">
-        <v>17808</v>
+        <v>11261</v>
       </c>
       <c r="D2134" t="str">
         <v/>
@@ -43082,18 +43082,18 @@
         <v>1</v>
       </c>
       <c r="F2134" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2135" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2135">
-        <v>23740</v>
+        <v>14912</v>
       </c>
       <c r="D2135" t="str">
         <v/>
@@ -43102,18 +43102,18 @@
         <v>1</v>
       </c>
       <c r="F2135" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B2136" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C2136">
-        <v>21787</v>
+        <v>13720</v>
       </c>
       <c r="D2136" t="str">
         <v/>
@@ -43122,18 +43122,18 @@
         <v>1</v>
       </c>
       <c r="F2136" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2137" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2137">
-        <v>18079</v>
+        <v>16889</v>
       </c>
       <c r="D2137" t="str">
         <v/>
@@ -43142,18 +43142,18 @@
         <v>1</v>
       </c>
       <c r="F2137" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2138" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2138">
-        <v>18113</v>
+        <v>16941</v>
       </c>
       <c r="D2138" t="str">
         <v/>
@@ -43162,18 +43162,18 @@
         <v>1</v>
       </c>
       <c r="F2138" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B2139" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C2139">
-        <v>15406</v>
+        <v>14367</v>
       </c>
       <c r="D2139" t="str">
         <v/>
@@ -43182,18 +43182,18 @@
         <v>1</v>
       </c>
       <c r="F2139" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B2140" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C2140">
-        <v>19384</v>
+        <v>18776</v>
       </c>
       <c r="D2140" t="str">
         <v/>
@@ -43202,18 +43202,18 @@
         <v>1</v>
       </c>
       <c r="F2140" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B2141" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C2141">
-        <v>19170</v>
+        <v>17584</v>
       </c>
       <c r="D2141" t="str">
         <v/>
@@ -43222,18 +43222,18 @@
         <v>1</v>
       </c>
       <c r="F2141" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2142" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2142">
-        <v>23106</v>
+        <v>1475</v>
       </c>
       <c r="D2142" t="str">
         <v/>
@@ -43242,18 +43242,18 @@
         <v>1</v>
       </c>
       <c r="F2142" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2143" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2143">
-        <v>23164</v>
+        <v>1180</v>
       </c>
       <c r="D2143" t="str">
         <v/>
@@ -43262,18 +43262,18 @@
         <v>1</v>
       </c>
       <c r="F2143" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B2144" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C2144">
-        <v>19731</v>
+        <v>1074</v>
       </c>
       <c r="D2144" t="str">
         <v/>
@@ -43282,18 +43282,18 @@
         <v>1</v>
       </c>
       <c r="F2144" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2145" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2145">
-        <v>25275</v>
+        <v>1381</v>
       </c>
       <c r="D2145" t="str">
         <v/>
@@ -43302,18 +43302,18 @@
         <v>1</v>
       </c>
       <c r="F2145" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B2146" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C2146">
-        <v>24704</v>
+        <v>1183</v>
       </c>
       <c r="D2146" t="str">
         <v/>
@@ -43322,18 +43322,18 @@
         <v>1</v>
       </c>
       <c r="F2146" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2147" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2147">
-        <v>46222</v>
+        <v>55371</v>
       </c>
       <c r="D2147" t="str">
         <v/>
@@ -43342,18 +43342,18 @@
         <v>1</v>
       </c>
       <c r="F2147" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2148" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2148">
-        <v>46344</v>
+        <v>55491</v>
       </c>
       <c r="D2148" t="str">
         <v/>
@@ -43362,18 +43362,18 @@
         <v>1</v>
       </c>
       <c r="F2148" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B2149" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C2149">
-        <v>38529</v>
+        <v>44705</v>
       </c>
       <c r="D2149" t="str">
         <v/>
@@ -43382,18 +43382,18 @@
         <v>1</v>
       </c>
       <c r="F2149" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2150" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2150">
-        <v>50501</v>
+        <v>61071</v>
       </c>
       <c r="D2150" t="str">
         <v/>
@@ -43402,18 +43402,18 @@
         <v>1</v>
       </c>
       <c r="F2150" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B2151" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C2151">
-        <v>48804</v>
+        <v>55999</v>
       </c>
       <c r="D2151" t="str">
         <v/>
@@ -43422,18 +43422,18 @@
         <v>1</v>
       </c>
       <c r="F2151" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2152" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2152">
-        <v>13926</v>
+        <v>40894</v>
       </c>
       <c r="D2152" t="str">
         <v/>
@@ -43442,18 +43442,18 @@
         <v>1</v>
       </c>
       <c r="F2152" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2153" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2153">
-        <v>13960</v>
+        <v>40930</v>
       </c>
       <c r="D2153" t="str">
         <v/>
@@ -43462,18 +43462,18 @@
         <v>1</v>
       </c>
       <c r="F2153" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B2154" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C2154">
-        <v>11270</v>
+        <v>32515</v>
       </c>
       <c r="D2154" t="str">
         <v/>
@@ -43482,18 +43482,18 @@
         <v>1</v>
       </c>
       <c r="F2154" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2155" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2155">
-        <v>15639</v>
+        <v>44418</v>
       </c>
       <c r="D2155" t="str">
         <v/>
@@ -43502,18 +43502,18 @@
         <v>1</v>
       </c>
       <c r="F2155" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B2156" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C2156">
-        <v>14837</v>
+        <v>41223</v>
       </c>
       <c r="D2156" t="str">
         <v/>
@@ -43522,18 +43522,18 @@
         <v>1</v>
       </c>
       <c r="F2156" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2157" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2157">
-        <v>2082</v>
+        <v>32341</v>
       </c>
       <c r="D2157" t="str">
         <v/>
@@ -43542,18 +43542,18 @@
         <v>1</v>
       </c>
       <c r="F2157" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2158" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2158">
-        <v>2088</v>
+        <v>32413</v>
       </c>
       <c r="D2158" t="str">
         <v/>
@@ -43562,18 +43562,18 @@
         <v>1</v>
       </c>
       <c r="F2158" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B2159" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C2159">
-        <v>1869</v>
+        <v>26762</v>
       </c>
       <c r="D2159" t="str">
         <v/>
@@ -43582,18 +43582,18 @@
         <v>1</v>
       </c>
       <c r="F2159" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2160" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2160">
-        <v>2132</v>
+        <v>35917</v>
       </c>
       <c r="D2160" t="str">
         <v/>
@@ -43602,18 +43602,18 @@
         <v>1</v>
       </c>
       <c r="F2160" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B2161" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C2161">
-        <v>2275</v>
+        <v>34664</v>
       </c>
       <c r="D2161" t="str">
         <v/>
@@ -43622,18 +43622,18 @@
         <v>1</v>
       </c>
       <c r="F2161" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2162" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2162">
-        <v>1712</v>
+        <v>16711</v>
       </c>
       <c r="D2162" t="str">
         <v/>
@@ -43642,18 +43642,18 @@
         <v>1</v>
       </c>
       <c r="F2162" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2163" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2163">
-        <v>1716</v>
+        <v>16719</v>
       </c>
       <c r="D2163" t="str">
         <v/>
@@ -43662,18 +43662,18 @@
         <v>1</v>
       </c>
       <c r="F2163" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B2164" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C2164">
-        <v>1492</v>
+        <v>13871</v>
       </c>
       <c r="D2164" t="str">
         <v/>
@@ -43682,18 +43682,18 @@
         <v>1</v>
       </c>
       <c r="F2164" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2165" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2165">
-        <v>1967</v>
+        <v>18762</v>
       </c>
       <c r="D2165" t="str">
         <v/>
@@ -43702,18 +43702,18 @@
         <v>1</v>
       </c>
       <c r="F2165" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B2166" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C2166">
-        <v>1889</v>
+        <v>17545</v>
       </c>
       <c r="D2166" t="str">
         <v/>
@@ -43722,18 +43722,18 @@
         <v>1</v>
       </c>
       <c r="F2166" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2167" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2167">
-        <v>10589</v>
+        <v>20884</v>
       </c>
       <c r="D2167" t="str">
         <v/>
@@ -43742,18 +43742,18 @@
         <v>1</v>
       </c>
       <c r="F2167" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2168" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2168">
-        <v>10615</v>
+        <v>20932</v>
       </c>
       <c r="D2168" t="str">
         <v/>
@@ -43762,18 +43762,18 @@
         <v>1</v>
       </c>
       <c r="F2168" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B2169" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C2169">
-        <v>8739</v>
+        <v>17341</v>
       </c>
       <c r="D2169" t="str">
         <v/>
@@ -43782,18 +43782,18 @@
         <v>1</v>
       </c>
       <c r="F2169" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2170" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2170">
-        <v>12403</v>
+        <v>22967</v>
       </c>
       <c r="D2170" t="str">
         <v/>
@@ -43802,18 +43802,18 @@
         <v>1</v>
       </c>
       <c r="F2170" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B2171" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C2171">
-        <v>11610</v>
+        <v>21418</v>
       </c>
       <c r="D2171" t="str">
         <v/>
@@ -43822,18 +43822,18 @@
         <v>1</v>
       </c>
       <c r="F2171" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2172" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2172">
-        <v>1387</v>
+        <v>21743</v>
       </c>
       <c r="D2172" t="str">
         <v/>
@@ -43842,18 +43842,18 @@
         <v>1</v>
       </c>
       <c r="F2172" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2173" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2173">
-        <v>1391</v>
+        <v>21781</v>
       </c>
       <c r="D2173" t="str">
         <v/>
@@ -43862,18 +43862,18 @@
         <v>1</v>
       </c>
       <c r="F2173" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B2174" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C2174">
-        <v>1242</v>
+        <v>17808</v>
       </c>
       <c r="D2174" t="str">
         <v/>
@@ -43882,18 +43882,18 @@
         <v>1</v>
       </c>
       <c r="F2174" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2175" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2175">
-        <v>1442</v>
+        <v>23740</v>
       </c>
       <c r="D2175" t="str">
         <v/>
@@ -43902,18 +43902,18 @@
         <v>1</v>
       </c>
       <c r="F2175" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B2176" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C2176">
-        <v>1422</v>
+        <v>21787</v>
       </c>
       <c r="D2176" t="str">
         <v/>
@@ -43922,18 +43922,18 @@
         <v>1</v>
       </c>
       <c r="F2176" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2177" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2177">
-        <v>13203</v>
+        <v>18079</v>
       </c>
       <c r="D2177" t="str">
         <v/>
@@ -43942,18 +43942,18 @@
         <v>1</v>
       </c>
       <c r="F2177" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2178" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2178">
-        <v>13235</v>
+        <v>18113</v>
       </c>
       <c r="D2178" t="str">
         <v/>
@@ -43962,18 +43962,18 @@
         <v>1</v>
       </c>
       <c r="F2178" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B2179" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C2179">
-        <v>11261</v>
+        <v>15406</v>
       </c>
       <c r="D2179" t="str">
         <v/>
@@ -43982,18 +43982,18 @@
         <v>1</v>
       </c>
       <c r="F2179" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2180" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2180">
-        <v>14912</v>
+        <v>19384</v>
       </c>
       <c r="D2180" t="str">
         <v/>
@@ -44002,18 +44002,18 @@
         <v>1</v>
       </c>
       <c r="F2180" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B2181" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C2181">
-        <v>13720</v>
+        <v>19170</v>
       </c>
       <c r="D2181" t="str">
         <v/>
@@ -44022,18 +44022,18 @@
         <v>1</v>
       </c>
       <c r="F2181" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2182" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2182">
-        <v>16889</v>
+        <v>23106</v>
       </c>
       <c r="D2182" t="str">
         <v/>
@@ -44042,18 +44042,18 @@
         <v>1</v>
       </c>
       <c r="F2182" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2183" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2183">
-        <v>16941</v>
+        <v>23164</v>
       </c>
       <c r="D2183" t="str">
         <v/>
@@ -44062,18 +44062,18 @@
         <v>1</v>
       </c>
       <c r="F2183" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B2184" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C2184">
-        <v>14367</v>
+        <v>19731</v>
       </c>
       <c r="D2184" t="str">
         <v/>
@@ -44082,18 +44082,18 @@
         <v>1</v>
       </c>
       <c r="F2184" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2185" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2185">
-        <v>18776</v>
+        <v>25275</v>
       </c>
       <c r="D2185" t="str">
         <v/>
@@ -44102,18 +44102,18 @@
         <v>1</v>
       </c>
       <c r="F2185" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B2186" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C2186">
-        <v>17584</v>
+        <v>24704</v>
       </c>
       <c r="D2186" t="str">
         <v/>
@@ -44122,18 +44122,18 @@
         <v>1</v>
       </c>
       <c r="F2186" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>1475</v>
+        <v>46222</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44142,18 +44142,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>1180</v>
+        <v>46344</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44162,18 +44162,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>1074</v>
+        <v>38529</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44182,18 +44182,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>1381</v>
+        <v>50501</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44202,18 +44202,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>1183</v>
+        <v>48804</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44222,7 +44222,7 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="2192">
@@ -51427,13 +51427,13 @@
     </row>
     <row r="2552">
       <c r="A2552" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2552" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2552">
-        <v>12055</v>
+        <v>47372</v>
       </c>
       <c r="D2552" t="str">
         <v/>
@@ -51442,18 +51442,18 @@
         <v>1</v>
       </c>
       <c r="F2552" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2553" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2553">
-        <v>12091</v>
+        <v>47504</v>
       </c>
       <c r="D2553" t="str">
         <v/>
@@ -51462,18 +51462,18 @@
         <v>1</v>
       </c>
       <c r="F2553" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2554" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2554">
-        <v>9948</v>
+        <v>38227</v>
       </c>
       <c r="D2554" t="str">
         <v/>
@@ -51482,18 +51482,18 @@
         <v>1</v>
       </c>
       <c r="F2554" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2555" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2555">
-        <v>13516</v>
+        <v>56677</v>
       </c>
       <c r="D2555" t="str">
         <v/>
@@ -51502,18 +51502,18 @@
         <v>1</v>
       </c>
       <c r="F2555" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2556" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2556">
-        <v>12778</v>
+        <v>50805</v>
       </c>
       <c r="D2556" t="str">
         <v/>
@@ -51522,18 +51522,18 @@
         <v>1</v>
       </c>
       <c r="F2556" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2557" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2557">
-        <v>32683</v>
+        <v>29694</v>
       </c>
       <c r="D2557" t="str">
         <v/>
@@ -51542,18 +51542,18 @@
         <v>1</v>
       </c>
       <c r="F2557" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2558" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2558">
-        <v>32785</v>
+        <v>29774</v>
       </c>
       <c r="D2558" t="str">
         <v/>
@@ -51562,18 +51562,18 @@
         <v>1</v>
       </c>
       <c r="F2558" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2559" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2559">
-        <v>26804</v>
+        <v>23226</v>
       </c>
       <c r="D2559" t="str">
         <v/>
@@ -51582,18 +51582,18 @@
         <v>1</v>
       </c>
       <c r="F2559" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2560" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2560">
-        <v>35335</v>
+        <v>34797</v>
       </c>
       <c r="D2560" t="str">
         <v/>
@@ -51602,18 +51602,18 @@
         <v>1</v>
       </c>
       <c r="F2560" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2561" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2561">
-        <v>35400</v>
+        <v>32402</v>
       </c>
       <c r="D2561" t="str">
         <v/>
@@ -51622,18 +51622,18 @@
         <v>1</v>
       </c>
       <c r="F2561" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2562" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2562">
-        <v>28261</v>
+        <v>13333</v>
       </c>
       <c r="D2562" t="str">
         <v/>
@@ -51642,18 +51642,18 @@
         <v>1</v>
       </c>
       <c r="F2562" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2563" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2563">
-        <v>28341</v>
+        <v>13371</v>
       </c>
       <c r="D2563" t="str">
         <v/>
@@ -51662,18 +51662,18 @@
         <v>1</v>
       </c>
       <c r="F2563" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2564" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2564">
-        <v>22289</v>
+        <v>10935</v>
       </c>
       <c r="D2564" t="str">
         <v/>
@@ -51682,18 +51682,18 @@
         <v>1</v>
       </c>
       <c r="F2564" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2565" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2565">
-        <v>31961</v>
+        <v>14825</v>
       </c>
       <c r="D2565" t="str">
         <v/>
@@ -51702,18 +51702,18 @@
         <v>1</v>
       </c>
       <c r="F2565" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2566" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2566">
-        <v>30340</v>
+        <v>13609</v>
       </c>
       <c r="D2566" t="str">
         <v/>
@@ -51722,18 +51722,18 @@
         <v>1</v>
       </c>
       <c r="F2566" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2567" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2567">
-        <v>22929</v>
+        <v>38115</v>
       </c>
       <c r="D2567" t="str">
         <v/>
@@ -51742,18 +51742,18 @@
         <v>1</v>
       </c>
       <c r="F2567" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2568" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2568">
-        <v>22997</v>
+        <v>38207</v>
       </c>
       <c r="D2568" t="str">
         <v/>
@@ -51762,18 +51762,18 @@
         <v>1</v>
       </c>
       <c r="F2568" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2569" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2569">
-        <v>18855</v>
+        <v>30119</v>
       </c>
       <c r="D2569" t="str">
         <v/>
@@ -51782,18 +51782,18 @@
         <v>1</v>
       </c>
       <c r="F2569" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2570" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2570">
-        <v>25986</v>
+        <v>45716</v>
       </c>
       <c r="D2570" t="str">
         <v/>
@@ -51802,18 +51802,18 @@
         <v>1</v>
       </c>
       <c r="F2570" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2571" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2571">
-        <v>24638</v>
+        <v>42343</v>
       </c>
       <c r="D2571" t="str">
         <v/>
@@ -51822,18 +51822,18 @@
         <v>1</v>
       </c>
       <c r="F2571" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2572" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2572">
-        <v>27591</v>
+        <v>22580</v>
       </c>
       <c r="D2572" t="str">
         <v/>
@@ -51842,18 +51842,18 @@
         <v>1</v>
       </c>
       <c r="F2572" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2573" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2573">
-        <v>27669</v>
+        <v>22642</v>
       </c>
       <c r="D2573" t="str">
         <v/>
@@ -51862,18 +51862,18 @@
         <v>1</v>
       </c>
       <c r="F2573" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2574" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2574">
-        <v>22217</v>
+        <v>18502</v>
       </c>
       <c r="D2574" t="str">
         <v/>
@@ -51882,18 +51882,18 @@
         <v>1</v>
       </c>
       <c r="F2574" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2575" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2575">
-        <v>30979</v>
+        <v>25738</v>
       </c>
       <c r="D2575" t="str">
         <v/>
@@ -51902,18 +51902,18 @@
         <v>1</v>
       </c>
       <c r="F2575" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2576" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2576">
-        <v>30051</v>
+        <v>23812</v>
       </c>
       <c r="D2576" t="str">
         <v/>
@@ -51922,18 +51922,18 @@
         <v>1</v>
       </c>
       <c r="F2576" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2577" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2577">
-        <v>28673</v>
+        <v>25038</v>
       </c>
       <c r="D2577" t="str">
         <v/>
@@ -51942,18 +51942,18 @@
         <v>1</v>
       </c>
       <c r="F2577" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2578" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2578">
-        <v>28755</v>
+        <v>25106</v>
       </c>
       <c r="D2578" t="str">
         <v/>
@@ -51962,18 +51962,18 @@
         <v>1</v>
       </c>
       <c r="F2578" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2579" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2579">
-        <v>24091</v>
+        <v>20304</v>
       </c>
       <c r="D2579" t="str">
         <v/>
@@ -51982,18 +51982,18 @@
         <v>1</v>
       </c>
       <c r="F2579" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2580" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2580">
-        <v>32509</v>
+        <v>31176</v>
       </c>
       <c r="D2580" t="str">
         <v/>
@@ -52002,18 +52002,18 @@
         <v>1</v>
       </c>
       <c r="F2580" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2581" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2581">
-        <v>31007</v>
+        <v>28656</v>
       </c>
       <c r="D2581" t="str">
         <v/>
@@ -52022,18 +52022,18 @@
         <v>1</v>
       </c>
       <c r="F2581" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2582" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2582">
-        <v>21788</v>
+        <v>19450</v>
       </c>
       <c r="D2582" t="str">
         <v/>
@@ -52042,18 +52042,18 @@
         <v>1</v>
       </c>
       <c r="F2582" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2583" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2583">
-        <v>21848</v>
+        <v>19506</v>
       </c>
       <c r="D2583" t="str">
         <v/>
@@ -52062,18 +52062,18 @@
         <v>1</v>
       </c>
       <c r="F2583" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2584" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2584">
-        <v>18324</v>
+        <v>15666</v>
       </c>
       <c r="D2584" t="str">
         <v/>
@@ -52082,18 +52082,18 @@
         <v>1</v>
       </c>
       <c r="F2584" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2585" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2585">
-        <v>25169</v>
+        <v>22550</v>
       </c>
       <c r="D2585" t="str">
         <v/>
@@ -52102,18 +52102,18 @@
         <v>1</v>
       </c>
       <c r="F2585" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2586" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2586">
-        <v>22994</v>
+        <v>20969</v>
       </c>
       <c r="D2586" t="str">
         <v/>
@@ -52122,18 +52122,18 @@
         <v>1</v>
       </c>
       <c r="F2586" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2587" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2587">
-        <v>31366</v>
+        <v>12055</v>
       </c>
       <c r="D2587" t="str">
         <v/>
@@ -52142,18 +52142,18 @@
         <v>1</v>
       </c>
       <c r="F2587" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2588" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2588">
-        <v>31450</v>
+        <v>12091</v>
       </c>
       <c r="D2588" t="str">
         <v/>
@@ -52162,18 +52162,18 @@
         <v>1</v>
       </c>
       <c r="F2588" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2589" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2589">
-        <v>25325</v>
+        <v>9948</v>
       </c>
       <c r="D2589" t="str">
         <v/>
@@ -52182,18 +52182,18 @@
         <v>1</v>
       </c>
       <c r="F2589" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2590" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2590">
-        <v>36671</v>
+        <v>13516</v>
       </c>
       <c r="D2590" t="str">
         <v/>
@@ -52202,18 +52202,18 @@
         <v>1</v>
       </c>
       <c r="F2590" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2591" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2591">
-        <v>34359</v>
+        <v>12778</v>
       </c>
       <c r="D2591" t="str">
         <v/>
@@ -52222,18 +52222,18 @@
         <v>1</v>
       </c>
       <c r="F2591" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2592" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2592">
-        <v>30007</v>
+        <v>32683</v>
       </c>
       <c r="D2592" t="str">
         <v/>
@@ -52242,18 +52242,18 @@
         <v>1</v>
       </c>
       <c r="F2592" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2593" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2593">
-        <v>30087</v>
+        <v>32785</v>
       </c>
       <c r="D2593" t="str">
         <v/>
@@ -52262,18 +52262,18 @@
         <v>1</v>
       </c>
       <c r="F2593" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2594" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2594">
-        <v>24378</v>
+        <v>26804</v>
       </c>
       <c r="D2594" t="str">
         <v/>
@@ -52282,18 +52282,18 @@
         <v>1</v>
       </c>
       <c r="F2594" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2595" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2595">
-        <v>35724</v>
+        <v>35335</v>
       </c>
       <c r="D2595" t="str">
         <v/>
@@ -52302,18 +52302,18 @@
         <v>1</v>
       </c>
       <c r="F2595" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2596" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2596">
-        <v>33241</v>
+        <v>35400</v>
       </c>
       <c r="D2596" t="str">
         <v/>
@@ -52322,18 +52322,18 @@
         <v>1</v>
       </c>
       <c r="F2596" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2597" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2597">
-        <v>31730</v>
+        <v>28261</v>
       </c>
       <c r="D2597" t="str">
         <v/>
@@ -52342,18 +52342,18 @@
         <v>1</v>
       </c>
       <c r="F2597" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2598" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2598">
-        <v>31818</v>
+        <v>28341</v>
       </c>
       <c r="D2598" t="str">
         <v/>
@@ -52362,18 +52362,18 @@
         <v>1</v>
       </c>
       <c r="F2598" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2599" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2599">
-        <v>25891</v>
+        <v>22289</v>
       </c>
       <c r="D2599" t="str">
         <v/>
@@ -52382,18 +52382,18 @@
         <v>1</v>
       </c>
       <c r="F2599" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2600" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2600">
-        <v>36973</v>
+        <v>31961</v>
       </c>
       <c r="D2600" t="str">
         <v/>
@@ -52402,18 +52402,18 @@
         <v>1</v>
       </c>
       <c r="F2600" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2601" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2601">
-        <v>35473</v>
+        <v>30340</v>
       </c>
       <c r="D2601" t="str">
         <v/>
@@ -52422,18 +52422,18 @@
         <v>1</v>
       </c>
       <c r="F2601" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2602" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2602">
-        <v>24351</v>
+        <v>22929</v>
       </c>
       <c r="D2602" t="str">
         <v/>
@@ -52442,18 +52442,18 @@
         <v>1</v>
       </c>
       <c r="F2602" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2603" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2603">
-        <v>24417</v>
+        <v>22997</v>
       </c>
       <c r="D2603" t="str">
         <v/>
@@ -52462,18 +52462,18 @@
         <v>1</v>
       </c>
       <c r="F2603" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2604" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2604">
-        <v>19827</v>
+        <v>18855</v>
       </c>
       <c r="D2604" t="str">
         <v/>
@@ -52482,18 +52482,18 @@
         <v>1</v>
       </c>
       <c r="F2604" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2605" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2605">
-        <v>28858</v>
+        <v>25986</v>
       </c>
       <c r="D2605" t="str">
         <v/>
@@ -52502,18 +52502,18 @@
         <v>1</v>
       </c>
       <c r="F2605" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2606" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2606">
-        <v>27987</v>
+        <v>24638</v>
       </c>
       <c r="D2606" t="str">
         <v/>
@@ -52522,18 +52522,18 @@
         <v>1</v>
       </c>
       <c r="F2606" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2607" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2607">
-        <v>47372</v>
+        <v>27591</v>
       </c>
       <c r="D2607" t="str">
         <v/>
@@ -52542,18 +52542,18 @@
         <v>1</v>
       </c>
       <c r="F2607" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2608" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2608">
-        <v>47504</v>
+        <v>27669</v>
       </c>
       <c r="D2608" t="str">
         <v/>
@@ -52562,18 +52562,18 @@
         <v>1</v>
       </c>
       <c r="F2608" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2609" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2609">
-        <v>38227</v>
+        <v>22217</v>
       </c>
       <c r="D2609" t="str">
         <v/>
@@ -52582,18 +52582,18 @@
         <v>1</v>
       </c>
       <c r="F2609" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2610" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2610">
-        <v>56677</v>
+        <v>30979</v>
       </c>
       <c r="D2610" t="str">
         <v/>
@@ -52602,18 +52602,18 @@
         <v>1</v>
       </c>
       <c r="F2610" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2611" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2611">
-        <v>50805</v>
+        <v>30051</v>
       </c>
       <c r="D2611" t="str">
         <v/>
@@ -52622,18 +52622,18 @@
         <v>1</v>
       </c>
       <c r="F2611" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2612" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2612">
-        <v>29694</v>
+        <v>28673</v>
       </c>
       <c r="D2612" t="str">
         <v/>
@@ -52642,18 +52642,18 @@
         <v>1</v>
       </c>
       <c r="F2612" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2613" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2613">
-        <v>29774</v>
+        <v>28755</v>
       </c>
       <c r="D2613" t="str">
         <v/>
@@ -52662,18 +52662,18 @@
         <v>1</v>
       </c>
       <c r="F2613" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2614" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2614">
-        <v>23226</v>
+        <v>24091</v>
       </c>
       <c r="D2614" t="str">
         <v/>
@@ -52682,18 +52682,18 @@
         <v>1</v>
       </c>
       <c r="F2614" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2615" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2615">
-        <v>34797</v>
+        <v>32509</v>
       </c>
       <c r="D2615" t="str">
         <v/>
@@ -52702,18 +52702,18 @@
         <v>1</v>
       </c>
       <c r="F2615" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2616" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2616">
-        <v>32402</v>
+        <v>31007</v>
       </c>
       <c r="D2616" t="str">
         <v/>
@@ -52722,18 +52722,18 @@
         <v>1</v>
       </c>
       <c r="F2616" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2617" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2617">
-        <v>13333</v>
+        <v>21788</v>
       </c>
       <c r="D2617" t="str">
         <v/>
@@ -52742,18 +52742,18 @@
         <v>1</v>
       </c>
       <c r="F2617" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2618" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2618">
-        <v>13371</v>
+        <v>21848</v>
       </c>
       <c r="D2618" t="str">
         <v/>
@@ -52762,18 +52762,18 @@
         <v>1</v>
       </c>
       <c r="F2618" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2619" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2619">
-        <v>10935</v>
+        <v>18324</v>
       </c>
       <c r="D2619" t="str">
         <v/>
@@ -52782,18 +52782,18 @@
         <v>1</v>
       </c>
       <c r="F2619" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2620" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2620">
-        <v>14825</v>
+        <v>25169</v>
       </c>
       <c r="D2620" t="str">
         <v/>
@@ -52802,18 +52802,18 @@
         <v>1</v>
       </c>
       <c r="F2620" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2621" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2621">
-        <v>13609</v>
+        <v>22994</v>
       </c>
       <c r="D2621" t="str">
         <v/>
@@ -52822,18 +52822,18 @@
         <v>1</v>
       </c>
       <c r="F2621" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2622" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2622">
-        <v>38115</v>
+        <v>31366</v>
       </c>
       <c r="D2622" t="str">
         <v/>
@@ -52842,18 +52842,18 @@
         <v>1</v>
       </c>
       <c r="F2622" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2623" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2623">
-        <v>38207</v>
+        <v>31450</v>
       </c>
       <c r="D2623" t="str">
         <v/>
@@ -52862,18 +52862,18 @@
         <v>1</v>
       </c>
       <c r="F2623" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2624" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2624">
-        <v>30119</v>
+        <v>25325</v>
       </c>
       <c r="D2624" t="str">
         <v/>
@@ -52882,18 +52882,18 @@
         <v>1</v>
       </c>
       <c r="F2624" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2625" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2625">
-        <v>45716</v>
+        <v>36671</v>
       </c>
       <c r="D2625" t="str">
         <v/>
@@ -52902,18 +52902,18 @@
         <v>1</v>
       </c>
       <c r="F2625" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2626" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2626">
-        <v>42343</v>
+        <v>34359</v>
       </c>
       <c r="D2626" t="str">
         <v/>
@@ -52922,18 +52922,18 @@
         <v>1</v>
       </c>
       <c r="F2626" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2627" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2627">
-        <v>22580</v>
+        <v>30007</v>
       </c>
       <c r="D2627" t="str">
         <v/>
@@ -52942,18 +52942,18 @@
         <v>1</v>
       </c>
       <c r="F2627" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2628" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2628">
-        <v>22642</v>
+        <v>30087</v>
       </c>
       <c r="D2628" t="str">
         <v/>
@@ -52962,18 +52962,18 @@
         <v>1</v>
       </c>
       <c r="F2628" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2629" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2629">
-        <v>18502</v>
+        <v>24378</v>
       </c>
       <c r="D2629" t="str">
         <v/>
@@ -52982,18 +52982,18 @@
         <v>1</v>
       </c>
       <c r="F2629" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2630" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2630">
-        <v>25738</v>
+        <v>35724</v>
       </c>
       <c r="D2630" t="str">
         <v/>
@@ -53002,18 +53002,18 @@
         <v>1</v>
       </c>
       <c r="F2630" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2631" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2631">
-        <v>23812</v>
+        <v>33241</v>
       </c>
       <c r="D2631" t="str">
         <v/>
@@ -53022,18 +53022,18 @@
         <v>1</v>
       </c>
       <c r="F2631" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2632" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2632">
-        <v>25038</v>
+        <v>31730</v>
       </c>
       <c r="D2632" t="str">
         <v/>
@@ -53042,18 +53042,18 @@
         <v>1</v>
       </c>
       <c r="F2632" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2633" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2633">
-        <v>25106</v>
+        <v>31818</v>
       </c>
       <c r="D2633" t="str">
         <v/>
@@ -53062,18 +53062,18 @@
         <v>1</v>
       </c>
       <c r="F2633" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2634" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2634">
-        <v>20304</v>
+        <v>25891</v>
       </c>
       <c r="D2634" t="str">
         <v/>
@@ -53082,18 +53082,18 @@
         <v>1</v>
       </c>
       <c r="F2634" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2635" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2635">
-        <v>31176</v>
+        <v>36973</v>
       </c>
       <c r="D2635" t="str">
         <v/>
@@ -53102,18 +53102,18 @@
         <v>1</v>
       </c>
       <c r="F2635" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2636" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2636">
-        <v>28656</v>
+        <v>35473</v>
       </c>
       <c r="D2636" t="str">
         <v/>
@@ -53122,18 +53122,18 @@
         <v>1</v>
       </c>
       <c r="F2636" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2637" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2637">
-        <v>19450</v>
+        <v>24351</v>
       </c>
       <c r="D2637" t="str">
         <v/>
@@ -53142,18 +53142,18 @@
         <v>1</v>
       </c>
       <c r="F2637" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2638" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2638">
-        <v>19506</v>
+        <v>24417</v>
       </c>
       <c r="D2638" t="str">
         <v/>
@@ -53162,18 +53162,18 @@
         <v>1</v>
       </c>
       <c r="F2638" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2639" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2639">
-        <v>15666</v>
+        <v>19827</v>
       </c>
       <c r="D2639" t="str">
         <v/>
@@ -53182,18 +53182,18 @@
         <v>1</v>
       </c>
       <c r="F2639" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2640" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2640">
-        <v>22550</v>
+        <v>28858</v>
       </c>
       <c r="D2640" t="str">
         <v/>
@@ -53202,18 +53202,18 @@
         <v>1</v>
       </c>
       <c r="F2640" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2641" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2641">
-        <v>20969</v>
+        <v>27987</v>
       </c>
       <c r="D2641" t="str">
         <v/>
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="F2641" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2642">
@@ -57027,13 +57027,13 @@
     </row>
     <row r="2832">
       <c r="A2832" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2832" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2832">
-        <v>246</v>
+        <v>21771</v>
       </c>
       <c r="D2832" t="str">
         <v/>
@@ -57042,18 +57042,18 @@
         <v>1</v>
       </c>
       <c r="F2832" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2833" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2833">
-        <v>246</v>
+        <v>21821</v>
       </c>
       <c r="D2833" t="str">
         <v/>
@@ -57062,18 +57062,18 @@
         <v>1</v>
       </c>
       <c r="F2833" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="B2834" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="C2834">
-        <v>246</v>
+        <v>17951</v>
       </c>
       <c r="D2834" t="str">
         <v/>
@@ -57082,18 +57082,18 @@
         <v>1</v>
       </c>
       <c r="F2834" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2835" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2835">
-        <v>246</v>
+        <v>24640</v>
       </c>
       <c r="D2835" t="str">
         <v/>
@@ -57102,18 +57102,18 @@
         <v>1</v>
       </c>
       <c r="F2835" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="B2836" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="C2836">
-        <v>246</v>
+        <v>23749</v>
       </c>
       <c r="D2836" t="str">
         <v/>
@@ -57122,18 +57122,18 @@
         <v>1</v>
       </c>
       <c r="F2836" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2837" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2837">
-        <v>21771</v>
+        <v>246</v>
       </c>
       <c r="D2837" t="str">
         <v/>
@@ -57142,18 +57142,18 @@
         <v>1</v>
       </c>
       <c r="F2837" t="str">
-        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2838" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2838">
-        <v>21821</v>
+        <v>246</v>
       </c>
       <c r="D2838" t="str">
         <v/>
@@ -57162,18 +57162,18 @@
         <v>1</v>
       </c>
       <c r="F2838" t="str">
-        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="B2839" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="C2839">
-        <v>17951</v>
+        <v>246</v>
       </c>
       <c r="D2839" t="str">
         <v/>
@@ -57182,18 +57182,18 @@
         <v>1</v>
       </c>
       <c r="F2839" t="str">
-        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="B2840" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="C2840">
-        <v>24640</v>
+        <v>246</v>
       </c>
       <c r="D2840" t="str">
         <v/>
@@ -57202,18 +57202,18 @@
         <v>1</v>
       </c>
       <c r="F2840" t="str">
-        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="B2841" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="C2841">
-        <v>23749</v>
+        <v>246</v>
       </c>
       <c r="D2841" t="str">
         <v/>
@@ -57222,7 +57222,7 @@
         <v>1</v>
       </c>
       <c r="F2841" t="str">
-        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2842">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -46993,7 +46993,7 @@
         <v>fest_moon_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2330">
-        <v>28605</v>
+        <v>28592</v>
       </c>
       <c r="D2330" t="str">
         <v/>
@@ -47002,7 +47002,7 @@
         <v>1</v>
       </c>
       <c r="F2330" t="str">
-        <v>4b7c5c5d9d2007451e8b4f5ee1f224978c395881501a740429692f439ffa5816</v>
+        <v>98c0b3315850e95088465a9056e748f7c79ee32fcef7f4a79f7e3318695ea941</v>
       </c>
     </row>
     <row r="2331">
@@ -47013,7 +47013,7 @@
         <v>fest_moon_001_dialog_korean.dialog</v>
       </c>
       <c r="C2331">
-        <v>26803</v>
+        <v>26829</v>
       </c>
       <c r="D2331" t="str">
         <v/>
@@ -47022,7 +47022,7 @@
         <v>1</v>
       </c>
       <c r="F2331" t="str">
-        <v>fcd0f560438fb4ca184668fb80e52479e96f4ab76cb58970e0559c290995a008</v>
+        <v>d881053e8400f2fad12dd2fb319466b664218d17bda52a9eef1ed66837aac116</v>
       </c>
     </row>
     <row r="2332">
@@ -47213,7 +47213,7 @@
         <v>fest_moon_003_dialog_korean.dialog</v>
       </c>
       <c r="C2341">
-        <v>18747</v>
+        <v>18721</v>
       </c>
       <c r="D2341" t="str">
         <v/>
@@ -47222,7 +47222,7 @@
         <v>1</v>
       </c>
       <c r="F2341" t="str">
-        <v>0dfce4d5d759094636f4d648940f1b7f5faa910b9a025fbc15e4144ce93b634e</v>
+        <v>58947cfd6d25bbd5c20790cacfbe3a380aed7fc3396f27be12f1d9e7521ab324</v>
       </c>
     </row>
     <row r="2342">
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="F2351" t="str">
-        <v>7c7da0850c7d0e19a94a2435389f01488ef190356289f3180d48f237f40d91ed</v>
+        <v>dbe8a789b49a66d4e0698c125297bfd944b4b081f278d7af0f743b8e9e307774</v>
       </c>
     </row>
     <row r="2352">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -37073,7 +37073,7 @@
         <v>fest_024_002_dialog_english.dialog</v>
       </c>
       <c r="C1834">
-        <v>40814</v>
+        <v>40734</v>
       </c>
       <c r="D1834" t="str">
         <v/>
@@ -37082,7 +37082,7 @@
         <v>1</v>
       </c>
       <c r="F1834" t="str">
-        <v>cdb3d800099ce290f98a7b9b07f2422484a2939851cef7a773d406e017cc5b4f</v>
+        <v>30f1f31f0cbc130f5c513d923c47980298a117bf1bf3a3af653e805fc00fcd8e</v>
       </c>
     </row>
     <row r="1835">
@@ -37273,7 +37273,7 @@
         <v>fest_024_004_dialog_english.dialog</v>
       </c>
       <c r="C1844">
-        <v>38315</v>
+        <v>38299</v>
       </c>
       <c r="D1844" t="str">
         <v/>
@@ -37282,7 +37282,7 @@
         <v>1</v>
       </c>
       <c r="F1844" t="str">
-        <v>f052b622f639f8aa8e29623b0c017ef30f0f4f3564a00c081fa1102ac53ea53a</v>
+        <v>130a4a542ee67a804ed99663d7750e147a3e31c948e39558abddf49598fa573f</v>
       </c>
     </row>
     <row r="1845">
@@ -37573,7 +37573,7 @@
         <v>fest_024_007_dialog_english.dialog</v>
       </c>
       <c r="C1859">
-        <v>29604</v>
+        <v>29532</v>
       </c>
       <c r="D1859" t="str">
         <v/>
@@ -37582,7 +37582,7 @@
         <v>1</v>
       </c>
       <c r="F1859" t="str">
-        <v>0b9434ca488ce3f02c7f0c5381f647f7640ebda6fdee142c67160b26631b7ab8</v>
+        <v>090ab175fcd07bc4c5c14decd2c10f36cf0a736e217386f736e656fde4864dc6</v>
       </c>
     </row>
     <row r="1860">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -35327,13 +35327,13 @@
     </row>
     <row r="1747">
       <c r="A1747" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1747" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1747">
-        <v>13697</v>
+        <v>246</v>
       </c>
       <c r="D1747" t="str">
         <v/>
@@ -35342,18 +35342,18 @@
         <v>1</v>
       </c>
       <c r="F1747" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1748" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1748">
-        <v>13761</v>
+        <v>246</v>
       </c>
       <c r="D1748" t="str">
         <v/>
@@ -35362,18 +35362,18 @@
         <v>1</v>
       </c>
       <c r="F1748" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="B1749" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="C1749">
-        <v>12502</v>
+        <v>246</v>
       </c>
       <c r="D1749" t="str">
         <v/>
@@ -35382,18 +35382,18 @@
         <v>1</v>
       </c>
       <c r="F1749" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1750" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1750">
-        <v>13827</v>
+        <v>246</v>
       </c>
       <c r="D1750" t="str">
         <v/>
@@ -35402,18 +35402,18 @@
         <v>1</v>
       </c>
       <c r="F1750" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="B1751" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="C1751">
-        <v>13301</v>
+        <v>246</v>
       </c>
       <c r="D1751" t="str">
         <v/>
@@ -35422,18 +35422,18 @@
         <v>1</v>
       </c>
       <c r="F1751" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1752" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1752">
-        <v>4028</v>
+        <v>246</v>
       </c>
       <c r="D1752" t="str">
         <v/>
@@ -35442,18 +35442,18 @@
         <v>1</v>
       </c>
       <c r="F1752" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1753" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1753">
-        <v>4038</v>
+        <v>246</v>
       </c>
       <c r="D1753" t="str">
         <v/>
@@ -35462,18 +35462,18 @@
         <v>1</v>
       </c>
       <c r="F1753" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="B1754" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="C1754">
-        <v>3444</v>
+        <v>246</v>
       </c>
       <c r="D1754" t="str">
         <v/>
@@ -35482,18 +35482,18 @@
         <v>1</v>
       </c>
       <c r="F1754" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="B1755" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="C1755">
-        <v>4365</v>
+        <v>246</v>
       </c>
       <c r="D1755" t="str">
         <v/>
@@ -35502,18 +35502,18 @@
         <v>1</v>
       </c>
       <c r="F1755" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="B1756" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="C1756">
-        <v>4062</v>
+        <v>246</v>
       </c>
       <c r="D1756" t="str">
         <v/>
@@ -35522,18 +35522,18 @@
         <v>1</v>
       </c>
       <c r="F1756" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1757" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1757">
-        <v>246</v>
+        <v>4028</v>
       </c>
       <c r="D1757" t="str">
         <v/>
@@ -35542,18 +35542,18 @@
         <v>1</v>
       </c>
       <c r="F1757" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1758" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1758">
-        <v>246</v>
+        <v>4038</v>
       </c>
       <c r="D1758" t="str">
         <v/>
@@ -35562,18 +35562,18 @@
         <v>1</v>
       </c>
       <c r="F1758" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1759" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1759">
-        <v>246</v>
+        <v>3444</v>
       </c>
       <c r="D1759" t="str">
         <v/>
@@ -35582,18 +35582,18 @@
         <v>1</v>
       </c>
       <c r="F1759" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1760" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1760">
-        <v>246</v>
+        <v>4365</v>
       </c>
       <c r="D1760" t="str">
         <v/>
@@ -35602,18 +35602,18 @@
         <v>1</v>
       </c>
       <c r="F1760" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1761" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1761">
-        <v>246</v>
+        <v>4062</v>
       </c>
       <c r="D1761" t="str">
         <v/>
@@ -35622,18 +35622,18 @@
         <v>1</v>
       </c>
       <c r="F1761" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1762" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1762">
-        <v>1838</v>
+        <v>246</v>
       </c>
       <c r="D1762" t="str">
         <v/>
@@ -35642,18 +35642,18 @@
         <v>1</v>
       </c>
       <c r="F1762" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1763" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1763">
-        <v>1844</v>
+        <v>246</v>
       </c>
       <c r="D1763" t="str">
         <v/>
@@ -35662,18 +35662,18 @@
         <v>1</v>
       </c>
       <c r="F1763" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="B1764" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="C1764">
-        <v>1484</v>
+        <v>246</v>
       </c>
       <c r="D1764" t="str">
         <v/>
@@ -35682,18 +35682,18 @@
         <v>1</v>
       </c>
       <c r="F1764" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1765" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1765">
-        <v>1906</v>
+        <v>246</v>
       </c>
       <c r="D1765" t="str">
         <v/>
@@ -35702,18 +35702,18 @@
         <v>1</v>
       </c>
       <c r="F1765" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="B1766" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="C1766">
-        <v>1910</v>
+        <v>246</v>
       </c>
       <c r="D1766" t="str">
         <v/>
@@ -35722,18 +35722,18 @@
         <v>1</v>
       </c>
       <c r="F1766" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1767" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1767">
-        <v>246</v>
+        <v>1838</v>
       </c>
       <c r="D1767" t="str">
         <v/>
@@ -35742,18 +35742,18 @@
         <v>1</v>
       </c>
       <c r="F1767" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1768" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1768">
-        <v>246</v>
+        <v>1844</v>
       </c>
       <c r="D1768" t="str">
         <v/>
@@ -35762,18 +35762,18 @@
         <v>1</v>
       </c>
       <c r="F1768" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1769" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1769">
-        <v>246</v>
+        <v>1484</v>
       </c>
       <c r="D1769" t="str">
         <v/>
@@ -35782,18 +35782,18 @@
         <v>1</v>
       </c>
       <c r="F1769" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1770" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1770">
-        <v>246</v>
+        <v>1906</v>
       </c>
       <c r="D1770" t="str">
         <v/>
@@ -35802,18 +35802,18 @@
         <v>1</v>
       </c>
       <c r="F1770" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1771" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1771">
-        <v>246</v>
+        <v>1910</v>
       </c>
       <c r="D1771" t="str">
         <v/>
@@ -35822,15 +35822,15 @@
         <v>1</v>
       </c>
       <c r="F1771" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1772" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1772">
         <v>246</v>
@@ -35847,10 +35847,10 @@
     </row>
     <row r="1773">
       <c r="A1773" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1773" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1773">
         <v>246</v>
@@ -35867,10 +35867,10 @@
     </row>
     <row r="1774">
       <c r="A1774" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="B1774" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="C1774">
         <v>246</v>
@@ -35887,10 +35887,10 @@
     </row>
     <row r="1775">
       <c r="A1775" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1775" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1775">
         <v>246</v>
@@ -35907,10 +35907,10 @@
     </row>
     <row r="1776">
       <c r="A1776" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="B1776" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="C1776">
         <v>246</v>
@@ -35927,10 +35927,10 @@
     </row>
     <row r="1777">
       <c r="A1777" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1777" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1777">
         <v>246</v>
@@ -35947,10 +35947,10 @@
     </row>
     <row r="1778">
       <c r="A1778" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1778" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1778">
         <v>246</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="1779">
       <c r="A1779" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="B1779" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="C1779">
         <v>246</v>
@@ -35987,10 +35987,10 @@
     </row>
     <row r="1780">
       <c r="A1780" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1780" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1780">
         <v>246</v>
@@ -36007,10 +36007,10 @@
     </row>
     <row r="1781">
       <c r="A1781" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="B1781" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="C1781">
         <v>246</v>
@@ -36027,13 +36027,13 @@
     </row>
     <row r="1782">
       <c r="A1782" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1782" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1782">
-        <v>246</v>
+        <v>13697</v>
       </c>
       <c r="D1782" t="str">
         <v/>
@@ -36042,18 +36042,18 @@
         <v>1</v>
       </c>
       <c r="F1782" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1783" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1783">
-        <v>246</v>
+        <v>13761</v>
       </c>
       <c r="D1783" t="str">
         <v/>
@@ -36062,18 +36062,18 @@
         <v>1</v>
       </c>
       <c r="F1783" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1784" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1784">
-        <v>246</v>
+        <v>12502</v>
       </c>
       <c r="D1784" t="str">
         <v/>
@@ -36082,18 +36082,18 @@
         <v>1</v>
       </c>
       <c r="F1784" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1785" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1785">
-        <v>246</v>
+        <v>13827</v>
       </c>
       <c r="D1785" t="str">
         <v/>
@@ -36102,18 +36102,18 @@
         <v>1</v>
       </c>
       <c r="F1785" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1786" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1786">
-        <v>246</v>
+        <v>13301</v>
       </c>
       <c r="D1786" t="str">
         <v/>
@@ -36122,7 +36122,7 @@
         <v>1</v>
       </c>
       <c r="F1786" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1787">
@@ -42527,13 +42527,13 @@
     </row>
     <row r="2107">
       <c r="A2107" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2107" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2107">
-        <v>13926</v>
+        <v>55371</v>
       </c>
       <c r="D2107" t="str">
         <v/>
@@ -42542,18 +42542,18 @@
         <v>1</v>
       </c>
       <c r="F2107" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2108" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2108">
-        <v>13960</v>
+        <v>55491</v>
       </c>
       <c r="D2108" t="str">
         <v/>
@@ -42562,18 +42562,18 @@
         <v>1</v>
       </c>
       <c r="F2108" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B2109" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C2109">
-        <v>11270</v>
+        <v>44705</v>
       </c>
       <c r="D2109" t="str">
         <v/>
@@ -42582,18 +42582,18 @@
         <v>1</v>
       </c>
       <c r="F2109" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="2110">
       <c r="A2110" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2110" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2110">
-        <v>15639</v>
+        <v>61071</v>
       </c>
       <c r="D2110" t="str">
         <v/>
@@ -42602,18 +42602,18 @@
         <v>1</v>
       </c>
       <c r="F2110" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B2111" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C2111">
-        <v>14837</v>
+        <v>55999</v>
       </c>
       <c r="D2111" t="str">
         <v/>
@@ -42622,18 +42622,18 @@
         <v>1</v>
       </c>
       <c r="F2111" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2112" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2112">
-        <v>2082</v>
+        <v>40894</v>
       </c>
       <c r="D2112" t="str">
         <v/>
@@ -42642,18 +42642,18 @@
         <v>1</v>
       </c>
       <c r="F2112" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2113" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2113">
-        <v>2088</v>
+        <v>40930</v>
       </c>
       <c r="D2113" t="str">
         <v/>
@@ -42662,18 +42662,18 @@
         <v>1</v>
       </c>
       <c r="F2113" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B2114" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C2114">
-        <v>1869</v>
+        <v>32515</v>
       </c>
       <c r="D2114" t="str">
         <v/>
@@ -42682,18 +42682,18 @@
         <v>1</v>
       </c>
       <c r="F2114" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2115" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2115">
-        <v>2132</v>
+        <v>44418</v>
       </c>
       <c r="D2115" t="str">
         <v/>
@@ -42702,18 +42702,18 @@
         <v>1</v>
       </c>
       <c r="F2115" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B2116" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C2116">
-        <v>2275</v>
+        <v>41223</v>
       </c>
       <c r="D2116" t="str">
         <v/>
@@ -42722,18 +42722,18 @@
         <v>1</v>
       </c>
       <c r="F2116" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2117" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2117">
-        <v>1712</v>
+        <v>32341</v>
       </c>
       <c r="D2117" t="str">
         <v/>
@@ -42742,18 +42742,18 @@
         <v>1</v>
       </c>
       <c r="F2117" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2118" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2118">
-        <v>1716</v>
+        <v>32413</v>
       </c>
       <c r="D2118" t="str">
         <v/>
@@ -42762,18 +42762,18 @@
         <v>1</v>
       </c>
       <c r="F2118" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B2119" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C2119">
-        <v>1492</v>
+        <v>26762</v>
       </c>
       <c r="D2119" t="str">
         <v/>
@@ -42782,18 +42782,18 @@
         <v>1</v>
       </c>
       <c r="F2119" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2120" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2120">
-        <v>1967</v>
+        <v>35917</v>
       </c>
       <c r="D2120" t="str">
         <v/>
@@ -42802,18 +42802,18 @@
         <v>1</v>
       </c>
       <c r="F2120" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B2121" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C2121">
-        <v>1889</v>
+        <v>34664</v>
       </c>
       <c r="D2121" t="str">
         <v/>
@@ -42822,18 +42822,18 @@
         <v>1</v>
       </c>
       <c r="F2121" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2122" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2122">
-        <v>10589</v>
+        <v>16711</v>
       </c>
       <c r="D2122" t="str">
         <v/>
@@ -42842,18 +42842,18 @@
         <v>1</v>
       </c>
       <c r="F2122" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2123" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2123">
-        <v>10615</v>
+        <v>16719</v>
       </c>
       <c r="D2123" t="str">
         <v/>
@@ -42862,18 +42862,18 @@
         <v>1</v>
       </c>
       <c r="F2123" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B2124" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C2124">
-        <v>8739</v>
+        <v>13871</v>
       </c>
       <c r="D2124" t="str">
         <v/>
@@ -42882,18 +42882,18 @@
         <v>1</v>
       </c>
       <c r="F2124" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2125" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2125">
-        <v>12403</v>
+        <v>18762</v>
       </c>
       <c r="D2125" t="str">
         <v/>
@@ -42902,18 +42902,18 @@
         <v>1</v>
       </c>
       <c r="F2125" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B2126" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C2126">
-        <v>11610</v>
+        <v>17545</v>
       </c>
       <c r="D2126" t="str">
         <v/>
@@ -42922,18 +42922,18 @@
         <v>1</v>
       </c>
       <c r="F2126" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2127" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2127">
-        <v>1387</v>
+        <v>20884</v>
       </c>
       <c r="D2127" t="str">
         <v/>
@@ -42942,18 +42942,18 @@
         <v>1</v>
       </c>
       <c r="F2127" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2128" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2128">
-        <v>1391</v>
+        <v>20932</v>
       </c>
       <c r="D2128" t="str">
         <v/>
@@ -42962,18 +42962,18 @@
         <v>1</v>
       </c>
       <c r="F2128" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B2129" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C2129">
-        <v>1242</v>
+        <v>17341</v>
       </c>
       <c r="D2129" t="str">
         <v/>
@@ -42982,18 +42982,18 @@
         <v>1</v>
       </c>
       <c r="F2129" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2130" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2130">
-        <v>1442</v>
+        <v>22967</v>
       </c>
       <c r="D2130" t="str">
         <v/>
@@ -43002,18 +43002,18 @@
         <v>1</v>
       </c>
       <c r="F2130" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B2131" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C2131">
-        <v>1422</v>
+        <v>21418</v>
       </c>
       <c r="D2131" t="str">
         <v/>
@@ -43022,18 +43022,18 @@
         <v>1</v>
       </c>
       <c r="F2131" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2132" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2132">
-        <v>13203</v>
+        <v>21743</v>
       </c>
       <c r="D2132" t="str">
         <v/>
@@ -43042,18 +43042,18 @@
         <v>1</v>
       </c>
       <c r="F2132" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2133" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2133">
-        <v>13235</v>
+        <v>21781</v>
       </c>
       <c r="D2133" t="str">
         <v/>
@@ -43062,18 +43062,18 @@
         <v>1</v>
       </c>
       <c r="F2133" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B2134" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C2134">
-        <v>11261</v>
+        <v>17808</v>
       </c>
       <c r="D2134" t="str">
         <v/>
@@ -43082,18 +43082,18 @@
         <v>1</v>
       </c>
       <c r="F2134" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2135" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2135">
-        <v>14912</v>
+        <v>23740</v>
       </c>
       <c r="D2135" t="str">
         <v/>
@@ -43102,18 +43102,18 @@
         <v>1</v>
       </c>
       <c r="F2135" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B2136" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C2136">
-        <v>13720</v>
+        <v>21787</v>
       </c>
       <c r="D2136" t="str">
         <v/>
@@ -43122,18 +43122,18 @@
         <v>1</v>
       </c>
       <c r="F2136" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2137" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2137">
-        <v>16889</v>
+        <v>18079</v>
       </c>
       <c r="D2137" t="str">
         <v/>
@@ -43142,18 +43142,18 @@
         <v>1</v>
       </c>
       <c r="F2137" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2138" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2138">
-        <v>16941</v>
+        <v>18113</v>
       </c>
       <c r="D2138" t="str">
         <v/>
@@ -43162,18 +43162,18 @@
         <v>1</v>
       </c>
       <c r="F2138" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B2139" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C2139">
-        <v>14367</v>
+        <v>15406</v>
       </c>
       <c r="D2139" t="str">
         <v/>
@@ -43182,18 +43182,18 @@
         <v>1</v>
       </c>
       <c r="F2139" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2140" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2140">
-        <v>18776</v>
+        <v>19384</v>
       </c>
       <c r="D2140" t="str">
         <v/>
@@ -43202,18 +43202,18 @@
         <v>1</v>
       </c>
       <c r="F2140" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B2141" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C2141">
-        <v>17584</v>
+        <v>19170</v>
       </c>
       <c r="D2141" t="str">
         <v/>
@@ -43222,18 +43222,18 @@
         <v>1</v>
       </c>
       <c r="F2141" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2142" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2142">
-        <v>1475</v>
+        <v>23106</v>
       </c>
       <c r="D2142" t="str">
         <v/>
@@ -43242,18 +43242,18 @@
         <v>1</v>
       </c>
       <c r="F2142" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2143" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2143">
-        <v>1180</v>
+        <v>23164</v>
       </c>
       <c r="D2143" t="str">
         <v/>
@@ -43262,18 +43262,18 @@
         <v>1</v>
       </c>
       <c r="F2143" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B2144" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C2144">
-        <v>1074</v>
+        <v>19731</v>
       </c>
       <c r="D2144" t="str">
         <v/>
@@ -43282,18 +43282,18 @@
         <v>1</v>
       </c>
       <c r="F2144" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2145" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2145">
-        <v>1381</v>
+        <v>25275</v>
       </c>
       <c r="D2145" t="str">
         <v/>
@@ -43302,18 +43302,18 @@
         <v>1</v>
       </c>
       <c r="F2145" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B2146" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C2146">
-        <v>1183</v>
+        <v>24704</v>
       </c>
       <c r="D2146" t="str">
         <v/>
@@ -43322,18 +43322,18 @@
         <v>1</v>
       </c>
       <c r="F2146" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2147" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2147">
-        <v>55371</v>
+        <v>46222</v>
       </c>
       <c r="D2147" t="str">
         <v/>
@@ -43342,18 +43342,18 @@
         <v>1</v>
       </c>
       <c r="F2147" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2148" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2148">
-        <v>55491</v>
+        <v>46344</v>
       </c>
       <c r="D2148" t="str">
         <v/>
@@ -43362,18 +43362,18 @@
         <v>1</v>
       </c>
       <c r="F2148" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B2149" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C2149">
-        <v>44705</v>
+        <v>38529</v>
       </c>
       <c r="D2149" t="str">
         <v/>
@@ -43382,18 +43382,18 @@
         <v>1</v>
       </c>
       <c r="F2149" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2150" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2150">
-        <v>61071</v>
+        <v>50501</v>
       </c>
       <c r="D2150" t="str">
         <v/>
@@ -43402,18 +43402,18 @@
         <v>1</v>
       </c>
       <c r="F2150" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B2151" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C2151">
-        <v>55999</v>
+        <v>48804</v>
       </c>
       <c r="D2151" t="str">
         <v/>
@@ -43422,18 +43422,18 @@
         <v>1</v>
       </c>
       <c r="F2151" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2152" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2152">
-        <v>40894</v>
+        <v>13926</v>
       </c>
       <c r="D2152" t="str">
         <v/>
@@ -43442,18 +43442,18 @@
         <v>1</v>
       </c>
       <c r="F2152" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2153" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2153">
-        <v>40930</v>
+        <v>13960</v>
       </c>
       <c r="D2153" t="str">
         <v/>
@@ -43462,18 +43462,18 @@
         <v>1</v>
       </c>
       <c r="F2153" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B2154" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C2154">
-        <v>32515</v>
+        <v>11270</v>
       </c>
       <c r="D2154" t="str">
         <v/>
@@ -43482,18 +43482,18 @@
         <v>1</v>
       </c>
       <c r="F2154" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2155" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2155">
-        <v>44418</v>
+        <v>15639</v>
       </c>
       <c r="D2155" t="str">
         <v/>
@@ -43502,18 +43502,18 @@
         <v>1</v>
       </c>
       <c r="F2155" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B2156" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C2156">
-        <v>41223</v>
+        <v>14837</v>
       </c>
       <c r="D2156" t="str">
         <v/>
@@ -43522,18 +43522,18 @@
         <v>1</v>
       </c>
       <c r="F2156" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2157" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2157">
-        <v>32341</v>
+        <v>2082</v>
       </c>
       <c r="D2157" t="str">
         <v/>
@@ -43542,18 +43542,18 @@
         <v>1</v>
       </c>
       <c r="F2157" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2158" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2158">
-        <v>32413</v>
+        <v>2088</v>
       </c>
       <c r="D2158" t="str">
         <v/>
@@ -43562,18 +43562,18 @@
         <v>1</v>
       </c>
       <c r="F2158" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B2159" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C2159">
-        <v>26762</v>
+        <v>1869</v>
       </c>
       <c r="D2159" t="str">
         <v/>
@@ -43582,18 +43582,18 @@
         <v>1</v>
       </c>
       <c r="F2159" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2160" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2160">
-        <v>35917</v>
+        <v>2132</v>
       </c>
       <c r="D2160" t="str">
         <v/>
@@ -43602,18 +43602,18 @@
         <v>1</v>
       </c>
       <c r="F2160" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B2161" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C2161">
-        <v>34664</v>
+        <v>2275</v>
       </c>
       <c r="D2161" t="str">
         <v/>
@@ -43622,18 +43622,18 @@
         <v>1</v>
       </c>
       <c r="F2161" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2162" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2162">
-        <v>16711</v>
+        <v>1712</v>
       </c>
       <c r="D2162" t="str">
         <v/>
@@ -43642,18 +43642,18 @@
         <v>1</v>
       </c>
       <c r="F2162" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2163" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2163">
-        <v>16719</v>
+        <v>1716</v>
       </c>
       <c r="D2163" t="str">
         <v/>
@@ -43662,18 +43662,18 @@
         <v>1</v>
       </c>
       <c r="F2163" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B2164" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C2164">
-        <v>13871</v>
+        <v>1492</v>
       </c>
       <c r="D2164" t="str">
         <v/>
@@ -43682,18 +43682,18 @@
         <v>1</v>
       </c>
       <c r="F2164" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2165" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2165">
-        <v>18762</v>
+        <v>1967</v>
       </c>
       <c r="D2165" t="str">
         <v/>
@@ -43702,18 +43702,18 @@
         <v>1</v>
       </c>
       <c r="F2165" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B2166" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C2166">
-        <v>17545</v>
+        <v>1889</v>
       </c>
       <c r="D2166" t="str">
         <v/>
@@ -43722,18 +43722,18 @@
         <v>1</v>
       </c>
       <c r="F2166" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2167" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2167">
-        <v>20884</v>
+        <v>10589</v>
       </c>
       <c r="D2167" t="str">
         <v/>
@@ -43742,18 +43742,18 @@
         <v>1</v>
       </c>
       <c r="F2167" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2168" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2168">
-        <v>20932</v>
+        <v>10615</v>
       </c>
       <c r="D2168" t="str">
         <v/>
@@ -43762,18 +43762,18 @@
         <v>1</v>
       </c>
       <c r="F2168" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B2169" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C2169">
-        <v>17341</v>
+        <v>8739</v>
       </c>
       <c r="D2169" t="str">
         <v/>
@@ -43782,18 +43782,18 @@
         <v>1</v>
       </c>
       <c r="F2169" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2170" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2170">
-        <v>22967</v>
+        <v>12403</v>
       </c>
       <c r="D2170" t="str">
         <v/>
@@ -43802,18 +43802,18 @@
         <v>1</v>
       </c>
       <c r="F2170" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B2171" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C2171">
-        <v>21418</v>
+        <v>11610</v>
       </c>
       <c r="D2171" t="str">
         <v/>
@@ -43822,18 +43822,18 @@
         <v>1</v>
       </c>
       <c r="F2171" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2172" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2172">
-        <v>21743</v>
+        <v>1387</v>
       </c>
       <c r="D2172" t="str">
         <v/>
@@ -43842,18 +43842,18 @@
         <v>1</v>
       </c>
       <c r="F2172" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2173" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2173">
-        <v>21781</v>
+        <v>1391</v>
       </c>
       <c r="D2173" t="str">
         <v/>
@@ -43862,18 +43862,18 @@
         <v>1</v>
       </c>
       <c r="F2173" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B2174" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C2174">
-        <v>17808</v>
+        <v>1242</v>
       </c>
       <c r="D2174" t="str">
         <v/>
@@ -43882,18 +43882,18 @@
         <v>1</v>
       </c>
       <c r="F2174" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2175" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2175">
-        <v>23740</v>
+        <v>1442</v>
       </c>
       <c r="D2175" t="str">
         <v/>
@@ -43902,18 +43902,18 @@
         <v>1</v>
       </c>
       <c r="F2175" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B2176" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C2176">
-        <v>21787</v>
+        <v>1422</v>
       </c>
       <c r="D2176" t="str">
         <v/>
@@ -43922,18 +43922,18 @@
         <v>1</v>
       </c>
       <c r="F2176" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2177" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2177">
-        <v>18079</v>
+        <v>13203</v>
       </c>
       <c r="D2177" t="str">
         <v/>
@@ -43942,18 +43942,18 @@
         <v>1</v>
       </c>
       <c r="F2177" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2178" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2178">
-        <v>18113</v>
+        <v>13235</v>
       </c>
       <c r="D2178" t="str">
         <v/>
@@ -43962,18 +43962,18 @@
         <v>1</v>
       </c>
       <c r="F2178" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B2179" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C2179">
-        <v>15406</v>
+        <v>11261</v>
       </c>
       <c r="D2179" t="str">
         <v/>
@@ -43982,18 +43982,18 @@
         <v>1</v>
       </c>
       <c r="F2179" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2180" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2180">
-        <v>19384</v>
+        <v>14912</v>
       </c>
       <c r="D2180" t="str">
         <v/>
@@ -44002,18 +44002,18 @@
         <v>1</v>
       </c>
       <c r="F2180" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B2181" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C2181">
-        <v>19170</v>
+        <v>13720</v>
       </c>
       <c r="D2181" t="str">
         <v/>
@@ -44022,18 +44022,18 @@
         <v>1</v>
       </c>
       <c r="F2181" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2182" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2182">
-        <v>23106</v>
+        <v>16889</v>
       </c>
       <c r="D2182" t="str">
         <v/>
@@ -44042,18 +44042,18 @@
         <v>1</v>
       </c>
       <c r="F2182" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2183" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2183">
-        <v>23164</v>
+        <v>16941</v>
       </c>
       <c r="D2183" t="str">
         <v/>
@@ -44062,18 +44062,18 @@
         <v>1</v>
       </c>
       <c r="F2183" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B2184" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C2184">
-        <v>19731</v>
+        <v>14367</v>
       </c>
       <c r="D2184" t="str">
         <v/>
@@ -44082,18 +44082,18 @@
         <v>1</v>
       </c>
       <c r="F2184" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B2185" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C2185">
-        <v>25275</v>
+        <v>18776</v>
       </c>
       <c r="D2185" t="str">
         <v/>
@@ -44102,18 +44102,18 @@
         <v>1</v>
       </c>
       <c r="F2185" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B2186" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C2186">
-        <v>24704</v>
+        <v>17584</v>
       </c>
       <c r="D2186" t="str">
         <v/>
@@ -44122,18 +44122,18 @@
         <v>1</v>
       </c>
       <c r="F2186" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>46222</v>
+        <v>1475</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44142,18 +44142,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>46344</v>
+        <v>1180</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44162,18 +44162,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>38529</v>
+        <v>1074</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44182,18 +44182,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>50501</v>
+        <v>1381</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44202,18 +44202,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>48804</v>
+        <v>1183</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44222,7 +44222,7 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="2192">
@@ -44322,7 +44322,7 @@
         <v>1</v>
       </c>
       <c r="F2196" t="str">
-        <v>a28e8282c5172fe9ce47d944ec72dc7aba68a4febfbc7407e534b1b8e902c7d0</v>
+        <v>432a309126fc089d074ddde38a6736b51fafa627b14418007938f2aa85b19d14</v>
       </c>
     </row>
     <row r="2197">
@@ -44513,7 +44513,7 @@
         <v>fest_dragonboat_003_dialog_korean.dialog</v>
       </c>
       <c r="C2206">
-        <v>3464</v>
+        <v>3453</v>
       </c>
       <c r="D2206" t="str">
         <v/>
@@ -44522,7 +44522,7 @@
         <v>1</v>
       </c>
       <c r="F2206" t="str">
-        <v>554c5c6e0f37e3f4ee64ebb706effed5e7e90f6420b30564b6d6512d6769d138</v>
+        <v>ce20f63ec96e03c02052eb8c4dfcf1768a5493b304f5ca6356ba0165856b471c</v>
       </c>
     </row>
     <row r="2207">
@@ -44673,7 +44673,7 @@
         <v>fest_dragonboat_005_dialog_english.dialog</v>
       </c>
       <c r="C2214">
-        <v>11072</v>
+        <v>11078</v>
       </c>
       <c r="D2214" t="str">
         <v/>
@@ -44682,7 +44682,7 @@
         <v>1</v>
       </c>
       <c r="F2214" t="str">
-        <v>402f9346ca2473c0e97e4cbd1c88ef24587d3e4d89cee5ee8d7a9fef21ee836b</v>
+        <v>0125ef9600a81acdad66a2e28cd7775b05aa80d2bcf23e19795251addeb656cd</v>
       </c>
     </row>
     <row r="2215">
@@ -44702,7 +44702,7 @@
         <v>1</v>
       </c>
       <c r="F2215" t="str">
-        <v>927a68fb821ddeb03cd6b0b159fed873b907a72be8e43d42bcfa7f8919e521e7</v>
+        <v>154fb156d7d736cd668ff24ac8372f0ad1777fec2391ca0c9ab320743a2cb114</v>
       </c>
     </row>
     <row r="2216">
@@ -44713,7 +44713,7 @@
         <v>fest_dragonboat_005_dialog_korean.dialog</v>
       </c>
       <c r="C2216">
-        <v>13135</v>
+        <v>13137</v>
       </c>
       <c r="D2216" t="str">
         <v/>
@@ -44722,7 +44722,7 @@
         <v>1</v>
       </c>
       <c r="F2216" t="str">
-        <v>c9bd26c1959fffd16ea731fc1e9ea1730982d4cbfc53d70ea9597ecdbec0901d</v>
+        <v>1111970b15df26af89236f925eb289345db96d3b4df2aa40c752f7cceda3a50a</v>
       </c>
     </row>
     <row r="2217">
@@ -51427,13 +51427,13 @@
     </row>
     <row r="2552">
       <c r="A2552" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2552" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2552">
-        <v>47372</v>
+        <v>12055</v>
       </c>
       <c r="D2552" t="str">
         <v/>
@@ -51442,18 +51442,18 @@
         <v>1</v>
       </c>
       <c r="F2552" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2553" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2553">
-        <v>47504</v>
+        <v>12091</v>
       </c>
       <c r="D2553" t="str">
         <v/>
@@ -51462,18 +51462,18 @@
         <v>1</v>
       </c>
       <c r="F2553" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2554" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2554">
-        <v>38227</v>
+        <v>9948</v>
       </c>
       <c r="D2554" t="str">
         <v/>
@@ -51482,18 +51482,18 @@
         <v>1</v>
       </c>
       <c r="F2554" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2555" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2555">
-        <v>56677</v>
+        <v>13516</v>
       </c>
       <c r="D2555" t="str">
         <v/>
@@ -51502,18 +51502,18 @@
         <v>1</v>
       </c>
       <c r="F2555" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2556" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2556">
-        <v>50805</v>
+        <v>12778</v>
       </c>
       <c r="D2556" t="str">
         <v/>
@@ -51522,18 +51522,18 @@
         <v>1</v>
       </c>
       <c r="F2556" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2557" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2557">
-        <v>29694</v>
+        <v>32683</v>
       </c>
       <c r="D2557" t="str">
         <v/>
@@ -51542,18 +51542,18 @@
         <v>1</v>
       </c>
       <c r="F2557" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2558" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2558">
-        <v>29774</v>
+        <v>32785</v>
       </c>
       <c r="D2558" t="str">
         <v/>
@@ -51562,18 +51562,18 @@
         <v>1</v>
       </c>
       <c r="F2558" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2559" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2559">
-        <v>23226</v>
+        <v>26804</v>
       </c>
       <c r="D2559" t="str">
         <v/>
@@ -51582,18 +51582,18 @@
         <v>1</v>
       </c>
       <c r="F2559" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2560" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2560">
-        <v>34797</v>
+        <v>35335</v>
       </c>
       <c r="D2560" t="str">
         <v/>
@@ -51602,18 +51602,18 @@
         <v>1</v>
       </c>
       <c r="F2560" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2561" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2561">
-        <v>32402</v>
+        <v>35400</v>
       </c>
       <c r="D2561" t="str">
         <v/>
@@ -51622,18 +51622,18 @@
         <v>1</v>
       </c>
       <c r="F2561" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2562" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2562">
-        <v>13333</v>
+        <v>28261</v>
       </c>
       <c r="D2562" t="str">
         <v/>
@@ -51642,18 +51642,18 @@
         <v>1</v>
       </c>
       <c r="F2562" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2563" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2563">
-        <v>13371</v>
+        <v>28341</v>
       </c>
       <c r="D2563" t="str">
         <v/>
@@ -51662,18 +51662,18 @@
         <v>1</v>
       </c>
       <c r="F2563" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2564" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2564">
-        <v>10935</v>
+        <v>22289</v>
       </c>
       <c r="D2564" t="str">
         <v/>
@@ -51682,18 +51682,18 @@
         <v>1</v>
       </c>
       <c r="F2564" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2565" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2565">
-        <v>14825</v>
+        <v>31961</v>
       </c>
       <c r="D2565" t="str">
         <v/>
@@ -51702,18 +51702,18 @@
         <v>1</v>
       </c>
       <c r="F2565" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2566" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2566">
-        <v>13609</v>
+        <v>30340</v>
       </c>
       <c r="D2566" t="str">
         <v/>
@@ -51722,18 +51722,18 @@
         <v>1</v>
       </c>
       <c r="F2566" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2567" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2567">
-        <v>38115</v>
+        <v>22929</v>
       </c>
       <c r="D2567" t="str">
         <v/>
@@ -51742,18 +51742,18 @@
         <v>1</v>
       </c>
       <c r="F2567" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2568" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2568">
-        <v>38207</v>
+        <v>22997</v>
       </c>
       <c r="D2568" t="str">
         <v/>
@@ -51762,18 +51762,18 @@
         <v>1</v>
       </c>
       <c r="F2568" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2569" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2569">
-        <v>30119</v>
+        <v>18855</v>
       </c>
       <c r="D2569" t="str">
         <v/>
@@ -51782,18 +51782,18 @@
         <v>1</v>
       </c>
       <c r="F2569" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2570" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2570">
-        <v>45716</v>
+        <v>25986</v>
       </c>
       <c r="D2570" t="str">
         <v/>
@@ -51802,18 +51802,18 @@
         <v>1</v>
       </c>
       <c r="F2570" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2571" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2571">
-        <v>42343</v>
+        <v>24638</v>
       </c>
       <c r="D2571" t="str">
         <v/>
@@ -51822,18 +51822,18 @@
         <v>1</v>
       </c>
       <c r="F2571" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2572" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2572">
-        <v>22580</v>
+        <v>27591</v>
       </c>
       <c r="D2572" t="str">
         <v/>
@@ -51842,18 +51842,18 @@
         <v>1</v>
       </c>
       <c r="F2572" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2573" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2573">
-        <v>22642</v>
+        <v>27669</v>
       </c>
       <c r="D2573" t="str">
         <v/>
@@ -51862,18 +51862,18 @@
         <v>1</v>
       </c>
       <c r="F2573" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2574" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2574">
-        <v>18502</v>
+        <v>22217</v>
       </c>
       <c r="D2574" t="str">
         <v/>
@@ -51882,18 +51882,18 @@
         <v>1</v>
       </c>
       <c r="F2574" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2575" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2575">
-        <v>25738</v>
+        <v>30979</v>
       </c>
       <c r="D2575" t="str">
         <v/>
@@ -51902,18 +51902,18 @@
         <v>1</v>
       </c>
       <c r="F2575" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2576" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2576">
-        <v>23812</v>
+        <v>30051</v>
       </c>
       <c r="D2576" t="str">
         <v/>
@@ -51922,18 +51922,18 @@
         <v>1</v>
       </c>
       <c r="F2576" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2577" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2577">
-        <v>25038</v>
+        <v>28673</v>
       </c>
       <c r="D2577" t="str">
         <v/>
@@ -51942,18 +51942,18 @@
         <v>1</v>
       </c>
       <c r="F2577" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2578" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2578">
-        <v>25106</v>
+        <v>28755</v>
       </c>
       <c r="D2578" t="str">
         <v/>
@@ -51962,18 +51962,18 @@
         <v>1</v>
       </c>
       <c r="F2578" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2579" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2579">
-        <v>20304</v>
+        <v>24091</v>
       </c>
       <c r="D2579" t="str">
         <v/>
@@ -51982,18 +51982,18 @@
         <v>1</v>
       </c>
       <c r="F2579" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2580" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2580">
-        <v>31176</v>
+        <v>32509</v>
       </c>
       <c r="D2580" t="str">
         <v/>
@@ -52002,18 +52002,18 @@
         <v>1</v>
       </c>
       <c r="F2580" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2581" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2581">
-        <v>28656</v>
+        <v>31007</v>
       </c>
       <c r="D2581" t="str">
         <v/>
@@ -52022,18 +52022,18 @@
         <v>1</v>
       </c>
       <c r="F2581" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2582" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2582">
-        <v>19450</v>
+        <v>21788</v>
       </c>
       <c r="D2582" t="str">
         <v/>
@@ -52042,18 +52042,18 @@
         <v>1</v>
       </c>
       <c r="F2582" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2583" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2583">
-        <v>19506</v>
+        <v>21848</v>
       </c>
       <c r="D2583" t="str">
         <v/>
@@ -52062,18 +52062,18 @@
         <v>1</v>
       </c>
       <c r="F2583" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2584" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2584">
-        <v>15666</v>
+        <v>18324</v>
       </c>
       <c r="D2584" t="str">
         <v/>
@@ -52082,18 +52082,18 @@
         <v>1</v>
       </c>
       <c r="F2584" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2585" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2585">
-        <v>22550</v>
+        <v>25169</v>
       </c>
       <c r="D2585" t="str">
         <v/>
@@ -52102,18 +52102,18 @@
         <v>1</v>
       </c>
       <c r="F2585" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2586" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2586">
-        <v>20969</v>
+        <v>22994</v>
       </c>
       <c r="D2586" t="str">
         <v/>
@@ -52122,18 +52122,18 @@
         <v>1</v>
       </c>
       <c r="F2586" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2587" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2587">
-        <v>12055</v>
+        <v>31366</v>
       </c>
       <c r="D2587" t="str">
         <v/>
@@ -52142,18 +52142,18 @@
         <v>1</v>
       </c>
       <c r="F2587" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2588" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2588">
-        <v>12091</v>
+        <v>31450</v>
       </c>
       <c r="D2588" t="str">
         <v/>
@@ -52162,18 +52162,18 @@
         <v>1</v>
       </c>
       <c r="F2588" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2589" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2589">
-        <v>9948</v>
+        <v>25325</v>
       </c>
       <c r="D2589" t="str">
         <v/>
@@ -52182,18 +52182,18 @@
         <v>1</v>
       </c>
       <c r="F2589" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2590" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2590">
-        <v>13516</v>
+        <v>36671</v>
       </c>
       <c r="D2590" t="str">
         <v/>
@@ -52202,18 +52202,18 @@
         <v>1</v>
       </c>
       <c r="F2590" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2591" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2591">
-        <v>12778</v>
+        <v>34359</v>
       </c>
       <c r="D2591" t="str">
         <v/>
@@ -52222,18 +52222,18 @@
         <v>1</v>
       </c>
       <c r="F2591" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2592" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2592">
-        <v>32683</v>
+        <v>30007</v>
       </c>
       <c r="D2592" t="str">
         <v/>
@@ -52242,18 +52242,18 @@
         <v>1</v>
       </c>
       <c r="F2592" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2593" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2593">
-        <v>32785</v>
+        <v>30087</v>
       </c>
       <c r="D2593" t="str">
         <v/>
@@ -52262,18 +52262,18 @@
         <v>1</v>
       </c>
       <c r="F2593" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2594" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2594">
-        <v>26804</v>
+        <v>24378</v>
       </c>
       <c r="D2594" t="str">
         <v/>
@@ -52282,18 +52282,18 @@
         <v>1</v>
       </c>
       <c r="F2594" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2595" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2595">
-        <v>35335</v>
+        <v>35724</v>
       </c>
       <c r="D2595" t="str">
         <v/>
@@ -52302,18 +52302,18 @@
         <v>1</v>
       </c>
       <c r="F2595" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2596" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2596">
-        <v>35400</v>
+        <v>33241</v>
       </c>
       <c r="D2596" t="str">
         <v/>
@@ -52322,18 +52322,18 @@
         <v>1</v>
       </c>
       <c r="F2596" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2597" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2597">
-        <v>28261</v>
+        <v>31730</v>
       </c>
       <c r="D2597" t="str">
         <v/>
@@ -52342,18 +52342,18 @@
         <v>1</v>
       </c>
       <c r="F2597" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2598" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2598">
-        <v>28341</v>
+        <v>31818</v>
       </c>
       <c r="D2598" t="str">
         <v/>
@@ -52362,18 +52362,18 @@
         <v>1</v>
       </c>
       <c r="F2598" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2599" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2599">
-        <v>22289</v>
+        <v>25891</v>
       </c>
       <c r="D2599" t="str">
         <v/>
@@ -52382,18 +52382,18 @@
         <v>1</v>
       </c>
       <c r="F2599" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2600" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2600">
-        <v>31961</v>
+        <v>36973</v>
       </c>
       <c r="D2600" t="str">
         <v/>
@@ -52402,18 +52402,18 @@
         <v>1</v>
       </c>
       <c r="F2600" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2601" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2601">
-        <v>30340</v>
+        <v>35473</v>
       </c>
       <c r="D2601" t="str">
         <v/>
@@ -52422,18 +52422,18 @@
         <v>1</v>
       </c>
       <c r="F2601" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2602" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2602">
-        <v>22929</v>
+        <v>24351</v>
       </c>
       <c r="D2602" t="str">
         <v/>
@@ -52442,18 +52442,18 @@
         <v>1</v>
       </c>
       <c r="F2602" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2603" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2603">
-        <v>22997</v>
+        <v>24417</v>
       </c>
       <c r="D2603" t="str">
         <v/>
@@ -52462,18 +52462,18 @@
         <v>1</v>
       </c>
       <c r="F2603" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2604" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2604">
-        <v>18855</v>
+        <v>19827</v>
       </c>
       <c r="D2604" t="str">
         <v/>
@@ -52482,18 +52482,18 @@
         <v>1</v>
       </c>
       <c r="F2604" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2605" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2605">
-        <v>25986</v>
+        <v>28858</v>
       </c>
       <c r="D2605" t="str">
         <v/>
@@ -52502,18 +52502,18 @@
         <v>1</v>
       </c>
       <c r="F2605" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2606" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2606">
-        <v>24638</v>
+        <v>27987</v>
       </c>
       <c r="D2606" t="str">
         <v/>
@@ -52522,18 +52522,18 @@
         <v>1</v>
       </c>
       <c r="F2606" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2607" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2607">
-        <v>27591</v>
+        <v>47372</v>
       </c>
       <c r="D2607" t="str">
         <v/>
@@ -52542,18 +52542,18 @@
         <v>1</v>
       </c>
       <c r="F2607" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2608" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2608">
-        <v>27669</v>
+        <v>47504</v>
       </c>
       <c r="D2608" t="str">
         <v/>
@@ -52562,18 +52562,18 @@
         <v>1</v>
       </c>
       <c r="F2608" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2609" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2609">
-        <v>22217</v>
+        <v>38227</v>
       </c>
       <c r="D2609" t="str">
         <v/>
@@ -52582,18 +52582,18 @@
         <v>1</v>
       </c>
       <c r="F2609" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2610" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2610">
-        <v>30979</v>
+        <v>56677</v>
       </c>
       <c r="D2610" t="str">
         <v/>
@@ -52602,18 +52602,18 @@
         <v>1</v>
       </c>
       <c r="F2610" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2611" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2611">
-        <v>30051</v>
+        <v>50805</v>
       </c>
       <c r="D2611" t="str">
         <v/>
@@ -52622,18 +52622,18 @@
         <v>1</v>
       </c>
       <c r="F2611" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2612" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2612">
-        <v>28673</v>
+        <v>29694</v>
       </c>
       <c r="D2612" t="str">
         <v/>
@@ -52642,18 +52642,18 @@
         <v>1</v>
       </c>
       <c r="F2612" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2613" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2613">
-        <v>28755</v>
+        <v>29774</v>
       </c>
       <c r="D2613" t="str">
         <v/>
@@ -52662,18 +52662,18 @@
         <v>1</v>
       </c>
       <c r="F2613" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2614" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2614">
-        <v>24091</v>
+        <v>23226</v>
       </c>
       <c r="D2614" t="str">
         <v/>
@@ -52682,18 +52682,18 @@
         <v>1</v>
       </c>
       <c r="F2614" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2615" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2615">
-        <v>32509</v>
+        <v>34797</v>
       </c>
       <c r="D2615" t="str">
         <v/>
@@ -52702,18 +52702,18 @@
         <v>1</v>
       </c>
       <c r="F2615" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2616" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2616">
-        <v>31007</v>
+        <v>32402</v>
       </c>
       <c r="D2616" t="str">
         <v/>
@@ -52722,18 +52722,18 @@
         <v>1</v>
       </c>
       <c r="F2616" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2617" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2617">
-        <v>21788</v>
+        <v>13333</v>
       </c>
       <c r="D2617" t="str">
         <v/>
@@ -52742,18 +52742,18 @@
         <v>1</v>
       </c>
       <c r="F2617" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2618" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2618">
-        <v>21848</v>
+        <v>13371</v>
       </c>
       <c r="D2618" t="str">
         <v/>
@@ -52762,18 +52762,18 @@
         <v>1</v>
       </c>
       <c r="F2618" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2619" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2619">
-        <v>18324</v>
+        <v>10935</v>
       </c>
       <c r="D2619" t="str">
         <v/>
@@ -52782,18 +52782,18 @@
         <v>1</v>
       </c>
       <c r="F2619" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2620" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2620">
-        <v>25169</v>
+        <v>14825</v>
       </c>
       <c r="D2620" t="str">
         <v/>
@@ -52802,18 +52802,18 @@
         <v>1</v>
       </c>
       <c r="F2620" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2621" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2621">
-        <v>22994</v>
+        <v>13609</v>
       </c>
       <c r="D2621" t="str">
         <v/>
@@ -52822,18 +52822,18 @@
         <v>1</v>
       </c>
       <c r="F2621" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2622" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2622">
-        <v>31366</v>
+        <v>38115</v>
       </c>
       <c r="D2622" t="str">
         <v/>
@@ -52842,18 +52842,18 @@
         <v>1</v>
       </c>
       <c r="F2622" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2623" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2623">
-        <v>31450</v>
+        <v>38207</v>
       </c>
       <c r="D2623" t="str">
         <v/>
@@ -52862,18 +52862,18 @@
         <v>1</v>
       </c>
       <c r="F2623" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2624" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2624">
-        <v>25325</v>
+        <v>30119</v>
       </c>
       <c r="D2624" t="str">
         <v/>
@@ -52882,18 +52882,18 @@
         <v>1</v>
       </c>
       <c r="F2624" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2625" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2625">
-        <v>36671</v>
+        <v>45716</v>
       </c>
       <c r="D2625" t="str">
         <v/>
@@ -52902,18 +52902,18 @@
         <v>1</v>
       </c>
       <c r="F2625" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2626" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2626">
-        <v>34359</v>
+        <v>42343</v>
       </c>
       <c r="D2626" t="str">
         <v/>
@@ -52922,18 +52922,18 @@
         <v>1</v>
       </c>
       <c r="F2626" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2627" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2627">
-        <v>30007</v>
+        <v>22580</v>
       </c>
       <c r="D2627" t="str">
         <v/>
@@ -52942,18 +52942,18 @@
         <v>1</v>
       </c>
       <c r="F2627" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2628" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2628">
-        <v>30087</v>
+        <v>22642</v>
       </c>
       <c r="D2628" t="str">
         <v/>
@@ -52962,18 +52962,18 @@
         <v>1</v>
       </c>
       <c r="F2628" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2629" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2629">
-        <v>24378</v>
+        <v>18502</v>
       </c>
       <c r="D2629" t="str">
         <v/>
@@ -52982,18 +52982,18 @@
         <v>1</v>
       </c>
       <c r="F2629" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2630" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2630">
-        <v>35724</v>
+        <v>25738</v>
       </c>
       <c r="D2630" t="str">
         <v/>
@@ -53002,18 +53002,18 @@
         <v>1</v>
       </c>
       <c r="F2630" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2631" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2631">
-        <v>33241</v>
+        <v>23812</v>
       </c>
       <c r="D2631" t="str">
         <v/>
@@ -53022,18 +53022,18 @@
         <v>1</v>
       </c>
       <c r="F2631" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2632" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2632">
-        <v>31730</v>
+        <v>25038</v>
       </c>
       <c r="D2632" t="str">
         <v/>
@@ -53042,18 +53042,18 @@
         <v>1</v>
       </c>
       <c r="F2632" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2633" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2633">
-        <v>31818</v>
+        <v>25106</v>
       </c>
       <c r="D2633" t="str">
         <v/>
@@ -53062,18 +53062,18 @@
         <v>1</v>
       </c>
       <c r="F2633" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2634" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2634">
-        <v>25891</v>
+        <v>20304</v>
       </c>
       <c r="D2634" t="str">
         <v/>
@@ -53082,18 +53082,18 @@
         <v>1</v>
       </c>
       <c r="F2634" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2635" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2635">
-        <v>36973</v>
+        <v>31176</v>
       </c>
       <c r="D2635" t="str">
         <v/>
@@ -53102,18 +53102,18 @@
         <v>1</v>
       </c>
       <c r="F2635" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2636" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2636">
-        <v>35473</v>
+        <v>28656</v>
       </c>
       <c r="D2636" t="str">
         <v/>
@@ -53122,18 +53122,18 @@
         <v>1</v>
       </c>
       <c r="F2636" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2637" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2637">
-        <v>24351</v>
+        <v>19450</v>
       </c>
       <c r="D2637" t="str">
         <v/>
@@ -53142,18 +53142,18 @@
         <v>1</v>
       </c>
       <c r="F2637" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2638" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2638">
-        <v>24417</v>
+        <v>19506</v>
       </c>
       <c r="D2638" t="str">
         <v/>
@@ -53162,18 +53162,18 @@
         <v>1</v>
       </c>
       <c r="F2638" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2639" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2639">
-        <v>19827</v>
+        <v>15666</v>
       </c>
       <c r="D2639" t="str">
         <v/>
@@ -53182,18 +53182,18 @@
         <v>1</v>
       </c>
       <c r="F2639" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2640" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2640">
-        <v>28858</v>
+        <v>22550</v>
       </c>
       <c r="D2640" t="str">
         <v/>
@@ -53202,18 +53202,18 @@
         <v>1</v>
       </c>
       <c r="F2640" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2641" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2641">
-        <v>27987</v>
+        <v>20969</v>
       </c>
       <c r="D2641" t="str">
         <v/>
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="F2641" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2642">
@@ -57027,13 +57027,13 @@
     </row>
     <row r="2832">
       <c r="A2832" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2832" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2832">
-        <v>21771</v>
+        <v>246</v>
       </c>
       <c r="D2832" t="str">
         <v/>
@@ -57042,18 +57042,18 @@
         <v>1</v>
       </c>
       <c r="F2832" t="str">
-        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2833" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2833">
-        <v>21821</v>
+        <v>246</v>
       </c>
       <c r="D2833" t="str">
         <v/>
@@ -57062,18 +57062,18 @@
         <v>1</v>
       </c>
       <c r="F2833" t="str">
-        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="B2834" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="C2834">
-        <v>17951</v>
+        <v>246</v>
       </c>
       <c r="D2834" t="str">
         <v/>
@@ -57082,18 +57082,18 @@
         <v>1</v>
       </c>
       <c r="F2834" t="str">
-        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="B2835" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="C2835">
-        <v>24640</v>
+        <v>246</v>
       </c>
       <c r="D2835" t="str">
         <v/>
@@ -57102,18 +57102,18 @@
         <v>1</v>
       </c>
       <c r="F2835" t="str">
-        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="B2836" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="C2836">
-        <v>23749</v>
+        <v>246</v>
       </c>
       <c r="D2836" t="str">
         <v/>
@@ -57122,18 +57122,18 @@
         <v>1</v>
       </c>
       <c r="F2836" t="str">
-        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2837" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2837">
-        <v>246</v>
+        <v>21771</v>
       </c>
       <c r="D2837" t="str">
         <v/>
@@ -57142,18 +57142,18 @@
         <v>1</v>
       </c>
       <c r="F2837" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2838" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2838">
-        <v>246</v>
+        <v>21821</v>
       </c>
       <c r="D2838" t="str">
         <v/>
@@ -57162,18 +57162,18 @@
         <v>1</v>
       </c>
       <c r="F2838" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="B2839" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="C2839">
-        <v>246</v>
+        <v>17951</v>
       </c>
       <c r="D2839" t="str">
         <v/>
@@ -57182,18 +57182,18 @@
         <v>1</v>
       </c>
       <c r="F2839" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2840" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2840">
-        <v>246</v>
+        <v>24640</v>
       </c>
       <c r="D2840" t="str">
         <v/>
@@ -57202,18 +57202,18 @@
         <v>1</v>
       </c>
       <c r="F2840" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="B2841" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="C2841">
-        <v>246</v>
+        <v>23749</v>
       </c>
       <c r="D2841" t="str">
         <v/>
@@ -57222,7 +57222,7 @@
         <v>1</v>
       </c>
       <c r="F2841" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
       </c>
     </row>
     <row r="2842">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -35327,13 +35327,13 @@
     </row>
     <row r="1747">
       <c r="A1747" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1747" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1747">
-        <v>246</v>
+        <v>13697</v>
       </c>
       <c r="D1747" t="str">
         <v/>
@@ -35342,18 +35342,18 @@
         <v>1</v>
       </c>
       <c r="F1747" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1748" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1748">
-        <v>246</v>
+        <v>13761</v>
       </c>
       <c r="D1748" t="str">
         <v/>
@@ -35362,18 +35362,18 @@
         <v>1</v>
       </c>
       <c r="F1748" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1749" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1749">
-        <v>246</v>
+        <v>12502</v>
       </c>
       <c r="D1749" t="str">
         <v/>
@@ -35382,18 +35382,18 @@
         <v>1</v>
       </c>
       <c r="F1749" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1750" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1750">
-        <v>246</v>
+        <v>13827</v>
       </c>
       <c r="D1750" t="str">
         <v/>
@@ -35402,18 +35402,18 @@
         <v>1</v>
       </c>
       <c r="F1750" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1751" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1751">
-        <v>246</v>
+        <v>13301</v>
       </c>
       <c r="D1751" t="str">
         <v/>
@@ -35422,18 +35422,18 @@
         <v>1</v>
       </c>
       <c r="F1751" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1752" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1752">
-        <v>246</v>
+        <v>4028</v>
       </c>
       <c r="D1752" t="str">
         <v/>
@@ -35442,18 +35442,18 @@
         <v>1</v>
       </c>
       <c r="F1752" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1753" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1753">
-        <v>246</v>
+        <v>4038</v>
       </c>
       <c r="D1753" t="str">
         <v/>
@@ -35462,18 +35462,18 @@
         <v>1</v>
       </c>
       <c r="F1753" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1754" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1754">
-        <v>246</v>
+        <v>3444</v>
       </c>
       <c r="D1754" t="str">
         <v/>
@@ -35482,18 +35482,18 @@
         <v>1</v>
       </c>
       <c r="F1754" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1755" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1755">
-        <v>246</v>
+        <v>4365</v>
       </c>
       <c r="D1755" t="str">
         <v/>
@@ -35502,18 +35502,18 @@
         <v>1</v>
       </c>
       <c r="F1755" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1756" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1756">
-        <v>246</v>
+        <v>4062</v>
       </c>
       <c r="D1756" t="str">
         <v/>
@@ -35522,18 +35522,18 @@
         <v>1</v>
       </c>
       <c r="F1756" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1757" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1757">
-        <v>4028</v>
+        <v>246</v>
       </c>
       <c r="D1757" t="str">
         <v/>
@@ -35542,18 +35542,18 @@
         <v>1</v>
       </c>
       <c r="F1757" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1758" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1758">
-        <v>4038</v>
+        <v>246</v>
       </c>
       <c r="D1758" t="str">
         <v/>
@@ -35562,18 +35562,18 @@
         <v>1</v>
       </c>
       <c r="F1758" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="B1759" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="C1759">
-        <v>3444</v>
+        <v>246</v>
       </c>
       <c r="D1759" t="str">
         <v/>
@@ -35582,18 +35582,18 @@
         <v>1</v>
       </c>
       <c r="F1759" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1760" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1760">
-        <v>4365</v>
+        <v>246</v>
       </c>
       <c r="D1760" t="str">
         <v/>
@@ -35602,18 +35602,18 @@
         <v>1</v>
       </c>
       <c r="F1760" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="B1761" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="C1761">
-        <v>4062</v>
+        <v>246</v>
       </c>
       <c r="D1761" t="str">
         <v/>
@@ -35622,18 +35622,18 @@
         <v>1</v>
       </c>
       <c r="F1761" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1762" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1762">
-        <v>246</v>
+        <v>1838</v>
       </c>
       <c r="D1762" t="str">
         <v/>
@@ -35642,18 +35642,18 @@
         <v>1</v>
       </c>
       <c r="F1762" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1763" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1763">
-        <v>246</v>
+        <v>1844</v>
       </c>
       <c r="D1763" t="str">
         <v/>
@@ -35662,18 +35662,18 @@
         <v>1</v>
       </c>
       <c r="F1763" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1764" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1764">
-        <v>246</v>
+        <v>1484</v>
       </c>
       <c r="D1764" t="str">
         <v/>
@@ -35682,18 +35682,18 @@
         <v>1</v>
       </c>
       <c r="F1764" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1765" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1765">
-        <v>246</v>
+        <v>1906</v>
       </c>
       <c r="D1765" t="str">
         <v/>
@@ -35702,18 +35702,18 @@
         <v>1</v>
       </c>
       <c r="F1765" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1766" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1766">
-        <v>246</v>
+        <v>1910</v>
       </c>
       <c r="D1766" t="str">
         <v/>
@@ -35722,18 +35722,18 @@
         <v>1</v>
       </c>
       <c r="F1766" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1767" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1767">
-        <v>1838</v>
+        <v>246</v>
       </c>
       <c r="D1767" t="str">
         <v/>
@@ -35742,18 +35742,18 @@
         <v>1</v>
       </c>
       <c r="F1767" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1768" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1768">
-        <v>1844</v>
+        <v>246</v>
       </c>
       <c r="D1768" t="str">
         <v/>
@@ -35762,18 +35762,18 @@
         <v>1</v>
       </c>
       <c r="F1768" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="B1769" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="C1769">
-        <v>1484</v>
+        <v>246</v>
       </c>
       <c r="D1769" t="str">
         <v/>
@@ -35782,18 +35782,18 @@
         <v>1</v>
       </c>
       <c r="F1769" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1770" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1770">
-        <v>1906</v>
+        <v>246</v>
       </c>
       <c r="D1770" t="str">
         <v/>
@@ -35802,18 +35802,18 @@
         <v>1</v>
       </c>
       <c r="F1770" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="B1771" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="C1771">
-        <v>1910</v>
+        <v>246</v>
       </c>
       <c r="D1771" t="str">
         <v/>
@@ -35822,15 +35822,15 @@
         <v>1</v>
       </c>
       <c r="F1771" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1772" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1772">
         <v>246</v>
@@ -35847,10 +35847,10 @@
     </row>
     <row r="1773">
       <c r="A1773" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1773" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1773">
         <v>246</v>
@@ -35867,10 +35867,10 @@
     </row>
     <row r="1774">
       <c r="A1774" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="B1774" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="C1774">
         <v>246</v>
@@ -35887,10 +35887,10 @@
     </row>
     <row r="1775">
       <c r="A1775" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1775" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1775">
         <v>246</v>
@@ -35907,10 +35907,10 @@
     </row>
     <row r="1776">
       <c r="A1776" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="B1776" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="C1776">
         <v>246</v>
@@ -35927,10 +35927,10 @@
     </row>
     <row r="1777">
       <c r="A1777" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1777" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1777">
         <v>246</v>
@@ -35947,10 +35947,10 @@
     </row>
     <row r="1778">
       <c r="A1778" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1778" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1778">
         <v>246</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="1779">
       <c r="A1779" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="B1779" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="C1779">
         <v>246</v>
@@ -35987,10 +35987,10 @@
     </row>
     <row r="1780">
       <c r="A1780" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1780" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1780">
         <v>246</v>
@@ -36007,10 +36007,10 @@
     </row>
     <row r="1781">
       <c r="A1781" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="B1781" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="C1781">
         <v>246</v>
@@ -36027,13 +36027,13 @@
     </row>
     <row r="1782">
       <c r="A1782" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1782" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1782">
-        <v>13697</v>
+        <v>246</v>
       </c>
       <c r="D1782" t="str">
         <v/>
@@ -36042,18 +36042,18 @@
         <v>1</v>
       </c>
       <c r="F1782" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1783" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1783">
-        <v>13761</v>
+        <v>246</v>
       </c>
       <c r="D1783" t="str">
         <v/>
@@ -36062,18 +36062,18 @@
         <v>1</v>
       </c>
       <c r="F1783" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="B1784" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="C1784">
-        <v>12502</v>
+        <v>246</v>
       </c>
       <c r="D1784" t="str">
         <v/>
@@ -36082,18 +36082,18 @@
         <v>1</v>
       </c>
       <c r="F1784" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="B1785" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="C1785">
-        <v>13827</v>
+        <v>246</v>
       </c>
       <c r="D1785" t="str">
         <v/>
@@ -36102,18 +36102,18 @@
         <v>1</v>
       </c>
       <c r="F1785" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="B1786" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="C1786">
-        <v>13301</v>
+        <v>246</v>
       </c>
       <c r="D1786" t="str">
         <v/>
@@ -36122,7 +36122,7 @@
         <v>1</v>
       </c>
       <c r="F1786" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1787">
@@ -42527,13 +42527,13 @@
     </row>
     <row r="2107">
       <c r="A2107" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2107" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2107">
-        <v>55371</v>
+        <v>13926</v>
       </c>
       <c r="D2107" t="str">
         <v/>
@@ -42542,18 +42542,18 @@
         <v>1</v>
       </c>
       <c r="F2107" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2108" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2108">
-        <v>55491</v>
+        <v>13960</v>
       </c>
       <c r="D2108" t="str">
         <v/>
@@ -42562,18 +42562,18 @@
         <v>1</v>
       </c>
       <c r="F2108" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B2109" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C2109">
-        <v>44705</v>
+        <v>11270</v>
       </c>
       <c r="D2109" t="str">
         <v/>
@@ -42582,18 +42582,18 @@
         <v>1</v>
       </c>
       <c r="F2109" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="2110">
       <c r="A2110" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2110" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2110">
-        <v>61071</v>
+        <v>15639</v>
       </c>
       <c r="D2110" t="str">
         <v/>
@@ -42602,18 +42602,18 @@
         <v>1</v>
       </c>
       <c r="F2110" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B2111" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C2111">
-        <v>55999</v>
+        <v>14837</v>
       </c>
       <c r="D2111" t="str">
         <v/>
@@ -42622,18 +42622,18 @@
         <v>1</v>
       </c>
       <c r="F2111" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2112" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2112">
-        <v>40894</v>
+        <v>2082</v>
       </c>
       <c r="D2112" t="str">
         <v/>
@@ -42642,18 +42642,18 @@
         <v>1</v>
       </c>
       <c r="F2112" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2113" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2113">
-        <v>40930</v>
+        <v>2088</v>
       </c>
       <c r="D2113" t="str">
         <v/>
@@ -42662,18 +42662,18 @@
         <v>1</v>
       </c>
       <c r="F2113" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B2114" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C2114">
-        <v>32515</v>
+        <v>1869</v>
       </c>
       <c r="D2114" t="str">
         <v/>
@@ -42682,18 +42682,18 @@
         <v>1</v>
       </c>
       <c r="F2114" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2115" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2115">
-        <v>44418</v>
+        <v>2132</v>
       </c>
       <c r="D2115" t="str">
         <v/>
@@ -42702,18 +42702,18 @@
         <v>1</v>
       </c>
       <c r="F2115" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B2116" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C2116">
-        <v>41223</v>
+        <v>2275</v>
       </c>
       <c r="D2116" t="str">
         <v/>
@@ -42722,18 +42722,18 @@
         <v>1</v>
       </c>
       <c r="F2116" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2117" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2117">
-        <v>32341</v>
+        <v>1712</v>
       </c>
       <c r="D2117" t="str">
         <v/>
@@ -42742,18 +42742,18 @@
         <v>1</v>
       </c>
       <c r="F2117" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2118" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2118">
-        <v>32413</v>
+        <v>1716</v>
       </c>
       <c r="D2118" t="str">
         <v/>
@@ -42762,18 +42762,18 @@
         <v>1</v>
       </c>
       <c r="F2118" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B2119" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C2119">
-        <v>26762</v>
+        <v>1492</v>
       </c>
       <c r="D2119" t="str">
         <v/>
@@ -42782,18 +42782,18 @@
         <v>1</v>
       </c>
       <c r="F2119" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2120" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2120">
-        <v>35917</v>
+        <v>1967</v>
       </c>
       <c r="D2120" t="str">
         <v/>
@@ -42802,18 +42802,18 @@
         <v>1</v>
       </c>
       <c r="F2120" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B2121" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C2121">
-        <v>34664</v>
+        <v>1889</v>
       </c>
       <c r="D2121" t="str">
         <v/>
@@ -42822,18 +42822,18 @@
         <v>1</v>
       </c>
       <c r="F2121" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2122" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2122">
-        <v>16711</v>
+        <v>10589</v>
       </c>
       <c r="D2122" t="str">
         <v/>
@@ -42842,18 +42842,18 @@
         <v>1</v>
       </c>
       <c r="F2122" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2123" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2123">
-        <v>16719</v>
+        <v>10615</v>
       </c>
       <c r="D2123" t="str">
         <v/>
@@ -42862,18 +42862,18 @@
         <v>1</v>
       </c>
       <c r="F2123" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B2124" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C2124">
-        <v>13871</v>
+        <v>8739</v>
       </c>
       <c r="D2124" t="str">
         <v/>
@@ -42882,18 +42882,18 @@
         <v>1</v>
       </c>
       <c r="F2124" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2125" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2125">
-        <v>18762</v>
+        <v>12403</v>
       </c>
       <c r="D2125" t="str">
         <v/>
@@ -42902,18 +42902,18 @@
         <v>1</v>
       </c>
       <c r="F2125" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B2126" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C2126">
-        <v>17545</v>
+        <v>11610</v>
       </c>
       <c r="D2126" t="str">
         <v/>
@@ -42922,18 +42922,18 @@
         <v>1</v>
       </c>
       <c r="F2126" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2127" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2127">
-        <v>20884</v>
+        <v>1387</v>
       </c>
       <c r="D2127" t="str">
         <v/>
@@ -42942,18 +42942,18 @@
         <v>1</v>
       </c>
       <c r="F2127" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2128" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2128">
-        <v>20932</v>
+        <v>1391</v>
       </c>
       <c r="D2128" t="str">
         <v/>
@@ -42962,18 +42962,18 @@
         <v>1</v>
       </c>
       <c r="F2128" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B2129" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C2129">
-        <v>17341</v>
+        <v>1242</v>
       </c>
       <c r="D2129" t="str">
         <v/>
@@ -42982,18 +42982,18 @@
         <v>1</v>
       </c>
       <c r="F2129" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2130" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2130">
-        <v>22967</v>
+        <v>1442</v>
       </c>
       <c r="D2130" t="str">
         <v/>
@@ -43002,18 +43002,18 @@
         <v>1</v>
       </c>
       <c r="F2130" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B2131" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C2131">
-        <v>21418</v>
+        <v>1422</v>
       </c>
       <c r="D2131" t="str">
         <v/>
@@ -43022,18 +43022,18 @@
         <v>1</v>
       </c>
       <c r="F2131" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2132" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2132">
-        <v>21743</v>
+        <v>13203</v>
       </c>
       <c r="D2132" t="str">
         <v/>
@@ -43042,18 +43042,18 @@
         <v>1</v>
       </c>
       <c r="F2132" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2133" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2133">
-        <v>21781</v>
+        <v>13235</v>
       </c>
       <c r="D2133" t="str">
         <v/>
@@ -43062,18 +43062,18 @@
         <v>1</v>
       </c>
       <c r="F2133" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B2134" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C2134">
-        <v>17808</v>
+        <v>11261</v>
       </c>
       <c r="D2134" t="str">
         <v/>
@@ -43082,18 +43082,18 @@
         <v>1</v>
       </c>
       <c r="F2134" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2135" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2135">
-        <v>23740</v>
+        <v>14912</v>
       </c>
       <c r="D2135" t="str">
         <v/>
@@ -43102,18 +43102,18 @@
         <v>1</v>
       </c>
       <c r="F2135" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B2136" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C2136">
-        <v>21787</v>
+        <v>13720</v>
       </c>
       <c r="D2136" t="str">
         <v/>
@@ -43122,18 +43122,18 @@
         <v>1</v>
       </c>
       <c r="F2136" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2137" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2137">
-        <v>18079</v>
+        <v>16889</v>
       </c>
       <c r="D2137" t="str">
         <v/>
@@ -43142,18 +43142,18 @@
         <v>1</v>
       </c>
       <c r="F2137" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2138" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2138">
-        <v>18113</v>
+        <v>16941</v>
       </c>
       <c r="D2138" t="str">
         <v/>
@@ -43162,18 +43162,18 @@
         <v>1</v>
       </c>
       <c r="F2138" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B2139" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C2139">
-        <v>15406</v>
+        <v>14367</v>
       </c>
       <c r="D2139" t="str">
         <v/>
@@ -43182,18 +43182,18 @@
         <v>1</v>
       </c>
       <c r="F2139" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B2140" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C2140">
-        <v>19384</v>
+        <v>18776</v>
       </c>
       <c r="D2140" t="str">
         <v/>
@@ -43202,18 +43202,18 @@
         <v>1</v>
       </c>
       <c r="F2140" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B2141" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C2141">
-        <v>19170</v>
+        <v>17584</v>
       </c>
       <c r="D2141" t="str">
         <v/>
@@ -43222,18 +43222,18 @@
         <v>1</v>
       </c>
       <c r="F2141" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2142" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2142">
-        <v>23106</v>
+        <v>1475</v>
       </c>
       <c r="D2142" t="str">
         <v/>
@@ -43242,18 +43242,18 @@
         <v>1</v>
       </c>
       <c r="F2142" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2143" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2143">
-        <v>23164</v>
+        <v>1180</v>
       </c>
       <c r="D2143" t="str">
         <v/>
@@ -43262,18 +43262,18 @@
         <v>1</v>
       </c>
       <c r="F2143" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B2144" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C2144">
-        <v>19731</v>
+        <v>1074</v>
       </c>
       <c r="D2144" t="str">
         <v/>
@@ -43282,18 +43282,18 @@
         <v>1</v>
       </c>
       <c r="F2144" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2145" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2145">
-        <v>25275</v>
+        <v>1381</v>
       </c>
       <c r="D2145" t="str">
         <v/>
@@ -43302,18 +43302,18 @@
         <v>1</v>
       </c>
       <c r="F2145" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B2146" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C2146">
-        <v>24704</v>
+        <v>1183</v>
       </c>
       <c r="D2146" t="str">
         <v/>
@@ -43322,18 +43322,18 @@
         <v>1</v>
       </c>
       <c r="F2146" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2147" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2147">
-        <v>46222</v>
+        <v>55371</v>
       </c>
       <c r="D2147" t="str">
         <v/>
@@ -43342,18 +43342,18 @@
         <v>1</v>
       </c>
       <c r="F2147" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2148" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2148">
-        <v>46344</v>
+        <v>55491</v>
       </c>
       <c r="D2148" t="str">
         <v/>
@@ -43362,18 +43362,18 @@
         <v>1</v>
       </c>
       <c r="F2148" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B2149" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C2149">
-        <v>38529</v>
+        <v>44705</v>
       </c>
       <c r="D2149" t="str">
         <v/>
@@ -43382,18 +43382,18 @@
         <v>1</v>
       </c>
       <c r="F2149" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2150" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2150">
-        <v>50501</v>
+        <v>61071</v>
       </c>
       <c r="D2150" t="str">
         <v/>
@@ -43402,18 +43402,18 @@
         <v>1</v>
       </c>
       <c r="F2150" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B2151" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C2151">
-        <v>48804</v>
+        <v>55999</v>
       </c>
       <c r="D2151" t="str">
         <v/>
@@ -43422,18 +43422,18 @@
         <v>1</v>
       </c>
       <c r="F2151" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2152" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2152">
-        <v>13926</v>
+        <v>40894</v>
       </c>
       <c r="D2152" t="str">
         <v/>
@@ -43442,18 +43442,18 @@
         <v>1</v>
       </c>
       <c r="F2152" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2153" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2153">
-        <v>13960</v>
+        <v>40930</v>
       </c>
       <c r="D2153" t="str">
         <v/>
@@ -43462,18 +43462,18 @@
         <v>1</v>
       </c>
       <c r="F2153" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B2154" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C2154">
-        <v>11270</v>
+        <v>32515</v>
       </c>
       <c r="D2154" t="str">
         <v/>
@@ -43482,18 +43482,18 @@
         <v>1</v>
       </c>
       <c r="F2154" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2155" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2155">
-        <v>15639</v>
+        <v>44418</v>
       </c>
       <c r="D2155" t="str">
         <v/>
@@ -43502,18 +43502,18 @@
         <v>1</v>
       </c>
       <c r="F2155" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B2156" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C2156">
-        <v>14837</v>
+        <v>41223</v>
       </c>
       <c r="D2156" t="str">
         <v/>
@@ -43522,18 +43522,18 @@
         <v>1</v>
       </c>
       <c r="F2156" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2157" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2157">
-        <v>2082</v>
+        <v>32341</v>
       </c>
       <c r="D2157" t="str">
         <v/>
@@ -43542,18 +43542,18 @@
         <v>1</v>
       </c>
       <c r="F2157" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2158" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2158">
-        <v>2088</v>
+        <v>32413</v>
       </c>
       <c r="D2158" t="str">
         <v/>
@@ -43562,18 +43562,18 @@
         <v>1</v>
       </c>
       <c r="F2158" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B2159" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C2159">
-        <v>1869</v>
+        <v>26762</v>
       </c>
       <c r="D2159" t="str">
         <v/>
@@ -43582,18 +43582,18 @@
         <v>1</v>
       </c>
       <c r="F2159" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2160" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2160">
-        <v>2132</v>
+        <v>35917</v>
       </c>
       <c r="D2160" t="str">
         <v/>
@@ -43602,18 +43602,18 @@
         <v>1</v>
       </c>
       <c r="F2160" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B2161" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C2161">
-        <v>2275</v>
+        <v>34664</v>
       </c>
       <c r="D2161" t="str">
         <v/>
@@ -43622,18 +43622,18 @@
         <v>1</v>
       </c>
       <c r="F2161" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2162" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2162">
-        <v>1712</v>
+        <v>16711</v>
       </c>
       <c r="D2162" t="str">
         <v/>
@@ -43642,18 +43642,18 @@
         <v>1</v>
       </c>
       <c r="F2162" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2163" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2163">
-        <v>1716</v>
+        <v>16719</v>
       </c>
       <c r="D2163" t="str">
         <v/>
@@ -43662,18 +43662,18 @@
         <v>1</v>
       </c>
       <c r="F2163" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B2164" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C2164">
-        <v>1492</v>
+        <v>13871</v>
       </c>
       <c r="D2164" t="str">
         <v/>
@@ -43682,18 +43682,18 @@
         <v>1</v>
       </c>
       <c r="F2164" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2165" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2165">
-        <v>1967</v>
+        <v>18762</v>
       </c>
       <c r="D2165" t="str">
         <v/>
@@ -43702,18 +43702,18 @@
         <v>1</v>
       </c>
       <c r="F2165" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B2166" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C2166">
-        <v>1889</v>
+        <v>17545</v>
       </c>
       <c r="D2166" t="str">
         <v/>
@@ -43722,18 +43722,18 @@
         <v>1</v>
       </c>
       <c r="F2166" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2167" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2167">
-        <v>10589</v>
+        <v>20884</v>
       </c>
       <c r="D2167" t="str">
         <v/>
@@ -43742,18 +43742,18 @@
         <v>1</v>
       </c>
       <c r="F2167" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2168" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2168">
-        <v>10615</v>
+        <v>20932</v>
       </c>
       <c r="D2168" t="str">
         <v/>
@@ -43762,18 +43762,18 @@
         <v>1</v>
       </c>
       <c r="F2168" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B2169" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C2169">
-        <v>8739</v>
+        <v>17341</v>
       </c>
       <c r="D2169" t="str">
         <v/>
@@ -43782,18 +43782,18 @@
         <v>1</v>
       </c>
       <c r="F2169" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2170" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2170">
-        <v>12403</v>
+        <v>22967</v>
       </c>
       <c r="D2170" t="str">
         <v/>
@@ -43802,18 +43802,18 @@
         <v>1</v>
       </c>
       <c r="F2170" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B2171" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C2171">
-        <v>11610</v>
+        <v>21418</v>
       </c>
       <c r="D2171" t="str">
         <v/>
@@ -43822,18 +43822,18 @@
         <v>1</v>
       </c>
       <c r="F2171" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2172" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2172">
-        <v>1387</v>
+        <v>21743</v>
       </c>
       <c r="D2172" t="str">
         <v/>
@@ -43842,18 +43842,18 @@
         <v>1</v>
       </c>
       <c r="F2172" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2173" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2173">
-        <v>1391</v>
+        <v>21781</v>
       </c>
       <c r="D2173" t="str">
         <v/>
@@ -43862,18 +43862,18 @@
         <v>1</v>
       </c>
       <c r="F2173" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B2174" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C2174">
-        <v>1242</v>
+        <v>17808</v>
       </c>
       <c r="D2174" t="str">
         <v/>
@@ -43882,18 +43882,18 @@
         <v>1</v>
       </c>
       <c r="F2174" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2175" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2175">
-        <v>1442</v>
+        <v>23740</v>
       </c>
       <c r="D2175" t="str">
         <v/>
@@ -43902,18 +43902,18 @@
         <v>1</v>
       </c>
       <c r="F2175" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B2176" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C2176">
-        <v>1422</v>
+        <v>21787</v>
       </c>
       <c r="D2176" t="str">
         <v/>
@@ -43922,18 +43922,18 @@
         <v>1</v>
       </c>
       <c r="F2176" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2177" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2177">
-        <v>13203</v>
+        <v>18079</v>
       </c>
       <c r="D2177" t="str">
         <v/>
@@ -43942,18 +43942,18 @@
         <v>1</v>
       </c>
       <c r="F2177" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2178" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2178">
-        <v>13235</v>
+        <v>18113</v>
       </c>
       <c r="D2178" t="str">
         <v/>
@@ -43962,18 +43962,18 @@
         <v>1</v>
       </c>
       <c r="F2178" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B2179" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C2179">
-        <v>11261</v>
+        <v>15406</v>
       </c>
       <c r="D2179" t="str">
         <v/>
@@ -43982,18 +43982,18 @@
         <v>1</v>
       </c>
       <c r="F2179" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2180" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2180">
-        <v>14912</v>
+        <v>19384</v>
       </c>
       <c r="D2180" t="str">
         <v/>
@@ -44002,18 +44002,18 @@
         <v>1</v>
       </c>
       <c r="F2180" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B2181" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C2181">
-        <v>13720</v>
+        <v>19170</v>
       </c>
       <c r="D2181" t="str">
         <v/>
@@ -44022,18 +44022,18 @@
         <v>1</v>
       </c>
       <c r="F2181" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2182" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2182">
-        <v>16889</v>
+        <v>23106</v>
       </c>
       <c r="D2182" t="str">
         <v/>
@@ -44042,18 +44042,18 @@
         <v>1</v>
       </c>
       <c r="F2182" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2183" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2183">
-        <v>16941</v>
+        <v>23164</v>
       </c>
       <c r="D2183" t="str">
         <v/>
@@ -44062,18 +44062,18 @@
         <v>1</v>
       </c>
       <c r="F2183" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B2184" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C2184">
-        <v>14367</v>
+        <v>19731</v>
       </c>
       <c r="D2184" t="str">
         <v/>
@@ -44082,18 +44082,18 @@
         <v>1</v>
       </c>
       <c r="F2184" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2185" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2185">
-        <v>18776</v>
+        <v>25275</v>
       </c>
       <c r="D2185" t="str">
         <v/>
@@ -44102,18 +44102,18 @@
         <v>1</v>
       </c>
       <c r="F2185" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B2186" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C2186">
-        <v>17584</v>
+        <v>24704</v>
       </c>
       <c r="D2186" t="str">
         <v/>
@@ -44122,18 +44122,18 @@
         <v>1</v>
       </c>
       <c r="F2186" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>1475</v>
+        <v>46222</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44142,18 +44142,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>1180</v>
+        <v>46344</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44162,18 +44162,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>1074</v>
+        <v>38529</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44182,18 +44182,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>1381</v>
+        <v>50501</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44202,18 +44202,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>1183</v>
+        <v>48804</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44222,7 +44222,7 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="2192">
@@ -51427,13 +51427,13 @@
     </row>
     <row r="2552">
       <c r="A2552" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2552" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2552">
-        <v>12055</v>
+        <v>47372</v>
       </c>
       <c r="D2552" t="str">
         <v/>
@@ -51442,18 +51442,18 @@
         <v>1</v>
       </c>
       <c r="F2552" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2553" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2553">
-        <v>12091</v>
+        <v>47504</v>
       </c>
       <c r="D2553" t="str">
         <v/>
@@ -51462,18 +51462,18 @@
         <v>1</v>
       </c>
       <c r="F2553" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2554" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2554">
-        <v>9948</v>
+        <v>38227</v>
       </c>
       <c r="D2554" t="str">
         <v/>
@@ -51482,18 +51482,18 @@
         <v>1</v>
       </c>
       <c r="F2554" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2555" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2555">
-        <v>13516</v>
+        <v>56677</v>
       </c>
       <c r="D2555" t="str">
         <v/>
@@ -51502,18 +51502,18 @@
         <v>1</v>
       </c>
       <c r="F2555" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2556" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2556">
-        <v>12778</v>
+        <v>50805</v>
       </c>
       <c r="D2556" t="str">
         <v/>
@@ -51522,18 +51522,18 @@
         <v>1</v>
       </c>
       <c r="F2556" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2557" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2557">
-        <v>32683</v>
+        <v>29694</v>
       </c>
       <c r="D2557" t="str">
         <v/>
@@ -51542,18 +51542,18 @@
         <v>1</v>
       </c>
       <c r="F2557" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2558" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2558">
-        <v>32785</v>
+        <v>29774</v>
       </c>
       <c r="D2558" t="str">
         <v/>
@@ -51562,18 +51562,18 @@
         <v>1</v>
       </c>
       <c r="F2558" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2559" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2559">
-        <v>26804</v>
+        <v>23226</v>
       </c>
       <c r="D2559" t="str">
         <v/>
@@ -51582,18 +51582,18 @@
         <v>1</v>
       </c>
       <c r="F2559" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2560" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2560">
-        <v>35335</v>
+        <v>34797</v>
       </c>
       <c r="D2560" t="str">
         <v/>
@@ -51602,18 +51602,18 @@
         <v>1</v>
       </c>
       <c r="F2560" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2561" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2561">
-        <v>35400</v>
+        <v>32402</v>
       </c>
       <c r="D2561" t="str">
         <v/>
@@ -51622,18 +51622,18 @@
         <v>1</v>
       </c>
       <c r="F2561" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2562" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2562">
-        <v>28261</v>
+        <v>13333</v>
       </c>
       <c r="D2562" t="str">
         <v/>
@@ -51642,18 +51642,18 @@
         <v>1</v>
       </c>
       <c r="F2562" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2563" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2563">
-        <v>28341</v>
+        <v>13371</v>
       </c>
       <c r="D2563" t="str">
         <v/>
@@ -51662,18 +51662,18 @@
         <v>1</v>
       </c>
       <c r="F2563" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2564" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2564">
-        <v>22289</v>
+        <v>10935</v>
       </c>
       <c r="D2564" t="str">
         <v/>
@@ -51682,18 +51682,18 @@
         <v>1</v>
       </c>
       <c r="F2564" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2565" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2565">
-        <v>31961</v>
+        <v>14825</v>
       </c>
       <c r="D2565" t="str">
         <v/>
@@ -51702,18 +51702,18 @@
         <v>1</v>
       </c>
       <c r="F2565" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2566" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2566">
-        <v>30340</v>
+        <v>13609</v>
       </c>
       <c r="D2566" t="str">
         <v/>
@@ -51722,18 +51722,18 @@
         <v>1</v>
       </c>
       <c r="F2566" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2567" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2567">
-        <v>22929</v>
+        <v>38115</v>
       </c>
       <c r="D2567" t="str">
         <v/>
@@ -51742,18 +51742,18 @@
         <v>1</v>
       </c>
       <c r="F2567" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2568" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2568">
-        <v>22997</v>
+        <v>38207</v>
       </c>
       <c r="D2568" t="str">
         <v/>
@@ -51762,18 +51762,18 @@
         <v>1</v>
       </c>
       <c r="F2568" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2569" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2569">
-        <v>18855</v>
+        <v>30119</v>
       </c>
       <c r="D2569" t="str">
         <v/>
@@ -51782,18 +51782,18 @@
         <v>1</v>
       </c>
       <c r="F2569" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2570" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2570">
-        <v>25986</v>
+        <v>45716</v>
       </c>
       <c r="D2570" t="str">
         <v/>
@@ -51802,18 +51802,18 @@
         <v>1</v>
       </c>
       <c r="F2570" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2571" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2571">
-        <v>24638</v>
+        <v>42343</v>
       </c>
       <c r="D2571" t="str">
         <v/>
@@ -51822,18 +51822,18 @@
         <v>1</v>
       </c>
       <c r="F2571" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2572" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2572">
-        <v>27591</v>
+        <v>22580</v>
       </c>
       <c r="D2572" t="str">
         <v/>
@@ -51842,18 +51842,18 @@
         <v>1</v>
       </c>
       <c r="F2572" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2573" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2573">
-        <v>27669</v>
+        <v>22642</v>
       </c>
       <c r="D2573" t="str">
         <v/>
@@ -51862,18 +51862,18 @@
         <v>1</v>
       </c>
       <c r="F2573" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2574" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2574">
-        <v>22217</v>
+        <v>18502</v>
       </c>
       <c r="D2574" t="str">
         <v/>
@@ -51882,18 +51882,18 @@
         <v>1</v>
       </c>
       <c r="F2574" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2575" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2575">
-        <v>30979</v>
+        <v>25738</v>
       </c>
       <c r="D2575" t="str">
         <v/>
@@ -51902,18 +51902,18 @@
         <v>1</v>
       </c>
       <c r="F2575" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2576" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2576">
-        <v>30051</v>
+        <v>23812</v>
       </c>
       <c r="D2576" t="str">
         <v/>
@@ -51922,18 +51922,18 @@
         <v>1</v>
       </c>
       <c r="F2576" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2577" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2577">
-        <v>28673</v>
+        <v>25038</v>
       </c>
       <c r="D2577" t="str">
         <v/>
@@ -51942,18 +51942,18 @@
         <v>1</v>
       </c>
       <c r="F2577" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2578" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2578">
-        <v>28755</v>
+        <v>25106</v>
       </c>
       <c r="D2578" t="str">
         <v/>
@@ -51962,18 +51962,18 @@
         <v>1</v>
       </c>
       <c r="F2578" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2579" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2579">
-        <v>24091</v>
+        <v>20304</v>
       </c>
       <c r="D2579" t="str">
         <v/>
@@ -51982,18 +51982,18 @@
         <v>1</v>
       </c>
       <c r="F2579" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2580" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2580">
-        <v>32509</v>
+        <v>31176</v>
       </c>
       <c r="D2580" t="str">
         <v/>
@@ -52002,18 +52002,18 @@
         <v>1</v>
       </c>
       <c r="F2580" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2581" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2581">
-        <v>31007</v>
+        <v>28656</v>
       </c>
       <c r="D2581" t="str">
         <v/>
@@ -52022,18 +52022,18 @@
         <v>1</v>
       </c>
       <c r="F2581" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2582" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2582">
-        <v>21788</v>
+        <v>19450</v>
       </c>
       <c r="D2582" t="str">
         <v/>
@@ -52042,18 +52042,18 @@
         <v>1</v>
       </c>
       <c r="F2582" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2583" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2583">
-        <v>21848</v>
+        <v>19506</v>
       </c>
       <c r="D2583" t="str">
         <v/>
@@ -52062,18 +52062,18 @@
         <v>1</v>
       </c>
       <c r="F2583" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2584" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2584">
-        <v>18324</v>
+        <v>15666</v>
       </c>
       <c r="D2584" t="str">
         <v/>
@@ -52082,18 +52082,18 @@
         <v>1</v>
       </c>
       <c r="F2584" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2585" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2585">
-        <v>25169</v>
+        <v>22550</v>
       </c>
       <c r="D2585" t="str">
         <v/>
@@ -52102,18 +52102,18 @@
         <v>1</v>
       </c>
       <c r="F2585" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2586" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2586">
-        <v>22994</v>
+        <v>20969</v>
       </c>
       <c r="D2586" t="str">
         <v/>
@@ -52122,18 +52122,18 @@
         <v>1</v>
       </c>
       <c r="F2586" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2587" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2587">
-        <v>31366</v>
+        <v>12055</v>
       </c>
       <c r="D2587" t="str">
         <v/>
@@ -52142,18 +52142,18 @@
         <v>1</v>
       </c>
       <c r="F2587" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2588" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2588">
-        <v>31450</v>
+        <v>12091</v>
       </c>
       <c r="D2588" t="str">
         <v/>
@@ -52162,18 +52162,18 @@
         <v>1</v>
       </c>
       <c r="F2588" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2589" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2589">
-        <v>25325</v>
+        <v>9948</v>
       </c>
       <c r="D2589" t="str">
         <v/>
@@ -52182,18 +52182,18 @@
         <v>1</v>
       </c>
       <c r="F2589" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2590" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2590">
-        <v>36671</v>
+        <v>13516</v>
       </c>
       <c r="D2590" t="str">
         <v/>
@@ -52202,18 +52202,18 @@
         <v>1</v>
       </c>
       <c r="F2590" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2591" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2591">
-        <v>34359</v>
+        <v>12778</v>
       </c>
       <c r="D2591" t="str">
         <v/>
@@ -52222,18 +52222,18 @@
         <v>1</v>
       </c>
       <c r="F2591" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2592" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2592">
-        <v>30007</v>
+        <v>32683</v>
       </c>
       <c r="D2592" t="str">
         <v/>
@@ -52242,18 +52242,18 @@
         <v>1</v>
       </c>
       <c r="F2592" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2593" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2593">
-        <v>30087</v>
+        <v>32785</v>
       </c>
       <c r="D2593" t="str">
         <v/>
@@ -52262,18 +52262,18 @@
         <v>1</v>
       </c>
       <c r="F2593" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2594" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2594">
-        <v>24378</v>
+        <v>26804</v>
       </c>
       <c r="D2594" t="str">
         <v/>
@@ -52282,18 +52282,18 @@
         <v>1</v>
       </c>
       <c r="F2594" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2595" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2595">
-        <v>35724</v>
+        <v>35335</v>
       </c>
       <c r="D2595" t="str">
         <v/>
@@ -52302,18 +52302,18 @@
         <v>1</v>
       </c>
       <c r="F2595" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2596" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2596">
-        <v>33241</v>
+        <v>35400</v>
       </c>
       <c r="D2596" t="str">
         <v/>
@@ -52322,18 +52322,18 @@
         <v>1</v>
       </c>
       <c r="F2596" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2597" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2597">
-        <v>31730</v>
+        <v>28261</v>
       </c>
       <c r="D2597" t="str">
         <v/>
@@ -52342,18 +52342,18 @@
         <v>1</v>
       </c>
       <c r="F2597" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2598" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2598">
-        <v>31818</v>
+        <v>28341</v>
       </c>
       <c r="D2598" t="str">
         <v/>
@@ -52362,18 +52362,18 @@
         <v>1</v>
       </c>
       <c r="F2598" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2599" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2599">
-        <v>25891</v>
+        <v>22289</v>
       </c>
       <c r="D2599" t="str">
         <v/>
@@ -52382,18 +52382,18 @@
         <v>1</v>
       </c>
       <c r="F2599" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2600" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2600">
-        <v>36973</v>
+        <v>31961</v>
       </c>
       <c r="D2600" t="str">
         <v/>
@@ -52402,18 +52402,18 @@
         <v>1</v>
       </c>
       <c r="F2600" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2601" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2601">
-        <v>35473</v>
+        <v>30340</v>
       </c>
       <c r="D2601" t="str">
         <v/>
@@ -52422,18 +52422,18 @@
         <v>1</v>
       </c>
       <c r="F2601" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2602" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2602">
-        <v>24351</v>
+        <v>22929</v>
       </c>
       <c r="D2602" t="str">
         <v/>
@@ -52442,18 +52442,18 @@
         <v>1</v>
       </c>
       <c r="F2602" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2603" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2603">
-        <v>24417</v>
+        <v>22997</v>
       </c>
       <c r="D2603" t="str">
         <v/>
@@ -52462,18 +52462,18 @@
         <v>1</v>
       </c>
       <c r="F2603" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2604" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2604">
-        <v>19827</v>
+        <v>18855</v>
       </c>
       <c r="D2604" t="str">
         <v/>
@@ -52482,18 +52482,18 @@
         <v>1</v>
       </c>
       <c r="F2604" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2605" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2605">
-        <v>28858</v>
+        <v>25986</v>
       </c>
       <c r="D2605" t="str">
         <v/>
@@ -52502,18 +52502,18 @@
         <v>1</v>
       </c>
       <c r="F2605" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2606" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2606">
-        <v>27987</v>
+        <v>24638</v>
       </c>
       <c r="D2606" t="str">
         <v/>
@@ -52522,18 +52522,18 @@
         <v>1</v>
       </c>
       <c r="F2606" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2607" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2607">
-        <v>47372</v>
+        <v>27591</v>
       </c>
       <c r="D2607" t="str">
         <v/>
@@ -52542,18 +52542,18 @@
         <v>1</v>
       </c>
       <c r="F2607" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2608" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2608">
-        <v>47504</v>
+        <v>27669</v>
       </c>
       <c r="D2608" t="str">
         <v/>
@@ -52562,18 +52562,18 @@
         <v>1</v>
       </c>
       <c r="F2608" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2609" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2609">
-        <v>38227</v>
+        <v>22217</v>
       </c>
       <c r="D2609" t="str">
         <v/>
@@ -52582,18 +52582,18 @@
         <v>1</v>
       </c>
       <c r="F2609" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2610" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2610">
-        <v>56677</v>
+        <v>30979</v>
       </c>
       <c r="D2610" t="str">
         <v/>
@@ -52602,18 +52602,18 @@
         <v>1</v>
       </c>
       <c r="F2610" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2611" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2611">
-        <v>50805</v>
+        <v>30051</v>
       </c>
       <c r="D2611" t="str">
         <v/>
@@ -52622,18 +52622,18 @@
         <v>1</v>
       </c>
       <c r="F2611" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2612" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2612">
-        <v>29694</v>
+        <v>28673</v>
       </c>
       <c r="D2612" t="str">
         <v/>
@@ -52642,18 +52642,18 @@
         <v>1</v>
       </c>
       <c r="F2612" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2613" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2613">
-        <v>29774</v>
+        <v>28755</v>
       </c>
       <c r="D2613" t="str">
         <v/>
@@ -52662,18 +52662,18 @@
         <v>1</v>
       </c>
       <c r="F2613" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2614" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2614">
-        <v>23226</v>
+        <v>24091</v>
       </c>
       <c r="D2614" t="str">
         <v/>
@@ -52682,18 +52682,18 @@
         <v>1</v>
       </c>
       <c r="F2614" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2615" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2615">
-        <v>34797</v>
+        <v>32509</v>
       </c>
       <c r="D2615" t="str">
         <v/>
@@ -52702,18 +52702,18 @@
         <v>1</v>
       </c>
       <c r="F2615" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2616" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2616">
-        <v>32402</v>
+        <v>31007</v>
       </c>
       <c r="D2616" t="str">
         <v/>
@@ -52722,18 +52722,18 @@
         <v>1</v>
       </c>
       <c r="F2616" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2617" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2617">
-        <v>13333</v>
+        <v>21788</v>
       </c>
       <c r="D2617" t="str">
         <v/>
@@ -52742,18 +52742,18 @@
         <v>1</v>
       </c>
       <c r="F2617" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2618" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2618">
-        <v>13371</v>
+        <v>21848</v>
       </c>
       <c r="D2618" t="str">
         <v/>
@@ -52762,18 +52762,18 @@
         <v>1</v>
       </c>
       <c r="F2618" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2619" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2619">
-        <v>10935</v>
+        <v>18324</v>
       </c>
       <c r="D2619" t="str">
         <v/>
@@ -52782,18 +52782,18 @@
         <v>1</v>
       </c>
       <c r="F2619" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2620" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2620">
-        <v>14825</v>
+        <v>25169</v>
       </c>
       <c r="D2620" t="str">
         <v/>
@@ -52802,18 +52802,18 @@
         <v>1</v>
       </c>
       <c r="F2620" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2621" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2621">
-        <v>13609</v>
+        <v>22994</v>
       </c>
       <c r="D2621" t="str">
         <v/>
@@ -52822,18 +52822,18 @@
         <v>1</v>
       </c>
       <c r="F2621" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2622" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2622">
-        <v>38115</v>
+        <v>31366</v>
       </c>
       <c r="D2622" t="str">
         <v/>
@@ -52842,18 +52842,18 @@
         <v>1</v>
       </c>
       <c r="F2622" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2623" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2623">
-        <v>38207</v>
+        <v>31450</v>
       </c>
       <c r="D2623" t="str">
         <v/>
@@ -52862,18 +52862,18 @@
         <v>1</v>
       </c>
       <c r="F2623" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2624" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2624">
-        <v>30119</v>
+        <v>25325</v>
       </c>
       <c r="D2624" t="str">
         <v/>
@@ -52882,18 +52882,18 @@
         <v>1</v>
       </c>
       <c r="F2624" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2625" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2625">
-        <v>45716</v>
+        <v>36671</v>
       </c>
       <c r="D2625" t="str">
         <v/>
@@ -52902,18 +52902,18 @@
         <v>1</v>
       </c>
       <c r="F2625" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2626" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2626">
-        <v>42343</v>
+        <v>34359</v>
       </c>
       <c r="D2626" t="str">
         <v/>
@@ -52922,18 +52922,18 @@
         <v>1</v>
       </c>
       <c r="F2626" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2627" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2627">
-        <v>22580</v>
+        <v>30007</v>
       </c>
       <c r="D2627" t="str">
         <v/>
@@ -52942,18 +52942,18 @@
         <v>1</v>
       </c>
       <c r="F2627" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2628" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2628">
-        <v>22642</v>
+        <v>30087</v>
       </c>
       <c r="D2628" t="str">
         <v/>
@@ -52962,18 +52962,18 @@
         <v>1</v>
       </c>
       <c r="F2628" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2629" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2629">
-        <v>18502</v>
+        <v>24378</v>
       </c>
       <c r="D2629" t="str">
         <v/>
@@ -52982,18 +52982,18 @@
         <v>1</v>
       </c>
       <c r="F2629" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2630" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2630">
-        <v>25738</v>
+        <v>35724</v>
       </c>
       <c r="D2630" t="str">
         <v/>
@@ -53002,18 +53002,18 @@
         <v>1</v>
       </c>
       <c r="F2630" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2631" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2631">
-        <v>23812</v>
+        <v>33241</v>
       </c>
       <c r="D2631" t="str">
         <v/>
@@ -53022,18 +53022,18 @@
         <v>1</v>
       </c>
       <c r="F2631" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2632" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2632">
-        <v>25038</v>
+        <v>31730</v>
       </c>
       <c r="D2632" t="str">
         <v/>
@@ -53042,18 +53042,18 @@
         <v>1</v>
       </c>
       <c r="F2632" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2633" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2633">
-        <v>25106</v>
+        <v>31818</v>
       </c>
       <c r="D2633" t="str">
         <v/>
@@ -53062,18 +53062,18 @@
         <v>1</v>
       </c>
       <c r="F2633" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2634" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2634">
-        <v>20304</v>
+        <v>25891</v>
       </c>
       <c r="D2634" t="str">
         <v/>
@@ -53082,18 +53082,18 @@
         <v>1</v>
       </c>
       <c r="F2634" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2635" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2635">
-        <v>31176</v>
+        <v>36973</v>
       </c>
       <c r="D2635" t="str">
         <v/>
@@ -53102,18 +53102,18 @@
         <v>1</v>
       </c>
       <c r="F2635" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2636" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2636">
-        <v>28656</v>
+        <v>35473</v>
       </c>
       <c r="D2636" t="str">
         <v/>
@@ -53122,18 +53122,18 @@
         <v>1</v>
       </c>
       <c r="F2636" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2637" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2637">
-        <v>19450</v>
+        <v>24351</v>
       </c>
       <c r="D2637" t="str">
         <v/>
@@ -53142,18 +53142,18 @@
         <v>1</v>
       </c>
       <c r="F2637" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2638" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2638">
-        <v>19506</v>
+        <v>24417</v>
       </c>
       <c r="D2638" t="str">
         <v/>
@@ -53162,18 +53162,18 @@
         <v>1</v>
       </c>
       <c r="F2638" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2639" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2639">
-        <v>15666</v>
+        <v>19827</v>
       </c>
       <c r="D2639" t="str">
         <v/>
@@ -53182,18 +53182,18 @@
         <v>1</v>
       </c>
       <c r="F2639" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2640" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2640">
-        <v>22550</v>
+        <v>28858</v>
       </c>
       <c r="D2640" t="str">
         <v/>
@@ -53202,18 +53202,18 @@
         <v>1</v>
       </c>
       <c r="F2640" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2641" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2641">
-        <v>20969</v>
+        <v>27987</v>
       </c>
       <c r="D2641" t="str">
         <v/>
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="F2641" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2642">
@@ -57027,13 +57027,13 @@
     </row>
     <row r="2832">
       <c r="A2832" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2832" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2832">
-        <v>246</v>
+        <v>21771</v>
       </c>
       <c r="D2832" t="str">
         <v/>
@@ -57042,18 +57042,18 @@
         <v>1</v>
       </c>
       <c r="F2832" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2833" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2833">
-        <v>246</v>
+        <v>21821</v>
       </c>
       <c r="D2833" t="str">
         <v/>
@@ -57062,18 +57062,18 @@
         <v>1</v>
       </c>
       <c r="F2833" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="B2834" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="C2834">
-        <v>246</v>
+        <v>17951</v>
       </c>
       <c r="D2834" t="str">
         <v/>
@@ -57082,18 +57082,18 @@
         <v>1</v>
       </c>
       <c r="F2834" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2835" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2835">
-        <v>246</v>
+        <v>24640</v>
       </c>
       <c r="D2835" t="str">
         <v/>
@@ -57102,18 +57102,18 @@
         <v>1</v>
       </c>
       <c r="F2835" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="B2836" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="C2836">
-        <v>246</v>
+        <v>23749</v>
       </c>
       <c r="D2836" t="str">
         <v/>
@@ -57122,18 +57122,18 @@
         <v>1</v>
       </c>
       <c r="F2836" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2837" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2837">
-        <v>21771</v>
+        <v>246</v>
       </c>
       <c r="D2837" t="str">
         <v/>
@@ -57142,18 +57142,18 @@
         <v>1</v>
       </c>
       <c r="F2837" t="str">
-        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2838" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2838">
-        <v>21821</v>
+        <v>246</v>
       </c>
       <c r="D2838" t="str">
         <v/>
@@ -57162,18 +57162,18 @@
         <v>1</v>
       </c>
       <c r="F2838" t="str">
-        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="B2839" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="C2839">
-        <v>17951</v>
+        <v>246</v>
       </c>
       <c r="D2839" t="str">
         <v/>
@@ -57182,18 +57182,18 @@
         <v>1</v>
       </c>
       <c r="F2839" t="str">
-        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="B2840" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="C2840">
-        <v>24640</v>
+        <v>246</v>
       </c>
       <c r="D2840" t="str">
         <v/>
@@ -57202,18 +57202,18 @@
         <v>1</v>
       </c>
       <c r="F2840" t="str">
-        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="B2841" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="C2841">
-        <v>23749</v>
+        <v>246</v>
       </c>
       <c r="D2841" t="str">
         <v/>
@@ -57222,7 +57222,7 @@
         <v>1</v>
       </c>
       <c r="F2841" t="str">
-        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2842">

--- a/client_gamedata/dialog.xlsx
+++ b/client_gamedata/dialog.xlsx
@@ -35327,13 +35327,13 @@
     </row>
     <row r="1747">
       <c r="A1747" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1747" t="str">
-        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1747">
-        <v>13697</v>
+        <v>246</v>
       </c>
       <c r="D1747" t="str">
         <v/>
@@ -35342,18 +35342,18 @@
         <v>1</v>
       </c>
       <c r="F1747" t="str">
-        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1748" t="str">
-        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1748">
-        <v>13761</v>
+        <v>246</v>
       </c>
       <c r="D1748" t="str">
         <v/>
@@ -35362,18 +35362,18 @@
         <v>1</v>
       </c>
       <c r="F1748" t="str">
-        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="B1749" t="str">
-        <v>expl_thieve_0101_dialog_english.dialog</v>
+        <v>explorepier_home_003_dialog_english.dialog</v>
       </c>
       <c r="C1749">
-        <v>12502</v>
+        <v>246</v>
       </c>
       <c r="D1749" t="str">
         <v/>
@@ -35382,18 +35382,18 @@
         <v>1</v>
       </c>
       <c r="F1749" t="str">
-        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="B1750" t="str">
-        <v>expl_thieve_0101_dialog_japanese.dialog</v>
+        <v>explorepier_home_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1750">
-        <v>13827</v>
+        <v>246</v>
       </c>
       <c r="D1750" t="str">
         <v/>
@@ -35402,18 +35402,18 @@
         <v>1</v>
       </c>
       <c r="F1750" t="str">
-        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="B1751" t="str">
-        <v>expl_thieve_0101_dialog_korean.dialog</v>
+        <v>explorepier_home_003_dialog_korean.dialog</v>
       </c>
       <c r="C1751">
-        <v>13301</v>
+        <v>246</v>
       </c>
       <c r="D1751" t="str">
         <v/>
@@ -35422,18 +35422,18 @@
         <v>1</v>
       </c>
       <c r="F1751" t="str">
-        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1752" t="str">
-        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1752">
-        <v>4028</v>
+        <v>246</v>
       </c>
       <c r="D1752" t="str">
         <v/>
@@ -35442,18 +35442,18 @@
         <v>1</v>
       </c>
       <c r="F1752" t="str">
-        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1753" t="str">
-        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
+        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1753">
-        <v>4038</v>
+        <v>246</v>
       </c>
       <c r="D1753" t="str">
         <v/>
@@ -35462,18 +35462,18 @@
         <v>1</v>
       </c>
       <c r="F1753" t="str">
-        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="B1754" t="str">
-        <v>explore_2ycs01_001_dialog_english.dialog</v>
+        <v>explorepier_pier_104_dialog_english.dialog</v>
       </c>
       <c r="C1754">
-        <v>3444</v>
+        <v>246</v>
       </c>
       <c r="D1754" t="str">
         <v/>
@@ -35482,18 +35482,18 @@
         <v>1</v>
       </c>
       <c r="F1754" t="str">
-        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="B1755" t="str">
-        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
+        <v>explorepier_pier_104_dialog_japanese.dialog</v>
       </c>
       <c r="C1755">
-        <v>4365</v>
+        <v>246</v>
       </c>
       <c r="D1755" t="str">
         <v/>
@@ -35502,18 +35502,18 @@
         <v>1</v>
       </c>
       <c r="F1755" t="str">
-        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="B1756" t="str">
-        <v>explore_2ycs01_001_dialog_korean.dialog</v>
+        <v>explorepier_pier_104_dialog_korean.dialog</v>
       </c>
       <c r="C1756">
-        <v>4062</v>
+        <v>246</v>
       </c>
       <c r="D1756" t="str">
         <v/>
@@ -35522,18 +35522,18 @@
         <v>1</v>
       </c>
       <c r="F1756" t="str">
-        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1757" t="str">
-        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1757">
-        <v>246</v>
+        <v>4028</v>
       </c>
       <c r="D1757" t="str">
         <v/>
@@ -35542,18 +35542,18 @@
         <v>1</v>
       </c>
       <c r="F1757" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b9a4c551359dd8e0836e035bd9ce0a994cc55761980666e66d3b18e100557b9</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1758" t="str">
-        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs01_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1758">
-        <v>246</v>
+        <v>4038</v>
       </c>
       <c r="D1758" t="str">
         <v/>
@@ -35562,18 +35562,18 @@
         <v>1</v>
       </c>
       <c r="F1758" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>63e729c8c82473c49265e6724f41b2dddc3c72b51e2e9350ab4460a15843957b</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="B1759" t="str">
-        <v>explore_2ycs02_001_dialog_english.dialog</v>
+        <v>explore_2ycs01_001_dialog_english.dialog</v>
       </c>
       <c r="C1759">
-        <v>246</v>
+        <v>3444</v>
       </c>
       <c r="D1759" t="str">
         <v/>
@@ -35582,18 +35582,18 @@
         <v>1</v>
       </c>
       <c r="F1759" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>bbe702b0f91a9362edbe9cae2e9be686a9dcc3f3a3eacd8c3fbc9899b7c0506a</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1760" t="str">
-        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs01_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1760">
-        <v>246</v>
+        <v>4365</v>
       </c>
       <c r="D1760" t="str">
         <v/>
@@ -35602,18 +35602,18 @@
         <v>1</v>
       </c>
       <c r="F1760" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>596a18f5ebb0f491de311ed476ca07ef2bf6eaacd21f4072ccca49a625d78240</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="B1761" t="str">
-        <v>explore_2ycs02_001_dialog_korean.dialog</v>
+        <v>explore_2ycs01_001_dialog_korean.dialog</v>
       </c>
       <c r="C1761">
-        <v>246</v>
+        <v>4062</v>
       </c>
       <c r="D1761" t="str">
         <v/>
@@ -35622,18 +35622,18 @@
         <v>1</v>
       </c>
       <c r="F1761" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7ddc4962a629304515a8ee9276b8409bd95530de059a35557124c8e8aac36fb7</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1762" t="str">
-        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1762">
-        <v>1838</v>
+        <v>246</v>
       </c>
       <c r="D1762" t="str">
         <v/>
@@ -35642,18 +35642,18 @@
         <v>1</v>
       </c>
       <c r="F1762" t="str">
-        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1763" t="str">
-        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs02_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1763">
-        <v>1844</v>
+        <v>246</v>
       </c>
       <c r="D1763" t="str">
         <v/>
@@ -35662,18 +35662,18 @@
         <v>1</v>
       </c>
       <c r="F1763" t="str">
-        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="B1764" t="str">
-        <v>explore_2ycs04_001_dialog_english.dialog</v>
+        <v>explore_2ycs02_001_dialog_english.dialog</v>
       </c>
       <c r="C1764">
-        <v>1484</v>
+        <v>246</v>
       </c>
       <c r="D1764" t="str">
         <v/>
@@ -35682,18 +35682,18 @@
         <v>1</v>
       </c>
       <c r="F1764" t="str">
-        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1765" t="str">
-        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
+        <v>explore_2ycs02_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1765">
-        <v>1906</v>
+        <v>246</v>
       </c>
       <c r="D1765" t="str">
         <v/>
@@ -35702,18 +35702,18 @@
         <v>1</v>
       </c>
       <c r="F1765" t="str">
-        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="B1766" t="str">
-        <v>explore_2ycs04_001_dialog_korean.dialog</v>
+        <v>explore_2ycs02_001_dialog_korean.dialog</v>
       </c>
       <c r="C1766">
-        <v>1910</v>
+        <v>246</v>
       </c>
       <c r="D1766" t="str">
         <v/>
@@ -35722,18 +35722,18 @@
         <v>1</v>
       </c>
       <c r="F1766" t="str">
-        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1767" t="str">
-        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1767">
-        <v>246</v>
+        <v>1838</v>
       </c>
       <c r="D1767" t="str">
         <v/>
@@ -35742,18 +35742,18 @@
         <v>1</v>
       </c>
       <c r="F1767" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>cbf2dc69502dae1b067666062c095ffa365c7bb0e873ec12b6287604ab1ebf14</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1768" t="str">
-        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs04_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1768">
-        <v>246</v>
+        <v>1844</v>
       </c>
       <c r="D1768" t="str">
         <v/>
@@ -35762,18 +35762,18 @@
         <v>1</v>
       </c>
       <c r="F1768" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>576caaa87c9bde1c13315490e5b9abd882f28564328b96ca2c63e43c2940c535</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="B1769" t="str">
-        <v>explore_2ycs05_004_dialog_english.dialog</v>
+        <v>explore_2ycs04_001_dialog_english.dialog</v>
       </c>
       <c r="C1769">
-        <v>246</v>
+        <v>1484</v>
       </c>
       <c r="D1769" t="str">
         <v/>
@@ -35782,18 +35782,18 @@
         <v>1</v>
       </c>
       <c r="F1769" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>23b4bd232e285126c21288a2770440e0ddbfec357c8743b09d58caea7170b220</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="B1770" t="str">
-        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
+        <v>explore_2ycs04_001_dialog_japanese.dialog</v>
       </c>
       <c r="C1770">
-        <v>246</v>
+        <v>1906</v>
       </c>
       <c r="D1770" t="str">
         <v/>
@@ -35802,18 +35802,18 @@
         <v>1</v>
       </c>
       <c r="F1770" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>de2bf5fb9e59c8136242fd6af1763a38e44f95589c4075f4428682417af1b496</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="B1771" t="str">
-        <v>explore_2ycs05_004_dialog_korean.dialog</v>
+        <v>explore_2ycs04_001_dialog_korean.dialog</v>
       </c>
       <c r="C1771">
-        <v>246</v>
+        <v>1910</v>
       </c>
       <c r="D1771" t="str">
         <v/>
@@ -35822,15 +35822,15 @@
         <v>1</v>
       </c>
       <c r="F1771" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>e95dbfda27823eca10c4e6cd95de94085a333e0251bca934f4a699f87960ff58</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1772" t="str">
-        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1772">
         <v>246</v>
@@ -35847,10 +35847,10 @@
     </row>
     <row r="1773">
       <c r="A1773" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1773" t="str">
-        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1773">
         <v>246</v>
@@ -35867,10 +35867,10 @@
     </row>
     <row r="1774">
       <c r="A1774" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="B1774" t="str">
-        <v>explore_2ycs05_005_dialog_english.dialog</v>
+        <v>explore_2ycs05_004_dialog_english.dialog</v>
       </c>
       <c r="C1774">
         <v>246</v>
@@ -35887,10 +35887,10 @@
     </row>
     <row r="1775">
       <c r="A1775" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="B1775" t="str">
-        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_004_dialog_japanese.dialog</v>
       </c>
       <c r="C1775">
         <v>246</v>
@@ -35907,10 +35907,10 @@
     </row>
     <row r="1776">
       <c r="A1776" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="B1776" t="str">
-        <v>explore_2ycs05_005_dialog_korean.dialog</v>
+        <v>explore_2ycs05_004_dialog_korean.dialog</v>
       </c>
       <c r="C1776">
         <v>246</v>
@@ -35927,10 +35927,10 @@
     </row>
     <row r="1777">
       <c r="A1777" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1777" t="str">
-        <v>explorepier_home_003_dialog_chinesesimplified.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1777">
         <v>246</v>
@@ -35947,10 +35947,10 @@
     </row>
     <row r="1778">
       <c r="A1778" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1778" t="str">
-        <v>explorepier_home_003_dialog_chinesetraditional.dialog</v>
+        <v>explore_2ycs05_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1778">
         <v>246</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="1779">
       <c r="A1779" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="B1779" t="str">
-        <v>explorepier_home_003_dialog_english.dialog</v>
+        <v>explore_2ycs05_005_dialog_english.dialog</v>
       </c>
       <c r="C1779">
         <v>246</v>
@@ -35987,10 +35987,10 @@
     </row>
     <row r="1780">
       <c r="A1780" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="B1780" t="str">
-        <v>explorepier_home_003_dialog_japanese.dialog</v>
+        <v>explore_2ycs05_005_dialog_japanese.dialog</v>
       </c>
       <c r="C1780">
         <v>246</v>
@@ -36007,10 +36007,10 @@
     </row>
     <row r="1781">
       <c r="A1781" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="B1781" t="str">
-        <v>explorepier_home_003_dialog_korean.dialog</v>
+        <v>explore_2ycs05_005_dialog_korean.dialog</v>
       </c>
       <c r="C1781">
         <v>246</v>
@@ -36027,13 +36027,13 @@
     </row>
     <row r="1782">
       <c r="A1782" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B1782" t="str">
-        <v>explorepier_pier_104_dialog_chinesesimplified.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C1782">
-        <v>246</v>
+        <v>13697</v>
       </c>
       <c r="D1782" t="str">
         <v/>
@@ -36042,18 +36042,18 @@
         <v>1</v>
       </c>
       <c r="F1782" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>b8e3040a4070a6d5576fea807a05058d2d94ab62916aa46f42b87c1cf56f8983</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B1783" t="str">
-        <v>explorepier_pier_104_dialog_chinesetraditional.dialog</v>
+        <v>expl_thieve_0101_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C1783">
-        <v>246</v>
+        <v>13761</v>
       </c>
       <c r="D1783" t="str">
         <v/>
@@ -36062,18 +36062,18 @@
         <v>1</v>
       </c>
       <c r="F1783" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>37f17fc0d0c4bf2b56163f96df3f4c56020b20a7ed5529f166802146eb4bc1d7</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="B1784" t="str">
-        <v>explorepier_pier_104_dialog_english.dialog</v>
+        <v>expl_thieve_0101_dialog_english.dialog</v>
       </c>
       <c r="C1784">
-        <v>246</v>
+        <v>12502</v>
       </c>
       <c r="D1784" t="str">
         <v/>
@@ -36082,18 +36082,18 @@
         <v>1</v>
       </c>
       <c r="F1784" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>8a5fc4255ed7bf00b7aba627e206f9bdd0db870865a91f990b05b285f1cbce67</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="B1785" t="str">
-        <v>explorepier_pier_104_dialog_japanese.dialog</v>
+        <v>expl_thieve_0101_dialog_japanese.dialog</v>
       </c>
       <c r="C1785">
-        <v>246</v>
+        <v>13827</v>
       </c>
       <c r="D1785" t="str">
         <v/>
@@ -36102,18 +36102,18 @@
         <v>1</v>
       </c>
       <c r="F1785" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>71bd0878011ba1bcd540d689cd0e5ba9878af97588e1e5b6027162b344e98905</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="B1786" t="str">
-        <v>explorepier_pier_104_dialog_korean.dialog</v>
+        <v>expl_thieve_0101_dialog_korean.dialog</v>
       </c>
       <c r="C1786">
-        <v>246</v>
+        <v>13301</v>
       </c>
       <c r="D1786" t="str">
         <v/>
@@ -36122,7 +36122,7 @@
         <v>1</v>
       </c>
       <c r="F1786" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>a73908240141e3de87a3ff1d4cbe34afe684926438df1102d3b32f89c7d943ad</v>
       </c>
     </row>
     <row r="1787">
@@ -38573,7 +38573,7 @@
         <v>fest_032_001_dialog_english.dialog</v>
       </c>
       <c r="C1909">
-        <v>47803</v>
+        <v>47817</v>
       </c>
       <c r="D1909" t="str">
         <v/>
@@ -38582,7 +38582,7 @@
         <v>1</v>
       </c>
       <c r="F1909" t="str">
-        <v>e6356384a3b65f9af1c50c537e7263100473b0ce350d27b9b2468b8583886168</v>
+        <v>182cd2c0c57018a9f46a3a001bd6ec076715aab7dcd8f8aa2739456da444b6b9</v>
       </c>
     </row>
     <row r="1910">
@@ -38602,7 +38602,7 @@
         <v>1</v>
       </c>
       <c r="F1910" t="str">
-        <v>0707a01d5620c3c008641fce600cfa16405f76ced0f15b2d90aa3bdcfcefd1ae</v>
+        <v>eb2d0b3c021063b7655d63e68b700c647c0a3a654a016e67b0a0c02c4bba17a3</v>
       </c>
     </row>
     <row r="1911">
@@ -38613,7 +38613,7 @@
         <v>fest_032_001_dialog_korean.dialog</v>
       </c>
       <c r="C1911">
-        <v>67293</v>
+        <v>67458</v>
       </c>
       <c r="D1911" t="str">
         <v/>
@@ -38622,7 +38622,7 @@
         <v>1</v>
       </c>
       <c r="F1911" t="str">
-        <v>9ddaa3c6c09ffc26fcdde5cf9e445b13819adb6da2749edfd7c4845b7506b4d0</v>
+        <v>9c1090ca2192e0b81e53aea65a4a1109db3e6f6c0bb20fc5b03dce68a974ca46</v>
       </c>
     </row>
     <row r="1912">
@@ -38673,7 +38673,7 @@
         <v>fest_032_002_dialog_english.dialog</v>
       </c>
       <c r="C1914">
-        <v>39608</v>
+        <v>39620</v>
       </c>
       <c r="D1914" t="str">
         <v/>
@@ -38682,7 +38682,7 @@
         <v>1</v>
       </c>
       <c r="F1914" t="str">
-        <v>342362170f0edc93ca24bff539887f24c0b1e42da7cbc4a53d84a70e402ec134</v>
+        <v>c2efe7cced29a0b0b5946f23fea136fcaac64d8f6ce6eef6e79a00bd625a5aab</v>
       </c>
     </row>
     <row r="1915">
@@ -38693,7 +38693,7 @@
         <v>fest_032_002_dialog_japanese.dialog</v>
       </c>
       <c r="C1915">
-        <v>60861</v>
+        <v>60939</v>
       </c>
       <c r="D1915" t="str">
         <v/>
@@ -38702,7 +38702,7 @@
         <v>1</v>
       </c>
       <c r="F1915" t="str">
-        <v>7641644b71c0821b95b2d05e9883a5b7b14192e42c60ac61b179bc6a1f0570d7</v>
+        <v>5304c7413dcec2701f2f2b95b5eb496561901b35bee5c8e01272c4f77ac09d64</v>
       </c>
     </row>
     <row r="1916">
@@ -38713,7 +38713,7 @@
         <v>fest_032_002_dialog_korean.dialog</v>
       </c>
       <c r="C1916">
-        <v>54527</v>
+        <v>54525</v>
       </c>
       <c r="D1916" t="str">
         <v/>
@@ -38722,7 +38722,7 @@
         <v>1</v>
       </c>
       <c r="F1916" t="str">
-        <v>ac833928e6537c1d3eacb7007788ff618ad06e85d5171f90617d50cd80b1bd7b</v>
+        <v>b33e8aefc7e343c33d6c96c3ef1fe7744191af75efa40361612ac0a3fb3cd877</v>
       </c>
     </row>
     <row r="1917">
@@ -38793,7 +38793,7 @@
         <v>fest_032_003_dialog_japanese.dialog</v>
       </c>
       <c r="C1920">
-        <v>39386</v>
+        <v>39412</v>
       </c>
       <c r="D1920" t="str">
         <v/>
@@ -38802,7 +38802,7 @@
         <v>1</v>
       </c>
       <c r="F1920" t="str">
-        <v>6dfc40d391ab9f7b54d95a33a3bc738d11d0485f4287a5fbede0ee3ca6ee91e9</v>
+        <v>529980a925e3be6a41bb49f08f80caec8845c4a85be01c763e8125fd4e4783d5</v>
       </c>
     </row>
     <row r="1921">
@@ -38813,7 +38813,7 @@
         <v>fest_032_003_dialog_korean.dialog</v>
       </c>
       <c r="C1921">
-        <v>35289</v>
+        <v>35293</v>
       </c>
       <c r="D1921" t="str">
         <v/>
@@ -38822,7 +38822,7 @@
         <v>1</v>
       </c>
       <c r="F1921" t="str">
-        <v>52139522d13265fb5d0d0b92e6134c24bec6d2f3e1cfdc11cb1c0b6f4d22c6d8</v>
+        <v>08f388fb8e209ee73cd580d84dbd6bfab44987fcf5d1cc2388f89ca51b85437b</v>
       </c>
     </row>
     <row r="1922">
@@ -38902,7 +38902,7 @@
         <v>1</v>
       </c>
       <c r="F1925" t="str">
-        <v>487ae30eb36c6d197d516b31ddc8ea305015f21cef63eeb1ce4249797684e9fd</v>
+        <v>cc7c466cf7d45b4698746a06e5e6565fa4f8741c1d9f4584420d04d221b85773</v>
       </c>
     </row>
     <row r="1926">
@@ -38913,7 +38913,7 @@
         <v>fest_032_004_dialog_korean.dialog</v>
       </c>
       <c r="C1926">
-        <v>36108</v>
+        <v>36110</v>
       </c>
       <c r="D1926" t="str">
         <v/>
@@ -38922,7 +38922,7 @@
         <v>1</v>
       </c>
       <c r="F1926" t="str">
-        <v>34b6bb31a12ae2f218deaf1fdc9f40b0af53260a02b3851409d2885cae07efac</v>
+        <v>16306bf1ea18dc9bf4a0c1a379626f7be908ccac1a80ffa5bb7ed7e9281cea8a</v>
       </c>
     </row>
     <row r="1927">
@@ -38973,7 +38973,7 @@
         <v>fest_032_005_dialog_english.dialog</v>
       </c>
       <c r="C1929">
-        <v>44843</v>
+        <v>44903</v>
       </c>
       <c r="D1929" t="str">
         <v/>
@@ -38982,7 +38982,7 @@
         <v>1</v>
       </c>
       <c r="F1929" t="str">
-        <v>7841105d4fc7793050ea3220d6e0c7ee68a4892c2e0df983ecc24620fc9a3004</v>
+        <v>64e194c08c9b9da99234150bc36f9cb1e7ca17e3d14b0197a52fab181b7d7dbc</v>
       </c>
     </row>
     <row r="1930">
@@ -39013,7 +39013,7 @@
         <v>fest_032_005_dialog_korean.dialog</v>
       </c>
       <c r="C1931">
-        <v>61655</v>
+        <v>61644</v>
       </c>
       <c r="D1931" t="str">
         <v/>
@@ -39022,7 +39022,7 @@
         <v>1</v>
       </c>
       <c r="F1931" t="str">
-        <v>3382f5a9e64d88d002698871fdf674130c7918049e0338c1ab8c8351310c810a</v>
+        <v>648797ee8aace8f6f043bc442763e75401a3e8659c03a6e9f302581c04db4541</v>
       </c>
     </row>
     <row r="1932">
@@ -39073,7 +39073,7 @@
         <v>fest_032_006_dialog_english.dialog</v>
       </c>
       <c r="C1934">
-        <v>52875</v>
+        <v>52909</v>
       </c>
       <c r="D1934" t="str">
         <v/>
@@ -39082,7 +39082,7 @@
         <v>1</v>
       </c>
       <c r="F1934" t="str">
-        <v>ffce6d1d535f1703d1af762c256149016055f9335eec5750380227a25c45c5bc</v>
+        <v>df6cf5f433509c99f7195cb69cb63a5c1e84a17acde18ef650131d98f279969f</v>
       </c>
     </row>
     <row r="1935">
@@ -39113,7 +39113,7 @@
         <v>fest_032_006_dialog_korean.dialog</v>
       </c>
       <c r="C1936">
-        <v>71546</v>
+        <v>71602</v>
       </c>
       <c r="D1936" t="str">
         <v/>
@@ -39122,7 +39122,7 @@
         <v>1</v>
       </c>
       <c r="F1936" t="str">
-        <v>c5b2983e8166c847ac5b477adca4b1e758840e662d181f4733bdfe5c395fbfb2</v>
+        <v>1188c8c546791a4b446d4a787b62ec3d53c44b9310392c6c81c4ea8aca322e32</v>
       </c>
     </row>
     <row r="1937">
@@ -42527,13 +42527,13 @@
     </row>
     <row r="2107">
       <c r="A2107" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2107" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2107">
-        <v>13926</v>
+        <v>55371</v>
       </c>
       <c r="D2107" t="str">
         <v/>
@@ -42542,18 +42542,18 @@
         <v>1</v>
       </c>
       <c r="F2107" t="str">
-        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
+        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2108" t="str">
-        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2108">
-        <v>13960</v>
+        <v>55491</v>
       </c>
       <c r="D2108" t="str">
         <v/>
@@ -42562,18 +42562,18 @@
         <v>1</v>
       </c>
       <c r="F2108" t="str">
-        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
+        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="B2109" t="str">
-        <v>fest_ch_newyear_001_dialog_english.dialog</v>
+        <v>fest_christmas2_001_dialog_english.dialog</v>
       </c>
       <c r="C2109">
-        <v>11270</v>
+        <v>44705</v>
       </c>
       <c r="D2109" t="str">
         <v/>
@@ -42582,18 +42582,18 @@
         <v>1</v>
       </c>
       <c r="F2109" t="str">
-        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
+        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
       </c>
     </row>
     <row r="2110">
       <c r="A2110" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2110" t="str">
-        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
+        <v>fest_christmas2_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2110">
-        <v>15639</v>
+        <v>61071</v>
       </c>
       <c r="D2110" t="str">
         <v/>
@@ -42602,18 +42602,18 @@
         <v>1</v>
       </c>
       <c r="F2110" t="str">
-        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
+        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="B2111" t="str">
-        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
+        <v>fest_christmas2_001_dialog_korean.dialog</v>
       </c>
       <c r="C2111">
-        <v>14837</v>
+        <v>55999</v>
       </c>
       <c r="D2111" t="str">
         <v/>
@@ -42622,18 +42622,18 @@
         <v>1</v>
       </c>
       <c r="F2111" t="str">
-        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
+        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2112" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2112">
-        <v>2082</v>
+        <v>40894</v>
       </c>
       <c r="D2112" t="str">
         <v/>
@@ -42642,18 +42642,18 @@
         <v>1</v>
       </c>
       <c r="F2112" t="str">
-        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
+        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2113" t="str">
-        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2113">
-        <v>2088</v>
+        <v>40930</v>
       </c>
       <c r="D2113" t="str">
         <v/>
@@ -42662,18 +42662,18 @@
         <v>1</v>
       </c>
       <c r="F2113" t="str">
-        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
+        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="B2114" t="str">
-        <v>fest_ch_newyear_002_dialog_english.dialog</v>
+        <v>fest_christmas2_007_dialog_english.dialog</v>
       </c>
       <c r="C2114">
-        <v>1869</v>
+        <v>32515</v>
       </c>
       <c r="D2114" t="str">
         <v/>
@@ -42682,18 +42682,18 @@
         <v>1</v>
       </c>
       <c r="F2114" t="str">
-        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
+        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2115" t="str">
-        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
+        <v>fest_christmas2_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2115">
-        <v>2132</v>
+        <v>44418</v>
       </c>
       <c r="D2115" t="str">
         <v/>
@@ -42702,18 +42702,18 @@
         <v>1</v>
       </c>
       <c r="F2115" t="str">
-        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
+        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="B2116" t="str">
-        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
+        <v>fest_christmas2_007_dialog_korean.dialog</v>
       </c>
       <c r="C2116">
-        <v>2275</v>
+        <v>41223</v>
       </c>
       <c r="D2116" t="str">
         <v/>
@@ -42722,18 +42722,18 @@
         <v>1</v>
       </c>
       <c r="F2116" t="str">
-        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
+        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2117" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2117">
-        <v>1712</v>
+        <v>32341</v>
       </c>
       <c r="D2117" t="str">
         <v/>
@@ -42742,18 +42742,18 @@
         <v>1</v>
       </c>
       <c r="F2117" t="str">
-        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
+        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2118" t="str">
-        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2118">
-        <v>1716</v>
+        <v>32413</v>
       </c>
       <c r="D2118" t="str">
         <v/>
@@ -42762,18 +42762,18 @@
         <v>1</v>
       </c>
       <c r="F2118" t="str">
-        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
+        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="B2119" t="str">
-        <v>fest_ch_newyear_003_dialog_english.dialog</v>
+        <v>fest_christmas_001_dialog_english.dialog</v>
       </c>
       <c r="C2119">
-        <v>1492</v>
+        <v>26762</v>
       </c>
       <c r="D2119" t="str">
         <v/>
@@ -42782,18 +42782,18 @@
         <v>1</v>
       </c>
       <c r="F2119" t="str">
-        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
+        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2120" t="str">
-        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
+        <v>fest_christmas_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2120">
-        <v>1967</v>
+        <v>35917</v>
       </c>
       <c r="D2120" t="str">
         <v/>
@@ -42802,18 +42802,18 @@
         <v>1</v>
       </c>
       <c r="F2120" t="str">
-        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
+        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="B2121" t="str">
-        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
+        <v>fest_christmas_001_dialog_korean.dialog</v>
       </c>
       <c r="C2121">
-        <v>1889</v>
+        <v>34664</v>
       </c>
       <c r="D2121" t="str">
         <v/>
@@ -42822,18 +42822,18 @@
         <v>1</v>
       </c>
       <c r="F2121" t="str">
-        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
+        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2122" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2122">
-        <v>10589</v>
+        <v>16711</v>
       </c>
       <c r="D2122" t="str">
         <v/>
@@ -42842,18 +42842,18 @@
         <v>1</v>
       </c>
       <c r="F2122" t="str">
-        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
+        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2123" t="str">
-        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2123">
-        <v>10615</v>
+        <v>16719</v>
       </c>
       <c r="D2123" t="str">
         <v/>
@@ -42862,18 +42862,18 @@
         <v>1</v>
       </c>
       <c r="F2123" t="str">
-        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
+        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="B2124" t="str">
-        <v>fest_ch_newyear_004_dialog_english.dialog</v>
+        <v>fest_christmas_002_dialog_english.dialog</v>
       </c>
       <c r="C2124">
-        <v>8739</v>
+        <v>13871</v>
       </c>
       <c r="D2124" t="str">
         <v/>
@@ -42882,18 +42882,18 @@
         <v>1</v>
       </c>
       <c r="F2124" t="str">
-        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
+        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2125" t="str">
-        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2125">
-        <v>12403</v>
+        <v>18762</v>
       </c>
       <c r="D2125" t="str">
         <v/>
@@ -42902,18 +42902,18 @@
         <v>1</v>
       </c>
       <c r="F2125" t="str">
-        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
+        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="B2126" t="str">
-        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
+        <v>fest_christmas_002_dialog_korean.dialog</v>
       </c>
       <c r="C2126">
-        <v>11610</v>
+        <v>17545</v>
       </c>
       <c r="D2126" t="str">
         <v/>
@@ -42922,18 +42922,18 @@
         <v>1</v>
       </c>
       <c r="F2126" t="str">
-        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
+        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2127" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2127">
-        <v>1387</v>
+        <v>20884</v>
       </c>
       <c r="D2127" t="str">
         <v/>
@@ -42942,18 +42942,18 @@
         <v>1</v>
       </c>
       <c r="F2127" t="str">
-        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
+        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2128" t="str">
-        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2128">
-        <v>1391</v>
+        <v>20932</v>
       </c>
       <c r="D2128" t="str">
         <v/>
@@ -42962,18 +42962,18 @@
         <v>1</v>
       </c>
       <c r="F2128" t="str">
-        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
+        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="B2129" t="str">
-        <v>fest_ch_newyear_005_dialog_english.dialog</v>
+        <v>fest_christmas_003_dialog_english.dialog</v>
       </c>
       <c r="C2129">
-        <v>1242</v>
+        <v>17341</v>
       </c>
       <c r="D2129" t="str">
         <v/>
@@ -42982,18 +42982,18 @@
         <v>1</v>
       </c>
       <c r="F2129" t="str">
-        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
+        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2130" t="str">
-        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
+        <v>fest_christmas_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2130">
-        <v>1442</v>
+        <v>22967</v>
       </c>
       <c r="D2130" t="str">
         <v/>
@@ -43002,18 +43002,18 @@
         <v>1</v>
       </c>
       <c r="F2130" t="str">
-        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
+        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="B2131" t="str">
-        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
+        <v>fest_christmas_003_dialog_korean.dialog</v>
       </c>
       <c r="C2131">
-        <v>1422</v>
+        <v>21418</v>
       </c>
       <c r="D2131" t="str">
         <v/>
@@ -43022,18 +43022,18 @@
         <v>1</v>
       </c>
       <c r="F2131" t="str">
-        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
+        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2132" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2132">
-        <v>13203</v>
+        <v>21743</v>
       </c>
       <c r="D2132" t="str">
         <v/>
@@ -43042,18 +43042,18 @@
         <v>1</v>
       </c>
       <c r="F2132" t="str">
-        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
+        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2133" t="str">
-        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2133">
-        <v>13235</v>
+        <v>21781</v>
       </c>
       <c r="D2133" t="str">
         <v/>
@@ -43062,18 +43062,18 @@
         <v>1</v>
       </c>
       <c r="F2133" t="str">
-        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
+        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="B2134" t="str">
-        <v>fest_ch_newyear_007_dialog_english.dialog</v>
+        <v>fest_christmas_004_dialog_english.dialog</v>
       </c>
       <c r="C2134">
-        <v>11261</v>
+        <v>17808</v>
       </c>
       <c r="D2134" t="str">
         <v/>
@@ -43082,18 +43082,18 @@
         <v>1</v>
       </c>
       <c r="F2134" t="str">
-        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
+        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2135" t="str">
-        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
+        <v>fest_christmas_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2135">
-        <v>14912</v>
+        <v>23740</v>
       </c>
       <c r="D2135" t="str">
         <v/>
@@ -43102,18 +43102,18 @@
         <v>1</v>
       </c>
       <c r="F2135" t="str">
-        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
+        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="B2136" t="str">
-        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
+        <v>fest_christmas_004_dialog_korean.dialog</v>
       </c>
       <c r="C2136">
-        <v>13720</v>
+        <v>21787</v>
       </c>
       <c r="D2136" t="str">
         <v/>
@@ -43122,18 +43122,18 @@
         <v>1</v>
       </c>
       <c r="F2136" t="str">
-        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
+        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2137" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2137">
-        <v>16889</v>
+        <v>18079</v>
       </c>
       <c r="D2137" t="str">
         <v/>
@@ -43142,18 +43142,18 @@
         <v>1</v>
       </c>
       <c r="F2137" t="str">
-        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
+        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2138" t="str">
-        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2138">
-        <v>16941</v>
+        <v>18113</v>
       </c>
       <c r="D2138" t="str">
         <v/>
@@ -43162,18 +43162,18 @@
         <v>1</v>
       </c>
       <c r="F2138" t="str">
-        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
+        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="B2139" t="str">
-        <v>fest_ch_newyear_008_dialog_english.dialog</v>
+        <v>fest_christmas_005_dialog_english.dialog</v>
       </c>
       <c r="C2139">
-        <v>14367</v>
+        <v>15406</v>
       </c>
       <c r="D2139" t="str">
         <v/>
@@ -43182,18 +43182,18 @@
         <v>1</v>
       </c>
       <c r="F2139" t="str">
-        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
+        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2140" t="str">
-        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
+        <v>fest_christmas_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2140">
-        <v>18776</v>
+        <v>19384</v>
       </c>
       <c r="D2140" t="str">
         <v/>
@@ -43202,18 +43202,18 @@
         <v>1</v>
       </c>
       <c r="F2140" t="str">
-        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
+        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="B2141" t="str">
-        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
+        <v>fest_christmas_005_dialog_korean.dialog</v>
       </c>
       <c r="C2141">
-        <v>17584</v>
+        <v>19170</v>
       </c>
       <c r="D2141" t="str">
         <v/>
@@ -43222,18 +43222,18 @@
         <v>1</v>
       </c>
       <c r="F2141" t="str">
-        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
+        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2142" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2142">
-        <v>1475</v>
+        <v>23106</v>
       </c>
       <c r="D2142" t="str">
         <v/>
@@ -43242,18 +43242,18 @@
         <v>1</v>
       </c>
       <c r="F2142" t="str">
-        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
+        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2143" t="str">
-        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2143">
-        <v>1180</v>
+        <v>23164</v>
       </c>
       <c r="D2143" t="str">
         <v/>
@@ -43262,18 +43262,18 @@
         <v>1</v>
       </c>
       <c r="F2143" t="str">
-        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
+        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="B2144" t="str">
-        <v>fest_ch_valentine_004_dialog_english.dialog</v>
+        <v>fest_christmas_006_dialog_english.dialog</v>
       </c>
       <c r="C2144">
-        <v>1074</v>
+        <v>19731</v>
       </c>
       <c r="D2144" t="str">
         <v/>
@@ -43282,18 +43282,18 @@
         <v>1</v>
       </c>
       <c r="F2144" t="str">
-        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
+        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2145" t="str">
-        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
+        <v>fest_christmas_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2145">
-        <v>1381</v>
+        <v>25275</v>
       </c>
       <c r="D2145" t="str">
         <v/>
@@ -43302,18 +43302,18 @@
         <v>1</v>
       </c>
       <c r="F2145" t="str">
-        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
+        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="B2146" t="str">
-        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
+        <v>fest_christmas_006_dialog_korean.dialog</v>
       </c>
       <c r="C2146">
-        <v>1183</v>
+        <v>24704</v>
       </c>
       <c r="D2146" t="str">
         <v/>
@@ -43322,18 +43322,18 @@
         <v>1</v>
       </c>
       <c r="F2146" t="str">
-        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
+        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2147" t="str">
-        <v>fest_christmas2_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2147">
-        <v>55371</v>
+        <v>46222</v>
       </c>
       <c r="D2147" t="str">
         <v/>
@@ -43342,18 +43342,18 @@
         <v>1</v>
       </c>
       <c r="F2147" t="str">
-        <v>198056acedc7c880ca7e7aa48915b9f20b919c1033aa9426e07ad182cc97fc25</v>
+        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2148" t="str">
-        <v>fest_christmas2_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2148">
-        <v>55491</v>
+        <v>46344</v>
       </c>
       <c r="D2148" t="str">
         <v/>
@@ -43362,18 +43362,18 @@
         <v>1</v>
       </c>
       <c r="F2148" t="str">
-        <v>8b486beab8b57c0a7f6c238d9bdea1729c08496f0ebe9685038e340d2c912217</v>
+        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="B2149" t="str">
-        <v>fest_christmas2_001_dialog_english.dialog</v>
+        <v>fest_christmas_007_dialog_english.dialog</v>
       </c>
       <c r="C2149">
-        <v>44705</v>
+        <v>38529</v>
       </c>
       <c r="D2149" t="str">
         <v/>
@@ -43382,18 +43382,18 @@
         <v>1</v>
       </c>
       <c r="F2149" t="str">
-        <v>f7a0cf21857603160b895ade7529db10e67b3d4ae5414e218b33f09c4154dd52</v>
+        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2150" t="str">
-        <v>fest_christmas2_001_dialog_japanese.dialog</v>
+        <v>fest_christmas_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2150">
-        <v>61071</v>
+        <v>50501</v>
       </c>
       <c r="D2150" t="str">
         <v/>
@@ -43402,18 +43402,18 @@
         <v>1</v>
       </c>
       <c r="F2150" t="str">
-        <v>2d2c1f51af0e689c0ab317274453f1c9766a57463b312f5ce297a6b88d4cf438</v>
+        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="B2151" t="str">
-        <v>fest_christmas2_001_dialog_korean.dialog</v>
+        <v>fest_christmas_007_dialog_korean.dialog</v>
       </c>
       <c r="C2151">
-        <v>55999</v>
+        <v>48804</v>
       </c>
       <c r="D2151" t="str">
         <v/>
@@ -43422,18 +43422,18 @@
         <v>1</v>
       </c>
       <c r="F2151" t="str">
-        <v>388ded0ab7653da8cd16e57dec587ebdb289206b4ac3fcc7f1d2f277e1330065</v>
+        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2152" t="str">
-        <v>fest_christmas2_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2152">
-        <v>40894</v>
+        <v>13926</v>
       </c>
       <c r="D2152" t="str">
         <v/>
@@ -43442,18 +43442,18 @@
         <v>1</v>
       </c>
       <c r="F2152" t="str">
-        <v>dcc1c3d3a9c41d5c812c5b891387ee13c41dd29ba2f56ac8b7c0f8d788371143</v>
+        <v>8c7e9d713843b9b78a5892504ad692ab0e5337f08626ce4f3c8777bf3469cf94</v>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2153" t="str">
-        <v>fest_christmas2_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2153">
-        <v>40930</v>
+        <v>13960</v>
       </c>
       <c r="D2153" t="str">
         <v/>
@@ -43462,18 +43462,18 @@
         <v>1</v>
       </c>
       <c r="F2153" t="str">
-        <v>922a2889d669be892d4feecb0ef62c1010173a4a8c7c90da7424e82ec132e4b9</v>
+        <v>b9dd54d88ccc992353b04523d8e280c204b18ff62b54a7bfd2986a5526af178e</v>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="B2154" t="str">
-        <v>fest_christmas2_007_dialog_english.dialog</v>
+        <v>fest_ch_newyear_001_dialog_english.dialog</v>
       </c>
       <c r="C2154">
-        <v>32515</v>
+        <v>11270</v>
       </c>
       <c r="D2154" t="str">
         <v/>
@@ -43482,18 +43482,18 @@
         <v>1</v>
       </c>
       <c r="F2154" t="str">
-        <v>4cc2c6b5f04a954d5fafc126803803fa062b58f865252ae06868b1c49b43bd97</v>
+        <v>ca3523b129821ec87af8d9f5267ebd349d465d90e19346d24da9845a28c8e1bd</v>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2155" t="str">
-        <v>fest_christmas2_007_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2155">
-        <v>44418</v>
+        <v>15639</v>
       </c>
       <c r="D2155" t="str">
         <v/>
@@ -43502,18 +43502,18 @@
         <v>1</v>
       </c>
       <c r="F2155" t="str">
-        <v>7ab27f26b773818cab63726ff1805aeeb6898d24cc9957fe93c6bd06a29b48bd</v>
+        <v>3d27bc35081d056d93af40bc5f9cb4a3fb2da26fdd415bf977b0e055f8c25663</v>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="B2156" t="str">
-        <v>fest_christmas2_007_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_001_dialog_korean.dialog</v>
       </c>
       <c r="C2156">
-        <v>41223</v>
+        <v>14837</v>
       </c>
       <c r="D2156" t="str">
         <v/>
@@ -43522,18 +43522,18 @@
         <v>1</v>
       </c>
       <c r="F2156" t="str">
-        <v>13f5be31ce3846d615ff73d199afdb51eb16dc29ce22329758d47e5474b393e6</v>
+        <v>8a4f4a3d29c050961bbf4bfaeabccaf646ac5b98541a9f886bc48650ce1a4969</v>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2157" t="str">
-        <v>fest_christmas_001_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2157">
-        <v>32341</v>
+        <v>2082</v>
       </c>
       <c r="D2157" t="str">
         <v/>
@@ -43542,18 +43542,18 @@
         <v>1</v>
       </c>
       <c r="F2157" t="str">
-        <v>3b21a535fc26e201fe9e109a0372bf68b3874d1e4d0a363a407ce0277fc55aa0</v>
+        <v>5673ed4a1a65e3b4c485c0b9bc273f2bb427f34b4df341bbf122dca5cc0e7071</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2158" t="str">
-        <v>fest_christmas_001_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2158">
-        <v>32413</v>
+        <v>2088</v>
       </c>
       <c r="D2158" t="str">
         <v/>
@@ -43562,18 +43562,18 @@
         <v>1</v>
       </c>
       <c r="F2158" t="str">
-        <v>6843d81d6d2a69dd6110011b3e80da14a4aa287465779f060f1a18c3dfda1150</v>
+        <v>10cb8ccec0b0f44ead56da15c7df96f549ba8e53900a01aa205bd587469c9f70</v>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="B2159" t="str">
-        <v>fest_christmas_001_dialog_english.dialog</v>
+        <v>fest_ch_newyear_002_dialog_english.dialog</v>
       </c>
       <c r="C2159">
-        <v>26762</v>
+        <v>1869</v>
       </c>
       <c r="D2159" t="str">
         <v/>
@@ -43582,18 +43582,18 @@
         <v>1</v>
       </c>
       <c r="F2159" t="str">
-        <v>fa36018c894933e2d2ee365181bc64f22878c254bb71876efd6cf14c72182acf</v>
+        <v>b3aab3009539f76a09a632cb2ea545ec40841472d8f7387ce92a7be0dcec2e10</v>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2160" t="str">
-        <v>fest_christmas_001_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2160">
-        <v>35917</v>
+        <v>2132</v>
       </c>
       <c r="D2160" t="str">
         <v/>
@@ -43602,18 +43602,18 @@
         <v>1</v>
       </c>
       <c r="F2160" t="str">
-        <v>c0d203ed841e9da926fa91ee59f64589d15b8bd4ed01012486d0a88f77bd015b</v>
+        <v>a3196cd33de298e462daf827fee13673f03366d4400775e0effd65d42a9a3be4</v>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="B2161" t="str">
-        <v>fest_christmas_001_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_002_dialog_korean.dialog</v>
       </c>
       <c r="C2161">
-        <v>34664</v>
+        <v>2275</v>
       </c>
       <c r="D2161" t="str">
         <v/>
@@ -43622,18 +43622,18 @@
         <v>1</v>
       </c>
       <c r="F2161" t="str">
-        <v>01988f1a4e83d1c036288aa59b79c0da8d815fe9d33c77210ec6befcbc746515</v>
+        <v>02a1abed01890258880b6e9f80ba50bd1c2e9111586844986db1bd594407b874</v>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2162" t="str">
-        <v>fest_christmas_002_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2162">
-        <v>16711</v>
+        <v>1712</v>
       </c>
       <c r="D2162" t="str">
         <v/>
@@ -43642,18 +43642,18 @@
         <v>1</v>
       </c>
       <c r="F2162" t="str">
-        <v>3d395d8f05f68b08e867ae7cf0f5b1fc9ce05765abacf7791b9e6a8e0ed7097b</v>
+        <v>916c5f778759f85cc033bcc4fa75b1515a2cd17c96cb5bd2140c3d7c17717049</v>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2163" t="str">
-        <v>fest_christmas_002_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2163">
-        <v>16719</v>
+        <v>1716</v>
       </c>
       <c r="D2163" t="str">
         <v/>
@@ -43662,18 +43662,18 @@
         <v>1</v>
       </c>
       <c r="F2163" t="str">
-        <v>1c25cbac03d0eea47cb0fce78bd6a1db7b916c0cfe663eb00a987f852b6da96c</v>
+        <v>b006182b2ac68d43e918a04e4ca943bf8755e8acc819cd56e02635c363ea4bcb</v>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="B2164" t="str">
-        <v>fest_christmas_002_dialog_english.dialog</v>
+        <v>fest_ch_newyear_003_dialog_english.dialog</v>
       </c>
       <c r="C2164">
-        <v>13871</v>
+        <v>1492</v>
       </c>
       <c r="D2164" t="str">
         <v/>
@@ -43682,18 +43682,18 @@
         <v>1</v>
       </c>
       <c r="F2164" t="str">
-        <v>5e24ce0416c242327dd1b5b0bea8905d2205a69bad45e2cc5d1fac3365180bab</v>
+        <v>137b4079e4bc04234f122e7f175836439a26447404bf1276f8ed10edbc037341</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2165" t="str">
-        <v>fest_christmas_002_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2165">
-        <v>18762</v>
+        <v>1967</v>
       </c>
       <c r="D2165" t="str">
         <v/>
@@ -43702,18 +43702,18 @@
         <v>1</v>
       </c>
       <c r="F2165" t="str">
-        <v>be800b8f9772e294ff6caf57e6cf135d4b1964db8c4b40e606fdae63719f9de0</v>
+        <v>2d4dafc2a4ed6ed2feeaf188220cc8f0de8ae45480a2c8d1495d8598809f8b2c</v>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="B2166" t="str">
-        <v>fest_christmas_002_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_003_dialog_korean.dialog</v>
       </c>
       <c r="C2166">
-        <v>17545</v>
+        <v>1889</v>
       </c>
       <c r="D2166" t="str">
         <v/>
@@ -43722,18 +43722,18 @@
         <v>1</v>
       </c>
       <c r="F2166" t="str">
-        <v>bdabf1b8fc71b20c4edaf92f381608ecd19ad9929b65702d26307122fa9c3d4c</v>
+        <v>80b1e4b40e807eeb33fb488c233a783797da6c678969a92880defc5a6b710ece</v>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2167" t="str">
-        <v>fest_christmas_003_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2167">
-        <v>20884</v>
+        <v>10589</v>
       </c>
       <c r="D2167" t="str">
         <v/>
@@ -43742,18 +43742,18 @@
         <v>1</v>
       </c>
       <c r="F2167" t="str">
-        <v>bf5fbf37f07e82ab3dc59c4a4a231276e229a18a08fe489049a3d92c4897e5a6</v>
+        <v>c24f00181e123d78c93c13d7959ed011ffd7713374abd4c570597970100f5956</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2168" t="str">
-        <v>fest_christmas_003_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2168">
-        <v>20932</v>
+        <v>10615</v>
       </c>
       <c r="D2168" t="str">
         <v/>
@@ -43762,18 +43762,18 @@
         <v>1</v>
       </c>
       <c r="F2168" t="str">
-        <v>1cc7568812d16204277c5cc86d8133be4531aa42e626c863a515f9a30f5c720a</v>
+        <v>c9bbb6a5e4ebffaa8948508212fa0107c7783d42857babf5dfa8b557e086c1c3</v>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="B2169" t="str">
-        <v>fest_christmas_003_dialog_english.dialog</v>
+        <v>fest_ch_newyear_004_dialog_english.dialog</v>
       </c>
       <c r="C2169">
-        <v>17341</v>
+        <v>8739</v>
       </c>
       <c r="D2169" t="str">
         <v/>
@@ -43782,18 +43782,18 @@
         <v>1</v>
       </c>
       <c r="F2169" t="str">
-        <v>ccaad769680b2cd8a69b26d718292860ffb3cbfe91def993c645c9e045a55144</v>
+        <v>7525e44586934ecb3ccfc5aa1546246c30f52d7dbfd12b96f7492d5de6b7fd6a</v>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2170" t="str">
-        <v>fest_christmas_003_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2170">
-        <v>22967</v>
+        <v>12403</v>
       </c>
       <c r="D2170" t="str">
         <v/>
@@ -43802,18 +43802,18 @@
         <v>1</v>
       </c>
       <c r="F2170" t="str">
-        <v>83c210cbb0531d58144744c96eacde99928c6bcf7935eb5e30f3dd25d5ba4384</v>
+        <v>c0f487d93e1bd8e13494b6a38bae8e9beef6af70c5db02edbca6e076284154c7</v>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="B2171" t="str">
-        <v>fest_christmas_003_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_004_dialog_korean.dialog</v>
       </c>
       <c r="C2171">
-        <v>21418</v>
+        <v>11610</v>
       </c>
       <c r="D2171" t="str">
         <v/>
@@ -43822,18 +43822,18 @@
         <v>1</v>
       </c>
       <c r="F2171" t="str">
-        <v>60e6e1282e3ec72995c43b4e2ab0305d9a2ac502704f1b0e80593791e4986750</v>
+        <v>f167fe3d7a6ce788ab07a3fd66d2ec11889a296584536ee7e23d7a8b3c4fbda3</v>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2172" t="str">
-        <v>fest_christmas_004_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2172">
-        <v>21743</v>
+        <v>1387</v>
       </c>
       <c r="D2172" t="str">
         <v/>
@@ -43842,18 +43842,18 @@
         <v>1</v>
       </c>
       <c r="F2172" t="str">
-        <v>1e44ed4a4eac3024fbad5966afee788e1e50c2385610d4b536c7cb453c4edef6</v>
+        <v>de30dea9acc3c3687e029ec094c8a8209b93c33774e4e5392f2c0d50b55bc431</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2173" t="str">
-        <v>fest_christmas_004_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2173">
-        <v>21781</v>
+        <v>1391</v>
       </c>
       <c r="D2173" t="str">
         <v/>
@@ -43862,18 +43862,18 @@
         <v>1</v>
       </c>
       <c r="F2173" t="str">
-        <v>c510647be4162c8cd7a925887a223966a6f0dda3ff00d482e707770196f3fac6</v>
+        <v>87a2c126e812d5cef013f442324de053051cf8a8092d5d976eb854f15ccad14f</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="B2174" t="str">
-        <v>fest_christmas_004_dialog_english.dialog</v>
+        <v>fest_ch_newyear_005_dialog_english.dialog</v>
       </c>
       <c r="C2174">
-        <v>17808</v>
+        <v>1242</v>
       </c>
       <c r="D2174" t="str">
         <v/>
@@ -43882,18 +43882,18 @@
         <v>1</v>
       </c>
       <c r="F2174" t="str">
-        <v>ce455cf8a7d31d62725119220c07043bd7102d453ec3ea511fe5d6b6a2282bb9</v>
+        <v>84f21b4d815bd7e915ab04be061e80da4f972d0213430b7b0452965e8b3f5644</v>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2175" t="str">
-        <v>fest_christmas_004_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2175">
-        <v>23740</v>
+        <v>1442</v>
       </c>
       <c r="D2175" t="str">
         <v/>
@@ -43902,18 +43902,18 @@
         <v>1</v>
       </c>
       <c r="F2175" t="str">
-        <v>44c3fa572f50eaac5e5fc0edd16e12db9104126e4404af30ed456937cbeb0cde</v>
+        <v>021ab9e9a650104aa143a22d50e955e8a7b4aeeacc8d144bdeb498f555cc89f2</v>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="B2176" t="str">
-        <v>fest_christmas_004_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_005_dialog_korean.dialog</v>
       </c>
       <c r="C2176">
-        <v>21787</v>
+        <v>1422</v>
       </c>
       <c r="D2176" t="str">
         <v/>
@@ -43922,18 +43922,18 @@
         <v>1</v>
       </c>
       <c r="F2176" t="str">
-        <v>99c2741ee51a9437d1be8676db5cd5579a38eb0531df06ccaf40975761a6f57c</v>
+        <v>6b9740f2ee4443197a1fc97f7efd5e3dc9816329834c4d9912821027a06d07a3</v>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2177" t="str">
-        <v>fest_christmas_005_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2177">
-        <v>18079</v>
+        <v>13203</v>
       </c>
       <c r="D2177" t="str">
         <v/>
@@ -43942,18 +43942,18 @@
         <v>1</v>
       </c>
       <c r="F2177" t="str">
-        <v>b07ee23e46f0d9ea2749a8e9423193e1878c79ba6caa237649220630501a6b09</v>
+        <v>3abf4f7fef9d39d1a911a2fc29e6fe2d3660c85820287dcf277702b944cc4c4f</v>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2178" t="str">
-        <v>fest_christmas_005_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2178">
-        <v>18113</v>
+        <v>13235</v>
       </c>
       <c r="D2178" t="str">
         <v/>
@@ -43962,18 +43962,18 @@
         <v>1</v>
       </c>
       <c r="F2178" t="str">
-        <v>3f581b53654ecf76e2020987c6c23b7f5d05e531cbc0f7da356be4c8d0d5311f</v>
+        <v>13c4b950f890f9b7efc505b65237b76e7e9f93485446865d3ac975420bd98a8d</v>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="B2179" t="str">
-        <v>fest_christmas_005_dialog_english.dialog</v>
+        <v>fest_ch_newyear_007_dialog_english.dialog</v>
       </c>
       <c r="C2179">
-        <v>15406</v>
+        <v>11261</v>
       </c>
       <c r="D2179" t="str">
         <v/>
@@ -43982,18 +43982,18 @@
         <v>1</v>
       </c>
       <c r="F2179" t="str">
-        <v>13e5c314efe964295b5c00e1980703da02bbd9067c3d19c8ca082bb4b71dca6a</v>
+        <v>b8b6daa51e5291358f20d96d0e518386a1b6aa779ba6c975462a06f2da306d6d</v>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2180" t="str">
-        <v>fest_christmas_005_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2180">
-        <v>19384</v>
+        <v>14912</v>
       </c>
       <c r="D2180" t="str">
         <v/>
@@ -44002,18 +44002,18 @@
         <v>1</v>
       </c>
       <c r="F2180" t="str">
-        <v>7b2abc14b1c184a00cf99932afbf2610977e95905797c08b0d0928f7babe5010</v>
+        <v>f93d2a9f8d8ecdb07afc272ccf36953e9058af2137a51b1caf212473faabb17e</v>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="B2181" t="str">
-        <v>fest_christmas_005_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_007_dialog_korean.dialog</v>
       </c>
       <c r="C2181">
-        <v>19170</v>
+        <v>13720</v>
       </c>
       <c r="D2181" t="str">
         <v/>
@@ -44022,18 +44022,18 @@
         <v>1</v>
       </c>
       <c r="F2181" t="str">
-        <v>d512af1142868dcae337b74a8b8f512702d1a3f223456195ca8c6cb7314394a5</v>
+        <v>b1d1c2c34b430ee79c6a7b99766f690f0bc64e48b318292968ab9a9b4264f8db</v>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2182" t="str">
-        <v>fest_christmas_006_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2182">
-        <v>23106</v>
+        <v>16889</v>
       </c>
       <c r="D2182" t="str">
         <v/>
@@ -44042,18 +44042,18 @@
         <v>1</v>
       </c>
       <c r="F2182" t="str">
-        <v>01d1d42356ce6a1c9b9b5476ed9a354f31ef045f7523fd270c3537fd9f94aa6b</v>
+        <v>aa919e2b94ccf8fe0e148b43a278c17c36d222a15f42807c438e1495c814c7a9</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2183" t="str">
-        <v>fest_christmas_006_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_newyear_008_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2183">
-        <v>23164</v>
+        <v>16941</v>
       </c>
       <c r="D2183" t="str">
         <v/>
@@ -44062,18 +44062,18 @@
         <v>1</v>
       </c>
       <c r="F2183" t="str">
-        <v>c56472b81ce081048d510d72226cc62cd5f0e588690a2a7da572c21a9000f48d</v>
+        <v>885bf33dc3e010bc6a305e4fe57e307897f4e3e2cc0f2c4aa657564a8f3b8a15</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="B2184" t="str">
-        <v>fest_christmas_006_dialog_english.dialog</v>
+        <v>fest_ch_newyear_008_dialog_english.dialog</v>
       </c>
       <c r="C2184">
-        <v>19731</v>
+        <v>14367</v>
       </c>
       <c r="D2184" t="str">
         <v/>
@@ -44082,18 +44082,18 @@
         <v>1</v>
       </c>
       <c r="F2184" t="str">
-        <v>7fd2ac1793d763a3c3254b539d80cbd0300eb34b0b45e5f1d6910b80dd166899</v>
+        <v>fb98ee46d5d15a3f096564ca970a964069394af9934b50aeaa01426cf83cc247</v>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="B2185" t="str">
-        <v>fest_christmas_006_dialog_japanese.dialog</v>
+        <v>fest_ch_newyear_008_dialog_japanese.dialog</v>
       </c>
       <c r="C2185">
-        <v>25275</v>
+        <v>18776</v>
       </c>
       <c r="D2185" t="str">
         <v/>
@@ -44102,18 +44102,18 @@
         <v>1</v>
       </c>
       <c r="F2185" t="str">
-        <v>ef35c5bdfba5f0f1e93ae5b54ee9e088586fc2b0dfdccf9b5cb9744292d8a920</v>
+        <v>3d448ef52f274689990352660e77715fbf1421f050b548de1c6f22495c820308</v>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="B2186" t="str">
-        <v>fest_christmas_006_dialog_korean.dialog</v>
+        <v>fest_ch_newyear_008_dialog_korean.dialog</v>
       </c>
       <c r="C2186">
-        <v>24704</v>
+        <v>17584</v>
       </c>
       <c r="D2186" t="str">
         <v/>
@@ -44122,18 +44122,18 @@
         <v>1</v>
       </c>
       <c r="F2186" t="str">
-        <v>e9cb6992701230b2699c422610cb162e028b923bef34efa8789f685889fdf864</v>
+        <v>da8f2f162ebf3a1cebe4c400f9ab51da84f63195bacba88b6993b991f8a75219</v>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2187" t="str">
-        <v>fest_christmas_007_dialog_chinesesimplified.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2187">
-        <v>46222</v>
+        <v>1475</v>
       </c>
       <c r="D2187" t="str">
         <v/>
@@ -44142,18 +44142,18 @@
         <v>1</v>
       </c>
       <c r="F2187" t="str">
-        <v>da1754aef8d1cd91093e48547b020229890b3c41633459194863e4f6df5171de</v>
+        <v>707ba3cadcadb02b8db24c3d3f1b40431ca9dadfa2455fbff4c5ed17542fb22e</v>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2188" t="str">
-        <v>fest_christmas_007_dialog_chinesetraditional.dialog</v>
+        <v>fest_ch_valentine_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2188">
-        <v>46344</v>
+        <v>1180</v>
       </c>
       <c r="D2188" t="str">
         <v/>
@@ -44162,18 +44162,18 @@
         <v>1</v>
       </c>
       <c r="F2188" t="str">
-        <v>e20825361df81ffcc052fe566530d34e40f2b5bbb8fc224a054b834e390faa01</v>
+        <v>bb57ff1b5683e8234c888aaaf9b2c176ddb62a66cb4f06850251658df1441133</v>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="B2189" t="str">
-        <v>fest_christmas_007_dialog_english.dialog</v>
+        <v>fest_ch_valentine_004_dialog_english.dialog</v>
       </c>
       <c r="C2189">
-        <v>38529</v>
+        <v>1074</v>
       </c>
       <c r="D2189" t="str">
         <v/>
@@ -44182,18 +44182,18 @@
         <v>1</v>
       </c>
       <c r="F2189" t="str">
-        <v>2aa21b20e857dd008cfb4203eff29cea820213d2ab407f103067b55238428a03</v>
+        <v>0b5b9489fa6fe11ad3af481e247e1069d337624fc89356814e63d7ea94917b16</v>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2190" t="str">
-        <v>fest_christmas_007_dialog_japanese.dialog</v>
+        <v>fest_ch_valentine_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2190">
-        <v>50501</v>
+        <v>1381</v>
       </c>
       <c r="D2190" t="str">
         <v/>
@@ -44202,18 +44202,18 @@
         <v>1</v>
       </c>
       <c r="F2190" t="str">
-        <v>868d995cf259a47e19b321d8615f3c9f39937f80f217c09fd2ba3be25de9344c</v>
+        <v>9ea6fd2cc9e798111ca273399ab662b072dabbf4763db641dd5c57befd17261a</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="B2191" t="str">
-        <v>fest_christmas_007_dialog_korean.dialog</v>
+        <v>fest_ch_valentine_004_dialog_korean.dialog</v>
       </c>
       <c r="C2191">
-        <v>48804</v>
+        <v>1183</v>
       </c>
       <c r="D2191" t="str">
         <v/>
@@ -44222,7 +44222,7 @@
         <v>1</v>
       </c>
       <c r="F2191" t="str">
-        <v>3a7d539b9f5237e7fbfd9dbe868b69c61f2effd754401426bb5faff3c7be9c90</v>
+        <v>1b43b3cca6f10c119c265b8acfad95cc9948afb7a66c7abbea93d8c0fbc6f670</v>
       </c>
     </row>
     <row r="2192">
@@ -51427,13 +51427,13 @@
     </row>
     <row r="2552">
       <c r="A2552" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2552" t="str">
-        <v>main_005_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2552">
-        <v>47372</v>
+        <v>12055</v>
       </c>
       <c r="D2552" t="str">
         <v/>
@@ -51442,18 +51442,18 @@
         <v>1</v>
       </c>
       <c r="F2552" t="str">
-        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
+        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2553" t="str">
-        <v>main_005_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2553">
-        <v>47504</v>
+        <v>12091</v>
       </c>
       <c r="D2553" t="str">
         <v/>
@@ -51462,18 +51462,18 @@
         <v>1</v>
       </c>
       <c r="F2553" t="str">
-        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
+        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="B2554" t="str">
-        <v>main_005_001_dialog_english.dialog</v>
+        <v>main_005a_001_dialog_english.dialog</v>
       </c>
       <c r="C2554">
-        <v>38227</v>
+        <v>9948</v>
       </c>
       <c r="D2554" t="str">
         <v/>
@@ -51482,18 +51482,18 @@
         <v>1</v>
       </c>
       <c r="F2554" t="str">
-        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
+        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2555" t="str">
-        <v>main_005_001_dialog_japanese.dialog</v>
+        <v>main_005a_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2555">
-        <v>56677</v>
+        <v>13516</v>
       </c>
       <c r="D2555" t="str">
         <v/>
@@ -51502,18 +51502,18 @@
         <v>1</v>
       </c>
       <c r="F2555" t="str">
-        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
+        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="B2556" t="str">
-        <v>main_005_001_dialog_korean.dialog</v>
+        <v>main_005a_001_dialog_korean.dialog</v>
       </c>
       <c r="C2556">
-        <v>50805</v>
+        <v>12778</v>
       </c>
       <c r="D2556" t="str">
         <v/>
@@ -51522,18 +51522,18 @@
         <v>1</v>
       </c>
       <c r="F2556" t="str">
-        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
+        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2557" t="str">
-        <v>main_005_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2557">
-        <v>29694</v>
+        <v>32683</v>
       </c>
       <c r="D2557" t="str">
         <v/>
@@ -51542,18 +51542,18 @@
         <v>1</v>
       </c>
       <c r="F2557" t="str">
-        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
+        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2558" t="str">
-        <v>main_005_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2558">
-        <v>29774</v>
+        <v>32785</v>
       </c>
       <c r="D2558" t="str">
         <v/>
@@ -51562,18 +51562,18 @@
         <v>1</v>
       </c>
       <c r="F2558" t="str">
-        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
+        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="B2559" t="str">
-        <v>main_005_002_dialog_english.dialog</v>
+        <v>main_005a_002_dialog_english.dialog</v>
       </c>
       <c r="C2559">
-        <v>23226</v>
+        <v>26804</v>
       </c>
       <c r="D2559" t="str">
         <v/>
@@ -51582,18 +51582,18 @@
         <v>1</v>
       </c>
       <c r="F2559" t="str">
-        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
+        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2560" t="str">
-        <v>main_005_002_dialog_japanese.dialog</v>
+        <v>main_005a_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2560">
-        <v>34797</v>
+        <v>35335</v>
       </c>
       <c r="D2560" t="str">
         <v/>
@@ -51602,18 +51602,18 @@
         <v>1</v>
       </c>
       <c r="F2560" t="str">
-        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
+        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="B2561" t="str">
-        <v>main_005_002_dialog_korean.dialog</v>
+        <v>main_005a_002_dialog_korean.dialog</v>
       </c>
       <c r="C2561">
-        <v>32402</v>
+        <v>35400</v>
       </c>
       <c r="D2561" t="str">
         <v/>
@@ -51622,18 +51622,18 @@
         <v>1</v>
       </c>
       <c r="F2561" t="str">
-        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
+        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2562" t="str">
-        <v>main_005_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2562">
-        <v>13333</v>
+        <v>28261</v>
       </c>
       <c r="D2562" t="str">
         <v/>
@@ -51642,18 +51642,18 @@
         <v>1</v>
       </c>
       <c r="F2562" t="str">
-        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
+        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2563" t="str">
-        <v>main_005_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2563">
-        <v>13371</v>
+        <v>28341</v>
       </c>
       <c r="D2563" t="str">
         <v/>
@@ -51662,18 +51662,18 @@
         <v>1</v>
       </c>
       <c r="F2563" t="str">
-        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
+        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="B2564" t="str">
-        <v>main_005_003_dialog_english.dialog</v>
+        <v>main_005a_003_dialog_english.dialog</v>
       </c>
       <c r="C2564">
-        <v>10935</v>
+        <v>22289</v>
       </c>
       <c r="D2564" t="str">
         <v/>
@@ -51682,18 +51682,18 @@
         <v>1</v>
       </c>
       <c r="F2564" t="str">
-        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
+        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2565" t="str">
-        <v>main_005_003_dialog_japanese.dialog</v>
+        <v>main_005a_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2565">
-        <v>14825</v>
+        <v>31961</v>
       </c>
       <c r="D2565" t="str">
         <v/>
@@ -51702,18 +51702,18 @@
         <v>1</v>
       </c>
       <c r="F2565" t="str">
-        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
+        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="B2566" t="str">
-        <v>main_005_003_dialog_korean.dialog</v>
+        <v>main_005a_003_dialog_korean.dialog</v>
       </c>
       <c r="C2566">
-        <v>13609</v>
+        <v>30340</v>
       </c>
       <c r="D2566" t="str">
         <v/>
@@ -51722,18 +51722,18 @@
         <v>1</v>
       </c>
       <c r="F2566" t="str">
-        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
+        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2567" t="str">
-        <v>main_005_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2567">
-        <v>38115</v>
+        <v>22929</v>
       </c>
       <c r="D2567" t="str">
         <v/>
@@ -51742,18 +51742,18 @@
         <v>1</v>
       </c>
       <c r="F2567" t="str">
-        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
+        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2568" t="str">
-        <v>main_005_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2568">
-        <v>38207</v>
+        <v>22997</v>
       </c>
       <c r="D2568" t="str">
         <v/>
@@ -51762,18 +51762,18 @@
         <v>1</v>
       </c>
       <c r="F2568" t="str">
-        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
+        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="B2569" t="str">
-        <v>main_005_004_dialog_english.dialog</v>
+        <v>main_005a_004_dialog_english.dialog</v>
       </c>
       <c r="C2569">
-        <v>30119</v>
+        <v>18855</v>
       </c>
       <c r="D2569" t="str">
         <v/>
@@ -51782,18 +51782,18 @@
         <v>1</v>
       </c>
       <c r="F2569" t="str">
-        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
+        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2570" t="str">
-        <v>main_005_004_dialog_japanese.dialog</v>
+        <v>main_005a_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2570">
-        <v>45716</v>
+        <v>25986</v>
       </c>
       <c r="D2570" t="str">
         <v/>
@@ -51802,18 +51802,18 @@
         <v>1</v>
       </c>
       <c r="F2570" t="str">
-        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
+        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="B2571" t="str">
-        <v>main_005_004_dialog_korean.dialog</v>
+        <v>main_005a_004_dialog_korean.dialog</v>
       </c>
       <c r="C2571">
-        <v>42343</v>
+        <v>24638</v>
       </c>
       <c r="D2571" t="str">
         <v/>
@@ -51822,18 +51822,18 @@
         <v>1</v>
       </c>
       <c r="F2571" t="str">
-        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
+        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2572" t="str">
-        <v>main_005_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2572">
-        <v>22580</v>
+        <v>27591</v>
       </c>
       <c r="D2572" t="str">
         <v/>
@@ -51842,18 +51842,18 @@
         <v>1</v>
       </c>
       <c r="F2572" t="str">
-        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
+        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2573" t="str">
-        <v>main_005_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2573">
-        <v>22642</v>
+        <v>27669</v>
       </c>
       <c r="D2573" t="str">
         <v/>
@@ -51862,18 +51862,18 @@
         <v>1</v>
       </c>
       <c r="F2573" t="str">
-        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
+        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="B2574" t="str">
-        <v>main_005_005_dialog_english.dialog</v>
+        <v>main_005a_005_dialog_english.dialog</v>
       </c>
       <c r="C2574">
-        <v>18502</v>
+        <v>22217</v>
       </c>
       <c r="D2574" t="str">
         <v/>
@@ -51882,18 +51882,18 @@
         <v>1</v>
       </c>
       <c r="F2574" t="str">
-        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
+        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2575" t="str">
-        <v>main_005_005_dialog_japanese.dialog</v>
+        <v>main_005a_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2575">
-        <v>25738</v>
+        <v>30979</v>
       </c>
       <c r="D2575" t="str">
         <v/>
@@ -51902,18 +51902,18 @@
         <v>1</v>
       </c>
       <c r="F2575" t="str">
-        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
+        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="B2576" t="str">
-        <v>main_005_005_dialog_korean.dialog</v>
+        <v>main_005a_005_dialog_korean.dialog</v>
       </c>
       <c r="C2576">
-        <v>23812</v>
+        <v>30051</v>
       </c>
       <c r="D2576" t="str">
         <v/>
@@ -51922,18 +51922,18 @@
         <v>1</v>
       </c>
       <c r="F2576" t="str">
-        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
+        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2577" t="str">
-        <v>main_005_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2577">
-        <v>25038</v>
+        <v>28673</v>
       </c>
       <c r="D2577" t="str">
         <v/>
@@ -51942,18 +51942,18 @@
         <v>1</v>
       </c>
       <c r="F2577" t="str">
-        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
+        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2578" t="str">
-        <v>main_005_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2578">
-        <v>25106</v>
+        <v>28755</v>
       </c>
       <c r="D2578" t="str">
         <v/>
@@ -51962,18 +51962,18 @@
         <v>1</v>
       </c>
       <c r="F2578" t="str">
-        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
+        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="B2579" t="str">
-        <v>main_005_006_dialog_english.dialog</v>
+        <v>main_005b_001_dialog_english.dialog</v>
       </c>
       <c r="C2579">
-        <v>20304</v>
+        <v>24091</v>
       </c>
       <c r="D2579" t="str">
         <v/>
@@ -51982,18 +51982,18 @@
         <v>1</v>
       </c>
       <c r="F2579" t="str">
-        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
+        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2580" t="str">
-        <v>main_005_006_dialog_japanese.dialog</v>
+        <v>main_005b_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2580">
-        <v>31176</v>
+        <v>32509</v>
       </c>
       <c r="D2580" t="str">
         <v/>
@@ -52002,18 +52002,18 @@
         <v>1</v>
       </c>
       <c r="F2580" t="str">
-        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
+        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="B2581" t="str">
-        <v>main_005_006_dialog_korean.dialog</v>
+        <v>main_005b_001_dialog_korean.dialog</v>
       </c>
       <c r="C2581">
-        <v>28656</v>
+        <v>31007</v>
       </c>
       <c r="D2581" t="str">
         <v/>
@@ -52022,18 +52022,18 @@
         <v>1</v>
       </c>
       <c r="F2581" t="str">
-        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
+        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2582" t="str">
-        <v>main_005_007_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2582">
-        <v>19450</v>
+        <v>21788</v>
       </c>
       <c r="D2582" t="str">
         <v/>
@@ -52042,18 +52042,18 @@
         <v>1</v>
       </c>
       <c r="F2582" t="str">
-        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
+        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2583" t="str">
-        <v>main_005_007_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2583">
-        <v>19506</v>
+        <v>21848</v>
       </c>
       <c r="D2583" t="str">
         <v/>
@@ -52062,18 +52062,18 @@
         <v>1</v>
       </c>
       <c r="F2583" t="str">
-        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
+        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="B2584" t="str">
-        <v>main_005_007_dialog_english.dialog</v>
+        <v>main_005b_002_dialog_english.dialog</v>
       </c>
       <c r="C2584">
-        <v>15666</v>
+        <v>18324</v>
       </c>
       <c r="D2584" t="str">
         <v/>
@@ -52082,18 +52082,18 @@
         <v>1</v>
       </c>
       <c r="F2584" t="str">
-        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
+        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2585" t="str">
-        <v>main_005_007_dialog_japanese.dialog</v>
+        <v>main_005b_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2585">
-        <v>22550</v>
+        <v>25169</v>
       </c>
       <c r="D2585" t="str">
         <v/>
@@ -52102,18 +52102,18 @@
         <v>1</v>
       </c>
       <c r="F2585" t="str">
-        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
+        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="B2586" t="str">
-        <v>main_005_007_dialog_korean.dialog</v>
+        <v>main_005b_002_dialog_korean.dialog</v>
       </c>
       <c r="C2586">
-        <v>20969</v>
+        <v>22994</v>
       </c>
       <c r="D2586" t="str">
         <v/>
@@ -52122,18 +52122,18 @@
         <v>1</v>
       </c>
       <c r="F2586" t="str">
-        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
+        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2587" t="str">
-        <v>main_005a_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2587">
-        <v>12055</v>
+        <v>31366</v>
       </c>
       <c r="D2587" t="str">
         <v/>
@@ -52142,18 +52142,18 @@
         <v>1</v>
       </c>
       <c r="F2587" t="str">
-        <v>df302f802c4d2456cd1a9f90832dacd66fdcf3718d7c477b3b06fdcbb0ae3923</v>
+        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2588" t="str">
-        <v>main_005a_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2588">
-        <v>12091</v>
+        <v>31450</v>
       </c>
       <c r="D2588" t="str">
         <v/>
@@ -52162,18 +52162,18 @@
         <v>1</v>
       </c>
       <c r="F2588" t="str">
-        <v>7baeb804dab13f06559ad4e37b4dde247cbe95f27ca5eb87f00470f5b1ede046</v>
+        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="B2589" t="str">
-        <v>main_005a_001_dialog_english.dialog</v>
+        <v>main_005b_003_dialog_english.dialog</v>
       </c>
       <c r="C2589">
-        <v>9948</v>
+        <v>25325</v>
       </c>
       <c r="D2589" t="str">
         <v/>
@@ -52182,18 +52182,18 @@
         <v>1</v>
       </c>
       <c r="F2589" t="str">
-        <v>020ec734edc35370dfffb92b3c5d6a7aea5aa5bdf0ce60345ecddcac9e661882</v>
+        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2590" t="str">
-        <v>main_005a_001_dialog_japanese.dialog</v>
+        <v>main_005b_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2590">
-        <v>13516</v>
+        <v>36671</v>
       </c>
       <c r="D2590" t="str">
         <v/>
@@ -52202,18 +52202,18 @@
         <v>1</v>
       </c>
       <c r="F2590" t="str">
-        <v>ddf05301daa7c76795c616d0033c33e43b112459a8ca32cb2a13930018552f91</v>
+        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="B2591" t="str">
-        <v>main_005a_001_dialog_korean.dialog</v>
+        <v>main_005b_003_dialog_korean.dialog</v>
       </c>
       <c r="C2591">
-        <v>12778</v>
+        <v>34359</v>
       </c>
       <c r="D2591" t="str">
         <v/>
@@ -52222,18 +52222,18 @@
         <v>1</v>
       </c>
       <c r="F2591" t="str">
-        <v>b61e9ae16c69b4f96f5ea81fa5233fb085295240fab565eadc4960446041d44d</v>
+        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2592" t="str">
-        <v>main_005a_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2592">
-        <v>32683</v>
+        <v>30007</v>
       </c>
       <c r="D2592" t="str">
         <v/>
@@ -52242,18 +52242,18 @@
         <v>1</v>
       </c>
       <c r="F2592" t="str">
-        <v>60cccf19ac99604de024743e062bb459a6e7d55cf6df5c7931ec047903037bc3</v>
+        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2593" t="str">
-        <v>main_005a_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2593">
-        <v>32785</v>
+        <v>30087</v>
       </c>
       <c r="D2593" t="str">
         <v/>
@@ -52262,18 +52262,18 @@
         <v>1</v>
       </c>
       <c r="F2593" t="str">
-        <v>bc8822036a96cba2ecf296953d33854f63622d8078c3c5d4a75d2782e3b0e9cf</v>
+        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="B2594" t="str">
-        <v>main_005a_002_dialog_english.dialog</v>
+        <v>main_005b_004_dialog_english.dialog</v>
       </c>
       <c r="C2594">
-        <v>26804</v>
+        <v>24378</v>
       </c>
       <c r="D2594" t="str">
         <v/>
@@ -52282,18 +52282,18 @@
         <v>1</v>
       </c>
       <c r="F2594" t="str">
-        <v>4aa86bcf0b92f504add5bff28d948b3cb9b1ec665be50be4c492af8a985e2e77</v>
+        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2595" t="str">
-        <v>main_005a_002_dialog_japanese.dialog</v>
+        <v>main_005b_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2595">
-        <v>35335</v>
+        <v>35724</v>
       </c>
       <c r="D2595" t="str">
         <v/>
@@ -52302,18 +52302,18 @@
         <v>1</v>
       </c>
       <c r="F2595" t="str">
-        <v>b946b018ddcc0e03d722c23fb2207d696ddd23c93be29075a5a9da3af66736c2</v>
+        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="B2596" t="str">
-        <v>main_005a_002_dialog_korean.dialog</v>
+        <v>main_005b_004_dialog_korean.dialog</v>
       </c>
       <c r="C2596">
-        <v>35400</v>
+        <v>33241</v>
       </c>
       <c r="D2596" t="str">
         <v/>
@@ -52322,18 +52322,18 @@
         <v>1</v>
       </c>
       <c r="F2596" t="str">
-        <v>b1c9821654a9318b599f96a28cdb825508d29829e1e2ca6c771d52125891b6f2</v>
+        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2597" t="str">
-        <v>main_005a_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2597">
-        <v>28261</v>
+        <v>31730</v>
       </c>
       <c r="D2597" t="str">
         <v/>
@@ -52342,18 +52342,18 @@
         <v>1</v>
       </c>
       <c r="F2597" t="str">
-        <v>2cf86f0f29c4eded986c2a12f969e526629fea2fb36164d1e3c68759238b16fb</v>
+        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2598" t="str">
-        <v>main_005a_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2598">
-        <v>28341</v>
+        <v>31818</v>
       </c>
       <c r="D2598" t="str">
         <v/>
@@ -52362,18 +52362,18 @@
         <v>1</v>
       </c>
       <c r="F2598" t="str">
-        <v>856427de2c52af92d6a72a27a06634698067e40943790ae89d482c1e17ffd066</v>
+        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="B2599" t="str">
-        <v>main_005a_003_dialog_english.dialog</v>
+        <v>main_005b_005_dialog_english.dialog</v>
       </c>
       <c r="C2599">
-        <v>22289</v>
+        <v>25891</v>
       </c>
       <c r="D2599" t="str">
         <v/>
@@ -52382,18 +52382,18 @@
         <v>1</v>
       </c>
       <c r="F2599" t="str">
-        <v>e6c3158446a6bb2e1918225fe6acee5ee1ee2cf4296c16146708ea3a9b62499e</v>
+        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2600" t="str">
-        <v>main_005a_003_dialog_japanese.dialog</v>
+        <v>main_005b_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2600">
-        <v>31961</v>
+        <v>36973</v>
       </c>
       <c r="D2600" t="str">
         <v/>
@@ -52402,18 +52402,18 @@
         <v>1</v>
       </c>
       <c r="F2600" t="str">
-        <v>05761fa12f0d7b8dc22cb3a0f740372e8c2b416bdb8781ea940622bd4e9caf21</v>
+        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="B2601" t="str">
-        <v>main_005a_003_dialog_korean.dialog</v>
+        <v>main_005b_005_dialog_korean.dialog</v>
       </c>
       <c r="C2601">
-        <v>30340</v>
+        <v>35473</v>
       </c>
       <c r="D2601" t="str">
         <v/>
@@ -52422,18 +52422,18 @@
         <v>1</v>
       </c>
       <c r="F2601" t="str">
-        <v>3f4cbd0b20714eab79638e382a0d2999506ca50b9b8df779f30ea37389d5f6c2</v>
+        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2602" t="str">
-        <v>main_005a_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2602">
-        <v>22929</v>
+        <v>24351</v>
       </c>
       <c r="D2602" t="str">
         <v/>
@@ -52442,18 +52442,18 @@
         <v>1</v>
       </c>
       <c r="F2602" t="str">
-        <v>3bf003b1ac2fd49dc1a9aec300ca82a4e26fdebf83a6494904878407529b0c87</v>
+        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2603" t="str">
-        <v>main_005a_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2603">
-        <v>22997</v>
+        <v>24417</v>
       </c>
       <c r="D2603" t="str">
         <v/>
@@ -52462,18 +52462,18 @@
         <v>1</v>
       </c>
       <c r="F2603" t="str">
-        <v>9f369e1bad9d0888a2308afe5122cda28c9e3b32fec69fba13982be49c54bb8a</v>
+        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="B2604" t="str">
-        <v>main_005a_004_dialog_english.dialog</v>
+        <v>main_005b_006_dialog_english.dialog</v>
       </c>
       <c r="C2604">
-        <v>18855</v>
+        <v>19827</v>
       </c>
       <c r="D2604" t="str">
         <v/>
@@ -52482,18 +52482,18 @@
         <v>1</v>
       </c>
       <c r="F2604" t="str">
-        <v>f11d36984365da8d692b05c3a6f1d3bd4585d6ca18030366ebbaacee35664710</v>
+        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2605" t="str">
-        <v>main_005a_004_dialog_japanese.dialog</v>
+        <v>main_005b_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2605">
-        <v>25986</v>
+        <v>28858</v>
       </c>
       <c r="D2605" t="str">
         <v/>
@@ -52502,18 +52502,18 @@
         <v>1</v>
       </c>
       <c r="F2605" t="str">
-        <v>7d35737bfb96025fb91ec3833856dc793dc014db968a10ceb35e365acd4aa989</v>
+        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="B2606" t="str">
-        <v>main_005a_004_dialog_korean.dialog</v>
+        <v>main_005b_006_dialog_korean.dialog</v>
       </c>
       <c r="C2606">
-        <v>24638</v>
+        <v>27987</v>
       </c>
       <c r="D2606" t="str">
         <v/>
@@ -52522,18 +52522,18 @@
         <v>1</v>
       </c>
       <c r="F2606" t="str">
-        <v>6f38d9a3d820274ab76a2f5af369cb7f7f0c4c412bbe545aa4502c198d445ef3</v>
+        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2607" t="str">
-        <v>main_005a_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_001_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2607">
-        <v>27591</v>
+        <v>47372</v>
       </c>
       <c r="D2607" t="str">
         <v/>
@@ -52542,18 +52542,18 @@
         <v>1</v>
       </c>
       <c r="F2607" t="str">
-        <v>4b00b088a8d8a8c0bbfc02b07859c88ca36f9a403bfa5b28c0aaeae246b66e2e</v>
+        <v>86544d60bd6ddcc961b2914b440fb075b745c0f03c2968c87a7a19015cefe091</v>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2608" t="str">
-        <v>main_005a_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_001_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2608">
-        <v>27669</v>
+        <v>47504</v>
       </c>
       <c r="D2608" t="str">
         <v/>
@@ -52562,18 +52562,18 @@
         <v>1</v>
       </c>
       <c r="F2608" t="str">
-        <v>b55fc2434bdf9c205dac59ac87d0ede983f291b4c4187587ab1550a681646f1f</v>
+        <v>d8c74afaf5505ea579390c8fea88c3f98701e9aa74fbe2921f54c62743e0ec84</v>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="B2609" t="str">
-        <v>main_005a_005_dialog_english.dialog</v>
+        <v>main_005_001_dialog_english.dialog</v>
       </c>
       <c r="C2609">
-        <v>22217</v>
+        <v>38227</v>
       </c>
       <c r="D2609" t="str">
         <v/>
@@ -52582,18 +52582,18 @@
         <v>1</v>
       </c>
       <c r="F2609" t="str">
-        <v>85e5161a36413748affc39aba463c7dffad7257265468b82f47b10b6998a1cf9</v>
+        <v>a4bca3aaace2c1c54bc277d3d34effccf27fbd14fd1447f8aab74e91589b1750</v>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="B2610" t="str">
-        <v>main_005a_005_dialog_japanese.dialog</v>
+        <v>main_005_001_dialog_japanese.dialog</v>
       </c>
       <c r="C2610">
-        <v>30979</v>
+        <v>56677</v>
       </c>
       <c r="D2610" t="str">
         <v/>
@@ -52602,18 +52602,18 @@
         <v>1</v>
       </c>
       <c r="F2610" t="str">
-        <v>e20659fc5e481713d7641c1b4e25812711f1d67b0fb02710bf7c56a832d3f4c3</v>
+        <v>13ba3ae4177c8e4cdfa40c04cfea100350d514cd44c8d27bb67f47bdc7a0fafb</v>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="B2611" t="str">
-        <v>main_005a_005_dialog_korean.dialog</v>
+        <v>main_005_001_dialog_korean.dialog</v>
       </c>
       <c r="C2611">
-        <v>30051</v>
+        <v>50805</v>
       </c>
       <c r="D2611" t="str">
         <v/>
@@ -52622,18 +52622,18 @@
         <v>1</v>
       </c>
       <c r="F2611" t="str">
-        <v>77e018b38a92bcca75492db02bca05e261dcac1d4a957340c4c6295e1c2433a9</v>
+        <v>a25e91a1371a0b455f3f7d8d8d3afdc966beb5ecf6429d4313191f87b65e8179</v>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2612" t="str">
-        <v>main_005b_001_dialog_chinesesimplified.dialog</v>
+        <v>main_005_002_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2612">
-        <v>28673</v>
+        <v>29694</v>
       </c>
       <c r="D2612" t="str">
         <v/>
@@ -52642,18 +52642,18 @@
         <v>1</v>
       </c>
       <c r="F2612" t="str">
-        <v>f2ee4243f4c13c40f2e6ef16a1511f14dbc62dcd2aa8a0766ea2a460e4792289</v>
+        <v>b61d5bae54a0b4afd3ef08e3b834e520b42d195f9bfdccd31a731523254e92d3</v>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2613" t="str">
-        <v>main_005b_001_dialog_chinesetraditional.dialog</v>
+        <v>main_005_002_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2613">
-        <v>28755</v>
+        <v>29774</v>
       </c>
       <c r="D2613" t="str">
         <v/>
@@ -52662,18 +52662,18 @@
         <v>1</v>
       </c>
       <c r="F2613" t="str">
-        <v>e058d8cb1e2c537244be5b7402488a60359b5d56117512a6f5a16a6b00506592</v>
+        <v>ccbe45c72a7f0ae920113891d1577884ebcc03250c4ecadec9c1a4a0c74198a9</v>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="B2614" t="str">
-        <v>main_005b_001_dialog_english.dialog</v>
+        <v>main_005_002_dialog_english.dialog</v>
       </c>
       <c r="C2614">
-        <v>24091</v>
+        <v>23226</v>
       </c>
       <c r="D2614" t="str">
         <v/>
@@ -52682,18 +52682,18 @@
         <v>1</v>
       </c>
       <c r="F2614" t="str">
-        <v>3b5b0d2a1fff978fb43edf6f3943b4af8bb923ce5d18d8926a9a077d6f31444b</v>
+        <v>8662a59043879c5baee5323d9ba1631f1d6aa12c3359a25e86980b831480424a</v>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="B2615" t="str">
-        <v>main_005b_001_dialog_japanese.dialog</v>
+        <v>main_005_002_dialog_japanese.dialog</v>
       </c>
       <c r="C2615">
-        <v>32509</v>
+        <v>34797</v>
       </c>
       <c r="D2615" t="str">
         <v/>
@@ -52702,18 +52702,18 @@
         <v>1</v>
       </c>
       <c r="F2615" t="str">
-        <v>6ccef533abf3b3f96e91f0d51a2df21861e0e2a44b703d4b60f6170c900d4ebd</v>
+        <v>ced40ce00f2b02c569b9951f8bb35867f1f8411152c6bb565e6a97f3ff001862</v>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="B2616" t="str">
-        <v>main_005b_001_dialog_korean.dialog</v>
+        <v>main_005_002_dialog_korean.dialog</v>
       </c>
       <c r="C2616">
-        <v>31007</v>
+        <v>32402</v>
       </c>
       <c r="D2616" t="str">
         <v/>
@@ -52722,18 +52722,18 @@
         <v>1</v>
       </c>
       <c r="F2616" t="str">
-        <v>57b3b260d2d8cc62540b550d41124a08490e745b9ba7d747002cd412c89b3ece</v>
+        <v>353094b62109d7f6d9fda32dda1e8c3ace1966ffe57cb605c1105cd24fbc7a61</v>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2617" t="str">
-        <v>main_005b_002_dialog_chinesesimplified.dialog</v>
+        <v>main_005_003_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2617">
-        <v>21788</v>
+        <v>13333</v>
       </c>
       <c r="D2617" t="str">
         <v/>
@@ -52742,18 +52742,18 @@
         <v>1</v>
       </c>
       <c r="F2617" t="str">
-        <v>5a9bb62cc92e491385303bd1b48596019d2de3e15f315027a6664493be737eb0</v>
+        <v>c8803dbc08f5e7a3c37c3503783cc9edc45aadec52500636087ef08eb36015c3</v>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2618" t="str">
-        <v>main_005b_002_dialog_chinesetraditional.dialog</v>
+        <v>main_005_003_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2618">
-        <v>21848</v>
+        <v>13371</v>
       </c>
       <c r="D2618" t="str">
         <v/>
@@ -52762,18 +52762,18 @@
         <v>1</v>
       </c>
       <c r="F2618" t="str">
-        <v>e89cdc4a30c72824dbf33329eac12cc1cf112d1b70bab6a7e3518c93e4a4ae66</v>
+        <v>f1ccc2b11f2369fb8eec5d8760265dd3264400b95a13344bfb0ea8bf5564a12c</v>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="B2619" t="str">
-        <v>main_005b_002_dialog_english.dialog</v>
+        <v>main_005_003_dialog_english.dialog</v>
       </c>
       <c r="C2619">
-        <v>18324</v>
+        <v>10935</v>
       </c>
       <c r="D2619" t="str">
         <v/>
@@ -52782,18 +52782,18 @@
         <v>1</v>
       </c>
       <c r="F2619" t="str">
-        <v>618683810c3fe58d940f4616a231754bf5dd18e4fc29e71b051280bf3883ed23</v>
+        <v>8fbc893d3a18c04dffbee95ed60262f4ae594f465a57254f51b2a8605c47a301</v>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="B2620" t="str">
-        <v>main_005b_002_dialog_japanese.dialog</v>
+        <v>main_005_003_dialog_japanese.dialog</v>
       </c>
       <c r="C2620">
-        <v>25169</v>
+        <v>14825</v>
       </c>
       <c r="D2620" t="str">
         <v/>
@@ -52802,18 +52802,18 @@
         <v>1</v>
       </c>
       <c r="F2620" t="str">
-        <v>be783784e0b285b9f28b1d51a9565a37eccea00a4f280051b9e19aaa310a3c58</v>
+        <v>a0769328a9eb51de6151b711adf94dc24f4cab106506159c23e9598fbe20cff2</v>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="B2621" t="str">
-        <v>main_005b_002_dialog_korean.dialog</v>
+        <v>main_005_003_dialog_korean.dialog</v>
       </c>
       <c r="C2621">
-        <v>22994</v>
+        <v>13609</v>
       </c>
       <c r="D2621" t="str">
         <v/>
@@ -52822,18 +52822,18 @@
         <v>1</v>
       </c>
       <c r="F2621" t="str">
-        <v>9565b7a608cb1eac072831eba3fca2e8930bd5756360a0827e1c6d5fb3c7c28e</v>
+        <v>2158c90afc35b23acee7d4925efce1a07476559f53af0a45e0910df6dbe0eb68</v>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2622" t="str">
-        <v>main_005b_003_dialog_chinesesimplified.dialog</v>
+        <v>main_005_004_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2622">
-        <v>31366</v>
+        <v>38115</v>
       </c>
       <c r="D2622" t="str">
         <v/>
@@ -52842,18 +52842,18 @@
         <v>1</v>
       </c>
       <c r="F2622" t="str">
-        <v>cf918603c51c65435cae4654e1b5e26e543f7048a1e7ef61ac93c317b28cc5f4</v>
+        <v>930f546eef2053957c01fea6f0ec432960ac9435fc0ec4dcfb73843206fe3627</v>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2623" t="str">
-        <v>main_005b_003_dialog_chinesetraditional.dialog</v>
+        <v>main_005_004_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2623">
-        <v>31450</v>
+        <v>38207</v>
       </c>
       <c r="D2623" t="str">
         <v/>
@@ -52862,18 +52862,18 @@
         <v>1</v>
       </c>
       <c r="F2623" t="str">
-        <v>2ef6c7b308c05e75e0b2789257007f1d6a413b32b745f039bd1c7b7d2db2c89a</v>
+        <v>dc7bc669c7e6a88b2a7ecd5a151be2dab7723427c9f9252cee1079a70247dad7</v>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="B2624" t="str">
-        <v>main_005b_003_dialog_english.dialog</v>
+        <v>main_005_004_dialog_english.dialog</v>
       </c>
       <c r="C2624">
-        <v>25325</v>
+        <v>30119</v>
       </c>
       <c r="D2624" t="str">
         <v/>
@@ -52882,18 +52882,18 @@
         <v>1</v>
       </c>
       <c r="F2624" t="str">
-        <v>0746752cef70d21f9bb78f141b259f747af16f5498cd66efe45cf2a603df4df6</v>
+        <v>d69cd10afd806c1fca5737b05052a413c7c6867a2fc1c822a16f513bd38df2b8</v>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="B2625" t="str">
-        <v>main_005b_003_dialog_japanese.dialog</v>
+        <v>main_005_004_dialog_japanese.dialog</v>
       </c>
       <c r="C2625">
-        <v>36671</v>
+        <v>45716</v>
       </c>
       <c r="D2625" t="str">
         <v/>
@@ -52902,18 +52902,18 @@
         <v>1</v>
       </c>
       <c r="F2625" t="str">
-        <v>ea642d8556df93de20f48f8ed9dcdd6fc9fe18f77fedae8c8e8ea84f07ba7db9</v>
+        <v>4ab1a9745f064a512c95bfe75265b5da11d219ceda003998e4756be6b318bfe8</v>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="B2626" t="str">
-        <v>main_005b_003_dialog_korean.dialog</v>
+        <v>main_005_004_dialog_korean.dialog</v>
       </c>
       <c r="C2626">
-        <v>34359</v>
+        <v>42343</v>
       </c>
       <c r="D2626" t="str">
         <v/>
@@ -52922,18 +52922,18 @@
         <v>1</v>
       </c>
       <c r="F2626" t="str">
-        <v>b0c509d655fb4f7715ccbb240958d4891f1044980b517b2d06ba7d3a96ec6bc3</v>
+        <v>a92f18d25413f42463f65de63ed06e4ab080fb3067647caa611bcbd2f0abf374</v>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2627" t="str">
-        <v>main_005b_004_dialog_chinesesimplified.dialog</v>
+        <v>main_005_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2627">
-        <v>30007</v>
+        <v>22580</v>
       </c>
       <c r="D2627" t="str">
         <v/>
@@ -52942,18 +52942,18 @@
         <v>1</v>
       </c>
       <c r="F2627" t="str">
-        <v>c872d390804baaf8e3d14c8123cafc47a86cd33ad20e6234772e36c84acdd49e</v>
+        <v>f62e404a92552df77be39f515bf9a920599dd2b30621cd98bc1c2d411556c1fd</v>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2628" t="str">
-        <v>main_005b_004_dialog_chinesetraditional.dialog</v>
+        <v>main_005_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2628">
-        <v>30087</v>
+        <v>22642</v>
       </c>
       <c r="D2628" t="str">
         <v/>
@@ -52962,18 +52962,18 @@
         <v>1</v>
       </c>
       <c r="F2628" t="str">
-        <v>ff4d5bcbf70d65d903e52b1797ae9d7e301f8da8348bf3aa69eebc0d32519d97</v>
+        <v>67dad911ded82d2c21bc212dd109ffbb8a8b01e976000849da86dc5f1d3d958a</v>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="B2629" t="str">
-        <v>main_005b_004_dialog_english.dialog</v>
+        <v>main_005_005_dialog_english.dialog</v>
       </c>
       <c r="C2629">
-        <v>24378</v>
+        <v>18502</v>
       </c>
       <c r="D2629" t="str">
         <v/>
@@ -52982,18 +52982,18 @@
         <v>1</v>
       </c>
       <c r="F2629" t="str">
-        <v>8531787ba535dfc6be9e8c7ae6c41f681f0aa1db64ba4323b9613939b9cf0812</v>
+        <v>e662ac7d355f00da83a18c0ef7e0747649df5bc170ecedfbf9e81f408e1024ff</v>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2630" t="str">
-        <v>main_005b_004_dialog_japanese.dialog</v>
+        <v>main_005_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2630">
-        <v>35724</v>
+        <v>25738</v>
       </c>
       <c r="D2630" t="str">
         <v/>
@@ -53002,18 +53002,18 @@
         <v>1</v>
       </c>
       <c r="F2630" t="str">
-        <v>a4fe340dc0a8e600b3a22287b7e910bebb0d6bcd40b8d5506f378363b211c6b8</v>
+        <v>87c23c308777a6e960e235073b271e3d440b42bcf68e8d850a7681bc0be393ab</v>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="B2631" t="str">
-        <v>main_005b_004_dialog_korean.dialog</v>
+        <v>main_005_005_dialog_korean.dialog</v>
       </c>
       <c r="C2631">
-        <v>33241</v>
+        <v>23812</v>
       </c>
       <c r="D2631" t="str">
         <v/>
@@ -53022,18 +53022,18 @@
         <v>1</v>
       </c>
       <c r="F2631" t="str">
-        <v>83513b7972f3df41c620497abef9576286d22ff54fc0cae760cb654c049b8105</v>
+        <v>7440e74880f0c7592990d83168f434d0a5999ce7fa808daede1c9b96f4f95ac2</v>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2632" t="str">
-        <v>main_005b_005_dialog_chinesesimplified.dialog</v>
+        <v>main_005_006_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2632">
-        <v>31730</v>
+        <v>25038</v>
       </c>
       <c r="D2632" t="str">
         <v/>
@@ -53042,18 +53042,18 @@
         <v>1</v>
       </c>
       <c r="F2632" t="str">
-        <v>c3dd7749412db7beb2f1d945383ea5578c7f38ecfb17b30c42ef393c7e99d94a</v>
+        <v>3b7885b6a75457b80b09ffe8daf554035f7440a8b64d326cd924222e6ff4c25c</v>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2633" t="str">
-        <v>main_005b_005_dialog_chinesetraditional.dialog</v>
+        <v>main_005_006_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2633">
-        <v>31818</v>
+        <v>25106</v>
       </c>
       <c r="D2633" t="str">
         <v/>
@@ -53062,18 +53062,18 @@
         <v>1</v>
       </c>
       <c r="F2633" t="str">
-        <v>0030616376b86140583a97c348875ab0901e4abac38d3db6705962d1f8ebcb57</v>
+        <v>d186344b66b1f8d89ed925df75e1ab72f1e53c7f892277491a3b0030ca0a51c4</v>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="B2634" t="str">
-        <v>main_005b_005_dialog_english.dialog</v>
+        <v>main_005_006_dialog_english.dialog</v>
       </c>
       <c r="C2634">
-        <v>25891</v>
+        <v>20304</v>
       </c>
       <c r="D2634" t="str">
         <v/>
@@ -53082,18 +53082,18 @@
         <v>1</v>
       </c>
       <c r="F2634" t="str">
-        <v>b0ccd5c8c1c19f84c8ae28bab4b266d09e2cf98662428184d08c7487bf407ef4</v>
+        <v>6db87ea15e480d73decd5de8a7e3b6e988cc4f38720638a0f23a617e8217d2f4</v>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="B2635" t="str">
-        <v>main_005b_005_dialog_japanese.dialog</v>
+        <v>main_005_006_dialog_japanese.dialog</v>
       </c>
       <c r="C2635">
-        <v>36973</v>
+        <v>31176</v>
       </c>
       <c r="D2635" t="str">
         <v/>
@@ -53102,18 +53102,18 @@
         <v>1</v>
       </c>
       <c r="F2635" t="str">
-        <v>6c111a175b9cb53cfce2ef523e20a0aaedf4070de9fce36bb1335d36310fcca2</v>
+        <v>9bc6dcfaa27374cac56ab58fa51b66b5d931a48eecb0ccae27e5b08050f0f482</v>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="B2636" t="str">
-        <v>main_005b_005_dialog_korean.dialog</v>
+        <v>main_005_006_dialog_korean.dialog</v>
       </c>
       <c r="C2636">
-        <v>35473</v>
+        <v>28656</v>
       </c>
       <c r="D2636" t="str">
         <v/>
@@ -53122,18 +53122,18 @@
         <v>1</v>
       </c>
       <c r="F2636" t="str">
-        <v>4b6191d28cfed527da85ff7d8cf6bdc4646eb3ee51ae3343084ced2db13f38ca</v>
+        <v>22819cf3c49367464764a210e3f4c63458fbcdd1e3bef4b8faab1e53968609e7</v>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2637" t="str">
-        <v>main_005b_006_dialog_chinesesimplified.dialog</v>
+        <v>main_005_007_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2637">
-        <v>24351</v>
+        <v>19450</v>
       </c>
       <c r="D2637" t="str">
         <v/>
@@ -53142,18 +53142,18 @@
         <v>1</v>
       </c>
       <c r="F2637" t="str">
-        <v>73f97b2a4883370b6861bfa443e1be13d0db875da13d92a0e5f8e91f13f1071f</v>
+        <v>ecc4f8834c59ef5ad24bba38acd46fa2e6f17c91a19a9fdf828bb667c025a317</v>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2638" t="str">
-        <v>main_005b_006_dialog_chinesetraditional.dialog</v>
+        <v>main_005_007_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2638">
-        <v>24417</v>
+        <v>19506</v>
       </c>
       <c r="D2638" t="str">
         <v/>
@@ -53162,18 +53162,18 @@
         <v>1</v>
       </c>
       <c r="F2638" t="str">
-        <v>0a63c65e77e80617c30a515540df37764edb5e0f669e92bc18c2589f813d5fb1</v>
+        <v>1a1ce71a727874e5ccfeb4ea74b736629701de9e04dda3cdd2ec73be8185de0f</v>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="B2639" t="str">
-        <v>main_005b_006_dialog_english.dialog</v>
+        <v>main_005_007_dialog_english.dialog</v>
       </c>
       <c r="C2639">
-        <v>19827</v>
+        <v>15666</v>
       </c>
       <c r="D2639" t="str">
         <v/>
@@ -53182,18 +53182,18 @@
         <v>1</v>
       </c>
       <c r="F2639" t="str">
-        <v>71db31d9baa649d5047a619e145f8493648a7b64fea28bb348e6fc55f8bfc576</v>
+        <v>6a322698bb9c8ba68b285f1e914982f3d06e2c2bfb42d8748ad6760210f5dc56</v>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="B2640" t="str">
-        <v>main_005b_006_dialog_japanese.dialog</v>
+        <v>main_005_007_dialog_japanese.dialog</v>
       </c>
       <c r="C2640">
-        <v>28858</v>
+        <v>22550</v>
       </c>
       <c r="D2640" t="str">
         <v/>
@@ -53202,18 +53202,18 @@
         <v>1</v>
       </c>
       <c r="F2640" t="str">
-        <v>8e3b6db210f2a2678e3da27b51725cdc878dd899cbc720f4488aa21f468955f6</v>
+        <v>94486750114b14d5cca8bd07b9e1e5fe494c000f47451307f32ddbb931c42a9b</v>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="B2641" t="str">
-        <v>main_005b_006_dialog_korean.dialog</v>
+        <v>main_005_007_dialog_korean.dialog</v>
       </c>
       <c r="C2641">
-        <v>27987</v>
+        <v>20969</v>
       </c>
       <c r="D2641" t="str">
         <v/>
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="F2641" t="str">
-        <v>c31870031e1e187c15aae781394ac2d94c0a504d955661c507f9747dc7e5d423</v>
+        <v>7e3d8ef9249937ce088a826ba3fbe329453bbc8ef7070f7d5defc27f2b957d5a</v>
       </c>
     </row>
     <row r="2642">
@@ -57027,13 +57027,13 @@
     </row>
     <row r="2832">
       <c r="A2832" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2832" t="str">
-        <v>main_015_005_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2832">
-        <v>21771</v>
+        <v>246</v>
       </c>
       <c r="D2832" t="str">
         <v/>
@@ -57042,18 +57042,18 @@
         <v>1</v>
       </c>
       <c r="F2832" t="str">
-        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2833" t="str">
-        <v>main_015_005_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2833">
-        <v>21821</v>
+        <v>246</v>
       </c>
       <c r="D2833" t="str">
         <v/>
@@ -57062,18 +57062,18 @@
         <v>1</v>
       </c>
       <c r="F2833" t="str">
-        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="B2834" t="str">
-        <v>main_015_005_dialog_english.dialog</v>
+        <v>main_015_005boo_dialog_english.dialog</v>
       </c>
       <c r="C2834">
-        <v>17951</v>
+        <v>246</v>
       </c>
       <c r="D2834" t="str">
         <v/>
@@ -57082,18 +57082,18 @@
         <v>1</v>
       </c>
       <c r="F2834" t="str">
-        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="B2835" t="str">
-        <v>main_015_005_dialog_japanese.dialog</v>
+        <v>main_015_005boo_dialog_japanese.dialog</v>
       </c>
       <c r="C2835">
-        <v>24640</v>
+        <v>246</v>
       </c>
       <c r="D2835" t="str">
         <v/>
@@ -57102,18 +57102,18 @@
         <v>1</v>
       </c>
       <c r="F2835" t="str">
-        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="B2836" t="str">
-        <v>main_015_005_dialog_korean.dialog</v>
+        <v>main_015_005boo_dialog_korean.dialog</v>
       </c>
       <c r="C2836">
-        <v>23749</v>
+        <v>246</v>
       </c>
       <c r="D2836" t="str">
         <v/>
@@ -57122,18 +57122,18 @@
         <v>1</v>
       </c>
       <c r="F2836" t="str">
-        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
+        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="B2837" t="str">
-        <v>main_015_005boo_dialog_chinesesimplified.dialog</v>
+        <v>main_015_005_dialog_chinesesimplified.dialog</v>
       </c>
       <c r="C2837">
-        <v>246</v>
+        <v>21771</v>
       </c>
       <c r="D2837" t="str">
         <v/>
@@ -57142,18 +57142,18 @@
         <v>1</v>
       </c>
       <c r="F2837" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>f7737ab9cd2f3749113d5a43bdc7d202ac67b95d32c3f98d3319f215b7576f89</v>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="B2838" t="str">
-        <v>main_015_005boo_dialog_chinesetraditional.dialog</v>
+        <v>main_015_005_dialog_chinesetraditional.dialog</v>
       </c>
       <c r="C2838">
-        <v>246</v>
+        <v>21821</v>
       </c>
       <c r="D2838" t="str">
         <v/>
@@ -57162,18 +57162,18 @@
         <v>1</v>
       </c>
       <c r="F2838" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>1b8c4d736edaf19838f8a0f4d79cf06469192119593638585d4b31dac52eccdc</v>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="B2839" t="str">
-        <v>main_015_005boo_dialog_english.dialog</v>
+        <v>main_015_005_dialog_english.dialog</v>
       </c>
       <c r="C2839">
-        <v>246</v>
+        <v>17951</v>
       </c>
       <c r="D2839" t="str">
         <v/>
@@ -57182,18 +57182,18 @@
         <v>1</v>
       </c>
       <c r="F2839" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>7826b3171017e1822acaaa404a09d0a709b50c7d4cc351cbd959aea5ce4fe3e5</v>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="B2840" t="str">
-        <v>main_015_005boo_dialog_japanese.dialog</v>
+        <v>main_015_005_dialog_japanese.dialog</v>
       </c>
       <c r="C2840">
-        <v>246</v>
+        <v>24640</v>
       </c>
       <c r="D2840" t="str">
         <v/>
@@ -57202,18 +57202,18 @@
         <v>1</v>
       </c>
       <c r="F2840" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>3e5079080761ee51eedd3edc92e947f150e6934d7811e7ec1da868ac312889ee</v>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="B2841" t="str">
-        <v>main_015_005boo_dialog_korean.dialog</v>
+        <v>main_015_005_dialog_korean.dialog</v>
       </c>
       <c r="C2841">
-        <v>246</v>
+        <v>23749</v>
       </c>
       <c r="D2841" t="str">
         <v/>
@@ -57222,7 +57222,7 @@
         <v>1</v>
       </c>
       <c r="F2841" t="str">
-        <v>8bfa4b9440962a3ddfce97d94596a4e0f32bfda3f8c0ad25a2cfa010f55bd1b6</v>
+        <v>41fbf9e948814907a0df888f16581d5b9a17f3b02b930c447bf31e370230445f</v>
       </c>
     </row>
     <row r="2842">
